--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2678BD39-2181-498C-B373-94CC0E7081B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E147C-8122-4851-B34A-5E74ED7A339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Выборка" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Ссылка на сайт</t>
-  </si>
-  <si>
-    <t>Тестировщик статично</t>
   </si>
   <si>
     <t>Комментарий</t>
@@ -1869,6 +1866,9 @@
   </si>
   <si>
     <t>https://delivery.gorynich.com/breakfast</t>
+  </si>
+  <si>
+    <t>Тестировщик</t>
   </si>
 </sst>
 </file>
@@ -2418,11 +2418,11 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2472,17 +2472,17 @@
         <v>8</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
@@ -2502,34 +2502,34 @@
         <v>124</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="N2" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A2,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -2545,34 +2545,34 @@
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="K3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="N3" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A3,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -2588,34 +2588,34 @@
         <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="N4" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A4,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -2631,34 +2631,34 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="N5" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A5,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Гришина Светлана Сергеевна")</f>
@@ -2674,27 +2674,27 @@
         <v>102</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
       <c r="K6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="N6" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A6,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Фишкин Сергей Анатольевич")</f>
@@ -2710,29 +2710,29 @@
         <v>127</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="10"/>
       <c r="K7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A7,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Фишкин Сергей Анатольевич")</f>
@@ -2748,29 +2748,29 @@
         <v>128</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H8" s="10"/>
       <c r="K8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A8,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -2786,26 +2786,26 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="10"/>
       <c r="K9" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N9" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A9,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Перминов Максим Сергеевич")</f>
@@ -2821,29 +2821,29 @@
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="10"/>
       <c r="K10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="N10" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A10,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Подоплелова Екатерина Николаевна")</f>
@@ -2859,29 +2859,29 @@
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H11" s="10"/>
       <c r="K11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N11" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A11,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -2897,26 +2897,26 @@
         <v>19</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="D12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="F12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="10"/>
       <c r="K12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N12" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A12,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Хакимзянова Диана Фаридовна")</f>
@@ -2932,27 +2932,27 @@
         <v>83</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
       <c r="K13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="N13" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A13,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -2968,26 +2968,26 @@
         <v>131</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="10"/>
       <c r="K14" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N14" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A14,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Мокшин Александр Александрович")</f>
@@ -3003,29 +3003,29 @@
         <v>138</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="10"/>
       <c r="K15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="N15" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A15,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Соповская Юлия Вячеславовна")</f>
@@ -3041,26 +3041,26 @@
         <v>152</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H16" s="10"/>
       <c r="L16" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N16" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A16,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3076,26 +3076,26 @@
         <v>3</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="10"/>
       <c r="K17" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N17" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A17,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Бабушкина Анастасия Сергеевна")</f>
@@ -3111,22 +3111,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="E18" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H18" s="10"/>
       <c r="N18" s="9" t="str">
@@ -3143,24 +3143,24 @@
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="F19" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
       <c r="K19" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N19" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A19,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -3176,32 +3176,32 @@
         <v>1</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="E20" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="F20" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="K20" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="M20" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="N20" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A20,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Поминов Максим Александрович")</f>
@@ -3217,33 +3217,33 @@
         <v>2</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="E21" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
       <c r="J21" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="L21" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="M21" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N21" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Кузнецова Елена Андреевна")</f>
@@ -3259,29 +3259,29 @@
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>106</v>
-      </c>
       <c r="E22" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N22" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3297,30 +3297,30 @@
         <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="J23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="M23" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N23" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A23,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3336,27 +3336,27 @@
         <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="L24" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N24" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A24,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3372,29 +3372,29 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="E25" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J25" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="N25" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A25,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3410,29 +3410,29 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="E26" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N26" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3448,29 +3448,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="E27" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N27" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A27,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3486,30 +3486,30 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>126</v>
-      </c>
       <c r="E28" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="J28" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="L28" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="M28" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N28" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A28,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3525,35 +3525,35 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>130</v>
-      </c>
       <c r="E29" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="L29" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="L29" s="20" t="s">
-        <v>133</v>
-      </c>
       <c r="M29" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N29" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3569,35 +3569,35 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="E30" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J30" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L30" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="L30" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="M30" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N30" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A30,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3613,32 +3613,32 @@
         <v>31</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="E31" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J31" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="M31" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N31" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A31,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Кузнецов Артемий Вадимович")</f>
@@ -3654,35 +3654,35 @@
         <v>32</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="E32" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J32" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="L32" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="M32" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N32" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A32,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Смирнова Анастасия Владимировна")</f>
@@ -3698,29 +3698,29 @@
         <v>35</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="E33" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N33" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A33,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3736,30 +3736,30 @@
         <v>36</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="E34" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
       <c r="J34" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N34" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Кузнецов Артемий Вадимович")</f>
@@ -3775,30 +3775,30 @@
         <v>37</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="E35" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="10"/>
       <c r="J35" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="K35" s="9" t="s">
-        <v>156</v>
-      </c>
       <c r="M35" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N35" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A35,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Кобылинский Ян Александрович")</f>
@@ -3814,29 +3814,29 @@
         <v>40</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N36" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A36,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3852,30 +3852,30 @@
         <v>41</v>
       </c>
       <c r="B37" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="D37" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="22" t="s">
-        <v>161</v>
-      </c>
       <c r="E37" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
       <c r="J37" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L37" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="L37" s="21" t="s">
-        <v>163</v>
-      </c>
       <c r="M37" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N37" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A37,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3891,32 +3891,32 @@
         <v>42</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="E38" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J38" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="M38" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N38" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A38,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Янина Полина Олеговна (день 3)")</f>
@@ -3932,29 +3932,29 @@
         <v>44</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="E39" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N39" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A39,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -3970,29 +3970,29 @@
         <v>45</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="E40" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N40" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A40,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -4008,29 +4008,29 @@
         <v>46</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>175</v>
-      </c>
       <c r="E41" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N41" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A41,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -4046,27 +4046,27 @@
         <v>47</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="E42" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="10"/>
       <c r="J42" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N42" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -4082,32 +4082,32 @@
         <v>49</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="E43" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J43" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K43" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>183</v>
-      </c>
       <c r="M43" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N43" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Аношкина Светлана Андреевна")</f>
@@ -4123,32 +4123,32 @@
         <v>50</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="E44" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J44" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K44" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="M44" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N44" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A44,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -4164,29 +4164,29 @@
         <v>51</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="E45" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N45" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -4202,29 +4202,29 @@
         <v>53</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>192</v>
-      </c>
       <c r="E46" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N46" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -4240,29 +4240,29 @@
         <v>55</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="E47" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N47" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -4278,33 +4278,33 @@
         <v>56</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>198</v>
-      </c>
       <c r="E48" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="10"/>
       <c r="J48" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="L48" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="K48" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="M48" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N48" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A48,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -4320,32 +4320,32 @@
         <v>57</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>202</v>
-      </c>
       <c r="E49" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J49" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L49" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="L49" s="20" t="s">
-        <v>204</v>
-      </c>
       <c r="M49" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N49" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A49,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -4361,32 +4361,32 @@
         <v>58</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="E50" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J50" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="K50" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>208</v>
-      </c>
       <c r="M50" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N50" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Уварова Екатерина Юрьевна")</f>
@@ -4402,35 +4402,35 @@
         <v>60</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="D51" s="16" t="s">
-        <v>210</v>
-      </c>
       <c r="E51" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J51" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L51" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="M51" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N51" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Смирнова Анастасия Владимировна")</f>
@@ -4446,36 +4446,36 @@
         <v>61</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>214</v>
-      </c>
       <c r="E52" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L52" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="M52" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N52" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Уварова Екатерина Юрьевна")</f>
@@ -4491,29 +4491,29 @@
         <v>62</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="E53" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N53" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -4529,29 +4529,29 @@
         <v>63</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>221</v>
-      </c>
       <c r="E54" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N54" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -4567,32 +4567,32 @@
         <v>64</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>224</v>
-      </c>
       <c r="E55" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N55" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A55,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -4608,30 +4608,30 @@
         <v>65</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="E56" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="10"/>
       <c r="J56" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="K56" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>229</v>
-      </c>
       <c r="M56" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N56" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A56,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Янина Полина Олеговна (день 1)")</f>
@@ -4647,32 +4647,32 @@
         <v>66</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>231</v>
-      </c>
       <c r="E57" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J57" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="K57" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K57" s="9" t="s">
-        <v>233</v>
-      </c>
       <c r="M57" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N57" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A57,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Чуланов Александр Александрович")</f>
@@ -4688,32 +4688,32 @@
         <v>67</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>235</v>
-      </c>
       <c r="E58" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N58" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A58,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Кузнецова Елена Андреевна")</f>
@@ -4729,36 +4729,36 @@
         <v>68</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="D59" s="22" t="s">
-        <v>238</v>
-      </c>
       <c r="E59" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I59" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="K59" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N59" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A59,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Берсенева Евгения Николаевна")</f>
@@ -4774,32 +4774,32 @@
         <v>69</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>243</v>
-      </c>
       <c r="E60" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J60" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="L60" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="L60" s="9" t="s">
-        <v>245</v>
-      </c>
       <c r="M60" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N60" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -4815,32 +4815,32 @@
         <v>70</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>247</v>
-      </c>
       <c r="E61" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J61" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="L61" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="L61" s="9" t="s">
-        <v>249</v>
-      </c>
       <c r="M61" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N61" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A61,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -4856,33 +4856,33 @@
         <v>71</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="10"/>
       <c r="J62" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="L62" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="K62" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="L62" s="9" t="s">
-        <v>252</v>
-      </c>
       <c r="M62" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N62" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Берсенева Евгения Николаевна")</f>
@@ -4898,32 +4898,32 @@
         <v>72</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="E63" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J63" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="K63" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="K63" s="9" t="s">
-        <v>256</v>
-      </c>
       <c r="M63" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N63" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A63,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Корунова Диана Игоревна")</f>
@@ -4939,27 +4939,27 @@
         <v>73</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>258</v>
-      </c>
       <c r="E64" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="10"/>
       <c r="J64" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N64" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -4975,30 +4975,30 @@
         <v>75</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C65" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="E65" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="10"/>
       <c r="J65" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N65" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Кобылинский Ян Александрович")</f>
@@ -5014,35 +5014,35 @@
         <v>76</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>264</v>
-      </c>
       <c r="E66" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J66" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="L66" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="L66" s="21" t="s">
-        <v>266</v>
-      </c>
       <c r="M66" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N66" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -5058,29 +5058,29 @@
         <v>77</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>268</v>
-      </c>
       <c r="E67" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N67" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -5096,32 +5096,32 @@
         <v>78</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D68" s="18" t="s">
-        <v>271</v>
-      </c>
       <c r="E68" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J68" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="L68" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="L68" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="M68" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N68" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -5137,36 +5137,36 @@
         <v>79</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>275</v>
-      </c>
       <c r="E69" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="10"/>
       <c r="I69" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="K69" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="K69" s="9" t="s">
+      <c r="L69" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="L69" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="M69" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N69" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A69,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Беликова Инга Эммануиловна")</f>
@@ -5182,30 +5182,30 @@
         <v>85</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C70" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="D70" s="22" t="s">
-        <v>281</v>
-      </c>
       <c r="E70" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N70" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -5221,32 +5221,32 @@
         <v>86</v>
       </c>
       <c r="B71" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="D71" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="D71" s="23" t="s">
-        <v>285</v>
-      </c>
       <c r="E71" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J71" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="K71" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K71" s="9" t="s">
-        <v>287</v>
-      </c>
       <c r="M71" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N71" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Стекачева Екатерина Александровна")</f>
@@ -5262,32 +5262,32 @@
         <v>87</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C72" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D72" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="D72" s="18" t="s">
-        <v>289</v>
-      </c>
       <c r="E72" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J72" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L72" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="L72" s="9" t="s">
-        <v>291</v>
-      </c>
       <c r="M72" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N72" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A72,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -5303,32 +5303,32 @@
         <v>88</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>293</v>
-      </c>
       <c r="E73" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J73" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="K73" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="K73" s="9" t="s">
-        <v>295</v>
-      </c>
       <c r="M73" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N73" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A73,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Желязко Дмитрий Викторович")</f>
@@ -5344,27 +5344,27 @@
         <v>90</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>297</v>
-      </c>
       <c r="E74" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="10"/>
       <c r="J74" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N74" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A74,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -5380,32 +5380,32 @@
         <v>95</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D75" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="D75" s="16" t="s">
-        <v>300</v>
-      </c>
       <c r="E75" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N75" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -5421,24 +5421,24 @@
         <v>105</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D76" s="18" t="s">
-        <v>303</v>
-      </c>
       <c r="E76" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="10"/>
       <c r="J76" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M76" s="12"/>
       <c r="N76" s="9" t="str">
@@ -5455,32 +5455,32 @@
         <v>106</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D77" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="D77" s="18" t="s">
-        <v>306</v>
-      </c>
       <c r="E77" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J77" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="L77" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="K77" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>308</v>
       </c>
       <c r="M77" s="12"/>
       <c r="N77" s="9" t="str">
@@ -5497,30 +5497,30 @@
         <v>108</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
       <c r="J78" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="L78" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="L78" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="M78" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N78" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A78,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -5536,35 +5536,35 @@
         <v>109</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D79" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D79" s="16" t="s">
-        <v>313</v>
-      </c>
       <c r="E79" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J79" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="K79" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="K79" s="9" t="s">
-        <v>315</v>
-      </c>
       <c r="L79" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N79" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A79,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Михайлова Анна Витальевна")</f>
@@ -5580,29 +5580,29 @@
         <v>112</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D80" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D80" s="16" t="s">
-        <v>317</v>
-      </c>
       <c r="E80" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N80" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A80,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -5618,32 +5618,32 @@
         <v>118</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="D81" s="18" t="s">
-        <v>320</v>
-      </c>
       <c r="E81" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N81" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A81,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Смирнова Анастасия Владимировна")</f>
@@ -5659,27 +5659,27 @@
         <v>121</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D82" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="D82" s="18" t="s">
-        <v>323</v>
-      </c>
       <c r="E82" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="10"/>
       <c r="J82" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M82" s="12"/>
       <c r="N82" s="9" t="str">
@@ -5696,32 +5696,32 @@
         <v>129</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D83" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>326</v>
-      </c>
       <c r="E83" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N83" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A83,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Желязко Дмитрий Викторович")</f>
@@ -5737,38 +5737,38 @@
         <v>132</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D84" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="E84" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F84" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>330</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I84" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="K84" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="L84" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="K84" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="L84" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="M84" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N84" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A84,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Берсенева Евгения Николаевна")</f>
@@ -5784,35 +5784,35 @@
         <v>133</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C85" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D85" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="D85" s="22" t="s">
-        <v>335</v>
-      </c>
       <c r="E85" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I85" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="L85" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="L85" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="M85" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N85" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A85,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -5828,36 +5828,36 @@
         <v>134</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C86" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D86" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="D86" s="22" t="s">
-        <v>340</v>
-      </c>
       <c r="E86" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L86" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="K86" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L86" s="21" t="s">
-        <v>342</v>
-      </c>
       <c r="M86" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N86" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A86,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Кузнецова Елена Андреевна")</f>
@@ -5873,26 +5873,26 @@
         <v>136</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D87" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="D87" s="18" t="s">
-        <v>344</v>
-      </c>
       <c r="E87" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M87" s="12"/>
       <c r="N87" s="9" t="str">
@@ -5909,32 +5909,32 @@
         <v>137</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C88" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D88" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="D88" s="18" t="s">
-        <v>347</v>
-      </c>
       <c r="E88" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J88" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="L88" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="L88" s="9" t="s">
-        <v>349</v>
-      </c>
       <c r="M88" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N88" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A88,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -5950,32 +5950,32 @@
         <v>143</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D89" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="D89" s="16" t="s">
-        <v>351</v>
-      </c>
       <c r="E89" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N89" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A89,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -5991,27 +5991,27 @@
         <v>158</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C90" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="D90" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="D90" s="23" t="s">
-        <v>354</v>
-      </c>
       <c r="E90" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="10"/>
       <c r="J90" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N90" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A90,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -6027,29 +6027,29 @@
         <v>159</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C91" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="D91" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="D91" s="23" t="s">
-        <v>357</v>
-      </c>
       <c r="E91" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N91" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A91,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -6065,29 +6065,29 @@
         <v>160</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C92" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D92" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="D92" s="23" t="s">
-        <v>360</v>
-      </c>
       <c r="E92" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M92" s="12"/>
       <c r="N92" s="9" t="str">
@@ -6104,19 +6104,19 @@
         <v>38</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C93" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="E93" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="E93" s="18" t="s">
-        <v>364</v>
-      </c>
       <c r="F93" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="10"/>
@@ -6134,19 +6134,19 @@
         <v>52</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D94" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="D94" s="18" t="s">
-        <v>366</v>
-      </c>
       <c r="E94" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="10"/>
@@ -6164,19 +6164,19 @@
         <v>74</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C95" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D95" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="D95" s="18" t="s">
-        <v>368</v>
-      </c>
       <c r="E95" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="10"/>
@@ -6194,24 +6194,24 @@
         <v>115</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>370</v>
-      </c>
       <c r="E96" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="10"/>
       <c r="K96" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N96" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A96,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -6227,24 +6227,24 @@
         <v>116</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="E97" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="10"/>
       <c r="K97" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N97" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A97,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -6260,24 +6260,24 @@
         <v>117</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C98" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>375</v>
-      </c>
       <c r="E98" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="10"/>
       <c r="K98" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N98" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A98,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Солнышкина")</f>
@@ -6293,24 +6293,24 @@
         <v>120</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C99" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>378</v>
-      </c>
       <c r="E99" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="10"/>
       <c r="K99" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N99" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A99,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -6326,24 +6326,24 @@
         <v>123</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C100" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>380</v>
-      </c>
       <c r="E100" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="10"/>
       <c r="K100" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N100" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A100,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Солнышкина")</f>
@@ -6359,26 +6359,26 @@
         <v>92</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C101" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="E101" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>383</v>
-      </c>
       <c r="F101" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H101" s="10"/>
       <c r="K101" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N101" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A101,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Белов Александр Сергеевич")</f>
@@ -6394,22 +6394,22 @@
         <v>94</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D102" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>386</v>
-      </c>
       <c r="E102" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F102" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H102" s="10"/>
       <c r="N102" s="9" t="str">
@@ -6426,26 +6426,26 @@
         <v>122</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D103" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="D103" s="18" t="s">
-        <v>388</v>
-      </c>
       <c r="E103" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103" s="10"/>
       <c r="K103" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N103" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A103,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Белов Александр Сергеевич")</f>
@@ -6461,22 +6461,22 @@
         <v>5</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="D104" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="E104" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="E104" s="18" t="s">
-        <v>391</v>
-      </c>
       <c r="F104" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H104" s="10"/>
       <c r="N104" s="9" t="str">
@@ -6493,22 +6493,22 @@
         <v>82</v>
       </c>
       <c r="B105" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="D105" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F105" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H105" s="10"/>
       <c r="N105" s="9" t="str">
@@ -6525,26 +6525,26 @@
         <v>96</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D106" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="E106" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H106" s="10"/>
       <c r="K106" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N106" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A106,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Михайлова Елена Викторовна")</f>
@@ -6560,26 +6560,26 @@
         <v>125</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D107" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="D107" s="18" t="s">
-        <v>397</v>
-      </c>
       <c r="E107" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H107" s="10"/>
       <c r="K107" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N107" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A107,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Язькова Александра Витальевна")</f>
@@ -6595,24 +6595,24 @@
         <v>153</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="E108" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E108" s="8" t="s">
-        <v>401</v>
-      </c>
       <c r="F108" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="10"/>
       <c r="K108" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N108" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A108,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -6628,26 +6628,26 @@
         <v>39</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C109" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D109" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="E109" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="E109" s="18" t="s">
-        <v>404</v>
-      </c>
       <c r="F109" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H109" s="10"/>
       <c r="K109" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N109" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A109,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Новоселова Валерия Сергеевна")</f>
@@ -6663,22 +6663,22 @@
         <v>100</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="E110" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="E110" s="8" t="s">
-        <v>408</v>
-      </c>
       <c r="F110" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H110" s="10"/>
       <c r="N110" s="9" t="str">
@@ -6695,22 +6695,22 @@
         <v>101</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C111" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>410</v>
-      </c>
       <c r="E111" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F111" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H111" s="10"/>
       <c r="N111" s="9" t="str">
@@ -6727,26 +6727,26 @@
         <v>103</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H112" s="10"/>
       <c r="K112" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N112" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A112,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Малафеева Ирина Константиновна")</f>
@@ -6762,26 +6762,26 @@
         <v>142</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C113" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D113" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="D113" s="18" t="s">
-        <v>414</v>
-      </c>
       <c r="E113" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H113" s="10"/>
       <c r="K113" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N113" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A113,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Малафеева Ирина Константиновна")</f>
@@ -6797,32 +6797,32 @@
         <v>7</v>
       </c>
       <c r="B114" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C114" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="D114" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="D114" s="24" t="s">
+      <c r="E114" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="E114" s="24" t="s">
+      <c r="F114" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J114" s="11" t="s">
         <v>418</v>
-      </c>
-      <c r="F114" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J114" s="11" t="s">
-        <v>419</v>
       </c>
       <c r="K114" s="25"/>
       <c r="L114" s="25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N114" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A114,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -6838,26 +6838,26 @@
         <v>11</v>
       </c>
       <c r="B115" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="C115" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="C115" s="27" t="s">
+      <c r="D115" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="D115" s="27" t="s">
-        <v>423</v>
-      </c>
       <c r="E115" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H115" s="10"/>
       <c r="I115" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N115" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A115,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -6873,26 +6873,26 @@
         <v>12</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C116" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="D116" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="D116" s="27" t="s">
-        <v>426</v>
-      </c>
       <c r="E116" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H116" s="10"/>
       <c r="I116" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N116" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A116,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -6908,32 +6908,32 @@
         <v>13</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C117" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="D117" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="D117" s="27" t="s">
-        <v>428</v>
-      </c>
       <c r="E117" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F117" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="G117" s="26" t="s">
-        <v>18</v>
       </c>
       <c r="H117" s="10"/>
       <c r="I117" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K117" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="L117" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="L117" s="9" t="s">
-        <v>430</v>
       </c>
       <c r="N117" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A117,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Валитова Карина Рамилевна")</f>
@@ -6949,34 +6949,34 @@
         <v>15</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C118" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="D118" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="D118" s="24" t="s">
+      <c r="E118" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="G118" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="E118" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="G118" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H118" s="10" t="s">
+      <c r="J118" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="J118" s="11" t="s">
+      <c r="K118" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="L118" s="25" t="s">
         <v>434</v>
-      </c>
-      <c r="K118" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="L118" s="25" t="s">
-        <v>435</v>
       </c>
       <c r="N118" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A118,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Валитова Карина Рамилевна")</f>
@@ -6992,26 +6992,26 @@
         <v>18</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C119" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="D119" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="D119" s="27" t="s">
-        <v>437</v>
-      </c>
       <c r="E119" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H119" s="10"/>
       <c r="I119" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N119" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A119,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -7027,26 +7027,26 @@
         <v>24</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C120" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="D120" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="D120" s="23" t="s">
-        <v>439</v>
-      </c>
       <c r="E120" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G120" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H120" s="10"/>
       <c r="K120" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N120" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A120,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Валитова Карина Рамилевна")</f>
@@ -7062,37 +7062,37 @@
         <v>30</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C121" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="D121" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="D121" s="24" t="s">
+      <c r="E121" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="G121" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I121" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="E121" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="F121" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="G121" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H121" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I121" s="9" t="s">
+      <c r="J121" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="J121" s="30" t="s">
+      <c r="K121" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="K121" s="25" t="s">
-        <v>444</v>
-      </c>
       <c r="L121" s="25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N121" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A121,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Неудачин Даниил Глебович")</f>
@@ -7108,26 +7108,26 @@
         <v>33</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C122" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="D122" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="D122" s="27" t="s">
-        <v>446</v>
-      </c>
       <c r="E122" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F122" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H122" s="10"/>
       <c r="I122" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N122" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A122,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -7143,29 +7143,29 @@
         <v>34</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C123" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="D123" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="D123" s="27" t="s">
-        <v>449</v>
-      </c>
       <c r="E123" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F123" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="G123" s="26" t="s">
-        <v>18</v>
       </c>
       <c r="H123" s="10"/>
       <c r="I123" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N123" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A123,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Валитова Карина Рамилевна")</f>
@@ -7181,35 +7181,35 @@
         <v>48</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C124" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="D124" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="D124" s="27" t="s">
-        <v>451</v>
-      </c>
       <c r="E124" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G124" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H124" s="10"/>
       <c r="I124" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="J124" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="J124" s="9" t="s">
+      <c r="K124" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="L124" s="9" t="s">
         <v>453</v>
-      </c>
-      <c r="K124" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="L124" s="9" t="s">
-        <v>454</v>
       </c>
       <c r="N124" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A124,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Валитова Карина Рамилевна")</f>
@@ -7225,26 +7225,26 @@
         <v>59</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C125" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D125" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="D125" s="27" t="s">
-        <v>456</v>
-      </c>
       <c r="E125" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H125" s="10"/>
       <c r="I125" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N125" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A125,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -7260,32 +7260,32 @@
         <v>80</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C126" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D126" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G126" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H126" s="10"/>
       <c r="I126" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N126" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A126,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Валитова Карина Рамилевна")</f>
@@ -7301,29 +7301,29 @@
         <v>81</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C127" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="D127" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="D127" s="27" t="s">
-        <v>460</v>
-      </c>
       <c r="E127" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H127" s="10"/>
       <c r="I127" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K127" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N127" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A127,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Луницына Анна Романовна")</f>
@@ -7339,35 +7339,35 @@
         <v>84</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C128" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="D128" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="D128" s="27" t="s">
-        <v>463</v>
-      </c>
       <c r="E128" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H128" s="10"/>
       <c r="I128" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="J128" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="J128" s="9" t="s">
+      <c r="K128" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="L128" s="9" t="s">
         <v>453</v>
-      </c>
-      <c r="K128" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="L128" s="9" t="s">
-        <v>454</v>
       </c>
       <c r="N128" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A128,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Неудачин Даниил Глебович")</f>
@@ -7383,29 +7383,29 @@
         <v>89</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C129" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="D129" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="D129" s="23" t="s">
-        <v>465</v>
-      </c>
       <c r="E129" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H129" s="10"/>
       <c r="K129" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="L129" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="L129" s="9" t="s">
-        <v>467</v>
       </c>
       <c r="N129" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A129,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Ерошкина Мария Александровна")</f>
@@ -7421,26 +7421,26 @@
         <v>91</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C130" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="D130" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="D130" s="18" t="s">
-        <v>469</v>
-      </c>
       <c r="E130" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H130" s="10"/>
       <c r="K130" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N130" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A130,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Фалалеева Анастасия Владимировна")</f>
@@ -7456,29 +7456,29 @@
         <v>93</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C131" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="D131" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="D131" s="27" t="s">
-        <v>472</v>
-      </c>
       <c r="E131" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H131" s="10"/>
       <c r="I131" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N131" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A131,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Валитова Карина Рамилевна")</f>
@@ -7494,26 +7494,26 @@
         <v>97</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C132" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="D132" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="D132" s="27" t="s">
-        <v>474</v>
-      </c>
       <c r="E132" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H132" s="10"/>
       <c r="I132" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N132" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A132,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -7529,26 +7529,26 @@
         <v>104</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C133" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="D133" s="8" t="s">
-        <v>476</v>
-      </c>
       <c r="E133" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H133" s="10"/>
       <c r="K133" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N133" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A133,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Фалалеева Анастасия Владимировна")</f>
@@ -7564,29 +7564,29 @@
         <v>107</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>478</v>
-      </c>
       <c r="E134" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F134" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H134" s="10"/>
       <c r="I134" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N134" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A134,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Валитова Карина Рамилевна")</f>
@@ -7602,35 +7602,35 @@
         <v>114</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C135" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="D135" s="27" t="s">
         <v>480</v>
       </c>
-      <c r="D135" s="27" t="s">
-        <v>481</v>
-      </c>
       <c r="E135" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H135" s="10"/>
       <c r="I135" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J135" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="K135" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="K135" s="15" t="s">
+      <c r="L135" s="9" t="s">
         <v>483</v>
-      </c>
-      <c r="L135" s="9" t="s">
-        <v>484</v>
       </c>
       <c r="N135" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A135,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Климцева Анна Евгеньевна")</f>
@@ -7646,26 +7646,26 @@
         <v>126</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C136" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="D136" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="D136" s="27" t="s">
-        <v>486</v>
-      </c>
       <c r="E136" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H136" s="10"/>
       <c r="I136" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N136" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A136,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -7681,29 +7681,29 @@
         <v>130</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C137" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="D137" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="D137" s="27" t="s">
-        <v>488</v>
-      </c>
       <c r="E137" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137" s="10"/>
       <c r="I137" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K137" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N137" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A137,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Львов Александр Анатольевич")</f>
@@ -7719,22 +7719,22 @@
         <v>135</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C138" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="D138" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="D138" s="18" t="s">
-        <v>491</v>
-      </c>
       <c r="E138" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F138" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G138" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H138" s="10"/>
       <c r="N138" s="9" t="str">
@@ -7751,22 +7751,22 @@
         <v>144</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C139" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="D139" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="D139" s="23" t="s">
-        <v>493</v>
-      </c>
       <c r="E139" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F139" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G139" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H139" s="10"/>
       <c r="N139" s="9" t="str">
@@ -7783,29 +7783,29 @@
         <v>154</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C140" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="D140" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="D140" s="27" t="s">
-        <v>495</v>
-      </c>
       <c r="E140" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H140" s="10"/>
       <c r="I140" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K140" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N140" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A140,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Виноградова Дарья Сергеевна")</f>
@@ -7821,32 +7821,32 @@
         <v>155</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C141" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="D141" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="D141" s="24" t="s">
+      <c r="E141" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J141" s="11" t="s">
         <v>498</v>
-      </c>
-      <c r="E141" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="F141" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H141" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J141" s="11" t="s">
-        <v>499</v>
       </c>
       <c r="K141" s="25"/>
       <c r="L141" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N141" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A141,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"")</f>
@@ -7862,25 +7862,25 @@
         <v>156</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C142" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D142" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="D142" s="24" t="s">
-        <v>502</v>
-      </c>
       <c r="E142" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F142" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G142" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K142" s="25"/>
       <c r="L142" s="25"/>
@@ -7898,37 +7898,37 @@
         <v>157</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C143" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="D143" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="D143" s="24" t="s">
-        <v>504</v>
-      </c>
       <c r="E143" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F143" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G143" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I143" s="9">
         <v>1500</v>
       </c>
       <c r="J143" s="30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K143" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L143" s="25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N143" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A143,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Львов Александр Анатольевич")</f>
@@ -7944,24 +7944,24 @@
         <v>43</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C144" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="D144" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="D144" s="18" t="s">
+      <c r="E144" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="E144" s="18" t="s">
-        <v>508</v>
-      </c>
       <c r="F144" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G144" s="9"/>
       <c r="H144" s="10"/>
       <c r="K144" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N144" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A144,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Максимова Ольга Олеговна")</f>
@@ -7977,24 +7977,24 @@
         <v>98</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C145" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="D145" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="D145" s="13" t="s">
-        <v>511</v>
-      </c>
       <c r="E145" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="10"/>
       <c r="K145" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N145" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A145,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -8010,27 +8010,27 @@
         <v>99</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G146" s="9"/>
       <c r="H146" s="10"/>
       <c r="K146" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L146" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N146" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A146,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -8046,27 +8046,27 @@
         <v>119</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C147" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D147" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="D147" s="13" t="s">
-        <v>515</v>
-      </c>
       <c r="E147" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="10"/>
       <c r="K147" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L147" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N147" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A147,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -8082,27 +8082,27 @@
         <v>139</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C148" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="D148" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="D148" s="18" t="s">
-        <v>518</v>
-      </c>
       <c r="E148" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G148" s="9"/>
       <c r="H148" s="10"/>
       <c r="K148" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L148" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N148" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A148,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -8118,29 +8118,29 @@
         <v>140</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H149" s="10"/>
       <c r="K149" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L149" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N149" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A149,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -8156,27 +8156,27 @@
         <v>141</v>
       </c>
       <c r="B150" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C150" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="D150" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="10"/>
       <c r="K150" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L150" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N150" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A150,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -8192,26 +8192,26 @@
         <v>145</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C151" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="D151" s="8" t="s">
-        <v>524</v>
-      </c>
       <c r="E151" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H151" s="10"/>
       <c r="K151" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N151" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A151,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -8227,26 +8227,26 @@
         <v>146</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C152" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D152" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="D152" s="8" t="s">
-        <v>526</v>
-      </c>
       <c r="E152" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F152" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H152" s="10"/>
       <c r="K152" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N152" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A152,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -8262,26 +8262,26 @@
         <v>147</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C153" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D153" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="D153" s="8" t="s">
-        <v>528</v>
-      </c>
       <c r="E153" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F153" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H153" s="10"/>
       <c r="K153" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N153" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A153,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -8297,27 +8297,27 @@
         <v>149</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="10"/>
       <c r="K154" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L154" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N154" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A154,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -8333,24 +8333,24 @@
         <v>151</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C155" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D155" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="D155" s="18" t="s">
-        <v>531</v>
-      </c>
       <c r="E155" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G155" s="9"/>
       <c r="H155" s="10"/>
       <c r="K155" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N155" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A155,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -8366,26 +8366,26 @@
         <v>110</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C156" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D156" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="E156" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="E156" s="8" t="s">
-        <v>534</v>
-      </c>
       <c r="F156" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G156" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H156" s="10"/>
       <c r="K156" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N156" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A156,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"нет участника")</f>
@@ -8401,24 +8401,24 @@
         <v>54</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C157" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="D157" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="D157" s="18" t="s">
+      <c r="E157" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="E157" s="18" t="s">
-        <v>537</v>
-      </c>
       <c r="F157" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G157" s="9"/>
       <c r="H157" s="10"/>
       <c r="K157" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N157" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A157,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Болотникова Анастасия Михайловна")</f>
@@ -8434,24 +8434,24 @@
         <v>111</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D158" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="E158" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="E158" s="8" t="s">
-        <v>541</v>
-      </c>
       <c r="F158" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G158" s="9"/>
       <c r="H158" s="10"/>
       <c r="K158" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N158" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A158,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Аборина Елена Сергеевна")</f>
@@ -8467,26 +8467,26 @@
         <v>113</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="E159" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="E159" s="8" t="s">
-        <v>545</v>
-      </c>
       <c r="F159" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H159" s="10"/>
       <c r="K159" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N159" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A159,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Фаткуллина Дина Ирековна")</f>
@@ -8502,26 +8502,26 @@
         <v>148</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C160" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D160" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="E160" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="E160" s="8" t="s">
-        <v>549</v>
-      </c>
       <c r="F160" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H160" s="10"/>
       <c r="K160" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N160" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A160,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -8537,26 +8537,26 @@
         <v>150</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C161" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="D161" s="8" t="s">
-        <v>551</v>
-      </c>
       <c r="E161" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F161" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G161" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="H161" s="10"/>
       <c r="K161" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N161" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A161,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -14563,7 +14563,7 @@
     <col min="16" max="16" width="58.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="13.2">
       <c r="B1" s="9">
         <v>1</v>
       </c>
@@ -14607,228 +14607,228 @@
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="13.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="31" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="409.6">
+      <c r="B4" s="9" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="P4" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:16" ht="13.2">
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="13.2">
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="13.2">
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="13.2">
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="13.2">
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="13.2">
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="13.2">
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="13.2">
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="13.2">
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="13.2">
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="13.2">
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="13.2">
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="16:16">
+    <row r="17" spans="16:16" ht="13.2">
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="16:16">
+    <row r="18" spans="16:16" ht="13.2">
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="16:16">
+    <row r="19" spans="16:16" ht="13.2">
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="16:16">
+    <row r="20" spans="16:16" ht="13.2">
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="16:16">
+    <row r="21" spans="16:16" ht="13.2">
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="16:16">
+    <row r="22" spans="16:16" ht="13.2">
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="16:16">
+    <row r="23" spans="16:16" ht="13.2">
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="16:16">
+    <row r="24" spans="16:16" ht="13.2">
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="16:16">
+    <row r="25" spans="16:16" ht="13.2">
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="16:16">
+    <row r="26" spans="16:16" ht="13.2">
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="16:16">
+    <row r="27" spans="16:16" ht="13.2">
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="16:16">
+    <row r="28" spans="16:16" ht="13.2">
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="16:16">
+    <row r="29" spans="16:16" ht="13.2">
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="16:16">
+    <row r="30" spans="16:16" ht="13.2">
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="16:16">
+    <row r="31" spans="16:16" ht="13.2">
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="16:16">
+    <row r="32" spans="16:16" ht="13.2">
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="16:16">
+    <row r="33" spans="16:16" ht="13.2">
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="16:16">
+    <row r="34" spans="16:16" ht="13.2">
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="16:16">
+    <row r="35" spans="16:16" ht="13.2">
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="16:16">
+    <row r="36" spans="16:16" ht="13.2">
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="16:16">
+    <row r="37" spans="16:16" ht="13.2">
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="16:16">
+    <row r="38" spans="16:16" ht="13.2">
       <c r="P38" s="6"/>
     </row>
     <row r="39" spans="16:16" ht="13.2">
@@ -17729,7 +17729,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -17738,7 +17738,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>0</v>
@@ -17759,7 +17759,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
@@ -17767,25 +17767,25 @@
         <v>102</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>41</v>
-      </c>
       <c r="E2" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="38" t="s">
         <v>568</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
@@ -17793,25 +17793,25 @@
         <v>132</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="E3" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>570</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>330</v>
-      </c>
       <c r="G3" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
@@ -17819,25 +17819,25 @@
         <v>15</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C4" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>432</v>
-      </c>
       <c r="E4" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="43" t="s">
         <v>571</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -17845,25 +17845,25 @@
         <v>30</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C5" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>441</v>
-      </c>
       <c r="E5" s="41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
@@ -17871,25 +17871,25 @@
         <v>48</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C6" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="D6" s="44" t="s">
-        <v>451</v>
-      </c>
       <c r="E6" s="44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
@@ -17897,25 +17897,25 @@
         <v>84</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>462</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>463</v>
-      </c>
       <c r="E7" s="44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
@@ -17923,25 +17923,25 @@
         <v>114</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C8" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>480</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="E8" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="38" t="s">
         <v>481</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>571</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
@@ -17949,25 +17949,25 @@
         <v>149</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E9" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="43" t="s">
         <v>573</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
@@ -17975,25 +17975,25 @@
         <v>21</v>
       </c>
       <c r="B10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>40</v>
-      </c>
       <c r="D10" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="38" t="s">
         <v>575</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E147C-8122-4851-B34A-5E74ED7A339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106C3621-3C7A-4B41-931E-29F8936BCDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="577">
   <si>
     <t>Партнер</t>
   </si>
@@ -2422,7 +2422,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="K163" sqref="K163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8567,18 +8567,48 @@
         <v>нет</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="13.8">
-      <c r="F162" s="25"/>
-      <c r="G162" s="26"/>
+    <row r="162" spans="1:15" ht="16.8">
+      <c r="A162" s="7">
+        <v>150</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H162" s="10"/>
-      <c r="K162" s="25"/>
-      <c r="L162" s="25"/>
+      <c r="K162" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N162" s="9" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A161,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),11,0),"""")"),"Салокина Наталья Андреевна")</f>
+        <v>Салокина Наталья Андреевна</v>
+      </c>
+      <c r="O162" s="9" t="str">
+        <f t="shared" ref="O162" ca="1" si="1">IF(K162=N162, "да", "нет")</f>
+        <v>нет</v>
+      </c>
     </row>
     <row r="163" spans="1:15" ht="13.8">
       <c r="F163" s="25"/>
       <c r="G163" s="26"/>
       <c r="H163" s="10"/>
-      <c r="K163" s="25"/>
+      <c r="K163" s="9" t="s">
+        <v>370</v>
+      </c>
       <c r="L163" s="25"/>
     </row>
     <row r="164" spans="1:15" ht="13.8">

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="344">
   <si>
     <t>Партнер</t>
   </si>
@@ -277,9 +277,6 @@
     <t>https://bruno.lucky-group.rest/</t>
   </si>
   <si>
-    <t>Смирнова Анастасия Владимировна</t>
-  </si>
-  <si>
     <t>Есть плед</t>
   </si>
   <si>
@@ -337,9 +334,6 @@
     <t>https://www.minisyrovarnya.com/restaurants/voronezh</t>
   </si>
   <si>
-    <t>Гришина Светлана Сергеевна</t>
-  </si>
-  <si>
     <t>г. Воронеж, Плехановская улица, 14Е</t>
   </si>
   <si>
@@ -425,6 +419,9 @@
   </si>
   <si>
     <t>https://leclick.ru/restaurant/donna-margarita</t>
+  </si>
+  <si>
+    <t>Стекачева Екатерина Александровна</t>
   </si>
   <si>
     <t xml:space="preserve">Настя </t>
@@ -981,9 +978,6 @@
   </si>
   <si>
     <t>https://probka.org/restaurants/mama-tuta-patriatch/</t>
-  </si>
-  <si>
-    <t>Стекачева Екатерина Александровна</t>
   </si>
   <si>
     <t>Пробка на Цветном</t>
@@ -2480,18 +2474,15 @@
       <c r="J17" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="L17" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N17" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C17,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Заменить ")</f>
-        <v>Заменить </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C17,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Поминов Максим Александрович")</f>
+        <v>Поминов Максим Александрович</v>
       </c>
       <c r="O17" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2506,10 +2497,10 @@
         <v>78</v>
       </c>
       <c r="C18" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>88</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>89</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>16</v>
@@ -2526,10 +2517,10 @@
         <v>17</v>
       </c>
       <c r="J18" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>21</v>
@@ -2551,10 +2542,10 @@
         <v>78</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>16</v>
@@ -2571,13 +2562,13 @@
         <v>17</v>
       </c>
       <c r="J19" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="L19" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>21</v>
@@ -2599,10 +2590,10 @@
         <v>78</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>96</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>97</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>16</v>
@@ -2619,10 +2610,10 @@
         <v>17</v>
       </c>
       <c r="J20" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>21</v>
@@ -2641,16 +2632,16 @@
         <v>8.0</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="F21" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2661,24 +2652,21 @@
         <v>волна 1</v>
       </c>
       <c r="H21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="L21" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="N21" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Гришина Светлана Сергеевна")</f>
-        <v>Гришина Светлана Сергеевна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кузнецова Татьяна Викторовна")</f>
+        <v>Кузнецова Татьяна Викторовна</v>
       </c>
       <c r="O21" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="22">
@@ -2686,16 +2674,16 @@
         <v>127.0</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>108</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>110</v>
       </c>
       <c r="F22" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2707,10 +2695,10 @@
       </c>
       <c r="H22" s="23"/>
       <c r="K22" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N22" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фишкин Сергей Анатольевич")</f>
@@ -2726,16 +2714,16 @@
         <v>9.0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>113</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>115</v>
       </c>
       <c r="F23" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A23,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2747,7 +2735,7 @@
       </c>
       <c r="H23" s="23"/>
       <c r="K23" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N23" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C23,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Перминов Максим Сергеевич")</f>
@@ -2763,16 +2751,16 @@
         <v>10.0</v>
       </c>
       <c r="B24" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>101</v>
-      </c>
       <c r="D24" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F24" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A24,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2784,10 +2772,10 @@
       </c>
       <c r="H24" s="23"/>
       <c r="K24" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N24" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A24,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Подоплелова Екатерина Николаевна")</f>
@@ -2803,16 +2791,16 @@
         <v>131.0</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>121</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>123</v>
       </c>
       <c r="F25" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A25,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2824,7 +2812,7 @@
       </c>
       <c r="H25" s="23"/>
       <c r="K25" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N25" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C25,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Мокшин Александр Александрович")</f>
@@ -2840,16 +2828,16 @@
         <v>138.0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F26" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2861,10 +2849,10 @@
       </c>
       <c r="H26" s="23"/>
       <c r="K26" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N26" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Соповская Юлия Вячеславовна")</f>
@@ -2880,16 +2868,16 @@
         <v>3.0</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>129</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>131</v>
       </c>
       <c r="F27" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A27,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2901,7 +2889,7 @@
       </c>
       <c r="H27" s="23"/>
       <c r="K27" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N27" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C27,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Бабушкина Анастасия Сергеевна")</f>
@@ -2917,13 +2905,13 @@
         <v>25.0</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>16</v>
@@ -2940,13 +2928,13 @@
         <v>17</v>
       </c>
       <c r="J28" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="N28" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C28,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Стекачева Екатерина Александровна")</f>
@@ -2954,7 +2942,7 @@
       </c>
       <c r="O28" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="29">
@@ -2962,13 +2950,13 @@
         <v>32.0</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>138</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>16</v>
@@ -2985,20 +2973,17 @@
         <v>17</v>
       </c>
       <c r="J29" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="L29" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K29" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>140</v>
-      </c>
       <c r="M29" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N29" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Заменить ")</f>
-        <v>Заменить </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Поминов Максим Александрович")</f>
+        <v>Поминов Максим Александрович</v>
       </c>
       <c r="O29" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3010,13 +2995,13 @@
         <v>36.0</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>141</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>142</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>16</v>
@@ -3031,13 +3016,13 @@
       </c>
       <c r="H30" s="23"/>
       <c r="J30" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>144</v>
-      </c>
       <c r="M30" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N30" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C30,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кузнецов Артемий Вадимович")</f>
@@ -3053,13 +3038,13 @@
         <v>42.0</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>146</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>16</v>
@@ -3076,13 +3061,13 @@
         <v>17</v>
       </c>
       <c r="J31" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="K31" s="13" t="s">
-        <v>148</v>
-      </c>
       <c r="M31" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N31" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C31,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
@@ -3098,13 +3083,13 @@
         <v>49.0</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>149</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>150</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>16</v>
@@ -3121,13 +3106,13 @@
         <v>17</v>
       </c>
       <c r="J32" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>152</v>
-      </c>
       <c r="M32" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N32" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C32,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Аношкина Светлана Андреевна")</f>
@@ -3143,13 +3128,13 @@
         <v>50.0</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>154</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>16</v>
@@ -3166,13 +3151,13 @@
         <v>17</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N33" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C33,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Репилов Иван Викторович")</f>
@@ -3188,13 +3173,13 @@
         <v>58.0</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>156</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>157</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>16</v>
@@ -3211,13 +3196,13 @@
         <v>17</v>
       </c>
       <c r="J34" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="K34" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="K34" s="13" t="s">
-        <v>159</v>
-      </c>
       <c r="M34" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N34" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Уварова Екатерина Юрьевна")</f>
@@ -3233,13 +3218,13 @@
         <v>65.0</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>161</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>16</v>
@@ -3254,13 +3239,13 @@
       </c>
       <c r="H35" s="11"/>
       <c r="J35" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N35" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C35,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
@@ -3276,13 +3261,13 @@
         <v>66.0</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>163</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>164</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>16</v>
@@ -3299,13 +3284,13 @@
         <v>17</v>
       </c>
       <c r="J36" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K36" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="K36" s="13" t="s">
-        <v>166</v>
-      </c>
       <c r="M36" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N36" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C36,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Чуланов Александр Александрович")</f>
@@ -3321,13 +3306,13 @@
         <v>67.0</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>167</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>168</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>16</v>
@@ -3344,13 +3329,13 @@
         <v>17</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>30</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N37" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C37,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кузнецова Елена Андреевна")</f>
@@ -3366,13 +3351,13 @@
         <v>71.0</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>16</v>
@@ -3387,16 +3372,16 @@
       </c>
       <c r="H38" s="23"/>
       <c r="J38" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N38" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C38,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Берсенева Евгения Николаевна")</f>
@@ -3412,13 +3397,13 @@
         <v>72.0</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>173</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>174</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>16</v>
@@ -3435,13 +3420,13 @@
         <v>17</v>
       </c>
       <c r="J39" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="M39" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N39" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C39,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Корунова Диана Игоревна")</f>
@@ -3457,13 +3442,13 @@
         <v>75.0</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>177</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>178</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>16</v>
@@ -3478,13 +3463,13 @@
       </c>
       <c r="H40" s="23"/>
       <c r="J40" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K40" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="K40" s="13" t="s">
-        <v>180</v>
-      </c>
       <c r="M40" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N40" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C40,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кобылинский Ян Александрович")</f>
@@ -3500,13 +3485,13 @@
         <v>88.0</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="26" t="s">
         <v>181</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>182</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>16</v>
@@ -3523,13 +3508,13 @@
         <v>17</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N41" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C41,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Желязко Дмитрий Викторович")</f>
@@ -3545,16 +3530,16 @@
         <v>115.0</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="E42" s="26" t="s">
         <v>185</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>186</v>
       </c>
       <c r="F42" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3566,7 +3551,7 @@
       </c>
       <c r="H42" s="23"/>
       <c r="K42" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N42" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -3582,16 +3567,16 @@
         <v>116.0</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>189</v>
-      </c>
       <c r="E43" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F43" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3603,7 +3588,7 @@
       </c>
       <c r="H43" s="23"/>
       <c r="K43" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N43" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -3619,16 +3604,16 @@
         <v>120.0</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>191</v>
-      </c>
       <c r="E44" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F44" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A44,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3656,16 +3641,16 @@
         <v>92.0</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="E45" s="26" t="s">
         <v>193</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>194</v>
       </c>
       <c r="F45" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3677,7 +3662,7 @@
       </c>
       <c r="H45" s="23"/>
       <c r="K45" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N45" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Белов Александр Сергеевич")</f>
@@ -3693,16 +3678,16 @@
         <v>96.0</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="E46" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="F46" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3714,7 +3699,7 @@
       </c>
       <c r="H46" s="23"/>
       <c r="K46" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N46" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Михайлова Елена Викторовна")</f>
@@ -3730,16 +3715,16 @@
         <v>153.0</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="E47" s="26" t="s">
         <v>201</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>202</v>
       </c>
       <c r="F47" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3751,7 +3736,7 @@
       </c>
       <c r="H47" s="23"/>
       <c r="K47" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N47" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Пасхина Анастасия Вадимовна")</f>
@@ -3767,16 +3752,16 @@
         <v>103.0</v>
       </c>
       <c r="B48" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="26" t="s">
-        <v>101</v>
-      </c>
       <c r="D48" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>204</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="F48" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A48,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3788,7 +3773,7 @@
       </c>
       <c r="H48" s="23"/>
       <c r="K48" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N48" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A48,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Малафеева Ирина Константиновна")</f>
@@ -3804,13 +3789,13 @@
         <v>104.0</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>207</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>208</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>35</v>
@@ -3825,7 +3810,7 @@
       </c>
       <c r="H49" s="23"/>
       <c r="K49" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N49" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C49,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фалалеева Анастасия Владимировна")</f>
@@ -3841,16 +3826,16 @@
         <v>147.0</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="E50" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>212</v>
       </c>
       <c r="F50" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3862,7 +3847,7 @@
       </c>
       <c r="H50" s="23"/>
       <c r="K50" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N50" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -3878,16 +3863,16 @@
         <v>111.0</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="E51" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>216</v>
       </c>
       <c r="F51" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3899,7 +3884,7 @@
       </c>
       <c r="H51" s="23"/>
       <c r="K51" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N51" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Аборина Елена Сергеевна")</f>
@@ -3915,16 +3900,16 @@
         <v>113.0</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="E52" s="26" t="s">
         <v>219</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>220</v>
       </c>
       <c r="F52" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3936,7 +3921,7 @@
       </c>
       <c r="H52" s="23"/>
       <c r="K52" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N52" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фаткуллина Дина Ирековна")</f>
@@ -3952,16 +3937,16 @@
         <v>148.0</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="E53" s="26" t="s">
         <v>223</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="F53" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3973,7 +3958,7 @@
       </c>
       <c r="H53" s="23"/>
       <c r="K53" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N53" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -3989,16 +3974,16 @@
         <v>62.0</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C54" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="E54" s="28" t="s">
         <v>227</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>228</v>
       </c>
       <c r="F54" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),4,0),"""")"),"Оффлайн")</f>
@@ -4012,7 +3997,7 @@
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
       <c r="K54" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L54" s="30"/>
       <c r="N54" s="13" t="str">
@@ -4029,13 +4014,13 @@
         <v>2.0</v>
       </c>
       <c r="B55" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="D55" s="31" t="s">
         <v>230</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>231</v>
       </c>
       <c r="E55" s="31" t="s">
         <v>16</v>
@@ -4050,13 +4035,13 @@
       </c>
       <c r="H55" s="23"/>
       <c r="J55" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K55" s="13" t="s">
         <v>30</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M55" s="10" t="s">
         <v>21</v>
@@ -4075,13 +4060,13 @@
         <v>31.0</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C56" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="31" t="s">
         <v>234</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>235</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>16</v>
@@ -4098,10 +4083,10 @@
         <v>17</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M56" s="10" t="s">
         <v>21</v>
@@ -4120,13 +4105,13 @@
         <v>106.0</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C57" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="31" t="s">
         <v>237</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>238</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>16</v>
@@ -4143,13 +4128,13 @@
         <v>17</v>
       </c>
       <c r="J57" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L57" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="M57" s="32"/>
       <c r="N57" s="13" t="str">
@@ -4166,13 +4151,13 @@
         <v>118.0</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C58" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>242</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>16</v>
@@ -4189,17 +4174,14 @@
         <v>17</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="M58" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N58" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C58,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Заменить ")</f>
-        <v>Заменить </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C58,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Поминов Максим Александрович")</f>
+        <v>Поминов Максим Александрович</v>
       </c>
       <c r="O58" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4211,13 +4193,13 @@
         <v>121.0</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C59" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" s="31" t="s">
         <v>244</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>245</v>
       </c>
       <c r="E59" s="31" t="s">
         <v>16</v>
@@ -4232,7 +4214,7 @@
       </c>
       <c r="H59" s="23"/>
       <c r="J59" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K59" s="13" t="s">
         <v>20</v>
@@ -4252,16 +4234,16 @@
         <v>122.0</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C60" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="D60" s="31" t="s">
-        <v>248</v>
-      </c>
       <c r="E60" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F60" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4273,7 +4255,7 @@
       </c>
       <c r="H60" s="23"/>
       <c r="K60" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N60" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Белов Александр Сергеевич")</f>
@@ -4289,16 +4271,16 @@
         <v>125.0</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C61" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="D61" s="31" t="s">
-        <v>250</v>
-      </c>
       <c r="E61" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F61" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A61,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4310,7 +4292,7 @@
       </c>
       <c r="H61" s="23"/>
       <c r="K61" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N61" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C61,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Язькова Александра Витальевна")</f>
@@ -4326,16 +4308,16 @@
         <v>39.0</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C62" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="E62" s="31" t="s">
         <v>253</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>254</v>
       </c>
       <c r="F62" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4347,7 +4329,7 @@
       </c>
       <c r="H62" s="23"/>
       <c r="K62" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N62" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Трифонова Ольга Александровна")</f>
@@ -4363,13 +4345,13 @@
         <v>91.0</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C63" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" s="31" t="s">
         <v>256</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>257</v>
       </c>
       <c r="E63" s="31" t="s">
         <v>35</v>
@@ -4384,7 +4366,7 @@
       </c>
       <c r="H63" s="23"/>
       <c r="K63" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N63" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C63,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фалалеева Анастасия Владимировна")</f>
@@ -4400,16 +4382,16 @@
         <v>43.0</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C64" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="D64" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="D64" s="31" t="s">
-        <v>259</v>
-      </c>
       <c r="E64" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F64" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4421,7 +4403,7 @@
       </c>
       <c r="H64" s="23"/>
       <c r="K64" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N64" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Максимова Ольга Олеговна")</f>
@@ -4437,16 +4419,16 @@
         <v>151.0</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C65" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D65" s="31" t="s">
-        <v>262</v>
-      </c>
       <c r="E65" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F65" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4458,7 +4440,7 @@
       </c>
       <c r="H65" s="23"/>
       <c r="K65" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N65" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4474,16 +4456,16 @@
         <v>54.0</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C66" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D66" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="E66" s="31" t="s">
         <v>265</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>266</v>
       </c>
       <c r="F66" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4495,7 +4477,7 @@
       </c>
       <c r="H66" s="23"/>
       <c r="K66" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N66" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Болотникова Анастасия Михайловна")</f>
@@ -4511,16 +4493,16 @@
         <v>108.0</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C67" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="D67" s="33" t="s">
-        <v>269</v>
-      </c>
       <c r="E67" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F67" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4534,7 +4516,7 @@
       <c r="I67" s="30"/>
       <c r="J67" s="30"/>
       <c r="K67" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L67" s="30"/>
       <c r="N67" s="13" t="str">
@@ -4551,16 +4533,16 @@
         <v>142.0</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C68" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="D68" s="33" t="s">
+      <c r="E68" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>272</v>
       </c>
       <c r="F68" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4573,10 +4555,10 @@
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
       <c r="J68" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K68" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L68" s="30"/>
       <c r="N68" s="13" t="str">
@@ -4593,16 +4575,16 @@
         <v>102.0</v>
       </c>
       <c r="B69" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="D69" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="D69" s="36" t="s">
-        <v>276</v>
-      </c>
       <c r="E69" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F69" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A69,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Доставка")</f>
@@ -4614,13 +4596,13 @@
       </c>
       <c r="H69" s="23"/>
       <c r="J69" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L69" s="37" t="s">
         <v>277</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="L69" s="37" t="s">
-        <v>278</v>
       </c>
       <c r="N69" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C69,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фишкин Сергей Анатольевич")</f>
@@ -4636,16 +4618,16 @@
         <v>19.0</v>
       </c>
       <c r="B70" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="C70" s="36" t="s">
-        <v>275</v>
-      </c>
       <c r="D70" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" s="36" t="s">
         <v>279</v>
-      </c>
-      <c r="E70" s="36" t="s">
-        <v>280</v>
       </c>
       <c r="F70" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4657,7 +4639,7 @@
       </c>
       <c r="H70" s="23"/>
       <c r="K70" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N70" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Хакимзянова Диана Фаридовна")</f>
@@ -4673,16 +4655,16 @@
         <v>83.0</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C71" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="E71" s="36" t="s">
         <v>283</v>
-      </c>
-      <c r="E71" s="36" t="s">
-        <v>284</v>
       </c>
       <c r="F71" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4694,10 +4676,10 @@
       </c>
       <c r="H71" s="23"/>
       <c r="K71" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N71" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4713,13 +4695,13 @@
         <v>56.0</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C72" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" s="36" t="s">
         <v>286</v>
-      </c>
-      <c r="D72" s="36" t="s">
-        <v>287</v>
       </c>
       <c r="E72" s="36" t="s">
         <v>16</v>
@@ -4734,13 +4716,13 @@
       </c>
       <c r="H72" s="23"/>
       <c r="J72" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L72" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L72" s="14" t="s">
-        <v>289</v>
       </c>
       <c r="M72" s="10" t="s">
         <v>21</v>
@@ -4759,13 +4741,13 @@
         <v>61.0</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C73" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D73" s="36" t="s">
         <v>290</v>
-      </c>
-      <c r="D73" s="36" t="s">
-        <v>291</v>
       </c>
       <c r="E73" s="36" t="s">
         <v>16</v>
@@ -4783,13 +4765,13 @@
       </c>
       <c r="I73" s="14"/>
       <c r="J73" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L73" s="14" t="s">
         <v>292</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="L73" s="14" t="s">
-        <v>293</v>
       </c>
       <c r="M73" s="10" t="s">
         <v>21</v>
@@ -4808,13 +4790,13 @@
         <v>79.0</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C74" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" s="36" t="s">
         <v>294</v>
-      </c>
-      <c r="D74" s="36" t="s">
-        <v>295</v>
       </c>
       <c r="E74" s="36" t="s">
         <v>16</v>
@@ -4829,16 +4811,16 @@
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="J74" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="K74" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L74" s="14" t="s">
         <v>297</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L74" s="14" t="s">
-        <v>298</v>
       </c>
       <c r="M74" s="10" t="s">
         <v>21</v>
@@ -4849,7 +4831,7 @@
       </c>
       <c r="O74" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="75">
@@ -4857,16 +4839,16 @@
         <v>98.0</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C75" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D75" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="D75" s="36" t="s">
-        <v>300</v>
-      </c>
       <c r="E75" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F75" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4878,7 +4860,7 @@
       </c>
       <c r="H75" s="23"/>
       <c r="K75" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N75" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4894,16 +4876,16 @@
         <v>149.0</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C76" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D76" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="D76" s="36" t="s">
-        <v>302</v>
-      </c>
       <c r="E76" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F76" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Доставка")</f>
@@ -4915,13 +4897,13 @@
       </c>
       <c r="H76" s="23"/>
       <c r="J76" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L76" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N76" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4937,16 +4919,16 @@
         <v>21.0</v>
       </c>
       <c r="B77" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="C77" s="38" t="s">
-        <v>275</v>
-      </c>
       <c r="D77" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F77" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Доставка")</f>
@@ -4958,16 +4940,16 @@
       </c>
       <c r="H77" s="30"/>
       <c r="I77" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J77" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="J77" s="34" t="s">
+      <c r="K77" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="L77" s="40" t="s">
         <v>306</v>
-      </c>
-      <c r="K77" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="L77" s="40" t="s">
-        <v>307</v>
       </c>
       <c r="N77" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -4983,13 +4965,13 @@
         <v>86.0</v>
       </c>
       <c r="B78" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="C78" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="D78" s="41" t="s">
         <v>309</v>
-      </c>
-      <c r="D78" s="41" t="s">
-        <v>310</v>
       </c>
       <c r="E78" s="41" t="s">
         <v>16</v>
@@ -5006,13 +4988,13 @@
         <v>17</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>312</v>
+        <v>134</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N78" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C78,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Стекачева Екатерина Александровна")</f>
@@ -5028,13 +5010,13 @@
         <v>160.0</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E79" s="41" t="s">
         <v>16</v>
@@ -5051,7 +5033,7 @@
         <v>17</v>
       </c>
       <c r="J79" s="25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K79" s="13" t="s">
         <v>20</v>
@@ -5071,13 +5053,13 @@
         <v>24.0</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E80" s="41" t="s">
         <v>35</v>
@@ -5108,13 +5090,13 @@
         <v>89.0</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E81" s="41" t="s">
         <v>35</v>
@@ -5129,10 +5111,10 @@
       </c>
       <c r="H81" s="23"/>
       <c r="K81" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N81" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C81,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Ерошкина Мария Александровна")</f>
@@ -10164,7 +10146,7 @@
       <sortCondition ref="B1:B81"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="K1:K916">
+  <conditionalFormatting sqref="K1:K27 K29:K73 K75:K916">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"нет участника"</formula>
     </cfRule>
@@ -10301,19 +10283,19 @@
         <v>78</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -10322,84 +10304,84 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="P3" s="44" t="s">
         <v>322</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="P4" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5">
@@ -13410,7 +13392,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>0</v>
@@ -13431,7 +13413,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
@@ -13439,25 +13421,25 @@
         <v>102.0</v>
       </c>
       <c r="B2" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>276</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3">
@@ -13474,13 +13456,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>25</v>
@@ -13500,16 +13482,16 @@
         <v>34</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G4" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" s="52" t="s">
         <v>341</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5">
@@ -13526,13 +13508,13 @@
         <v>41</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H5" s="34" t="s">
         <v>43</v>
@@ -13552,13 +13534,13 @@
         <v>52</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>54</v>
@@ -13578,13 +13560,13 @@
         <v>64</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H7" s="54" t="s">
         <v>65</v>
@@ -13604,13 +13586,13 @@
         <v>69</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>70</v>
@@ -13621,25 +13603,25 @@
         <v>149.0</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>302</v>
-      </c>
       <c r="E9" s="38" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10">
@@ -13647,25 +13629,25 @@
         <v>21.0</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>275</v>
-      </c>
       <c r="D10" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="345">
   <si>
     <t>Партнер</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>https://www.minisyrovarnya.com/restaurants/voronezh</t>
+  </si>
+  <si>
+    <t>Кузнецова Татьяна Викторовна</t>
   </si>
   <si>
     <t>г. Воронеж, Плехановская улица, 14Е</t>
@@ -1768,7 +1771,7 @@
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
     </row>
-    <row r="2">
+    <row r="2" hidden="1">
       <c r="A2" s="8">
         <v>68.0</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="8">
         <v>132.0</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="8">
         <v>134.0</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" s="16">
         <v>15.0</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="8">
         <v>30.0</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="8">
         <v>157.0</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="8">
         <v>48.0</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="16">
         <v>80.0</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="8">
         <v>81.0</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="8">
         <v>84.0</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="16">
         <v>93.0</v>
       </c>
@@ -2273,7 +2276,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="8">
         <v>114.0</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="8">
         <v>130.0</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="8">
         <v>154.0</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="8">
         <v>1.0</v>
       </c>
@@ -2474,6 +2477,9 @@
       <c r="J17" s="25" t="s">
         <v>85</v>
       </c>
+      <c r="K17" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="L17" s="10" t="s">
         <v>86</v>
       </c>
@@ -2486,10 +2492,10 @@
       </c>
       <c r="O17" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>да</v>
+      </c>
+    </row>
+    <row r="18" hidden="1">
       <c r="A18" s="8">
         <v>64.0</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="8">
         <v>109.0</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="8">
         <v>129.0</v>
       </c>
@@ -2657,8 +2663,11 @@
       <c r="J21" s="12" t="s">
         <v>104</v>
       </c>
+      <c r="K21" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="L21" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N21" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кузнецова Татьяна Викторовна")</f>
@@ -2666,10 +2675,10 @@
       </c>
       <c r="O21" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>да</v>
+      </c>
+    </row>
+    <row r="22" hidden="1">
       <c r="A22" s="8">
         <v>127.0</v>
       </c>
@@ -2677,13 +2686,13 @@
         <v>99</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F22" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2695,10 +2704,10 @@
       </c>
       <c r="H22" s="23"/>
       <c r="K22" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N22" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фишкин Сергей Анатольевич")</f>
@@ -2709,7 +2718,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="8">
         <v>9.0</v>
       </c>
@@ -2717,13 +2726,13 @@
         <v>99</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F23" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A23,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2735,7 +2744,7 @@
       </c>
       <c r="H23" s="23"/>
       <c r="K23" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N23" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C23,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Перминов Максим Сергеевич")</f>
@@ -2746,7 +2755,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="1">
       <c r="A24" s="8">
         <v>10.0</v>
       </c>
@@ -2757,10 +2766,10 @@
         <v>100</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F24" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A24,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2772,10 +2781,10 @@
       </c>
       <c r="H24" s="23"/>
       <c r="K24" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N24" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A24,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Подоплелова Екатерина Николаевна")</f>
@@ -2786,7 +2795,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="8">
         <v>131.0</v>
       </c>
@@ -2794,13 +2803,13 @@
         <v>99</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F25" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A25,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2812,7 +2821,7 @@
       </c>
       <c r="H25" s="23"/>
       <c r="K25" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N25" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C25,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Мокшин Александр Александрович")</f>
@@ -2823,7 +2832,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="8">
         <v>138.0</v>
       </c>
@@ -2831,13 +2840,13 @@
         <v>99</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2849,10 +2858,10 @@
       </c>
       <c r="H26" s="23"/>
       <c r="K26" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N26" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Соповская Юлия Вячеславовна")</f>
@@ -2863,7 +2872,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="A27" s="8">
         <v>3.0</v>
       </c>
@@ -2871,13 +2880,13 @@
         <v>99</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F27" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A27,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2889,7 +2898,7 @@
       </c>
       <c r="H27" s="23"/>
       <c r="K27" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N27" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C27,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Бабушкина Анастасия Сергеевна")</f>
@@ -2900,7 +2909,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="8">
         <v>25.0</v>
       </c>
@@ -2908,10 +2917,10 @@
         <v>99</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>16</v>
@@ -2928,13 +2937,13 @@
         <v>17</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N28" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C28,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Стекачева Екатерина Александровна")</f>
@@ -2953,10 +2962,10 @@
         <v>99</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>16</v>
@@ -2973,13 +2982,16 @@
         <v>17</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N29" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Поминов Максим Александрович")</f>
@@ -2987,10 +2999,10 @@
       </c>
       <c r="O29" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>да</v>
+      </c>
+    </row>
+    <row r="30" hidden="1">
       <c r="A30" s="8">
         <v>36.0</v>
       </c>
@@ -2998,10 +3010,10 @@
         <v>99</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>16</v>
@@ -3016,13 +3028,13 @@
       </c>
       <c r="H30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N30" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C30,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кузнецов Артемий Вадимович")</f>
@@ -3033,7 +3045,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="8">
         <v>42.0</v>
       </c>
@@ -3041,10 +3053,10 @@
         <v>99</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>16</v>
@@ -3061,13 +3073,13 @@
         <v>17</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N31" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C31,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
@@ -3078,7 +3090,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="8">
         <v>49.0</v>
       </c>
@@ -3086,10 +3098,10 @@
         <v>99</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>16</v>
@@ -3106,13 +3118,13 @@
         <v>17</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N32" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C32,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Аношкина Светлана Андреевна")</f>
@@ -3123,7 +3135,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="8">
         <v>50.0</v>
       </c>
@@ -3131,10 +3143,10 @@
         <v>99</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>16</v>
@@ -3151,13 +3163,13 @@
         <v>17</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>90</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N33" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C33,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Репилов Иван Викторович")</f>
@@ -3168,7 +3180,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="8">
         <v>58.0</v>
       </c>
@@ -3176,10 +3188,10 @@
         <v>99</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>16</v>
@@ -3196,13 +3208,13 @@
         <v>17</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N34" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Уварова Екатерина Юрьевна")</f>
@@ -3213,7 +3225,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" s="8">
         <v>65.0</v>
       </c>
@@ -3221,10 +3233,10 @@
         <v>99</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>16</v>
@@ -3239,13 +3251,13 @@
       </c>
       <c r="H35" s="11"/>
       <c r="J35" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N35" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C35,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
@@ -3256,7 +3268,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="8">
         <v>66.0</v>
       </c>
@@ -3264,10 +3276,10 @@
         <v>99</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>16</v>
@@ -3284,13 +3296,13 @@
         <v>17</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N36" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C36,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Чуланов Александр Александрович")</f>
@@ -3301,7 +3313,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="1">
       <c r="A37" s="8">
         <v>67.0</v>
       </c>
@@ -3309,10 +3321,10 @@
         <v>99</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>16</v>
@@ -3329,13 +3341,13 @@
         <v>17</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>30</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N37" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C37,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кузнецова Елена Андреевна")</f>
@@ -3346,7 +3358,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" s="8">
         <v>71.0</v>
       </c>
@@ -3354,10 +3366,10 @@
         <v>99</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>16</v>
@@ -3372,16 +3384,16 @@
       </c>
       <c r="H38" s="23"/>
       <c r="J38" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N38" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C38,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Берсенева Евгения Николаевна")</f>
@@ -3392,7 +3404,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="1">
       <c r="A39" s="8">
         <v>72.0</v>
       </c>
@@ -3400,10 +3412,10 @@
         <v>99</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>16</v>
@@ -3420,13 +3432,13 @@
         <v>17</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N39" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C39,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Корунова Диана Игоревна")</f>
@@ -3437,7 +3449,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="1">
       <c r="A40" s="8">
         <v>75.0</v>
       </c>
@@ -3445,10 +3457,10 @@
         <v>99</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>16</v>
@@ -3463,13 +3475,13 @@
       </c>
       <c r="H40" s="23"/>
       <c r="J40" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N40" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C40,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кобылинский Ян Александрович")</f>
@@ -3480,7 +3492,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" s="8">
         <v>88.0</v>
       </c>
@@ -3488,10 +3500,10 @@
         <v>99</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>16</v>
@@ -3508,13 +3520,13 @@
         <v>17</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K41" s="13" t="s">
         <v>98</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N41" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C41,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Желязко Дмитрий Викторович")</f>
@@ -3525,7 +3537,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="1">
       <c r="A42" s="8">
         <v>115.0</v>
       </c>
@@ -3533,13 +3545,13 @@
         <v>99</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F42" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3551,7 +3563,7 @@
       </c>
       <c r="H42" s="23"/>
       <c r="K42" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N42" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -3562,7 +3574,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="8">
         <v>116.0</v>
       </c>
@@ -3570,13 +3582,13 @@
         <v>99</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F43" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3588,7 +3600,7 @@
       </c>
       <c r="H43" s="23"/>
       <c r="K43" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N43" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -3599,7 +3611,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="1">
       <c r="A44" s="8">
         <v>120.0</v>
       </c>
@@ -3607,13 +3619,13 @@
         <v>99</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F44" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A44,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3636,7 +3648,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="1">
       <c r="A45" s="8">
         <v>92.0</v>
       </c>
@@ -3644,13 +3656,13 @@
         <v>99</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F45" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3662,7 +3674,7 @@
       </c>
       <c r="H45" s="23"/>
       <c r="K45" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N45" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Белов Александр Сергеевич")</f>
@@ -3673,7 +3685,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="1">
       <c r="A46" s="8">
         <v>96.0</v>
       </c>
@@ -3681,13 +3693,13 @@
         <v>99</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F46" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3699,7 +3711,7 @@
       </c>
       <c r="H46" s="23"/>
       <c r="K46" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N46" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Михайлова Елена Викторовна")</f>
@@ -3710,7 +3722,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="1">
       <c r="A47" s="8">
         <v>153.0</v>
       </c>
@@ -3718,13 +3730,13 @@
         <v>99</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F47" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3736,7 +3748,7 @@
       </c>
       <c r="H47" s="23"/>
       <c r="K47" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N47" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Пасхина Анастасия Вадимовна")</f>
@@ -3747,7 +3759,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="A48" s="8">
         <v>103.0</v>
       </c>
@@ -3758,10 +3770,10 @@
         <v>100</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F48" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A48,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3773,7 +3785,7 @@
       </c>
       <c r="H48" s="23"/>
       <c r="K48" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N48" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A48,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Малафеева Ирина Константиновна")</f>
@@ -3784,7 +3796,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" s="8">
         <v>104.0</v>
       </c>
@@ -3792,10 +3804,10 @@
         <v>99</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>35</v>
@@ -3810,7 +3822,7 @@
       </c>
       <c r="H49" s="23"/>
       <c r="K49" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N49" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C49,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фалалеева Анастасия Владимировна")</f>
@@ -3821,7 +3833,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="1">
       <c r="A50" s="8">
         <v>147.0</v>
       </c>
@@ -3829,13 +3841,13 @@
         <v>99</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F50" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3847,7 +3859,7 @@
       </c>
       <c r="H50" s="23"/>
       <c r="K50" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N50" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -3858,7 +3870,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="1">
       <c r="A51" s="8">
         <v>111.0</v>
       </c>
@@ -3866,13 +3878,13 @@
         <v>99</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F51" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3884,7 +3896,7 @@
       </c>
       <c r="H51" s="23"/>
       <c r="K51" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N51" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Аборина Елена Сергеевна")</f>
@@ -3895,7 +3907,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="1">
       <c r="A52" s="8">
         <v>113.0</v>
       </c>
@@ -3903,13 +3915,13 @@
         <v>99</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F52" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3921,7 +3933,7 @@
       </c>
       <c r="H52" s="23"/>
       <c r="K52" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N52" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фаткуллина Дина Ирековна")</f>
@@ -3932,7 +3944,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="1">
       <c r="A53" s="8">
         <v>148.0</v>
       </c>
@@ -3940,13 +3952,13 @@
         <v>99</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F53" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3958,7 +3970,7 @@
       </c>
       <c r="H53" s="23"/>
       <c r="K53" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N53" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -3969,7 +3981,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="A54" s="27">
         <v>62.0</v>
       </c>
@@ -3977,13 +3989,13 @@
         <v>99</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F54" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),4,0),"""")"),"Оффлайн")</f>
@@ -3997,7 +4009,7 @@
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
       <c r="K54" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L54" s="30"/>
       <c r="N54" s="13" t="str">
@@ -4009,18 +4021,18 @@
         <v>да</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="1">
       <c r="A55" s="8">
         <v>2.0</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E55" s="31" t="s">
         <v>16</v>
@@ -4035,13 +4047,13 @@
       </c>
       <c r="H55" s="23"/>
       <c r="J55" s="25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K55" s="13" t="s">
         <v>30</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M55" s="10" t="s">
         <v>21</v>
@@ -4055,18 +4067,18 @@
         <v>да</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="1">
       <c r="A56" s="8">
         <v>31.0</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>16</v>
@@ -4083,10 +4095,10 @@
         <v>17</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M56" s="10" t="s">
         <v>21</v>
@@ -4100,18 +4112,18 @@
         <v>да</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="1">
       <c r="A57" s="8">
         <v>106.0</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>16</v>
@@ -4128,13 +4140,13 @@
         <v>17</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K57" s="13" t="s">
         <v>98</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M57" s="32"/>
       <c r="N57" s="13" t="str">
@@ -4151,13 +4163,13 @@
         <v>118.0</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>16</v>
@@ -4174,7 +4186,10 @@
         <v>17</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="M58" s="10" t="s">
         <v>21</v>
@@ -4185,21 +4200,21 @@
       </c>
       <c r="O58" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>да</v>
+      </c>
+    </row>
+    <row r="59" hidden="1">
       <c r="A59" s="8">
         <v>121.0</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E59" s="31" t="s">
         <v>16</v>
@@ -4214,7 +4229,7 @@
       </c>
       <c r="H59" s="23"/>
       <c r="J59" s="25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K59" s="13" t="s">
         <v>20</v>
@@ -4229,21 +4244,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="1">
       <c r="A60" s="8">
         <v>122.0</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F60" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4255,7 +4270,7 @@
       </c>
       <c r="H60" s="23"/>
       <c r="K60" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N60" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Белов Александр Сергеевич")</f>
@@ -4266,21 +4281,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="1">
       <c r="A61" s="8">
         <v>125.0</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F61" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A61,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4292,7 +4307,7 @@
       </c>
       <c r="H61" s="23"/>
       <c r="K61" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N61" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C61,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Язькова Александра Витальевна")</f>
@@ -4303,21 +4318,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="1">
       <c r="A62" s="8">
         <v>39.0</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F62" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4329,7 +4344,7 @@
       </c>
       <c r="H62" s="23"/>
       <c r="K62" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N62" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Трифонова Ольга Александровна")</f>
@@ -4340,18 +4355,18 @@
         <v>да</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="1">
       <c r="A63" s="8">
         <v>91.0</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E63" s="31" t="s">
         <v>35</v>
@@ -4366,7 +4381,7 @@
       </c>
       <c r="H63" s="23"/>
       <c r="K63" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N63" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C63,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фалалеева Анастасия Владимировна")</f>
@@ -4377,21 +4392,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="1">
       <c r="A64" s="8">
         <v>43.0</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F64" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4403,7 +4418,7 @@
       </c>
       <c r="H64" s="23"/>
       <c r="K64" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N64" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Максимова Ольга Олеговна")</f>
@@ -4414,21 +4429,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="1">
       <c r="A65" s="8">
         <v>151.0</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F65" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4440,7 +4455,7 @@
       </c>
       <c r="H65" s="23"/>
       <c r="K65" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N65" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4451,21 +4466,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="1">
       <c r="A66" s="8">
         <v>54.0</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F66" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4477,7 +4492,7 @@
       </c>
       <c r="H66" s="23"/>
       <c r="K66" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N66" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Болотникова Анастасия Михайловна")</f>
@@ -4488,21 +4503,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="1">
       <c r="A67" s="27">
         <v>108.0</v>
       </c>
       <c r="B67" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="E67" s="33" t="s">
         <v>228</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>227</v>
       </c>
       <c r="F67" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4516,7 +4531,7 @@
       <c r="I67" s="30"/>
       <c r="J67" s="30"/>
       <c r="K67" s="30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L67" s="30"/>
       <c r="N67" s="13" t="str">
@@ -4528,21 +4543,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="1">
       <c r="A68" s="27">
         <v>142.0</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F68" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4555,10 +4570,10 @@
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
       <c r="J68" s="34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K68" s="35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L68" s="30"/>
       <c r="N68" s="13" t="str">
@@ -4570,21 +4585,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="1">
       <c r="A69" s="8">
         <v>102.0</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F69" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A69,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Доставка")</f>
@@ -4596,13 +4611,13 @@
       </c>
       <c r="H69" s="23"/>
       <c r="J69" s="34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L69" s="37" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N69" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C69,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фишкин Сергей Анатольевич")</f>
@@ -4613,21 +4628,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="1">
       <c r="A70" s="8">
         <v>19.0</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F70" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4639,7 +4654,7 @@
       </c>
       <c r="H70" s="23"/>
       <c r="K70" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N70" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Хакимзянова Диана Фаридовна")</f>
@@ -4650,21 +4665,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="1">
       <c r="A71" s="8">
         <v>83.0</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F71" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4676,10 +4691,10 @@
       </c>
       <c r="H71" s="23"/>
       <c r="K71" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N71" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4690,18 +4705,18 @@
         <v>да</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="1">
       <c r="A72" s="8">
         <v>56.0</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E72" s="36" t="s">
         <v>16</v>
@@ -4716,13 +4731,13 @@
       </c>
       <c r="H72" s="23"/>
       <c r="J72" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K72" s="13" t="s">
         <v>90</v>
       </c>
       <c r="L72" s="14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M72" s="10" t="s">
         <v>21</v>
@@ -4736,18 +4751,18 @@
         <v>да</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="1">
       <c r="A73" s="8">
         <v>61.0</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E73" s="36" t="s">
         <v>16</v>
@@ -4765,13 +4780,13 @@
       </c>
       <c r="I73" s="14"/>
       <c r="J73" s="12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L73" s="14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M73" s="10" t="s">
         <v>21</v>
@@ -4785,18 +4800,18 @@
         <v>да</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="1">
       <c r="A74" s="8">
         <v>79.0</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E74" s="36" t="s">
         <v>16</v>
@@ -4811,16 +4826,16 @@
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M74" s="10" t="s">
         <v>21</v>
@@ -4834,21 +4849,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="1">
       <c r="A75" s="8">
         <v>98.0</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F75" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4860,7 +4875,7 @@
       </c>
       <c r="H75" s="23"/>
       <c r="K75" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N75" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4871,21 +4886,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="1">
       <c r="A76" s="8">
         <v>149.0</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F76" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Доставка")</f>
@@ -4897,13 +4912,13 @@
       </c>
       <c r="H76" s="23"/>
       <c r="J76" s="34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L76" s="37" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N76" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4914,21 +4929,21 @@
         <v>да</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="1">
       <c r="A77" s="27">
         <v>21.0</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F77" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Доставка")</f>
@@ -4940,16 +4955,16 @@
       </c>
       <c r="H77" s="30"/>
       <c r="I77" s="39" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J77" s="34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K77" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L77" s="40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N77" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -4960,18 +4975,18 @@
         <v>да</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="1">
       <c r="A78" s="8">
         <v>86.0</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E78" s="41" t="s">
         <v>16</v>
@@ -4988,13 +5003,13 @@
         <v>17</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N78" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C78,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Стекачева Екатерина Александровна")</f>
@@ -5005,18 +5020,18 @@
         <v>да</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="1">
       <c r="A79" s="8">
         <v>160.0</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E79" s="41" t="s">
         <v>16</v>
@@ -5033,7 +5048,7 @@
         <v>17</v>
       </c>
       <c r="J79" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K79" s="13" t="s">
         <v>20</v>
@@ -5048,18 +5063,18 @@
         <v>да</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="1">
       <c r="A80" s="16">
         <v>24.0</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E80" s="41" t="s">
         <v>35</v>
@@ -5085,18 +5100,18 @@
         <v>да</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="1">
       <c r="A81" s="8">
         <v>89.0</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E81" s="41" t="s">
         <v>35</v>
@@ -5111,10 +5126,10 @@
       </c>
       <c r="H81" s="23"/>
       <c r="K81" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N81" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C81,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Ерошкина Мария Александровна")</f>
@@ -10142,6 +10157,9 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$O$81">
+    <filterColumn colId="14">
+      <filters/>
+    </filterColumn>
     <sortState ref="A1:O81">
       <sortCondition ref="B1:B81"/>
     </sortState>
@@ -10286,16 +10304,16 @@
         <v>99</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -10304,84 +10322,84 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>320</v>
-      </c>
       <c r="E3" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>320</v>
-      </c>
       <c r="G3" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>320</v>
-      </c>
       <c r="L3" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P3" s="44" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5">
@@ -13392,7 +13410,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="45" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>0</v>
@@ -13413,7 +13431,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
@@ -13421,25 +13439,25 @@
         <v>102.0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
@@ -13456,13 +13474,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>25</v>
@@ -13482,16 +13500,16 @@
         <v>34</v>
       </c>
       <c r="E4" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>339</v>
-      </c>
       <c r="H4" s="52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
@@ -13508,13 +13526,13 @@
         <v>41</v>
       </c>
       <c r="E5" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>340</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>339</v>
       </c>
       <c r="H5" s="34" t="s">
         <v>43</v>
@@ -13534,13 +13552,13 @@
         <v>52</v>
       </c>
       <c r="E6" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>340</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>339</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>54</v>
@@ -13560,13 +13578,13 @@
         <v>64</v>
       </c>
       <c r="E7" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>340</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>339</v>
       </c>
       <c r="H7" s="54" t="s">
         <v>65</v>
@@ -13586,13 +13604,13 @@
         <v>69</v>
       </c>
       <c r="E8" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>340</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>339</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>70</v>
@@ -13603,25 +13621,25 @@
         <v>149.0</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
@@ -13629,25 +13647,25 @@
         <v>21.0</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -580,13 +580,13 @@
     <t>г. Москва, МО</t>
   </si>
   <si>
+    <t>Причал</t>
+  </si>
+  <si>
+    <t>МО, село Ильинское, 9 стр 5</t>
+  </si>
+  <si>
     <t>Солнышкина Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>Причал</t>
-  </si>
-  <si>
-    <t>МО, село Ильинское, 9 стр 5</t>
   </si>
   <si>
     <t>Царская Охота</t>
@@ -1771,7 +1771,7 @@
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="8">
         <v>68.0</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="8">
         <v>132.0</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="8">
         <v>134.0</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="16">
         <v>15.0</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="8">
         <v>30.0</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="8">
         <v>157.0</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="8">
         <v>48.0</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="16">
         <v>80.0</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="8">
         <v>81.0</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="8">
         <v>84.0</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="16">
         <v>93.0</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="8">
         <v>114.0</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="8">
         <v>130.0</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="8">
         <v>154.0</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="8">
         <v>1.0</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="8">
         <v>64.0</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="8">
         <v>109.0</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="8">
         <v>129.0</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="22" hidden="1">
+    <row r="22">
       <c r="A22" s="8">
         <v>127.0</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="23" hidden="1">
+    <row r="23">
       <c r="A23" s="8">
         <v>9.0</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="24" hidden="1">
+    <row r="24">
       <c r="A24" s="8">
         <v>10.0</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="A25" s="8">
         <v>131.0</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="A26" s="8">
         <v>138.0</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="8">
         <v>3.0</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="8">
         <v>25.0</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="8">
         <v>36.0</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="8">
         <v>42.0</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="8">
         <v>49.0</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="33" hidden="1">
+    <row r="33">
       <c r="A33" s="8">
         <v>50.0</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="34" hidden="1">
+    <row r="34">
       <c r="A34" s="8">
         <v>58.0</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="8">
         <v>65.0</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="36" hidden="1">
+    <row r="36">
       <c r="A36" s="8">
         <v>66.0</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="37" hidden="1">
+    <row r="37">
       <c r="A37" s="8">
         <v>67.0</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="38" hidden="1">
+    <row r="38">
       <c r="A38" s="8">
         <v>71.0</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="39" hidden="1">
+    <row r="39">
       <c r="A39" s="8">
         <v>72.0</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="40" hidden="1">
+    <row r="40">
       <c r="A40" s="8">
         <v>75.0</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="41" hidden="1">
+    <row r="41">
       <c r="A41" s="8">
         <v>88.0</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="42" hidden="1">
+    <row r="42">
       <c r="A42" s="8">
         <v>115.0</v>
       </c>
@@ -3563,18 +3563,18 @@
       </c>
       <c r="H42" s="23"/>
       <c r="K42" s="13" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="N42" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Солнышкина Татьяна Александровна")</f>
-        <v>Солнышкина Татьяна Александровна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
+        <v>Янина Полина Олеговна</v>
       </c>
       <c r="O42" s="13" t="str">
         <f t="shared" si="1"/>
         <v>да</v>
       </c>
     </row>
-    <row r="43" hidden="1">
+    <row r="43">
       <c r="A43" s="8">
         <v>116.0</v>
       </c>
@@ -3582,10 +3582,10 @@
         <v>99</v>
       </c>
       <c r="C43" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>189</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>186</v>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="H43" s="23"/>
       <c r="K43" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N43" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -3611,7 +3611,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="44" hidden="1">
+    <row r="44">
       <c r="A44" s="8">
         <v>120.0</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="45" hidden="1">
+    <row r="45">
       <c r="A45" s="8">
         <v>92.0</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="46" hidden="1">
+    <row r="46">
       <c r="A46" s="8">
         <v>96.0</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="47" hidden="1">
+    <row r="47">
       <c r="A47" s="8">
         <v>153.0</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="48" hidden="1">
+    <row r="48">
       <c r="A48" s="8">
         <v>103.0</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="49" hidden="1">
+    <row r="49">
       <c r="A49" s="8">
         <v>104.0</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="50" hidden="1">
+    <row r="50">
       <c r="A50" s="8">
         <v>147.0</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="51" hidden="1">
+    <row r="51">
       <c r="A51" s="8">
         <v>111.0</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="52" hidden="1">
+    <row r="52">
       <c r="A52" s="8">
         <v>113.0</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="53" hidden="1">
+    <row r="53">
       <c r="A53" s="8">
         <v>148.0</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="54" hidden="1">
+    <row r="54">
       <c r="A54" s="27">
         <v>62.0</v>
       </c>
@@ -4009,7 +4009,7 @@
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
       <c r="K54" s="30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L54" s="30"/>
       <c r="N54" s="13" t="str">
@@ -4021,7 +4021,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="55" hidden="1">
+    <row r="55">
       <c r="A55" s="8">
         <v>2.0</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="56" hidden="1">
+    <row r="56">
       <c r="A56" s="8">
         <v>31.0</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="57" hidden="1">
+    <row r="57">
       <c r="A57" s="8">
         <v>106.0</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="59" hidden="1">
+    <row r="59">
       <c r="A59" s="8">
         <v>121.0</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="60" hidden="1">
+    <row r="60">
       <c r="A60" s="8">
         <v>122.0</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="61" hidden="1">
+    <row r="61">
       <c r="A61" s="8">
         <v>125.0</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="62" hidden="1">
+    <row r="62">
       <c r="A62" s="8">
         <v>39.0</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="63" hidden="1">
+    <row r="63">
       <c r="A63" s="8">
         <v>91.0</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="64" hidden="1">
+    <row r="64">
       <c r="A64" s="8">
         <v>43.0</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="65" hidden="1">
+    <row r="65">
       <c r="A65" s="8">
         <v>151.0</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="66" hidden="1">
+    <row r="66">
       <c r="A66" s="8">
         <v>54.0</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="67" hidden="1">
+    <row r="67">
       <c r="A67" s="27">
         <v>108.0</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="68" hidden="1">
+    <row r="68">
       <c r="A68" s="27">
         <v>142.0</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="69" hidden="1">
+    <row r="69">
       <c r="A69" s="8">
         <v>102.0</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="70" hidden="1">
+    <row r="70">
       <c r="A70" s="8">
         <v>19.0</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="71" hidden="1">
+    <row r="71">
       <c r="A71" s="8">
         <v>83.0</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="72" hidden="1">
+    <row r="72">
       <c r="A72" s="8">
         <v>56.0</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="73" hidden="1">
+    <row r="73">
       <c r="A73" s="8">
         <v>61.0</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="74" hidden="1">
+    <row r="74">
       <c r="A74" s="8">
         <v>79.0</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="75" hidden="1">
+    <row r="75">
       <c r="A75" s="8">
         <v>98.0</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="76" hidden="1">
+    <row r="76">
       <c r="A76" s="8">
         <v>149.0</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="77" hidden="1">
+    <row r="77">
       <c r="A77" s="27">
         <v>21.0</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>306</v>
       </c>
       <c r="K77" s="30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L77" s="40" t="s">
         <v>307</v>
@@ -4975,7 +4975,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="78" hidden="1">
+    <row r="78">
       <c r="A78" s="8">
         <v>86.0</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="79" hidden="1">
+    <row r="79">
       <c r="A79" s="8">
         <v>160.0</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="80" hidden="1">
+    <row r="80">
       <c r="A80" s="16">
         <v>24.0</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>да</v>
       </c>
     </row>
-    <row r="81" hidden="1">
+    <row r="81">
       <c r="A81" s="8">
         <v>89.0</v>
       </c>
@@ -10157,9 +10157,6 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$O$81">
-    <filterColumn colId="14">
-      <filters/>
-    </filterColumn>
     <sortState ref="A1:O81">
       <sortCondition ref="B1:B81"/>
     </sortState>

--- a/data.xlsx
+++ b/data.xlsx
@@ -547,7 +547,7 @@
     <t>https://meraki.rest/</t>
   </si>
   <si>
-    <t>Корунова Диана Игоревна</t>
+    <t>Калинина Ольга Игоревна</t>
   </si>
   <si>
     <t>Vodный</t>
@@ -2824,12 +2824,14 @@
         <v>123</v>
       </c>
       <c r="N25" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C25,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Мокшин Александр Александрович")</f>
-        <v>Мокшин Александр Александрович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C25,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Мокшин Александр Александрович
+Нужна замена - возможно Соповская")</f>
+        <v>Мокшин Александр Александрович
+Нужна замена - возможно Соповская</v>
       </c>
       <c r="O25" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="26">
@@ -2864,12 +2866,14 @@
         <v>127</v>
       </c>
       <c r="N26" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Соповская Юлия Вячеславовна")</f>
-        <v>Соповская Юлия Вячеславовна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Соповская Юлия Вячеславовна
+Уточняем по замене Мокшина")</f>
+        <v>Соповская Юлия Вячеславовна
+Уточняем по замене Мокшина</v>
       </c>
       <c r="O26" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="27">
@@ -3441,8 +3445,8 @@
         <v>136</v>
       </c>
       <c r="N39" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C39,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Корунова Диана Игоревна")</f>
-        <v>Корунова Диана Игоревна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C39,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Калинина Ольга Игоревна")</f>
+        <v>Калинина Ольга Игоревна</v>
       </c>
       <c r="O39" s="13" t="str">
         <f t="shared" si="1"/>
@@ -10161,7 +10165,7 @@
       <sortCondition ref="B1:B81"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="K1:K27 K29:K73 K75:K916">
+  <conditionalFormatting sqref="K1:K27 K29:K38 K40:K73 K75:K916">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"нет участника"</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -265,7 +265,8 @@
     <t>https://eva-gruzinskaya.lucky-group.rest/</t>
   </si>
   <si>
-    <t>Поминов Максим Александрович</t>
+    <t>Поминов Максим Александрович
+Требуется тестировщик</t>
   </si>
   <si>
     <t>Bruno</t>
@@ -277,6 +278,9 @@
     <t>https://bruno.lucky-group.rest/</t>
   </si>
   <si>
+    <t>Янина Полина Олеговна</t>
+  </si>
+  <si>
     <t>Есть плед</t>
   </si>
   <si>
@@ -388,7 +392,7 @@
     <t>г. Краснодар</t>
   </si>
   <si>
-    <t>Мокшин Александр Александрович</t>
+    <t>Соповская Юлия Вячеславовна</t>
   </si>
   <si>
     <t>Южанин в Краснодаре</t>
@@ -397,9 +401,6 @@
     <t>г. Краснодар, ул. Красная, 60</t>
   </si>
   <si>
-    <t>Соповская Юлия Вячеславовна</t>
-  </si>
-  <si>
     <t>Один адрес с ID 152</t>
   </si>
   <si>
@@ -463,9 +464,6 @@
     <t>https://www.syrovarnya.com/prospect_vernadskogo</t>
   </si>
   <si>
-    <t>Янина Полина Олеговна</t>
-  </si>
-  <si>
     <t>Сыроварня Жулебино</t>
   </si>
   <si>
@@ -517,7 +515,8 @@
     <t>https://www.novikovgroup.ru/restaurants/detail/strana-kotoroy-net/</t>
   </si>
   <si>
-    <t>Чуланов Александр Александрович</t>
+    <t>Чуланов Александр Александрович
+Требуется тестировщик</t>
   </si>
   <si>
     <t>Solo</t>
@@ -578,6 +577,9 @@
   </si>
   <si>
     <t>г. Москва, МО</t>
+  </si>
+  <si>
+    <t>Алексеев Александр Станиславович</t>
   </si>
   <si>
     <t>Причал</t>
@@ -2439,8 +2441,10 @@
         <v>21</v>
       </c>
       <c r="N16" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C16,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Поминов Максим Александрович")</f>
-        <v>Поминов Максим Александрович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C16,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Поминов Максим Александрович
+Требуется тестировщик")</f>
+        <v>Поминов Максим Александрович
+Требуется тестировщик</v>
       </c>
       <c r="O16" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2478,17 +2482,17 @@
         <v>85</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N17" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C17,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Поминов Максим Александрович")</f>
-        <v>Поминов Максим Александрович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C17,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
+        <v>Янина Полина Олеговна</v>
       </c>
       <c r="O17" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2503,10 +2507,10 @@
         <v>78</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>16</v>
@@ -2523,10 +2527,10 @@
         <v>17</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>21</v>
@@ -2548,10 +2552,10 @@
         <v>78</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>16</v>
@@ -2568,13 +2572,13 @@
         <v>17</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>21</v>
@@ -2596,10 +2600,10 @@
         <v>78</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>16</v>
@@ -2616,10 +2620,10 @@
         <v>17</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>21</v>
@@ -2638,16 +2642,16 @@
         <v>8.0</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F21" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2658,16 +2662,16 @@
         <v>волна 1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N21" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кузнецова Татьяна Викторовна")</f>
@@ -2683,16 +2687,16 @@
         <v>127.0</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2704,10 +2708,10 @@
       </c>
       <c r="H22" s="23"/>
       <c r="K22" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N22" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фишкин Сергей Анатольевич")</f>
@@ -2723,16 +2727,16 @@
         <v>9.0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F23" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A23,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2744,7 +2748,7 @@
       </c>
       <c r="H23" s="23"/>
       <c r="K23" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N23" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C23,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Перминов Максим Сергеевич")</f>
@@ -2760,16 +2764,16 @@
         <v>10.0</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F24" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A24,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2781,10 +2785,10 @@
       </c>
       <c r="H24" s="23"/>
       <c r="K24" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N24" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A24,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Подоплелова Екатерина Николаевна")</f>
@@ -2800,16 +2804,16 @@
         <v>131.0</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A25,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2820,18 +2824,16 @@
         <v>волна 1</v>
       </c>
       <c r="H25" s="23"/>
-      <c r="K25" s="10" t="s">
-        <v>123</v>
+      <c r="K25" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="N25" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C25,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Мокшин Александр Александрович
-Нужна замена - возможно Соповская")</f>
-        <v>Мокшин Александр Александрович
-Нужна замена - возможно Соповская</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C25,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Соповская Юлия Вячеславовна")</f>
+        <v>Соповская Юлия Вячеславовна</v>
       </c>
       <c r="O25" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="26">
@@ -2839,16 +2841,16 @@
         <v>138.0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F26" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2860,20 +2862,18 @@
       </c>
       <c r="H26" s="23"/>
       <c r="K26" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>127</v>
       </c>
       <c r="N26" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Соповская Юлия Вячеславовна
-Уточняем по замене Мокшина")</f>
-        <v>Соповская Юлия Вячеславовна
-Уточняем по замене Мокшина</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Соповская Юлия Вячеславовна")</f>
+        <v>Соповская Юлия Вячеславовна</v>
       </c>
       <c r="O26" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="27">
@@ -2881,7 +2881,7 @@
         <v>3.0</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>128</v>
@@ -2918,7 +2918,7 @@
         <v>25.0</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>132</v>
@@ -2963,7 +2963,7 @@
         <v>32.0</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>137</v>
@@ -2998,8 +2998,10 @@
         <v>136</v>
       </c>
       <c r="N29" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Поминов Максим Александрович")</f>
-        <v>Поминов Максим Александрович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Поминов Максим Александрович
+Требуется тестировщик")</f>
+        <v>Поминов Максим Александрович
+Требуется тестировщик</v>
       </c>
       <c r="O29" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3011,7 +3013,7 @@
         <v>36.0</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>141</v>
@@ -3054,7 +3056,7 @@
         <v>42.0</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>145</v>
@@ -3080,7 +3082,7 @@
         <v>147</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="M31" s="10" t="s">
         <v>136</v>
@@ -3099,13 +3101,13 @@
         <v>49.0</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>149</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>150</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>16</v>
@@ -3122,10 +3124,10 @@
         <v>17</v>
       </c>
       <c r="J32" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>136</v>
@@ -3144,13 +3146,13 @@
         <v>50.0</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>154</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>16</v>
@@ -3167,10 +3169,10 @@
         <v>17</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M33" s="10" t="s">
         <v>136</v>
@@ -3189,13 +3191,13 @@
         <v>58.0</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>156</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>157</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>16</v>
@@ -3212,10 +3214,10 @@
         <v>17</v>
       </c>
       <c r="J34" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="K34" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>136</v>
@@ -3234,13 +3236,13 @@
         <v>65.0</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>161</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>16</v>
@@ -3255,10 +3257,10 @@
       </c>
       <c r="H35" s="11"/>
       <c r="J35" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>136</v>
@@ -3277,13 +3279,13 @@
         <v>66.0</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>163</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>164</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>16</v>
@@ -3300,17 +3302,19 @@
         <v>17</v>
       </c>
       <c r="J36" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K36" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>136</v>
       </c>
       <c r="N36" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C36,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Чуланов Александр Александрович")</f>
-        <v>Чуланов Александр Александрович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C36,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Чуланов Александр Александрович
+Требуется тестировщик")</f>
+        <v>Чуланов Александр Александрович
+Требуется тестировщик</v>
       </c>
       <c r="O36" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3322,13 +3326,13 @@
         <v>67.0</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>167</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>168</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>16</v>
@@ -3345,7 +3349,7 @@
         <v>17</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>30</v>
@@ -3367,10 +3371,10 @@
         <v>71.0</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>138</v>
@@ -3388,13 +3392,13 @@
       </c>
       <c r="H38" s="23"/>
       <c r="J38" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>136</v>
@@ -3413,13 +3417,13 @@
         <v>72.0</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>173</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>174</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>16</v>
@@ -3436,10 +3440,10 @@
         <v>17</v>
       </c>
       <c r="J39" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>176</v>
       </c>
       <c r="M39" s="10" t="s">
         <v>136</v>
@@ -3458,13 +3462,13 @@
         <v>75.0</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>177</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>178</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>16</v>
@@ -3479,10 +3483,10 @@
       </c>
       <c r="H40" s="23"/>
       <c r="J40" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K40" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>136</v>
@@ -3501,13 +3505,13 @@
         <v>88.0</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="26" t="s">
         <v>181</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>182</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>16</v>
@@ -3524,10 +3528,10 @@
         <v>17</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M41" s="10" t="s">
         <v>136</v>
@@ -3546,16 +3550,16 @@
         <v>115.0</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C42" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="E42" s="26" t="s">
         <v>185</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>186</v>
       </c>
       <c r="F42" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3567,11 +3571,11 @@
       </c>
       <c r="H42" s="23"/>
       <c r="K42" s="13" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="N42" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
-        <v>Янина Полина Олеговна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Алексеев Александр Станиславович")</f>
+        <v>Алексеев Александр Станиславович</v>
       </c>
       <c r="O42" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3583,7 +3587,7 @@
         <v>116.0</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>187</v>
@@ -3592,7 +3596,7 @@
         <v>188</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F43" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3620,7 +3624,7 @@
         <v>120.0</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>190</v>
@@ -3629,7 +3633,7 @@
         <v>191</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F44" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A44,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3657,7 +3661,7 @@
         <v>92.0</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>192</v>
@@ -3694,7 +3698,7 @@
         <v>96.0</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>196</v>
@@ -3731,7 +3735,7 @@
         <v>153.0</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>200</v>
@@ -3768,10 +3772,10 @@
         <v>103.0</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>204</v>
@@ -3805,7 +3809,7 @@
         <v>104.0</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>207</v>
@@ -3842,7 +3846,7 @@
         <v>147.0</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>210</v>
@@ -3879,7 +3883,7 @@
         <v>111.0</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>214</v>
@@ -3916,7 +3920,7 @@
         <v>113.0</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>218</v>
@@ -3953,7 +3957,7 @@
         <v>148.0</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>222</v>
@@ -3990,7 +3994,7 @@
         <v>62.0</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>226</v>
@@ -4147,7 +4151,7 @@
         <v>239</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>240</v>
@@ -4193,14 +4197,14 @@
         <v>243</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M58" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N58" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C58,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Поминов Максим Александрович")</f>
-        <v>Поминов Максим Александрович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C58,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
+        <v>Янина Полина Олеговна</v>
       </c>
       <c r="O58" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4535,12 +4539,12 @@
       <c r="I67" s="30"/>
       <c r="J67" s="30"/>
       <c r="K67" s="30" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="L67" s="30"/>
       <c r="N67" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Чуланов Александр Александрович")</f>
-        <v>Чуланов Александр Александрович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
+        <v>Янина Полина Олеговна</v>
       </c>
       <c r="O67" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4603,7 +4607,7 @@
         <v>276</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F69" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A69,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Доставка")</f>
@@ -4618,7 +4622,7 @@
         <v>277</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L69" s="37" t="s">
         <v>278</v>
@@ -4738,7 +4742,7 @@
         <v>288</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L72" s="14" t="s">
         <v>289</v>
@@ -4787,7 +4791,7 @@
         <v>292</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L73" s="14" t="s">
         <v>293</v>
@@ -10302,7 +10306,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>229</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="344">
   <si>
     <t>Партнер</t>
   </si>
@@ -265,8 +265,7 @@
     <t>https://eva-gruzinskaya.lucky-group.rest/</t>
   </si>
   <si>
-    <t>Поминов Максим Александрович
-Требуется тестировщик</t>
+    <t>Старовойтова Галина Павловна</t>
   </si>
   <si>
     <t>Bruno</t>
@@ -513,10 +512,6 @@
   </si>
   <si>
     <t>https://www.novikovgroup.ru/restaurants/detail/strana-kotoroy-net/</t>
-  </si>
-  <si>
-    <t>Чуланов Александр Александрович
-Требуется тестировщик</t>
   </si>
   <si>
     <t>Solo</t>
@@ -2441,10 +2436,8 @@
         <v>21</v>
       </c>
       <c r="N16" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C16,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Поминов Максим Александрович
-Требуется тестировщик")</f>
-        <v>Поминов Максим Александрович
-Требуется тестировщик</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C16,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Старовойтова Галина Павловна")</f>
+        <v>Старовойтова Галина Павловна</v>
       </c>
       <c r="O16" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2998,10 +2991,8 @@
         <v>136</v>
       </c>
       <c r="N29" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Поминов Максим Александрович
-Требуется тестировщик")</f>
-        <v>Поминов Максим Александрович
-Требуется тестировщик</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Старовойтова Галина Павловна")</f>
+        <v>Старовойтова Галина Павловна</v>
       </c>
       <c r="O29" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3305,16 +3296,14 @@
         <v>164</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>136</v>
       </c>
       <c r="N36" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C36,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Чуланов Александр Александрович
-Требуется тестировщик")</f>
-        <v>Чуланов Александр Александрович
-Требуется тестировщик</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C36,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Старовойтова Галина Павловна")</f>
+        <v>Старовойтова Галина Павловна</v>
       </c>
       <c r="O36" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3329,10 +3318,10 @@
         <v>100</v>
       </c>
       <c r="C37" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>166</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>167</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>16</v>
@@ -3349,7 +3338,7 @@
         <v>17</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>30</v>
@@ -3374,7 +3363,7 @@
         <v>100</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>138</v>
@@ -3392,13 +3381,13 @@
       </c>
       <c r="H38" s="23"/>
       <c r="J38" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>136</v>
@@ -3420,10 +3409,10 @@
         <v>100</v>
       </c>
       <c r="C39" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>172</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>173</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>16</v>
@@ -3440,10 +3429,10 @@
         <v>17</v>
       </c>
       <c r="J39" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="M39" s="10" t="s">
         <v>136</v>
@@ -3465,10 +3454,10 @@
         <v>100</v>
       </c>
       <c r="C40" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>176</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>177</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>16</v>
@@ -3483,10 +3472,10 @@
       </c>
       <c r="H40" s="23"/>
       <c r="J40" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="K40" s="13" t="s">
         <v>178</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>179</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>136</v>
@@ -3508,10 +3497,10 @@
         <v>100</v>
       </c>
       <c r="C41" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="26" t="s">
         <v>180</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>181</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>16</v>
@@ -3528,7 +3517,7 @@
         <v>17</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K41" s="13" t="s">
         <v>99</v>
@@ -3553,13 +3542,13 @@
         <v>100</v>
       </c>
       <c r="C42" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="E42" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>185</v>
       </c>
       <c r="F42" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3571,7 +3560,7 @@
       </c>
       <c r="H42" s="23"/>
       <c r="K42" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N42" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Алексеев Александр Станиславович")</f>
@@ -3590,13 +3579,13 @@
         <v>100</v>
       </c>
       <c r="C43" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>188</v>
-      </c>
       <c r="E43" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F43" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3608,7 +3597,7 @@
       </c>
       <c r="H43" s="23"/>
       <c r="K43" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N43" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -3627,13 +3616,13 @@
         <v>100</v>
       </c>
       <c r="C44" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>191</v>
-      </c>
       <c r="E44" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F44" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A44,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3664,13 +3653,13 @@
         <v>100</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="E45" s="26" t="s">
         <v>193</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>194</v>
       </c>
       <c r="F45" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3682,7 +3671,7 @@
       </c>
       <c r="H45" s="23"/>
       <c r="K45" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N45" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Белов Александр Сергеевич")</f>
@@ -3701,13 +3690,13 @@
         <v>100</v>
       </c>
       <c r="C46" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="E46" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="F46" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3719,7 +3708,7 @@
       </c>
       <c r="H46" s="23"/>
       <c r="K46" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N46" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Михайлова Елена Викторовна")</f>
@@ -3738,13 +3727,13 @@
         <v>100</v>
       </c>
       <c r="C47" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="E47" s="26" t="s">
         <v>201</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>202</v>
       </c>
       <c r="F47" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3756,7 +3745,7 @@
       </c>
       <c r="H47" s="23"/>
       <c r="K47" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N47" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Пасхина Анастасия Вадимовна")</f>
@@ -3778,10 +3767,10 @@
         <v>101</v>
       </c>
       <c r="D48" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>204</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="F48" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A48,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3793,7 +3782,7 @@
       </c>
       <c r="H48" s="23"/>
       <c r="K48" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N48" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A48,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Малафеева Ирина Константиновна")</f>
@@ -3812,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C49" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>207</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>208</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>35</v>
@@ -3830,7 +3819,7 @@
       </c>
       <c r="H49" s="23"/>
       <c r="K49" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N49" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C49,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фалалеева Анастасия Владимировна")</f>
@@ -3849,13 +3838,13 @@
         <v>100</v>
       </c>
       <c r="C50" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="E50" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>212</v>
       </c>
       <c r="F50" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3867,7 +3856,7 @@
       </c>
       <c r="H50" s="23"/>
       <c r="K50" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N50" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -3886,13 +3875,13 @@
         <v>100</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="E51" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>216</v>
       </c>
       <c r="F51" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3904,7 +3893,7 @@
       </c>
       <c r="H51" s="23"/>
       <c r="K51" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N51" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Аборина Елена Сергеевна")</f>
@@ -3923,13 +3912,13 @@
         <v>100</v>
       </c>
       <c r="C52" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="E52" s="26" t="s">
         <v>219</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>220</v>
       </c>
       <c r="F52" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3941,7 +3930,7 @@
       </c>
       <c r="H52" s="23"/>
       <c r="K52" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N52" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фаткуллина Дина Ирековна")</f>
@@ -3960,13 +3949,13 @@
         <v>100</v>
       </c>
       <c r="C53" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="E53" s="26" t="s">
         <v>223</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="F53" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3978,7 +3967,7 @@
       </c>
       <c r="H53" s="23"/>
       <c r="K53" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N53" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -3997,13 +3986,13 @@
         <v>100</v>
       </c>
       <c r="C54" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="E54" s="28" t="s">
         <v>227</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>228</v>
       </c>
       <c r="F54" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),4,0),"""")"),"Оффлайн")</f>
@@ -4017,7 +4006,7 @@
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
       <c r="K54" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L54" s="30"/>
       <c r="N54" s="13" t="str">
@@ -4034,13 +4023,13 @@
         <v>2.0</v>
       </c>
       <c r="B55" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="D55" s="31" t="s">
         <v>230</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>231</v>
       </c>
       <c r="E55" s="31" t="s">
         <v>16</v>
@@ -4055,13 +4044,13 @@
       </c>
       <c r="H55" s="23"/>
       <c r="J55" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K55" s="13" t="s">
         <v>30</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M55" s="10" t="s">
         <v>21</v>
@@ -4080,13 +4069,13 @@
         <v>31.0</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C56" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="31" t="s">
         <v>234</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>235</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>16</v>
@@ -4103,7 +4092,7 @@
         <v>17</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K56" s="13" t="s">
         <v>144</v>
@@ -4125,13 +4114,13 @@
         <v>106.0</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C57" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="31" t="s">
         <v>237</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>238</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>16</v>
@@ -4148,13 +4137,13 @@
         <v>17</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K57" s="13" t="s">
         <v>99</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M57" s="32"/>
       <c r="N57" s="13" t="str">
@@ -4171,13 +4160,13 @@
         <v>118.0</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C58" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>242</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>16</v>
@@ -4194,7 +4183,7 @@
         <v>17</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>86</v>
@@ -4216,13 +4205,13 @@
         <v>121.0</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C59" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" s="31" t="s">
         <v>244</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>245</v>
       </c>
       <c r="E59" s="31" t="s">
         <v>16</v>
@@ -4237,7 +4226,7 @@
       </c>
       <c r="H59" s="23"/>
       <c r="J59" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K59" s="13" t="s">
         <v>20</v>
@@ -4257,16 +4246,16 @@
         <v>122.0</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C60" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="D60" s="31" t="s">
-        <v>248</v>
-      </c>
       <c r="E60" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F60" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4278,7 +4267,7 @@
       </c>
       <c r="H60" s="23"/>
       <c r="K60" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N60" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Белов Александр Сергеевич")</f>
@@ -4294,16 +4283,16 @@
         <v>125.0</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C61" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="D61" s="31" t="s">
-        <v>250</v>
-      </c>
       <c r="E61" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F61" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A61,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4315,7 +4304,7 @@
       </c>
       <c r="H61" s="23"/>
       <c r="K61" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N61" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C61,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Язькова Александра Витальевна")</f>
@@ -4331,16 +4320,16 @@
         <v>39.0</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C62" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="E62" s="31" t="s">
         <v>253</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>254</v>
       </c>
       <c r="F62" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4352,7 +4341,7 @@
       </c>
       <c r="H62" s="23"/>
       <c r="K62" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N62" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Трифонова Ольга Александровна")</f>
@@ -4368,13 +4357,13 @@
         <v>91.0</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C63" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" s="31" t="s">
         <v>256</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>257</v>
       </c>
       <c r="E63" s="31" t="s">
         <v>35</v>
@@ -4389,7 +4378,7 @@
       </c>
       <c r="H63" s="23"/>
       <c r="K63" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N63" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C63,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фалалеева Анастасия Владимировна")</f>
@@ -4405,16 +4394,16 @@
         <v>43.0</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C64" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="D64" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="D64" s="31" t="s">
-        <v>259</v>
-      </c>
       <c r="E64" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F64" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4426,7 +4415,7 @@
       </c>
       <c r="H64" s="23"/>
       <c r="K64" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N64" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Максимова Ольга Олеговна")</f>
@@ -4442,16 +4431,16 @@
         <v>151.0</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C65" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D65" s="31" t="s">
-        <v>262</v>
-      </c>
       <c r="E65" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F65" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4463,7 +4452,7 @@
       </c>
       <c r="H65" s="23"/>
       <c r="K65" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N65" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4479,16 +4468,16 @@
         <v>54.0</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C66" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D66" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="E66" s="31" t="s">
         <v>265</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>266</v>
       </c>
       <c r="F66" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4500,7 +4489,7 @@
       </c>
       <c r="H66" s="23"/>
       <c r="K66" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N66" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Болотникова Анастасия Михайловна")</f>
@@ -4516,16 +4505,16 @@
         <v>108.0</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C67" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="D67" s="33" t="s">
-        <v>269</v>
-      </c>
       <c r="E67" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F67" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4556,16 +4545,16 @@
         <v>142.0</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C68" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="D68" s="33" t="s">
+      <c r="E68" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>272</v>
       </c>
       <c r="F68" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4578,10 +4567,10 @@
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
       <c r="J68" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K68" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L68" s="30"/>
       <c r="N68" s="13" t="str">
@@ -4598,13 +4587,13 @@
         <v>102.0</v>
       </c>
       <c r="B69" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="D69" s="36" t="s">
         <v>275</v>
-      </c>
-      <c r="D69" s="36" t="s">
-        <v>276</v>
       </c>
       <c r="E69" s="36" t="s">
         <v>110</v>
@@ -4619,13 +4608,13 @@
       </c>
       <c r="H69" s="23"/>
       <c r="J69" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>111</v>
       </c>
       <c r="L69" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N69" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C69,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фишкин Сергей Анатольевич")</f>
@@ -4641,16 +4630,16 @@
         <v>19.0</v>
       </c>
       <c r="B70" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="C70" s="36" t="s">
-        <v>275</v>
-      </c>
       <c r="D70" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" s="36" t="s">
         <v>279</v>
-      </c>
-      <c r="E70" s="36" t="s">
-        <v>280</v>
       </c>
       <c r="F70" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4662,7 +4651,7 @@
       </c>
       <c r="H70" s="23"/>
       <c r="K70" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N70" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Хакимзянова Диана Фаридовна")</f>
@@ -4678,16 +4667,16 @@
         <v>83.0</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C71" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="E71" s="36" t="s">
         <v>283</v>
-      </c>
-      <c r="E71" s="36" t="s">
-        <v>284</v>
       </c>
       <c r="F71" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4699,10 +4688,10 @@
       </c>
       <c r="H71" s="23"/>
       <c r="K71" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N71" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4718,13 +4707,13 @@
         <v>56.0</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C72" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" s="36" t="s">
         <v>286</v>
-      </c>
-      <c r="D72" s="36" t="s">
-        <v>287</v>
       </c>
       <c r="E72" s="36" t="s">
         <v>16</v>
@@ -4739,13 +4728,13 @@
       </c>
       <c r="H72" s="23"/>
       <c r="J72" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K72" s="13" t="s">
         <v>91</v>
       </c>
       <c r="L72" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M72" s="10" t="s">
         <v>21</v>
@@ -4764,13 +4753,13 @@
         <v>61.0</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C73" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D73" s="36" t="s">
         <v>290</v>
-      </c>
-      <c r="D73" s="36" t="s">
-        <v>291</v>
       </c>
       <c r="E73" s="36" t="s">
         <v>16</v>
@@ -4788,13 +4777,13 @@
       </c>
       <c r="I73" s="14"/>
       <c r="J73" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K73" s="13" t="s">
         <v>158</v>
       </c>
       <c r="L73" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M73" s="10" t="s">
         <v>21</v>
@@ -4813,13 +4802,13 @@
         <v>79.0</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C74" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" s="36" t="s">
         <v>294</v>
-      </c>
-      <c r="D74" s="36" t="s">
-        <v>295</v>
       </c>
       <c r="E74" s="36" t="s">
         <v>16</v>
@@ -4834,16 +4823,16 @@
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="J74" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="J74" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="K74" s="13" t="s">
         <v>135</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M74" s="10" t="s">
         <v>21</v>
@@ -4862,16 +4851,16 @@
         <v>98.0</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C75" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D75" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="D75" s="36" t="s">
-        <v>300</v>
-      </c>
       <c r="E75" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F75" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4883,7 +4872,7 @@
       </c>
       <c r="H75" s="23"/>
       <c r="K75" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N75" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4899,16 +4888,16 @@
         <v>149.0</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C76" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D76" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="D76" s="36" t="s">
-        <v>302</v>
-      </c>
       <c r="E76" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F76" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Доставка")</f>
@@ -4920,13 +4909,13 @@
       </c>
       <c r="H76" s="23"/>
       <c r="J76" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L76" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N76" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4942,16 +4931,16 @@
         <v>21.0</v>
       </c>
       <c r="B77" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="C77" s="38" t="s">
-        <v>275</v>
-      </c>
       <c r="D77" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F77" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Доставка")</f>
@@ -4963,16 +4952,16 @@
       </c>
       <c r="H77" s="30"/>
       <c r="I77" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J77" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="J77" s="34" t="s">
+      <c r="K77" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L77" s="40" t="s">
         <v>306</v>
-      </c>
-      <c r="K77" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="L77" s="40" t="s">
-        <v>307</v>
       </c>
       <c r="N77" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -4988,13 +4977,13 @@
         <v>86.0</v>
       </c>
       <c r="B78" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="C78" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="D78" s="41" t="s">
         <v>309</v>
-      </c>
-      <c r="D78" s="41" t="s">
-        <v>310</v>
       </c>
       <c r="E78" s="41" t="s">
         <v>16</v>
@@ -5011,7 +5000,7 @@
         <v>17</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K78" s="13" t="s">
         <v>135</v>
@@ -5033,13 +5022,13 @@
         <v>160.0</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C79" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D79" s="41" t="s">
         <v>312</v>
-      </c>
-      <c r="D79" s="41" t="s">
-        <v>313</v>
       </c>
       <c r="E79" s="41" t="s">
         <v>16</v>
@@ -5056,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="J79" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K79" s="13" t="s">
         <v>20</v>
@@ -5076,13 +5065,13 @@
         <v>24.0</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C80" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" s="41" t="s">
         <v>315</v>
-      </c>
-      <c r="D80" s="41" t="s">
-        <v>316</v>
       </c>
       <c r="E80" s="41" t="s">
         <v>35</v>
@@ -5113,13 +5102,13 @@
         <v>89.0</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C81" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D81" s="41" t="s">
         <v>317</v>
-      </c>
-      <c r="D81" s="41" t="s">
-        <v>318</v>
       </c>
       <c r="E81" s="41" t="s">
         <v>35</v>
@@ -5134,10 +5123,10 @@
       </c>
       <c r="H81" s="23"/>
       <c r="K81" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="L81" s="10" t="s">
         <v>319</v>
-      </c>
-      <c r="L81" s="10" t="s">
-        <v>320</v>
       </c>
       <c r="N81" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C81,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Ерошкина Мария Александровна")</f>
@@ -10309,16 +10298,16 @@
         <v>100</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -10327,84 +10316,84 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="P3" s="44" t="s">
         <v>322</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="P4" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="5">
@@ -13415,7 +13404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>0</v>
@@ -13436,7 +13425,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
@@ -13444,25 +13433,25 @@
         <v>102.0</v>
       </c>
       <c r="B2" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>276</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3">
@@ -13479,13 +13468,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>25</v>
@@ -13505,16 +13494,16 @@
         <v>34</v>
       </c>
       <c r="E4" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" s="52" t="s">
         <v>341</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="5">
@@ -13531,13 +13520,13 @@
         <v>41</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H5" s="34" t="s">
         <v>43</v>
@@ -13557,13 +13546,13 @@
         <v>52</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>54</v>
@@ -13583,13 +13572,13 @@
         <v>64</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H7" s="54" t="s">
         <v>65</v>
@@ -13609,13 +13598,13 @@
         <v>69</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>70</v>
@@ -13626,25 +13615,25 @@
         <v>149.0</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>302</v>
-      </c>
       <c r="E9" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" s="52" t="s">
         <v>343</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="10">
@@ -13652,25 +13641,25 @@
         <v>21.0</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>275</v>
-      </c>
       <c r="D10" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -781,7 +781,7 @@
     <t>г. Пермь</t>
   </si>
   <si>
-    <t>Трифонова Ольга Александровна</t>
+    <t>Карелина Анастасия Алексеевна</t>
   </si>
   <si>
     <t>Сыроварня Санкт-Петербург и НАМА</t>
@@ -1293,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1389,6 +1389,7 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -4340,12 +4341,12 @@
         <v>волна 1</v>
       </c>
       <c r="H62" s="23"/>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="33" t="s">
         <v>254</v>
       </c>
       <c r="N62" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Трифонова Ольга Александровна")</f>
-        <v>Трифонова Ольга Александровна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Карелина Анастасия Алексеевна")</f>
+        <v>Карелина Анастасия Алексеевна</v>
       </c>
       <c r="O62" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4504,16 +4505,16 @@
       <c r="A67" s="27">
         <v>108.0</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C67" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="D67" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="E67" s="33" t="s">
+      <c r="E67" s="34" t="s">
         <v>227</v>
       </c>
       <c r="F67" s="10" t="str">
@@ -4544,16 +4545,16 @@
       <c r="A68" s="27">
         <v>142.0</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="D68" s="33" t="s">
+      <c r="D68" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="E68" s="33" t="s">
+      <c r="E68" s="34" t="s">
         <v>271</v>
       </c>
       <c r="F68" s="10" t="str">
@@ -4566,10 +4567,10 @@
       </c>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
-      <c r="J68" s="34" t="s">
+      <c r="J68" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="K68" s="35" t="s">
+      <c r="K68" s="36" t="s">
         <v>205</v>
       </c>
       <c r="L68" s="30"/>
@@ -4586,16 +4587,16 @@
       <c r="A69" s="8">
         <v>102.0</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D69" s="36" t="s">
+      <c r="D69" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="37" t="s">
         <v>110</v>
       </c>
       <c r="F69" s="10" t="str">
@@ -4607,13 +4608,13 @@
         <v>волна 1</v>
       </c>
       <c r="H69" s="23"/>
-      <c r="J69" s="34" t="s">
+      <c r="J69" s="35" t="s">
         <v>276</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="L69" s="37" t="s">
+      <c r="L69" s="38" t="s">
         <v>277</v>
       </c>
       <c r="N69" s="13" t="str">
@@ -4629,16 +4630,16 @@
       <c r="A70" s="8">
         <v>19.0</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="37" t="s">
         <v>279</v>
       </c>
       <c r="F70" s="10" t="str">
@@ -4666,16 +4667,16 @@
       <c r="A71" s="8">
         <v>83.0</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="37" t="s">
         <v>283</v>
       </c>
       <c r="F71" s="10" t="str">
@@ -4706,16 +4707,16 @@
       <c r="A72" s="8">
         <v>56.0</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="D72" s="36" t="s">
+      <c r="D72" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="E72" s="36" t="s">
+      <c r="E72" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="10" t="str">
@@ -4752,16 +4753,16 @@
       <c r="A73" s="8">
         <v>61.0</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="E73" s="36" t="s">
+      <c r="E73" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F73" s="10" t="str">
@@ -4801,16 +4802,16 @@
       <c r="A74" s="8">
         <v>79.0</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="10" t="str">
@@ -4850,16 +4851,16 @@
       <c r="A75" s="8">
         <v>98.0</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="37" t="s">
         <v>211</v>
       </c>
       <c r="F75" s="10" t="str">
@@ -4887,16 +4888,16 @@
       <c r="A76" s="8">
         <v>149.0</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="E76" s="36" t="s">
+      <c r="E76" s="37" t="s">
         <v>211</v>
       </c>
       <c r="F76" s="10" t="str">
@@ -4908,13 +4909,13 @@
         <v>волна 1</v>
       </c>
       <c r="H76" s="23"/>
-      <c r="J76" s="34" t="s">
+      <c r="J76" s="35" t="s">
         <v>302</v>
       </c>
       <c r="K76" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="L76" s="37" t="s">
+      <c r="L76" s="38" t="s">
         <v>277</v>
       </c>
       <c r="N76" s="13" t="str">
@@ -4930,16 +4931,16 @@
       <c r="A77" s="27">
         <v>21.0</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="E77" s="38" t="s">
+      <c r="E77" s="39" t="s">
         <v>227</v>
       </c>
       <c r="F77" s="10" t="str">
@@ -4951,16 +4952,16 @@
         <v>волна 1</v>
       </c>
       <c r="H77" s="30"/>
-      <c r="I77" s="39" t="s">
+      <c r="I77" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="J77" s="34" t="s">
+      <c r="J77" s="35" t="s">
         <v>305</v>
       </c>
       <c r="K77" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="L77" s="40" t="s">
+      <c r="L77" s="41" t="s">
         <v>306</v>
       </c>
       <c r="N77" s="13" t="str">
@@ -4976,16 +4977,16 @@
       <c r="A78" s="8">
         <v>86.0</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="10" t="str">
@@ -5021,16 +5022,16 @@
       <c r="A79" s="8">
         <v>160.0</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="D79" s="41" t="s">
+      <c r="D79" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="E79" s="41" t="s">
+      <c r="E79" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="10" t="str">
@@ -5064,16 +5065,16 @@
       <c r="A80" s="16">
         <v>24.0</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="C80" s="41" t="s">
+      <c r="C80" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D80" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="E80" s="41" t="s">
+      <c r="E80" s="42" t="s">
         <v>35</v>
       </c>
       <c r="F80" s="10" t="str">
@@ -5101,16 +5102,16 @@
       <c r="A81" s="8">
         <v>89.0</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="C81" s="41" t="s">
+      <c r="C81" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="E81" s="41" t="s">
+      <c r="E81" s="42" t="s">
         <v>35</v>
       </c>
       <c r="F81" s="10" t="str">
@@ -5138,5019 +5139,5019 @@
       </c>
     </row>
     <row r="82">
-      <c r="F82" s="42"/>
-      <c r="G82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="44"/>
       <c r="H82" s="23"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
     </row>
     <row r="83">
-      <c r="F83" s="42"/>
-      <c r="G83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="44"/>
       <c r="H83" s="23"/>
-      <c r="K83" s="42"/>
-      <c r="L83" s="42"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
     </row>
     <row r="84">
-      <c r="F84" s="42"/>
-      <c r="G84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="44"/>
       <c r="H84" s="23"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
     </row>
     <row r="85">
-      <c r="F85" s="42"/>
-      <c r="G85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="44"/>
       <c r="H85" s="23"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="42"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
     </row>
     <row r="86">
-      <c r="F86" s="42"/>
-      <c r="G86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="44"/>
       <c r="H86" s="23"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="42"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
     </row>
     <row r="87">
-      <c r="G87" s="43"/>
+      <c r="G87" s="44"/>
       <c r="H87" s="23"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="42"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
     </row>
     <row r="88">
-      <c r="G88" s="43"/>
+      <c r="G88" s="44"/>
       <c r="H88" s="23"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="42"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
     </row>
     <row r="89">
-      <c r="G89" s="43"/>
+      <c r="G89" s="44"/>
       <c r="H89" s="23"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
     </row>
     <row r="90">
-      <c r="G90" s="43"/>
+      <c r="G90" s="44"/>
       <c r="H90" s="23"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="42"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
     </row>
     <row r="91">
-      <c r="G91" s="43"/>
+      <c r="G91" s="44"/>
       <c r="H91" s="23"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="42"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
     </row>
     <row r="92">
-      <c r="G92" s="43"/>
+      <c r="G92" s="44"/>
       <c r="H92" s="23"/>
-      <c r="K92" s="42"/>
-      <c r="L92" s="42"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
     </row>
     <row r="93">
-      <c r="G93" s="43"/>
+      <c r="G93" s="44"/>
       <c r="H93" s="23"/>
-      <c r="K93" s="42"/>
-      <c r="L93" s="42"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
     </row>
     <row r="94">
-      <c r="G94" s="43"/>
+      <c r="G94" s="44"/>
       <c r="H94" s="23"/>
-      <c r="K94" s="42"/>
-      <c r="L94" s="42"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
     </row>
     <row r="95">
-      <c r="G95" s="43"/>
+      <c r="G95" s="44"/>
       <c r="H95" s="23"/>
-      <c r="K95" s="42"/>
-      <c r="L95" s="42"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
     </row>
     <row r="96">
-      <c r="G96" s="43"/>
+      <c r="G96" s="44"/>
       <c r="H96" s="23"/>
-      <c r="K96" s="42"/>
-      <c r="L96" s="42"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
     </row>
     <row r="97">
-      <c r="G97" s="43"/>
+      <c r="G97" s="44"/>
       <c r="H97" s="23"/>
-      <c r="K97" s="42"/>
-      <c r="L97" s="42"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
     </row>
     <row r="98">
-      <c r="G98" s="43"/>
+      <c r="G98" s="44"/>
       <c r="H98" s="23"/>
-      <c r="K98" s="42"/>
-      <c r="L98" s="42"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="43"/>
     </row>
     <row r="99">
-      <c r="G99" s="43"/>
+      <c r="G99" s="44"/>
       <c r="H99" s="23"/>
-      <c r="K99" s="42"/>
-      <c r="L99" s="42"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
     </row>
     <row r="100">
-      <c r="G100" s="43"/>
+      <c r="G100" s="44"/>
       <c r="H100" s="23"/>
-      <c r="K100" s="42"/>
-      <c r="L100" s="42"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
     </row>
     <row r="101">
-      <c r="G101" s="43"/>
+      <c r="G101" s="44"/>
       <c r="H101" s="23"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="42"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="43"/>
     </row>
     <row r="102">
-      <c r="G102" s="43"/>
+      <c r="G102" s="44"/>
       <c r="H102" s="23"/>
-      <c r="K102" s="42"/>
-      <c r="L102" s="42"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
     </row>
     <row r="103">
-      <c r="G103" s="43"/>
+      <c r="G103" s="44"/>
       <c r="H103" s="23"/>
-      <c r="K103" s="42"/>
-      <c r="L103" s="42"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
     </row>
     <row r="104">
-      <c r="G104" s="43"/>
+      <c r="G104" s="44"/>
       <c r="H104" s="23"/>
-      <c r="K104" s="42"/>
-      <c r="L104" s="42"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
     </row>
     <row r="105">
-      <c r="G105" s="43"/>
+      <c r="G105" s="44"/>
       <c r="H105" s="23"/>
-      <c r="K105" s="42"/>
-      <c r="L105" s="42"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
     </row>
     <row r="106">
-      <c r="G106" s="43"/>
+      <c r="G106" s="44"/>
       <c r="H106" s="23"/>
-      <c r="K106" s="42"/>
-      <c r="L106" s="42"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
     </row>
     <row r="107">
-      <c r="G107" s="43"/>
+      <c r="G107" s="44"/>
       <c r="H107" s="23"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="42"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
     </row>
     <row r="108">
-      <c r="G108" s="43"/>
+      <c r="G108" s="44"/>
       <c r="H108" s="23"/>
-      <c r="K108" s="42"/>
-      <c r="L108" s="42"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="43"/>
     </row>
     <row r="109">
-      <c r="G109" s="43"/>
+      <c r="G109" s="44"/>
       <c r="H109" s="23"/>
-      <c r="K109" s="42"/>
-      <c r="L109" s="42"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="43"/>
     </row>
     <row r="110">
-      <c r="G110" s="43"/>
+      <c r="G110" s="44"/>
       <c r="H110" s="23"/>
-      <c r="K110" s="42"/>
-      <c r="L110" s="42"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
     </row>
     <row r="111">
-      <c r="G111" s="43"/>
+      <c r="G111" s="44"/>
       <c r="H111" s="23"/>
-      <c r="K111" s="42"/>
-      <c r="L111" s="42"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
     </row>
     <row r="112">
-      <c r="G112" s="43"/>
+      <c r="G112" s="44"/>
       <c r="H112" s="23"/>
-      <c r="K112" s="42"/>
-      <c r="L112" s="42"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="43"/>
     </row>
     <row r="113">
-      <c r="G113" s="43"/>
+      <c r="G113" s="44"/>
       <c r="H113" s="23"/>
-      <c r="K113" s="42"/>
-      <c r="L113" s="42"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="43"/>
     </row>
     <row r="114">
-      <c r="G114" s="43"/>
+      <c r="G114" s="44"/>
       <c r="H114" s="23"/>
-      <c r="K114" s="42"/>
-      <c r="L114" s="42"/>
+      <c r="K114" s="43"/>
+      <c r="L114" s="43"/>
     </row>
     <row r="115">
-      <c r="G115" s="43"/>
+      <c r="G115" s="44"/>
       <c r="H115" s="23"/>
-      <c r="K115" s="42"/>
-      <c r="L115" s="42"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="43"/>
     </row>
     <row r="116">
-      <c r="G116" s="43"/>
+      <c r="G116" s="44"/>
       <c r="H116" s="23"/>
-      <c r="K116" s="42"/>
-      <c r="L116" s="42"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43"/>
     </row>
     <row r="117">
-      <c r="G117" s="43"/>
+      <c r="G117" s="44"/>
       <c r="H117" s="23"/>
-      <c r="K117" s="42"/>
-      <c r="L117" s="42"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43"/>
     </row>
     <row r="118">
-      <c r="G118" s="43"/>
+      <c r="G118" s="44"/>
       <c r="H118" s="23"/>
-      <c r="K118" s="42"/>
-      <c r="L118" s="42"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43"/>
     </row>
     <row r="119">
-      <c r="G119" s="43"/>
+      <c r="G119" s="44"/>
       <c r="H119" s="23"/>
-      <c r="K119" s="42"/>
-      <c r="L119" s="42"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43"/>
     </row>
     <row r="120">
-      <c r="G120" s="43"/>
+      <c r="G120" s="44"/>
       <c r="H120" s="23"/>
-      <c r="K120" s="42"/>
-      <c r="L120" s="42"/>
+      <c r="K120" s="43"/>
+      <c r="L120" s="43"/>
     </row>
     <row r="121">
-      <c r="G121" s="43"/>
+      <c r="G121" s="44"/>
       <c r="H121" s="23"/>
-      <c r="K121" s="42"/>
-      <c r="L121" s="42"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="43"/>
     </row>
     <row r="122">
-      <c r="G122" s="43"/>
+      <c r="G122" s="44"/>
       <c r="H122" s="23"/>
-      <c r="K122" s="42"/>
-      <c r="L122" s="42"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
     </row>
     <row r="123">
-      <c r="G123" s="43"/>
+      <c r="G123" s="44"/>
       <c r="H123" s="23"/>
-      <c r="K123" s="42"/>
-      <c r="L123" s="42"/>
+      <c r="K123" s="43"/>
+      <c r="L123" s="43"/>
     </row>
     <row r="124">
-      <c r="G124" s="43"/>
+      <c r="G124" s="44"/>
       <c r="H124" s="23"/>
-      <c r="K124" s="42"/>
-      <c r="L124" s="42"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
     </row>
     <row r="125">
-      <c r="G125" s="43"/>
+      <c r="G125" s="44"/>
       <c r="H125" s="23"/>
-      <c r="K125" s="42"/>
-      <c r="L125" s="42"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="43"/>
     </row>
     <row r="126">
-      <c r="G126" s="43"/>
+      <c r="G126" s="44"/>
       <c r="H126" s="23"/>
-      <c r="K126" s="42"/>
-      <c r="L126" s="42"/>
+      <c r="K126" s="43"/>
+      <c r="L126" s="43"/>
     </row>
     <row r="127">
-      <c r="G127" s="43"/>
+      <c r="G127" s="44"/>
       <c r="H127" s="23"/>
-      <c r="K127" s="42"/>
-      <c r="L127" s="42"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="43"/>
     </row>
     <row r="128">
-      <c r="G128" s="43"/>
+      <c r="G128" s="44"/>
       <c r="H128" s="23"/>
-      <c r="K128" s="42"/>
-      <c r="L128" s="42"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="43"/>
     </row>
     <row r="129">
-      <c r="G129" s="43"/>
+      <c r="G129" s="44"/>
       <c r="H129" s="23"/>
-      <c r="K129" s="42"/>
-      <c r="L129" s="42"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="43"/>
     </row>
     <row r="130">
-      <c r="G130" s="43"/>
+      <c r="G130" s="44"/>
       <c r="H130" s="23"/>
-      <c r="K130" s="42"/>
-      <c r="L130" s="42"/>
+      <c r="K130" s="43"/>
+      <c r="L130" s="43"/>
     </row>
     <row r="131">
-      <c r="G131" s="43"/>
+      <c r="G131" s="44"/>
       <c r="H131" s="23"/>
-      <c r="K131" s="42"/>
-      <c r="L131" s="42"/>
+      <c r="K131" s="43"/>
+      <c r="L131" s="43"/>
     </row>
     <row r="132">
-      <c r="G132" s="43"/>
+      <c r="G132" s="44"/>
       <c r="H132" s="23"/>
-      <c r="K132" s="42"/>
-      <c r="L132" s="42"/>
+      <c r="K132" s="43"/>
+      <c r="L132" s="43"/>
     </row>
     <row r="133">
-      <c r="G133" s="43"/>
+      <c r="G133" s="44"/>
       <c r="H133" s="23"/>
-      <c r="K133" s="42"/>
-      <c r="L133" s="42"/>
+      <c r="K133" s="43"/>
+      <c r="L133" s="43"/>
     </row>
     <row r="134">
-      <c r="G134" s="43"/>
+      <c r="G134" s="44"/>
       <c r="H134" s="23"/>
-      <c r="K134" s="42"/>
-      <c r="L134" s="42"/>
+      <c r="K134" s="43"/>
+      <c r="L134" s="43"/>
     </row>
     <row r="135">
-      <c r="G135" s="43"/>
+      <c r="G135" s="44"/>
       <c r="H135" s="23"/>
-      <c r="K135" s="42"/>
-      <c r="L135" s="42"/>
+      <c r="K135" s="43"/>
+      <c r="L135" s="43"/>
     </row>
     <row r="136">
-      <c r="G136" s="43"/>
+      <c r="G136" s="44"/>
       <c r="H136" s="23"/>
-      <c r="K136" s="42"/>
-      <c r="L136" s="42"/>
+      <c r="K136" s="43"/>
+      <c r="L136" s="43"/>
     </row>
     <row r="137">
-      <c r="G137" s="43"/>
+      <c r="G137" s="44"/>
       <c r="H137" s="23"/>
-      <c r="K137" s="42"/>
-      <c r="L137" s="42"/>
+      <c r="K137" s="43"/>
+      <c r="L137" s="43"/>
     </row>
     <row r="138">
-      <c r="G138" s="43"/>
+      <c r="G138" s="44"/>
       <c r="H138" s="23"/>
-      <c r="K138" s="42"/>
-      <c r="L138" s="42"/>
+      <c r="K138" s="43"/>
+      <c r="L138" s="43"/>
     </row>
     <row r="139">
-      <c r="G139" s="43"/>
+      <c r="G139" s="44"/>
       <c r="H139" s="23"/>
-      <c r="K139" s="42"/>
-      <c r="L139" s="42"/>
+      <c r="K139" s="43"/>
+      <c r="L139" s="43"/>
     </row>
     <row r="140">
-      <c r="G140" s="43"/>
+      <c r="G140" s="44"/>
       <c r="H140" s="23"/>
-      <c r="K140" s="42"/>
-      <c r="L140" s="42"/>
+      <c r="K140" s="43"/>
+      <c r="L140" s="43"/>
     </row>
     <row r="141">
-      <c r="G141" s="43"/>
+      <c r="G141" s="44"/>
       <c r="H141" s="23"/>
-      <c r="K141" s="42"/>
-      <c r="L141" s="42"/>
+      <c r="K141" s="43"/>
+      <c r="L141" s="43"/>
     </row>
     <row r="142">
-      <c r="G142" s="43"/>
+      <c r="G142" s="44"/>
       <c r="H142" s="23"/>
-      <c r="K142" s="42"/>
-      <c r="L142" s="42"/>
+      <c r="K142" s="43"/>
+      <c r="L142" s="43"/>
     </row>
     <row r="143">
-      <c r="G143" s="43"/>
+      <c r="G143" s="44"/>
       <c r="H143" s="23"/>
-      <c r="K143" s="42"/>
-      <c r="L143" s="42"/>
+      <c r="K143" s="43"/>
+      <c r="L143" s="43"/>
     </row>
     <row r="144">
-      <c r="G144" s="43"/>
+      <c r="G144" s="44"/>
       <c r="H144" s="23"/>
-      <c r="K144" s="42"/>
-      <c r="L144" s="42"/>
+      <c r="K144" s="43"/>
+      <c r="L144" s="43"/>
     </row>
     <row r="145">
-      <c r="G145" s="43"/>
+      <c r="G145" s="44"/>
       <c r="H145" s="23"/>
-      <c r="K145" s="42"/>
-      <c r="L145" s="42"/>
+      <c r="K145" s="43"/>
+      <c r="L145" s="43"/>
     </row>
     <row r="146">
-      <c r="G146" s="43"/>
+      <c r="G146" s="44"/>
       <c r="H146" s="23"/>
-      <c r="K146" s="42"/>
-      <c r="L146" s="42"/>
+      <c r="K146" s="43"/>
+      <c r="L146" s="43"/>
     </row>
     <row r="147">
-      <c r="G147" s="43"/>
+      <c r="G147" s="44"/>
       <c r="H147" s="23"/>
-      <c r="K147" s="42"/>
-      <c r="L147" s="42"/>
+      <c r="K147" s="43"/>
+      <c r="L147" s="43"/>
     </row>
     <row r="148">
-      <c r="G148" s="43"/>
+      <c r="G148" s="44"/>
       <c r="H148" s="23"/>
-      <c r="K148" s="42"/>
-      <c r="L148" s="42"/>
+      <c r="K148" s="43"/>
+      <c r="L148" s="43"/>
     </row>
     <row r="149">
-      <c r="G149" s="43"/>
+      <c r="G149" s="44"/>
       <c r="H149" s="23"/>
-      <c r="K149" s="42"/>
-      <c r="L149" s="42"/>
+      <c r="K149" s="43"/>
+      <c r="L149" s="43"/>
     </row>
     <row r="150">
-      <c r="G150" s="43"/>
+      <c r="G150" s="44"/>
       <c r="H150" s="23"/>
-      <c r="K150" s="42"/>
-      <c r="L150" s="42"/>
+      <c r="K150" s="43"/>
+      <c r="L150" s="43"/>
     </row>
     <row r="151">
-      <c r="G151" s="43"/>
+      <c r="G151" s="44"/>
       <c r="H151" s="23"/>
-      <c r="K151" s="42"/>
-      <c r="L151" s="42"/>
+      <c r="K151" s="43"/>
+      <c r="L151" s="43"/>
     </row>
     <row r="152">
-      <c r="G152" s="43"/>
+      <c r="G152" s="44"/>
       <c r="H152" s="23"/>
-      <c r="K152" s="42"/>
-      <c r="L152" s="42"/>
+      <c r="K152" s="43"/>
+      <c r="L152" s="43"/>
     </row>
     <row r="153">
-      <c r="G153" s="43"/>
+      <c r="G153" s="44"/>
       <c r="H153" s="23"/>
-      <c r="K153" s="42"/>
-      <c r="L153" s="42"/>
+      <c r="K153" s="43"/>
+      <c r="L153" s="43"/>
     </row>
     <row r="154">
-      <c r="G154" s="43"/>
+      <c r="G154" s="44"/>
       <c r="H154" s="23"/>
-      <c r="K154" s="42"/>
-      <c r="L154" s="42"/>
+      <c r="K154" s="43"/>
+      <c r="L154" s="43"/>
     </row>
     <row r="155">
-      <c r="G155" s="43"/>
+      <c r="G155" s="44"/>
       <c r="H155" s="23"/>
-      <c r="K155" s="42"/>
-      <c r="L155" s="42"/>
+      <c r="K155" s="43"/>
+      <c r="L155" s="43"/>
     </row>
     <row r="156">
-      <c r="G156" s="43"/>
+      <c r="G156" s="44"/>
       <c r="H156" s="23"/>
-      <c r="K156" s="42"/>
-      <c r="L156" s="42"/>
+      <c r="K156" s="43"/>
+      <c r="L156" s="43"/>
     </row>
     <row r="157">
-      <c r="G157" s="43"/>
+      <c r="G157" s="44"/>
       <c r="H157" s="23"/>
-      <c r="K157" s="42"/>
-      <c r="L157" s="42"/>
+      <c r="K157" s="43"/>
+      <c r="L157" s="43"/>
     </row>
     <row r="158">
-      <c r="G158" s="43"/>
+      <c r="G158" s="44"/>
       <c r="H158" s="23"/>
-      <c r="K158" s="42"/>
-      <c r="L158" s="42"/>
+      <c r="K158" s="43"/>
+      <c r="L158" s="43"/>
     </row>
     <row r="159">
-      <c r="G159" s="43"/>
+      <c r="G159" s="44"/>
       <c r="H159" s="23"/>
-      <c r="K159" s="42"/>
-      <c r="L159" s="42"/>
+      <c r="K159" s="43"/>
+      <c r="L159" s="43"/>
     </row>
     <row r="160">
-      <c r="G160" s="43"/>
+      <c r="G160" s="44"/>
       <c r="H160" s="23"/>
-      <c r="K160" s="42"/>
-      <c r="L160" s="42"/>
+      <c r="K160" s="43"/>
+      <c r="L160" s="43"/>
     </row>
     <row r="161">
-      <c r="G161" s="43"/>
+      <c r="G161" s="44"/>
       <c r="H161" s="23"/>
-      <c r="K161" s="42"/>
-      <c r="L161" s="42"/>
+      <c r="K161" s="43"/>
+      <c r="L161" s="43"/>
     </row>
     <row r="162">
-      <c r="G162" s="43"/>
+      <c r="G162" s="44"/>
       <c r="H162" s="23"/>
-      <c r="K162" s="42"/>
-      <c r="L162" s="42"/>
+      <c r="K162" s="43"/>
+      <c r="L162" s="43"/>
     </row>
     <row r="163">
-      <c r="G163" s="43"/>
+      <c r="G163" s="44"/>
       <c r="H163" s="23"/>
-      <c r="K163" s="42"/>
-      <c r="L163" s="42"/>
+      <c r="K163" s="43"/>
+      <c r="L163" s="43"/>
     </row>
     <row r="164">
-      <c r="G164" s="43"/>
+      <c r="G164" s="44"/>
       <c r="H164" s="23"/>
-      <c r="K164" s="42"/>
-      <c r="L164" s="42"/>
+      <c r="K164" s="43"/>
+      <c r="L164" s="43"/>
     </row>
     <row r="165">
-      <c r="G165" s="43"/>
+      <c r="G165" s="44"/>
       <c r="H165" s="23"/>
-      <c r="K165" s="42"/>
-      <c r="L165" s="42"/>
+      <c r="K165" s="43"/>
+      <c r="L165" s="43"/>
     </row>
     <row r="166">
-      <c r="G166" s="43"/>
+      <c r="G166" s="44"/>
       <c r="H166" s="23"/>
-      <c r="K166" s="42"/>
-      <c r="L166" s="42"/>
+      <c r="K166" s="43"/>
+      <c r="L166" s="43"/>
     </row>
     <row r="167">
-      <c r="G167" s="43"/>
+      <c r="G167" s="44"/>
       <c r="H167" s="23"/>
-      <c r="K167" s="42"/>
-      <c r="L167" s="42"/>
+      <c r="K167" s="43"/>
+      <c r="L167" s="43"/>
     </row>
     <row r="168">
-      <c r="G168" s="43"/>
+      <c r="G168" s="44"/>
       <c r="H168" s="23"/>
-      <c r="K168" s="42"/>
-      <c r="L168" s="42"/>
+      <c r="K168" s="43"/>
+      <c r="L168" s="43"/>
     </row>
     <row r="169">
-      <c r="G169" s="43"/>
+      <c r="G169" s="44"/>
       <c r="H169" s="23"/>
-      <c r="K169" s="42"/>
-      <c r="L169" s="42"/>
+      <c r="K169" s="43"/>
+      <c r="L169" s="43"/>
     </row>
     <row r="170">
-      <c r="G170" s="43"/>
+      <c r="G170" s="44"/>
       <c r="H170" s="23"/>
-      <c r="K170" s="42"/>
-      <c r="L170" s="42"/>
+      <c r="K170" s="43"/>
+      <c r="L170" s="43"/>
     </row>
     <row r="171">
-      <c r="G171" s="43"/>
+      <c r="G171" s="44"/>
       <c r="H171" s="23"/>
-      <c r="K171" s="42"/>
-      <c r="L171" s="42"/>
+      <c r="K171" s="43"/>
+      <c r="L171" s="43"/>
     </row>
     <row r="172">
-      <c r="G172" s="43"/>
+      <c r="G172" s="44"/>
       <c r="H172" s="23"/>
-      <c r="K172" s="42"/>
-      <c r="L172" s="42"/>
+      <c r="K172" s="43"/>
+      <c r="L172" s="43"/>
     </row>
     <row r="173">
-      <c r="G173" s="43"/>
+      <c r="G173" s="44"/>
       <c r="H173" s="23"/>
-      <c r="K173" s="42"/>
-      <c r="L173" s="42"/>
+      <c r="K173" s="43"/>
+      <c r="L173" s="43"/>
     </row>
     <row r="174">
-      <c r="G174" s="43"/>
+      <c r="G174" s="44"/>
       <c r="H174" s="23"/>
-      <c r="K174" s="42"/>
-      <c r="L174" s="42"/>
+      <c r="K174" s="43"/>
+      <c r="L174" s="43"/>
     </row>
     <row r="175">
-      <c r="G175" s="43"/>
+      <c r="G175" s="44"/>
       <c r="H175" s="23"/>
-      <c r="K175" s="42"/>
-      <c r="L175" s="42"/>
+      <c r="K175" s="43"/>
+      <c r="L175" s="43"/>
     </row>
     <row r="176">
-      <c r="G176" s="43"/>
+      <c r="G176" s="44"/>
       <c r="H176" s="23"/>
-      <c r="K176" s="42"/>
-      <c r="L176" s="42"/>
+      <c r="K176" s="43"/>
+      <c r="L176" s="43"/>
     </row>
     <row r="177">
-      <c r="G177" s="43"/>
+      <c r="G177" s="44"/>
       <c r="H177" s="23"/>
-      <c r="K177" s="42"/>
-      <c r="L177" s="42"/>
+      <c r="K177" s="43"/>
+      <c r="L177" s="43"/>
     </row>
     <row r="178">
-      <c r="G178" s="43"/>
+      <c r="G178" s="44"/>
       <c r="H178" s="23"/>
-      <c r="K178" s="42"/>
-      <c r="L178" s="42"/>
+      <c r="K178" s="43"/>
+      <c r="L178" s="43"/>
     </row>
     <row r="179">
-      <c r="G179" s="43"/>
+      <c r="G179" s="44"/>
       <c r="H179" s="23"/>
-      <c r="K179" s="42"/>
-      <c r="L179" s="42"/>
+      <c r="K179" s="43"/>
+      <c r="L179" s="43"/>
     </row>
     <row r="180">
-      <c r="G180" s="43"/>
+      <c r="G180" s="44"/>
       <c r="H180" s="23"/>
-      <c r="K180" s="42"/>
-      <c r="L180" s="42"/>
+      <c r="K180" s="43"/>
+      <c r="L180" s="43"/>
     </row>
     <row r="181">
-      <c r="G181" s="43"/>
+      <c r="G181" s="44"/>
       <c r="H181" s="23"/>
-      <c r="K181" s="42"/>
-      <c r="L181" s="42"/>
+      <c r="K181" s="43"/>
+      <c r="L181" s="43"/>
     </row>
     <row r="182">
-      <c r="G182" s="43"/>
+      <c r="G182" s="44"/>
       <c r="H182" s="23"/>
-      <c r="K182" s="42"/>
-      <c r="L182" s="42"/>
+      <c r="K182" s="43"/>
+      <c r="L182" s="43"/>
     </row>
     <row r="183">
-      <c r="G183" s="43"/>
+      <c r="G183" s="44"/>
       <c r="H183" s="23"/>
-      <c r="K183" s="42"/>
-      <c r="L183" s="42"/>
+      <c r="K183" s="43"/>
+      <c r="L183" s="43"/>
     </row>
     <row r="184">
-      <c r="G184" s="43"/>
+      <c r="G184" s="44"/>
       <c r="H184" s="23"/>
-      <c r="K184" s="42"/>
-      <c r="L184" s="42"/>
+      <c r="K184" s="43"/>
+      <c r="L184" s="43"/>
     </row>
     <row r="185">
-      <c r="G185" s="43"/>
+      <c r="G185" s="44"/>
       <c r="H185" s="23"/>
-      <c r="K185" s="42"/>
-      <c r="L185" s="42"/>
+      <c r="K185" s="43"/>
+      <c r="L185" s="43"/>
     </row>
     <row r="186">
-      <c r="G186" s="43"/>
+      <c r="G186" s="44"/>
       <c r="H186" s="23"/>
-      <c r="K186" s="42"/>
-      <c r="L186" s="42"/>
+      <c r="K186" s="43"/>
+      <c r="L186" s="43"/>
     </row>
     <row r="187">
-      <c r="G187" s="43"/>
+      <c r="G187" s="44"/>
       <c r="H187" s="23"/>
-      <c r="K187" s="42"/>
-      <c r="L187" s="42"/>
+      <c r="K187" s="43"/>
+      <c r="L187" s="43"/>
     </row>
     <row r="188">
-      <c r="G188" s="43"/>
+      <c r="G188" s="44"/>
       <c r="H188" s="23"/>
-      <c r="K188" s="42"/>
-      <c r="L188" s="42"/>
+      <c r="K188" s="43"/>
+      <c r="L188" s="43"/>
     </row>
     <row r="189">
-      <c r="G189" s="43"/>
+      <c r="G189" s="44"/>
       <c r="H189" s="23"/>
-      <c r="K189" s="42"/>
-      <c r="L189" s="42"/>
+      <c r="K189" s="43"/>
+      <c r="L189" s="43"/>
     </row>
     <row r="190">
-      <c r="G190" s="43"/>
+      <c r="G190" s="44"/>
       <c r="H190" s="23"/>
-      <c r="K190" s="42"/>
-      <c r="L190" s="42"/>
+      <c r="K190" s="43"/>
+      <c r="L190" s="43"/>
     </row>
     <row r="191">
-      <c r="G191" s="43"/>
+      <c r="G191" s="44"/>
       <c r="H191" s="23"/>
-      <c r="K191" s="42"/>
-      <c r="L191" s="42"/>
+      <c r="K191" s="43"/>
+      <c r="L191" s="43"/>
     </row>
     <row r="192">
-      <c r="G192" s="43"/>
+      <c r="G192" s="44"/>
       <c r="H192" s="23"/>
-      <c r="K192" s="42"/>
-      <c r="L192" s="42"/>
+      <c r="K192" s="43"/>
+      <c r="L192" s="43"/>
     </row>
     <row r="193">
-      <c r="G193" s="43"/>
+      <c r="G193" s="44"/>
       <c r="H193" s="23"/>
-      <c r="K193" s="42"/>
-      <c r="L193" s="42"/>
+      <c r="K193" s="43"/>
+      <c r="L193" s="43"/>
     </row>
     <row r="194">
-      <c r="G194" s="43"/>
+      <c r="G194" s="44"/>
       <c r="H194" s="23"/>
-      <c r="K194" s="42"/>
-      <c r="L194" s="42"/>
+      <c r="K194" s="43"/>
+      <c r="L194" s="43"/>
     </row>
     <row r="195">
-      <c r="G195" s="43"/>
+      <c r="G195" s="44"/>
       <c r="H195" s="23"/>
-      <c r="K195" s="42"/>
-      <c r="L195" s="42"/>
+      <c r="K195" s="43"/>
+      <c r="L195" s="43"/>
     </row>
     <row r="196">
-      <c r="G196" s="43"/>
+      <c r="G196" s="44"/>
       <c r="H196" s="23"/>
-      <c r="K196" s="42"/>
-      <c r="L196" s="42"/>
+      <c r="K196" s="43"/>
+      <c r="L196" s="43"/>
     </row>
     <row r="197">
-      <c r="G197" s="43"/>
+      <c r="G197" s="44"/>
       <c r="H197" s="23"/>
-      <c r="K197" s="42"/>
-      <c r="L197" s="42"/>
+      <c r="K197" s="43"/>
+      <c r="L197" s="43"/>
     </row>
     <row r="198">
-      <c r="G198" s="43"/>
+      <c r="G198" s="44"/>
       <c r="H198" s="23"/>
-      <c r="K198" s="42"/>
-      <c r="L198" s="42"/>
+      <c r="K198" s="43"/>
+      <c r="L198" s="43"/>
     </row>
     <row r="199">
-      <c r="G199" s="43"/>
+      <c r="G199" s="44"/>
       <c r="H199" s="23"/>
-      <c r="K199" s="42"/>
-      <c r="L199" s="42"/>
+      <c r="K199" s="43"/>
+      <c r="L199" s="43"/>
     </row>
     <row r="200">
-      <c r="G200" s="43"/>
+      <c r="G200" s="44"/>
       <c r="H200" s="23"/>
-      <c r="K200" s="42"/>
-      <c r="L200" s="42"/>
+      <c r="K200" s="43"/>
+      <c r="L200" s="43"/>
     </row>
     <row r="201">
-      <c r="G201" s="43"/>
+      <c r="G201" s="44"/>
       <c r="H201" s="23"/>
-      <c r="K201" s="42"/>
-      <c r="L201" s="42"/>
+      <c r="K201" s="43"/>
+      <c r="L201" s="43"/>
     </row>
     <row r="202">
-      <c r="G202" s="43"/>
+      <c r="G202" s="44"/>
       <c r="H202" s="23"/>
-      <c r="K202" s="42"/>
-      <c r="L202" s="42"/>
+      <c r="K202" s="43"/>
+      <c r="L202" s="43"/>
     </row>
     <row r="203">
-      <c r="G203" s="43"/>
+      <c r="G203" s="44"/>
       <c r="H203" s="23"/>
-      <c r="K203" s="42"/>
-      <c r="L203" s="42"/>
+      <c r="K203" s="43"/>
+      <c r="L203" s="43"/>
     </row>
     <row r="204">
-      <c r="G204" s="43"/>
+      <c r="G204" s="44"/>
       <c r="H204" s="23"/>
-      <c r="K204" s="42"/>
-      <c r="L204" s="42"/>
+      <c r="K204" s="43"/>
+      <c r="L204" s="43"/>
     </row>
     <row r="205">
-      <c r="G205" s="43"/>
+      <c r="G205" s="44"/>
       <c r="H205" s="23"/>
-      <c r="K205" s="42"/>
-      <c r="L205" s="42"/>
+      <c r="K205" s="43"/>
+      <c r="L205" s="43"/>
     </row>
     <row r="206">
-      <c r="G206" s="43"/>
+      <c r="G206" s="44"/>
       <c r="H206" s="23"/>
-      <c r="K206" s="42"/>
-      <c r="L206" s="42"/>
+      <c r="K206" s="43"/>
+      <c r="L206" s="43"/>
     </row>
     <row r="207">
-      <c r="G207" s="43"/>
+      <c r="G207" s="44"/>
       <c r="H207" s="23"/>
-      <c r="K207" s="42"/>
-      <c r="L207" s="42"/>
+      <c r="K207" s="43"/>
+      <c r="L207" s="43"/>
     </row>
     <row r="208">
-      <c r="G208" s="43"/>
+      <c r="G208" s="44"/>
       <c r="H208" s="23"/>
-      <c r="K208" s="42"/>
-      <c r="L208" s="42"/>
+      <c r="K208" s="43"/>
+      <c r="L208" s="43"/>
     </row>
     <row r="209">
-      <c r="G209" s="43"/>
+      <c r="G209" s="44"/>
       <c r="H209" s="23"/>
-      <c r="K209" s="42"/>
-      <c r="L209" s="42"/>
+      <c r="K209" s="43"/>
+      <c r="L209" s="43"/>
     </row>
     <row r="210">
-      <c r="G210" s="43"/>
+      <c r="G210" s="44"/>
       <c r="H210" s="23"/>
-      <c r="K210" s="42"/>
-      <c r="L210" s="42"/>
+      <c r="K210" s="43"/>
+      <c r="L210" s="43"/>
     </row>
     <row r="211">
-      <c r="G211" s="43"/>
+      <c r="G211" s="44"/>
       <c r="H211" s="23"/>
-      <c r="K211" s="42"/>
-      <c r="L211" s="42"/>
+      <c r="K211" s="43"/>
+      <c r="L211" s="43"/>
     </row>
     <row r="212">
-      <c r="G212" s="43"/>
+      <c r="G212" s="44"/>
       <c r="H212" s="23"/>
-      <c r="K212" s="42"/>
-      <c r="L212" s="42"/>
+      <c r="K212" s="43"/>
+      <c r="L212" s="43"/>
     </row>
     <row r="213">
-      <c r="G213" s="43"/>
+      <c r="G213" s="44"/>
       <c r="H213" s="23"/>
-      <c r="K213" s="42"/>
-      <c r="L213" s="42"/>
+      <c r="K213" s="43"/>
+      <c r="L213" s="43"/>
     </row>
     <row r="214">
-      <c r="G214" s="43"/>
+      <c r="G214" s="44"/>
       <c r="H214" s="23"/>
-      <c r="K214" s="42"/>
-      <c r="L214" s="42"/>
+      <c r="K214" s="43"/>
+      <c r="L214" s="43"/>
     </row>
     <row r="215">
-      <c r="G215" s="43"/>
+      <c r="G215" s="44"/>
       <c r="H215" s="23"/>
-      <c r="K215" s="42"/>
-      <c r="L215" s="42"/>
+      <c r="K215" s="43"/>
+      <c r="L215" s="43"/>
     </row>
     <row r="216">
-      <c r="G216" s="43"/>
+      <c r="G216" s="44"/>
       <c r="H216" s="23"/>
-      <c r="K216" s="42"/>
-      <c r="L216" s="42"/>
+      <c r="K216" s="43"/>
+      <c r="L216" s="43"/>
     </row>
     <row r="217">
-      <c r="G217" s="43"/>
+      <c r="G217" s="44"/>
       <c r="H217" s="23"/>
-      <c r="K217" s="42"/>
-      <c r="L217" s="42"/>
+      <c r="K217" s="43"/>
+      <c r="L217" s="43"/>
     </row>
     <row r="218">
-      <c r="G218" s="43"/>
+      <c r="G218" s="44"/>
       <c r="H218" s="23"/>
-      <c r="K218" s="42"/>
-      <c r="L218" s="42"/>
+      <c r="K218" s="43"/>
+      <c r="L218" s="43"/>
     </row>
     <row r="219">
-      <c r="G219" s="43"/>
+      <c r="G219" s="44"/>
       <c r="H219" s="23"/>
-      <c r="K219" s="42"/>
-      <c r="L219" s="42"/>
+      <c r="K219" s="43"/>
+      <c r="L219" s="43"/>
     </row>
     <row r="220">
-      <c r="G220" s="43"/>
+      <c r="G220" s="44"/>
       <c r="H220" s="23"/>
-      <c r="K220" s="42"/>
-      <c r="L220" s="42"/>
+      <c r="K220" s="43"/>
+      <c r="L220" s="43"/>
     </row>
     <row r="221">
-      <c r="G221" s="43"/>
+      <c r="G221" s="44"/>
       <c r="H221" s="23"/>
-      <c r="K221" s="42"/>
-      <c r="L221" s="42"/>
+      <c r="K221" s="43"/>
+      <c r="L221" s="43"/>
     </row>
     <row r="222">
-      <c r="G222" s="43"/>
+      <c r="G222" s="44"/>
       <c r="H222" s="23"/>
-      <c r="K222" s="42"/>
-      <c r="L222" s="42"/>
+      <c r="K222" s="43"/>
+      <c r="L222" s="43"/>
     </row>
     <row r="223">
-      <c r="G223" s="43"/>
+      <c r="G223" s="44"/>
       <c r="H223" s="23"/>
-      <c r="K223" s="42"/>
-      <c r="L223" s="42"/>
+      <c r="K223" s="43"/>
+      <c r="L223" s="43"/>
     </row>
     <row r="224">
-      <c r="G224" s="43"/>
+      <c r="G224" s="44"/>
       <c r="H224" s="23"/>
-      <c r="K224" s="42"/>
-      <c r="L224" s="42"/>
+      <c r="K224" s="43"/>
+      <c r="L224" s="43"/>
     </row>
     <row r="225">
-      <c r="G225" s="43"/>
+      <c r="G225" s="44"/>
       <c r="H225" s="23"/>
-      <c r="K225" s="42"/>
-      <c r="L225" s="42"/>
+      <c r="K225" s="43"/>
+      <c r="L225" s="43"/>
     </row>
     <row r="226">
-      <c r="G226" s="43"/>
+      <c r="G226" s="44"/>
       <c r="H226" s="23"/>
-      <c r="K226" s="42"/>
-      <c r="L226" s="42"/>
+      <c r="K226" s="43"/>
+      <c r="L226" s="43"/>
     </row>
     <row r="227">
-      <c r="G227" s="43"/>
+      <c r="G227" s="44"/>
       <c r="H227" s="23"/>
-      <c r="K227" s="42"/>
-      <c r="L227" s="42"/>
+      <c r="K227" s="43"/>
+      <c r="L227" s="43"/>
     </row>
     <row r="228">
-      <c r="G228" s="43"/>
+      <c r="G228" s="44"/>
       <c r="H228" s="23"/>
-      <c r="K228" s="42"/>
-      <c r="L228" s="42"/>
+      <c r="K228" s="43"/>
+      <c r="L228" s="43"/>
     </row>
     <row r="229">
-      <c r="G229" s="43"/>
+      <c r="G229" s="44"/>
       <c r="H229" s="23"/>
-      <c r="K229" s="42"/>
-      <c r="L229" s="42"/>
+      <c r="K229" s="43"/>
+      <c r="L229" s="43"/>
     </row>
     <row r="230">
-      <c r="G230" s="43"/>
+      <c r="G230" s="44"/>
       <c r="H230" s="23"/>
-      <c r="K230" s="42"/>
-      <c r="L230" s="42"/>
+      <c r="K230" s="43"/>
+      <c r="L230" s="43"/>
     </row>
     <row r="231">
-      <c r="G231" s="43"/>
+      <c r="G231" s="44"/>
       <c r="H231" s="23"/>
-      <c r="K231" s="42"/>
-      <c r="L231" s="42"/>
+      <c r="K231" s="43"/>
+      <c r="L231" s="43"/>
     </row>
     <row r="232">
-      <c r="G232" s="43"/>
+      <c r="G232" s="44"/>
       <c r="H232" s="23"/>
-      <c r="K232" s="42"/>
-      <c r="L232" s="42"/>
+      <c r="K232" s="43"/>
+      <c r="L232" s="43"/>
     </row>
     <row r="233">
-      <c r="G233" s="43"/>
+      <c r="G233" s="44"/>
       <c r="H233" s="23"/>
-      <c r="K233" s="42"/>
-      <c r="L233" s="42"/>
+      <c r="K233" s="43"/>
+      <c r="L233" s="43"/>
     </row>
     <row r="234">
-      <c r="G234" s="43"/>
+      <c r="G234" s="44"/>
       <c r="H234" s="23"/>
-      <c r="K234" s="42"/>
-      <c r="L234" s="42"/>
+      <c r="K234" s="43"/>
+      <c r="L234" s="43"/>
     </row>
     <row r="235">
-      <c r="G235" s="43"/>
+      <c r="G235" s="44"/>
       <c r="H235" s="23"/>
-      <c r="K235" s="42"/>
-      <c r="L235" s="42"/>
+      <c r="K235" s="43"/>
+      <c r="L235" s="43"/>
     </row>
     <row r="236">
-      <c r="G236" s="43"/>
+      <c r="G236" s="44"/>
       <c r="H236" s="23"/>
-      <c r="K236" s="42"/>
-      <c r="L236" s="42"/>
+      <c r="K236" s="43"/>
+      <c r="L236" s="43"/>
     </row>
     <row r="237">
-      <c r="G237" s="43"/>
+      <c r="G237" s="44"/>
       <c r="H237" s="23"/>
-      <c r="K237" s="42"/>
-      <c r="L237" s="42"/>
+      <c r="K237" s="43"/>
+      <c r="L237" s="43"/>
     </row>
     <row r="238">
-      <c r="G238" s="43"/>
+      <c r="G238" s="44"/>
       <c r="H238" s="23"/>
-      <c r="K238" s="42"/>
-      <c r="L238" s="42"/>
+      <c r="K238" s="43"/>
+      <c r="L238" s="43"/>
     </row>
     <row r="239">
-      <c r="G239" s="43"/>
+      <c r="G239" s="44"/>
       <c r="H239" s="23"/>
-      <c r="K239" s="42"/>
-      <c r="L239" s="42"/>
+      <c r="K239" s="43"/>
+      <c r="L239" s="43"/>
     </row>
     <row r="240">
-      <c r="G240" s="43"/>
+      <c r="G240" s="44"/>
       <c r="H240" s="23"/>
-      <c r="K240" s="42"/>
-      <c r="L240" s="42"/>
+      <c r="K240" s="43"/>
+      <c r="L240" s="43"/>
     </row>
     <row r="241">
-      <c r="G241" s="43"/>
+      <c r="G241" s="44"/>
       <c r="H241" s="23"/>
-      <c r="K241" s="42"/>
-      <c r="L241" s="42"/>
+      <c r="K241" s="43"/>
+      <c r="L241" s="43"/>
     </row>
     <row r="242">
-      <c r="G242" s="43"/>
+      <c r="G242" s="44"/>
       <c r="H242" s="23"/>
-      <c r="K242" s="42"/>
-      <c r="L242" s="42"/>
+      <c r="K242" s="43"/>
+      <c r="L242" s="43"/>
     </row>
     <row r="243">
-      <c r="G243" s="43"/>
+      <c r="G243" s="44"/>
       <c r="H243" s="23"/>
-      <c r="K243" s="42"/>
-      <c r="L243" s="42"/>
+      <c r="K243" s="43"/>
+      <c r="L243" s="43"/>
     </row>
     <row r="244">
-      <c r="G244" s="43"/>
+      <c r="G244" s="44"/>
       <c r="H244" s="23"/>
-      <c r="K244" s="42"/>
-      <c r="L244" s="42"/>
+      <c r="K244" s="43"/>
+      <c r="L244" s="43"/>
     </row>
     <row r="245">
-      <c r="G245" s="43"/>
+      <c r="G245" s="44"/>
       <c r="H245" s="23"/>
-      <c r="K245" s="42"/>
-      <c r="L245" s="42"/>
+      <c r="K245" s="43"/>
+      <c r="L245" s="43"/>
     </row>
     <row r="246">
-      <c r="G246" s="43"/>
+      <c r="G246" s="44"/>
       <c r="H246" s="23"/>
-      <c r="K246" s="42"/>
-      <c r="L246" s="42"/>
+      <c r="K246" s="43"/>
+      <c r="L246" s="43"/>
     </row>
     <row r="247">
-      <c r="G247" s="43"/>
+      <c r="G247" s="44"/>
       <c r="H247" s="23"/>
-      <c r="K247" s="42"/>
-      <c r="L247" s="42"/>
+      <c r="K247" s="43"/>
+      <c r="L247" s="43"/>
     </row>
     <row r="248">
-      <c r="G248" s="43"/>
+      <c r="G248" s="44"/>
       <c r="H248" s="23"/>
-      <c r="K248" s="42"/>
-      <c r="L248" s="42"/>
+      <c r="K248" s="43"/>
+      <c r="L248" s="43"/>
     </row>
     <row r="249">
-      <c r="G249" s="43"/>
+      <c r="G249" s="44"/>
       <c r="H249" s="23"/>
-      <c r="K249" s="42"/>
-      <c r="L249" s="42"/>
+      <c r="K249" s="43"/>
+      <c r="L249" s="43"/>
     </row>
     <row r="250">
-      <c r="G250" s="43"/>
+      <c r="G250" s="44"/>
       <c r="H250" s="23"/>
-      <c r="K250" s="42"/>
-      <c r="L250" s="42"/>
+      <c r="K250" s="43"/>
+      <c r="L250" s="43"/>
     </row>
     <row r="251">
-      <c r="G251" s="43"/>
+      <c r="G251" s="44"/>
       <c r="H251" s="23"/>
-      <c r="K251" s="42"/>
-      <c r="L251" s="42"/>
+      <c r="K251" s="43"/>
+      <c r="L251" s="43"/>
     </row>
     <row r="252">
-      <c r="G252" s="43"/>
+      <c r="G252" s="44"/>
       <c r="H252" s="23"/>
-      <c r="K252" s="42"/>
-      <c r="L252" s="42"/>
+      <c r="K252" s="43"/>
+      <c r="L252" s="43"/>
     </row>
     <row r="253">
-      <c r="G253" s="43"/>
+      <c r="G253" s="44"/>
       <c r="H253" s="23"/>
-      <c r="K253" s="42"/>
-      <c r="L253" s="42"/>
+      <c r="K253" s="43"/>
+      <c r="L253" s="43"/>
     </row>
     <row r="254">
-      <c r="G254" s="43"/>
+      <c r="G254" s="44"/>
       <c r="H254" s="23"/>
-      <c r="K254" s="42"/>
-      <c r="L254" s="42"/>
+      <c r="K254" s="43"/>
+      <c r="L254" s="43"/>
     </row>
     <row r="255">
-      <c r="G255" s="43"/>
+      <c r="G255" s="44"/>
       <c r="H255" s="23"/>
-      <c r="K255" s="42"/>
-      <c r="L255" s="42"/>
+      <c r="K255" s="43"/>
+      <c r="L255" s="43"/>
     </row>
     <row r="256">
-      <c r="G256" s="43"/>
+      <c r="G256" s="44"/>
       <c r="H256" s="23"/>
-      <c r="K256" s="42"/>
-      <c r="L256" s="42"/>
+      <c r="K256" s="43"/>
+      <c r="L256" s="43"/>
     </row>
     <row r="257">
-      <c r="G257" s="43"/>
+      <c r="G257" s="44"/>
       <c r="H257" s="23"/>
-      <c r="K257" s="42"/>
-      <c r="L257" s="42"/>
+      <c r="K257" s="43"/>
+      <c r="L257" s="43"/>
     </row>
     <row r="258">
-      <c r="G258" s="43"/>
+      <c r="G258" s="44"/>
       <c r="H258" s="23"/>
-      <c r="K258" s="42"/>
-      <c r="L258" s="42"/>
+      <c r="K258" s="43"/>
+      <c r="L258" s="43"/>
     </row>
     <row r="259">
-      <c r="G259" s="43"/>
+      <c r="G259" s="44"/>
       <c r="H259" s="23"/>
-      <c r="K259" s="42"/>
-      <c r="L259" s="42"/>
+      <c r="K259" s="43"/>
+      <c r="L259" s="43"/>
     </row>
     <row r="260">
-      <c r="G260" s="43"/>
+      <c r="G260" s="44"/>
       <c r="H260" s="23"/>
-      <c r="K260" s="42"/>
-      <c r="L260" s="42"/>
+      <c r="K260" s="43"/>
+      <c r="L260" s="43"/>
     </row>
     <row r="261">
-      <c r="G261" s="43"/>
+      <c r="G261" s="44"/>
       <c r="H261" s="23"/>
-      <c r="K261" s="42"/>
-      <c r="L261" s="42"/>
+      <c r="K261" s="43"/>
+      <c r="L261" s="43"/>
     </row>
     <row r="262">
-      <c r="G262" s="43"/>
+      <c r="G262" s="44"/>
       <c r="H262" s="23"/>
-      <c r="K262" s="42"/>
-      <c r="L262" s="42"/>
+      <c r="K262" s="43"/>
+      <c r="L262" s="43"/>
     </row>
     <row r="263">
-      <c r="G263" s="43"/>
+      <c r="G263" s="44"/>
       <c r="H263" s="23"/>
-      <c r="K263" s="42"/>
-      <c r="L263" s="42"/>
+      <c r="K263" s="43"/>
+      <c r="L263" s="43"/>
     </row>
     <row r="264">
-      <c r="G264" s="43"/>
+      <c r="G264" s="44"/>
       <c r="H264" s="23"/>
-      <c r="K264" s="42"/>
-      <c r="L264" s="42"/>
+      <c r="K264" s="43"/>
+      <c r="L264" s="43"/>
     </row>
     <row r="265">
-      <c r="G265" s="43"/>
+      <c r="G265" s="44"/>
       <c r="H265" s="23"/>
-      <c r="K265" s="42"/>
-      <c r="L265" s="42"/>
+      <c r="K265" s="43"/>
+      <c r="L265" s="43"/>
     </row>
     <row r="266">
-      <c r="G266" s="43"/>
+      <c r="G266" s="44"/>
       <c r="H266" s="23"/>
-      <c r="K266" s="42"/>
-      <c r="L266" s="42"/>
+      <c r="K266" s="43"/>
+      <c r="L266" s="43"/>
     </row>
     <row r="267">
-      <c r="G267" s="43"/>
+      <c r="G267" s="44"/>
       <c r="H267" s="23"/>
-      <c r="K267" s="42"/>
-      <c r="L267" s="42"/>
+      <c r="K267" s="43"/>
+      <c r="L267" s="43"/>
     </row>
     <row r="268">
-      <c r="G268" s="43"/>
+      <c r="G268" s="44"/>
       <c r="H268" s="23"/>
-      <c r="K268" s="42"/>
-      <c r="L268" s="42"/>
+      <c r="K268" s="43"/>
+      <c r="L268" s="43"/>
     </row>
     <row r="269">
-      <c r="G269" s="43"/>
+      <c r="G269" s="44"/>
       <c r="H269" s="23"/>
-      <c r="K269" s="42"/>
-      <c r="L269" s="42"/>
+      <c r="K269" s="43"/>
+      <c r="L269" s="43"/>
     </row>
     <row r="270">
-      <c r="G270" s="43"/>
+      <c r="G270" s="44"/>
       <c r="H270" s="23"/>
-      <c r="K270" s="42"/>
-      <c r="L270" s="42"/>
+      <c r="K270" s="43"/>
+      <c r="L270" s="43"/>
     </row>
     <row r="271">
-      <c r="G271" s="43"/>
+      <c r="G271" s="44"/>
       <c r="H271" s="23"/>
-      <c r="K271" s="42"/>
-      <c r="L271" s="42"/>
+      <c r="K271" s="43"/>
+      <c r="L271" s="43"/>
     </row>
     <row r="272">
-      <c r="G272" s="43"/>
+      <c r="G272" s="44"/>
       <c r="H272" s="23"/>
-      <c r="K272" s="42"/>
-      <c r="L272" s="42"/>
+      <c r="K272" s="43"/>
+      <c r="L272" s="43"/>
     </row>
     <row r="273">
-      <c r="G273" s="43"/>
+      <c r="G273" s="44"/>
       <c r="H273" s="23"/>
-      <c r="K273" s="42"/>
-      <c r="L273" s="42"/>
+      <c r="K273" s="43"/>
+      <c r="L273" s="43"/>
     </row>
     <row r="274">
-      <c r="G274" s="43"/>
+      <c r="G274" s="44"/>
       <c r="H274" s="23"/>
-      <c r="K274" s="42"/>
-      <c r="L274" s="42"/>
+      <c r="K274" s="43"/>
+      <c r="L274" s="43"/>
     </row>
     <row r="275">
-      <c r="G275" s="43"/>
+      <c r="G275" s="44"/>
       <c r="H275" s="23"/>
-      <c r="K275" s="42"/>
-      <c r="L275" s="42"/>
+      <c r="K275" s="43"/>
+      <c r="L275" s="43"/>
     </row>
     <row r="276">
-      <c r="G276" s="43"/>
+      <c r="G276" s="44"/>
       <c r="H276" s="23"/>
-      <c r="K276" s="42"/>
-      <c r="L276" s="42"/>
+      <c r="K276" s="43"/>
+      <c r="L276" s="43"/>
     </row>
     <row r="277">
-      <c r="G277" s="43"/>
+      <c r="G277" s="44"/>
       <c r="H277" s="23"/>
-      <c r="K277" s="42"/>
-      <c r="L277" s="42"/>
+      <c r="K277" s="43"/>
+      <c r="L277" s="43"/>
     </row>
     <row r="278">
-      <c r="G278" s="43"/>
+      <c r="G278" s="44"/>
       <c r="H278" s="23"/>
-      <c r="K278" s="42"/>
-      <c r="L278" s="42"/>
+      <c r="K278" s="43"/>
+      <c r="L278" s="43"/>
     </row>
     <row r="279">
-      <c r="G279" s="43"/>
+      <c r="G279" s="44"/>
       <c r="H279" s="23"/>
-      <c r="K279" s="42"/>
-      <c r="L279" s="42"/>
+      <c r="K279" s="43"/>
+      <c r="L279" s="43"/>
     </row>
     <row r="280">
-      <c r="G280" s="43"/>
+      <c r="G280" s="44"/>
       <c r="H280" s="23"/>
-      <c r="K280" s="42"/>
-      <c r="L280" s="42"/>
+      <c r="K280" s="43"/>
+      <c r="L280" s="43"/>
     </row>
     <row r="281">
-      <c r="G281" s="43"/>
+      <c r="G281" s="44"/>
       <c r="H281" s="23"/>
-      <c r="K281" s="42"/>
-      <c r="L281" s="42"/>
+      <c r="K281" s="43"/>
+      <c r="L281" s="43"/>
     </row>
     <row r="282">
-      <c r="G282" s="43"/>
+      <c r="G282" s="44"/>
       <c r="H282" s="23"/>
-      <c r="K282" s="42"/>
-      <c r="L282" s="42"/>
+      <c r="K282" s="43"/>
+      <c r="L282" s="43"/>
     </row>
     <row r="283">
-      <c r="G283" s="43"/>
+      <c r="G283" s="44"/>
       <c r="H283" s="23"/>
-      <c r="K283" s="42"/>
-      <c r="L283" s="42"/>
+      <c r="K283" s="43"/>
+      <c r="L283" s="43"/>
     </row>
     <row r="284">
-      <c r="G284" s="43"/>
+      <c r="G284" s="44"/>
       <c r="H284" s="23"/>
-      <c r="K284" s="42"/>
-      <c r="L284" s="42"/>
+      <c r="K284" s="43"/>
+      <c r="L284" s="43"/>
     </row>
     <row r="285">
-      <c r="G285" s="43"/>
+      <c r="G285" s="44"/>
       <c r="H285" s="23"/>
-      <c r="K285" s="42"/>
-      <c r="L285" s="42"/>
+      <c r="K285" s="43"/>
+      <c r="L285" s="43"/>
     </row>
     <row r="286">
-      <c r="G286" s="43"/>
+      <c r="G286" s="44"/>
       <c r="H286" s="23"/>
-      <c r="K286" s="42"/>
-      <c r="L286" s="42"/>
+      <c r="K286" s="43"/>
+      <c r="L286" s="43"/>
     </row>
     <row r="287">
-      <c r="G287" s="43"/>
+      <c r="G287" s="44"/>
       <c r="H287" s="23"/>
-      <c r="K287" s="42"/>
-      <c r="L287" s="42"/>
+      <c r="K287" s="43"/>
+      <c r="L287" s="43"/>
     </row>
     <row r="288">
-      <c r="G288" s="43"/>
+      <c r="G288" s="44"/>
       <c r="H288" s="23"/>
-      <c r="K288" s="42"/>
-      <c r="L288" s="42"/>
+      <c r="K288" s="43"/>
+      <c r="L288" s="43"/>
     </row>
     <row r="289">
-      <c r="G289" s="43"/>
+      <c r="G289" s="44"/>
       <c r="H289" s="23"/>
-      <c r="K289" s="42"/>
-      <c r="L289" s="42"/>
+      <c r="K289" s="43"/>
+      <c r="L289" s="43"/>
     </row>
     <row r="290">
-      <c r="G290" s="43"/>
+      <c r="G290" s="44"/>
       <c r="H290" s="23"/>
-      <c r="K290" s="42"/>
-      <c r="L290" s="42"/>
+      <c r="K290" s="43"/>
+      <c r="L290" s="43"/>
     </row>
     <row r="291">
-      <c r="G291" s="43"/>
+      <c r="G291" s="44"/>
       <c r="H291" s="23"/>
-      <c r="K291" s="42"/>
-      <c r="L291" s="42"/>
+      <c r="K291" s="43"/>
+      <c r="L291" s="43"/>
     </row>
     <row r="292">
-      <c r="G292" s="43"/>
+      <c r="G292" s="44"/>
       <c r="H292" s="23"/>
-      <c r="K292" s="42"/>
-      <c r="L292" s="42"/>
+      <c r="K292" s="43"/>
+      <c r="L292" s="43"/>
     </row>
     <row r="293">
-      <c r="G293" s="43"/>
+      <c r="G293" s="44"/>
       <c r="H293" s="23"/>
-      <c r="K293" s="42"/>
-      <c r="L293" s="42"/>
+      <c r="K293" s="43"/>
+      <c r="L293" s="43"/>
     </row>
     <row r="294">
-      <c r="G294" s="43"/>
+      <c r="G294" s="44"/>
       <c r="H294" s="23"/>
-      <c r="K294" s="42"/>
-      <c r="L294" s="42"/>
+      <c r="K294" s="43"/>
+      <c r="L294" s="43"/>
     </row>
     <row r="295">
-      <c r="G295" s="43"/>
+      <c r="G295" s="44"/>
       <c r="H295" s="23"/>
-      <c r="K295" s="42"/>
-      <c r="L295" s="42"/>
+      <c r="K295" s="43"/>
+      <c r="L295" s="43"/>
     </row>
     <row r="296">
-      <c r="G296" s="43"/>
+      <c r="G296" s="44"/>
       <c r="H296" s="23"/>
-      <c r="K296" s="42"/>
-      <c r="L296" s="42"/>
+      <c r="K296" s="43"/>
+      <c r="L296" s="43"/>
     </row>
     <row r="297">
-      <c r="G297" s="43"/>
+      <c r="G297" s="44"/>
       <c r="H297" s="23"/>
-      <c r="K297" s="42"/>
-      <c r="L297" s="42"/>
+      <c r="K297" s="43"/>
+      <c r="L297" s="43"/>
     </row>
     <row r="298">
-      <c r="G298" s="43"/>
+      <c r="G298" s="44"/>
       <c r="H298" s="23"/>
-      <c r="K298" s="42"/>
-      <c r="L298" s="42"/>
+      <c r="K298" s="43"/>
+      <c r="L298" s="43"/>
     </row>
     <row r="299">
-      <c r="G299" s="43"/>
+      <c r="G299" s="44"/>
       <c r="H299" s="23"/>
-      <c r="K299" s="42"/>
-      <c r="L299" s="42"/>
+      <c r="K299" s="43"/>
+      <c r="L299" s="43"/>
     </row>
     <row r="300">
-      <c r="G300" s="43"/>
+      <c r="G300" s="44"/>
       <c r="H300" s="23"/>
-      <c r="K300" s="42"/>
-      <c r="L300" s="42"/>
+      <c r="K300" s="43"/>
+      <c r="L300" s="43"/>
     </row>
     <row r="301">
-      <c r="G301" s="43"/>
+      <c r="G301" s="44"/>
       <c r="H301" s="23"/>
-      <c r="K301" s="42"/>
-      <c r="L301" s="42"/>
+      <c r="K301" s="43"/>
+      <c r="L301" s="43"/>
     </row>
     <row r="302">
-      <c r="G302" s="43"/>
+      <c r="G302" s="44"/>
       <c r="H302" s="23"/>
-      <c r="K302" s="42"/>
-      <c r="L302" s="42"/>
+      <c r="K302" s="43"/>
+      <c r="L302" s="43"/>
     </row>
     <row r="303">
-      <c r="G303" s="43"/>
+      <c r="G303" s="44"/>
       <c r="H303" s="23"/>
-      <c r="K303" s="42"/>
-      <c r="L303" s="42"/>
+      <c r="K303" s="43"/>
+      <c r="L303" s="43"/>
     </row>
     <row r="304">
-      <c r="G304" s="43"/>
+      <c r="G304" s="44"/>
       <c r="H304" s="23"/>
-      <c r="K304" s="42"/>
-      <c r="L304" s="42"/>
+      <c r="K304" s="43"/>
+      <c r="L304" s="43"/>
     </row>
     <row r="305">
-      <c r="G305" s="43"/>
+      <c r="G305" s="44"/>
       <c r="H305" s="23"/>
-      <c r="K305" s="42"/>
-      <c r="L305" s="42"/>
+      <c r="K305" s="43"/>
+      <c r="L305" s="43"/>
     </row>
     <row r="306">
-      <c r="G306" s="43"/>
+      <c r="G306" s="44"/>
       <c r="H306" s="23"/>
-      <c r="K306" s="42"/>
-      <c r="L306" s="42"/>
+      <c r="K306" s="43"/>
+      <c r="L306" s="43"/>
     </row>
     <row r="307">
-      <c r="G307" s="43"/>
+      <c r="G307" s="44"/>
       <c r="H307" s="23"/>
-      <c r="K307" s="42"/>
-      <c r="L307" s="42"/>
+      <c r="K307" s="43"/>
+      <c r="L307" s="43"/>
     </row>
     <row r="308">
-      <c r="G308" s="43"/>
+      <c r="G308" s="44"/>
       <c r="H308" s="23"/>
-      <c r="K308" s="42"/>
-      <c r="L308" s="42"/>
+      <c r="K308" s="43"/>
+      <c r="L308" s="43"/>
     </row>
     <row r="309">
-      <c r="G309" s="43"/>
+      <c r="G309" s="44"/>
       <c r="H309" s="23"/>
-      <c r="K309" s="42"/>
-      <c r="L309" s="42"/>
+      <c r="K309" s="43"/>
+      <c r="L309" s="43"/>
     </row>
     <row r="310">
-      <c r="G310" s="43"/>
+      <c r="G310" s="44"/>
       <c r="H310" s="23"/>
-      <c r="K310" s="42"/>
-      <c r="L310" s="42"/>
+      <c r="K310" s="43"/>
+      <c r="L310" s="43"/>
     </row>
     <row r="311">
-      <c r="G311" s="43"/>
+      <c r="G311" s="44"/>
       <c r="H311" s="23"/>
-      <c r="K311" s="42"/>
-      <c r="L311" s="42"/>
+      <c r="K311" s="43"/>
+      <c r="L311" s="43"/>
     </row>
     <row r="312">
-      <c r="G312" s="43"/>
+      <c r="G312" s="44"/>
       <c r="H312" s="23"/>
-      <c r="K312" s="42"/>
-      <c r="L312" s="42"/>
+      <c r="K312" s="43"/>
+      <c r="L312" s="43"/>
     </row>
     <row r="313">
-      <c r="G313" s="43"/>
+      <c r="G313" s="44"/>
       <c r="H313" s="23"/>
-      <c r="K313" s="42"/>
-      <c r="L313" s="42"/>
+      <c r="K313" s="43"/>
+      <c r="L313" s="43"/>
     </row>
     <row r="314">
-      <c r="G314" s="43"/>
+      <c r="G314" s="44"/>
       <c r="H314" s="23"/>
-      <c r="K314" s="42"/>
-      <c r="L314" s="42"/>
+      <c r="K314" s="43"/>
+      <c r="L314" s="43"/>
     </row>
     <row r="315">
-      <c r="G315" s="43"/>
+      <c r="G315" s="44"/>
       <c r="H315" s="23"/>
-      <c r="K315" s="42"/>
-      <c r="L315" s="42"/>
+      <c r="K315" s="43"/>
+      <c r="L315" s="43"/>
     </row>
     <row r="316">
-      <c r="G316" s="43"/>
+      <c r="G316" s="44"/>
       <c r="H316" s="23"/>
-      <c r="K316" s="42"/>
-      <c r="L316" s="42"/>
+      <c r="K316" s="43"/>
+      <c r="L316" s="43"/>
     </row>
     <row r="317">
-      <c r="G317" s="43"/>
+      <c r="G317" s="44"/>
       <c r="H317" s="23"/>
-      <c r="K317" s="42"/>
-      <c r="L317" s="42"/>
+      <c r="K317" s="43"/>
+      <c r="L317" s="43"/>
     </row>
     <row r="318">
-      <c r="G318" s="43"/>
+      <c r="G318" s="44"/>
       <c r="H318" s="23"/>
-      <c r="K318" s="42"/>
-      <c r="L318" s="42"/>
+      <c r="K318" s="43"/>
+      <c r="L318" s="43"/>
     </row>
     <row r="319">
-      <c r="G319" s="43"/>
+      <c r="G319" s="44"/>
       <c r="H319" s="23"/>
-      <c r="K319" s="42"/>
-      <c r="L319" s="42"/>
+      <c r="K319" s="43"/>
+      <c r="L319" s="43"/>
     </row>
     <row r="320">
-      <c r="G320" s="43"/>
+      <c r="G320" s="44"/>
       <c r="H320" s="23"/>
-      <c r="K320" s="42"/>
-      <c r="L320" s="42"/>
+      <c r="K320" s="43"/>
+      <c r="L320" s="43"/>
     </row>
     <row r="321">
-      <c r="G321" s="43"/>
+      <c r="G321" s="44"/>
       <c r="H321" s="23"/>
-      <c r="K321" s="42"/>
-      <c r="L321" s="42"/>
+      <c r="K321" s="43"/>
+      <c r="L321" s="43"/>
     </row>
     <row r="322">
-      <c r="G322" s="43"/>
+      <c r="G322" s="44"/>
       <c r="H322" s="23"/>
-      <c r="K322" s="42"/>
-      <c r="L322" s="42"/>
+      <c r="K322" s="43"/>
+      <c r="L322" s="43"/>
     </row>
     <row r="323">
-      <c r="G323" s="43"/>
+      <c r="G323" s="44"/>
       <c r="H323" s="23"/>
-      <c r="K323" s="42"/>
-      <c r="L323" s="42"/>
+      <c r="K323" s="43"/>
+      <c r="L323" s="43"/>
     </row>
     <row r="324">
-      <c r="G324" s="43"/>
+      <c r="G324" s="44"/>
       <c r="H324" s="23"/>
-      <c r="K324" s="42"/>
-      <c r="L324" s="42"/>
+      <c r="K324" s="43"/>
+      <c r="L324" s="43"/>
     </row>
     <row r="325">
-      <c r="G325" s="43"/>
+      <c r="G325" s="44"/>
       <c r="H325" s="23"/>
-      <c r="K325" s="42"/>
-      <c r="L325" s="42"/>
+      <c r="K325" s="43"/>
+      <c r="L325" s="43"/>
     </row>
     <row r="326">
-      <c r="G326" s="43"/>
+      <c r="G326" s="44"/>
       <c r="H326" s="23"/>
-      <c r="K326" s="42"/>
-      <c r="L326" s="42"/>
+      <c r="K326" s="43"/>
+      <c r="L326" s="43"/>
     </row>
     <row r="327">
-      <c r="G327" s="43"/>
+      <c r="G327" s="44"/>
       <c r="H327" s="23"/>
-      <c r="K327" s="42"/>
-      <c r="L327" s="42"/>
+      <c r="K327" s="43"/>
+      <c r="L327" s="43"/>
     </row>
     <row r="328">
-      <c r="G328" s="43"/>
+      <c r="G328" s="44"/>
       <c r="H328" s="23"/>
-      <c r="K328" s="42"/>
-      <c r="L328" s="42"/>
+      <c r="K328" s="43"/>
+      <c r="L328" s="43"/>
     </row>
     <row r="329">
-      <c r="G329" s="43"/>
+      <c r="G329" s="44"/>
       <c r="H329" s="23"/>
-      <c r="K329" s="42"/>
-      <c r="L329" s="42"/>
+      <c r="K329" s="43"/>
+      <c r="L329" s="43"/>
     </row>
     <row r="330">
-      <c r="G330" s="43"/>
+      <c r="G330" s="44"/>
       <c r="H330" s="23"/>
-      <c r="K330" s="42"/>
-      <c r="L330" s="42"/>
+      <c r="K330" s="43"/>
+      <c r="L330" s="43"/>
     </row>
     <row r="331">
-      <c r="G331" s="43"/>
+      <c r="G331" s="44"/>
       <c r="H331" s="23"/>
-      <c r="K331" s="42"/>
-      <c r="L331" s="42"/>
+      <c r="K331" s="43"/>
+      <c r="L331" s="43"/>
     </row>
     <row r="332">
-      <c r="G332" s="43"/>
+      <c r="G332" s="44"/>
       <c r="H332" s="23"/>
-      <c r="K332" s="42"/>
-      <c r="L332" s="42"/>
+      <c r="K332" s="43"/>
+      <c r="L332" s="43"/>
     </row>
     <row r="333">
-      <c r="G333" s="43"/>
+      <c r="G333" s="44"/>
       <c r="H333" s="23"/>
-      <c r="K333" s="42"/>
-      <c r="L333" s="42"/>
+      <c r="K333" s="43"/>
+      <c r="L333" s="43"/>
     </row>
     <row r="334">
-      <c r="G334" s="43"/>
+      <c r="G334" s="44"/>
       <c r="H334" s="23"/>
-      <c r="K334" s="42"/>
-      <c r="L334" s="42"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
     </row>
     <row r="335">
-      <c r="G335" s="43"/>
+      <c r="G335" s="44"/>
       <c r="H335" s="23"/>
-      <c r="K335" s="42"/>
-      <c r="L335" s="42"/>
+      <c r="K335" s="43"/>
+      <c r="L335" s="43"/>
     </row>
     <row r="336">
-      <c r="G336" s="43"/>
+      <c r="G336" s="44"/>
       <c r="H336" s="23"/>
-      <c r="K336" s="42"/>
-      <c r="L336" s="42"/>
+      <c r="K336" s="43"/>
+      <c r="L336" s="43"/>
     </row>
     <row r="337">
-      <c r="G337" s="43"/>
+      <c r="G337" s="44"/>
       <c r="H337" s="23"/>
-      <c r="K337" s="42"/>
-      <c r="L337" s="42"/>
+      <c r="K337" s="43"/>
+      <c r="L337" s="43"/>
     </row>
     <row r="338">
-      <c r="G338" s="43"/>
+      <c r="G338" s="44"/>
       <c r="H338" s="23"/>
-      <c r="K338" s="42"/>
-      <c r="L338" s="42"/>
+      <c r="K338" s="43"/>
+      <c r="L338" s="43"/>
     </row>
     <row r="339">
-      <c r="G339" s="43"/>
+      <c r="G339" s="44"/>
       <c r="H339" s="23"/>
-      <c r="K339" s="42"/>
-      <c r="L339" s="42"/>
+      <c r="K339" s="43"/>
+      <c r="L339" s="43"/>
     </row>
     <row r="340">
-      <c r="G340" s="43"/>
+      <c r="G340" s="44"/>
       <c r="H340" s="23"/>
-      <c r="K340" s="42"/>
-      <c r="L340" s="42"/>
+      <c r="K340" s="43"/>
+      <c r="L340" s="43"/>
     </row>
     <row r="341">
-      <c r="G341" s="43"/>
+      <c r="G341" s="44"/>
       <c r="H341" s="23"/>
-      <c r="K341" s="42"/>
-      <c r="L341" s="42"/>
+      <c r="K341" s="43"/>
+      <c r="L341" s="43"/>
     </row>
     <row r="342">
-      <c r="G342" s="43"/>
+      <c r="G342" s="44"/>
       <c r="H342" s="23"/>
-      <c r="K342" s="42"/>
-      <c r="L342" s="42"/>
+      <c r="K342" s="43"/>
+      <c r="L342" s="43"/>
     </row>
     <row r="343">
-      <c r="G343" s="43"/>
+      <c r="G343" s="44"/>
       <c r="H343" s="23"/>
-      <c r="K343" s="42"/>
-      <c r="L343" s="42"/>
+      <c r="K343" s="43"/>
+      <c r="L343" s="43"/>
     </row>
     <row r="344">
-      <c r="G344" s="43"/>
+      <c r="G344" s="44"/>
       <c r="H344" s="23"/>
-      <c r="K344" s="42"/>
-      <c r="L344" s="42"/>
+      <c r="K344" s="43"/>
+      <c r="L344" s="43"/>
     </row>
     <row r="345">
-      <c r="G345" s="43"/>
+      <c r="G345" s="44"/>
       <c r="H345" s="23"/>
-      <c r="K345" s="42"/>
-      <c r="L345" s="42"/>
+      <c r="K345" s="43"/>
+      <c r="L345" s="43"/>
     </row>
     <row r="346">
-      <c r="G346" s="43"/>
+      <c r="G346" s="44"/>
       <c r="H346" s="23"/>
-      <c r="K346" s="42"/>
-      <c r="L346" s="42"/>
+      <c r="K346" s="43"/>
+      <c r="L346" s="43"/>
     </row>
     <row r="347">
-      <c r="G347" s="43"/>
+      <c r="G347" s="44"/>
       <c r="H347" s="23"/>
-      <c r="K347" s="42"/>
-      <c r="L347" s="42"/>
+      <c r="K347" s="43"/>
+      <c r="L347" s="43"/>
     </row>
     <row r="348">
-      <c r="G348" s="43"/>
+      <c r="G348" s="44"/>
       <c r="H348" s="23"/>
-      <c r="K348" s="42"/>
-      <c r="L348" s="42"/>
+      <c r="K348" s="43"/>
+      <c r="L348" s="43"/>
     </row>
     <row r="349">
-      <c r="G349" s="43"/>
+      <c r="G349" s="44"/>
       <c r="H349" s="23"/>
-      <c r="K349" s="42"/>
-      <c r="L349" s="42"/>
+      <c r="K349" s="43"/>
+      <c r="L349" s="43"/>
     </row>
     <row r="350">
-      <c r="G350" s="43"/>
+      <c r="G350" s="44"/>
       <c r="H350" s="23"/>
-      <c r="K350" s="42"/>
-      <c r="L350" s="42"/>
+      <c r="K350" s="43"/>
+      <c r="L350" s="43"/>
     </row>
     <row r="351">
-      <c r="G351" s="43"/>
+      <c r="G351" s="44"/>
       <c r="H351" s="23"/>
-      <c r="K351" s="42"/>
-      <c r="L351" s="42"/>
+      <c r="K351" s="43"/>
+      <c r="L351" s="43"/>
     </row>
     <row r="352">
-      <c r="G352" s="43"/>
+      <c r="G352" s="44"/>
       <c r="H352" s="23"/>
-      <c r="K352" s="42"/>
-      <c r="L352" s="42"/>
+      <c r="K352" s="43"/>
+      <c r="L352" s="43"/>
     </row>
     <row r="353">
-      <c r="G353" s="43"/>
+      <c r="G353" s="44"/>
       <c r="H353" s="23"/>
-      <c r="K353" s="42"/>
-      <c r="L353" s="42"/>
+      <c r="K353" s="43"/>
+      <c r="L353" s="43"/>
     </row>
     <row r="354">
-      <c r="G354" s="43"/>
+      <c r="G354" s="44"/>
       <c r="H354" s="23"/>
-      <c r="K354" s="42"/>
-      <c r="L354" s="42"/>
+      <c r="K354" s="43"/>
+      <c r="L354" s="43"/>
     </row>
     <row r="355">
-      <c r="G355" s="43"/>
+      <c r="G355" s="44"/>
       <c r="H355" s="23"/>
-      <c r="K355" s="42"/>
-      <c r="L355" s="42"/>
+      <c r="K355" s="43"/>
+      <c r="L355" s="43"/>
     </row>
     <row r="356">
-      <c r="G356" s="43"/>
+      <c r="G356" s="44"/>
       <c r="H356" s="23"/>
-      <c r="K356" s="42"/>
-      <c r="L356" s="42"/>
+      <c r="K356" s="43"/>
+      <c r="L356" s="43"/>
     </row>
     <row r="357">
-      <c r="G357" s="43"/>
+      <c r="G357" s="44"/>
       <c r="H357" s="23"/>
-      <c r="K357" s="42"/>
-      <c r="L357" s="42"/>
+      <c r="K357" s="43"/>
+      <c r="L357" s="43"/>
     </row>
     <row r="358">
-      <c r="G358" s="43"/>
+      <c r="G358" s="44"/>
       <c r="H358" s="23"/>
-      <c r="K358" s="42"/>
-      <c r="L358" s="42"/>
+      <c r="K358" s="43"/>
+      <c r="L358" s="43"/>
     </row>
     <row r="359">
-      <c r="G359" s="43"/>
+      <c r="G359" s="44"/>
       <c r="H359" s="23"/>
-      <c r="K359" s="42"/>
-      <c r="L359" s="42"/>
+      <c r="K359" s="43"/>
+      <c r="L359" s="43"/>
     </row>
     <row r="360">
-      <c r="G360" s="43"/>
+      <c r="G360" s="44"/>
       <c r="H360" s="23"/>
-      <c r="K360" s="42"/>
-      <c r="L360" s="42"/>
+      <c r="K360" s="43"/>
+      <c r="L360" s="43"/>
     </row>
     <row r="361">
-      <c r="G361" s="43"/>
+      <c r="G361" s="44"/>
       <c r="H361" s="23"/>
-      <c r="K361" s="42"/>
-      <c r="L361" s="42"/>
+      <c r="K361" s="43"/>
+      <c r="L361" s="43"/>
     </row>
     <row r="362">
-      <c r="G362" s="43"/>
+      <c r="G362" s="44"/>
       <c r="H362" s="23"/>
-      <c r="K362" s="42"/>
-      <c r="L362" s="42"/>
+      <c r="K362" s="43"/>
+      <c r="L362" s="43"/>
     </row>
     <row r="363">
-      <c r="G363" s="43"/>
+      <c r="G363" s="44"/>
       <c r="H363" s="23"/>
-      <c r="K363" s="42"/>
-      <c r="L363" s="42"/>
+      <c r="K363" s="43"/>
+      <c r="L363" s="43"/>
     </row>
     <row r="364">
-      <c r="G364" s="43"/>
+      <c r="G364" s="44"/>
       <c r="H364" s="23"/>
-      <c r="K364" s="42"/>
-      <c r="L364" s="42"/>
+      <c r="K364" s="43"/>
+      <c r="L364" s="43"/>
     </row>
     <row r="365">
-      <c r="G365" s="43"/>
+      <c r="G365" s="44"/>
       <c r="H365" s="23"/>
-      <c r="K365" s="42"/>
-      <c r="L365" s="42"/>
+      <c r="K365" s="43"/>
+      <c r="L365" s="43"/>
     </row>
     <row r="366">
-      <c r="G366" s="43"/>
+      <c r="G366" s="44"/>
       <c r="H366" s="23"/>
-      <c r="K366" s="42"/>
-      <c r="L366" s="42"/>
+      <c r="K366" s="43"/>
+      <c r="L366" s="43"/>
     </row>
     <row r="367">
-      <c r="G367" s="43"/>
+      <c r="G367" s="44"/>
       <c r="H367" s="23"/>
-      <c r="K367" s="42"/>
-      <c r="L367" s="42"/>
+      <c r="K367" s="43"/>
+      <c r="L367" s="43"/>
     </row>
     <row r="368">
-      <c r="G368" s="43"/>
+      <c r="G368" s="44"/>
       <c r="H368" s="23"/>
-      <c r="K368" s="42"/>
-      <c r="L368" s="42"/>
+      <c r="K368" s="43"/>
+      <c r="L368" s="43"/>
     </row>
     <row r="369">
-      <c r="G369" s="43"/>
+      <c r="G369" s="44"/>
       <c r="H369" s="23"/>
-      <c r="K369" s="42"/>
-      <c r="L369" s="42"/>
+      <c r="K369" s="43"/>
+      <c r="L369" s="43"/>
     </row>
     <row r="370">
-      <c r="G370" s="43"/>
+      <c r="G370" s="44"/>
       <c r="H370" s="23"/>
-      <c r="K370" s="42"/>
-      <c r="L370" s="42"/>
+      <c r="K370" s="43"/>
+      <c r="L370" s="43"/>
     </row>
     <row r="371">
-      <c r="G371" s="43"/>
+      <c r="G371" s="44"/>
       <c r="H371" s="23"/>
-      <c r="K371" s="42"/>
-      <c r="L371" s="42"/>
+      <c r="K371" s="43"/>
+      <c r="L371" s="43"/>
     </row>
     <row r="372">
-      <c r="G372" s="43"/>
+      <c r="G372" s="44"/>
       <c r="H372" s="23"/>
-      <c r="K372" s="42"/>
-      <c r="L372" s="42"/>
+      <c r="K372" s="43"/>
+      <c r="L372" s="43"/>
     </row>
     <row r="373">
-      <c r="G373" s="43"/>
+      <c r="G373" s="44"/>
       <c r="H373" s="23"/>
-      <c r="K373" s="42"/>
-      <c r="L373" s="42"/>
+      <c r="K373" s="43"/>
+      <c r="L373" s="43"/>
     </row>
     <row r="374">
-      <c r="G374" s="43"/>
+      <c r="G374" s="44"/>
       <c r="H374" s="23"/>
-      <c r="K374" s="42"/>
-      <c r="L374" s="42"/>
+      <c r="K374" s="43"/>
+      <c r="L374" s="43"/>
     </row>
     <row r="375">
-      <c r="G375" s="43"/>
+      <c r="G375" s="44"/>
       <c r="H375" s="23"/>
-      <c r="K375" s="42"/>
-      <c r="L375" s="42"/>
+      <c r="K375" s="43"/>
+      <c r="L375" s="43"/>
     </row>
     <row r="376">
-      <c r="G376" s="43"/>
+      <c r="G376" s="44"/>
       <c r="H376" s="23"/>
-      <c r="K376" s="42"/>
-      <c r="L376" s="42"/>
+      <c r="K376" s="43"/>
+      <c r="L376" s="43"/>
     </row>
     <row r="377">
-      <c r="G377" s="43"/>
+      <c r="G377" s="44"/>
       <c r="H377" s="23"/>
-      <c r="K377" s="42"/>
-      <c r="L377" s="42"/>
+      <c r="K377" s="43"/>
+      <c r="L377" s="43"/>
     </row>
     <row r="378">
-      <c r="G378" s="43"/>
+      <c r="G378" s="44"/>
       <c r="H378" s="23"/>
-      <c r="K378" s="42"/>
-      <c r="L378" s="42"/>
+      <c r="K378" s="43"/>
+      <c r="L378" s="43"/>
     </row>
     <row r="379">
-      <c r="G379" s="43"/>
+      <c r="G379" s="44"/>
       <c r="H379" s="23"/>
-      <c r="K379" s="42"/>
-      <c r="L379" s="42"/>
+      <c r="K379" s="43"/>
+      <c r="L379" s="43"/>
     </row>
     <row r="380">
-      <c r="G380" s="43"/>
+      <c r="G380" s="44"/>
       <c r="H380" s="23"/>
-      <c r="K380" s="42"/>
-      <c r="L380" s="42"/>
+      <c r="K380" s="43"/>
+      <c r="L380" s="43"/>
     </row>
     <row r="381">
-      <c r="G381" s="43"/>
+      <c r="G381" s="44"/>
       <c r="H381" s="23"/>
-      <c r="K381" s="42"/>
-      <c r="L381" s="42"/>
+      <c r="K381" s="43"/>
+      <c r="L381" s="43"/>
     </row>
     <row r="382">
-      <c r="G382" s="43"/>
+      <c r="G382" s="44"/>
       <c r="H382" s="23"/>
-      <c r="K382" s="42"/>
-      <c r="L382" s="42"/>
+      <c r="K382" s="43"/>
+      <c r="L382" s="43"/>
     </row>
     <row r="383">
-      <c r="G383" s="43"/>
+      <c r="G383" s="44"/>
       <c r="H383" s="23"/>
-      <c r="K383" s="42"/>
-      <c r="L383" s="42"/>
+      <c r="K383" s="43"/>
+      <c r="L383" s="43"/>
     </row>
     <row r="384">
-      <c r="G384" s="43"/>
+      <c r="G384" s="44"/>
       <c r="H384" s="23"/>
-      <c r="K384" s="42"/>
-      <c r="L384" s="42"/>
+      <c r="K384" s="43"/>
+      <c r="L384" s="43"/>
     </row>
     <row r="385">
-      <c r="G385" s="43"/>
+      <c r="G385" s="44"/>
       <c r="H385" s="23"/>
-      <c r="K385" s="42"/>
-      <c r="L385" s="42"/>
+      <c r="K385" s="43"/>
+      <c r="L385" s="43"/>
     </row>
     <row r="386">
-      <c r="G386" s="43"/>
+      <c r="G386" s="44"/>
       <c r="H386" s="23"/>
-      <c r="K386" s="42"/>
-      <c r="L386" s="42"/>
+      <c r="K386" s="43"/>
+      <c r="L386" s="43"/>
     </row>
     <row r="387">
-      <c r="G387" s="43"/>
+      <c r="G387" s="44"/>
       <c r="H387" s="23"/>
-      <c r="K387" s="42"/>
-      <c r="L387" s="42"/>
+      <c r="K387" s="43"/>
+      <c r="L387" s="43"/>
     </row>
     <row r="388">
-      <c r="G388" s="43"/>
+      <c r="G388" s="44"/>
       <c r="H388" s="23"/>
-      <c r="K388" s="42"/>
-      <c r="L388" s="42"/>
+      <c r="K388" s="43"/>
+      <c r="L388" s="43"/>
     </row>
     <row r="389">
-      <c r="G389" s="43"/>
+      <c r="G389" s="44"/>
       <c r="H389" s="23"/>
-      <c r="K389" s="42"/>
-      <c r="L389" s="42"/>
+      <c r="K389" s="43"/>
+      <c r="L389" s="43"/>
     </row>
     <row r="390">
-      <c r="G390" s="43"/>
+      <c r="G390" s="44"/>
       <c r="H390" s="23"/>
-      <c r="K390" s="42"/>
-      <c r="L390" s="42"/>
+      <c r="K390" s="43"/>
+      <c r="L390" s="43"/>
     </row>
     <row r="391">
-      <c r="G391" s="43"/>
+      <c r="G391" s="44"/>
       <c r="H391" s="23"/>
-      <c r="K391" s="42"/>
-      <c r="L391" s="42"/>
+      <c r="K391" s="43"/>
+      <c r="L391" s="43"/>
     </row>
     <row r="392">
-      <c r="G392" s="43"/>
+      <c r="G392" s="44"/>
       <c r="H392" s="23"/>
-      <c r="K392" s="42"/>
-      <c r="L392" s="42"/>
+      <c r="K392" s="43"/>
+      <c r="L392" s="43"/>
     </row>
     <row r="393">
-      <c r="G393" s="43"/>
+      <c r="G393" s="44"/>
       <c r="H393" s="23"/>
-      <c r="K393" s="42"/>
-      <c r="L393" s="42"/>
+      <c r="K393" s="43"/>
+      <c r="L393" s="43"/>
     </row>
     <row r="394">
-      <c r="G394" s="43"/>
+      <c r="G394" s="44"/>
       <c r="H394" s="23"/>
-      <c r="K394" s="42"/>
-      <c r="L394" s="42"/>
+      <c r="K394" s="43"/>
+      <c r="L394" s="43"/>
     </row>
     <row r="395">
-      <c r="G395" s="43"/>
+      <c r="G395" s="44"/>
       <c r="H395" s="23"/>
-      <c r="K395" s="42"/>
-      <c r="L395" s="42"/>
+      <c r="K395" s="43"/>
+      <c r="L395" s="43"/>
     </row>
     <row r="396">
-      <c r="G396" s="43"/>
+      <c r="G396" s="44"/>
       <c r="H396" s="23"/>
-      <c r="K396" s="42"/>
-      <c r="L396" s="42"/>
+      <c r="K396" s="43"/>
+      <c r="L396" s="43"/>
     </row>
     <row r="397">
-      <c r="G397" s="43"/>
+      <c r="G397" s="44"/>
       <c r="H397" s="23"/>
-      <c r="K397" s="42"/>
-      <c r="L397" s="42"/>
+      <c r="K397" s="43"/>
+      <c r="L397" s="43"/>
     </row>
     <row r="398">
-      <c r="G398" s="43"/>
+      <c r="G398" s="44"/>
       <c r="H398" s="23"/>
-      <c r="K398" s="42"/>
-      <c r="L398" s="42"/>
+      <c r="K398" s="43"/>
+      <c r="L398" s="43"/>
     </row>
     <row r="399">
-      <c r="G399" s="43"/>
+      <c r="G399" s="44"/>
       <c r="H399" s="23"/>
-      <c r="K399" s="42"/>
-      <c r="L399" s="42"/>
+      <c r="K399" s="43"/>
+      <c r="L399" s="43"/>
     </row>
     <row r="400">
-      <c r="G400" s="43"/>
+      <c r="G400" s="44"/>
       <c r="H400" s="23"/>
-      <c r="K400" s="42"/>
-      <c r="L400" s="42"/>
+      <c r="K400" s="43"/>
+      <c r="L400" s="43"/>
     </row>
     <row r="401">
-      <c r="G401" s="43"/>
+      <c r="G401" s="44"/>
       <c r="H401" s="23"/>
-      <c r="K401" s="42"/>
-      <c r="L401" s="42"/>
+      <c r="K401" s="43"/>
+      <c r="L401" s="43"/>
     </row>
     <row r="402">
-      <c r="G402" s="43"/>
+      <c r="G402" s="44"/>
       <c r="H402" s="23"/>
-      <c r="K402" s="42"/>
-      <c r="L402" s="42"/>
+      <c r="K402" s="43"/>
+      <c r="L402" s="43"/>
     </row>
     <row r="403">
-      <c r="G403" s="43"/>
+      <c r="G403" s="44"/>
       <c r="H403" s="23"/>
-      <c r="K403" s="42"/>
-      <c r="L403" s="42"/>
+      <c r="K403" s="43"/>
+      <c r="L403" s="43"/>
     </row>
     <row r="404">
-      <c r="G404" s="43"/>
+      <c r="G404" s="44"/>
       <c r="H404" s="23"/>
-      <c r="K404" s="42"/>
-      <c r="L404" s="42"/>
+      <c r="K404" s="43"/>
+      <c r="L404" s="43"/>
     </row>
     <row r="405">
-      <c r="G405" s="43"/>
+      <c r="G405" s="44"/>
       <c r="H405" s="23"/>
-      <c r="K405" s="42"/>
-      <c r="L405" s="42"/>
+      <c r="K405" s="43"/>
+      <c r="L405" s="43"/>
     </row>
     <row r="406">
-      <c r="G406" s="43"/>
+      <c r="G406" s="44"/>
       <c r="H406" s="23"/>
-      <c r="K406" s="42"/>
-      <c r="L406" s="42"/>
+      <c r="K406" s="43"/>
+      <c r="L406" s="43"/>
     </row>
     <row r="407">
-      <c r="G407" s="43"/>
+      <c r="G407" s="44"/>
       <c r="H407" s="23"/>
-      <c r="K407" s="42"/>
-      <c r="L407" s="42"/>
+      <c r="K407" s="43"/>
+      <c r="L407" s="43"/>
     </row>
     <row r="408">
-      <c r="G408" s="43"/>
+      <c r="G408" s="44"/>
       <c r="H408" s="23"/>
-      <c r="K408" s="42"/>
-      <c r="L408" s="42"/>
+      <c r="K408" s="43"/>
+      <c r="L408" s="43"/>
     </row>
     <row r="409">
-      <c r="G409" s="43"/>
+      <c r="G409" s="44"/>
       <c r="H409" s="23"/>
-      <c r="K409" s="42"/>
-      <c r="L409" s="42"/>
+      <c r="K409" s="43"/>
+      <c r="L409" s="43"/>
     </row>
     <row r="410">
-      <c r="G410" s="43"/>
+      <c r="G410" s="44"/>
       <c r="H410" s="23"/>
-      <c r="K410" s="42"/>
-      <c r="L410" s="42"/>
+      <c r="K410" s="43"/>
+      <c r="L410" s="43"/>
     </row>
     <row r="411">
-      <c r="G411" s="43"/>
+      <c r="G411" s="44"/>
       <c r="H411" s="23"/>
-      <c r="K411" s="42"/>
-      <c r="L411" s="42"/>
+      <c r="K411" s="43"/>
+      <c r="L411" s="43"/>
     </row>
     <row r="412">
-      <c r="G412" s="43"/>
+      <c r="G412" s="44"/>
       <c r="H412" s="23"/>
-      <c r="K412" s="42"/>
-      <c r="L412" s="42"/>
+      <c r="K412" s="43"/>
+      <c r="L412" s="43"/>
     </row>
     <row r="413">
-      <c r="G413" s="43"/>
+      <c r="G413" s="44"/>
       <c r="H413" s="23"/>
-      <c r="K413" s="42"/>
-      <c r="L413" s="42"/>
+      <c r="K413" s="43"/>
+      <c r="L413" s="43"/>
     </row>
     <row r="414">
-      <c r="G414" s="43"/>
+      <c r="G414" s="44"/>
       <c r="H414" s="23"/>
-      <c r="K414" s="42"/>
-      <c r="L414" s="42"/>
+      <c r="K414" s="43"/>
+      <c r="L414" s="43"/>
     </row>
     <row r="415">
-      <c r="G415" s="43"/>
+      <c r="G415" s="44"/>
       <c r="H415" s="23"/>
-      <c r="K415" s="42"/>
-      <c r="L415" s="42"/>
+      <c r="K415" s="43"/>
+      <c r="L415" s="43"/>
     </row>
     <row r="416">
-      <c r="G416" s="43"/>
+      <c r="G416" s="44"/>
       <c r="H416" s="23"/>
-      <c r="K416" s="42"/>
-      <c r="L416" s="42"/>
+      <c r="K416" s="43"/>
+      <c r="L416" s="43"/>
     </row>
     <row r="417">
-      <c r="G417" s="43"/>
+      <c r="G417" s="44"/>
       <c r="H417" s="23"/>
-      <c r="K417" s="42"/>
-      <c r="L417" s="42"/>
+      <c r="K417" s="43"/>
+      <c r="L417" s="43"/>
     </row>
     <row r="418">
-      <c r="G418" s="43"/>
+      <c r="G418" s="44"/>
       <c r="H418" s="23"/>
-      <c r="K418" s="42"/>
-      <c r="L418" s="42"/>
+      <c r="K418" s="43"/>
+      <c r="L418" s="43"/>
     </row>
     <row r="419">
-      <c r="G419" s="43"/>
+      <c r="G419" s="44"/>
       <c r="H419" s="23"/>
-      <c r="K419" s="42"/>
-      <c r="L419" s="42"/>
+      <c r="K419" s="43"/>
+      <c r="L419" s="43"/>
     </row>
     <row r="420">
-      <c r="G420" s="43"/>
+      <c r="G420" s="44"/>
       <c r="H420" s="23"/>
-      <c r="K420" s="42"/>
-      <c r="L420" s="42"/>
+      <c r="K420" s="43"/>
+      <c r="L420" s="43"/>
     </row>
     <row r="421">
-      <c r="G421" s="43"/>
+      <c r="G421" s="44"/>
       <c r="H421" s="23"/>
-      <c r="K421" s="42"/>
-      <c r="L421" s="42"/>
+      <c r="K421" s="43"/>
+      <c r="L421" s="43"/>
     </row>
     <row r="422">
-      <c r="G422" s="43"/>
+      <c r="G422" s="44"/>
       <c r="H422" s="23"/>
-      <c r="K422" s="42"/>
-      <c r="L422" s="42"/>
+      <c r="K422" s="43"/>
+      <c r="L422" s="43"/>
     </row>
     <row r="423">
-      <c r="G423" s="43"/>
+      <c r="G423" s="44"/>
       <c r="H423" s="23"/>
-      <c r="K423" s="42"/>
-      <c r="L423" s="42"/>
+      <c r="K423" s="43"/>
+      <c r="L423" s="43"/>
     </row>
     <row r="424">
-      <c r="G424" s="43"/>
+      <c r="G424" s="44"/>
       <c r="H424" s="23"/>
-      <c r="K424" s="42"/>
-      <c r="L424" s="42"/>
+      <c r="K424" s="43"/>
+      <c r="L424" s="43"/>
     </row>
     <row r="425">
-      <c r="G425" s="43"/>
+      <c r="G425" s="44"/>
       <c r="H425" s="23"/>
-      <c r="K425" s="42"/>
-      <c r="L425" s="42"/>
+      <c r="K425" s="43"/>
+      <c r="L425" s="43"/>
     </row>
     <row r="426">
-      <c r="G426" s="43"/>
+      <c r="G426" s="44"/>
       <c r="H426" s="23"/>
-      <c r="K426" s="42"/>
-      <c r="L426" s="42"/>
+      <c r="K426" s="43"/>
+      <c r="L426" s="43"/>
     </row>
     <row r="427">
-      <c r="G427" s="43"/>
+      <c r="G427" s="44"/>
       <c r="H427" s="23"/>
-      <c r="K427" s="42"/>
-      <c r="L427" s="42"/>
+      <c r="K427" s="43"/>
+      <c r="L427" s="43"/>
     </row>
     <row r="428">
-      <c r="G428" s="43"/>
+      <c r="G428" s="44"/>
       <c r="H428" s="23"/>
-      <c r="K428" s="42"/>
-      <c r="L428" s="42"/>
+      <c r="K428" s="43"/>
+      <c r="L428" s="43"/>
     </row>
     <row r="429">
-      <c r="G429" s="43"/>
+      <c r="G429" s="44"/>
       <c r="H429" s="23"/>
-      <c r="K429" s="42"/>
-      <c r="L429" s="42"/>
+      <c r="K429" s="43"/>
+      <c r="L429" s="43"/>
     </row>
     <row r="430">
-      <c r="G430" s="43"/>
+      <c r="G430" s="44"/>
       <c r="H430" s="23"/>
-      <c r="K430" s="42"/>
-      <c r="L430" s="42"/>
+      <c r="K430" s="43"/>
+      <c r="L430" s="43"/>
     </row>
     <row r="431">
-      <c r="G431" s="43"/>
+      <c r="G431" s="44"/>
       <c r="H431" s="23"/>
-      <c r="K431" s="42"/>
-      <c r="L431" s="42"/>
+      <c r="K431" s="43"/>
+      <c r="L431" s="43"/>
     </row>
     <row r="432">
-      <c r="G432" s="43"/>
+      <c r="G432" s="44"/>
       <c r="H432" s="23"/>
-      <c r="K432" s="42"/>
-      <c r="L432" s="42"/>
+      <c r="K432" s="43"/>
+      <c r="L432" s="43"/>
     </row>
     <row r="433">
-      <c r="G433" s="43"/>
+      <c r="G433" s="44"/>
       <c r="H433" s="23"/>
-      <c r="K433" s="42"/>
-      <c r="L433" s="42"/>
+      <c r="K433" s="43"/>
+      <c r="L433" s="43"/>
     </row>
     <row r="434">
-      <c r="G434" s="43"/>
+      <c r="G434" s="44"/>
       <c r="H434" s="23"/>
-      <c r="K434" s="42"/>
-      <c r="L434" s="42"/>
+      <c r="K434" s="43"/>
+      <c r="L434" s="43"/>
     </row>
     <row r="435">
-      <c r="G435" s="43"/>
+      <c r="G435" s="44"/>
       <c r="H435" s="23"/>
-      <c r="K435" s="42"/>
-      <c r="L435" s="42"/>
+      <c r="K435" s="43"/>
+      <c r="L435" s="43"/>
     </row>
     <row r="436">
-      <c r="G436" s="43"/>
+      <c r="G436" s="44"/>
       <c r="H436" s="23"/>
-      <c r="K436" s="42"/>
-      <c r="L436" s="42"/>
+      <c r="K436" s="43"/>
+      <c r="L436" s="43"/>
     </row>
     <row r="437">
-      <c r="G437" s="43"/>
+      <c r="G437" s="44"/>
       <c r="H437" s="23"/>
-      <c r="K437" s="42"/>
-      <c r="L437" s="42"/>
+      <c r="K437" s="43"/>
+      <c r="L437" s="43"/>
     </row>
     <row r="438">
-      <c r="G438" s="43"/>
+      <c r="G438" s="44"/>
       <c r="H438" s="23"/>
-      <c r="K438" s="42"/>
-      <c r="L438" s="42"/>
+      <c r="K438" s="43"/>
+      <c r="L438" s="43"/>
     </row>
     <row r="439">
-      <c r="G439" s="43"/>
+      <c r="G439" s="44"/>
       <c r="H439" s="23"/>
-      <c r="K439" s="42"/>
-      <c r="L439" s="42"/>
+      <c r="K439" s="43"/>
+      <c r="L439" s="43"/>
     </row>
     <row r="440">
-      <c r="G440" s="43"/>
+      <c r="G440" s="44"/>
       <c r="H440" s="23"/>
-      <c r="K440" s="42"/>
-      <c r="L440" s="42"/>
+      <c r="K440" s="43"/>
+      <c r="L440" s="43"/>
     </row>
     <row r="441">
-      <c r="G441" s="43"/>
+      <c r="G441" s="44"/>
       <c r="H441" s="23"/>
-      <c r="K441" s="42"/>
-      <c r="L441" s="42"/>
+      <c r="K441" s="43"/>
+      <c r="L441" s="43"/>
     </row>
     <row r="442">
-      <c r="G442" s="43"/>
+      <c r="G442" s="44"/>
       <c r="H442" s="23"/>
-      <c r="K442" s="42"/>
-      <c r="L442" s="42"/>
+      <c r="K442" s="43"/>
+      <c r="L442" s="43"/>
     </row>
     <row r="443">
-      <c r="G443" s="43"/>
+      <c r="G443" s="44"/>
       <c r="H443" s="23"/>
-      <c r="K443" s="42"/>
-      <c r="L443" s="42"/>
+      <c r="K443" s="43"/>
+      <c r="L443" s="43"/>
     </row>
     <row r="444">
-      <c r="G444" s="43"/>
+      <c r="G444" s="44"/>
       <c r="H444" s="23"/>
-      <c r="K444" s="42"/>
-      <c r="L444" s="42"/>
+      <c r="K444" s="43"/>
+      <c r="L444" s="43"/>
     </row>
     <row r="445">
-      <c r="G445" s="43"/>
+      <c r="G445" s="44"/>
       <c r="H445" s="23"/>
-      <c r="K445" s="42"/>
-      <c r="L445" s="42"/>
+      <c r="K445" s="43"/>
+      <c r="L445" s="43"/>
     </row>
     <row r="446">
-      <c r="G446" s="43"/>
+      <c r="G446" s="44"/>
       <c r="H446" s="23"/>
-      <c r="K446" s="42"/>
-      <c r="L446" s="42"/>
+      <c r="K446" s="43"/>
+      <c r="L446" s="43"/>
     </row>
     <row r="447">
-      <c r="G447" s="43"/>
+      <c r="G447" s="44"/>
       <c r="H447" s="23"/>
-      <c r="K447" s="42"/>
-      <c r="L447" s="42"/>
+      <c r="K447" s="43"/>
+      <c r="L447" s="43"/>
     </row>
     <row r="448">
-      <c r="G448" s="43"/>
+      <c r="G448" s="44"/>
       <c r="H448" s="23"/>
-      <c r="K448" s="42"/>
-      <c r="L448" s="42"/>
+      <c r="K448" s="43"/>
+      <c r="L448" s="43"/>
     </row>
     <row r="449">
-      <c r="G449" s="43"/>
+      <c r="G449" s="44"/>
       <c r="H449" s="23"/>
-      <c r="K449" s="42"/>
-      <c r="L449" s="42"/>
+      <c r="K449" s="43"/>
+      <c r="L449" s="43"/>
     </row>
     <row r="450">
-      <c r="G450" s="43"/>
+      <c r="G450" s="44"/>
       <c r="H450" s="23"/>
-      <c r="K450" s="42"/>
-      <c r="L450" s="42"/>
+      <c r="K450" s="43"/>
+      <c r="L450" s="43"/>
     </row>
     <row r="451">
-      <c r="G451" s="43"/>
+      <c r="G451" s="44"/>
       <c r="H451" s="23"/>
-      <c r="K451" s="42"/>
-      <c r="L451" s="42"/>
+      <c r="K451" s="43"/>
+      <c r="L451" s="43"/>
     </row>
     <row r="452">
-      <c r="G452" s="43"/>
+      <c r="G452" s="44"/>
       <c r="H452" s="23"/>
-      <c r="K452" s="42"/>
-      <c r="L452" s="42"/>
+      <c r="K452" s="43"/>
+      <c r="L452" s="43"/>
     </row>
     <row r="453">
-      <c r="G453" s="43"/>
+      <c r="G453" s="44"/>
       <c r="H453" s="23"/>
-      <c r="K453" s="42"/>
-      <c r="L453" s="42"/>
+      <c r="K453" s="43"/>
+      <c r="L453" s="43"/>
     </row>
     <row r="454">
-      <c r="G454" s="43"/>
+      <c r="G454" s="44"/>
       <c r="H454" s="23"/>
-      <c r="K454" s="42"/>
-      <c r="L454" s="42"/>
+      <c r="K454" s="43"/>
+      <c r="L454" s="43"/>
     </row>
     <row r="455">
-      <c r="G455" s="43"/>
+      <c r="G455" s="44"/>
       <c r="H455" s="23"/>
-      <c r="K455" s="42"/>
-      <c r="L455" s="42"/>
+      <c r="K455" s="43"/>
+      <c r="L455" s="43"/>
     </row>
     <row r="456">
-      <c r="G456" s="43"/>
+      <c r="G456" s="44"/>
       <c r="H456" s="23"/>
-      <c r="K456" s="42"/>
-      <c r="L456" s="42"/>
+      <c r="K456" s="43"/>
+      <c r="L456" s="43"/>
     </row>
     <row r="457">
-      <c r="G457" s="43"/>
+      <c r="G457" s="44"/>
       <c r="H457" s="23"/>
-      <c r="K457" s="42"/>
-      <c r="L457" s="42"/>
+      <c r="K457" s="43"/>
+      <c r="L457" s="43"/>
     </row>
     <row r="458">
-      <c r="G458" s="43"/>
+      <c r="G458" s="44"/>
       <c r="H458" s="23"/>
-      <c r="K458" s="42"/>
-      <c r="L458" s="42"/>
+      <c r="K458" s="43"/>
+      <c r="L458" s="43"/>
     </row>
     <row r="459">
-      <c r="G459" s="43"/>
+      <c r="G459" s="44"/>
       <c r="H459" s="23"/>
-      <c r="K459" s="42"/>
-      <c r="L459" s="42"/>
+      <c r="K459" s="43"/>
+      <c r="L459" s="43"/>
     </row>
     <row r="460">
-      <c r="G460" s="43"/>
+      <c r="G460" s="44"/>
       <c r="H460" s="23"/>
-      <c r="K460" s="42"/>
-      <c r="L460" s="42"/>
+      <c r="K460" s="43"/>
+      <c r="L460" s="43"/>
     </row>
     <row r="461">
-      <c r="G461" s="43"/>
+      <c r="G461" s="44"/>
       <c r="H461" s="23"/>
-      <c r="K461" s="42"/>
-      <c r="L461" s="42"/>
+      <c r="K461" s="43"/>
+      <c r="L461" s="43"/>
     </row>
     <row r="462">
-      <c r="G462" s="43"/>
+      <c r="G462" s="44"/>
       <c r="H462" s="23"/>
-      <c r="K462" s="42"/>
-      <c r="L462" s="42"/>
+      <c r="K462" s="43"/>
+      <c r="L462" s="43"/>
     </row>
     <row r="463">
-      <c r="G463" s="43"/>
+      <c r="G463" s="44"/>
       <c r="H463" s="23"/>
-      <c r="K463" s="42"/>
-      <c r="L463" s="42"/>
+      <c r="K463" s="43"/>
+      <c r="L463" s="43"/>
     </row>
     <row r="464">
-      <c r="G464" s="43"/>
+      <c r="G464" s="44"/>
       <c r="H464" s="23"/>
-      <c r="K464" s="42"/>
-      <c r="L464" s="42"/>
+      <c r="K464" s="43"/>
+      <c r="L464" s="43"/>
     </row>
     <row r="465">
-      <c r="G465" s="43"/>
+      <c r="G465" s="44"/>
       <c r="H465" s="23"/>
-      <c r="K465" s="42"/>
-      <c r="L465" s="42"/>
+      <c r="K465" s="43"/>
+      <c r="L465" s="43"/>
     </row>
     <row r="466">
-      <c r="G466" s="43"/>
+      <c r="G466" s="44"/>
       <c r="H466" s="23"/>
-      <c r="K466" s="42"/>
-      <c r="L466" s="42"/>
+      <c r="K466" s="43"/>
+      <c r="L466" s="43"/>
     </row>
     <row r="467">
-      <c r="G467" s="43"/>
+      <c r="G467" s="44"/>
       <c r="H467" s="23"/>
-      <c r="K467" s="42"/>
-      <c r="L467" s="42"/>
+      <c r="K467" s="43"/>
+      <c r="L467" s="43"/>
     </row>
     <row r="468">
-      <c r="G468" s="43"/>
+      <c r="G468" s="44"/>
       <c r="H468" s="23"/>
-      <c r="K468" s="42"/>
-      <c r="L468" s="42"/>
+      <c r="K468" s="43"/>
+      <c r="L468" s="43"/>
     </row>
     <row r="469">
-      <c r="G469" s="43"/>
+      <c r="G469" s="44"/>
       <c r="H469" s="23"/>
-      <c r="K469" s="42"/>
-      <c r="L469" s="42"/>
+      <c r="K469" s="43"/>
+      <c r="L469" s="43"/>
     </row>
     <row r="470">
-      <c r="G470" s="43"/>
+      <c r="G470" s="44"/>
       <c r="H470" s="23"/>
-      <c r="K470" s="42"/>
-      <c r="L470" s="42"/>
+      <c r="K470" s="43"/>
+      <c r="L470" s="43"/>
     </row>
     <row r="471">
-      <c r="G471" s="43"/>
+      <c r="G471" s="44"/>
       <c r="H471" s="23"/>
-      <c r="K471" s="42"/>
-      <c r="L471" s="42"/>
+      <c r="K471" s="43"/>
+      <c r="L471" s="43"/>
     </row>
     <row r="472">
-      <c r="G472" s="43"/>
+      <c r="G472" s="44"/>
       <c r="H472" s="23"/>
-      <c r="K472" s="42"/>
-      <c r="L472" s="42"/>
+      <c r="K472" s="43"/>
+      <c r="L472" s="43"/>
     </row>
     <row r="473">
-      <c r="G473" s="43"/>
+      <c r="G473" s="44"/>
       <c r="H473" s="23"/>
-      <c r="K473" s="42"/>
-      <c r="L473" s="42"/>
+      <c r="K473" s="43"/>
+      <c r="L473" s="43"/>
     </row>
     <row r="474">
-      <c r="G474" s="43"/>
+      <c r="G474" s="44"/>
       <c r="H474" s="23"/>
-      <c r="K474" s="42"/>
-      <c r="L474" s="42"/>
+      <c r="K474" s="43"/>
+      <c r="L474" s="43"/>
     </row>
     <row r="475">
-      <c r="G475" s="43"/>
+      <c r="G475" s="44"/>
       <c r="H475" s="23"/>
-      <c r="K475" s="42"/>
-      <c r="L475" s="42"/>
+      <c r="K475" s="43"/>
+      <c r="L475" s="43"/>
     </row>
     <row r="476">
-      <c r="G476" s="43"/>
+      <c r="G476" s="44"/>
       <c r="H476" s="23"/>
-      <c r="K476" s="42"/>
-      <c r="L476" s="42"/>
+      <c r="K476" s="43"/>
+      <c r="L476" s="43"/>
     </row>
     <row r="477">
-      <c r="G477" s="43"/>
+      <c r="G477" s="44"/>
       <c r="H477" s="23"/>
-      <c r="K477" s="42"/>
-      <c r="L477" s="42"/>
+      <c r="K477" s="43"/>
+      <c r="L477" s="43"/>
     </row>
     <row r="478">
-      <c r="G478" s="43"/>
+      <c r="G478" s="44"/>
       <c r="H478" s="23"/>
-      <c r="K478" s="42"/>
-      <c r="L478" s="42"/>
+      <c r="K478" s="43"/>
+      <c r="L478" s="43"/>
     </row>
     <row r="479">
-      <c r="G479" s="43"/>
+      <c r="G479" s="44"/>
       <c r="H479" s="23"/>
-      <c r="K479" s="42"/>
-      <c r="L479" s="42"/>
+      <c r="K479" s="43"/>
+      <c r="L479" s="43"/>
     </row>
     <row r="480">
-      <c r="G480" s="43"/>
+      <c r="G480" s="44"/>
       <c r="H480" s="23"/>
-      <c r="K480" s="42"/>
-      <c r="L480" s="42"/>
+      <c r="K480" s="43"/>
+      <c r="L480" s="43"/>
     </row>
     <row r="481">
-      <c r="G481" s="43"/>
+      <c r="G481" s="44"/>
       <c r="H481" s="23"/>
-      <c r="K481" s="42"/>
-      <c r="L481" s="42"/>
+      <c r="K481" s="43"/>
+      <c r="L481" s="43"/>
     </row>
     <row r="482">
-      <c r="G482" s="43"/>
+      <c r="G482" s="44"/>
       <c r="H482" s="23"/>
-      <c r="K482" s="42"/>
-      <c r="L482" s="42"/>
+      <c r="K482" s="43"/>
+      <c r="L482" s="43"/>
     </row>
     <row r="483">
-      <c r="G483" s="43"/>
+      <c r="G483" s="44"/>
       <c r="H483" s="23"/>
-      <c r="K483" s="42"/>
-      <c r="L483" s="42"/>
+      <c r="K483" s="43"/>
+      <c r="L483" s="43"/>
     </row>
     <row r="484">
-      <c r="G484" s="43"/>
+      <c r="G484" s="44"/>
       <c r="H484" s="23"/>
-      <c r="K484" s="42"/>
-      <c r="L484" s="42"/>
+      <c r="K484" s="43"/>
+      <c r="L484" s="43"/>
     </row>
     <row r="485">
-      <c r="G485" s="43"/>
+      <c r="G485" s="44"/>
       <c r="H485" s="23"/>
-      <c r="K485" s="42"/>
-      <c r="L485" s="42"/>
+      <c r="K485" s="43"/>
+      <c r="L485" s="43"/>
     </row>
     <row r="486">
-      <c r="G486" s="43"/>
+      <c r="G486" s="44"/>
       <c r="H486" s="23"/>
-      <c r="K486" s="42"/>
-      <c r="L486" s="42"/>
+      <c r="K486" s="43"/>
+      <c r="L486" s="43"/>
     </row>
     <row r="487">
-      <c r="G487" s="43"/>
+      <c r="G487" s="44"/>
       <c r="H487" s="23"/>
-      <c r="K487" s="42"/>
-      <c r="L487" s="42"/>
+      <c r="K487" s="43"/>
+      <c r="L487" s="43"/>
     </row>
     <row r="488">
-      <c r="G488" s="43"/>
+      <c r="G488" s="44"/>
       <c r="H488" s="23"/>
-      <c r="K488" s="42"/>
-      <c r="L488" s="42"/>
+      <c r="K488" s="43"/>
+      <c r="L488" s="43"/>
     </row>
     <row r="489">
-      <c r="G489" s="43"/>
+      <c r="G489" s="44"/>
       <c r="H489" s="23"/>
-      <c r="K489" s="42"/>
-      <c r="L489" s="42"/>
+      <c r="K489" s="43"/>
+      <c r="L489" s="43"/>
     </row>
     <row r="490">
-      <c r="G490" s="43"/>
+      <c r="G490" s="44"/>
       <c r="H490" s="23"/>
-      <c r="K490" s="42"/>
-      <c r="L490" s="42"/>
+      <c r="K490" s="43"/>
+      <c r="L490" s="43"/>
     </row>
     <row r="491">
-      <c r="G491" s="43"/>
+      <c r="G491" s="44"/>
       <c r="H491" s="23"/>
-      <c r="K491" s="42"/>
-      <c r="L491" s="42"/>
+      <c r="K491" s="43"/>
+      <c r="L491" s="43"/>
     </row>
     <row r="492">
-      <c r="G492" s="43"/>
+      <c r="G492" s="44"/>
       <c r="H492" s="23"/>
-      <c r="K492" s="42"/>
-      <c r="L492" s="42"/>
+      <c r="K492" s="43"/>
+      <c r="L492" s="43"/>
     </row>
     <row r="493">
-      <c r="G493" s="43"/>
+      <c r="G493" s="44"/>
       <c r="H493" s="23"/>
-      <c r="K493" s="42"/>
-      <c r="L493" s="42"/>
+      <c r="K493" s="43"/>
+      <c r="L493" s="43"/>
     </row>
     <row r="494">
-      <c r="G494" s="43"/>
+      <c r="G494" s="44"/>
       <c r="H494" s="23"/>
-      <c r="K494" s="42"/>
-      <c r="L494" s="42"/>
+      <c r="K494" s="43"/>
+      <c r="L494" s="43"/>
     </row>
     <row r="495">
-      <c r="G495" s="43"/>
+      <c r="G495" s="44"/>
       <c r="H495" s="23"/>
-      <c r="K495" s="42"/>
-      <c r="L495" s="42"/>
+      <c r="K495" s="43"/>
+      <c r="L495" s="43"/>
     </row>
     <row r="496">
-      <c r="G496" s="43"/>
+      <c r="G496" s="44"/>
       <c r="H496" s="23"/>
-      <c r="K496" s="42"/>
-      <c r="L496" s="42"/>
+      <c r="K496" s="43"/>
+      <c r="L496" s="43"/>
     </row>
     <row r="497">
-      <c r="G497" s="43"/>
+      <c r="G497" s="44"/>
       <c r="H497" s="23"/>
-      <c r="K497" s="42"/>
-      <c r="L497" s="42"/>
+      <c r="K497" s="43"/>
+      <c r="L497" s="43"/>
     </row>
     <row r="498">
-      <c r="G498" s="43"/>
+      <c r="G498" s="44"/>
       <c r="H498" s="23"/>
-      <c r="K498" s="42"/>
-      <c r="L498" s="42"/>
+      <c r="K498" s="43"/>
+      <c r="L498" s="43"/>
     </row>
     <row r="499">
-      <c r="G499" s="43"/>
+      <c r="G499" s="44"/>
       <c r="H499" s="23"/>
-      <c r="K499" s="42"/>
-      <c r="L499" s="42"/>
+      <c r="K499" s="43"/>
+      <c r="L499" s="43"/>
     </row>
     <row r="500">
-      <c r="G500" s="43"/>
+      <c r="G500" s="44"/>
       <c r="H500" s="23"/>
-      <c r="K500" s="42"/>
-      <c r="L500" s="42"/>
+      <c r="K500" s="43"/>
+      <c r="L500" s="43"/>
     </row>
     <row r="501">
-      <c r="G501" s="43"/>
+      <c r="G501" s="44"/>
       <c r="H501" s="23"/>
-      <c r="K501" s="42"/>
-      <c r="L501" s="42"/>
+      <c r="K501" s="43"/>
+      <c r="L501" s="43"/>
     </row>
     <row r="502">
-      <c r="G502" s="43"/>
+      <c r="G502" s="44"/>
       <c r="H502" s="23"/>
-      <c r="K502" s="42"/>
-      <c r="L502" s="42"/>
+      <c r="K502" s="43"/>
+      <c r="L502" s="43"/>
     </row>
     <row r="503">
-      <c r="G503" s="43"/>
+      <c r="G503" s="44"/>
       <c r="H503" s="23"/>
-      <c r="K503" s="42"/>
-      <c r="L503" s="42"/>
+      <c r="K503" s="43"/>
+      <c r="L503" s="43"/>
     </row>
     <row r="504">
-      <c r="G504" s="43"/>
+      <c r="G504" s="44"/>
       <c r="H504" s="23"/>
-      <c r="K504" s="42"/>
-      <c r="L504" s="42"/>
+      <c r="K504" s="43"/>
+      <c r="L504" s="43"/>
     </row>
     <row r="505">
-      <c r="G505" s="43"/>
+      <c r="G505" s="44"/>
       <c r="H505" s="23"/>
-      <c r="K505" s="42"/>
-      <c r="L505" s="42"/>
+      <c r="K505" s="43"/>
+      <c r="L505" s="43"/>
     </row>
     <row r="506">
-      <c r="G506" s="43"/>
+      <c r="G506" s="44"/>
       <c r="H506" s="23"/>
-      <c r="K506" s="42"/>
-      <c r="L506" s="42"/>
+      <c r="K506" s="43"/>
+      <c r="L506" s="43"/>
     </row>
     <row r="507">
-      <c r="G507" s="43"/>
+      <c r="G507" s="44"/>
       <c r="H507" s="23"/>
-      <c r="K507" s="42"/>
-      <c r="L507" s="42"/>
+      <c r="K507" s="43"/>
+      <c r="L507" s="43"/>
     </row>
     <row r="508">
-      <c r="G508" s="43"/>
+      <c r="G508" s="44"/>
       <c r="H508" s="23"/>
-      <c r="K508" s="42"/>
-      <c r="L508" s="42"/>
+      <c r="K508" s="43"/>
+      <c r="L508" s="43"/>
     </row>
     <row r="509">
-      <c r="G509" s="43"/>
+      <c r="G509" s="44"/>
       <c r="H509" s="23"/>
-      <c r="K509" s="42"/>
-      <c r="L509" s="42"/>
+      <c r="K509" s="43"/>
+      <c r="L509" s="43"/>
     </row>
     <row r="510">
-      <c r="G510" s="43"/>
+      <c r="G510" s="44"/>
       <c r="H510" s="23"/>
-      <c r="K510" s="42"/>
-      <c r="L510" s="42"/>
+      <c r="K510" s="43"/>
+      <c r="L510" s="43"/>
     </row>
     <row r="511">
-      <c r="G511" s="43"/>
+      <c r="G511" s="44"/>
       <c r="H511" s="23"/>
-      <c r="K511" s="42"/>
-      <c r="L511" s="42"/>
+      <c r="K511" s="43"/>
+      <c r="L511" s="43"/>
     </row>
     <row r="512">
-      <c r="G512" s="43"/>
+      <c r="G512" s="44"/>
       <c r="H512" s="23"/>
-      <c r="K512" s="42"/>
-      <c r="L512" s="42"/>
+      <c r="K512" s="43"/>
+      <c r="L512" s="43"/>
     </row>
     <row r="513">
-      <c r="G513" s="43"/>
+      <c r="G513" s="44"/>
       <c r="H513" s="23"/>
-      <c r="K513" s="42"/>
-      <c r="L513" s="42"/>
+      <c r="K513" s="43"/>
+      <c r="L513" s="43"/>
     </row>
     <row r="514">
-      <c r="G514" s="43"/>
+      <c r="G514" s="44"/>
       <c r="H514" s="23"/>
-      <c r="K514" s="42"/>
-      <c r="L514" s="42"/>
+      <c r="K514" s="43"/>
+      <c r="L514" s="43"/>
     </row>
     <row r="515">
-      <c r="G515" s="43"/>
+      <c r="G515" s="44"/>
       <c r="H515" s="23"/>
-      <c r="K515" s="42"/>
-      <c r="L515" s="42"/>
+      <c r="K515" s="43"/>
+      <c r="L515" s="43"/>
     </row>
     <row r="516">
-      <c r="G516" s="43"/>
+      <c r="G516" s="44"/>
       <c r="H516" s="23"/>
-      <c r="K516" s="42"/>
-      <c r="L516" s="42"/>
+      <c r="K516" s="43"/>
+      <c r="L516" s="43"/>
     </row>
     <row r="517">
-      <c r="G517" s="43"/>
+      <c r="G517" s="44"/>
       <c r="H517" s="23"/>
-      <c r="K517" s="42"/>
-      <c r="L517" s="42"/>
+      <c r="K517" s="43"/>
+      <c r="L517" s="43"/>
     </row>
     <row r="518">
-      <c r="G518" s="43"/>
+      <c r="G518" s="44"/>
       <c r="H518" s="23"/>
-      <c r="K518" s="42"/>
-      <c r="L518" s="42"/>
+      <c r="K518" s="43"/>
+      <c r="L518" s="43"/>
     </row>
     <row r="519">
-      <c r="G519" s="43"/>
+      <c r="G519" s="44"/>
       <c r="H519" s="23"/>
-      <c r="K519" s="42"/>
-      <c r="L519" s="42"/>
+      <c r="K519" s="43"/>
+      <c r="L519" s="43"/>
     </row>
     <row r="520">
-      <c r="G520" s="43"/>
+      <c r="G520" s="44"/>
       <c r="H520" s="23"/>
-      <c r="K520" s="42"/>
-      <c r="L520" s="42"/>
+      <c r="K520" s="43"/>
+      <c r="L520" s="43"/>
     </row>
     <row r="521">
-      <c r="G521" s="43"/>
+      <c r="G521" s="44"/>
       <c r="H521" s="23"/>
-      <c r="K521" s="42"/>
-      <c r="L521" s="42"/>
+      <c r="K521" s="43"/>
+      <c r="L521" s="43"/>
     </row>
     <row r="522">
-      <c r="G522" s="43"/>
+      <c r="G522" s="44"/>
       <c r="H522" s="23"/>
-      <c r="K522" s="42"/>
-      <c r="L522" s="42"/>
+      <c r="K522" s="43"/>
+      <c r="L522" s="43"/>
     </row>
     <row r="523">
-      <c r="G523" s="43"/>
+      <c r="G523" s="44"/>
       <c r="H523" s="23"/>
-      <c r="K523" s="42"/>
-      <c r="L523" s="42"/>
+      <c r="K523" s="43"/>
+      <c r="L523" s="43"/>
     </row>
     <row r="524">
-      <c r="G524" s="43"/>
+      <c r="G524" s="44"/>
       <c r="H524" s="23"/>
-      <c r="K524" s="42"/>
-      <c r="L524" s="42"/>
+      <c r="K524" s="43"/>
+      <c r="L524" s="43"/>
     </row>
     <row r="525">
-      <c r="G525" s="43"/>
+      <c r="G525" s="44"/>
       <c r="H525" s="23"/>
-      <c r="K525" s="42"/>
-      <c r="L525" s="42"/>
+      <c r="K525" s="43"/>
+      <c r="L525" s="43"/>
     </row>
     <row r="526">
-      <c r="G526" s="43"/>
+      <c r="G526" s="44"/>
       <c r="H526" s="23"/>
-      <c r="K526" s="42"/>
-      <c r="L526" s="42"/>
+      <c r="K526" s="43"/>
+      <c r="L526" s="43"/>
     </row>
     <row r="527">
-      <c r="G527" s="43"/>
+      <c r="G527" s="44"/>
       <c r="H527" s="23"/>
-      <c r="K527" s="42"/>
-      <c r="L527" s="42"/>
+      <c r="K527" s="43"/>
+      <c r="L527" s="43"/>
     </row>
     <row r="528">
-      <c r="G528" s="43"/>
+      <c r="G528" s="44"/>
       <c r="H528" s="23"/>
-      <c r="K528" s="42"/>
-      <c r="L528" s="42"/>
+      <c r="K528" s="43"/>
+      <c r="L528" s="43"/>
     </row>
     <row r="529">
-      <c r="G529" s="43"/>
+      <c r="G529" s="44"/>
       <c r="H529" s="23"/>
-      <c r="K529" s="42"/>
-      <c r="L529" s="42"/>
+      <c r="K529" s="43"/>
+      <c r="L529" s="43"/>
     </row>
     <row r="530">
-      <c r="G530" s="43"/>
+      <c r="G530" s="44"/>
       <c r="H530" s="23"/>
-      <c r="K530" s="42"/>
-      <c r="L530" s="42"/>
+      <c r="K530" s="43"/>
+      <c r="L530" s="43"/>
     </row>
     <row r="531">
-      <c r="G531" s="43"/>
+      <c r="G531" s="44"/>
       <c r="H531" s="23"/>
-      <c r="K531" s="42"/>
-      <c r="L531" s="42"/>
+      <c r="K531" s="43"/>
+      <c r="L531" s="43"/>
     </row>
     <row r="532">
-      <c r="G532" s="43"/>
+      <c r="G532" s="44"/>
       <c r="H532" s="23"/>
-      <c r="K532" s="42"/>
-      <c r="L532" s="42"/>
+      <c r="K532" s="43"/>
+      <c r="L532" s="43"/>
     </row>
     <row r="533">
-      <c r="G533" s="43"/>
+      <c r="G533" s="44"/>
       <c r="H533" s="23"/>
-      <c r="K533" s="42"/>
-      <c r="L533" s="42"/>
+      <c r="K533" s="43"/>
+      <c r="L533" s="43"/>
     </row>
     <row r="534">
-      <c r="G534" s="43"/>
+      <c r="G534" s="44"/>
       <c r="H534" s="23"/>
-      <c r="K534" s="42"/>
-      <c r="L534" s="42"/>
+      <c r="K534" s="43"/>
+      <c r="L534" s="43"/>
     </row>
     <row r="535">
-      <c r="G535" s="43"/>
+      <c r="G535" s="44"/>
       <c r="H535" s="23"/>
-      <c r="K535" s="42"/>
-      <c r="L535" s="42"/>
+      <c r="K535" s="43"/>
+      <c r="L535" s="43"/>
     </row>
     <row r="536">
-      <c r="G536" s="43"/>
+      <c r="G536" s="44"/>
       <c r="H536" s="23"/>
-      <c r="K536" s="42"/>
-      <c r="L536" s="42"/>
+      <c r="K536" s="43"/>
+      <c r="L536" s="43"/>
     </row>
     <row r="537">
-      <c r="G537" s="43"/>
+      <c r="G537" s="44"/>
       <c r="H537" s="23"/>
-      <c r="K537" s="42"/>
-      <c r="L537" s="42"/>
+      <c r="K537" s="43"/>
+      <c r="L537" s="43"/>
     </row>
     <row r="538">
-      <c r="G538" s="43"/>
+      <c r="G538" s="44"/>
       <c r="H538" s="23"/>
-      <c r="K538" s="42"/>
-      <c r="L538" s="42"/>
+      <c r="K538" s="43"/>
+      <c r="L538" s="43"/>
     </row>
     <row r="539">
-      <c r="G539" s="43"/>
+      <c r="G539" s="44"/>
       <c r="H539" s="23"/>
-      <c r="K539" s="42"/>
-      <c r="L539" s="42"/>
+      <c r="K539" s="43"/>
+      <c r="L539" s="43"/>
     </row>
     <row r="540">
-      <c r="G540" s="43"/>
+      <c r="G540" s="44"/>
       <c r="H540" s="23"/>
-      <c r="K540" s="42"/>
-      <c r="L540" s="42"/>
+      <c r="K540" s="43"/>
+      <c r="L540" s="43"/>
     </row>
     <row r="541">
-      <c r="G541" s="43"/>
+      <c r="G541" s="44"/>
       <c r="H541" s="23"/>
-      <c r="K541" s="42"/>
-      <c r="L541" s="42"/>
+      <c r="K541" s="43"/>
+      <c r="L541" s="43"/>
     </row>
     <row r="542">
-      <c r="G542" s="43"/>
+      <c r="G542" s="44"/>
       <c r="H542" s="23"/>
-      <c r="K542" s="42"/>
-      <c r="L542" s="42"/>
+      <c r="K542" s="43"/>
+      <c r="L542" s="43"/>
     </row>
     <row r="543">
-      <c r="G543" s="43"/>
+      <c r="G543" s="44"/>
       <c r="H543" s="23"/>
-      <c r="K543" s="42"/>
-      <c r="L543" s="42"/>
+      <c r="K543" s="43"/>
+      <c r="L543" s="43"/>
     </row>
     <row r="544">
-      <c r="G544" s="43"/>
+      <c r="G544" s="44"/>
       <c r="H544" s="23"/>
-      <c r="K544" s="42"/>
-      <c r="L544" s="42"/>
+      <c r="K544" s="43"/>
+      <c r="L544" s="43"/>
     </row>
     <row r="545">
-      <c r="G545" s="43"/>
+      <c r="G545" s="44"/>
       <c r="H545" s="23"/>
-      <c r="K545" s="42"/>
-      <c r="L545" s="42"/>
+      <c r="K545" s="43"/>
+      <c r="L545" s="43"/>
     </row>
     <row r="546">
-      <c r="G546" s="43"/>
+      <c r="G546" s="44"/>
       <c r="H546" s="23"/>
-      <c r="K546" s="42"/>
-      <c r="L546" s="42"/>
+      <c r="K546" s="43"/>
+      <c r="L546" s="43"/>
     </row>
     <row r="547">
-      <c r="G547" s="43"/>
+      <c r="G547" s="44"/>
       <c r="H547" s="23"/>
-      <c r="K547" s="42"/>
-      <c r="L547" s="42"/>
+      <c r="K547" s="43"/>
+      <c r="L547" s="43"/>
     </row>
     <row r="548">
-      <c r="G548" s="43"/>
+      <c r="G548" s="44"/>
       <c r="H548" s="23"/>
-      <c r="K548" s="42"/>
-      <c r="L548" s="42"/>
+      <c r="K548" s="43"/>
+      <c r="L548" s="43"/>
     </row>
     <row r="549">
-      <c r="G549" s="43"/>
+      <c r="G549" s="44"/>
       <c r="H549" s="23"/>
-      <c r="K549" s="42"/>
-      <c r="L549" s="42"/>
+      <c r="K549" s="43"/>
+      <c r="L549" s="43"/>
     </row>
     <row r="550">
-      <c r="G550" s="43"/>
+      <c r="G550" s="44"/>
       <c r="H550" s="23"/>
-      <c r="K550" s="42"/>
-      <c r="L550" s="42"/>
+      <c r="K550" s="43"/>
+      <c r="L550" s="43"/>
     </row>
     <row r="551">
-      <c r="G551" s="43"/>
+      <c r="G551" s="44"/>
       <c r="H551" s="23"/>
-      <c r="K551" s="42"/>
-      <c r="L551" s="42"/>
+      <c r="K551" s="43"/>
+      <c r="L551" s="43"/>
     </row>
     <row r="552">
-      <c r="G552" s="43"/>
+      <c r="G552" s="44"/>
       <c r="H552" s="23"/>
-      <c r="K552" s="42"/>
-      <c r="L552" s="42"/>
+      <c r="K552" s="43"/>
+      <c r="L552" s="43"/>
     </row>
     <row r="553">
-      <c r="G553" s="43"/>
+      <c r="G553" s="44"/>
       <c r="H553" s="23"/>
-      <c r="K553" s="42"/>
-      <c r="L553" s="42"/>
+      <c r="K553" s="43"/>
+      <c r="L553" s="43"/>
     </row>
     <row r="554">
-      <c r="G554" s="43"/>
+      <c r="G554" s="44"/>
       <c r="H554" s="23"/>
-      <c r="K554" s="42"/>
-      <c r="L554" s="42"/>
+      <c r="K554" s="43"/>
+      <c r="L554" s="43"/>
     </row>
     <row r="555">
-      <c r="G555" s="43"/>
+      <c r="G555" s="44"/>
       <c r="H555" s="23"/>
-      <c r="K555" s="42"/>
-      <c r="L555" s="42"/>
+      <c r="K555" s="43"/>
+      <c r="L555" s="43"/>
     </row>
     <row r="556">
-      <c r="G556" s="43"/>
+      <c r="G556" s="44"/>
       <c r="H556" s="23"/>
-      <c r="K556" s="42"/>
-      <c r="L556" s="42"/>
+      <c r="K556" s="43"/>
+      <c r="L556" s="43"/>
     </row>
     <row r="557">
-      <c r="G557" s="43"/>
+      <c r="G557" s="44"/>
       <c r="H557" s="23"/>
-      <c r="K557" s="42"/>
-      <c r="L557" s="42"/>
+      <c r="K557" s="43"/>
+      <c r="L557" s="43"/>
     </row>
     <row r="558">
-      <c r="G558" s="43"/>
+      <c r="G558" s="44"/>
       <c r="H558" s="23"/>
-      <c r="K558" s="42"/>
-      <c r="L558" s="42"/>
+      <c r="K558" s="43"/>
+      <c r="L558" s="43"/>
     </row>
     <row r="559">
-      <c r="G559" s="43"/>
+      <c r="G559" s="44"/>
       <c r="H559" s="23"/>
-      <c r="K559" s="42"/>
-      <c r="L559" s="42"/>
+      <c r="K559" s="43"/>
+      <c r="L559" s="43"/>
     </row>
     <row r="560">
-      <c r="G560" s="43"/>
+      <c r="G560" s="44"/>
       <c r="H560" s="23"/>
-      <c r="K560" s="42"/>
-      <c r="L560" s="42"/>
+      <c r="K560" s="43"/>
+      <c r="L560" s="43"/>
     </row>
     <row r="561">
-      <c r="G561" s="43"/>
+      <c r="G561" s="44"/>
       <c r="H561" s="23"/>
-      <c r="K561" s="42"/>
-      <c r="L561" s="42"/>
+      <c r="K561" s="43"/>
+      <c r="L561" s="43"/>
     </row>
     <row r="562">
-      <c r="G562" s="43"/>
+      <c r="G562" s="44"/>
       <c r="H562" s="23"/>
-      <c r="K562" s="42"/>
-      <c r="L562" s="42"/>
+      <c r="K562" s="43"/>
+      <c r="L562" s="43"/>
     </row>
     <row r="563">
-      <c r="G563" s="43"/>
+      <c r="G563" s="44"/>
       <c r="H563" s="23"/>
-      <c r="K563" s="42"/>
-      <c r="L563" s="42"/>
+      <c r="K563" s="43"/>
+      <c r="L563" s="43"/>
     </row>
     <row r="564">
-      <c r="G564" s="43"/>
+      <c r="G564" s="44"/>
       <c r="H564" s="23"/>
-      <c r="K564" s="42"/>
-      <c r="L564" s="42"/>
+      <c r="K564" s="43"/>
+      <c r="L564" s="43"/>
     </row>
     <row r="565">
-      <c r="G565" s="43"/>
+      <c r="G565" s="44"/>
       <c r="H565" s="23"/>
-      <c r="K565" s="42"/>
-      <c r="L565" s="42"/>
+      <c r="K565" s="43"/>
+      <c r="L565" s="43"/>
     </row>
     <row r="566">
-      <c r="G566" s="43"/>
+      <c r="G566" s="44"/>
       <c r="H566" s="23"/>
-      <c r="K566" s="42"/>
-      <c r="L566" s="42"/>
+      <c r="K566" s="43"/>
+      <c r="L566" s="43"/>
     </row>
     <row r="567">
-      <c r="G567" s="43"/>
+      <c r="G567" s="44"/>
       <c r="H567" s="23"/>
-      <c r="K567" s="42"/>
-      <c r="L567" s="42"/>
+      <c r="K567" s="43"/>
+      <c r="L567" s="43"/>
     </row>
     <row r="568">
-      <c r="G568" s="43"/>
+      <c r="G568" s="44"/>
       <c r="H568" s="23"/>
-      <c r="K568" s="42"/>
-      <c r="L568" s="42"/>
+      <c r="K568" s="43"/>
+      <c r="L568" s="43"/>
     </row>
     <row r="569">
-      <c r="G569" s="43"/>
+      <c r="G569" s="44"/>
       <c r="H569" s="23"/>
-      <c r="K569" s="42"/>
-      <c r="L569" s="42"/>
+      <c r="K569" s="43"/>
+      <c r="L569" s="43"/>
     </row>
     <row r="570">
-      <c r="G570" s="43"/>
+      <c r="G570" s="44"/>
       <c r="H570" s="23"/>
-      <c r="K570" s="42"/>
-      <c r="L570" s="42"/>
+      <c r="K570" s="43"/>
+      <c r="L570" s="43"/>
     </row>
     <row r="571">
-      <c r="G571" s="43"/>
+      <c r="G571" s="44"/>
       <c r="H571" s="23"/>
-      <c r="K571" s="42"/>
-      <c r="L571" s="42"/>
+      <c r="K571" s="43"/>
+      <c r="L571" s="43"/>
     </row>
     <row r="572">
-      <c r="G572" s="43"/>
+      <c r="G572" s="44"/>
       <c r="H572" s="23"/>
-      <c r="K572" s="42"/>
-      <c r="L572" s="42"/>
+      <c r="K572" s="43"/>
+      <c r="L572" s="43"/>
     </row>
     <row r="573">
-      <c r="G573" s="43"/>
+      <c r="G573" s="44"/>
       <c r="H573" s="23"/>
-      <c r="K573" s="42"/>
-      <c r="L573" s="42"/>
+      <c r="K573" s="43"/>
+      <c r="L573" s="43"/>
     </row>
     <row r="574">
-      <c r="G574" s="43"/>
+      <c r="G574" s="44"/>
       <c r="H574" s="23"/>
-      <c r="K574" s="42"/>
-      <c r="L574" s="42"/>
+      <c r="K574" s="43"/>
+      <c r="L574" s="43"/>
     </row>
     <row r="575">
-      <c r="G575" s="43"/>
+      <c r="G575" s="44"/>
       <c r="H575" s="23"/>
-      <c r="K575" s="42"/>
-      <c r="L575" s="42"/>
+      <c r="K575" s="43"/>
+      <c r="L575" s="43"/>
     </row>
     <row r="576">
-      <c r="G576" s="43"/>
+      <c r="G576" s="44"/>
       <c r="H576" s="23"/>
-      <c r="K576" s="42"/>
-      <c r="L576" s="42"/>
+      <c r="K576" s="43"/>
+      <c r="L576" s="43"/>
     </row>
     <row r="577">
-      <c r="G577" s="43"/>
+      <c r="G577" s="44"/>
       <c r="H577" s="23"/>
-      <c r="K577" s="42"/>
-      <c r="L577" s="42"/>
+      <c r="K577" s="43"/>
+      <c r="L577" s="43"/>
     </row>
     <row r="578">
-      <c r="G578" s="43"/>
+      <c r="G578" s="44"/>
       <c r="H578" s="23"/>
-      <c r="K578" s="42"/>
-      <c r="L578" s="42"/>
+      <c r="K578" s="43"/>
+      <c r="L578" s="43"/>
     </row>
     <row r="579">
-      <c r="G579" s="43"/>
+      <c r="G579" s="44"/>
       <c r="H579" s="23"/>
-      <c r="K579" s="42"/>
-      <c r="L579" s="42"/>
+      <c r="K579" s="43"/>
+      <c r="L579" s="43"/>
     </row>
     <row r="580">
-      <c r="G580" s="43"/>
+      <c r="G580" s="44"/>
       <c r="H580" s="23"/>
-      <c r="K580" s="42"/>
-      <c r="L580" s="42"/>
+      <c r="K580" s="43"/>
+      <c r="L580" s="43"/>
     </row>
     <row r="581">
-      <c r="G581" s="43"/>
+      <c r="G581" s="44"/>
       <c r="H581" s="23"/>
-      <c r="K581" s="42"/>
-      <c r="L581" s="42"/>
+      <c r="K581" s="43"/>
+      <c r="L581" s="43"/>
     </row>
     <row r="582">
-      <c r="G582" s="43"/>
+      <c r="G582" s="44"/>
       <c r="H582" s="23"/>
-      <c r="K582" s="42"/>
-      <c r="L582" s="42"/>
+      <c r="K582" s="43"/>
+      <c r="L582" s="43"/>
     </row>
     <row r="583">
-      <c r="G583" s="43"/>
+      <c r="G583" s="44"/>
       <c r="H583" s="23"/>
-      <c r="K583" s="42"/>
-      <c r="L583" s="42"/>
+      <c r="K583" s="43"/>
+      <c r="L583" s="43"/>
     </row>
     <row r="584">
-      <c r="G584" s="43"/>
+      <c r="G584" s="44"/>
       <c r="H584" s="23"/>
-      <c r="K584" s="42"/>
-      <c r="L584" s="42"/>
+      <c r="K584" s="43"/>
+      <c r="L584" s="43"/>
     </row>
     <row r="585">
-      <c r="G585" s="43"/>
+      <c r="G585" s="44"/>
       <c r="H585" s="23"/>
-      <c r="K585" s="42"/>
-      <c r="L585" s="42"/>
+      <c r="K585" s="43"/>
+      <c r="L585" s="43"/>
     </row>
     <row r="586">
-      <c r="G586" s="43"/>
+      <c r="G586" s="44"/>
       <c r="H586" s="23"/>
-      <c r="K586" s="42"/>
-      <c r="L586" s="42"/>
+      <c r="K586" s="43"/>
+      <c r="L586" s="43"/>
     </row>
     <row r="587">
-      <c r="G587" s="43"/>
+      <c r="G587" s="44"/>
       <c r="H587" s="23"/>
-      <c r="K587" s="42"/>
-      <c r="L587" s="42"/>
+      <c r="K587" s="43"/>
+      <c r="L587" s="43"/>
     </row>
     <row r="588">
-      <c r="G588" s="43"/>
+      <c r="G588" s="44"/>
       <c r="H588" s="23"/>
-      <c r="K588" s="42"/>
-      <c r="L588" s="42"/>
+      <c r="K588" s="43"/>
+      <c r="L588" s="43"/>
     </row>
     <row r="589">
-      <c r="G589" s="43"/>
+      <c r="G589" s="44"/>
       <c r="H589" s="23"/>
-      <c r="K589" s="42"/>
-      <c r="L589" s="42"/>
+      <c r="K589" s="43"/>
+      <c r="L589" s="43"/>
     </row>
     <row r="590">
-      <c r="G590" s="43"/>
+      <c r="G590" s="44"/>
       <c r="H590" s="23"/>
-      <c r="K590" s="42"/>
-      <c r="L590" s="42"/>
+      <c r="K590" s="43"/>
+      <c r="L590" s="43"/>
     </row>
     <row r="591">
-      <c r="G591" s="43"/>
+      <c r="G591" s="44"/>
       <c r="H591" s="23"/>
-      <c r="K591" s="42"/>
-      <c r="L591" s="42"/>
+      <c r="K591" s="43"/>
+      <c r="L591" s="43"/>
     </row>
     <row r="592">
-      <c r="G592" s="43"/>
+      <c r="G592" s="44"/>
       <c r="H592" s="23"/>
-      <c r="K592" s="42"/>
-      <c r="L592" s="42"/>
+      <c r="K592" s="43"/>
+      <c r="L592" s="43"/>
     </row>
     <row r="593">
-      <c r="G593" s="43"/>
+      <c r="G593" s="44"/>
       <c r="H593" s="23"/>
-      <c r="K593" s="42"/>
-      <c r="L593" s="42"/>
+      <c r="K593" s="43"/>
+      <c r="L593" s="43"/>
     </row>
     <row r="594">
-      <c r="G594" s="43"/>
+      <c r="G594" s="44"/>
       <c r="H594" s="23"/>
-      <c r="K594" s="42"/>
-      <c r="L594" s="42"/>
+      <c r="K594" s="43"/>
+      <c r="L594" s="43"/>
     </row>
     <row r="595">
-      <c r="G595" s="43"/>
+      <c r="G595" s="44"/>
       <c r="H595" s="23"/>
-      <c r="K595" s="42"/>
-      <c r="L595" s="42"/>
+      <c r="K595" s="43"/>
+      <c r="L595" s="43"/>
     </row>
     <row r="596">
-      <c r="G596" s="43"/>
+      <c r="G596" s="44"/>
       <c r="H596" s="23"/>
-      <c r="K596" s="42"/>
-      <c r="L596" s="42"/>
+      <c r="K596" s="43"/>
+      <c r="L596" s="43"/>
     </row>
     <row r="597">
-      <c r="G597" s="43"/>
+      <c r="G597" s="44"/>
       <c r="H597" s="23"/>
-      <c r="K597" s="42"/>
-      <c r="L597" s="42"/>
+      <c r="K597" s="43"/>
+      <c r="L597" s="43"/>
     </row>
     <row r="598">
-      <c r="G598" s="43"/>
+      <c r="G598" s="44"/>
       <c r="H598" s="23"/>
-      <c r="K598" s="42"/>
-      <c r="L598" s="42"/>
+      <c r="K598" s="43"/>
+      <c r="L598" s="43"/>
     </row>
     <row r="599">
-      <c r="G599" s="43"/>
+      <c r="G599" s="44"/>
       <c r="H599" s="23"/>
-      <c r="K599" s="42"/>
-      <c r="L599" s="42"/>
+      <c r="K599" s="43"/>
+      <c r="L599" s="43"/>
     </row>
     <row r="600">
-      <c r="G600" s="43"/>
+      <c r="G600" s="44"/>
       <c r="H600" s="23"/>
-      <c r="K600" s="42"/>
-      <c r="L600" s="42"/>
+      <c r="K600" s="43"/>
+      <c r="L600" s="43"/>
     </row>
     <row r="601">
-      <c r="G601" s="43"/>
+      <c r="G601" s="44"/>
       <c r="H601" s="23"/>
-      <c r="K601" s="42"/>
-      <c r="L601" s="42"/>
+      <c r="K601" s="43"/>
+      <c r="L601" s="43"/>
     </row>
     <row r="602">
-      <c r="G602" s="43"/>
+      <c r="G602" s="44"/>
       <c r="H602" s="23"/>
-      <c r="K602" s="42"/>
-      <c r="L602" s="42"/>
+      <c r="K602" s="43"/>
+      <c r="L602" s="43"/>
     </row>
     <row r="603">
-      <c r="G603" s="43"/>
+      <c r="G603" s="44"/>
       <c r="H603" s="23"/>
-      <c r="K603" s="42"/>
-      <c r="L603" s="42"/>
+      <c r="K603" s="43"/>
+      <c r="L603" s="43"/>
     </row>
     <row r="604">
-      <c r="G604" s="43"/>
+      <c r="G604" s="44"/>
       <c r="H604" s="23"/>
-      <c r="K604" s="42"/>
-      <c r="L604" s="42"/>
+      <c r="K604" s="43"/>
+      <c r="L604" s="43"/>
     </row>
     <row r="605">
-      <c r="G605" s="43"/>
+      <c r="G605" s="44"/>
       <c r="H605" s="23"/>
-      <c r="K605" s="42"/>
-      <c r="L605" s="42"/>
+      <c r="K605" s="43"/>
+      <c r="L605" s="43"/>
     </row>
     <row r="606">
-      <c r="G606" s="43"/>
+      <c r="G606" s="44"/>
       <c r="H606" s="23"/>
-      <c r="K606" s="42"/>
-      <c r="L606" s="42"/>
+      <c r="K606" s="43"/>
+      <c r="L606" s="43"/>
     </row>
     <row r="607">
-      <c r="G607" s="43"/>
+      <c r="G607" s="44"/>
       <c r="H607" s="23"/>
-      <c r="K607" s="42"/>
-      <c r="L607" s="42"/>
+      <c r="K607" s="43"/>
+      <c r="L607" s="43"/>
     </row>
     <row r="608">
-      <c r="G608" s="43"/>
+      <c r="G608" s="44"/>
       <c r="H608" s="23"/>
-      <c r="K608" s="42"/>
-      <c r="L608" s="42"/>
+      <c r="K608" s="43"/>
+      <c r="L608" s="43"/>
     </row>
     <row r="609">
-      <c r="G609" s="43"/>
+      <c r="G609" s="44"/>
       <c r="H609" s="23"/>
-      <c r="K609" s="42"/>
-      <c r="L609" s="42"/>
+      <c r="K609" s="43"/>
+      <c r="L609" s="43"/>
     </row>
     <row r="610">
-      <c r="G610" s="43"/>
+      <c r="G610" s="44"/>
       <c r="H610" s="23"/>
-      <c r="K610" s="42"/>
-      <c r="L610" s="42"/>
+      <c r="K610" s="43"/>
+      <c r="L610" s="43"/>
     </row>
     <row r="611">
-      <c r="G611" s="43"/>
+      <c r="G611" s="44"/>
       <c r="H611" s="23"/>
-      <c r="K611" s="42"/>
-      <c r="L611" s="42"/>
+      <c r="K611" s="43"/>
+      <c r="L611" s="43"/>
     </row>
     <row r="612">
-      <c r="G612" s="43"/>
+      <c r="G612" s="44"/>
       <c r="H612" s="23"/>
-      <c r="K612" s="42"/>
-      <c r="L612" s="42"/>
+      <c r="K612" s="43"/>
+      <c r="L612" s="43"/>
     </row>
     <row r="613">
-      <c r="G613" s="43"/>
+      <c r="G613" s="44"/>
       <c r="H613" s="23"/>
-      <c r="K613" s="42"/>
-      <c r="L613" s="42"/>
+      <c r="K613" s="43"/>
+      <c r="L613" s="43"/>
     </row>
     <row r="614">
-      <c r="G614" s="43"/>
+      <c r="G614" s="44"/>
       <c r="H614" s="23"/>
-      <c r="K614" s="42"/>
-      <c r="L614" s="42"/>
+      <c r="K614" s="43"/>
+      <c r="L614" s="43"/>
     </row>
     <row r="615">
-      <c r="G615" s="43"/>
+      <c r="G615" s="44"/>
       <c r="H615" s="23"/>
-      <c r="K615" s="42"/>
-      <c r="L615" s="42"/>
+      <c r="K615" s="43"/>
+      <c r="L615" s="43"/>
     </row>
     <row r="616">
-      <c r="G616" s="43"/>
+      <c r="G616" s="44"/>
       <c r="H616" s="23"/>
-      <c r="K616" s="42"/>
-      <c r="L616" s="42"/>
+      <c r="K616" s="43"/>
+      <c r="L616" s="43"/>
     </row>
     <row r="617">
-      <c r="G617" s="43"/>
+      <c r="G617" s="44"/>
       <c r="H617" s="23"/>
-      <c r="K617" s="42"/>
-      <c r="L617" s="42"/>
+      <c r="K617" s="43"/>
+      <c r="L617" s="43"/>
     </row>
     <row r="618">
-      <c r="G618" s="43"/>
+      <c r="G618" s="44"/>
       <c r="H618" s="23"/>
-      <c r="K618" s="42"/>
-      <c r="L618" s="42"/>
+      <c r="K618" s="43"/>
+      <c r="L618" s="43"/>
     </row>
     <row r="619">
-      <c r="G619" s="43"/>
+      <c r="G619" s="44"/>
       <c r="H619" s="23"/>
-      <c r="K619" s="42"/>
-      <c r="L619" s="42"/>
+      <c r="K619" s="43"/>
+      <c r="L619" s="43"/>
     </row>
     <row r="620">
-      <c r="G620" s="43"/>
+      <c r="G620" s="44"/>
       <c r="H620" s="23"/>
-      <c r="K620" s="42"/>
-      <c r="L620" s="42"/>
+      <c r="K620" s="43"/>
+      <c r="L620" s="43"/>
     </row>
     <row r="621">
-      <c r="G621" s="43"/>
+      <c r="G621" s="44"/>
       <c r="H621" s="23"/>
-      <c r="K621" s="42"/>
-      <c r="L621" s="42"/>
+      <c r="K621" s="43"/>
+      <c r="L621" s="43"/>
     </row>
     <row r="622">
-      <c r="G622" s="43"/>
+      <c r="G622" s="44"/>
       <c r="H622" s="23"/>
-      <c r="K622" s="42"/>
-      <c r="L622" s="42"/>
+      <c r="K622" s="43"/>
+      <c r="L622" s="43"/>
     </row>
     <row r="623">
-      <c r="G623" s="43"/>
+      <c r="G623" s="44"/>
       <c r="H623" s="23"/>
-      <c r="K623" s="42"/>
-      <c r="L623" s="42"/>
+      <c r="K623" s="43"/>
+      <c r="L623" s="43"/>
     </row>
     <row r="624">
-      <c r="G624" s="43"/>
+      <c r="G624" s="44"/>
       <c r="H624" s="23"/>
-      <c r="K624" s="42"/>
-      <c r="L624" s="42"/>
+      <c r="K624" s="43"/>
+      <c r="L624" s="43"/>
     </row>
     <row r="625">
-      <c r="G625" s="43"/>
+      <c r="G625" s="44"/>
       <c r="H625" s="23"/>
-      <c r="K625" s="42"/>
-      <c r="L625" s="42"/>
+      <c r="K625" s="43"/>
+      <c r="L625" s="43"/>
     </row>
     <row r="626">
-      <c r="G626" s="43"/>
+      <c r="G626" s="44"/>
       <c r="H626" s="23"/>
-      <c r="K626" s="42"/>
-      <c r="L626" s="42"/>
+      <c r="K626" s="43"/>
+      <c r="L626" s="43"/>
     </row>
     <row r="627">
-      <c r="G627" s="43"/>
+      <c r="G627" s="44"/>
       <c r="H627" s="23"/>
-      <c r="K627" s="42"/>
-      <c r="L627" s="42"/>
+      <c r="K627" s="43"/>
+      <c r="L627" s="43"/>
     </row>
     <row r="628">
-      <c r="G628" s="43"/>
+      <c r="G628" s="44"/>
       <c r="H628" s="23"/>
-      <c r="K628" s="42"/>
-      <c r="L628" s="42"/>
+      <c r="K628" s="43"/>
+      <c r="L628" s="43"/>
     </row>
     <row r="629">
-      <c r="G629" s="43"/>
+      <c r="G629" s="44"/>
       <c r="H629" s="23"/>
-      <c r="K629" s="42"/>
-      <c r="L629" s="42"/>
+      <c r="K629" s="43"/>
+      <c r="L629" s="43"/>
     </row>
     <row r="630">
-      <c r="G630" s="43"/>
+      <c r="G630" s="44"/>
       <c r="H630" s="23"/>
-      <c r="K630" s="42"/>
-      <c r="L630" s="42"/>
+      <c r="K630" s="43"/>
+      <c r="L630" s="43"/>
     </row>
     <row r="631">
-      <c r="G631" s="43"/>
+      <c r="G631" s="44"/>
       <c r="H631" s="23"/>
-      <c r="K631" s="42"/>
-      <c r="L631" s="42"/>
+      <c r="K631" s="43"/>
+      <c r="L631" s="43"/>
     </row>
     <row r="632">
-      <c r="G632" s="43"/>
+      <c r="G632" s="44"/>
       <c r="H632" s="23"/>
-      <c r="K632" s="42"/>
-      <c r="L632" s="42"/>
+      <c r="K632" s="43"/>
+      <c r="L632" s="43"/>
     </row>
     <row r="633">
-      <c r="G633" s="43"/>
+      <c r="G633" s="44"/>
       <c r="H633" s="23"/>
-      <c r="K633" s="42"/>
-      <c r="L633" s="42"/>
+      <c r="K633" s="43"/>
+      <c r="L633" s="43"/>
     </row>
     <row r="634">
-      <c r="G634" s="43"/>
+      <c r="G634" s="44"/>
       <c r="H634" s="23"/>
-      <c r="K634" s="42"/>
-      <c r="L634" s="42"/>
+      <c r="K634" s="43"/>
+      <c r="L634" s="43"/>
     </row>
     <row r="635">
-      <c r="G635" s="43"/>
+      <c r="G635" s="44"/>
       <c r="H635" s="23"/>
-      <c r="K635" s="42"/>
-      <c r="L635" s="42"/>
+      <c r="K635" s="43"/>
+      <c r="L635" s="43"/>
     </row>
     <row r="636">
-      <c r="G636" s="43"/>
+      <c r="G636" s="44"/>
       <c r="H636" s="23"/>
-      <c r="K636" s="42"/>
-      <c r="L636" s="42"/>
+      <c r="K636" s="43"/>
+      <c r="L636" s="43"/>
     </row>
     <row r="637">
-      <c r="G637" s="43"/>
+      <c r="G637" s="44"/>
       <c r="H637" s="23"/>
-      <c r="K637" s="42"/>
-      <c r="L637" s="42"/>
+      <c r="K637" s="43"/>
+      <c r="L637" s="43"/>
     </row>
     <row r="638">
-      <c r="G638" s="43"/>
+      <c r="G638" s="44"/>
       <c r="H638" s="23"/>
-      <c r="K638" s="42"/>
-      <c r="L638" s="42"/>
+      <c r="K638" s="43"/>
+      <c r="L638" s="43"/>
     </row>
     <row r="639">
-      <c r="G639" s="43"/>
+      <c r="G639" s="44"/>
       <c r="H639" s="23"/>
-      <c r="K639" s="42"/>
-      <c r="L639" s="42"/>
+      <c r="K639" s="43"/>
+      <c r="L639" s="43"/>
     </row>
     <row r="640">
-      <c r="G640" s="43"/>
+      <c r="G640" s="44"/>
       <c r="H640" s="23"/>
-      <c r="K640" s="42"/>
-      <c r="L640" s="42"/>
+      <c r="K640" s="43"/>
+      <c r="L640" s="43"/>
     </row>
     <row r="641">
-      <c r="G641" s="43"/>
+      <c r="G641" s="44"/>
       <c r="H641" s="23"/>
-      <c r="K641" s="42"/>
-      <c r="L641" s="42"/>
+      <c r="K641" s="43"/>
+      <c r="L641" s="43"/>
     </row>
     <row r="642">
-      <c r="G642" s="43"/>
+      <c r="G642" s="44"/>
       <c r="H642" s="23"/>
-      <c r="K642" s="42"/>
-      <c r="L642" s="42"/>
+      <c r="K642" s="43"/>
+      <c r="L642" s="43"/>
     </row>
     <row r="643">
-      <c r="G643" s="43"/>
+      <c r="G643" s="44"/>
       <c r="H643" s="23"/>
-      <c r="K643" s="42"/>
-      <c r="L643" s="42"/>
+      <c r="K643" s="43"/>
+      <c r="L643" s="43"/>
     </row>
     <row r="644">
-      <c r="G644" s="43"/>
+      <c r="G644" s="44"/>
       <c r="H644" s="23"/>
-      <c r="K644" s="42"/>
-      <c r="L644" s="42"/>
+      <c r="K644" s="43"/>
+      <c r="L644" s="43"/>
     </row>
     <row r="645">
-      <c r="G645" s="43"/>
+      <c r="G645" s="44"/>
       <c r="H645" s="23"/>
-      <c r="K645" s="42"/>
-      <c r="L645" s="42"/>
+      <c r="K645" s="43"/>
+      <c r="L645" s="43"/>
     </row>
     <row r="646">
-      <c r="G646" s="43"/>
+      <c r="G646" s="44"/>
       <c r="H646" s="23"/>
-      <c r="K646" s="42"/>
-      <c r="L646" s="42"/>
+      <c r="K646" s="43"/>
+      <c r="L646" s="43"/>
     </row>
     <row r="647">
-      <c r="G647" s="43"/>
+      <c r="G647" s="44"/>
       <c r="H647" s="23"/>
-      <c r="K647" s="42"/>
-      <c r="L647" s="42"/>
+      <c r="K647" s="43"/>
+      <c r="L647" s="43"/>
     </row>
     <row r="648">
-      <c r="G648" s="43"/>
+      <c r="G648" s="44"/>
       <c r="H648" s="23"/>
-      <c r="K648" s="42"/>
-      <c r="L648" s="42"/>
+      <c r="K648" s="43"/>
+      <c r="L648" s="43"/>
     </row>
     <row r="649">
-      <c r="G649" s="43"/>
+      <c r="G649" s="44"/>
       <c r="H649" s="23"/>
-      <c r="K649" s="42"/>
-      <c r="L649" s="42"/>
+      <c r="K649" s="43"/>
+      <c r="L649" s="43"/>
     </row>
     <row r="650">
-      <c r="G650" s="43"/>
+      <c r="G650" s="44"/>
       <c r="H650" s="23"/>
-      <c r="K650" s="42"/>
-      <c r="L650" s="42"/>
+      <c r="K650" s="43"/>
+      <c r="L650" s="43"/>
     </row>
     <row r="651">
-      <c r="G651" s="43"/>
+      <c r="G651" s="44"/>
       <c r="H651" s="23"/>
-      <c r="K651" s="42"/>
-      <c r="L651" s="42"/>
+      <c r="K651" s="43"/>
+      <c r="L651" s="43"/>
     </row>
     <row r="652">
-      <c r="G652" s="43"/>
+      <c r="G652" s="44"/>
       <c r="H652" s="23"/>
-      <c r="K652" s="42"/>
-      <c r="L652" s="42"/>
+      <c r="K652" s="43"/>
+      <c r="L652" s="43"/>
     </row>
     <row r="653">
-      <c r="G653" s="43"/>
+      <c r="G653" s="44"/>
       <c r="H653" s="23"/>
-      <c r="K653" s="42"/>
-      <c r="L653" s="42"/>
+      <c r="K653" s="43"/>
+      <c r="L653" s="43"/>
     </row>
     <row r="654">
-      <c r="G654" s="43"/>
+      <c r="G654" s="44"/>
       <c r="H654" s="23"/>
-      <c r="K654" s="42"/>
-      <c r="L654" s="42"/>
+      <c r="K654" s="43"/>
+      <c r="L654" s="43"/>
     </row>
     <row r="655">
-      <c r="G655" s="43"/>
+      <c r="G655" s="44"/>
       <c r="H655" s="23"/>
-      <c r="K655" s="42"/>
-      <c r="L655" s="42"/>
+      <c r="K655" s="43"/>
+      <c r="L655" s="43"/>
     </row>
     <row r="656">
-      <c r="G656" s="43"/>
+      <c r="G656" s="44"/>
       <c r="H656" s="23"/>
-      <c r="K656" s="42"/>
-      <c r="L656" s="42"/>
+      <c r="K656" s="43"/>
+      <c r="L656" s="43"/>
     </row>
     <row r="657">
-      <c r="G657" s="43"/>
+      <c r="G657" s="44"/>
       <c r="H657" s="23"/>
-      <c r="K657" s="42"/>
-      <c r="L657" s="42"/>
+      <c r="K657" s="43"/>
+      <c r="L657" s="43"/>
     </row>
     <row r="658">
-      <c r="G658" s="43"/>
+      <c r="G658" s="44"/>
       <c r="H658" s="23"/>
-      <c r="K658" s="42"/>
-      <c r="L658" s="42"/>
+      <c r="K658" s="43"/>
+      <c r="L658" s="43"/>
     </row>
     <row r="659">
-      <c r="G659" s="43"/>
+      <c r="G659" s="44"/>
       <c r="H659" s="23"/>
-      <c r="K659" s="42"/>
-      <c r="L659" s="42"/>
+      <c r="K659" s="43"/>
+      <c r="L659" s="43"/>
     </row>
     <row r="660">
-      <c r="G660" s="43"/>
+      <c r="G660" s="44"/>
       <c r="H660" s="23"/>
-      <c r="K660" s="42"/>
-      <c r="L660" s="42"/>
+      <c r="K660" s="43"/>
+      <c r="L660" s="43"/>
     </row>
     <row r="661">
-      <c r="G661" s="43"/>
+      <c r="G661" s="44"/>
       <c r="H661" s="23"/>
-      <c r="K661" s="42"/>
-      <c r="L661" s="42"/>
+      <c r="K661" s="43"/>
+      <c r="L661" s="43"/>
     </row>
     <row r="662">
-      <c r="G662" s="43"/>
+      <c r="G662" s="44"/>
       <c r="H662" s="23"/>
-      <c r="K662" s="42"/>
-      <c r="L662" s="42"/>
+      <c r="K662" s="43"/>
+      <c r="L662" s="43"/>
     </row>
     <row r="663">
-      <c r="G663" s="43"/>
+      <c r="G663" s="44"/>
       <c r="H663" s="23"/>
-      <c r="K663" s="42"/>
-      <c r="L663" s="42"/>
+      <c r="K663" s="43"/>
+      <c r="L663" s="43"/>
     </row>
     <row r="664">
-      <c r="G664" s="43"/>
+      <c r="G664" s="44"/>
       <c r="H664" s="23"/>
-      <c r="K664" s="42"/>
-      <c r="L664" s="42"/>
+      <c r="K664" s="43"/>
+      <c r="L664" s="43"/>
     </row>
     <row r="665">
-      <c r="G665" s="43"/>
+      <c r="G665" s="44"/>
       <c r="H665" s="23"/>
-      <c r="K665" s="42"/>
-      <c r="L665" s="42"/>
+      <c r="K665" s="43"/>
+      <c r="L665" s="43"/>
     </row>
     <row r="666">
-      <c r="G666" s="43"/>
+      <c r="G666" s="44"/>
       <c r="H666" s="23"/>
-      <c r="K666" s="42"/>
-      <c r="L666" s="42"/>
+      <c r="K666" s="43"/>
+      <c r="L666" s="43"/>
     </row>
     <row r="667">
-      <c r="G667" s="43"/>
+      <c r="G667" s="44"/>
       <c r="H667" s="23"/>
-      <c r="K667" s="42"/>
-      <c r="L667" s="42"/>
+      <c r="K667" s="43"/>
+      <c r="L667" s="43"/>
     </row>
     <row r="668">
-      <c r="G668" s="43"/>
+      <c r="G668" s="44"/>
       <c r="H668" s="23"/>
-      <c r="K668" s="42"/>
-      <c r="L668" s="42"/>
+      <c r="K668" s="43"/>
+      <c r="L668" s="43"/>
     </row>
     <row r="669">
-      <c r="G669" s="43"/>
+      <c r="G669" s="44"/>
       <c r="H669" s="23"/>
-      <c r="K669" s="42"/>
-      <c r="L669" s="42"/>
+      <c r="K669" s="43"/>
+      <c r="L669" s="43"/>
     </row>
     <row r="670">
-      <c r="G670" s="43"/>
+      <c r="G670" s="44"/>
       <c r="H670" s="23"/>
-      <c r="K670" s="42"/>
-      <c r="L670" s="42"/>
+      <c r="K670" s="43"/>
+      <c r="L670" s="43"/>
     </row>
     <row r="671">
-      <c r="G671" s="43"/>
+      <c r="G671" s="44"/>
       <c r="H671" s="23"/>
-      <c r="K671" s="42"/>
-      <c r="L671" s="42"/>
+      <c r="K671" s="43"/>
+      <c r="L671" s="43"/>
     </row>
     <row r="672">
-      <c r="G672" s="43"/>
+      <c r="G672" s="44"/>
       <c r="H672" s="23"/>
-      <c r="K672" s="42"/>
-      <c r="L672" s="42"/>
+      <c r="K672" s="43"/>
+      <c r="L672" s="43"/>
     </row>
     <row r="673">
-      <c r="G673" s="43"/>
+      <c r="G673" s="44"/>
       <c r="H673" s="23"/>
-      <c r="K673" s="42"/>
-      <c r="L673" s="42"/>
+      <c r="K673" s="43"/>
+      <c r="L673" s="43"/>
     </row>
     <row r="674">
-      <c r="G674" s="43"/>
+      <c r="G674" s="44"/>
       <c r="H674" s="23"/>
-      <c r="K674" s="42"/>
-      <c r="L674" s="42"/>
+      <c r="K674" s="43"/>
+      <c r="L674" s="43"/>
     </row>
     <row r="675">
-      <c r="G675" s="43"/>
+      <c r="G675" s="44"/>
       <c r="H675" s="23"/>
-      <c r="K675" s="42"/>
-      <c r="L675" s="42"/>
+      <c r="K675" s="43"/>
+      <c r="L675" s="43"/>
     </row>
     <row r="676">
-      <c r="G676" s="43"/>
+      <c r="G676" s="44"/>
       <c r="H676" s="23"/>
-      <c r="K676" s="42"/>
-      <c r="L676" s="42"/>
+      <c r="K676" s="43"/>
+      <c r="L676" s="43"/>
     </row>
     <row r="677">
-      <c r="G677" s="43"/>
+      <c r="G677" s="44"/>
       <c r="H677" s="23"/>
-      <c r="K677" s="42"/>
-      <c r="L677" s="42"/>
+      <c r="K677" s="43"/>
+      <c r="L677" s="43"/>
     </row>
     <row r="678">
-      <c r="G678" s="43"/>
+      <c r="G678" s="44"/>
       <c r="H678" s="23"/>
-      <c r="K678" s="42"/>
-      <c r="L678" s="42"/>
+      <c r="K678" s="43"/>
+      <c r="L678" s="43"/>
     </row>
     <row r="679">
-      <c r="G679" s="43"/>
+      <c r="G679" s="44"/>
       <c r="H679" s="23"/>
-      <c r="K679" s="42"/>
-      <c r="L679" s="42"/>
+      <c r="K679" s="43"/>
+      <c r="L679" s="43"/>
     </row>
     <row r="680">
-      <c r="G680" s="43"/>
+      <c r="G680" s="44"/>
       <c r="H680" s="23"/>
-      <c r="K680" s="42"/>
-      <c r="L680" s="42"/>
+      <c r="K680" s="43"/>
+      <c r="L680" s="43"/>
     </row>
     <row r="681">
-      <c r="G681" s="43"/>
+      <c r="G681" s="44"/>
       <c r="H681" s="23"/>
-      <c r="K681" s="42"/>
-      <c r="L681" s="42"/>
+      <c r="K681" s="43"/>
+      <c r="L681" s="43"/>
     </row>
     <row r="682">
-      <c r="G682" s="43"/>
+      <c r="G682" s="44"/>
       <c r="H682" s="23"/>
-      <c r="K682" s="42"/>
-      <c r="L682" s="42"/>
+      <c r="K682" s="43"/>
+      <c r="L682" s="43"/>
     </row>
     <row r="683">
-      <c r="G683" s="43"/>
+      <c r="G683" s="44"/>
       <c r="H683" s="23"/>
-      <c r="K683" s="42"/>
-      <c r="L683" s="42"/>
+      <c r="K683" s="43"/>
+      <c r="L683" s="43"/>
     </row>
     <row r="684">
-      <c r="G684" s="43"/>
+      <c r="G684" s="44"/>
       <c r="H684" s="23"/>
-      <c r="K684" s="42"/>
-      <c r="L684" s="42"/>
+      <c r="K684" s="43"/>
+      <c r="L684" s="43"/>
     </row>
     <row r="685">
-      <c r="G685" s="43"/>
+      <c r="G685" s="44"/>
       <c r="H685" s="23"/>
-      <c r="K685" s="42"/>
-      <c r="L685" s="42"/>
+      <c r="K685" s="43"/>
+      <c r="L685" s="43"/>
     </row>
     <row r="686">
-      <c r="G686" s="43"/>
+      <c r="G686" s="44"/>
       <c r="H686" s="23"/>
-      <c r="K686" s="42"/>
-      <c r="L686" s="42"/>
+      <c r="K686" s="43"/>
+      <c r="L686" s="43"/>
     </row>
     <row r="687">
-      <c r="G687" s="43"/>
+      <c r="G687" s="44"/>
       <c r="H687" s="23"/>
-      <c r="K687" s="42"/>
-      <c r="L687" s="42"/>
+      <c r="K687" s="43"/>
+      <c r="L687" s="43"/>
     </row>
     <row r="688">
-      <c r="G688" s="43"/>
+      <c r="G688" s="44"/>
       <c r="H688" s="23"/>
-      <c r="K688" s="42"/>
-      <c r="L688" s="42"/>
+      <c r="K688" s="43"/>
+      <c r="L688" s="43"/>
     </row>
     <row r="689">
-      <c r="G689" s="43"/>
+      <c r="G689" s="44"/>
       <c r="H689" s="23"/>
-      <c r="K689" s="42"/>
-      <c r="L689" s="42"/>
+      <c r="K689" s="43"/>
+      <c r="L689" s="43"/>
     </row>
     <row r="690">
-      <c r="G690" s="43"/>
+      <c r="G690" s="44"/>
       <c r="H690" s="23"/>
-      <c r="K690" s="42"/>
-      <c r="L690" s="42"/>
+      <c r="K690" s="43"/>
+      <c r="L690" s="43"/>
     </row>
     <row r="691">
-      <c r="G691" s="43"/>
+      <c r="G691" s="44"/>
       <c r="H691" s="23"/>
-      <c r="K691" s="42"/>
-      <c r="L691" s="42"/>
+      <c r="K691" s="43"/>
+      <c r="L691" s="43"/>
     </row>
     <row r="692">
-      <c r="G692" s="43"/>
+      <c r="G692" s="44"/>
       <c r="H692" s="23"/>
-      <c r="K692" s="42"/>
-      <c r="L692" s="42"/>
+      <c r="K692" s="43"/>
+      <c r="L692" s="43"/>
     </row>
     <row r="693">
-      <c r="G693" s="43"/>
+      <c r="G693" s="44"/>
       <c r="H693" s="23"/>
-      <c r="K693" s="42"/>
-      <c r="L693" s="42"/>
+      <c r="K693" s="43"/>
+      <c r="L693" s="43"/>
     </row>
     <row r="694">
-      <c r="G694" s="43"/>
+      <c r="G694" s="44"/>
       <c r="H694" s="23"/>
-      <c r="K694" s="42"/>
-      <c r="L694" s="42"/>
+      <c r="K694" s="43"/>
+      <c r="L694" s="43"/>
     </row>
     <row r="695">
-      <c r="G695" s="43"/>
+      <c r="G695" s="44"/>
       <c r="H695" s="23"/>
-      <c r="K695" s="42"/>
-      <c r="L695" s="42"/>
+      <c r="K695" s="43"/>
+      <c r="L695" s="43"/>
     </row>
     <row r="696">
-      <c r="G696" s="43"/>
+      <c r="G696" s="44"/>
       <c r="H696" s="23"/>
-      <c r="K696" s="42"/>
-      <c r="L696" s="42"/>
+      <c r="K696" s="43"/>
+      <c r="L696" s="43"/>
     </row>
     <row r="697">
-      <c r="G697" s="43"/>
+      <c r="G697" s="44"/>
       <c r="H697" s="23"/>
-      <c r="K697" s="42"/>
-      <c r="L697" s="42"/>
+      <c r="K697" s="43"/>
+      <c r="L697" s="43"/>
     </row>
     <row r="698">
-      <c r="G698" s="43"/>
+      <c r="G698" s="44"/>
       <c r="H698" s="23"/>
-      <c r="K698" s="42"/>
-      <c r="L698" s="42"/>
+      <c r="K698" s="43"/>
+      <c r="L698" s="43"/>
     </row>
     <row r="699">
-      <c r="G699" s="43"/>
+      <c r="G699" s="44"/>
       <c r="H699" s="23"/>
-      <c r="K699" s="42"/>
-      <c r="L699" s="42"/>
+      <c r="K699" s="43"/>
+      <c r="L699" s="43"/>
     </row>
     <row r="700">
-      <c r="G700" s="43"/>
+      <c r="G700" s="44"/>
       <c r="H700" s="23"/>
-      <c r="K700" s="42"/>
-      <c r="L700" s="42"/>
+      <c r="K700" s="43"/>
+      <c r="L700" s="43"/>
     </row>
     <row r="701">
-      <c r="G701" s="43"/>
+      <c r="G701" s="44"/>
       <c r="H701" s="23"/>
-      <c r="K701" s="42"/>
-      <c r="L701" s="42"/>
+      <c r="K701" s="43"/>
+      <c r="L701" s="43"/>
     </row>
     <row r="702">
-      <c r="G702" s="43"/>
+      <c r="G702" s="44"/>
       <c r="H702" s="23"/>
-      <c r="K702" s="42"/>
-      <c r="L702" s="42"/>
+      <c r="K702" s="43"/>
+      <c r="L702" s="43"/>
     </row>
     <row r="703">
-      <c r="G703" s="43"/>
+      <c r="G703" s="44"/>
       <c r="H703" s="23"/>
-      <c r="K703" s="42"/>
-      <c r="L703" s="42"/>
+      <c r="K703" s="43"/>
+      <c r="L703" s="43"/>
     </row>
     <row r="704">
-      <c r="G704" s="43"/>
+      <c r="G704" s="44"/>
       <c r="H704" s="23"/>
-      <c r="K704" s="42"/>
-      <c r="L704" s="42"/>
+      <c r="K704" s="43"/>
+      <c r="L704" s="43"/>
     </row>
     <row r="705">
-      <c r="G705" s="43"/>
+      <c r="G705" s="44"/>
       <c r="H705" s="23"/>
-      <c r="K705" s="42"/>
-      <c r="L705" s="42"/>
+      <c r="K705" s="43"/>
+      <c r="L705" s="43"/>
     </row>
     <row r="706">
-      <c r="G706" s="43"/>
+      <c r="G706" s="44"/>
       <c r="H706" s="23"/>
-      <c r="K706" s="42"/>
-      <c r="L706" s="42"/>
+      <c r="K706" s="43"/>
+      <c r="L706" s="43"/>
     </row>
     <row r="707">
-      <c r="G707" s="43"/>
+      <c r="G707" s="44"/>
       <c r="H707" s="23"/>
-      <c r="K707" s="42"/>
-      <c r="L707" s="42"/>
+      <c r="K707" s="43"/>
+      <c r="L707" s="43"/>
     </row>
     <row r="708">
-      <c r="G708" s="43"/>
+      <c r="G708" s="44"/>
       <c r="H708" s="23"/>
-      <c r="K708" s="42"/>
-      <c r="L708" s="42"/>
+      <c r="K708" s="43"/>
+      <c r="L708" s="43"/>
     </row>
     <row r="709">
-      <c r="G709" s="43"/>
+      <c r="G709" s="44"/>
       <c r="H709" s="23"/>
-      <c r="K709" s="42"/>
-      <c r="L709" s="42"/>
+      <c r="K709" s="43"/>
+      <c r="L709" s="43"/>
     </row>
     <row r="710">
-      <c r="G710" s="43"/>
+      <c r="G710" s="44"/>
       <c r="H710" s="23"/>
-      <c r="K710" s="42"/>
-      <c r="L710" s="42"/>
+      <c r="K710" s="43"/>
+      <c r="L710" s="43"/>
     </row>
     <row r="711">
-      <c r="G711" s="43"/>
+      <c r="G711" s="44"/>
       <c r="H711" s="23"/>
-      <c r="K711" s="42"/>
-      <c r="L711" s="42"/>
+      <c r="K711" s="43"/>
+      <c r="L711" s="43"/>
     </row>
     <row r="712">
-      <c r="G712" s="43"/>
+      <c r="G712" s="44"/>
       <c r="H712" s="23"/>
-      <c r="K712" s="42"/>
-      <c r="L712" s="42"/>
+      <c r="K712" s="43"/>
+      <c r="L712" s="43"/>
     </row>
     <row r="713">
-      <c r="G713" s="43"/>
+      <c r="G713" s="44"/>
       <c r="H713" s="23"/>
-      <c r="K713" s="42"/>
-      <c r="L713" s="42"/>
+      <c r="K713" s="43"/>
+      <c r="L713" s="43"/>
     </row>
     <row r="714">
-      <c r="G714" s="43"/>
+      <c r="G714" s="44"/>
       <c r="H714" s="23"/>
-      <c r="K714" s="42"/>
-      <c r="L714" s="42"/>
+      <c r="K714" s="43"/>
+      <c r="L714" s="43"/>
     </row>
     <row r="715">
-      <c r="G715" s="43"/>
+      <c r="G715" s="44"/>
       <c r="H715" s="23"/>
-      <c r="K715" s="42"/>
-      <c r="L715" s="42"/>
+      <c r="K715" s="43"/>
+      <c r="L715" s="43"/>
     </row>
     <row r="716">
-      <c r="G716" s="43"/>
+      <c r="G716" s="44"/>
       <c r="H716" s="23"/>
-      <c r="K716" s="42"/>
-      <c r="L716" s="42"/>
+      <c r="K716" s="43"/>
+      <c r="L716" s="43"/>
     </row>
     <row r="717">
-      <c r="G717" s="43"/>
+      <c r="G717" s="44"/>
       <c r="H717" s="23"/>
-      <c r="K717" s="42"/>
-      <c r="L717" s="42"/>
+      <c r="K717" s="43"/>
+      <c r="L717" s="43"/>
     </row>
     <row r="718">
-      <c r="G718" s="43"/>
+      <c r="G718" s="44"/>
       <c r="H718" s="23"/>
-      <c r="K718" s="42"/>
-      <c r="L718" s="42"/>
+      <c r="K718" s="43"/>
+      <c r="L718" s="43"/>
     </row>
     <row r="719">
-      <c r="G719" s="43"/>
+      <c r="G719" s="44"/>
       <c r="H719" s="23"/>
-      <c r="K719" s="42"/>
-      <c r="L719" s="42"/>
+      <c r="K719" s="43"/>
+      <c r="L719" s="43"/>
     </row>
     <row r="720">
-      <c r="G720" s="43"/>
+      <c r="G720" s="44"/>
       <c r="H720" s="23"/>
-      <c r="K720" s="42"/>
-      <c r="L720" s="42"/>
+      <c r="K720" s="43"/>
+      <c r="L720" s="43"/>
     </row>
     <row r="721">
-      <c r="G721" s="43"/>
+      <c r="G721" s="44"/>
       <c r="H721" s="23"/>
-      <c r="K721" s="42"/>
-      <c r="L721" s="42"/>
+      <c r="K721" s="43"/>
+      <c r="L721" s="43"/>
     </row>
     <row r="722">
-      <c r="G722" s="43"/>
+      <c r="G722" s="44"/>
       <c r="H722" s="23"/>
-      <c r="K722" s="42"/>
-      <c r="L722" s="42"/>
+      <c r="K722" s="43"/>
+      <c r="L722" s="43"/>
     </row>
     <row r="723">
-      <c r="G723" s="43"/>
+      <c r="G723" s="44"/>
       <c r="H723" s="23"/>
-      <c r="K723" s="42"/>
-      <c r="L723" s="42"/>
+      <c r="K723" s="43"/>
+      <c r="L723" s="43"/>
     </row>
     <row r="724">
-      <c r="G724" s="43"/>
+      <c r="G724" s="44"/>
       <c r="H724" s="23"/>
-      <c r="K724" s="42"/>
-      <c r="L724" s="42"/>
+      <c r="K724" s="43"/>
+      <c r="L724" s="43"/>
     </row>
     <row r="725">
-      <c r="G725" s="43"/>
+      <c r="G725" s="44"/>
       <c r="H725" s="23"/>
-      <c r="K725" s="42"/>
-      <c r="L725" s="42"/>
+      <c r="K725" s="43"/>
+      <c r="L725" s="43"/>
     </row>
     <row r="726">
-      <c r="G726" s="43"/>
+      <c r="G726" s="44"/>
       <c r="H726" s="23"/>
-      <c r="K726" s="42"/>
-      <c r="L726" s="42"/>
+      <c r="K726" s="43"/>
+      <c r="L726" s="43"/>
     </row>
     <row r="727">
-      <c r="G727" s="43"/>
+      <c r="G727" s="44"/>
       <c r="H727" s="23"/>
-      <c r="K727" s="42"/>
-      <c r="L727" s="42"/>
+      <c r="K727" s="43"/>
+      <c r="L727" s="43"/>
     </row>
     <row r="728">
-      <c r="G728" s="43"/>
+      <c r="G728" s="44"/>
       <c r="H728" s="23"/>
-      <c r="K728" s="42"/>
-      <c r="L728" s="42"/>
+      <c r="K728" s="43"/>
+      <c r="L728" s="43"/>
     </row>
     <row r="729">
-      <c r="G729" s="43"/>
+      <c r="G729" s="44"/>
       <c r="H729" s="23"/>
-      <c r="K729" s="42"/>
-      <c r="L729" s="42"/>
+      <c r="K729" s="43"/>
+      <c r="L729" s="43"/>
     </row>
     <row r="730">
-      <c r="G730" s="43"/>
+      <c r="G730" s="44"/>
       <c r="H730" s="23"/>
-      <c r="K730" s="42"/>
-      <c r="L730" s="42"/>
+      <c r="K730" s="43"/>
+      <c r="L730" s="43"/>
     </row>
     <row r="731">
-      <c r="G731" s="43"/>
+      <c r="G731" s="44"/>
       <c r="H731" s="23"/>
-      <c r="K731" s="42"/>
-      <c r="L731" s="42"/>
+      <c r="K731" s="43"/>
+      <c r="L731" s="43"/>
     </row>
     <row r="732">
-      <c r="G732" s="43"/>
+      <c r="G732" s="44"/>
       <c r="H732" s="23"/>
-      <c r="K732" s="42"/>
-      <c r="L732" s="42"/>
+      <c r="K732" s="43"/>
+      <c r="L732" s="43"/>
     </row>
     <row r="733">
-      <c r="G733" s="43"/>
+      <c r="G733" s="44"/>
       <c r="H733" s="23"/>
-      <c r="K733" s="42"/>
-      <c r="L733" s="42"/>
+      <c r="K733" s="43"/>
+      <c r="L733" s="43"/>
     </row>
     <row r="734">
-      <c r="G734" s="43"/>
+      <c r="G734" s="44"/>
       <c r="H734" s="23"/>
-      <c r="K734" s="42"/>
-      <c r="L734" s="42"/>
+      <c r="K734" s="43"/>
+      <c r="L734" s="43"/>
     </row>
     <row r="735">
-      <c r="G735" s="43"/>
+      <c r="G735" s="44"/>
       <c r="H735" s="23"/>
-      <c r="K735" s="42"/>
-      <c r="L735" s="42"/>
+      <c r="K735" s="43"/>
+      <c r="L735" s="43"/>
     </row>
     <row r="736">
-      <c r="G736" s="43"/>
+      <c r="G736" s="44"/>
       <c r="H736" s="23"/>
-      <c r="K736" s="42"/>
-      <c r="L736" s="42"/>
+      <c r="K736" s="43"/>
+      <c r="L736" s="43"/>
     </row>
     <row r="737">
-      <c r="G737" s="43"/>
+      <c r="G737" s="44"/>
       <c r="H737" s="23"/>
-      <c r="K737" s="42"/>
-      <c r="L737" s="42"/>
+      <c r="K737" s="43"/>
+      <c r="L737" s="43"/>
     </row>
     <row r="738">
-      <c r="G738" s="43"/>
+      <c r="G738" s="44"/>
       <c r="H738" s="23"/>
-      <c r="K738" s="42"/>
-      <c r="L738" s="42"/>
+      <c r="K738" s="43"/>
+      <c r="L738" s="43"/>
     </row>
     <row r="739">
-      <c r="G739" s="43"/>
+      <c r="G739" s="44"/>
       <c r="H739" s="23"/>
-      <c r="K739" s="42"/>
-      <c r="L739" s="42"/>
+      <c r="K739" s="43"/>
+      <c r="L739" s="43"/>
     </row>
     <row r="740">
-      <c r="G740" s="43"/>
+      <c r="G740" s="44"/>
       <c r="H740" s="23"/>
-      <c r="K740" s="42"/>
-      <c r="L740" s="42"/>
+      <c r="K740" s="43"/>
+      <c r="L740" s="43"/>
     </row>
     <row r="741">
-      <c r="G741" s="43"/>
+      <c r="G741" s="44"/>
       <c r="H741" s="23"/>
-      <c r="K741" s="42"/>
-      <c r="L741" s="42"/>
+      <c r="K741" s="43"/>
+      <c r="L741" s="43"/>
     </row>
     <row r="742">
-      <c r="G742" s="43"/>
+      <c r="G742" s="44"/>
       <c r="H742" s="23"/>
-      <c r="K742" s="42"/>
-      <c r="L742" s="42"/>
+      <c r="K742" s="43"/>
+      <c r="L742" s="43"/>
     </row>
     <row r="743">
-      <c r="G743" s="43"/>
+      <c r="G743" s="44"/>
       <c r="H743" s="23"/>
-      <c r="K743" s="42"/>
-      <c r="L743" s="42"/>
+      <c r="K743" s="43"/>
+      <c r="L743" s="43"/>
     </row>
     <row r="744">
-      <c r="G744" s="43"/>
+      <c r="G744" s="44"/>
       <c r="H744" s="23"/>
-      <c r="K744" s="42"/>
-      <c r="L744" s="42"/>
+      <c r="K744" s="43"/>
+      <c r="L744" s="43"/>
     </row>
     <row r="745">
-      <c r="G745" s="43"/>
+      <c r="G745" s="44"/>
       <c r="H745" s="23"/>
-      <c r="K745" s="42"/>
-      <c r="L745" s="42"/>
+      <c r="K745" s="43"/>
+      <c r="L745" s="43"/>
     </row>
     <row r="746">
-      <c r="G746" s="43"/>
+      <c r="G746" s="44"/>
       <c r="H746" s="23"/>
-      <c r="K746" s="42"/>
-      <c r="L746" s="42"/>
+      <c r="K746" s="43"/>
+      <c r="L746" s="43"/>
     </row>
     <row r="747">
-      <c r="G747" s="43"/>
+      <c r="G747" s="44"/>
       <c r="H747" s="23"/>
-      <c r="K747" s="42"/>
-      <c r="L747" s="42"/>
+      <c r="K747" s="43"/>
+      <c r="L747" s="43"/>
     </row>
     <row r="748">
-      <c r="G748" s="43"/>
+      <c r="G748" s="44"/>
       <c r="H748" s="23"/>
-      <c r="K748" s="42"/>
-      <c r="L748" s="42"/>
+      <c r="K748" s="43"/>
+      <c r="L748" s="43"/>
     </row>
     <row r="749">
-      <c r="G749" s="43"/>
+      <c r="G749" s="44"/>
       <c r="H749" s="23"/>
-      <c r="K749" s="42"/>
-      <c r="L749" s="42"/>
+      <c r="K749" s="43"/>
+      <c r="L749" s="43"/>
     </row>
     <row r="750">
-      <c r="G750" s="43"/>
+      <c r="G750" s="44"/>
       <c r="H750" s="23"/>
-      <c r="K750" s="42"/>
-      <c r="L750" s="42"/>
+      <c r="K750" s="43"/>
+      <c r="L750" s="43"/>
     </row>
     <row r="751">
-      <c r="G751" s="43"/>
+      <c r="G751" s="44"/>
       <c r="H751" s="23"/>
-      <c r="K751" s="42"/>
-      <c r="L751" s="42"/>
+      <c r="K751" s="43"/>
+      <c r="L751" s="43"/>
     </row>
     <row r="752">
-      <c r="G752" s="43"/>
+      <c r="G752" s="44"/>
       <c r="H752" s="23"/>
-      <c r="K752" s="42"/>
-      <c r="L752" s="42"/>
+      <c r="K752" s="43"/>
+      <c r="L752" s="43"/>
     </row>
     <row r="753">
-      <c r="G753" s="43"/>
+      <c r="G753" s="44"/>
       <c r="H753" s="23"/>
-      <c r="K753" s="42"/>
-      <c r="L753" s="42"/>
+      <c r="K753" s="43"/>
+      <c r="L753" s="43"/>
     </row>
     <row r="754">
-      <c r="G754" s="43"/>
+      <c r="G754" s="44"/>
       <c r="H754" s="23"/>
-      <c r="K754" s="42"/>
-      <c r="L754" s="42"/>
+      <c r="K754" s="43"/>
+      <c r="L754" s="43"/>
     </row>
     <row r="755">
-      <c r="G755" s="43"/>
+      <c r="G755" s="44"/>
       <c r="H755" s="23"/>
-      <c r="K755" s="42"/>
-      <c r="L755" s="42"/>
+      <c r="K755" s="43"/>
+      <c r="L755" s="43"/>
     </row>
     <row r="756">
-      <c r="G756" s="43"/>
+      <c r="G756" s="44"/>
       <c r="H756" s="23"/>
-      <c r="K756" s="42"/>
-      <c r="L756" s="42"/>
+      <c r="K756" s="43"/>
+      <c r="L756" s="43"/>
     </row>
     <row r="757">
-      <c r="G757" s="43"/>
+      <c r="G757" s="44"/>
       <c r="H757" s="23"/>
-      <c r="K757" s="42"/>
-      <c r="L757" s="42"/>
+      <c r="K757" s="43"/>
+      <c r="L757" s="43"/>
     </row>
     <row r="758">
-      <c r="G758" s="43"/>
+      <c r="G758" s="44"/>
       <c r="H758" s="23"/>
-      <c r="K758" s="42"/>
-      <c r="L758" s="42"/>
+      <c r="K758" s="43"/>
+      <c r="L758" s="43"/>
     </row>
     <row r="759">
-      <c r="G759" s="43"/>
+      <c r="G759" s="44"/>
       <c r="H759" s="23"/>
-      <c r="K759" s="42"/>
-      <c r="L759" s="42"/>
+      <c r="K759" s="43"/>
+      <c r="L759" s="43"/>
     </row>
     <row r="760">
-      <c r="G760" s="43"/>
+      <c r="G760" s="44"/>
       <c r="H760" s="23"/>
-      <c r="K760" s="42"/>
-      <c r="L760" s="42"/>
+      <c r="K760" s="43"/>
+      <c r="L760" s="43"/>
     </row>
     <row r="761">
-      <c r="G761" s="43"/>
+      <c r="G761" s="44"/>
       <c r="H761" s="23"/>
-      <c r="K761" s="42"/>
-      <c r="L761" s="42"/>
+      <c r="K761" s="43"/>
+      <c r="L761" s="43"/>
     </row>
     <row r="762">
-      <c r="G762" s="43"/>
+      <c r="G762" s="44"/>
       <c r="H762" s="23"/>
-      <c r="K762" s="42"/>
-      <c r="L762" s="42"/>
+      <c r="K762" s="43"/>
+      <c r="L762" s="43"/>
     </row>
     <row r="763">
-      <c r="G763" s="43"/>
+      <c r="G763" s="44"/>
       <c r="H763" s="23"/>
-      <c r="K763" s="42"/>
-      <c r="L763" s="42"/>
+      <c r="K763" s="43"/>
+      <c r="L763" s="43"/>
     </row>
     <row r="764">
-      <c r="G764" s="43"/>
+      <c r="G764" s="44"/>
       <c r="H764" s="23"/>
-      <c r="K764" s="42"/>
-      <c r="L764" s="42"/>
+      <c r="K764" s="43"/>
+      <c r="L764" s="43"/>
     </row>
     <row r="765">
-      <c r="G765" s="43"/>
+      <c r="G765" s="44"/>
       <c r="H765" s="23"/>
-      <c r="K765" s="42"/>
-      <c r="L765" s="42"/>
+      <c r="K765" s="43"/>
+      <c r="L765" s="43"/>
     </row>
     <row r="766">
-      <c r="G766" s="43"/>
+      <c r="G766" s="44"/>
       <c r="H766" s="23"/>
-      <c r="K766" s="42"/>
-      <c r="L766" s="42"/>
+      <c r="K766" s="43"/>
+      <c r="L766" s="43"/>
     </row>
     <row r="767">
-      <c r="G767" s="43"/>
+      <c r="G767" s="44"/>
       <c r="H767" s="23"/>
-      <c r="K767" s="42"/>
-      <c r="L767" s="42"/>
+      <c r="K767" s="43"/>
+      <c r="L767" s="43"/>
     </row>
     <row r="768">
-      <c r="G768" s="43"/>
+      <c r="G768" s="44"/>
       <c r="H768" s="23"/>
-      <c r="K768" s="42"/>
-      <c r="L768" s="42"/>
+      <c r="K768" s="43"/>
+      <c r="L768" s="43"/>
     </row>
     <row r="769">
-      <c r="G769" s="43"/>
+      <c r="G769" s="44"/>
       <c r="H769" s="23"/>
-      <c r="K769" s="42"/>
-      <c r="L769" s="42"/>
+      <c r="K769" s="43"/>
+      <c r="L769" s="43"/>
     </row>
     <row r="770">
-      <c r="G770" s="43"/>
+      <c r="G770" s="44"/>
       <c r="H770" s="23"/>
-      <c r="K770" s="42"/>
-      <c r="L770" s="42"/>
+      <c r="K770" s="43"/>
+      <c r="L770" s="43"/>
     </row>
     <row r="771">
-      <c r="G771" s="43"/>
+      <c r="G771" s="44"/>
       <c r="H771" s="23"/>
-      <c r="K771" s="42"/>
-      <c r="L771" s="42"/>
+      <c r="K771" s="43"/>
+      <c r="L771" s="43"/>
     </row>
     <row r="772">
-      <c r="G772" s="43"/>
+      <c r="G772" s="44"/>
       <c r="H772" s="23"/>
-      <c r="K772" s="42"/>
-      <c r="L772" s="42"/>
+      <c r="K772" s="43"/>
+      <c r="L772" s="43"/>
     </row>
     <row r="773">
-      <c r="G773" s="43"/>
+      <c r="G773" s="44"/>
       <c r="H773" s="23"/>
-      <c r="K773" s="42"/>
-      <c r="L773" s="42"/>
+      <c r="K773" s="43"/>
+      <c r="L773" s="43"/>
     </row>
     <row r="774">
-      <c r="G774" s="43"/>
+      <c r="G774" s="44"/>
       <c r="H774" s="23"/>
-      <c r="K774" s="42"/>
-      <c r="L774" s="42"/>
+      <c r="K774" s="43"/>
+      <c r="L774" s="43"/>
     </row>
     <row r="775">
-      <c r="G775" s="43"/>
+      <c r="G775" s="44"/>
       <c r="H775" s="23"/>
-      <c r="K775" s="42"/>
-      <c r="L775" s="42"/>
+      <c r="K775" s="43"/>
+      <c r="L775" s="43"/>
     </row>
     <row r="776">
-      <c r="G776" s="43"/>
+      <c r="G776" s="44"/>
       <c r="H776" s="23"/>
-      <c r="K776" s="42"/>
-      <c r="L776" s="42"/>
+      <c r="K776" s="43"/>
+      <c r="L776" s="43"/>
     </row>
     <row r="777">
-      <c r="G777" s="43"/>
+      <c r="G777" s="44"/>
       <c r="H777" s="23"/>
-      <c r="K777" s="42"/>
-      <c r="L777" s="42"/>
+      <c r="K777" s="43"/>
+      <c r="L777" s="43"/>
     </row>
     <row r="778">
-      <c r="G778" s="43"/>
+      <c r="G778" s="44"/>
       <c r="H778" s="23"/>
-      <c r="K778" s="42"/>
-      <c r="L778" s="42"/>
+      <c r="K778" s="43"/>
+      <c r="L778" s="43"/>
     </row>
     <row r="779">
-      <c r="G779" s="43"/>
+      <c r="G779" s="44"/>
       <c r="H779" s="23"/>
-      <c r="K779" s="42"/>
-      <c r="L779" s="42"/>
+      <c r="K779" s="43"/>
+      <c r="L779" s="43"/>
     </row>
     <row r="780">
-      <c r="G780" s="43"/>
+      <c r="G780" s="44"/>
       <c r="H780" s="23"/>
-      <c r="K780" s="42"/>
-      <c r="L780" s="42"/>
+      <c r="K780" s="43"/>
+      <c r="L780" s="43"/>
     </row>
     <row r="781">
-      <c r="G781" s="43"/>
+      <c r="G781" s="44"/>
       <c r="H781" s="23"/>
-      <c r="K781" s="42"/>
-      <c r="L781" s="42"/>
+      <c r="K781" s="43"/>
+      <c r="L781" s="43"/>
     </row>
     <row r="782">
-      <c r="G782" s="43"/>
+      <c r="G782" s="44"/>
       <c r="H782" s="23"/>
-      <c r="K782" s="42"/>
-      <c r="L782" s="42"/>
+      <c r="K782" s="43"/>
+      <c r="L782" s="43"/>
     </row>
     <row r="783">
-      <c r="G783" s="43"/>
+      <c r="G783" s="44"/>
       <c r="H783" s="23"/>
-      <c r="K783" s="42"/>
-      <c r="L783" s="42"/>
+      <c r="K783" s="43"/>
+      <c r="L783" s="43"/>
     </row>
     <row r="784">
-      <c r="G784" s="43"/>
+      <c r="G784" s="44"/>
       <c r="H784" s="23"/>
-      <c r="K784" s="42"/>
-      <c r="L784" s="42"/>
+      <c r="K784" s="43"/>
+      <c r="L784" s="43"/>
     </row>
     <row r="785">
-      <c r="G785" s="43"/>
+      <c r="G785" s="44"/>
       <c r="H785" s="23"/>
-      <c r="K785" s="42"/>
-      <c r="L785" s="42"/>
+      <c r="K785" s="43"/>
+      <c r="L785" s="43"/>
     </row>
     <row r="786">
-      <c r="G786" s="43"/>
+      <c r="G786" s="44"/>
       <c r="H786" s="23"/>
-      <c r="K786" s="42"/>
-      <c r="L786" s="42"/>
+      <c r="K786" s="43"/>
+      <c r="L786" s="43"/>
     </row>
     <row r="787">
-      <c r="G787" s="43"/>
+      <c r="G787" s="44"/>
       <c r="H787" s="23"/>
-      <c r="K787" s="42"/>
-      <c r="L787" s="42"/>
+      <c r="K787" s="43"/>
+      <c r="L787" s="43"/>
     </row>
     <row r="788">
-      <c r="G788" s="43"/>
+      <c r="G788" s="44"/>
       <c r="H788" s="23"/>
-      <c r="K788" s="42"/>
-      <c r="L788" s="42"/>
+      <c r="K788" s="43"/>
+      <c r="L788" s="43"/>
     </row>
     <row r="789">
-      <c r="G789" s="43"/>
+      <c r="G789" s="44"/>
       <c r="H789" s="23"/>
-      <c r="K789" s="42"/>
-      <c r="L789" s="42"/>
+      <c r="K789" s="43"/>
+      <c r="L789" s="43"/>
     </row>
     <row r="790">
-      <c r="G790" s="43"/>
+      <c r="G790" s="44"/>
       <c r="H790" s="23"/>
-      <c r="K790" s="42"/>
-      <c r="L790" s="42"/>
+      <c r="K790" s="43"/>
+      <c r="L790" s="43"/>
     </row>
     <row r="791">
-      <c r="G791" s="43"/>
+      <c r="G791" s="44"/>
       <c r="H791" s="23"/>
-      <c r="K791" s="42"/>
-      <c r="L791" s="42"/>
+      <c r="K791" s="43"/>
+      <c r="L791" s="43"/>
     </row>
     <row r="792">
-      <c r="G792" s="43"/>
+      <c r="G792" s="44"/>
       <c r="H792" s="23"/>
-      <c r="K792" s="42"/>
-      <c r="L792" s="42"/>
+      <c r="K792" s="43"/>
+      <c r="L792" s="43"/>
     </row>
     <row r="793">
-      <c r="G793" s="43"/>
+      <c r="G793" s="44"/>
       <c r="H793" s="23"/>
-      <c r="K793" s="42"/>
-      <c r="L793" s="42"/>
+      <c r="K793" s="43"/>
+      <c r="L793" s="43"/>
     </row>
     <row r="794">
-      <c r="G794" s="43"/>
+      <c r="G794" s="44"/>
       <c r="H794" s="23"/>
-      <c r="K794" s="42"/>
-      <c r="L794" s="42"/>
+      <c r="K794" s="43"/>
+      <c r="L794" s="43"/>
     </row>
     <row r="795">
-      <c r="G795" s="43"/>
+      <c r="G795" s="44"/>
       <c r="H795" s="23"/>
-      <c r="K795" s="42"/>
-      <c r="L795" s="42"/>
+      <c r="K795" s="43"/>
+      <c r="L795" s="43"/>
     </row>
     <row r="796">
-      <c r="G796" s="43"/>
+      <c r="G796" s="44"/>
       <c r="H796" s="23"/>
-      <c r="K796" s="42"/>
-      <c r="L796" s="42"/>
+      <c r="K796" s="43"/>
+      <c r="L796" s="43"/>
     </row>
     <row r="797">
-      <c r="G797" s="43"/>
+      <c r="G797" s="44"/>
       <c r="H797" s="23"/>
-      <c r="K797" s="42"/>
-      <c r="L797" s="42"/>
+      <c r="K797" s="43"/>
+      <c r="L797" s="43"/>
     </row>
     <row r="798">
-      <c r="G798" s="43"/>
+      <c r="G798" s="44"/>
       <c r="H798" s="23"/>
-      <c r="K798" s="42"/>
-      <c r="L798" s="42"/>
+      <c r="K798" s="43"/>
+      <c r="L798" s="43"/>
     </row>
     <row r="799">
-      <c r="G799" s="43"/>
+      <c r="G799" s="44"/>
       <c r="H799" s="23"/>
-      <c r="K799" s="42"/>
-      <c r="L799" s="42"/>
+      <c r="K799" s="43"/>
+      <c r="L799" s="43"/>
     </row>
     <row r="800">
-      <c r="G800" s="43"/>
+      <c r="G800" s="44"/>
       <c r="H800" s="23"/>
-      <c r="K800" s="42"/>
-      <c r="L800" s="42"/>
+      <c r="K800" s="43"/>
+      <c r="L800" s="43"/>
     </row>
     <row r="801">
-      <c r="G801" s="43"/>
+      <c r="G801" s="44"/>
       <c r="H801" s="23"/>
-      <c r="K801" s="42"/>
-      <c r="L801" s="42"/>
+      <c r="K801" s="43"/>
+      <c r="L801" s="43"/>
     </row>
     <row r="802">
-      <c r="G802" s="43"/>
+      <c r="G802" s="44"/>
       <c r="H802" s="23"/>
-      <c r="K802" s="42"/>
-      <c r="L802" s="42"/>
+      <c r="K802" s="43"/>
+      <c r="L802" s="43"/>
     </row>
     <row r="803">
-      <c r="G803" s="43"/>
+      <c r="G803" s="44"/>
       <c r="H803" s="23"/>
-      <c r="K803" s="42"/>
-      <c r="L803" s="42"/>
+      <c r="K803" s="43"/>
+      <c r="L803" s="43"/>
     </row>
     <row r="804">
-      <c r="G804" s="43"/>
+      <c r="G804" s="44"/>
       <c r="H804" s="23"/>
-      <c r="K804" s="42"/>
-      <c r="L804" s="42"/>
+      <c r="K804" s="43"/>
+      <c r="L804" s="43"/>
     </row>
     <row r="805">
-      <c r="G805" s="43"/>
+      <c r="G805" s="44"/>
       <c r="H805" s="23"/>
-      <c r="K805" s="42"/>
-      <c r="L805" s="42"/>
+      <c r="K805" s="43"/>
+      <c r="L805" s="43"/>
     </row>
     <row r="806">
-      <c r="G806" s="43"/>
+      <c r="G806" s="44"/>
       <c r="H806" s="23"/>
-      <c r="K806" s="42"/>
-      <c r="L806" s="42"/>
+      <c r="K806" s="43"/>
+      <c r="L806" s="43"/>
     </row>
     <row r="807">
-      <c r="G807" s="43"/>
+      <c r="G807" s="44"/>
       <c r="H807" s="23"/>
-      <c r="K807" s="42"/>
-      <c r="L807" s="42"/>
+      <c r="K807" s="43"/>
+      <c r="L807" s="43"/>
     </row>
     <row r="808">
-      <c r="G808" s="43"/>
+      <c r="G808" s="44"/>
       <c r="H808" s="23"/>
-      <c r="K808" s="42"/>
-      <c r="L808" s="42"/>
+      <c r="K808" s="43"/>
+      <c r="L808" s="43"/>
     </row>
     <row r="809">
-      <c r="G809" s="43"/>
+      <c r="G809" s="44"/>
       <c r="H809" s="23"/>
-      <c r="K809" s="42"/>
-      <c r="L809" s="42"/>
+      <c r="K809" s="43"/>
+      <c r="L809" s="43"/>
     </row>
     <row r="810">
-      <c r="G810" s="43"/>
+      <c r="G810" s="44"/>
       <c r="H810" s="23"/>
-      <c r="K810" s="42"/>
-      <c r="L810" s="42"/>
+      <c r="K810" s="43"/>
+      <c r="L810" s="43"/>
     </row>
     <row r="811">
-      <c r="G811" s="43"/>
+      <c r="G811" s="44"/>
       <c r="H811" s="23"/>
-      <c r="K811" s="42"/>
-      <c r="L811" s="42"/>
+      <c r="K811" s="43"/>
+      <c r="L811" s="43"/>
     </row>
     <row r="812">
-      <c r="G812" s="43"/>
+      <c r="G812" s="44"/>
       <c r="H812" s="23"/>
-      <c r="K812" s="42"/>
-      <c r="L812" s="42"/>
+      <c r="K812" s="43"/>
+      <c r="L812" s="43"/>
     </row>
     <row r="813">
-      <c r="G813" s="43"/>
+      <c r="G813" s="44"/>
       <c r="H813" s="23"/>
-      <c r="K813" s="42"/>
-      <c r="L813" s="42"/>
+      <c r="K813" s="43"/>
+      <c r="L813" s="43"/>
     </row>
     <row r="814">
-      <c r="G814" s="43"/>
+      <c r="G814" s="44"/>
       <c r="H814" s="23"/>
-      <c r="K814" s="42"/>
-      <c r="L814" s="42"/>
+      <c r="K814" s="43"/>
+      <c r="L814" s="43"/>
     </row>
     <row r="815">
-      <c r="G815" s="43"/>
+      <c r="G815" s="44"/>
       <c r="H815" s="23"/>
-      <c r="K815" s="42"/>
-      <c r="L815" s="42"/>
+      <c r="K815" s="43"/>
+      <c r="L815" s="43"/>
     </row>
     <row r="816">
-      <c r="G816" s="43"/>
+      <c r="G816" s="44"/>
       <c r="H816" s="23"/>
-      <c r="K816" s="42"/>
-      <c r="L816" s="42"/>
+      <c r="K816" s="43"/>
+      <c r="L816" s="43"/>
     </row>
     <row r="817">
-      <c r="G817" s="43"/>
+      <c r="G817" s="44"/>
       <c r="H817" s="23"/>
-      <c r="K817" s="42"/>
-      <c r="L817" s="42"/>
+      <c r="K817" s="43"/>
+      <c r="L817" s="43"/>
     </row>
     <row r="818">
-      <c r="G818" s="43"/>
+      <c r="G818" s="44"/>
       <c r="H818" s="23"/>
-      <c r="K818" s="42"/>
-      <c r="L818" s="42"/>
+      <c r="K818" s="43"/>
+      <c r="L818" s="43"/>
     </row>
     <row r="819">
-      <c r="G819" s="43"/>
+      <c r="G819" s="44"/>
       <c r="H819" s="23"/>
-      <c r="K819" s="42"/>
-      <c r="L819" s="42"/>
+      <c r="K819" s="43"/>
+      <c r="L819" s="43"/>
     </row>
     <row r="820">
-      <c r="G820" s="43"/>
+      <c r="G820" s="44"/>
       <c r="H820" s="23"/>
-      <c r="K820" s="42"/>
-      <c r="L820" s="42"/>
+      <c r="K820" s="43"/>
+      <c r="L820" s="43"/>
     </row>
     <row r="821">
-      <c r="G821" s="43"/>
+      <c r="G821" s="44"/>
       <c r="H821" s="23"/>
-      <c r="K821" s="42"/>
-      <c r="L821" s="42"/>
+      <c r="K821" s="43"/>
+      <c r="L821" s="43"/>
     </row>
     <row r="822">
-      <c r="G822" s="43"/>
+      <c r="G822" s="44"/>
       <c r="H822" s="23"/>
-      <c r="K822" s="42"/>
-      <c r="L822" s="42"/>
+      <c r="K822" s="43"/>
+      <c r="L822" s="43"/>
     </row>
     <row r="823">
-      <c r="G823" s="43"/>
+      <c r="G823" s="44"/>
       <c r="H823" s="23"/>
-      <c r="K823" s="42"/>
-      <c r="L823" s="42"/>
+      <c r="K823" s="43"/>
+      <c r="L823" s="43"/>
     </row>
     <row r="824">
-      <c r="G824" s="43"/>
+      <c r="G824" s="44"/>
       <c r="H824" s="23"/>
-      <c r="K824" s="42"/>
-      <c r="L824" s="42"/>
+      <c r="K824" s="43"/>
+      <c r="L824" s="43"/>
     </row>
     <row r="825">
-      <c r="G825" s="43"/>
+      <c r="G825" s="44"/>
       <c r="H825" s="23"/>
-      <c r="K825" s="42"/>
-      <c r="L825" s="42"/>
+      <c r="K825" s="43"/>
+      <c r="L825" s="43"/>
     </row>
     <row r="826">
-      <c r="G826" s="43"/>
+      <c r="G826" s="44"/>
       <c r="H826" s="23"/>
-      <c r="K826" s="42"/>
-      <c r="L826" s="42"/>
+      <c r="K826" s="43"/>
+      <c r="L826" s="43"/>
     </row>
     <row r="827">
-      <c r="G827" s="43"/>
+      <c r="G827" s="44"/>
       <c r="H827" s="23"/>
-      <c r="K827" s="42"/>
-      <c r="L827" s="42"/>
+      <c r="K827" s="43"/>
+      <c r="L827" s="43"/>
     </row>
     <row r="828">
-      <c r="G828" s="43"/>
+      <c r="G828" s="44"/>
       <c r="H828" s="23"/>
-      <c r="K828" s="42"/>
-      <c r="L828" s="42"/>
+      <c r="K828" s="43"/>
+      <c r="L828" s="43"/>
     </row>
     <row r="829">
-      <c r="G829" s="43"/>
+      <c r="G829" s="44"/>
       <c r="H829" s="23"/>
-      <c r="K829" s="42"/>
-      <c r="L829" s="42"/>
+      <c r="K829" s="43"/>
+      <c r="L829" s="43"/>
     </row>
     <row r="830">
-      <c r="G830" s="43"/>
+      <c r="G830" s="44"/>
       <c r="H830" s="23"/>
-      <c r="K830" s="42"/>
-      <c r="L830" s="42"/>
+      <c r="K830" s="43"/>
+      <c r="L830" s="43"/>
     </row>
     <row r="831">
-      <c r="G831" s="43"/>
+      <c r="G831" s="44"/>
       <c r="H831" s="23"/>
-      <c r="K831" s="42"/>
-      <c r="L831" s="42"/>
+      <c r="K831" s="43"/>
+      <c r="L831" s="43"/>
     </row>
     <row r="832">
-      <c r="G832" s="43"/>
+      <c r="G832" s="44"/>
       <c r="H832" s="23"/>
-      <c r="K832" s="42"/>
-      <c r="L832" s="42"/>
+      <c r="K832" s="43"/>
+      <c r="L832" s="43"/>
     </row>
     <row r="833">
-      <c r="G833" s="43"/>
+      <c r="G833" s="44"/>
       <c r="H833" s="23"/>
-      <c r="K833" s="42"/>
-      <c r="L833" s="42"/>
+      <c r="K833" s="43"/>
+      <c r="L833" s="43"/>
     </row>
     <row r="834">
-      <c r="G834" s="43"/>
+      <c r="G834" s="44"/>
       <c r="H834" s="23"/>
-      <c r="K834" s="42"/>
-      <c r="L834" s="42"/>
+      <c r="K834" s="43"/>
+      <c r="L834" s="43"/>
     </row>
     <row r="835">
-      <c r="G835" s="43"/>
+      <c r="G835" s="44"/>
       <c r="H835" s="23"/>
-      <c r="K835" s="42"/>
-      <c r="L835" s="42"/>
+      <c r="K835" s="43"/>
+      <c r="L835" s="43"/>
     </row>
     <row r="836">
-      <c r="G836" s="43"/>
+      <c r="G836" s="44"/>
       <c r="H836" s="23"/>
-      <c r="K836" s="42"/>
-      <c r="L836" s="42"/>
+      <c r="K836" s="43"/>
+      <c r="L836" s="43"/>
     </row>
     <row r="837">
-      <c r="G837" s="43"/>
+      <c r="G837" s="44"/>
       <c r="H837" s="23"/>
-      <c r="K837" s="42"/>
-      <c r="L837" s="42"/>
+      <c r="K837" s="43"/>
+      <c r="L837" s="43"/>
     </row>
     <row r="838">
-      <c r="G838" s="43"/>
+      <c r="G838" s="44"/>
       <c r="H838" s="23"/>
-      <c r="K838" s="42"/>
-      <c r="L838" s="42"/>
+      <c r="K838" s="43"/>
+      <c r="L838" s="43"/>
     </row>
     <row r="839">
-      <c r="G839" s="43"/>
+      <c r="G839" s="44"/>
       <c r="H839" s="23"/>
-      <c r="K839" s="42"/>
-      <c r="L839" s="42"/>
+      <c r="K839" s="43"/>
+      <c r="L839" s="43"/>
     </row>
     <row r="840">
-      <c r="G840" s="43"/>
+      <c r="G840" s="44"/>
       <c r="H840" s="23"/>
-      <c r="K840" s="42"/>
-      <c r="L840" s="42"/>
+      <c r="K840" s="43"/>
+      <c r="L840" s="43"/>
     </row>
     <row r="841">
-      <c r="G841" s="43"/>
+      <c r="G841" s="44"/>
       <c r="H841" s="23"/>
-      <c r="K841" s="42"/>
-      <c r="L841" s="42"/>
+      <c r="K841" s="43"/>
+      <c r="L841" s="43"/>
     </row>
     <row r="842">
-      <c r="G842" s="43"/>
+      <c r="G842" s="44"/>
       <c r="H842" s="23"/>
-      <c r="K842" s="42"/>
-      <c r="L842" s="42"/>
+      <c r="K842" s="43"/>
+      <c r="L842" s="43"/>
     </row>
     <row r="843">
-      <c r="G843" s="43"/>
+      <c r="G843" s="44"/>
       <c r="H843" s="23"/>
-      <c r="K843" s="42"/>
-      <c r="L843" s="42"/>
+      <c r="K843" s="43"/>
+      <c r="L843" s="43"/>
     </row>
     <row r="844">
-      <c r="G844" s="43"/>
+      <c r="G844" s="44"/>
       <c r="H844" s="23"/>
-      <c r="K844" s="42"/>
-      <c r="L844" s="42"/>
+      <c r="K844" s="43"/>
+      <c r="L844" s="43"/>
     </row>
     <row r="845">
-      <c r="G845" s="43"/>
+      <c r="G845" s="44"/>
       <c r="H845" s="23"/>
-      <c r="K845" s="42"/>
-      <c r="L845" s="42"/>
+      <c r="K845" s="43"/>
+      <c r="L845" s="43"/>
     </row>
     <row r="846">
-      <c r="G846" s="43"/>
+      <c r="G846" s="44"/>
       <c r="H846" s="23"/>
-      <c r="K846" s="42"/>
-      <c r="L846" s="42"/>
+      <c r="K846" s="43"/>
+      <c r="L846" s="43"/>
     </row>
     <row r="847">
-      <c r="G847" s="43"/>
+      <c r="G847" s="44"/>
       <c r="H847" s="23"/>
-      <c r="K847" s="42"/>
-      <c r="L847" s="42"/>
+      <c r="K847" s="43"/>
+      <c r="L847" s="43"/>
     </row>
     <row r="848">
-      <c r="G848" s="43"/>
+      <c r="G848" s="44"/>
       <c r="H848" s="23"/>
-      <c r="K848" s="42"/>
-      <c r="L848" s="42"/>
+      <c r="K848" s="43"/>
+      <c r="L848" s="43"/>
     </row>
     <row r="849">
-      <c r="G849" s="43"/>
+      <c r="G849" s="44"/>
       <c r="H849" s="23"/>
-      <c r="K849" s="42"/>
-      <c r="L849" s="42"/>
+      <c r="K849" s="43"/>
+      <c r="L849" s="43"/>
     </row>
     <row r="850">
-      <c r="G850" s="43"/>
+      <c r="G850" s="44"/>
       <c r="H850" s="23"/>
-      <c r="K850" s="42"/>
-      <c r="L850" s="42"/>
+      <c r="K850" s="43"/>
+      <c r="L850" s="43"/>
     </row>
     <row r="851">
-      <c r="G851" s="43"/>
+      <c r="G851" s="44"/>
       <c r="H851" s="23"/>
-      <c r="K851" s="42"/>
-      <c r="L851" s="42"/>
+      <c r="K851" s="43"/>
+      <c r="L851" s="43"/>
     </row>
     <row r="852">
-      <c r="G852" s="43"/>
+      <c r="G852" s="44"/>
       <c r="H852" s="23"/>
-      <c r="K852" s="42"/>
-      <c r="L852" s="42"/>
+      <c r="K852" s="43"/>
+      <c r="L852" s="43"/>
     </row>
     <row r="853">
-      <c r="G853" s="43"/>
+      <c r="G853" s="44"/>
       <c r="H853" s="23"/>
-      <c r="K853" s="42"/>
-      <c r="L853" s="42"/>
+      <c r="K853" s="43"/>
+      <c r="L853" s="43"/>
     </row>
     <row r="854">
-      <c r="G854" s="43"/>
+      <c r="G854" s="44"/>
       <c r="H854" s="23"/>
-      <c r="K854" s="42"/>
-      <c r="L854" s="42"/>
+      <c r="K854" s="43"/>
+      <c r="L854" s="43"/>
     </row>
     <row r="855">
-      <c r="G855" s="43"/>
+      <c r="G855" s="44"/>
       <c r="H855" s="23"/>
-      <c r="K855" s="42"/>
-      <c r="L855" s="42"/>
+      <c r="K855" s="43"/>
+      <c r="L855" s="43"/>
     </row>
     <row r="856">
-      <c r="G856" s="43"/>
+      <c r="G856" s="44"/>
       <c r="H856" s="23"/>
-      <c r="K856" s="42"/>
-      <c r="L856" s="42"/>
+      <c r="K856" s="43"/>
+      <c r="L856" s="43"/>
     </row>
     <row r="857">
-      <c r="G857" s="43"/>
+      <c r="G857" s="44"/>
       <c r="H857" s="23"/>
-      <c r="K857" s="42"/>
-      <c r="L857" s="42"/>
+      <c r="K857" s="43"/>
+      <c r="L857" s="43"/>
     </row>
     <row r="858">
-      <c r="G858" s="43"/>
+      <c r="G858" s="44"/>
       <c r="H858" s="23"/>
-      <c r="K858" s="42"/>
-      <c r="L858" s="42"/>
+      <c r="K858" s="43"/>
+      <c r="L858" s="43"/>
     </row>
     <row r="859">
-      <c r="G859" s="43"/>
+      <c r="G859" s="44"/>
       <c r="H859" s="23"/>
-      <c r="K859" s="42"/>
-      <c r="L859" s="42"/>
+      <c r="K859" s="43"/>
+      <c r="L859" s="43"/>
     </row>
     <row r="860">
-      <c r="G860" s="43"/>
+      <c r="G860" s="44"/>
       <c r="H860" s="23"/>
-      <c r="K860" s="42"/>
-      <c r="L860" s="42"/>
+      <c r="K860" s="43"/>
+      <c r="L860" s="43"/>
     </row>
     <row r="861">
-      <c r="G861" s="43"/>
+      <c r="G861" s="44"/>
       <c r="H861" s="23"/>
-      <c r="K861" s="42"/>
-      <c r="L861" s="42"/>
+      <c r="K861" s="43"/>
+      <c r="L861" s="43"/>
     </row>
     <row r="862">
-      <c r="G862" s="43"/>
+      <c r="G862" s="44"/>
       <c r="H862" s="23"/>
-      <c r="K862" s="42"/>
-      <c r="L862" s="42"/>
+      <c r="K862" s="43"/>
+      <c r="L862" s="43"/>
     </row>
     <row r="863">
-      <c r="G863" s="43"/>
+      <c r="G863" s="44"/>
       <c r="H863" s="23"/>
-      <c r="K863" s="42"/>
-      <c r="L863" s="42"/>
+      <c r="K863" s="43"/>
+      <c r="L863" s="43"/>
     </row>
     <row r="864">
-      <c r="G864" s="43"/>
+      <c r="G864" s="44"/>
       <c r="H864" s="23"/>
-      <c r="K864" s="42"/>
-      <c r="L864" s="42"/>
+      <c r="K864" s="43"/>
+      <c r="L864" s="43"/>
     </row>
     <row r="865">
-      <c r="G865" s="43"/>
+      <c r="G865" s="44"/>
       <c r="H865" s="23"/>
-      <c r="K865" s="42"/>
-      <c r="L865" s="42"/>
+      <c r="K865" s="43"/>
+      <c r="L865" s="43"/>
     </row>
     <row r="866">
-      <c r="G866" s="43"/>
+      <c r="G866" s="44"/>
       <c r="H866" s="23"/>
-      <c r="K866" s="42"/>
-      <c r="L866" s="42"/>
+      <c r="K866" s="43"/>
+      <c r="L866" s="43"/>
     </row>
     <row r="867">
-      <c r="G867" s="43"/>
+      <c r="G867" s="44"/>
       <c r="H867" s="23"/>
-      <c r="K867" s="42"/>
-      <c r="L867" s="42"/>
+      <c r="K867" s="43"/>
+      <c r="L867" s="43"/>
     </row>
     <row r="868">
-      <c r="G868" s="43"/>
+      <c r="G868" s="44"/>
       <c r="H868" s="23"/>
-      <c r="K868" s="42"/>
-      <c r="L868" s="42"/>
+      <c r="K868" s="43"/>
+      <c r="L868" s="43"/>
     </row>
     <row r="869">
-      <c r="G869" s="43"/>
+      <c r="G869" s="44"/>
       <c r="H869" s="23"/>
-      <c r="K869" s="42"/>
-      <c r="L869" s="42"/>
+      <c r="K869" s="43"/>
+      <c r="L869" s="43"/>
     </row>
     <row r="870">
-      <c r="G870" s="43"/>
+      <c r="G870" s="44"/>
       <c r="H870" s="23"/>
-      <c r="K870" s="42"/>
-      <c r="L870" s="42"/>
+      <c r="K870" s="43"/>
+      <c r="L870" s="43"/>
     </row>
     <row r="871">
-      <c r="G871" s="43"/>
+      <c r="G871" s="44"/>
       <c r="H871" s="23"/>
-      <c r="K871" s="42"/>
-      <c r="L871" s="42"/>
+      <c r="K871" s="43"/>
+      <c r="L871" s="43"/>
     </row>
     <row r="872">
-      <c r="G872" s="43"/>
+      <c r="G872" s="44"/>
       <c r="H872" s="23"/>
-      <c r="K872" s="42"/>
-      <c r="L872" s="42"/>
+      <c r="K872" s="43"/>
+      <c r="L872" s="43"/>
     </row>
     <row r="873">
-      <c r="G873" s="43"/>
+      <c r="G873" s="44"/>
       <c r="H873" s="23"/>
-      <c r="K873" s="42"/>
-      <c r="L873" s="42"/>
+      <c r="K873" s="43"/>
+      <c r="L873" s="43"/>
     </row>
     <row r="874">
-      <c r="G874" s="43"/>
+      <c r="G874" s="44"/>
       <c r="H874" s="23"/>
-      <c r="K874" s="42"/>
-      <c r="L874" s="42"/>
+      <c r="K874" s="43"/>
+      <c r="L874" s="43"/>
     </row>
     <row r="875">
-      <c r="G875" s="43"/>
+      <c r="G875" s="44"/>
       <c r="H875" s="23"/>
-      <c r="K875" s="42"/>
-      <c r="L875" s="42"/>
+      <c r="K875" s="43"/>
+      <c r="L875" s="43"/>
     </row>
     <row r="876">
-      <c r="G876" s="43"/>
+      <c r="G876" s="44"/>
       <c r="H876" s="23"/>
-      <c r="K876" s="42"/>
-      <c r="L876" s="42"/>
+      <c r="K876" s="43"/>
+      <c r="L876" s="43"/>
     </row>
     <row r="877">
-      <c r="G877" s="43"/>
+      <c r="G877" s="44"/>
       <c r="H877" s="23"/>
-      <c r="K877" s="42"/>
-      <c r="L877" s="42"/>
+      <c r="K877" s="43"/>
+      <c r="L877" s="43"/>
     </row>
     <row r="878">
-      <c r="G878" s="43"/>
+      <c r="G878" s="44"/>
       <c r="H878" s="23"/>
-      <c r="K878" s="42"/>
-      <c r="L878" s="42"/>
+      <c r="K878" s="43"/>
+      <c r="L878" s="43"/>
     </row>
     <row r="879">
-      <c r="G879" s="43"/>
+      <c r="G879" s="44"/>
       <c r="H879" s="23"/>
-      <c r="K879" s="42"/>
-      <c r="L879" s="42"/>
+      <c r="K879" s="43"/>
+      <c r="L879" s="43"/>
     </row>
     <row r="880">
-      <c r="G880" s="43"/>
+      <c r="G880" s="44"/>
       <c r="H880" s="23"/>
-      <c r="K880" s="42"/>
-      <c r="L880" s="42"/>
+      <c r="K880" s="43"/>
+      <c r="L880" s="43"/>
     </row>
     <row r="881">
-      <c r="G881" s="43"/>
+      <c r="G881" s="44"/>
       <c r="H881" s="23"/>
-      <c r="K881" s="42"/>
-      <c r="L881" s="42"/>
+      <c r="K881" s="43"/>
+      <c r="L881" s="43"/>
     </row>
     <row r="882">
-      <c r="G882" s="43"/>
+      <c r="G882" s="44"/>
       <c r="H882" s="23"/>
-      <c r="K882" s="42"/>
-      <c r="L882" s="42"/>
+      <c r="K882" s="43"/>
+      <c r="L882" s="43"/>
     </row>
     <row r="883">
-      <c r="G883" s="43"/>
+      <c r="G883" s="44"/>
       <c r="H883" s="23"/>
-      <c r="K883" s="42"/>
-      <c r="L883" s="42"/>
+      <c r="K883" s="43"/>
+      <c r="L883" s="43"/>
     </row>
     <row r="884">
-      <c r="G884" s="43"/>
+      <c r="G884" s="44"/>
       <c r="H884" s="23"/>
-      <c r="K884" s="42"/>
-      <c r="L884" s="42"/>
+      <c r="K884" s="43"/>
+      <c r="L884" s="43"/>
     </row>
     <row r="885">
-      <c r="G885" s="43"/>
+      <c r="G885" s="44"/>
       <c r="H885" s="23"/>
-      <c r="K885" s="42"/>
-      <c r="L885" s="42"/>
+      <c r="K885" s="43"/>
+      <c r="L885" s="43"/>
     </row>
     <row r="886">
-      <c r="G886" s="43"/>
+      <c r="G886" s="44"/>
       <c r="H886" s="23"/>
-      <c r="K886" s="42"/>
-      <c r="L886" s="42"/>
+      <c r="K886" s="43"/>
+      <c r="L886" s="43"/>
     </row>
     <row r="887">
-      <c r="G887" s="43"/>
+      <c r="G887" s="44"/>
       <c r="H887" s="23"/>
-      <c r="K887" s="42"/>
-      <c r="L887" s="42"/>
+      <c r="K887" s="43"/>
+      <c r="L887" s="43"/>
     </row>
     <row r="888">
-      <c r="G888" s="43"/>
+      <c r="G888" s="44"/>
       <c r="H888" s="23"/>
-      <c r="K888" s="42"/>
-      <c r="L888" s="42"/>
+      <c r="K888" s="43"/>
+      <c r="L888" s="43"/>
     </row>
     <row r="889">
-      <c r="G889" s="43"/>
+      <c r="G889" s="44"/>
       <c r="H889" s="23"/>
-      <c r="K889" s="42"/>
-      <c r="L889" s="42"/>
+      <c r="K889" s="43"/>
+      <c r="L889" s="43"/>
     </row>
     <row r="890">
-      <c r="G890" s="43"/>
+      <c r="G890" s="44"/>
       <c r="H890" s="23"/>
-      <c r="K890" s="42"/>
-      <c r="L890" s="42"/>
+      <c r="K890" s="43"/>
+      <c r="L890" s="43"/>
     </row>
     <row r="891">
-      <c r="G891" s="43"/>
+      <c r="G891" s="44"/>
       <c r="H891" s="23"/>
-      <c r="K891" s="42"/>
-      <c r="L891" s="42"/>
+      <c r="K891" s="43"/>
+      <c r="L891" s="43"/>
     </row>
     <row r="892">
-      <c r="G892" s="43"/>
+      <c r="G892" s="44"/>
       <c r="H892" s="23"/>
-      <c r="K892" s="42"/>
-      <c r="L892" s="42"/>
+      <c r="K892" s="43"/>
+      <c r="L892" s="43"/>
     </row>
     <row r="893">
-      <c r="G893" s="43"/>
+      <c r="G893" s="44"/>
       <c r="H893" s="23"/>
-      <c r="K893" s="42"/>
-      <c r="L893" s="42"/>
+      <c r="K893" s="43"/>
+      <c r="L893" s="43"/>
     </row>
     <row r="894">
-      <c r="G894" s="43"/>
+      <c r="G894" s="44"/>
       <c r="H894" s="23"/>
-      <c r="K894" s="42"/>
-      <c r="L894" s="42"/>
+      <c r="K894" s="43"/>
+      <c r="L894" s="43"/>
     </row>
     <row r="895">
-      <c r="G895" s="43"/>
+      <c r="G895" s="44"/>
       <c r="H895" s="23"/>
-      <c r="K895" s="42"/>
-      <c r="L895" s="42"/>
+      <c r="K895" s="43"/>
+      <c r="L895" s="43"/>
     </row>
     <row r="896">
-      <c r="G896" s="43"/>
+      <c r="G896" s="44"/>
       <c r="H896" s="23"/>
-      <c r="K896" s="42"/>
-      <c r="L896" s="42"/>
+      <c r="K896" s="43"/>
+      <c r="L896" s="43"/>
     </row>
     <row r="897">
-      <c r="G897" s="43"/>
+      <c r="G897" s="44"/>
       <c r="H897" s="23"/>
-      <c r="K897" s="42"/>
-      <c r="L897" s="42"/>
+      <c r="K897" s="43"/>
+      <c r="L897" s="43"/>
     </row>
     <row r="898">
-      <c r="G898" s="43"/>
+      <c r="G898" s="44"/>
       <c r="H898" s="23"/>
-      <c r="K898" s="42"/>
-      <c r="L898" s="42"/>
+      <c r="K898" s="43"/>
+      <c r="L898" s="43"/>
     </row>
     <row r="899">
-      <c r="G899" s="43"/>
+      <c r="G899" s="44"/>
       <c r="H899" s="23"/>
-      <c r="K899" s="42"/>
-      <c r="L899" s="42"/>
+      <c r="K899" s="43"/>
+      <c r="L899" s="43"/>
     </row>
     <row r="900">
-      <c r="G900" s="43"/>
+      <c r="G900" s="44"/>
       <c r="H900" s="23"/>
-      <c r="K900" s="42"/>
-      <c r="L900" s="42"/>
+      <c r="K900" s="43"/>
+      <c r="L900" s="43"/>
     </row>
     <row r="901">
-      <c r="G901" s="43"/>
+      <c r="G901" s="44"/>
       <c r="H901" s="23"/>
-      <c r="K901" s="42"/>
-      <c r="L901" s="42"/>
+      <c r="K901" s="43"/>
+      <c r="L901" s="43"/>
     </row>
     <row r="902">
-      <c r="G902" s="43"/>
+      <c r="G902" s="44"/>
       <c r="H902" s="23"/>
-      <c r="K902" s="42"/>
-      <c r="L902" s="42"/>
+      <c r="K902" s="43"/>
+      <c r="L902" s="43"/>
     </row>
     <row r="903">
-      <c r="G903" s="43"/>
+      <c r="G903" s="44"/>
       <c r="H903" s="23"/>
-      <c r="K903" s="42"/>
-      <c r="L903" s="42"/>
+      <c r="K903" s="43"/>
+      <c r="L903" s="43"/>
     </row>
     <row r="904">
-      <c r="G904" s="43"/>
+      <c r="G904" s="44"/>
       <c r="H904" s="23"/>
-      <c r="K904" s="42"/>
-      <c r="L904" s="42"/>
+      <c r="K904" s="43"/>
+      <c r="L904" s="43"/>
     </row>
     <row r="905">
-      <c r="G905" s="43"/>
+      <c r="G905" s="44"/>
       <c r="H905" s="23"/>
-      <c r="K905" s="42"/>
-      <c r="L905" s="42"/>
+      <c r="K905" s="43"/>
+      <c r="L905" s="43"/>
     </row>
     <row r="906">
-      <c r="G906" s="43"/>
+      <c r="G906" s="44"/>
       <c r="H906" s="23"/>
-      <c r="K906" s="42"/>
-      <c r="L906" s="42"/>
+      <c r="K906" s="43"/>
+      <c r="L906" s="43"/>
     </row>
     <row r="907">
-      <c r="G907" s="43"/>
+      <c r="G907" s="44"/>
       <c r="H907" s="23"/>
-      <c r="K907" s="42"/>
-      <c r="L907" s="42"/>
+      <c r="K907" s="43"/>
+      <c r="L907" s="43"/>
     </row>
     <row r="908">
-      <c r="G908" s="43"/>
+      <c r="G908" s="44"/>
       <c r="H908" s="23"/>
-      <c r="K908" s="42"/>
-      <c r="L908" s="42"/>
+      <c r="K908" s="43"/>
+      <c r="L908" s="43"/>
     </row>
     <row r="909">
-      <c r="G909" s="43"/>
+      <c r="G909" s="44"/>
       <c r="H909" s="23"/>
-      <c r="K909" s="42"/>
-      <c r="L909" s="42"/>
+      <c r="K909" s="43"/>
+      <c r="L909" s="43"/>
     </row>
     <row r="910">
-      <c r="G910" s="43"/>
+      <c r="G910" s="44"/>
       <c r="H910" s="23"/>
-      <c r="K910" s="42"/>
-      <c r="L910" s="42"/>
+      <c r="K910" s="43"/>
+      <c r="L910" s="43"/>
     </row>
     <row r="911">
-      <c r="G911" s="43"/>
+      <c r="G911" s="44"/>
       <c r="H911" s="23"/>
-      <c r="K911" s="42"/>
-      <c r="L911" s="42"/>
+      <c r="K911" s="43"/>
+      <c r="L911" s="43"/>
     </row>
     <row r="912">
-      <c r="G912" s="43"/>
+      <c r="G912" s="44"/>
       <c r="H912" s="23"/>
-      <c r="K912" s="42"/>
-      <c r="L912" s="42"/>
+      <c r="K912" s="43"/>
+      <c r="L912" s="43"/>
     </row>
     <row r="913">
-      <c r="G913" s="43"/>
+      <c r="G913" s="44"/>
       <c r="H913" s="23"/>
-      <c r="K913" s="42"/>
-      <c r="L913" s="42"/>
+      <c r="K913" s="43"/>
+      <c r="L913" s="43"/>
     </row>
     <row r="914">
-      <c r="G914" s="43"/>
+      <c r="G914" s="44"/>
       <c r="H914" s="23"/>
-      <c r="K914" s="42"/>
-      <c r="L914" s="42"/>
+      <c r="K914" s="43"/>
+      <c r="L914" s="43"/>
     </row>
     <row r="915">
-      <c r="G915" s="43"/>
+      <c r="G915" s="44"/>
       <c r="H915" s="23"/>
-      <c r="K915" s="42"/>
-      <c r="L915" s="42"/>
+      <c r="K915" s="43"/>
+      <c r="L915" s="43"/>
     </row>
     <row r="916">
-      <c r="G916" s="43"/>
+      <c r="G916" s="44"/>
       <c r="H916" s="23"/>
-      <c r="K916" s="42"/>
-      <c r="L916" s="42"/>
+      <c r="K916" s="43"/>
+      <c r="L916" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$O$81">
@@ -10300,13 +10301,13 @@
       <c r="J2" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="42" t="s">
         <v>307</v>
       </c>
       <c r="P2" s="7"/>
@@ -10351,7 +10352,7 @@
       <c r="M3" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="45" t="s">
         <v>322</v>
       </c>
     </row>
@@ -13403,28 +13404,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="48" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13432,16 +13433,16 @@
       <c r="A2" s="27">
         <v>102.0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>338</v>
       </c>
       <c r="F2" s="30" t="s">
@@ -13450,7 +13451,7 @@
       <c r="G2" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>276</v>
       </c>
     </row>
@@ -13458,16 +13459,16 @@
       <c r="A3" s="27">
         <v>132.0</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="49" t="s">
         <v>227</v>
       </c>
       <c r="F3" s="30" t="s">
@@ -13476,33 +13477,33 @@
       <c r="G3" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49">
+      <c r="A4" s="50">
         <v>15.0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>320</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="53" t="s">
         <v>341</v>
       </c>
     </row>
@@ -13510,25 +13511,25 @@
       <c r="A5" s="27">
         <v>30.0</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="52" t="s">
         <v>320</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13536,16 +13537,16 @@
       <c r="A6" s="27">
         <v>48.0</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="54" t="s">
         <v>340</v>
       </c>
       <c r="F6" s="30" t="s">
@@ -13562,16 +13563,16 @@
       <c r="A7" s="27">
         <v>84.0</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="54" t="s">
         <v>340</v>
       </c>
       <c r="F7" s="30" t="s">
@@ -13580,7 +13581,7 @@
       <c r="G7" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="55" t="s">
         <v>65</v>
       </c>
     </row>
@@ -13588,16 +13589,16 @@
       <c r="A8" s="27">
         <v>114.0</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="54" t="s">
         <v>340</v>
       </c>
       <c r="F8" s="30" t="s">
@@ -13606,7 +13607,7 @@
       <c r="G8" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="35" t="s">
         <v>70</v>
       </c>
     </row>
@@ -13614,16 +13615,16 @@
       <c r="A9" s="27">
         <v>149.0</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="39" t="s">
         <v>342</v>
       </c>
       <c r="F9" s="30" t="s">
@@ -13632,7 +13633,7 @@
       <c r="G9" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="53" t="s">
         <v>343</v>
       </c>
     </row>
@@ -13640,25 +13641,25 @@
       <c r="A10" s="27">
         <v>21.0</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="52" t="s">
         <v>320</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="35" t="s">
         <v>305</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -412,7 +412,7 @@
     <t>г. Красноярск</t>
   </si>
   <si>
-    <t>Бабушкина Анастасия Сергеевна</t>
+    <t>Бойцов Иван Сергеевич</t>
   </si>
   <si>
     <t>Донна Маргарита</t>
@@ -781,7 +781,7 @@
     <t>г. Пермь</t>
   </si>
   <si>
-    <t>Карелина Анастасия Алексеевна</t>
+    <t xml:space="preserve">Катаева Мария Александровна </t>
   </si>
   <si>
     <t>Сыроварня Санкт-Петербург и НАМА</t>
@@ -1293,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1389,7 +1389,6 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2895,12 +2894,12 @@
         <v>волна 1</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="13" t="s">
         <v>131</v>
       </c>
       <c r="N27" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C27,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Бабушкина Анастасия Сергеевна")</f>
-        <v>Бабушкина Анастасия Сергеевна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C27,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Бойцов Иван Сергеевич")</f>
+        <v>Бойцов Иван Сергеевич</v>
       </c>
       <c r="O27" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4341,12 +4340,12 @@
         <v>волна 1</v>
       </c>
       <c r="H62" s="23"/>
-      <c r="K62" s="33" t="s">
+      <c r="K62" s="13" t="s">
         <v>254</v>
       </c>
       <c r="N62" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Карелина Анастасия Алексеевна")</f>
-        <v>Карелина Анастасия Алексеевна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Катаева Мария Александровна ")</f>
+        <v>Катаева Мария Александровна </v>
       </c>
       <c r="O62" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4505,16 +4504,16 @@
       <c r="A67" s="27">
         <v>108.0</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D67" s="34" t="s">
+      <c r="D67" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E67" s="33" t="s">
         <v>227</v>
       </c>
       <c r="F67" s="10" t="str">
@@ -4545,16 +4544,16 @@
       <c r="A68" s="27">
         <v>142.0</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="E68" s="34" t="s">
+      <c r="E68" s="33" t="s">
         <v>271</v>
       </c>
       <c r="F68" s="10" t="str">
@@ -4567,10 +4566,10 @@
       </c>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
-      <c r="J68" s="35" t="s">
+      <c r="J68" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="K68" s="36" t="s">
+      <c r="K68" s="35" t="s">
         <v>205</v>
       </c>
       <c r="L68" s="30"/>
@@ -4587,16 +4586,16 @@
       <c r="A69" s="8">
         <v>102.0</v>
       </c>
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="E69" s="37" t="s">
+      <c r="E69" s="36" t="s">
         <v>110</v>
       </c>
       <c r="F69" s="10" t="str">
@@ -4608,13 +4607,13 @@
         <v>волна 1</v>
       </c>
       <c r="H69" s="23"/>
-      <c r="J69" s="35" t="s">
+      <c r="J69" s="34" t="s">
         <v>276</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="L69" s="38" t="s">
+      <c r="L69" s="37" t="s">
         <v>277</v>
       </c>
       <c r="N69" s="13" t="str">
@@ -4630,16 +4629,16 @@
       <c r="A70" s="8">
         <v>19.0</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="E70" s="37" t="s">
+      <c r="E70" s="36" t="s">
         <v>279</v>
       </c>
       <c r="F70" s="10" t="str">
@@ -4667,16 +4666,16 @@
       <c r="A71" s="8">
         <v>83.0</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="C71" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D71" s="37" t="s">
+      <c r="D71" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="E71" s="37" t="s">
+      <c r="E71" s="36" t="s">
         <v>283</v>
       </c>
       <c r="F71" s="10" t="str">
@@ -4707,16 +4706,16 @@
       <c r="A72" s="8">
         <v>56.0</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C72" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E72" s="36" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="10" t="str">
@@ -4753,16 +4752,16 @@
       <c r="A73" s="8">
         <v>61.0</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C73" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="E73" s="37" t="s">
+      <c r="E73" s="36" t="s">
         <v>16</v>
       </c>
       <c r="F73" s="10" t="str">
@@ -4802,16 +4801,16 @@
       <c r="A74" s="8">
         <v>79.0</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C74" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="D74" s="37" t="s">
+      <c r="D74" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="E74" s="37" t="s">
+      <c r="E74" s="36" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="10" t="str">
@@ -4851,16 +4850,16 @@
       <c r="A75" s="8">
         <v>98.0</v>
       </c>
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C75" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="E75" s="37" t="s">
+      <c r="E75" s="36" t="s">
         <v>211</v>
       </c>
       <c r="F75" s="10" t="str">
@@ -4888,16 +4887,16 @@
       <c r="A76" s="8">
         <v>149.0</v>
       </c>
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="37" t="s">
+      <c r="C76" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="D76" s="37" t="s">
+      <c r="D76" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="E76" s="37" t="s">
+      <c r="E76" s="36" t="s">
         <v>211</v>
       </c>
       <c r="F76" s="10" t="str">
@@ -4909,13 +4908,13 @@
         <v>волна 1</v>
       </c>
       <c r="H76" s="23"/>
-      <c r="J76" s="35" t="s">
+      <c r="J76" s="34" t="s">
         <v>302</v>
       </c>
       <c r="K76" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="L76" s="38" t="s">
+      <c r="L76" s="37" t="s">
         <v>277</v>
       </c>
       <c r="N76" s="13" t="str">
@@ -4931,16 +4930,16 @@
       <c r="A77" s="27">
         <v>21.0</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="D77" s="39" t="s">
+      <c r="D77" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="38" t="s">
         <v>227</v>
       </c>
       <c r="F77" s="10" t="str">
@@ -4952,16 +4951,16 @@
         <v>волна 1</v>
       </c>
       <c r="H77" s="30"/>
-      <c r="I77" s="40" t="s">
+      <c r="I77" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="J77" s="35" t="s">
+      <c r="J77" s="34" t="s">
         <v>305</v>
       </c>
       <c r="K77" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="L77" s="41" t="s">
+      <c r="L77" s="40" t="s">
         <v>306</v>
       </c>
       <c r="N77" s="13" t="str">
@@ -4977,16 +4976,16 @@
       <c r="A78" s="8">
         <v>86.0</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="C78" s="42" t="s">
+      <c r="C78" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="D78" s="42" t="s">
+      <c r="D78" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="E78" s="42" t="s">
+      <c r="E78" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="10" t="str">
@@ -5022,16 +5021,16 @@
       <c r="A79" s="8">
         <v>160.0</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="D79" s="42" t="s">
+      <c r="D79" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="E79" s="42" t="s">
+      <c r="E79" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="10" t="str">
@@ -5065,16 +5064,16 @@
       <c r="A80" s="16">
         <v>24.0</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C80" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="D80" s="42" t="s">
+      <c r="D80" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="E80" s="42" t="s">
+      <c r="E80" s="41" t="s">
         <v>35</v>
       </c>
       <c r="F80" s="10" t="str">
@@ -5102,16 +5101,16 @@
       <c r="A81" s="8">
         <v>89.0</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C81" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="D81" s="42" t="s">
+      <c r="D81" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="E81" s="42" t="s">
+      <c r="E81" s="41" t="s">
         <v>35</v>
       </c>
       <c r="F81" s="10" t="str">
@@ -5139,5019 +5138,5019 @@
       </c>
     </row>
     <row r="82">
-      <c r="F82" s="43"/>
-      <c r="G82" s="44"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="43"/>
       <c r="H82" s="23"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
     </row>
     <row r="83">
-      <c r="F83" s="43"/>
-      <c r="G83" s="44"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="43"/>
       <c r="H83" s="23"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="43"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
     </row>
     <row r="84">
-      <c r="F84" s="43"/>
-      <c r="G84" s="44"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="43"/>
       <c r="H84" s="23"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="43"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
     </row>
     <row r="85">
-      <c r="F85" s="43"/>
-      <c r="G85" s="44"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="43"/>
       <c r="H85" s="23"/>
-      <c r="K85" s="43"/>
-      <c r="L85" s="43"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
     </row>
     <row r="86">
-      <c r="F86" s="43"/>
-      <c r="G86" s="44"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="43"/>
       <c r="H86" s="23"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="43"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
     </row>
     <row r="87">
-      <c r="G87" s="44"/>
+      <c r="G87" s="43"/>
       <c r="H87" s="23"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="43"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
     </row>
     <row r="88">
-      <c r="G88" s="44"/>
+      <c r="G88" s="43"/>
       <c r="H88" s="23"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
     </row>
     <row r="89">
-      <c r="G89" s="44"/>
+      <c r="G89" s="43"/>
       <c r="H89" s="23"/>
-      <c r="K89" s="43"/>
-      <c r="L89" s="43"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
     </row>
     <row r="90">
-      <c r="G90" s="44"/>
+      <c r="G90" s="43"/>
       <c r="H90" s="23"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="43"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
     </row>
     <row r="91">
-      <c r="G91" s="44"/>
+      <c r="G91" s="43"/>
       <c r="H91" s="23"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="43"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
     </row>
     <row r="92">
-      <c r="G92" s="44"/>
+      <c r="G92" s="43"/>
       <c r="H92" s="23"/>
-      <c r="K92" s="43"/>
-      <c r="L92" s="43"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
     </row>
     <row r="93">
-      <c r="G93" s="44"/>
+      <c r="G93" s="43"/>
       <c r="H93" s="23"/>
-      <c r="K93" s="43"/>
-      <c r="L93" s="43"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
     </row>
     <row r="94">
-      <c r="G94" s="44"/>
+      <c r="G94" s="43"/>
       <c r="H94" s="23"/>
-      <c r="K94" s="43"/>
-      <c r="L94" s="43"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
     </row>
     <row r="95">
-      <c r="G95" s="44"/>
+      <c r="G95" s="43"/>
       <c r="H95" s="23"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="43"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
     </row>
     <row r="96">
-      <c r="G96" s="44"/>
+      <c r="G96" s="43"/>
       <c r="H96" s="23"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="43"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
     </row>
     <row r="97">
-      <c r="G97" s="44"/>
+      <c r="G97" s="43"/>
       <c r="H97" s="23"/>
-      <c r="K97" s="43"/>
-      <c r="L97" s="43"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
     </row>
     <row r="98">
-      <c r="G98" s="44"/>
+      <c r="G98" s="43"/>
       <c r="H98" s="23"/>
-      <c r="K98" s="43"/>
-      <c r="L98" s="43"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="42"/>
     </row>
     <row r="99">
-      <c r="G99" s="44"/>
+      <c r="G99" s="43"/>
       <c r="H99" s="23"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="43"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
     </row>
     <row r="100">
-      <c r="G100" s="44"/>
+      <c r="G100" s="43"/>
       <c r="H100" s="23"/>
-      <c r="K100" s="43"/>
-      <c r="L100" s="43"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
     </row>
     <row r="101">
-      <c r="G101" s="44"/>
+      <c r="G101" s="43"/>
       <c r="H101" s="23"/>
-      <c r="K101" s="43"/>
-      <c r="L101" s="43"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="42"/>
     </row>
     <row r="102">
-      <c r="G102" s="44"/>
+      <c r="G102" s="43"/>
       <c r="H102" s="23"/>
-      <c r="K102" s="43"/>
-      <c r="L102" s="43"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
     </row>
     <row r="103">
-      <c r="G103" s="44"/>
+      <c r="G103" s="43"/>
       <c r="H103" s="23"/>
-      <c r="K103" s="43"/>
-      <c r="L103" s="43"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
     </row>
     <row r="104">
-      <c r="G104" s="44"/>
+      <c r="G104" s="43"/>
       <c r="H104" s="23"/>
-      <c r="K104" s="43"/>
-      <c r="L104" s="43"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
     </row>
     <row r="105">
-      <c r="G105" s="44"/>
+      <c r="G105" s="43"/>
       <c r="H105" s="23"/>
-      <c r="K105" s="43"/>
-      <c r="L105" s="43"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="42"/>
     </row>
     <row r="106">
-      <c r="G106" s="44"/>
+      <c r="G106" s="43"/>
       <c r="H106" s="23"/>
-      <c r="K106" s="43"/>
-      <c r="L106" s="43"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
     </row>
     <row r="107">
-      <c r="G107" s="44"/>
+      <c r="G107" s="43"/>
       <c r="H107" s="23"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="43"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
     </row>
     <row r="108">
-      <c r="G108" s="44"/>
+      <c r="G108" s="43"/>
       <c r="H108" s="23"/>
-      <c r="K108" s="43"/>
-      <c r="L108" s="43"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
     </row>
     <row r="109">
-      <c r="G109" s="44"/>
+      <c r="G109" s="43"/>
       <c r="H109" s="23"/>
-      <c r="K109" s="43"/>
-      <c r="L109" s="43"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
     </row>
     <row r="110">
-      <c r="G110" s="44"/>
+      <c r="G110" s="43"/>
       <c r="H110" s="23"/>
-      <c r="K110" s="43"/>
-      <c r="L110" s="43"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="42"/>
     </row>
     <row r="111">
-      <c r="G111" s="44"/>
+      <c r="G111" s="43"/>
       <c r="H111" s="23"/>
-      <c r="K111" s="43"/>
-      <c r="L111" s="43"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="42"/>
     </row>
     <row r="112">
-      <c r="G112" s="44"/>
+      <c r="G112" s="43"/>
       <c r="H112" s="23"/>
-      <c r="K112" s="43"/>
-      <c r="L112" s="43"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="42"/>
     </row>
     <row r="113">
-      <c r="G113" s="44"/>
+      <c r="G113" s="43"/>
       <c r="H113" s="23"/>
-      <c r="K113" s="43"/>
-      <c r="L113" s="43"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="42"/>
     </row>
     <row r="114">
-      <c r="G114" s="44"/>
+      <c r="G114" s="43"/>
       <c r="H114" s="23"/>
-      <c r="K114" s="43"/>
-      <c r="L114" s="43"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="42"/>
     </row>
     <row r="115">
-      <c r="G115" s="44"/>
+      <c r="G115" s="43"/>
       <c r="H115" s="23"/>
-      <c r="K115" s="43"/>
-      <c r="L115" s="43"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="42"/>
     </row>
     <row r="116">
-      <c r="G116" s="44"/>
+      <c r="G116" s="43"/>
       <c r="H116" s="23"/>
-      <c r="K116" s="43"/>
-      <c r="L116" s="43"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="42"/>
     </row>
     <row r="117">
-      <c r="G117" s="44"/>
+      <c r="G117" s="43"/>
       <c r="H117" s="23"/>
-      <c r="K117" s="43"/>
-      <c r="L117" s="43"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="42"/>
     </row>
     <row r="118">
-      <c r="G118" s="44"/>
+      <c r="G118" s="43"/>
       <c r="H118" s="23"/>
-      <c r="K118" s="43"/>
-      <c r="L118" s="43"/>
+      <c r="K118" s="42"/>
+      <c r="L118" s="42"/>
     </row>
     <row r="119">
-      <c r="G119" s="44"/>
+      <c r="G119" s="43"/>
       <c r="H119" s="23"/>
-      <c r="K119" s="43"/>
-      <c r="L119" s="43"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="42"/>
     </row>
     <row r="120">
-      <c r="G120" s="44"/>
+      <c r="G120" s="43"/>
       <c r="H120" s="23"/>
-      <c r="K120" s="43"/>
-      <c r="L120" s="43"/>
+      <c r="K120" s="42"/>
+      <c r="L120" s="42"/>
     </row>
     <row r="121">
-      <c r="G121" s="44"/>
+      <c r="G121" s="43"/>
       <c r="H121" s="23"/>
-      <c r="K121" s="43"/>
-      <c r="L121" s="43"/>
+      <c r="K121" s="42"/>
+      <c r="L121" s="42"/>
     </row>
     <row r="122">
-      <c r="G122" s="44"/>
+      <c r="G122" s="43"/>
       <c r="H122" s="23"/>
-      <c r="K122" s="43"/>
-      <c r="L122" s="43"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="42"/>
     </row>
     <row r="123">
-      <c r="G123" s="44"/>
+      <c r="G123" s="43"/>
       <c r="H123" s="23"/>
-      <c r="K123" s="43"/>
-      <c r="L123" s="43"/>
+      <c r="K123" s="42"/>
+      <c r="L123" s="42"/>
     </row>
     <row r="124">
-      <c r="G124" s="44"/>
+      <c r="G124" s="43"/>
       <c r="H124" s="23"/>
-      <c r="K124" s="43"/>
-      <c r="L124" s="43"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="42"/>
     </row>
     <row r="125">
-      <c r="G125" s="44"/>
+      <c r="G125" s="43"/>
       <c r="H125" s="23"/>
-      <c r="K125" s="43"/>
-      <c r="L125" s="43"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="42"/>
     </row>
     <row r="126">
-      <c r="G126" s="44"/>
+      <c r="G126" s="43"/>
       <c r="H126" s="23"/>
-      <c r="K126" s="43"/>
-      <c r="L126" s="43"/>
+      <c r="K126" s="42"/>
+      <c r="L126" s="42"/>
     </row>
     <row r="127">
-      <c r="G127" s="44"/>
+      <c r="G127" s="43"/>
       <c r="H127" s="23"/>
-      <c r="K127" s="43"/>
-      <c r="L127" s="43"/>
+      <c r="K127" s="42"/>
+      <c r="L127" s="42"/>
     </row>
     <row r="128">
-      <c r="G128" s="44"/>
+      <c r="G128" s="43"/>
       <c r="H128" s="23"/>
-      <c r="K128" s="43"/>
-      <c r="L128" s="43"/>
+      <c r="K128" s="42"/>
+      <c r="L128" s="42"/>
     </row>
     <row r="129">
-      <c r="G129" s="44"/>
+      <c r="G129" s="43"/>
       <c r="H129" s="23"/>
-      <c r="K129" s="43"/>
-      <c r="L129" s="43"/>
+      <c r="K129" s="42"/>
+      <c r="L129" s="42"/>
     </row>
     <row r="130">
-      <c r="G130" s="44"/>
+      <c r="G130" s="43"/>
       <c r="H130" s="23"/>
-      <c r="K130" s="43"/>
-      <c r="L130" s="43"/>
+      <c r="K130" s="42"/>
+      <c r="L130" s="42"/>
     </row>
     <row r="131">
-      <c r="G131" s="44"/>
+      <c r="G131" s="43"/>
       <c r="H131" s="23"/>
-      <c r="K131" s="43"/>
-      <c r="L131" s="43"/>
+      <c r="K131" s="42"/>
+      <c r="L131" s="42"/>
     </row>
     <row r="132">
-      <c r="G132" s="44"/>
+      <c r="G132" s="43"/>
       <c r="H132" s="23"/>
-      <c r="K132" s="43"/>
-      <c r="L132" s="43"/>
+      <c r="K132" s="42"/>
+      <c r="L132" s="42"/>
     </row>
     <row r="133">
-      <c r="G133" s="44"/>
+      <c r="G133" s="43"/>
       <c r="H133" s="23"/>
-      <c r="K133" s="43"/>
-      <c r="L133" s="43"/>
+      <c r="K133" s="42"/>
+      <c r="L133" s="42"/>
     </row>
     <row r="134">
-      <c r="G134" s="44"/>
+      <c r="G134" s="43"/>
       <c r="H134" s="23"/>
-      <c r="K134" s="43"/>
-      <c r="L134" s="43"/>
+      <c r="K134" s="42"/>
+      <c r="L134" s="42"/>
     </row>
     <row r="135">
-      <c r="G135" s="44"/>
+      <c r="G135" s="43"/>
       <c r="H135" s="23"/>
-      <c r="K135" s="43"/>
-      <c r="L135" s="43"/>
+      <c r="K135" s="42"/>
+      <c r="L135" s="42"/>
     </row>
     <row r="136">
-      <c r="G136" s="44"/>
+      <c r="G136" s="43"/>
       <c r="H136" s="23"/>
-      <c r="K136" s="43"/>
-      <c r="L136" s="43"/>
+      <c r="K136" s="42"/>
+      <c r="L136" s="42"/>
     </row>
     <row r="137">
-      <c r="G137" s="44"/>
+      <c r="G137" s="43"/>
       <c r="H137" s="23"/>
-      <c r="K137" s="43"/>
-      <c r="L137" s="43"/>
+      <c r="K137" s="42"/>
+      <c r="L137" s="42"/>
     </row>
     <row r="138">
-      <c r="G138" s="44"/>
+      <c r="G138" s="43"/>
       <c r="H138" s="23"/>
-      <c r="K138" s="43"/>
-      <c r="L138" s="43"/>
+      <c r="K138" s="42"/>
+      <c r="L138" s="42"/>
     </row>
     <row r="139">
-      <c r="G139" s="44"/>
+      <c r="G139" s="43"/>
       <c r="H139" s="23"/>
-      <c r="K139" s="43"/>
-      <c r="L139" s="43"/>
+      <c r="K139" s="42"/>
+      <c r="L139" s="42"/>
     </row>
     <row r="140">
-      <c r="G140" s="44"/>
+      <c r="G140" s="43"/>
       <c r="H140" s="23"/>
-      <c r="K140" s="43"/>
-      <c r="L140" s="43"/>
+      <c r="K140" s="42"/>
+      <c r="L140" s="42"/>
     </row>
     <row r="141">
-      <c r="G141" s="44"/>
+      <c r="G141" s="43"/>
       <c r="H141" s="23"/>
-      <c r="K141" s="43"/>
-      <c r="L141" s="43"/>
+      <c r="K141" s="42"/>
+      <c r="L141" s="42"/>
     </row>
     <row r="142">
-      <c r="G142" s="44"/>
+      <c r="G142" s="43"/>
       <c r="H142" s="23"/>
-      <c r="K142" s="43"/>
-      <c r="L142" s="43"/>
+      <c r="K142" s="42"/>
+      <c r="L142" s="42"/>
     </row>
     <row r="143">
-      <c r="G143" s="44"/>
+      <c r="G143" s="43"/>
       <c r="H143" s="23"/>
-      <c r="K143" s="43"/>
-      <c r="L143" s="43"/>
+      <c r="K143" s="42"/>
+      <c r="L143" s="42"/>
     </row>
     <row r="144">
-      <c r="G144" s="44"/>
+      <c r="G144" s="43"/>
       <c r="H144" s="23"/>
-      <c r="K144" s="43"/>
-      <c r="L144" s="43"/>
+      <c r="K144" s="42"/>
+      <c r="L144" s="42"/>
     </row>
     <row r="145">
-      <c r="G145" s="44"/>
+      <c r="G145" s="43"/>
       <c r="H145" s="23"/>
-      <c r="K145" s="43"/>
-      <c r="L145" s="43"/>
+      <c r="K145" s="42"/>
+      <c r="L145" s="42"/>
     </row>
     <row r="146">
-      <c r="G146" s="44"/>
+      <c r="G146" s="43"/>
       <c r="H146" s="23"/>
-      <c r="K146" s="43"/>
-      <c r="L146" s="43"/>
+      <c r="K146" s="42"/>
+      <c r="L146" s="42"/>
     </row>
     <row r="147">
-      <c r="G147" s="44"/>
+      <c r="G147" s="43"/>
       <c r="H147" s="23"/>
-      <c r="K147" s="43"/>
-      <c r="L147" s="43"/>
+      <c r="K147" s="42"/>
+      <c r="L147" s="42"/>
     </row>
     <row r="148">
-      <c r="G148" s="44"/>
+      <c r="G148" s="43"/>
       <c r="H148" s="23"/>
-      <c r="K148" s="43"/>
-      <c r="L148" s="43"/>
+      <c r="K148" s="42"/>
+      <c r="L148" s="42"/>
     </row>
     <row r="149">
-      <c r="G149" s="44"/>
+      <c r="G149" s="43"/>
       <c r="H149" s="23"/>
-      <c r="K149" s="43"/>
-      <c r="L149" s="43"/>
+      <c r="K149" s="42"/>
+      <c r="L149" s="42"/>
     </row>
     <row r="150">
-      <c r="G150" s="44"/>
+      <c r="G150" s="43"/>
       <c r="H150" s="23"/>
-      <c r="K150" s="43"/>
-      <c r="L150" s="43"/>
+      <c r="K150" s="42"/>
+      <c r="L150" s="42"/>
     </row>
     <row r="151">
-      <c r="G151" s="44"/>
+      <c r="G151" s="43"/>
       <c r="H151" s="23"/>
-      <c r="K151" s="43"/>
-      <c r="L151" s="43"/>
+      <c r="K151" s="42"/>
+      <c r="L151" s="42"/>
     </row>
     <row r="152">
-      <c r="G152" s="44"/>
+      <c r="G152" s="43"/>
       <c r="H152" s="23"/>
-      <c r="K152" s="43"/>
-      <c r="L152" s="43"/>
+      <c r="K152" s="42"/>
+      <c r="L152" s="42"/>
     </row>
     <row r="153">
-      <c r="G153" s="44"/>
+      <c r="G153" s="43"/>
       <c r="H153" s="23"/>
-      <c r="K153" s="43"/>
-      <c r="L153" s="43"/>
+      <c r="K153" s="42"/>
+      <c r="L153" s="42"/>
     </row>
     <row r="154">
-      <c r="G154" s="44"/>
+      <c r="G154" s="43"/>
       <c r="H154" s="23"/>
-      <c r="K154" s="43"/>
-      <c r="L154" s="43"/>
+      <c r="K154" s="42"/>
+      <c r="L154" s="42"/>
     </row>
     <row r="155">
-      <c r="G155" s="44"/>
+      <c r="G155" s="43"/>
       <c r="H155" s="23"/>
-      <c r="K155" s="43"/>
-      <c r="L155" s="43"/>
+      <c r="K155" s="42"/>
+      <c r="L155" s="42"/>
     </row>
     <row r="156">
-      <c r="G156" s="44"/>
+      <c r="G156" s="43"/>
       <c r="H156" s="23"/>
-      <c r="K156" s="43"/>
-      <c r="L156" s="43"/>
+      <c r="K156" s="42"/>
+      <c r="L156" s="42"/>
     </row>
     <row r="157">
-      <c r="G157" s="44"/>
+      <c r="G157" s="43"/>
       <c r="H157" s="23"/>
-      <c r="K157" s="43"/>
-      <c r="L157" s="43"/>
+      <c r="K157" s="42"/>
+      <c r="L157" s="42"/>
     </row>
     <row r="158">
-      <c r="G158" s="44"/>
+      <c r="G158" s="43"/>
       <c r="H158" s="23"/>
-      <c r="K158" s="43"/>
-      <c r="L158" s="43"/>
+      <c r="K158" s="42"/>
+      <c r="L158" s="42"/>
     </row>
     <row r="159">
-      <c r="G159" s="44"/>
+      <c r="G159" s="43"/>
       <c r="H159" s="23"/>
-      <c r="K159" s="43"/>
-      <c r="L159" s="43"/>
+      <c r="K159" s="42"/>
+      <c r="L159" s="42"/>
     </row>
     <row r="160">
-      <c r="G160" s="44"/>
+      <c r="G160" s="43"/>
       <c r="H160" s="23"/>
-      <c r="K160" s="43"/>
-      <c r="L160" s="43"/>
+      <c r="K160" s="42"/>
+      <c r="L160" s="42"/>
     </row>
     <row r="161">
-      <c r="G161" s="44"/>
+      <c r="G161" s="43"/>
       <c r="H161" s="23"/>
-      <c r="K161" s="43"/>
-      <c r="L161" s="43"/>
+      <c r="K161" s="42"/>
+      <c r="L161" s="42"/>
     </row>
     <row r="162">
-      <c r="G162" s="44"/>
+      <c r="G162" s="43"/>
       <c r="H162" s="23"/>
-      <c r="K162" s="43"/>
-      <c r="L162" s="43"/>
+      <c r="K162" s="42"/>
+      <c r="L162" s="42"/>
     </row>
     <row r="163">
-      <c r="G163" s="44"/>
+      <c r="G163" s="43"/>
       <c r="H163" s="23"/>
-      <c r="K163" s="43"/>
-      <c r="L163" s="43"/>
+      <c r="K163" s="42"/>
+      <c r="L163" s="42"/>
     </row>
     <row r="164">
-      <c r="G164" s="44"/>
+      <c r="G164" s="43"/>
       <c r="H164" s="23"/>
-      <c r="K164" s="43"/>
-      <c r="L164" s="43"/>
+      <c r="K164" s="42"/>
+      <c r="L164" s="42"/>
     </row>
     <row r="165">
-      <c r="G165" s="44"/>
+      <c r="G165" s="43"/>
       <c r="H165" s="23"/>
-      <c r="K165" s="43"/>
-      <c r="L165" s="43"/>
+      <c r="K165" s="42"/>
+      <c r="L165" s="42"/>
     </row>
     <row r="166">
-      <c r="G166" s="44"/>
+      <c r="G166" s="43"/>
       <c r="H166" s="23"/>
-      <c r="K166" s="43"/>
-      <c r="L166" s="43"/>
+      <c r="K166" s="42"/>
+      <c r="L166" s="42"/>
     </row>
     <row r="167">
-      <c r="G167" s="44"/>
+      <c r="G167" s="43"/>
       <c r="H167" s="23"/>
-      <c r="K167" s="43"/>
-      <c r="L167" s="43"/>
+      <c r="K167" s="42"/>
+      <c r="L167" s="42"/>
     </row>
     <row r="168">
-      <c r="G168" s="44"/>
+      <c r="G168" s="43"/>
       <c r="H168" s="23"/>
-      <c r="K168" s="43"/>
-      <c r="L168" s="43"/>
+      <c r="K168" s="42"/>
+      <c r="L168" s="42"/>
     </row>
     <row r="169">
-      <c r="G169" s="44"/>
+      <c r="G169" s="43"/>
       <c r="H169" s="23"/>
-      <c r="K169" s="43"/>
-      <c r="L169" s="43"/>
+      <c r="K169" s="42"/>
+      <c r="L169" s="42"/>
     </row>
     <row r="170">
-      <c r="G170" s="44"/>
+      <c r="G170" s="43"/>
       <c r="H170" s="23"/>
-      <c r="K170" s="43"/>
-      <c r="L170" s="43"/>
+      <c r="K170" s="42"/>
+      <c r="L170" s="42"/>
     </row>
     <row r="171">
-      <c r="G171" s="44"/>
+      <c r="G171" s="43"/>
       <c r="H171" s="23"/>
-      <c r="K171" s="43"/>
-      <c r="L171" s="43"/>
+      <c r="K171" s="42"/>
+      <c r="L171" s="42"/>
     </row>
     <row r="172">
-      <c r="G172" s="44"/>
+      <c r="G172" s="43"/>
       <c r="H172" s="23"/>
-      <c r="K172" s="43"/>
-      <c r="L172" s="43"/>
+      <c r="K172" s="42"/>
+      <c r="L172" s="42"/>
     </row>
     <row r="173">
-      <c r="G173" s="44"/>
+      <c r="G173" s="43"/>
       <c r="H173" s="23"/>
-      <c r="K173" s="43"/>
-      <c r="L173" s="43"/>
+      <c r="K173" s="42"/>
+      <c r="L173" s="42"/>
     </row>
     <row r="174">
-      <c r="G174" s="44"/>
+      <c r="G174" s="43"/>
       <c r="H174" s="23"/>
-      <c r="K174" s="43"/>
-      <c r="L174" s="43"/>
+      <c r="K174" s="42"/>
+      <c r="L174" s="42"/>
     </row>
     <row r="175">
-      <c r="G175" s="44"/>
+      <c r="G175" s="43"/>
       <c r="H175" s="23"/>
-      <c r="K175" s="43"/>
-      <c r="L175" s="43"/>
+      <c r="K175" s="42"/>
+      <c r="L175" s="42"/>
     </row>
     <row r="176">
-      <c r="G176" s="44"/>
+      <c r="G176" s="43"/>
       <c r="H176" s="23"/>
-      <c r="K176" s="43"/>
-      <c r="L176" s="43"/>
+      <c r="K176" s="42"/>
+      <c r="L176" s="42"/>
     </row>
     <row r="177">
-      <c r="G177" s="44"/>
+      <c r="G177" s="43"/>
       <c r="H177" s="23"/>
-      <c r="K177" s="43"/>
-      <c r="L177" s="43"/>
+      <c r="K177" s="42"/>
+      <c r="L177" s="42"/>
     </row>
     <row r="178">
-      <c r="G178" s="44"/>
+      <c r="G178" s="43"/>
       <c r="H178" s="23"/>
-      <c r="K178" s="43"/>
-      <c r="L178" s="43"/>
+      <c r="K178" s="42"/>
+      <c r="L178" s="42"/>
     </row>
     <row r="179">
-      <c r="G179" s="44"/>
+      <c r="G179" s="43"/>
       <c r="H179" s="23"/>
-      <c r="K179" s="43"/>
-      <c r="L179" s="43"/>
+      <c r="K179" s="42"/>
+      <c r="L179" s="42"/>
     </row>
     <row r="180">
-      <c r="G180" s="44"/>
+      <c r="G180" s="43"/>
       <c r="H180" s="23"/>
-      <c r="K180" s="43"/>
-      <c r="L180" s="43"/>
+      <c r="K180" s="42"/>
+      <c r="L180" s="42"/>
     </row>
     <row r="181">
-      <c r="G181" s="44"/>
+      <c r="G181" s="43"/>
       <c r="H181" s="23"/>
-      <c r="K181" s="43"/>
-      <c r="L181" s="43"/>
+      <c r="K181" s="42"/>
+      <c r="L181" s="42"/>
     </row>
     <row r="182">
-      <c r="G182" s="44"/>
+      <c r="G182" s="43"/>
       <c r="H182" s="23"/>
-      <c r="K182" s="43"/>
-      <c r="L182" s="43"/>
+      <c r="K182" s="42"/>
+      <c r="L182" s="42"/>
     </row>
     <row r="183">
-      <c r="G183" s="44"/>
+      <c r="G183" s="43"/>
       <c r="H183" s="23"/>
-      <c r="K183" s="43"/>
-      <c r="L183" s="43"/>
+      <c r="K183" s="42"/>
+      <c r="L183" s="42"/>
     </row>
     <row r="184">
-      <c r="G184" s="44"/>
+      <c r="G184" s="43"/>
       <c r="H184" s="23"/>
-      <c r="K184" s="43"/>
-      <c r="L184" s="43"/>
+      <c r="K184" s="42"/>
+      <c r="L184" s="42"/>
     </row>
     <row r="185">
-      <c r="G185" s="44"/>
+      <c r="G185" s="43"/>
       <c r="H185" s="23"/>
-      <c r="K185" s="43"/>
-      <c r="L185" s="43"/>
+      <c r="K185" s="42"/>
+      <c r="L185" s="42"/>
     </row>
     <row r="186">
-      <c r="G186" s="44"/>
+      <c r="G186" s="43"/>
       <c r="H186" s="23"/>
-      <c r="K186" s="43"/>
-      <c r="L186" s="43"/>
+      <c r="K186" s="42"/>
+      <c r="L186" s="42"/>
     </row>
     <row r="187">
-      <c r="G187" s="44"/>
+      <c r="G187" s="43"/>
       <c r="H187" s="23"/>
-      <c r="K187" s="43"/>
-      <c r="L187" s="43"/>
+      <c r="K187" s="42"/>
+      <c r="L187" s="42"/>
     </row>
     <row r="188">
-      <c r="G188" s="44"/>
+      <c r="G188" s="43"/>
       <c r="H188" s="23"/>
-      <c r="K188" s="43"/>
-      <c r="L188" s="43"/>
+      <c r="K188" s="42"/>
+      <c r="L188" s="42"/>
     </row>
     <row r="189">
-      <c r="G189" s="44"/>
+      <c r="G189" s="43"/>
       <c r="H189" s="23"/>
-      <c r="K189" s="43"/>
-      <c r="L189" s="43"/>
+      <c r="K189" s="42"/>
+      <c r="L189" s="42"/>
     </row>
     <row r="190">
-      <c r="G190" s="44"/>
+      <c r="G190" s="43"/>
       <c r="H190" s="23"/>
-      <c r="K190" s="43"/>
-      <c r="L190" s="43"/>
+      <c r="K190" s="42"/>
+      <c r="L190" s="42"/>
     </row>
     <row r="191">
-      <c r="G191" s="44"/>
+      <c r="G191" s="43"/>
       <c r="H191" s="23"/>
-      <c r="K191" s="43"/>
-      <c r="L191" s="43"/>
+      <c r="K191" s="42"/>
+      <c r="L191" s="42"/>
     </row>
     <row r="192">
-      <c r="G192" s="44"/>
+      <c r="G192" s="43"/>
       <c r="H192" s="23"/>
-      <c r="K192" s="43"/>
-      <c r="L192" s="43"/>
+      <c r="K192" s="42"/>
+      <c r="L192" s="42"/>
     </row>
     <row r="193">
-      <c r="G193" s="44"/>
+      <c r="G193" s="43"/>
       <c r="H193" s="23"/>
-      <c r="K193" s="43"/>
-      <c r="L193" s="43"/>
+      <c r="K193" s="42"/>
+      <c r="L193" s="42"/>
     </row>
     <row r="194">
-      <c r="G194" s="44"/>
+      <c r="G194" s="43"/>
       <c r="H194" s="23"/>
-      <c r="K194" s="43"/>
-      <c r="L194" s="43"/>
+      <c r="K194" s="42"/>
+      <c r="L194" s="42"/>
     </row>
     <row r="195">
-      <c r="G195" s="44"/>
+      <c r="G195" s="43"/>
       <c r="H195" s="23"/>
-      <c r="K195" s="43"/>
-      <c r="L195" s="43"/>
+      <c r="K195" s="42"/>
+      <c r="L195" s="42"/>
     </row>
     <row r="196">
-      <c r="G196" s="44"/>
+      <c r="G196" s="43"/>
       <c r="H196" s="23"/>
-      <c r="K196" s="43"/>
-      <c r="L196" s="43"/>
+      <c r="K196" s="42"/>
+      <c r="L196" s="42"/>
     </row>
     <row r="197">
-      <c r="G197" s="44"/>
+      <c r="G197" s="43"/>
       <c r="H197" s="23"/>
-      <c r="K197" s="43"/>
-      <c r="L197" s="43"/>
+      <c r="K197" s="42"/>
+      <c r="L197" s="42"/>
     </row>
     <row r="198">
-      <c r="G198" s="44"/>
+      <c r="G198" s="43"/>
       <c r="H198" s="23"/>
-      <c r="K198" s="43"/>
-      <c r="L198" s="43"/>
+      <c r="K198" s="42"/>
+      <c r="L198" s="42"/>
     </row>
     <row r="199">
-      <c r="G199" s="44"/>
+      <c r="G199" s="43"/>
       <c r="H199" s="23"/>
-      <c r="K199" s="43"/>
-      <c r="L199" s="43"/>
+      <c r="K199" s="42"/>
+      <c r="L199" s="42"/>
     </row>
     <row r="200">
-      <c r="G200" s="44"/>
+      <c r="G200" s="43"/>
       <c r="H200" s="23"/>
-      <c r="K200" s="43"/>
-      <c r="L200" s="43"/>
+      <c r="K200" s="42"/>
+      <c r="L200" s="42"/>
     </row>
     <row r="201">
-      <c r="G201" s="44"/>
+      <c r="G201" s="43"/>
       <c r="H201" s="23"/>
-      <c r="K201" s="43"/>
-      <c r="L201" s="43"/>
+      <c r="K201" s="42"/>
+      <c r="L201" s="42"/>
     </row>
     <row r="202">
-      <c r="G202" s="44"/>
+      <c r="G202" s="43"/>
       <c r="H202" s="23"/>
-      <c r="K202" s="43"/>
-      <c r="L202" s="43"/>
+      <c r="K202" s="42"/>
+      <c r="L202" s="42"/>
     </row>
     <row r="203">
-      <c r="G203" s="44"/>
+      <c r="G203" s="43"/>
       <c r="H203" s="23"/>
-      <c r="K203" s="43"/>
-      <c r="L203" s="43"/>
+      <c r="K203" s="42"/>
+      <c r="L203" s="42"/>
     </row>
     <row r="204">
-      <c r="G204" s="44"/>
+      <c r="G204" s="43"/>
       <c r="H204" s="23"/>
-      <c r="K204" s="43"/>
-      <c r="L204" s="43"/>
+      <c r="K204" s="42"/>
+      <c r="L204" s="42"/>
     </row>
     <row r="205">
-      <c r="G205" s="44"/>
+      <c r="G205" s="43"/>
       <c r="H205" s="23"/>
-      <c r="K205" s="43"/>
-      <c r="L205" s="43"/>
+      <c r="K205" s="42"/>
+      <c r="L205" s="42"/>
     </row>
     <row r="206">
-      <c r="G206" s="44"/>
+      <c r="G206" s="43"/>
       <c r="H206" s="23"/>
-      <c r="K206" s="43"/>
-      <c r="L206" s="43"/>
+      <c r="K206" s="42"/>
+      <c r="L206" s="42"/>
     </row>
     <row r="207">
-      <c r="G207" s="44"/>
+      <c r="G207" s="43"/>
       <c r="H207" s="23"/>
-      <c r="K207" s="43"/>
-      <c r="L207" s="43"/>
+      <c r="K207" s="42"/>
+      <c r="L207" s="42"/>
     </row>
     <row r="208">
-      <c r="G208" s="44"/>
+      <c r="G208" s="43"/>
       <c r="H208" s="23"/>
-      <c r="K208" s="43"/>
-      <c r="L208" s="43"/>
+      <c r="K208" s="42"/>
+      <c r="L208" s="42"/>
     </row>
     <row r="209">
-      <c r="G209" s="44"/>
+      <c r="G209" s="43"/>
       <c r="H209" s="23"/>
-      <c r="K209" s="43"/>
-      <c r="L209" s="43"/>
+      <c r="K209" s="42"/>
+      <c r="L209" s="42"/>
     </row>
     <row r="210">
-      <c r="G210" s="44"/>
+      <c r="G210" s="43"/>
       <c r="H210" s="23"/>
-      <c r="K210" s="43"/>
-      <c r="L210" s="43"/>
+      <c r="K210" s="42"/>
+      <c r="L210" s="42"/>
     </row>
     <row r="211">
-      <c r="G211" s="44"/>
+      <c r="G211" s="43"/>
       <c r="H211" s="23"/>
-      <c r="K211" s="43"/>
-      <c r="L211" s="43"/>
+      <c r="K211" s="42"/>
+      <c r="L211" s="42"/>
     </row>
     <row r="212">
-      <c r="G212" s="44"/>
+      <c r="G212" s="43"/>
       <c r="H212" s="23"/>
-      <c r="K212" s="43"/>
-      <c r="L212" s="43"/>
+      <c r="K212" s="42"/>
+      <c r="L212" s="42"/>
     </row>
     <row r="213">
-      <c r="G213" s="44"/>
+      <c r="G213" s="43"/>
       <c r="H213" s="23"/>
-      <c r="K213" s="43"/>
-      <c r="L213" s="43"/>
+      <c r="K213" s="42"/>
+      <c r="L213" s="42"/>
     </row>
     <row r="214">
-      <c r="G214" s="44"/>
+      <c r="G214" s="43"/>
       <c r="H214" s="23"/>
-      <c r="K214" s="43"/>
-      <c r="L214" s="43"/>
+      <c r="K214" s="42"/>
+      <c r="L214" s="42"/>
     </row>
     <row r="215">
-      <c r="G215" s="44"/>
+      <c r="G215" s="43"/>
       <c r="H215" s="23"/>
-      <c r="K215" s="43"/>
-      <c r="L215" s="43"/>
+      <c r="K215" s="42"/>
+      <c r="L215" s="42"/>
     </row>
     <row r="216">
-      <c r="G216" s="44"/>
+      <c r="G216" s="43"/>
       <c r="H216" s="23"/>
-      <c r="K216" s="43"/>
-      <c r="L216" s="43"/>
+      <c r="K216" s="42"/>
+      <c r="L216" s="42"/>
     </row>
     <row r="217">
-      <c r="G217" s="44"/>
+      <c r="G217" s="43"/>
       <c r="H217" s="23"/>
-      <c r="K217" s="43"/>
-      <c r="L217" s="43"/>
+      <c r="K217" s="42"/>
+      <c r="L217" s="42"/>
     </row>
     <row r="218">
-      <c r="G218" s="44"/>
+      <c r="G218" s="43"/>
       <c r="H218" s="23"/>
-      <c r="K218" s="43"/>
-      <c r="L218" s="43"/>
+      <c r="K218" s="42"/>
+      <c r="L218" s="42"/>
     </row>
     <row r="219">
-      <c r="G219" s="44"/>
+      <c r="G219" s="43"/>
       <c r="H219" s="23"/>
-      <c r="K219" s="43"/>
-      <c r="L219" s="43"/>
+      <c r="K219" s="42"/>
+      <c r="L219" s="42"/>
     </row>
     <row r="220">
-      <c r="G220" s="44"/>
+      <c r="G220" s="43"/>
       <c r="H220" s="23"/>
-      <c r="K220" s="43"/>
-      <c r="L220" s="43"/>
+      <c r="K220" s="42"/>
+      <c r="L220" s="42"/>
     </row>
     <row r="221">
-      <c r="G221" s="44"/>
+      <c r="G221" s="43"/>
       <c r="H221" s="23"/>
-      <c r="K221" s="43"/>
-      <c r="L221" s="43"/>
+      <c r="K221" s="42"/>
+      <c r="L221" s="42"/>
     </row>
     <row r="222">
-      <c r="G222" s="44"/>
+      <c r="G222" s="43"/>
       <c r="H222" s="23"/>
-      <c r="K222" s="43"/>
-      <c r="L222" s="43"/>
+      <c r="K222" s="42"/>
+      <c r="L222" s="42"/>
     </row>
     <row r="223">
-      <c r="G223" s="44"/>
+      <c r="G223" s="43"/>
       <c r="H223" s="23"/>
-      <c r="K223" s="43"/>
-      <c r="L223" s="43"/>
+      <c r="K223" s="42"/>
+      <c r="L223" s="42"/>
     </row>
     <row r="224">
-      <c r="G224" s="44"/>
+      <c r="G224" s="43"/>
       <c r="H224" s="23"/>
-      <c r="K224" s="43"/>
-      <c r="L224" s="43"/>
+      <c r="K224" s="42"/>
+      <c r="L224" s="42"/>
     </row>
     <row r="225">
-      <c r="G225" s="44"/>
+      <c r="G225" s="43"/>
       <c r="H225" s="23"/>
-      <c r="K225" s="43"/>
-      <c r="L225" s="43"/>
+      <c r="K225" s="42"/>
+      <c r="L225" s="42"/>
     </row>
     <row r="226">
-      <c r="G226" s="44"/>
+      <c r="G226" s="43"/>
       <c r="H226" s="23"/>
-      <c r="K226" s="43"/>
-      <c r="L226" s="43"/>
+      <c r="K226" s="42"/>
+      <c r="L226" s="42"/>
     </row>
     <row r="227">
-      <c r="G227" s="44"/>
+      <c r="G227" s="43"/>
       <c r="H227" s="23"/>
-      <c r="K227" s="43"/>
-      <c r="L227" s="43"/>
+      <c r="K227" s="42"/>
+      <c r="L227" s="42"/>
     </row>
     <row r="228">
-      <c r="G228" s="44"/>
+      <c r="G228" s="43"/>
       <c r="H228" s="23"/>
-      <c r="K228" s="43"/>
-      <c r="L228" s="43"/>
+      <c r="K228" s="42"/>
+      <c r="L228" s="42"/>
     </row>
     <row r="229">
-      <c r="G229" s="44"/>
+      <c r="G229" s="43"/>
       <c r="H229" s="23"/>
-      <c r="K229" s="43"/>
-      <c r="L229" s="43"/>
+      <c r="K229" s="42"/>
+      <c r="L229" s="42"/>
     </row>
     <row r="230">
-      <c r="G230" s="44"/>
+      <c r="G230" s="43"/>
       <c r="H230" s="23"/>
-      <c r="K230" s="43"/>
-      <c r="L230" s="43"/>
+      <c r="K230" s="42"/>
+      <c r="L230" s="42"/>
     </row>
     <row r="231">
-      <c r="G231" s="44"/>
+      <c r="G231" s="43"/>
       <c r="H231" s="23"/>
-      <c r="K231" s="43"/>
-      <c r="L231" s="43"/>
+      <c r="K231" s="42"/>
+      <c r="L231" s="42"/>
     </row>
     <row r="232">
-      <c r="G232" s="44"/>
+      <c r="G232" s="43"/>
       <c r="H232" s="23"/>
-      <c r="K232" s="43"/>
-      <c r="L232" s="43"/>
+      <c r="K232" s="42"/>
+      <c r="L232" s="42"/>
     </row>
     <row r="233">
-      <c r="G233" s="44"/>
+      <c r="G233" s="43"/>
       <c r="H233" s="23"/>
-      <c r="K233" s="43"/>
-      <c r="L233" s="43"/>
+      <c r="K233" s="42"/>
+      <c r="L233" s="42"/>
     </row>
     <row r="234">
-      <c r="G234" s="44"/>
+      <c r="G234" s="43"/>
       <c r="H234" s="23"/>
-      <c r="K234" s="43"/>
-      <c r="L234" s="43"/>
+      <c r="K234" s="42"/>
+      <c r="L234" s="42"/>
     </row>
     <row r="235">
-      <c r="G235" s="44"/>
+      <c r="G235" s="43"/>
       <c r="H235" s="23"/>
-      <c r="K235" s="43"/>
-      <c r="L235" s="43"/>
+      <c r="K235" s="42"/>
+      <c r="L235" s="42"/>
     </row>
     <row r="236">
-      <c r="G236" s="44"/>
+      <c r="G236" s="43"/>
       <c r="H236" s="23"/>
-      <c r="K236" s="43"/>
-      <c r="L236" s="43"/>
+      <c r="K236" s="42"/>
+      <c r="L236" s="42"/>
     </row>
     <row r="237">
-      <c r="G237" s="44"/>
+      <c r="G237" s="43"/>
       <c r="H237" s="23"/>
-      <c r="K237" s="43"/>
-      <c r="L237" s="43"/>
+      <c r="K237" s="42"/>
+      <c r="L237" s="42"/>
     </row>
     <row r="238">
-      <c r="G238" s="44"/>
+      <c r="G238" s="43"/>
       <c r="H238" s="23"/>
-      <c r="K238" s="43"/>
-      <c r="L238" s="43"/>
+      <c r="K238" s="42"/>
+      <c r="L238" s="42"/>
     </row>
     <row r="239">
-      <c r="G239" s="44"/>
+      <c r="G239" s="43"/>
       <c r="H239" s="23"/>
-      <c r="K239" s="43"/>
-      <c r="L239" s="43"/>
+      <c r="K239" s="42"/>
+      <c r="L239" s="42"/>
     </row>
     <row r="240">
-      <c r="G240" s="44"/>
+      <c r="G240" s="43"/>
       <c r="H240" s="23"/>
-      <c r="K240" s="43"/>
-      <c r="L240" s="43"/>
+      <c r="K240" s="42"/>
+      <c r="L240" s="42"/>
     </row>
     <row r="241">
-      <c r="G241" s="44"/>
+      <c r="G241" s="43"/>
       <c r="H241" s="23"/>
-      <c r="K241" s="43"/>
-      <c r="L241" s="43"/>
+      <c r="K241" s="42"/>
+      <c r="L241" s="42"/>
     </row>
     <row r="242">
-      <c r="G242" s="44"/>
+      <c r="G242" s="43"/>
       <c r="H242" s="23"/>
-      <c r="K242" s="43"/>
-      <c r="L242" s="43"/>
+      <c r="K242" s="42"/>
+      <c r="L242" s="42"/>
     </row>
     <row r="243">
-      <c r="G243" s="44"/>
+      <c r="G243" s="43"/>
       <c r="H243" s="23"/>
-      <c r="K243" s="43"/>
-      <c r="L243" s="43"/>
+      <c r="K243" s="42"/>
+      <c r="L243" s="42"/>
     </row>
     <row r="244">
-      <c r="G244" s="44"/>
+      <c r="G244" s="43"/>
       <c r="H244" s="23"/>
-      <c r="K244" s="43"/>
-      <c r="L244" s="43"/>
+      <c r="K244" s="42"/>
+      <c r="L244" s="42"/>
     </row>
     <row r="245">
-      <c r="G245" s="44"/>
+      <c r="G245" s="43"/>
       <c r="H245" s="23"/>
-      <c r="K245" s="43"/>
-      <c r="L245" s="43"/>
+      <c r="K245" s="42"/>
+      <c r="L245" s="42"/>
     </row>
     <row r="246">
-      <c r="G246" s="44"/>
+      <c r="G246" s="43"/>
       <c r="H246" s="23"/>
-      <c r="K246" s="43"/>
-      <c r="L246" s="43"/>
+      <c r="K246" s="42"/>
+      <c r="L246" s="42"/>
     </row>
     <row r="247">
-      <c r="G247" s="44"/>
+      <c r="G247" s="43"/>
       <c r="H247" s="23"/>
-      <c r="K247" s="43"/>
-      <c r="L247" s="43"/>
+      <c r="K247" s="42"/>
+      <c r="L247" s="42"/>
     </row>
     <row r="248">
-      <c r="G248" s="44"/>
+      <c r="G248" s="43"/>
       <c r="H248" s="23"/>
-      <c r="K248" s="43"/>
-      <c r="L248" s="43"/>
+      <c r="K248" s="42"/>
+      <c r="L248" s="42"/>
     </row>
     <row r="249">
-      <c r="G249" s="44"/>
+      <c r="G249" s="43"/>
       <c r="H249" s="23"/>
-      <c r="K249" s="43"/>
-      <c r="L249" s="43"/>
+      <c r="K249" s="42"/>
+      <c r="L249" s="42"/>
     </row>
     <row r="250">
-      <c r="G250" s="44"/>
+      <c r="G250" s="43"/>
       <c r="H250" s="23"/>
-      <c r="K250" s="43"/>
-      <c r="L250" s="43"/>
+      <c r="K250" s="42"/>
+      <c r="L250" s="42"/>
     </row>
     <row r="251">
-      <c r="G251" s="44"/>
+      <c r="G251" s="43"/>
       <c r="H251" s="23"/>
-      <c r="K251" s="43"/>
-      <c r="L251" s="43"/>
+      <c r="K251" s="42"/>
+      <c r="L251" s="42"/>
     </row>
     <row r="252">
-      <c r="G252" s="44"/>
+      <c r="G252" s="43"/>
       <c r="H252" s="23"/>
-      <c r="K252" s="43"/>
-      <c r="L252" s="43"/>
+      <c r="K252" s="42"/>
+      <c r="L252" s="42"/>
     </row>
     <row r="253">
-      <c r="G253" s="44"/>
+      <c r="G253" s="43"/>
       <c r="H253" s="23"/>
-      <c r="K253" s="43"/>
-      <c r="L253" s="43"/>
+      <c r="K253" s="42"/>
+      <c r="L253" s="42"/>
     </row>
     <row r="254">
-      <c r="G254" s="44"/>
+      <c r="G254" s="43"/>
       <c r="H254" s="23"/>
-      <c r="K254" s="43"/>
-      <c r="L254" s="43"/>
+      <c r="K254" s="42"/>
+      <c r="L254" s="42"/>
     </row>
     <row r="255">
-      <c r="G255" s="44"/>
+      <c r="G255" s="43"/>
       <c r="H255" s="23"/>
-      <c r="K255" s="43"/>
-      <c r="L255" s="43"/>
+      <c r="K255" s="42"/>
+      <c r="L255" s="42"/>
     </row>
     <row r="256">
-      <c r="G256" s="44"/>
+      <c r="G256" s="43"/>
       <c r="H256" s="23"/>
-      <c r="K256" s="43"/>
-      <c r="L256" s="43"/>
+      <c r="K256" s="42"/>
+      <c r="L256" s="42"/>
     </row>
     <row r="257">
-      <c r="G257" s="44"/>
+      <c r="G257" s="43"/>
       <c r="H257" s="23"/>
-      <c r="K257" s="43"/>
-      <c r="L257" s="43"/>
+      <c r="K257" s="42"/>
+      <c r="L257" s="42"/>
     </row>
     <row r="258">
-      <c r="G258" s="44"/>
+      <c r="G258" s="43"/>
       <c r="H258" s="23"/>
-      <c r="K258" s="43"/>
-      <c r="L258" s="43"/>
+      <c r="K258" s="42"/>
+      <c r="L258" s="42"/>
     </row>
     <row r="259">
-      <c r="G259" s="44"/>
+      <c r="G259" s="43"/>
       <c r="H259" s="23"/>
-      <c r="K259" s="43"/>
-      <c r="L259" s="43"/>
+      <c r="K259" s="42"/>
+      <c r="L259" s="42"/>
     </row>
     <row r="260">
-      <c r="G260" s="44"/>
+      <c r="G260" s="43"/>
       <c r="H260" s="23"/>
-      <c r="K260" s="43"/>
-      <c r="L260" s="43"/>
+      <c r="K260" s="42"/>
+      <c r="L260" s="42"/>
     </row>
     <row r="261">
-      <c r="G261" s="44"/>
+      <c r="G261" s="43"/>
       <c r="H261" s="23"/>
-      <c r="K261" s="43"/>
-      <c r="L261" s="43"/>
+      <c r="K261" s="42"/>
+      <c r="L261" s="42"/>
     </row>
     <row r="262">
-      <c r="G262" s="44"/>
+      <c r="G262" s="43"/>
       <c r="H262" s="23"/>
-      <c r="K262" s="43"/>
-      <c r="L262" s="43"/>
+      <c r="K262" s="42"/>
+      <c r="L262" s="42"/>
     </row>
     <row r="263">
-      <c r="G263" s="44"/>
+      <c r="G263" s="43"/>
       <c r="H263" s="23"/>
-      <c r="K263" s="43"/>
-      <c r="L263" s="43"/>
+      <c r="K263" s="42"/>
+      <c r="L263" s="42"/>
     </row>
     <row r="264">
-      <c r="G264" s="44"/>
+      <c r="G264" s="43"/>
       <c r="H264" s="23"/>
-      <c r="K264" s="43"/>
-      <c r="L264" s="43"/>
+      <c r="K264" s="42"/>
+      <c r="L264" s="42"/>
     </row>
     <row r="265">
-      <c r="G265" s="44"/>
+      <c r="G265" s="43"/>
       <c r="H265" s="23"/>
-      <c r="K265" s="43"/>
-      <c r="L265" s="43"/>
+      <c r="K265" s="42"/>
+      <c r="L265" s="42"/>
     </row>
     <row r="266">
-      <c r="G266" s="44"/>
+      <c r="G266" s="43"/>
       <c r="H266" s="23"/>
-      <c r="K266" s="43"/>
-      <c r="L266" s="43"/>
+      <c r="K266" s="42"/>
+      <c r="L266" s="42"/>
     </row>
     <row r="267">
-      <c r="G267" s="44"/>
+      <c r="G267" s="43"/>
       <c r="H267" s="23"/>
-      <c r="K267" s="43"/>
-      <c r="L267" s="43"/>
+      <c r="K267" s="42"/>
+      <c r="L267" s="42"/>
     </row>
     <row r="268">
-      <c r="G268" s="44"/>
+      <c r="G268" s="43"/>
       <c r="H268" s="23"/>
-      <c r="K268" s="43"/>
-      <c r="L268" s="43"/>
+      <c r="K268" s="42"/>
+      <c r="L268" s="42"/>
     </row>
     <row r="269">
-      <c r="G269" s="44"/>
+      <c r="G269" s="43"/>
       <c r="H269" s="23"/>
-      <c r="K269" s="43"/>
-      <c r="L269" s="43"/>
+      <c r="K269" s="42"/>
+      <c r="L269" s="42"/>
     </row>
     <row r="270">
-      <c r="G270" s="44"/>
+      <c r="G270" s="43"/>
       <c r="H270" s="23"/>
-      <c r="K270" s="43"/>
-      <c r="L270" s="43"/>
+      <c r="K270" s="42"/>
+      <c r="L270" s="42"/>
     </row>
     <row r="271">
-      <c r="G271" s="44"/>
+      <c r="G271" s="43"/>
       <c r="H271" s="23"/>
-      <c r="K271" s="43"/>
-      <c r="L271" s="43"/>
+      <c r="K271" s="42"/>
+      <c r="L271" s="42"/>
     </row>
     <row r="272">
-      <c r="G272" s="44"/>
+      <c r="G272" s="43"/>
       <c r="H272" s="23"/>
-      <c r="K272" s="43"/>
-      <c r="L272" s="43"/>
+      <c r="K272" s="42"/>
+      <c r="L272" s="42"/>
     </row>
     <row r="273">
-      <c r="G273" s="44"/>
+      <c r="G273" s="43"/>
       <c r="H273" s="23"/>
-      <c r="K273" s="43"/>
-      <c r="L273" s="43"/>
+      <c r="K273" s="42"/>
+      <c r="L273" s="42"/>
     </row>
     <row r="274">
-      <c r="G274" s="44"/>
+      <c r="G274" s="43"/>
       <c r="H274" s="23"/>
-      <c r="K274" s="43"/>
-      <c r="L274" s="43"/>
+      <c r="K274" s="42"/>
+      <c r="L274" s="42"/>
     </row>
     <row r="275">
-      <c r="G275" s="44"/>
+      <c r="G275" s="43"/>
       <c r="H275" s="23"/>
-      <c r="K275" s="43"/>
-      <c r="L275" s="43"/>
+      <c r="K275" s="42"/>
+      <c r="L275" s="42"/>
     </row>
     <row r="276">
-      <c r="G276" s="44"/>
+      <c r="G276" s="43"/>
       <c r="H276" s="23"/>
-      <c r="K276" s="43"/>
-      <c r="L276" s="43"/>
+      <c r="K276" s="42"/>
+      <c r="L276" s="42"/>
     </row>
     <row r="277">
-      <c r="G277" s="44"/>
+      <c r="G277" s="43"/>
       <c r="H277" s="23"/>
-      <c r="K277" s="43"/>
-      <c r="L277" s="43"/>
+      <c r="K277" s="42"/>
+      <c r="L277" s="42"/>
     </row>
     <row r="278">
-      <c r="G278" s="44"/>
+      <c r="G278" s="43"/>
       <c r="H278" s="23"/>
-      <c r="K278" s="43"/>
-      <c r="L278" s="43"/>
+      <c r="K278" s="42"/>
+      <c r="L278" s="42"/>
     </row>
     <row r="279">
-      <c r="G279" s="44"/>
+      <c r="G279" s="43"/>
       <c r="H279" s="23"/>
-      <c r="K279" s="43"/>
-      <c r="L279" s="43"/>
+      <c r="K279" s="42"/>
+      <c r="L279" s="42"/>
     </row>
     <row r="280">
-      <c r="G280" s="44"/>
+      <c r="G280" s="43"/>
       <c r="H280" s="23"/>
-      <c r="K280" s="43"/>
-      <c r="L280" s="43"/>
+      <c r="K280" s="42"/>
+      <c r="L280" s="42"/>
     </row>
     <row r="281">
-      <c r="G281" s="44"/>
+      <c r="G281" s="43"/>
       <c r="H281" s="23"/>
-      <c r="K281" s="43"/>
-      <c r="L281" s="43"/>
+      <c r="K281" s="42"/>
+      <c r="L281" s="42"/>
     </row>
     <row r="282">
-      <c r="G282" s="44"/>
+      <c r="G282" s="43"/>
       <c r="H282" s="23"/>
-      <c r="K282" s="43"/>
-      <c r="L282" s="43"/>
+      <c r="K282" s="42"/>
+      <c r="L282" s="42"/>
     </row>
     <row r="283">
-      <c r="G283" s="44"/>
+      <c r="G283" s="43"/>
       <c r="H283" s="23"/>
-      <c r="K283" s="43"/>
-      <c r="L283" s="43"/>
+      <c r="K283" s="42"/>
+      <c r="L283" s="42"/>
     </row>
     <row r="284">
-      <c r="G284" s="44"/>
+      <c r="G284" s="43"/>
       <c r="H284" s="23"/>
-      <c r="K284" s="43"/>
-      <c r="L284" s="43"/>
+      <c r="K284" s="42"/>
+      <c r="L284" s="42"/>
     </row>
     <row r="285">
-      <c r="G285" s="44"/>
+      <c r="G285" s="43"/>
       <c r="H285" s="23"/>
-      <c r="K285" s="43"/>
-      <c r="L285" s="43"/>
+      <c r="K285" s="42"/>
+      <c r="L285" s="42"/>
     </row>
     <row r="286">
-      <c r="G286" s="44"/>
+      <c r="G286" s="43"/>
       <c r="H286" s="23"/>
-      <c r="K286" s="43"/>
-      <c r="L286" s="43"/>
+      <c r="K286" s="42"/>
+      <c r="L286" s="42"/>
     </row>
     <row r="287">
-      <c r="G287" s="44"/>
+      <c r="G287" s="43"/>
       <c r="H287" s="23"/>
-      <c r="K287" s="43"/>
-      <c r="L287" s="43"/>
+      <c r="K287" s="42"/>
+      <c r="L287" s="42"/>
     </row>
     <row r="288">
-      <c r="G288" s="44"/>
+      <c r="G288" s="43"/>
       <c r="H288" s="23"/>
-      <c r="K288" s="43"/>
-      <c r="L288" s="43"/>
+      <c r="K288" s="42"/>
+      <c r="L288" s="42"/>
     </row>
     <row r="289">
-      <c r="G289" s="44"/>
+      <c r="G289" s="43"/>
       <c r="H289" s="23"/>
-      <c r="K289" s="43"/>
-      <c r="L289" s="43"/>
+      <c r="K289" s="42"/>
+      <c r="L289" s="42"/>
     </row>
     <row r="290">
-      <c r="G290" s="44"/>
+      <c r="G290" s="43"/>
       <c r="H290" s="23"/>
-      <c r="K290" s="43"/>
-      <c r="L290" s="43"/>
+      <c r="K290" s="42"/>
+      <c r="L290" s="42"/>
     </row>
     <row r="291">
-      <c r="G291" s="44"/>
+      <c r="G291" s="43"/>
       <c r="H291" s="23"/>
-      <c r="K291" s="43"/>
-      <c r="L291" s="43"/>
+      <c r="K291" s="42"/>
+      <c r="L291" s="42"/>
     </row>
     <row r="292">
-      <c r="G292" s="44"/>
+      <c r="G292" s="43"/>
       <c r="H292" s="23"/>
-      <c r="K292" s="43"/>
-      <c r="L292" s="43"/>
+      <c r="K292" s="42"/>
+      <c r="L292" s="42"/>
     </row>
     <row r="293">
-      <c r="G293" s="44"/>
+      <c r="G293" s="43"/>
       <c r="H293" s="23"/>
-      <c r="K293" s="43"/>
-      <c r="L293" s="43"/>
+      <c r="K293" s="42"/>
+      <c r="L293" s="42"/>
     </row>
     <row r="294">
-      <c r="G294" s="44"/>
+      <c r="G294" s="43"/>
       <c r="H294" s="23"/>
-      <c r="K294" s="43"/>
-      <c r="L294" s="43"/>
+      <c r="K294" s="42"/>
+      <c r="L294" s="42"/>
     </row>
     <row r="295">
-      <c r="G295" s="44"/>
+      <c r="G295" s="43"/>
       <c r="H295" s="23"/>
-      <c r="K295" s="43"/>
-      <c r="L295" s="43"/>
+      <c r="K295" s="42"/>
+      <c r="L295" s="42"/>
     </row>
     <row r="296">
-      <c r="G296" s="44"/>
+      <c r="G296" s="43"/>
       <c r="H296" s="23"/>
-      <c r="K296" s="43"/>
-      <c r="L296" s="43"/>
+      <c r="K296" s="42"/>
+      <c r="L296" s="42"/>
     </row>
     <row r="297">
-      <c r="G297" s="44"/>
+      <c r="G297" s="43"/>
       <c r="H297" s="23"/>
-      <c r="K297" s="43"/>
-      <c r="L297" s="43"/>
+      <c r="K297" s="42"/>
+      <c r="L297" s="42"/>
     </row>
     <row r="298">
-      <c r="G298" s="44"/>
+      <c r="G298" s="43"/>
       <c r="H298" s="23"/>
-      <c r="K298" s="43"/>
-      <c r="L298" s="43"/>
+      <c r="K298" s="42"/>
+      <c r="L298" s="42"/>
     </row>
     <row r="299">
-      <c r="G299" s="44"/>
+      <c r="G299" s="43"/>
       <c r="H299" s="23"/>
-      <c r="K299" s="43"/>
-      <c r="L299" s="43"/>
+      <c r="K299" s="42"/>
+      <c r="L299" s="42"/>
     </row>
     <row r="300">
-      <c r="G300" s="44"/>
+      <c r="G300" s="43"/>
       <c r="H300" s="23"/>
-      <c r="K300" s="43"/>
-      <c r="L300" s="43"/>
+      <c r="K300" s="42"/>
+      <c r="L300" s="42"/>
     </row>
     <row r="301">
-      <c r="G301" s="44"/>
+      <c r="G301" s="43"/>
       <c r="H301" s="23"/>
-      <c r="K301" s="43"/>
-      <c r="L301" s="43"/>
+      <c r="K301" s="42"/>
+      <c r="L301" s="42"/>
     </row>
     <row r="302">
-      <c r="G302" s="44"/>
+      <c r="G302" s="43"/>
       <c r="H302" s="23"/>
-      <c r="K302" s="43"/>
-      <c r="L302" s="43"/>
+      <c r="K302" s="42"/>
+      <c r="L302" s="42"/>
     </row>
     <row r="303">
-      <c r="G303" s="44"/>
+      <c r="G303" s="43"/>
       <c r="H303" s="23"/>
-      <c r="K303" s="43"/>
-      <c r="L303" s="43"/>
+      <c r="K303" s="42"/>
+      <c r="L303" s="42"/>
     </row>
     <row r="304">
-      <c r="G304" s="44"/>
+      <c r="G304" s="43"/>
       <c r="H304" s="23"/>
-      <c r="K304" s="43"/>
-      <c r="L304" s="43"/>
+      <c r="K304" s="42"/>
+      <c r="L304" s="42"/>
     </row>
     <row r="305">
-      <c r="G305" s="44"/>
+      <c r="G305" s="43"/>
       <c r="H305" s="23"/>
-      <c r="K305" s="43"/>
-      <c r="L305" s="43"/>
+      <c r="K305" s="42"/>
+      <c r="L305" s="42"/>
     </row>
     <row r="306">
-      <c r="G306" s="44"/>
+      <c r="G306" s="43"/>
       <c r="H306" s="23"/>
-      <c r="K306" s="43"/>
-      <c r="L306" s="43"/>
+      <c r="K306" s="42"/>
+      <c r="L306" s="42"/>
     </row>
     <row r="307">
-      <c r="G307" s="44"/>
+      <c r="G307" s="43"/>
       <c r="H307" s="23"/>
-      <c r="K307" s="43"/>
-      <c r="L307" s="43"/>
+      <c r="K307" s="42"/>
+      <c r="L307" s="42"/>
     </row>
     <row r="308">
-      <c r="G308" s="44"/>
+      <c r="G308" s="43"/>
       <c r="H308" s="23"/>
-      <c r="K308" s="43"/>
-      <c r="L308" s="43"/>
+      <c r="K308" s="42"/>
+      <c r="L308" s="42"/>
     </row>
     <row r="309">
-      <c r="G309" s="44"/>
+      <c r="G309" s="43"/>
       <c r="H309" s="23"/>
-      <c r="K309" s="43"/>
-      <c r="L309" s="43"/>
+      <c r="K309" s="42"/>
+      <c r="L309" s="42"/>
     </row>
     <row r="310">
-      <c r="G310" s="44"/>
+      <c r="G310" s="43"/>
       <c r="H310" s="23"/>
-      <c r="K310" s="43"/>
-      <c r="L310" s="43"/>
+      <c r="K310" s="42"/>
+      <c r="L310" s="42"/>
     </row>
     <row r="311">
-      <c r="G311" s="44"/>
+      <c r="G311" s="43"/>
       <c r="H311" s="23"/>
-      <c r="K311" s="43"/>
-      <c r="L311" s="43"/>
+      <c r="K311" s="42"/>
+      <c r="L311" s="42"/>
     </row>
     <row r="312">
-      <c r="G312" s="44"/>
+      <c r="G312" s="43"/>
       <c r="H312" s="23"/>
-      <c r="K312" s="43"/>
-      <c r="L312" s="43"/>
+      <c r="K312" s="42"/>
+      <c r="L312" s="42"/>
     </row>
     <row r="313">
-      <c r="G313" s="44"/>
+      <c r="G313" s="43"/>
       <c r="H313" s="23"/>
-      <c r="K313" s="43"/>
-      <c r="L313" s="43"/>
+      <c r="K313" s="42"/>
+      <c r="L313" s="42"/>
     </row>
     <row r="314">
-      <c r="G314" s="44"/>
+      <c r="G314" s="43"/>
       <c r="H314" s="23"/>
-      <c r="K314" s="43"/>
-      <c r="L314" s="43"/>
+      <c r="K314" s="42"/>
+      <c r="L314" s="42"/>
     </row>
     <row r="315">
-      <c r="G315" s="44"/>
+      <c r="G315" s="43"/>
       <c r="H315" s="23"/>
-      <c r="K315" s="43"/>
-      <c r="L315" s="43"/>
+      <c r="K315" s="42"/>
+      <c r="L315" s="42"/>
     </row>
     <row r="316">
-      <c r="G316" s="44"/>
+      <c r="G316" s="43"/>
       <c r="H316" s="23"/>
-      <c r="K316" s="43"/>
-      <c r="L316" s="43"/>
+      <c r="K316" s="42"/>
+      <c r="L316" s="42"/>
     </row>
     <row r="317">
-      <c r="G317" s="44"/>
+      <c r="G317" s="43"/>
       <c r="H317" s="23"/>
-      <c r="K317" s="43"/>
-      <c r="L317" s="43"/>
+      <c r="K317" s="42"/>
+      <c r="L317" s="42"/>
     </row>
     <row r="318">
-      <c r="G318" s="44"/>
+      <c r="G318" s="43"/>
       <c r="H318" s="23"/>
-      <c r="K318" s="43"/>
-      <c r="L318" s="43"/>
+      <c r="K318" s="42"/>
+      <c r="L318" s="42"/>
     </row>
     <row r="319">
-      <c r="G319" s="44"/>
+      <c r="G319" s="43"/>
       <c r="H319" s="23"/>
-      <c r="K319" s="43"/>
-      <c r="L319" s="43"/>
+      <c r="K319" s="42"/>
+      <c r="L319" s="42"/>
     </row>
     <row r="320">
-      <c r="G320" s="44"/>
+      <c r="G320" s="43"/>
       <c r="H320" s="23"/>
-      <c r="K320" s="43"/>
-      <c r="L320" s="43"/>
+      <c r="K320" s="42"/>
+      <c r="L320" s="42"/>
     </row>
     <row r="321">
-      <c r="G321" s="44"/>
+      <c r="G321" s="43"/>
       <c r="H321" s="23"/>
-      <c r="K321" s="43"/>
-      <c r="L321" s="43"/>
+      <c r="K321" s="42"/>
+      <c r="L321" s="42"/>
     </row>
     <row r="322">
-      <c r="G322" s="44"/>
+      <c r="G322" s="43"/>
       <c r="H322" s="23"/>
-      <c r="K322" s="43"/>
-      <c r="L322" s="43"/>
+      <c r="K322" s="42"/>
+      <c r="L322" s="42"/>
     </row>
     <row r="323">
-      <c r="G323" s="44"/>
+      <c r="G323" s="43"/>
       <c r="H323" s="23"/>
-      <c r="K323" s="43"/>
-      <c r="L323" s="43"/>
+      <c r="K323" s="42"/>
+      <c r="L323" s="42"/>
     </row>
     <row r="324">
-      <c r="G324" s="44"/>
+      <c r="G324" s="43"/>
       <c r="H324" s="23"/>
-      <c r="K324" s="43"/>
-      <c r="L324" s="43"/>
+      <c r="K324" s="42"/>
+      <c r="L324" s="42"/>
     </row>
     <row r="325">
-      <c r="G325" s="44"/>
+      <c r="G325" s="43"/>
       <c r="H325" s="23"/>
-      <c r="K325" s="43"/>
-      <c r="L325" s="43"/>
+      <c r="K325" s="42"/>
+      <c r="L325" s="42"/>
     </row>
     <row r="326">
-      <c r="G326" s="44"/>
+      <c r="G326" s="43"/>
       <c r="H326" s="23"/>
-      <c r="K326" s="43"/>
-      <c r="L326" s="43"/>
+      <c r="K326" s="42"/>
+      <c r="L326" s="42"/>
     </row>
     <row r="327">
-      <c r="G327" s="44"/>
+      <c r="G327" s="43"/>
       <c r="H327" s="23"/>
-      <c r="K327" s="43"/>
-      <c r="L327" s="43"/>
+      <c r="K327" s="42"/>
+      <c r="L327" s="42"/>
     </row>
     <row r="328">
-      <c r="G328" s="44"/>
+      <c r="G328" s="43"/>
       <c r="H328" s="23"/>
-      <c r="K328" s="43"/>
-      <c r="L328" s="43"/>
+      <c r="K328" s="42"/>
+      <c r="L328" s="42"/>
     </row>
     <row r="329">
-      <c r="G329" s="44"/>
+      <c r="G329" s="43"/>
       <c r="H329" s="23"/>
-      <c r="K329" s="43"/>
-      <c r="L329" s="43"/>
+      <c r="K329" s="42"/>
+      <c r="L329" s="42"/>
     </row>
     <row r="330">
-      <c r="G330" s="44"/>
+      <c r="G330" s="43"/>
       <c r="H330" s="23"/>
-      <c r="K330" s="43"/>
-      <c r="L330" s="43"/>
+      <c r="K330" s="42"/>
+      <c r="L330" s="42"/>
     </row>
     <row r="331">
-      <c r="G331" s="44"/>
+      <c r="G331" s="43"/>
       <c r="H331" s="23"/>
-      <c r="K331" s="43"/>
-      <c r="L331" s="43"/>
+      <c r="K331" s="42"/>
+      <c r="L331" s="42"/>
     </row>
     <row r="332">
-      <c r="G332" s="44"/>
+      <c r="G332" s="43"/>
       <c r="H332" s="23"/>
-      <c r="K332" s="43"/>
-      <c r="L332" s="43"/>
+      <c r="K332" s="42"/>
+      <c r="L332" s="42"/>
     </row>
     <row r="333">
-      <c r="G333" s="44"/>
+      <c r="G333" s="43"/>
       <c r="H333" s="23"/>
-      <c r="K333" s="43"/>
-      <c r="L333" s="43"/>
+      <c r="K333" s="42"/>
+      <c r="L333" s="42"/>
     </row>
     <row r="334">
-      <c r="G334" s="44"/>
+      <c r="G334" s="43"/>
       <c r="H334" s="23"/>
-      <c r="K334" s="43"/>
-      <c r="L334" s="43"/>
+      <c r="K334" s="42"/>
+      <c r="L334" s="42"/>
     </row>
     <row r="335">
-      <c r="G335" s="44"/>
+      <c r="G335" s="43"/>
       <c r="H335" s="23"/>
-      <c r="K335" s="43"/>
-      <c r="L335" s="43"/>
+      <c r="K335" s="42"/>
+      <c r="L335" s="42"/>
     </row>
     <row r="336">
-      <c r="G336" s="44"/>
+      <c r="G336" s="43"/>
       <c r="H336" s="23"/>
-      <c r="K336" s="43"/>
-      <c r="L336" s="43"/>
+      <c r="K336" s="42"/>
+      <c r="L336" s="42"/>
     </row>
     <row r="337">
-      <c r="G337" s="44"/>
+      <c r="G337" s="43"/>
       <c r="H337" s="23"/>
-      <c r="K337" s="43"/>
-      <c r="L337" s="43"/>
+      <c r="K337" s="42"/>
+      <c r="L337" s="42"/>
     </row>
     <row r="338">
-      <c r="G338" s="44"/>
+      <c r="G338" s="43"/>
       <c r="H338" s="23"/>
-      <c r="K338" s="43"/>
-      <c r="L338" s="43"/>
+      <c r="K338" s="42"/>
+      <c r="L338" s="42"/>
     </row>
     <row r="339">
-      <c r="G339" s="44"/>
+      <c r="G339" s="43"/>
       <c r="H339" s="23"/>
-      <c r="K339" s="43"/>
-      <c r="L339" s="43"/>
+      <c r="K339" s="42"/>
+      <c r="L339" s="42"/>
     </row>
     <row r="340">
-      <c r="G340" s="44"/>
+      <c r="G340" s="43"/>
       <c r="H340" s="23"/>
-      <c r="K340" s="43"/>
-      <c r="L340" s="43"/>
+      <c r="K340" s="42"/>
+      <c r="L340" s="42"/>
     </row>
     <row r="341">
-      <c r="G341" s="44"/>
+      <c r="G341" s="43"/>
       <c r="H341" s="23"/>
-      <c r="K341" s="43"/>
-      <c r="L341" s="43"/>
+      <c r="K341" s="42"/>
+      <c r="L341" s="42"/>
     </row>
     <row r="342">
-      <c r="G342" s="44"/>
+      <c r="G342" s="43"/>
       <c r="H342" s="23"/>
-      <c r="K342" s="43"/>
-      <c r="L342" s="43"/>
+      <c r="K342" s="42"/>
+      <c r="L342" s="42"/>
     </row>
     <row r="343">
-      <c r="G343" s="44"/>
+      <c r="G343" s="43"/>
       <c r="H343" s="23"/>
-      <c r="K343" s="43"/>
-      <c r="L343" s="43"/>
+      <c r="K343" s="42"/>
+      <c r="L343" s="42"/>
     </row>
     <row r="344">
-      <c r="G344" s="44"/>
+      <c r="G344" s="43"/>
       <c r="H344" s="23"/>
-      <c r="K344" s="43"/>
-      <c r="L344" s="43"/>
+      <c r="K344" s="42"/>
+      <c r="L344" s="42"/>
     </row>
     <row r="345">
-      <c r="G345" s="44"/>
+      <c r="G345" s="43"/>
       <c r="H345" s="23"/>
-      <c r="K345" s="43"/>
-      <c r="L345" s="43"/>
+      <c r="K345" s="42"/>
+      <c r="L345" s="42"/>
     </row>
     <row r="346">
-      <c r="G346" s="44"/>
+      <c r="G346" s="43"/>
       <c r="H346" s="23"/>
-      <c r="K346" s="43"/>
-      <c r="L346" s="43"/>
+      <c r="K346" s="42"/>
+      <c r="L346" s="42"/>
     </row>
     <row r="347">
-      <c r="G347" s="44"/>
+      <c r="G347" s="43"/>
       <c r="H347" s="23"/>
-      <c r="K347" s="43"/>
-      <c r="L347" s="43"/>
+      <c r="K347" s="42"/>
+      <c r="L347" s="42"/>
     </row>
     <row r="348">
-      <c r="G348" s="44"/>
+      <c r="G348" s="43"/>
       <c r="H348" s="23"/>
-      <c r="K348" s="43"/>
-      <c r="L348" s="43"/>
+      <c r="K348" s="42"/>
+      <c r="L348" s="42"/>
     </row>
     <row r="349">
-      <c r="G349" s="44"/>
+      <c r="G349" s="43"/>
       <c r="H349" s="23"/>
-      <c r="K349" s="43"/>
-      <c r="L349" s="43"/>
+      <c r="K349" s="42"/>
+      <c r="L349" s="42"/>
     </row>
     <row r="350">
-      <c r="G350" s="44"/>
+      <c r="G350" s="43"/>
       <c r="H350" s="23"/>
-      <c r="K350" s="43"/>
-      <c r="L350" s="43"/>
+      <c r="K350" s="42"/>
+      <c r="L350" s="42"/>
     </row>
     <row r="351">
-      <c r="G351" s="44"/>
+      <c r="G351" s="43"/>
       <c r="H351" s="23"/>
-      <c r="K351" s="43"/>
-      <c r="L351" s="43"/>
+      <c r="K351" s="42"/>
+      <c r="L351" s="42"/>
     </row>
     <row r="352">
-      <c r="G352" s="44"/>
+      <c r="G352" s="43"/>
       <c r="H352" s="23"/>
-      <c r="K352" s="43"/>
-      <c r="L352" s="43"/>
+      <c r="K352" s="42"/>
+      <c r="L352" s="42"/>
     </row>
     <row r="353">
-      <c r="G353" s="44"/>
+      <c r="G353" s="43"/>
       <c r="H353" s="23"/>
-      <c r="K353" s="43"/>
-      <c r="L353" s="43"/>
+      <c r="K353" s="42"/>
+      <c r="L353" s="42"/>
     </row>
     <row r="354">
-      <c r="G354" s="44"/>
+      <c r="G354" s="43"/>
       <c r="H354" s="23"/>
-      <c r="K354" s="43"/>
-      <c r="L354" s="43"/>
+      <c r="K354" s="42"/>
+      <c r="L354" s="42"/>
     </row>
     <row r="355">
-      <c r="G355" s="44"/>
+      <c r="G355" s="43"/>
       <c r="H355" s="23"/>
-      <c r="K355" s="43"/>
-      <c r="L355" s="43"/>
+      <c r="K355" s="42"/>
+      <c r="L355" s="42"/>
     </row>
     <row r="356">
-      <c r="G356" s="44"/>
+      <c r="G356" s="43"/>
       <c r="H356" s="23"/>
-      <c r="K356" s="43"/>
-      <c r="L356" s="43"/>
+      <c r="K356" s="42"/>
+      <c r="L356" s="42"/>
     </row>
     <row r="357">
-      <c r="G357" s="44"/>
+      <c r="G357" s="43"/>
       <c r="H357" s="23"/>
-      <c r="K357" s="43"/>
-      <c r="L357" s="43"/>
+      <c r="K357" s="42"/>
+      <c r="L357" s="42"/>
     </row>
     <row r="358">
-      <c r="G358" s="44"/>
+      <c r="G358" s="43"/>
       <c r="H358" s="23"/>
-      <c r="K358" s="43"/>
-      <c r="L358" s="43"/>
+      <c r="K358" s="42"/>
+      <c r="L358" s="42"/>
     </row>
     <row r="359">
-      <c r="G359" s="44"/>
+      <c r="G359" s="43"/>
       <c r="H359" s="23"/>
-      <c r="K359" s="43"/>
-      <c r="L359" s="43"/>
+      <c r="K359" s="42"/>
+      <c r="L359" s="42"/>
     </row>
     <row r="360">
-      <c r="G360" s="44"/>
+      <c r="G360" s="43"/>
       <c r="H360" s="23"/>
-      <c r="K360" s="43"/>
-      <c r="L360" s="43"/>
+      <c r="K360" s="42"/>
+      <c r="L360" s="42"/>
     </row>
     <row r="361">
-      <c r="G361" s="44"/>
+      <c r="G361" s="43"/>
       <c r="H361" s="23"/>
-      <c r="K361" s="43"/>
-      <c r="L361" s="43"/>
+      <c r="K361" s="42"/>
+      <c r="L361" s="42"/>
     </row>
     <row r="362">
-      <c r="G362" s="44"/>
+      <c r="G362" s="43"/>
       <c r="H362" s="23"/>
-      <c r="K362" s="43"/>
-      <c r="L362" s="43"/>
+      <c r="K362" s="42"/>
+      <c r="L362" s="42"/>
     </row>
     <row r="363">
-      <c r="G363" s="44"/>
+      <c r="G363" s="43"/>
       <c r="H363" s="23"/>
-      <c r="K363" s="43"/>
-      <c r="L363" s="43"/>
+      <c r="K363" s="42"/>
+      <c r="L363" s="42"/>
     </row>
     <row r="364">
-      <c r="G364" s="44"/>
+      <c r="G364" s="43"/>
       <c r="H364" s="23"/>
-      <c r="K364" s="43"/>
-      <c r="L364" s="43"/>
+      <c r="K364" s="42"/>
+      <c r="L364" s="42"/>
     </row>
     <row r="365">
-      <c r="G365" s="44"/>
+      <c r="G365" s="43"/>
       <c r="H365" s="23"/>
-      <c r="K365" s="43"/>
-      <c r="L365" s="43"/>
+      <c r="K365" s="42"/>
+      <c r="L365" s="42"/>
     </row>
     <row r="366">
-      <c r="G366" s="44"/>
+      <c r="G366" s="43"/>
       <c r="H366" s="23"/>
-      <c r="K366" s="43"/>
-      <c r="L366" s="43"/>
+      <c r="K366" s="42"/>
+      <c r="L366" s="42"/>
     </row>
     <row r="367">
-      <c r="G367" s="44"/>
+      <c r="G367" s="43"/>
       <c r="H367" s="23"/>
-      <c r="K367" s="43"/>
-      <c r="L367" s="43"/>
+      <c r="K367" s="42"/>
+      <c r="L367" s="42"/>
     </row>
     <row r="368">
-      <c r="G368" s="44"/>
+      <c r="G368" s="43"/>
       <c r="H368" s="23"/>
-      <c r="K368" s="43"/>
-      <c r="L368" s="43"/>
+      <c r="K368" s="42"/>
+      <c r="L368" s="42"/>
     </row>
     <row r="369">
-      <c r="G369" s="44"/>
+      <c r="G369" s="43"/>
       <c r="H369" s="23"/>
-      <c r="K369" s="43"/>
-      <c r="L369" s="43"/>
+      <c r="K369" s="42"/>
+      <c r="L369" s="42"/>
     </row>
     <row r="370">
-      <c r="G370" s="44"/>
+      <c r="G370" s="43"/>
       <c r="H370" s="23"/>
-      <c r="K370" s="43"/>
-      <c r="L370" s="43"/>
+      <c r="K370" s="42"/>
+      <c r="L370" s="42"/>
     </row>
     <row r="371">
-      <c r="G371" s="44"/>
+      <c r="G371" s="43"/>
       <c r="H371" s="23"/>
-      <c r="K371" s="43"/>
-      <c r="L371" s="43"/>
+      <c r="K371" s="42"/>
+      <c r="L371" s="42"/>
     </row>
     <row r="372">
-      <c r="G372" s="44"/>
+      <c r="G372" s="43"/>
       <c r="H372" s="23"/>
-      <c r="K372" s="43"/>
-      <c r="L372" s="43"/>
+      <c r="K372" s="42"/>
+      <c r="L372" s="42"/>
     </row>
     <row r="373">
-      <c r="G373" s="44"/>
+      <c r="G373" s="43"/>
       <c r="H373" s="23"/>
-      <c r="K373" s="43"/>
-      <c r="L373" s="43"/>
+      <c r="K373" s="42"/>
+      <c r="L373" s="42"/>
     </row>
     <row r="374">
-      <c r="G374" s="44"/>
+      <c r="G374" s="43"/>
       <c r="H374" s="23"/>
-      <c r="K374" s="43"/>
-      <c r="L374" s="43"/>
+      <c r="K374" s="42"/>
+      <c r="L374" s="42"/>
     </row>
     <row r="375">
-      <c r="G375" s="44"/>
+      <c r="G375" s="43"/>
       <c r="H375" s="23"/>
-      <c r="K375" s="43"/>
-      <c r="L375" s="43"/>
+      <c r="K375" s="42"/>
+      <c r="L375" s="42"/>
     </row>
     <row r="376">
-      <c r="G376" s="44"/>
+      <c r="G376" s="43"/>
       <c r="H376" s="23"/>
-      <c r="K376" s="43"/>
-      <c r="L376" s="43"/>
+      <c r="K376" s="42"/>
+      <c r="L376" s="42"/>
     </row>
     <row r="377">
-      <c r="G377" s="44"/>
+      <c r="G377" s="43"/>
       <c r="H377" s="23"/>
-      <c r="K377" s="43"/>
-      <c r="L377" s="43"/>
+      <c r="K377" s="42"/>
+      <c r="L377" s="42"/>
     </row>
     <row r="378">
-      <c r="G378" s="44"/>
+      <c r="G378" s="43"/>
       <c r="H378" s="23"/>
-      <c r="K378" s="43"/>
-      <c r="L378" s="43"/>
+      <c r="K378" s="42"/>
+      <c r="L378" s="42"/>
     </row>
     <row r="379">
-      <c r="G379" s="44"/>
+      <c r="G379" s="43"/>
       <c r="H379" s="23"/>
-      <c r="K379" s="43"/>
-      <c r="L379" s="43"/>
+      <c r="K379" s="42"/>
+      <c r="L379" s="42"/>
     </row>
     <row r="380">
-      <c r="G380" s="44"/>
+      <c r="G380" s="43"/>
       <c r="H380" s="23"/>
-      <c r="K380" s="43"/>
-      <c r="L380" s="43"/>
+      <c r="K380" s="42"/>
+      <c r="L380" s="42"/>
     </row>
     <row r="381">
-      <c r="G381" s="44"/>
+      <c r="G381" s="43"/>
       <c r="H381" s="23"/>
-      <c r="K381" s="43"/>
-      <c r="L381" s="43"/>
+      <c r="K381" s="42"/>
+      <c r="L381" s="42"/>
     </row>
     <row r="382">
-      <c r="G382" s="44"/>
+      <c r="G382" s="43"/>
       <c r="H382" s="23"/>
-      <c r="K382" s="43"/>
-      <c r="L382" s="43"/>
+      <c r="K382" s="42"/>
+      <c r="L382" s="42"/>
     </row>
     <row r="383">
-      <c r="G383" s="44"/>
+      <c r="G383" s="43"/>
       <c r="H383" s="23"/>
-      <c r="K383" s="43"/>
-      <c r="L383" s="43"/>
+      <c r="K383" s="42"/>
+      <c r="L383" s="42"/>
     </row>
     <row r="384">
-      <c r="G384" s="44"/>
+      <c r="G384" s="43"/>
       <c r="H384" s="23"/>
-      <c r="K384" s="43"/>
-      <c r="L384" s="43"/>
+      <c r="K384" s="42"/>
+      <c r="L384" s="42"/>
     </row>
     <row r="385">
-      <c r="G385" s="44"/>
+      <c r="G385" s="43"/>
       <c r="H385" s="23"/>
-      <c r="K385" s="43"/>
-      <c r="L385" s="43"/>
+      <c r="K385" s="42"/>
+      <c r="L385" s="42"/>
     </row>
     <row r="386">
-      <c r="G386" s="44"/>
+      <c r="G386" s="43"/>
       <c r="H386" s="23"/>
-      <c r="K386" s="43"/>
-      <c r="L386" s="43"/>
+      <c r="K386" s="42"/>
+      <c r="L386" s="42"/>
     </row>
     <row r="387">
-      <c r="G387" s="44"/>
+      <c r="G387" s="43"/>
       <c r="H387" s="23"/>
-      <c r="K387" s="43"/>
-      <c r="L387" s="43"/>
+      <c r="K387" s="42"/>
+      <c r="L387" s="42"/>
     </row>
     <row r="388">
-      <c r="G388" s="44"/>
+      <c r="G388" s="43"/>
       <c r="H388" s="23"/>
-      <c r="K388" s="43"/>
-      <c r="L388" s="43"/>
+      <c r="K388" s="42"/>
+      <c r="L388" s="42"/>
     </row>
     <row r="389">
-      <c r="G389" s="44"/>
+      <c r="G389" s="43"/>
       <c r="H389" s="23"/>
-      <c r="K389" s="43"/>
-      <c r="L389" s="43"/>
+      <c r="K389" s="42"/>
+      <c r="L389" s="42"/>
     </row>
     <row r="390">
-      <c r="G390" s="44"/>
+      <c r="G390" s="43"/>
       <c r="H390" s="23"/>
-      <c r="K390" s="43"/>
-      <c r="L390" s="43"/>
+      <c r="K390" s="42"/>
+      <c r="L390" s="42"/>
     </row>
     <row r="391">
-      <c r="G391" s="44"/>
+      <c r="G391" s="43"/>
       <c r="H391" s="23"/>
-      <c r="K391" s="43"/>
-      <c r="L391" s="43"/>
+      <c r="K391" s="42"/>
+      <c r="L391" s="42"/>
     </row>
     <row r="392">
-      <c r="G392" s="44"/>
+      <c r="G392" s="43"/>
       <c r="H392" s="23"/>
-      <c r="K392" s="43"/>
-      <c r="L392" s="43"/>
+      <c r="K392" s="42"/>
+      <c r="L392" s="42"/>
     </row>
     <row r="393">
-      <c r="G393" s="44"/>
+      <c r="G393" s="43"/>
       <c r="H393" s="23"/>
-      <c r="K393" s="43"/>
-      <c r="L393" s="43"/>
+      <c r="K393" s="42"/>
+      <c r="L393" s="42"/>
     </row>
     <row r="394">
-      <c r="G394" s="44"/>
+      <c r="G394" s="43"/>
       <c r="H394" s="23"/>
-      <c r="K394" s="43"/>
-      <c r="L394" s="43"/>
+      <c r="K394" s="42"/>
+      <c r="L394" s="42"/>
     </row>
     <row r="395">
-      <c r="G395" s="44"/>
+      <c r="G395" s="43"/>
       <c r="H395" s="23"/>
-      <c r="K395" s="43"/>
-      <c r="L395" s="43"/>
+      <c r="K395" s="42"/>
+      <c r="L395" s="42"/>
     </row>
     <row r="396">
-      <c r="G396" s="44"/>
+      <c r="G396" s="43"/>
       <c r="H396" s="23"/>
-      <c r="K396" s="43"/>
-      <c r="L396" s="43"/>
+      <c r="K396" s="42"/>
+      <c r="L396" s="42"/>
     </row>
     <row r="397">
-      <c r="G397" s="44"/>
+      <c r="G397" s="43"/>
       <c r="H397" s="23"/>
-      <c r="K397" s="43"/>
-      <c r="L397" s="43"/>
+      <c r="K397" s="42"/>
+      <c r="L397" s="42"/>
     </row>
     <row r="398">
-      <c r="G398" s="44"/>
+      <c r="G398" s="43"/>
       <c r="H398" s="23"/>
-      <c r="K398" s="43"/>
-      <c r="L398" s="43"/>
+      <c r="K398" s="42"/>
+      <c r="L398" s="42"/>
     </row>
     <row r="399">
-      <c r="G399" s="44"/>
+      <c r="G399" s="43"/>
       <c r="H399" s="23"/>
-      <c r="K399" s="43"/>
-      <c r="L399" s="43"/>
+      <c r="K399" s="42"/>
+      <c r="L399" s="42"/>
     </row>
     <row r="400">
-      <c r="G400" s="44"/>
+      <c r="G400" s="43"/>
       <c r="H400" s="23"/>
-      <c r="K400" s="43"/>
-      <c r="L400" s="43"/>
+      <c r="K400" s="42"/>
+      <c r="L400" s="42"/>
     </row>
     <row r="401">
-      <c r="G401" s="44"/>
+      <c r="G401" s="43"/>
       <c r="H401" s="23"/>
-      <c r="K401" s="43"/>
-      <c r="L401" s="43"/>
+      <c r="K401" s="42"/>
+      <c r="L401" s="42"/>
     </row>
     <row r="402">
-      <c r="G402" s="44"/>
+      <c r="G402" s="43"/>
       <c r="H402" s="23"/>
-      <c r="K402" s="43"/>
-      <c r="L402" s="43"/>
+      <c r="K402" s="42"/>
+      <c r="L402" s="42"/>
     </row>
     <row r="403">
-      <c r="G403" s="44"/>
+      <c r="G403" s="43"/>
       <c r="H403" s="23"/>
-      <c r="K403" s="43"/>
-      <c r="L403" s="43"/>
+      <c r="K403" s="42"/>
+      <c r="L403" s="42"/>
     </row>
     <row r="404">
-      <c r="G404" s="44"/>
+      <c r="G404" s="43"/>
       <c r="H404" s="23"/>
-      <c r="K404" s="43"/>
-      <c r="L404" s="43"/>
+      <c r="K404" s="42"/>
+      <c r="L404" s="42"/>
     </row>
     <row r="405">
-      <c r="G405" s="44"/>
+      <c r="G405" s="43"/>
       <c r="H405" s="23"/>
-      <c r="K405" s="43"/>
-      <c r="L405" s="43"/>
+      <c r="K405" s="42"/>
+      <c r="L405" s="42"/>
     </row>
     <row r="406">
-      <c r="G406" s="44"/>
+      <c r="G406" s="43"/>
       <c r="H406" s="23"/>
-      <c r="K406" s="43"/>
-      <c r="L406" s="43"/>
+      <c r="K406" s="42"/>
+      <c r="L406" s="42"/>
     </row>
     <row r="407">
-      <c r="G407" s="44"/>
+      <c r="G407" s="43"/>
       <c r="H407" s="23"/>
-      <c r="K407" s="43"/>
-      <c r="L407" s="43"/>
+      <c r="K407" s="42"/>
+      <c r="L407" s="42"/>
     </row>
     <row r="408">
-      <c r="G408" s="44"/>
+      <c r="G408" s="43"/>
       <c r="H408" s="23"/>
-      <c r="K408" s="43"/>
-      <c r="L408" s="43"/>
+      <c r="K408" s="42"/>
+      <c r="L408" s="42"/>
     </row>
     <row r="409">
-      <c r="G409" s="44"/>
+      <c r="G409" s="43"/>
       <c r="H409" s="23"/>
-      <c r="K409" s="43"/>
-      <c r="L409" s="43"/>
+      <c r="K409" s="42"/>
+      <c r="L409" s="42"/>
     </row>
     <row r="410">
-      <c r="G410" s="44"/>
+      <c r="G410" s="43"/>
       <c r="H410" s="23"/>
-      <c r="K410" s="43"/>
-      <c r="L410" s="43"/>
+      <c r="K410" s="42"/>
+      <c r="L410" s="42"/>
     </row>
     <row r="411">
-      <c r="G411" s="44"/>
+      <c r="G411" s="43"/>
       <c r="H411" s="23"/>
-      <c r="K411" s="43"/>
-      <c r="L411" s="43"/>
+      <c r="K411" s="42"/>
+      <c r="L411" s="42"/>
     </row>
     <row r="412">
-      <c r="G412" s="44"/>
+      <c r="G412" s="43"/>
       <c r="H412" s="23"/>
-      <c r="K412" s="43"/>
-      <c r="L412" s="43"/>
+      <c r="K412" s="42"/>
+      <c r="L412" s="42"/>
     </row>
     <row r="413">
-      <c r="G413" s="44"/>
+      <c r="G413" s="43"/>
       <c r="H413" s="23"/>
-      <c r="K413" s="43"/>
-      <c r="L413" s="43"/>
+      <c r="K413" s="42"/>
+      <c r="L413" s="42"/>
     </row>
     <row r="414">
-      <c r="G414" s="44"/>
+      <c r="G414" s="43"/>
       <c r="H414" s="23"/>
-      <c r="K414" s="43"/>
-      <c r="L414" s="43"/>
+      <c r="K414" s="42"/>
+      <c r="L414" s="42"/>
     </row>
     <row r="415">
-      <c r="G415" s="44"/>
+      <c r="G415" s="43"/>
       <c r="H415" s="23"/>
-      <c r="K415" s="43"/>
-      <c r="L415" s="43"/>
+      <c r="K415" s="42"/>
+      <c r="L415" s="42"/>
     </row>
     <row r="416">
-      <c r="G416" s="44"/>
+      <c r="G416" s="43"/>
       <c r="H416" s="23"/>
-      <c r="K416" s="43"/>
-      <c r="L416" s="43"/>
+      <c r="K416" s="42"/>
+      <c r="L416" s="42"/>
     </row>
     <row r="417">
-      <c r="G417" s="44"/>
+      <c r="G417" s="43"/>
       <c r="H417" s="23"/>
-      <c r="K417" s="43"/>
-      <c r="L417" s="43"/>
+      <c r="K417" s="42"/>
+      <c r="L417" s="42"/>
     </row>
     <row r="418">
-      <c r="G418" s="44"/>
+      <c r="G418" s="43"/>
       <c r="H418" s="23"/>
-      <c r="K418" s="43"/>
-      <c r="L418" s="43"/>
+      <c r="K418" s="42"/>
+      <c r="L418" s="42"/>
     </row>
     <row r="419">
-      <c r="G419" s="44"/>
+      <c r="G419" s="43"/>
       <c r="H419" s="23"/>
-      <c r="K419" s="43"/>
-      <c r="L419" s="43"/>
+      <c r="K419" s="42"/>
+      <c r="L419" s="42"/>
     </row>
     <row r="420">
-      <c r="G420" s="44"/>
+      <c r="G420" s="43"/>
       <c r="H420" s="23"/>
-      <c r="K420" s="43"/>
-      <c r="L420" s="43"/>
+      <c r="K420" s="42"/>
+      <c r="L420" s="42"/>
     </row>
     <row r="421">
-      <c r="G421" s="44"/>
+      <c r="G421" s="43"/>
       <c r="H421" s="23"/>
-      <c r="K421" s="43"/>
-      <c r="L421" s="43"/>
+      <c r="K421" s="42"/>
+      <c r="L421" s="42"/>
     </row>
     <row r="422">
-      <c r="G422" s="44"/>
+      <c r="G422" s="43"/>
       <c r="H422" s="23"/>
-      <c r="K422" s="43"/>
-      <c r="L422" s="43"/>
+      <c r="K422" s="42"/>
+      <c r="L422" s="42"/>
     </row>
     <row r="423">
-      <c r="G423" s="44"/>
+      <c r="G423" s="43"/>
       <c r="H423" s="23"/>
-      <c r="K423" s="43"/>
-      <c r="L423" s="43"/>
+      <c r="K423" s="42"/>
+      <c r="L423" s="42"/>
     </row>
     <row r="424">
-      <c r="G424" s="44"/>
+      <c r="G424" s="43"/>
       <c r="H424" s="23"/>
-      <c r="K424" s="43"/>
-      <c r="L424" s="43"/>
+      <c r="K424" s="42"/>
+      <c r="L424" s="42"/>
     </row>
     <row r="425">
-      <c r="G425" s="44"/>
+      <c r="G425" s="43"/>
       <c r="H425" s="23"/>
-      <c r="K425" s="43"/>
-      <c r="L425" s="43"/>
+      <c r="K425" s="42"/>
+      <c r="L425" s="42"/>
     </row>
     <row r="426">
-      <c r="G426" s="44"/>
+      <c r="G426" s="43"/>
       <c r="H426" s="23"/>
-      <c r="K426" s="43"/>
-      <c r="L426" s="43"/>
+      <c r="K426" s="42"/>
+      <c r="L426" s="42"/>
     </row>
     <row r="427">
-      <c r="G427" s="44"/>
+      <c r="G427" s="43"/>
       <c r="H427" s="23"/>
-      <c r="K427" s="43"/>
-      <c r="L427" s="43"/>
+      <c r="K427" s="42"/>
+      <c r="L427" s="42"/>
     </row>
     <row r="428">
-      <c r="G428" s="44"/>
+      <c r="G428" s="43"/>
       <c r="H428" s="23"/>
-      <c r="K428" s="43"/>
-      <c r="L428" s="43"/>
+      <c r="K428" s="42"/>
+      <c r="L428" s="42"/>
     </row>
     <row r="429">
-      <c r="G429" s="44"/>
+      <c r="G429" s="43"/>
       <c r="H429" s="23"/>
-      <c r="K429" s="43"/>
-      <c r="L429" s="43"/>
+      <c r="K429" s="42"/>
+      <c r="L429" s="42"/>
     </row>
     <row r="430">
-      <c r="G430" s="44"/>
+      <c r="G430" s="43"/>
       <c r="H430" s="23"/>
-      <c r="K430" s="43"/>
-      <c r="L430" s="43"/>
+      <c r="K430" s="42"/>
+      <c r="L430" s="42"/>
     </row>
     <row r="431">
-      <c r="G431" s="44"/>
+      <c r="G431" s="43"/>
       <c r="H431" s="23"/>
-      <c r="K431" s="43"/>
-      <c r="L431" s="43"/>
+      <c r="K431" s="42"/>
+      <c r="L431" s="42"/>
     </row>
     <row r="432">
-      <c r="G432" s="44"/>
+      <c r="G432" s="43"/>
       <c r="H432" s="23"/>
-      <c r="K432" s="43"/>
-      <c r="L432" s="43"/>
+      <c r="K432" s="42"/>
+      <c r="L432" s="42"/>
     </row>
     <row r="433">
-      <c r="G433" s="44"/>
+      <c r="G433" s="43"/>
       <c r="H433" s="23"/>
-      <c r="K433" s="43"/>
-      <c r="L433" s="43"/>
+      <c r="K433" s="42"/>
+      <c r="L433" s="42"/>
     </row>
     <row r="434">
-      <c r="G434" s="44"/>
+      <c r="G434" s="43"/>
       <c r="H434" s="23"/>
-      <c r="K434" s="43"/>
-      <c r="L434" s="43"/>
+      <c r="K434" s="42"/>
+      <c r="L434" s="42"/>
     </row>
     <row r="435">
-      <c r="G435" s="44"/>
+      <c r="G435" s="43"/>
       <c r="H435" s="23"/>
-      <c r="K435" s="43"/>
-      <c r="L435" s="43"/>
+      <c r="K435" s="42"/>
+      <c r="L435" s="42"/>
     </row>
     <row r="436">
-      <c r="G436" s="44"/>
+      <c r="G436" s="43"/>
       <c r="H436" s="23"/>
-      <c r="K436" s="43"/>
-      <c r="L436" s="43"/>
+      <c r="K436" s="42"/>
+      <c r="L436" s="42"/>
     </row>
     <row r="437">
-      <c r="G437" s="44"/>
+      <c r="G437" s="43"/>
       <c r="H437" s="23"/>
-      <c r="K437" s="43"/>
-      <c r="L437" s="43"/>
+      <c r="K437" s="42"/>
+      <c r="L437" s="42"/>
     </row>
     <row r="438">
-      <c r="G438" s="44"/>
+      <c r="G438" s="43"/>
       <c r="H438" s="23"/>
-      <c r="K438" s="43"/>
-      <c r="L438" s="43"/>
+      <c r="K438" s="42"/>
+      <c r="L438" s="42"/>
     </row>
     <row r="439">
-      <c r="G439" s="44"/>
+      <c r="G439" s="43"/>
       <c r="H439" s="23"/>
-      <c r="K439" s="43"/>
-      <c r="L439" s="43"/>
+      <c r="K439" s="42"/>
+      <c r="L439" s="42"/>
     </row>
     <row r="440">
-      <c r="G440" s="44"/>
+      <c r="G440" s="43"/>
       <c r="H440" s="23"/>
-      <c r="K440" s="43"/>
-      <c r="L440" s="43"/>
+      <c r="K440" s="42"/>
+      <c r="L440" s="42"/>
     </row>
     <row r="441">
-      <c r="G441" s="44"/>
+      <c r="G441" s="43"/>
       <c r="H441" s="23"/>
-      <c r="K441" s="43"/>
-      <c r="L441" s="43"/>
+      <c r="K441" s="42"/>
+      <c r="L441" s="42"/>
     </row>
     <row r="442">
-      <c r="G442" s="44"/>
+      <c r="G442" s="43"/>
       <c r="H442" s="23"/>
-      <c r="K442" s="43"/>
-      <c r="L442" s="43"/>
+      <c r="K442" s="42"/>
+      <c r="L442" s="42"/>
     </row>
     <row r="443">
-      <c r="G443" s="44"/>
+      <c r="G443" s="43"/>
       <c r="H443" s="23"/>
-      <c r="K443" s="43"/>
-      <c r="L443" s="43"/>
+      <c r="K443" s="42"/>
+      <c r="L443" s="42"/>
     </row>
     <row r="444">
-      <c r="G444" s="44"/>
+      <c r="G444" s="43"/>
       <c r="H444" s="23"/>
-      <c r="K444" s="43"/>
-      <c r="L444" s="43"/>
+      <c r="K444" s="42"/>
+      <c r="L444" s="42"/>
     </row>
     <row r="445">
-      <c r="G445" s="44"/>
+      <c r="G445" s="43"/>
       <c r="H445" s="23"/>
-      <c r="K445" s="43"/>
-      <c r="L445" s="43"/>
+      <c r="K445" s="42"/>
+      <c r="L445" s="42"/>
     </row>
     <row r="446">
-      <c r="G446" s="44"/>
+      <c r="G446" s="43"/>
       <c r="H446" s="23"/>
-      <c r="K446" s="43"/>
-      <c r="L446" s="43"/>
+      <c r="K446" s="42"/>
+      <c r="L446" s="42"/>
     </row>
     <row r="447">
-      <c r="G447" s="44"/>
+      <c r="G447" s="43"/>
       <c r="H447" s="23"/>
-      <c r="K447" s="43"/>
-      <c r="L447" s="43"/>
+      <c r="K447" s="42"/>
+      <c r="L447" s="42"/>
     </row>
     <row r="448">
-      <c r="G448" s="44"/>
+      <c r="G448" s="43"/>
       <c r="H448" s="23"/>
-      <c r="K448" s="43"/>
-      <c r="L448" s="43"/>
+      <c r="K448" s="42"/>
+      <c r="L448" s="42"/>
     </row>
     <row r="449">
-      <c r="G449" s="44"/>
+      <c r="G449" s="43"/>
       <c r="H449" s="23"/>
-      <c r="K449" s="43"/>
-      <c r="L449" s="43"/>
+      <c r="K449" s="42"/>
+      <c r="L449" s="42"/>
     </row>
     <row r="450">
-      <c r="G450" s="44"/>
+      <c r="G450" s="43"/>
       <c r="H450" s="23"/>
-      <c r="K450" s="43"/>
-      <c r="L450" s="43"/>
+      <c r="K450" s="42"/>
+      <c r="L450" s="42"/>
     </row>
     <row r="451">
-      <c r="G451" s="44"/>
+      <c r="G451" s="43"/>
       <c r="H451" s="23"/>
-      <c r="K451" s="43"/>
-      <c r="L451" s="43"/>
+      <c r="K451" s="42"/>
+      <c r="L451" s="42"/>
     </row>
     <row r="452">
-      <c r="G452" s="44"/>
+      <c r="G452" s="43"/>
       <c r="H452" s="23"/>
-      <c r="K452" s="43"/>
-      <c r="L452" s="43"/>
+      <c r="K452" s="42"/>
+      <c r="L452" s="42"/>
     </row>
     <row r="453">
-      <c r="G453" s="44"/>
+      <c r="G453" s="43"/>
       <c r="H453" s="23"/>
-      <c r="K453" s="43"/>
-      <c r="L453" s="43"/>
+      <c r="K453" s="42"/>
+      <c r="L453" s="42"/>
     </row>
     <row r="454">
-      <c r="G454" s="44"/>
+      <c r="G454" s="43"/>
       <c r="H454" s="23"/>
-      <c r="K454" s="43"/>
-      <c r="L454" s="43"/>
+      <c r="K454" s="42"/>
+      <c r="L454" s="42"/>
     </row>
     <row r="455">
-      <c r="G455" s="44"/>
+      <c r="G455" s="43"/>
       <c r="H455" s="23"/>
-      <c r="K455" s="43"/>
-      <c r="L455" s="43"/>
+      <c r="K455" s="42"/>
+      <c r="L455" s="42"/>
     </row>
     <row r="456">
-      <c r="G456" s="44"/>
+      <c r="G456" s="43"/>
       <c r="H456" s="23"/>
-      <c r="K456" s="43"/>
-      <c r="L456" s="43"/>
+      <c r="K456" s="42"/>
+      <c r="L456" s="42"/>
     </row>
     <row r="457">
-      <c r="G457" s="44"/>
+      <c r="G457" s="43"/>
       <c r="H457" s="23"/>
-      <c r="K457" s="43"/>
-      <c r="L457" s="43"/>
+      <c r="K457" s="42"/>
+      <c r="L457" s="42"/>
     </row>
     <row r="458">
-      <c r="G458" s="44"/>
+      <c r="G458" s="43"/>
       <c r="H458" s="23"/>
-      <c r="K458" s="43"/>
-      <c r="L458" s="43"/>
+      <c r="K458" s="42"/>
+      <c r="L458" s="42"/>
     </row>
     <row r="459">
-      <c r="G459" s="44"/>
+      <c r="G459" s="43"/>
       <c r="H459" s="23"/>
-      <c r="K459" s="43"/>
-      <c r="L459" s="43"/>
+      <c r="K459" s="42"/>
+      <c r="L459" s="42"/>
     </row>
     <row r="460">
-      <c r="G460" s="44"/>
+      <c r="G460" s="43"/>
       <c r="H460" s="23"/>
-      <c r="K460" s="43"/>
-      <c r="L460" s="43"/>
+      <c r="K460" s="42"/>
+      <c r="L460" s="42"/>
     </row>
     <row r="461">
-      <c r="G461" s="44"/>
+      <c r="G461" s="43"/>
       <c r="H461" s="23"/>
-      <c r="K461" s="43"/>
-      <c r="L461" s="43"/>
+      <c r="K461" s="42"/>
+      <c r="L461" s="42"/>
     </row>
     <row r="462">
-      <c r="G462" s="44"/>
+      <c r="G462" s="43"/>
       <c r="H462" s="23"/>
-      <c r="K462" s="43"/>
-      <c r="L462" s="43"/>
+      <c r="K462" s="42"/>
+      <c r="L462" s="42"/>
     </row>
     <row r="463">
-      <c r="G463" s="44"/>
+      <c r="G463" s="43"/>
       <c r="H463" s="23"/>
-      <c r="K463" s="43"/>
-      <c r="L463" s="43"/>
+      <c r="K463" s="42"/>
+      <c r="L463" s="42"/>
     </row>
     <row r="464">
-      <c r="G464" s="44"/>
+      <c r="G464" s="43"/>
       <c r="H464" s="23"/>
-      <c r="K464" s="43"/>
-      <c r="L464" s="43"/>
+      <c r="K464" s="42"/>
+      <c r="L464" s="42"/>
     </row>
     <row r="465">
-      <c r="G465" s="44"/>
+      <c r="G465" s="43"/>
       <c r="H465" s="23"/>
-      <c r="K465" s="43"/>
-      <c r="L465" s="43"/>
+      <c r="K465" s="42"/>
+      <c r="L465" s="42"/>
     </row>
     <row r="466">
-      <c r="G466" s="44"/>
+      <c r="G466" s="43"/>
       <c r="H466" s="23"/>
-      <c r="K466" s="43"/>
-      <c r="L466" s="43"/>
+      <c r="K466" s="42"/>
+      <c r="L466" s="42"/>
     </row>
     <row r="467">
-      <c r="G467" s="44"/>
+      <c r="G467" s="43"/>
       <c r="H467" s="23"/>
-      <c r="K467" s="43"/>
-      <c r="L467" s="43"/>
+      <c r="K467" s="42"/>
+      <c r="L467" s="42"/>
     </row>
     <row r="468">
-      <c r="G468" s="44"/>
+      <c r="G468" s="43"/>
       <c r="H468" s="23"/>
-      <c r="K468" s="43"/>
-      <c r="L468" s="43"/>
+      <c r="K468" s="42"/>
+      <c r="L468" s="42"/>
     </row>
     <row r="469">
-      <c r="G469" s="44"/>
+      <c r="G469" s="43"/>
       <c r="H469" s="23"/>
-      <c r="K469" s="43"/>
-      <c r="L469" s="43"/>
+      <c r="K469" s="42"/>
+      <c r="L469" s="42"/>
     </row>
     <row r="470">
-      <c r="G470" s="44"/>
+      <c r="G470" s="43"/>
       <c r="H470" s="23"/>
-      <c r="K470" s="43"/>
-      <c r="L470" s="43"/>
+      <c r="K470" s="42"/>
+      <c r="L470" s="42"/>
     </row>
     <row r="471">
-      <c r="G471" s="44"/>
+      <c r="G471" s="43"/>
       <c r="H471" s="23"/>
-      <c r="K471" s="43"/>
-      <c r="L471" s="43"/>
+      <c r="K471" s="42"/>
+      <c r="L471" s="42"/>
     </row>
     <row r="472">
-      <c r="G472" s="44"/>
+      <c r="G472" s="43"/>
       <c r="H472" s="23"/>
-      <c r="K472" s="43"/>
-      <c r="L472" s="43"/>
+      <c r="K472" s="42"/>
+      <c r="L472" s="42"/>
     </row>
     <row r="473">
-      <c r="G473" s="44"/>
+      <c r="G473" s="43"/>
       <c r="H473" s="23"/>
-      <c r="K473" s="43"/>
-      <c r="L473" s="43"/>
+      <c r="K473" s="42"/>
+      <c r="L473" s="42"/>
     </row>
     <row r="474">
-      <c r="G474" s="44"/>
+      <c r="G474" s="43"/>
       <c r="H474" s="23"/>
-      <c r="K474" s="43"/>
-      <c r="L474" s="43"/>
+      <c r="K474" s="42"/>
+      <c r="L474" s="42"/>
     </row>
     <row r="475">
-      <c r="G475" s="44"/>
+      <c r="G475" s="43"/>
       <c r="H475" s="23"/>
-      <c r="K475" s="43"/>
-      <c r="L475" s="43"/>
+      <c r="K475" s="42"/>
+      <c r="L475" s="42"/>
     </row>
     <row r="476">
-      <c r="G476" s="44"/>
+      <c r="G476" s="43"/>
       <c r="H476" s="23"/>
-      <c r="K476" s="43"/>
-      <c r="L476" s="43"/>
+      <c r="K476" s="42"/>
+      <c r="L476" s="42"/>
     </row>
     <row r="477">
-      <c r="G477" s="44"/>
+      <c r="G477" s="43"/>
       <c r="H477" s="23"/>
-      <c r="K477" s="43"/>
-      <c r="L477" s="43"/>
+      <c r="K477" s="42"/>
+      <c r="L477" s="42"/>
     </row>
     <row r="478">
-      <c r="G478" s="44"/>
+      <c r="G478" s="43"/>
       <c r="H478" s="23"/>
-      <c r="K478" s="43"/>
-      <c r="L478" s="43"/>
+      <c r="K478" s="42"/>
+      <c r="L478" s="42"/>
     </row>
     <row r="479">
-      <c r="G479" s="44"/>
+      <c r="G479" s="43"/>
       <c r="H479" s="23"/>
-      <c r="K479" s="43"/>
-      <c r="L479" s="43"/>
+      <c r="K479" s="42"/>
+      <c r="L479" s="42"/>
     </row>
     <row r="480">
-      <c r="G480" s="44"/>
+      <c r="G480" s="43"/>
       <c r="H480" s="23"/>
-      <c r="K480" s="43"/>
-      <c r="L480" s="43"/>
+      <c r="K480" s="42"/>
+      <c r="L480" s="42"/>
     </row>
     <row r="481">
-      <c r="G481" s="44"/>
+      <c r="G481" s="43"/>
       <c r="H481" s="23"/>
-      <c r="K481" s="43"/>
-      <c r="L481" s="43"/>
+      <c r="K481" s="42"/>
+      <c r="L481" s="42"/>
     </row>
     <row r="482">
-      <c r="G482" s="44"/>
+      <c r="G482" s="43"/>
       <c r="H482" s="23"/>
-      <c r="K482" s="43"/>
-      <c r="L482" s="43"/>
+      <c r="K482" s="42"/>
+      <c r="L482" s="42"/>
     </row>
     <row r="483">
-      <c r="G483" s="44"/>
+      <c r="G483" s="43"/>
       <c r="H483" s="23"/>
-      <c r="K483" s="43"/>
-      <c r="L483" s="43"/>
+      <c r="K483" s="42"/>
+      <c r="L483" s="42"/>
     </row>
     <row r="484">
-      <c r="G484" s="44"/>
+      <c r="G484" s="43"/>
       <c r="H484" s="23"/>
-      <c r="K484" s="43"/>
-      <c r="L484" s="43"/>
+      <c r="K484" s="42"/>
+      <c r="L484" s="42"/>
     </row>
     <row r="485">
-      <c r="G485" s="44"/>
+      <c r="G485" s="43"/>
       <c r="H485" s="23"/>
-      <c r="K485" s="43"/>
-      <c r="L485" s="43"/>
+      <c r="K485" s="42"/>
+      <c r="L485" s="42"/>
     </row>
     <row r="486">
-      <c r="G486" s="44"/>
+      <c r="G486" s="43"/>
       <c r="H486" s="23"/>
-      <c r="K486" s="43"/>
-      <c r="L486" s="43"/>
+      <c r="K486" s="42"/>
+      <c r="L486" s="42"/>
     </row>
     <row r="487">
-      <c r="G487" s="44"/>
+      <c r="G487" s="43"/>
       <c r="H487" s="23"/>
-      <c r="K487" s="43"/>
-      <c r="L487" s="43"/>
+      <c r="K487" s="42"/>
+      <c r="L487" s="42"/>
     </row>
     <row r="488">
-      <c r="G488" s="44"/>
+      <c r="G488" s="43"/>
       <c r="H488" s="23"/>
-      <c r="K488" s="43"/>
-      <c r="L488" s="43"/>
+      <c r="K488" s="42"/>
+      <c r="L488" s="42"/>
     </row>
     <row r="489">
-      <c r="G489" s="44"/>
+      <c r="G489" s="43"/>
       <c r="H489" s="23"/>
-      <c r="K489" s="43"/>
-      <c r="L489" s="43"/>
+      <c r="K489" s="42"/>
+      <c r="L489" s="42"/>
     </row>
     <row r="490">
-      <c r="G490" s="44"/>
+      <c r="G490" s="43"/>
       <c r="H490" s="23"/>
-      <c r="K490" s="43"/>
-      <c r="L490" s="43"/>
+      <c r="K490" s="42"/>
+      <c r="L490" s="42"/>
     </row>
     <row r="491">
-      <c r="G491" s="44"/>
+      <c r="G491" s="43"/>
       <c r="H491" s="23"/>
-      <c r="K491" s="43"/>
-      <c r="L491" s="43"/>
+      <c r="K491" s="42"/>
+      <c r="L491" s="42"/>
     </row>
     <row r="492">
-      <c r="G492" s="44"/>
+      <c r="G492" s="43"/>
       <c r="H492" s="23"/>
-      <c r="K492" s="43"/>
-      <c r="L492" s="43"/>
+      <c r="K492" s="42"/>
+      <c r="L492" s="42"/>
     </row>
     <row r="493">
-      <c r="G493" s="44"/>
+      <c r="G493" s="43"/>
       <c r="H493" s="23"/>
-      <c r="K493" s="43"/>
-      <c r="L493" s="43"/>
+      <c r="K493" s="42"/>
+      <c r="L493" s="42"/>
     </row>
     <row r="494">
-      <c r="G494" s="44"/>
+      <c r="G494" s="43"/>
       <c r="H494" s="23"/>
-      <c r="K494" s="43"/>
-      <c r="L494" s="43"/>
+      <c r="K494" s="42"/>
+      <c r="L494" s="42"/>
     </row>
     <row r="495">
-      <c r="G495" s="44"/>
+      <c r="G495" s="43"/>
       <c r="H495" s="23"/>
-      <c r="K495" s="43"/>
-      <c r="L495" s="43"/>
+      <c r="K495" s="42"/>
+      <c r="L495" s="42"/>
     </row>
     <row r="496">
-      <c r="G496" s="44"/>
+      <c r="G496" s="43"/>
       <c r="H496" s="23"/>
-      <c r="K496" s="43"/>
-      <c r="L496" s="43"/>
+      <c r="K496" s="42"/>
+      <c r="L496" s="42"/>
     </row>
     <row r="497">
-      <c r="G497" s="44"/>
+      <c r="G497" s="43"/>
       <c r="H497" s="23"/>
-      <c r="K497" s="43"/>
-      <c r="L497" s="43"/>
+      <c r="K497" s="42"/>
+      <c r="L497" s="42"/>
     </row>
     <row r="498">
-      <c r="G498" s="44"/>
+      <c r="G498" s="43"/>
       <c r="H498" s="23"/>
-      <c r="K498" s="43"/>
-      <c r="L498" s="43"/>
+      <c r="K498" s="42"/>
+      <c r="L498" s="42"/>
     </row>
     <row r="499">
-      <c r="G499" s="44"/>
+      <c r="G499" s="43"/>
       <c r="H499" s="23"/>
-      <c r="K499" s="43"/>
-      <c r="L499" s="43"/>
+      <c r="K499" s="42"/>
+      <c r="L499" s="42"/>
     </row>
     <row r="500">
-      <c r="G500" s="44"/>
+      <c r="G500" s="43"/>
       <c r="H500" s="23"/>
-      <c r="K500" s="43"/>
-      <c r="L500" s="43"/>
+      <c r="K500" s="42"/>
+      <c r="L500" s="42"/>
     </row>
     <row r="501">
-      <c r="G501" s="44"/>
+      <c r="G501" s="43"/>
       <c r="H501" s="23"/>
-      <c r="K501" s="43"/>
-      <c r="L501" s="43"/>
+      <c r="K501" s="42"/>
+      <c r="L501" s="42"/>
     </row>
     <row r="502">
-      <c r="G502" s="44"/>
+      <c r="G502" s="43"/>
       <c r="H502" s="23"/>
-      <c r="K502" s="43"/>
-      <c r="L502" s="43"/>
+      <c r="K502" s="42"/>
+      <c r="L502" s="42"/>
     </row>
     <row r="503">
-      <c r="G503" s="44"/>
+      <c r="G503" s="43"/>
       <c r="H503" s="23"/>
-      <c r="K503" s="43"/>
-      <c r="L503" s="43"/>
+      <c r="K503" s="42"/>
+      <c r="L503" s="42"/>
     </row>
     <row r="504">
-      <c r="G504" s="44"/>
+      <c r="G504" s="43"/>
       <c r="H504" s="23"/>
-      <c r="K504" s="43"/>
-      <c r="L504" s="43"/>
+      <c r="K504" s="42"/>
+      <c r="L504" s="42"/>
     </row>
     <row r="505">
-      <c r="G505" s="44"/>
+      <c r="G505" s="43"/>
       <c r="H505" s="23"/>
-      <c r="K505" s="43"/>
-      <c r="L505" s="43"/>
+      <c r="K505" s="42"/>
+      <c r="L505" s="42"/>
     </row>
     <row r="506">
-      <c r="G506" s="44"/>
+      <c r="G506" s="43"/>
       <c r="H506" s="23"/>
-      <c r="K506" s="43"/>
-      <c r="L506" s="43"/>
+      <c r="K506" s="42"/>
+      <c r="L506" s="42"/>
     </row>
     <row r="507">
-      <c r="G507" s="44"/>
+      <c r="G507" s="43"/>
       <c r="H507" s="23"/>
-      <c r="K507" s="43"/>
-      <c r="L507" s="43"/>
+      <c r="K507" s="42"/>
+      <c r="L507" s="42"/>
     </row>
     <row r="508">
-      <c r="G508" s="44"/>
+      <c r="G508" s="43"/>
       <c r="H508" s="23"/>
-      <c r="K508" s="43"/>
-      <c r="L508" s="43"/>
+      <c r="K508" s="42"/>
+      <c r="L508" s="42"/>
     </row>
     <row r="509">
-      <c r="G509" s="44"/>
+      <c r="G509" s="43"/>
       <c r="H509" s="23"/>
-      <c r="K509" s="43"/>
-      <c r="L509" s="43"/>
+      <c r="K509" s="42"/>
+      <c r="L509" s="42"/>
     </row>
     <row r="510">
-      <c r="G510" s="44"/>
+      <c r="G510" s="43"/>
       <c r="H510" s="23"/>
-      <c r="K510" s="43"/>
-      <c r="L510" s="43"/>
+      <c r="K510" s="42"/>
+      <c r="L510" s="42"/>
     </row>
     <row r="511">
-      <c r="G511" s="44"/>
+      <c r="G511" s="43"/>
       <c r="H511" s="23"/>
-      <c r="K511" s="43"/>
-      <c r="L511" s="43"/>
+      <c r="K511" s="42"/>
+      <c r="L511" s="42"/>
     </row>
     <row r="512">
-      <c r="G512" s="44"/>
+      <c r="G512" s="43"/>
       <c r="H512" s="23"/>
-      <c r="K512" s="43"/>
-      <c r="L512" s="43"/>
+      <c r="K512" s="42"/>
+      <c r="L512" s="42"/>
     </row>
     <row r="513">
-      <c r="G513" s="44"/>
+      <c r="G513" s="43"/>
       <c r="H513" s="23"/>
-      <c r="K513" s="43"/>
-      <c r="L513" s="43"/>
+      <c r="K513" s="42"/>
+      <c r="L513" s="42"/>
     </row>
     <row r="514">
-      <c r="G514" s="44"/>
+      <c r="G514" s="43"/>
       <c r="H514" s="23"/>
-      <c r="K514" s="43"/>
-      <c r="L514" s="43"/>
+      <c r="K514" s="42"/>
+      <c r="L514" s="42"/>
     </row>
     <row r="515">
-      <c r="G515" s="44"/>
+      <c r="G515" s="43"/>
       <c r="H515" s="23"/>
-      <c r="K515" s="43"/>
-      <c r="L515" s="43"/>
+      <c r="K515" s="42"/>
+      <c r="L515" s="42"/>
     </row>
     <row r="516">
-      <c r="G516" s="44"/>
+      <c r="G516" s="43"/>
       <c r="H516" s="23"/>
-      <c r="K516" s="43"/>
-      <c r="L516" s="43"/>
+      <c r="K516" s="42"/>
+      <c r="L516" s="42"/>
     </row>
     <row r="517">
-      <c r="G517" s="44"/>
+      <c r="G517" s="43"/>
       <c r="H517" s="23"/>
-      <c r="K517" s="43"/>
-      <c r="L517" s="43"/>
+      <c r="K517" s="42"/>
+      <c r="L517" s="42"/>
     </row>
     <row r="518">
-      <c r="G518" s="44"/>
+      <c r="G518" s="43"/>
       <c r="H518" s="23"/>
-      <c r="K518" s="43"/>
-      <c r="L518" s="43"/>
+      <c r="K518" s="42"/>
+      <c r="L518" s="42"/>
     </row>
     <row r="519">
-      <c r="G519" s="44"/>
+      <c r="G519" s="43"/>
       <c r="H519" s="23"/>
-      <c r="K519" s="43"/>
-      <c r="L519" s="43"/>
+      <c r="K519" s="42"/>
+      <c r="L519" s="42"/>
     </row>
     <row r="520">
-      <c r="G520" s="44"/>
+      <c r="G520" s="43"/>
       <c r="H520" s="23"/>
-      <c r="K520" s="43"/>
-      <c r="L520" s="43"/>
+      <c r="K520" s="42"/>
+      <c r="L520" s="42"/>
     </row>
     <row r="521">
-      <c r="G521" s="44"/>
+      <c r="G521" s="43"/>
       <c r="H521" s="23"/>
-      <c r="K521" s="43"/>
-      <c r="L521" s="43"/>
+      <c r="K521" s="42"/>
+      <c r="L521" s="42"/>
     </row>
     <row r="522">
-      <c r="G522" s="44"/>
+      <c r="G522" s="43"/>
       <c r="H522" s="23"/>
-      <c r="K522" s="43"/>
-      <c r="L522" s="43"/>
+      <c r="K522" s="42"/>
+      <c r="L522" s="42"/>
     </row>
     <row r="523">
-      <c r="G523" s="44"/>
+      <c r="G523" s="43"/>
       <c r="H523" s="23"/>
-      <c r="K523" s="43"/>
-      <c r="L523" s="43"/>
+      <c r="K523" s="42"/>
+      <c r="L523" s="42"/>
     </row>
     <row r="524">
-      <c r="G524" s="44"/>
+      <c r="G524" s="43"/>
       <c r="H524" s="23"/>
-      <c r="K524" s="43"/>
-      <c r="L524" s="43"/>
+      <c r="K524" s="42"/>
+      <c r="L524" s="42"/>
     </row>
     <row r="525">
-      <c r="G525" s="44"/>
+      <c r="G525" s="43"/>
       <c r="H525" s="23"/>
-      <c r="K525" s="43"/>
-      <c r="L525" s="43"/>
+      <c r="K525" s="42"/>
+      <c r="L525" s="42"/>
     </row>
     <row r="526">
-      <c r="G526" s="44"/>
+      <c r="G526" s="43"/>
       <c r="H526" s="23"/>
-      <c r="K526" s="43"/>
-      <c r="L526" s="43"/>
+      <c r="K526" s="42"/>
+      <c r="L526" s="42"/>
     </row>
     <row r="527">
-      <c r="G527" s="44"/>
+      <c r="G527" s="43"/>
       <c r="H527" s="23"/>
-      <c r="K527" s="43"/>
-      <c r="L527" s="43"/>
+      <c r="K527" s="42"/>
+      <c r="L527" s="42"/>
     </row>
     <row r="528">
-      <c r="G528" s="44"/>
+      <c r="G528" s="43"/>
       <c r="H528" s="23"/>
-      <c r="K528" s="43"/>
-      <c r="L528" s="43"/>
+      <c r="K528" s="42"/>
+      <c r="L528" s="42"/>
     </row>
     <row r="529">
-      <c r="G529" s="44"/>
+      <c r="G529" s="43"/>
       <c r="H529" s="23"/>
-      <c r="K529" s="43"/>
-      <c r="L529" s="43"/>
+      <c r="K529" s="42"/>
+      <c r="L529" s="42"/>
     </row>
     <row r="530">
-      <c r="G530" s="44"/>
+      <c r="G530" s="43"/>
       <c r="H530" s="23"/>
-      <c r="K530" s="43"/>
-      <c r="L530" s="43"/>
+      <c r="K530" s="42"/>
+      <c r="L530" s="42"/>
     </row>
     <row r="531">
-      <c r="G531" s="44"/>
+      <c r="G531" s="43"/>
       <c r="H531" s="23"/>
-      <c r="K531" s="43"/>
-      <c r="L531" s="43"/>
+      <c r="K531" s="42"/>
+      <c r="L531" s="42"/>
     </row>
     <row r="532">
-      <c r="G532" s="44"/>
+      <c r="G532" s="43"/>
       <c r="H532" s="23"/>
-      <c r="K532" s="43"/>
-      <c r="L532" s="43"/>
+      <c r="K532" s="42"/>
+      <c r="L532" s="42"/>
     </row>
     <row r="533">
-      <c r="G533" s="44"/>
+      <c r="G533" s="43"/>
       <c r="H533" s="23"/>
-      <c r="K533" s="43"/>
-      <c r="L533" s="43"/>
+      <c r="K533" s="42"/>
+      <c r="L533" s="42"/>
     </row>
     <row r="534">
-      <c r="G534" s="44"/>
+      <c r="G534" s="43"/>
       <c r="H534" s="23"/>
-      <c r="K534" s="43"/>
-      <c r="L534" s="43"/>
+      <c r="K534" s="42"/>
+      <c r="L534" s="42"/>
     </row>
     <row r="535">
-      <c r="G535" s="44"/>
+      <c r="G535" s="43"/>
       <c r="H535" s="23"/>
-      <c r="K535" s="43"/>
-      <c r="L535" s="43"/>
+      <c r="K535" s="42"/>
+      <c r="L535" s="42"/>
     </row>
     <row r="536">
-      <c r="G536" s="44"/>
+      <c r="G536" s="43"/>
       <c r="H536" s="23"/>
-      <c r="K536" s="43"/>
-      <c r="L536" s="43"/>
+      <c r="K536" s="42"/>
+      <c r="L536" s="42"/>
     </row>
     <row r="537">
-      <c r="G537" s="44"/>
+      <c r="G537" s="43"/>
       <c r="H537" s="23"/>
-      <c r="K537" s="43"/>
-      <c r="L537" s="43"/>
+      <c r="K537" s="42"/>
+      <c r="L537" s="42"/>
     </row>
     <row r="538">
-      <c r="G538" s="44"/>
+      <c r="G538" s="43"/>
       <c r="H538" s="23"/>
-      <c r="K538" s="43"/>
-      <c r="L538" s="43"/>
+      <c r="K538" s="42"/>
+      <c r="L538" s="42"/>
     </row>
     <row r="539">
-      <c r="G539" s="44"/>
+      <c r="G539" s="43"/>
       <c r="H539" s="23"/>
-      <c r="K539" s="43"/>
-      <c r="L539" s="43"/>
+      <c r="K539" s="42"/>
+      <c r="L539" s="42"/>
     </row>
     <row r="540">
-      <c r="G540" s="44"/>
+      <c r="G540" s="43"/>
       <c r="H540" s="23"/>
-      <c r="K540" s="43"/>
-      <c r="L540" s="43"/>
+      <c r="K540" s="42"/>
+      <c r="L540" s="42"/>
     </row>
     <row r="541">
-      <c r="G541" s="44"/>
+      <c r="G541" s="43"/>
       <c r="H541" s="23"/>
-      <c r="K541" s="43"/>
-      <c r="L541" s="43"/>
+      <c r="K541" s="42"/>
+      <c r="L541" s="42"/>
     </row>
     <row r="542">
-      <c r="G542" s="44"/>
+      <c r="G542" s="43"/>
       <c r="H542" s="23"/>
-      <c r="K542" s="43"/>
-      <c r="L542" s="43"/>
+      <c r="K542" s="42"/>
+      <c r="L542" s="42"/>
     </row>
     <row r="543">
-      <c r="G543" s="44"/>
+      <c r="G543" s="43"/>
       <c r="H543" s="23"/>
-      <c r="K543" s="43"/>
-      <c r="L543" s="43"/>
+      <c r="K543" s="42"/>
+      <c r="L543" s="42"/>
     </row>
     <row r="544">
-      <c r="G544" s="44"/>
+      <c r="G544" s="43"/>
       <c r="H544" s="23"/>
-      <c r="K544" s="43"/>
-      <c r="L544" s="43"/>
+      <c r="K544" s="42"/>
+      <c r="L544" s="42"/>
     </row>
     <row r="545">
-      <c r="G545" s="44"/>
+      <c r="G545" s="43"/>
       <c r="H545" s="23"/>
-      <c r="K545" s="43"/>
-      <c r="L545" s="43"/>
+      <c r="K545" s="42"/>
+      <c r="L545" s="42"/>
     </row>
     <row r="546">
-      <c r="G546" s="44"/>
+      <c r="G546" s="43"/>
       <c r="H546" s="23"/>
-      <c r="K546" s="43"/>
-      <c r="L546" s="43"/>
+      <c r="K546" s="42"/>
+      <c r="L546" s="42"/>
     </row>
     <row r="547">
-      <c r="G547" s="44"/>
+      <c r="G547" s="43"/>
       <c r="H547" s="23"/>
-      <c r="K547" s="43"/>
-      <c r="L547" s="43"/>
+      <c r="K547" s="42"/>
+      <c r="L547" s="42"/>
     </row>
     <row r="548">
-      <c r="G548" s="44"/>
+      <c r="G548" s="43"/>
       <c r="H548" s="23"/>
-      <c r="K548" s="43"/>
-      <c r="L548" s="43"/>
+      <c r="K548" s="42"/>
+      <c r="L548" s="42"/>
     </row>
     <row r="549">
-      <c r="G549" s="44"/>
+      <c r="G549" s="43"/>
       <c r="H549" s="23"/>
-      <c r="K549" s="43"/>
-      <c r="L549" s="43"/>
+      <c r="K549" s="42"/>
+      <c r="L549" s="42"/>
     </row>
     <row r="550">
-      <c r="G550" s="44"/>
+      <c r="G550" s="43"/>
       <c r="H550" s="23"/>
-      <c r="K550" s="43"/>
-      <c r="L550" s="43"/>
+      <c r="K550" s="42"/>
+      <c r="L550" s="42"/>
     </row>
     <row r="551">
-      <c r="G551" s="44"/>
+      <c r="G551" s="43"/>
       <c r="H551" s="23"/>
-      <c r="K551" s="43"/>
-      <c r="L551" s="43"/>
+      <c r="K551" s="42"/>
+      <c r="L551" s="42"/>
     </row>
     <row r="552">
-      <c r="G552" s="44"/>
+      <c r="G552" s="43"/>
       <c r="H552" s="23"/>
-      <c r="K552" s="43"/>
-      <c r="L552" s="43"/>
+      <c r="K552" s="42"/>
+      <c r="L552" s="42"/>
     </row>
     <row r="553">
-      <c r="G553" s="44"/>
+      <c r="G553" s="43"/>
       <c r="H553" s="23"/>
-      <c r="K553" s="43"/>
-      <c r="L553" s="43"/>
+      <c r="K553" s="42"/>
+      <c r="L553" s="42"/>
     </row>
     <row r="554">
-      <c r="G554" s="44"/>
+      <c r="G554" s="43"/>
       <c r="H554" s="23"/>
-      <c r="K554" s="43"/>
-      <c r="L554" s="43"/>
+      <c r="K554" s="42"/>
+      <c r="L554" s="42"/>
     </row>
     <row r="555">
-      <c r="G555" s="44"/>
+      <c r="G555" s="43"/>
       <c r="H555" s="23"/>
-      <c r="K555" s="43"/>
-      <c r="L555" s="43"/>
+      <c r="K555" s="42"/>
+      <c r="L555" s="42"/>
     </row>
     <row r="556">
-      <c r="G556" s="44"/>
+      <c r="G556" s="43"/>
       <c r="H556" s="23"/>
-      <c r="K556" s="43"/>
-      <c r="L556" s="43"/>
+      <c r="K556" s="42"/>
+      <c r="L556" s="42"/>
     </row>
     <row r="557">
-      <c r="G557" s="44"/>
+      <c r="G557" s="43"/>
       <c r="H557" s="23"/>
-      <c r="K557" s="43"/>
-      <c r="L557" s="43"/>
+      <c r="K557" s="42"/>
+      <c r="L557" s="42"/>
     </row>
     <row r="558">
-      <c r="G558" s="44"/>
+      <c r="G558" s="43"/>
       <c r="H558" s="23"/>
-      <c r="K558" s="43"/>
-      <c r="L558" s="43"/>
+      <c r="K558" s="42"/>
+      <c r="L558" s="42"/>
     </row>
     <row r="559">
-      <c r="G559" s="44"/>
+      <c r="G559" s="43"/>
       <c r="H559" s="23"/>
-      <c r="K559" s="43"/>
-      <c r="L559" s="43"/>
+      <c r="K559" s="42"/>
+      <c r="L559" s="42"/>
     </row>
     <row r="560">
-      <c r="G560" s="44"/>
+      <c r="G560" s="43"/>
       <c r="H560" s="23"/>
-      <c r="K560" s="43"/>
-      <c r="L560" s="43"/>
+      <c r="K560" s="42"/>
+      <c r="L560" s="42"/>
     </row>
     <row r="561">
-      <c r="G561" s="44"/>
+      <c r="G561" s="43"/>
       <c r="H561" s="23"/>
-      <c r="K561" s="43"/>
-      <c r="L561" s="43"/>
+      <c r="K561" s="42"/>
+      <c r="L561" s="42"/>
     </row>
     <row r="562">
-      <c r="G562" s="44"/>
+      <c r="G562" s="43"/>
       <c r="H562" s="23"/>
-      <c r="K562" s="43"/>
-      <c r="L562" s="43"/>
+      <c r="K562" s="42"/>
+      <c r="L562" s="42"/>
     </row>
     <row r="563">
-      <c r="G563" s="44"/>
+      <c r="G563" s="43"/>
       <c r="H563" s="23"/>
-      <c r="K563" s="43"/>
-      <c r="L563" s="43"/>
+      <c r="K563" s="42"/>
+      <c r="L563" s="42"/>
     </row>
     <row r="564">
-      <c r="G564" s="44"/>
+      <c r="G564" s="43"/>
       <c r="H564" s="23"/>
-      <c r="K564" s="43"/>
-      <c r="L564" s="43"/>
+      <c r="K564" s="42"/>
+      <c r="L564" s="42"/>
     </row>
     <row r="565">
-      <c r="G565" s="44"/>
+      <c r="G565" s="43"/>
       <c r="H565" s="23"/>
-      <c r="K565" s="43"/>
-      <c r="L565" s="43"/>
+      <c r="K565" s="42"/>
+      <c r="L565" s="42"/>
     </row>
     <row r="566">
-      <c r="G566" s="44"/>
+      <c r="G566" s="43"/>
       <c r="H566" s="23"/>
-      <c r="K566" s="43"/>
-      <c r="L566" s="43"/>
+      <c r="K566" s="42"/>
+      <c r="L566" s="42"/>
     </row>
     <row r="567">
-      <c r="G567" s="44"/>
+      <c r="G567" s="43"/>
       <c r="H567" s="23"/>
-      <c r="K567" s="43"/>
-      <c r="L567" s="43"/>
+      <c r="K567" s="42"/>
+      <c r="L567" s="42"/>
     </row>
     <row r="568">
-      <c r="G568" s="44"/>
+      <c r="G568" s="43"/>
       <c r="H568" s="23"/>
-      <c r="K568" s="43"/>
-      <c r="L568" s="43"/>
+      <c r="K568" s="42"/>
+      <c r="L568" s="42"/>
     </row>
     <row r="569">
-      <c r="G569" s="44"/>
+      <c r="G569" s="43"/>
       <c r="H569" s="23"/>
-      <c r="K569" s="43"/>
-      <c r="L569" s="43"/>
+      <c r="K569" s="42"/>
+      <c r="L569" s="42"/>
     </row>
     <row r="570">
-      <c r="G570" s="44"/>
+      <c r="G570" s="43"/>
       <c r="H570" s="23"/>
-      <c r="K570" s="43"/>
-      <c r="L570" s="43"/>
+      <c r="K570" s="42"/>
+      <c r="L570" s="42"/>
     </row>
     <row r="571">
-      <c r="G571" s="44"/>
+      <c r="G571" s="43"/>
       <c r="H571" s="23"/>
-      <c r="K571" s="43"/>
-      <c r="L571" s="43"/>
+      <c r="K571" s="42"/>
+      <c r="L571" s="42"/>
     </row>
     <row r="572">
-      <c r="G572" s="44"/>
+      <c r="G572" s="43"/>
       <c r="H572" s="23"/>
-      <c r="K572" s="43"/>
-      <c r="L572" s="43"/>
+      <c r="K572" s="42"/>
+      <c r="L572" s="42"/>
     </row>
     <row r="573">
-      <c r="G573" s="44"/>
+      <c r="G573" s="43"/>
       <c r="H573" s="23"/>
-      <c r="K573" s="43"/>
-      <c r="L573" s="43"/>
+      <c r="K573" s="42"/>
+      <c r="L573" s="42"/>
     </row>
     <row r="574">
-      <c r="G574" s="44"/>
+      <c r="G574" s="43"/>
       <c r="H574" s="23"/>
-      <c r="K574" s="43"/>
-      <c r="L574" s="43"/>
+      <c r="K574" s="42"/>
+      <c r="L574" s="42"/>
     </row>
     <row r="575">
-      <c r="G575" s="44"/>
+      <c r="G575" s="43"/>
       <c r="H575" s="23"/>
-      <c r="K575" s="43"/>
-      <c r="L575" s="43"/>
+      <c r="K575" s="42"/>
+      <c r="L575" s="42"/>
     </row>
     <row r="576">
-      <c r="G576" s="44"/>
+      <c r="G576" s="43"/>
       <c r="H576" s="23"/>
-      <c r="K576" s="43"/>
-      <c r="L576" s="43"/>
+      <c r="K576" s="42"/>
+      <c r="L576" s="42"/>
     </row>
     <row r="577">
-      <c r="G577" s="44"/>
+      <c r="G577" s="43"/>
       <c r="H577" s="23"/>
-      <c r="K577" s="43"/>
-      <c r="L577" s="43"/>
+      <c r="K577" s="42"/>
+      <c r="L577" s="42"/>
     </row>
     <row r="578">
-      <c r="G578" s="44"/>
+      <c r="G578" s="43"/>
       <c r="H578" s="23"/>
-      <c r="K578" s="43"/>
-      <c r="L578" s="43"/>
+      <c r="K578" s="42"/>
+      <c r="L578" s="42"/>
     </row>
     <row r="579">
-      <c r="G579" s="44"/>
+      <c r="G579" s="43"/>
       <c r="H579" s="23"/>
-      <c r="K579" s="43"/>
-      <c r="L579" s="43"/>
+      <c r="K579" s="42"/>
+      <c r="L579" s="42"/>
     </row>
     <row r="580">
-      <c r="G580" s="44"/>
+      <c r="G580" s="43"/>
       <c r="H580" s="23"/>
-      <c r="K580" s="43"/>
-      <c r="L580" s="43"/>
+      <c r="K580" s="42"/>
+      <c r="L580" s="42"/>
     </row>
     <row r="581">
-      <c r="G581" s="44"/>
+      <c r="G581" s="43"/>
       <c r="H581" s="23"/>
-      <c r="K581" s="43"/>
-      <c r="L581" s="43"/>
+      <c r="K581" s="42"/>
+      <c r="L581" s="42"/>
     </row>
     <row r="582">
-      <c r="G582" s="44"/>
+      <c r="G582" s="43"/>
       <c r="H582" s="23"/>
-      <c r="K582" s="43"/>
-      <c r="L582" s="43"/>
+      <c r="K582" s="42"/>
+      <c r="L582" s="42"/>
     </row>
     <row r="583">
-      <c r="G583" s="44"/>
+      <c r="G583" s="43"/>
       <c r="H583" s="23"/>
-      <c r="K583" s="43"/>
-      <c r="L583" s="43"/>
+      <c r="K583" s="42"/>
+      <c r="L583" s="42"/>
     </row>
     <row r="584">
-      <c r="G584" s="44"/>
+      <c r="G584" s="43"/>
       <c r="H584" s="23"/>
-      <c r="K584" s="43"/>
-      <c r="L584" s="43"/>
+      <c r="K584" s="42"/>
+      <c r="L584" s="42"/>
     </row>
     <row r="585">
-      <c r="G585" s="44"/>
+      <c r="G585" s="43"/>
       <c r="H585" s="23"/>
-      <c r="K585" s="43"/>
-      <c r="L585" s="43"/>
+      <c r="K585" s="42"/>
+      <c r="L585" s="42"/>
     </row>
     <row r="586">
-      <c r="G586" s="44"/>
+      <c r="G586" s="43"/>
       <c r="H586" s="23"/>
-      <c r="K586" s="43"/>
-      <c r="L586" s="43"/>
+      <c r="K586" s="42"/>
+      <c r="L586" s="42"/>
     </row>
     <row r="587">
-      <c r="G587" s="44"/>
+      <c r="G587" s="43"/>
       <c r="H587" s="23"/>
-      <c r="K587" s="43"/>
-      <c r="L587" s="43"/>
+      <c r="K587" s="42"/>
+      <c r="L587" s="42"/>
     </row>
     <row r="588">
-      <c r="G588" s="44"/>
+      <c r="G588" s="43"/>
       <c r="H588" s="23"/>
-      <c r="K588" s="43"/>
-      <c r="L588" s="43"/>
+      <c r="K588" s="42"/>
+      <c r="L588" s="42"/>
     </row>
     <row r="589">
-      <c r="G589" s="44"/>
+      <c r="G589" s="43"/>
       <c r="H589" s="23"/>
-      <c r="K589" s="43"/>
-      <c r="L589" s="43"/>
+      <c r="K589" s="42"/>
+      <c r="L589" s="42"/>
     </row>
     <row r="590">
-      <c r="G590" s="44"/>
+      <c r="G590" s="43"/>
       <c r="H590" s="23"/>
-      <c r="K590" s="43"/>
-      <c r="L590" s="43"/>
+      <c r="K590" s="42"/>
+      <c r="L590" s="42"/>
     </row>
     <row r="591">
-      <c r="G591" s="44"/>
+      <c r="G591" s="43"/>
       <c r="H591" s="23"/>
-      <c r="K591" s="43"/>
-      <c r="L591" s="43"/>
+      <c r="K591" s="42"/>
+      <c r="L591" s="42"/>
     </row>
     <row r="592">
-      <c r="G592" s="44"/>
+      <c r="G592" s="43"/>
       <c r="H592" s="23"/>
-      <c r="K592" s="43"/>
-      <c r="L592" s="43"/>
+      <c r="K592" s="42"/>
+      <c r="L592" s="42"/>
     </row>
     <row r="593">
-      <c r="G593" s="44"/>
+      <c r="G593" s="43"/>
       <c r="H593" s="23"/>
-      <c r="K593" s="43"/>
-      <c r="L593" s="43"/>
+      <c r="K593" s="42"/>
+      <c r="L593" s="42"/>
     </row>
     <row r="594">
-      <c r="G594" s="44"/>
+      <c r="G594" s="43"/>
       <c r="H594" s="23"/>
-      <c r="K594" s="43"/>
-      <c r="L594" s="43"/>
+      <c r="K594" s="42"/>
+      <c r="L594" s="42"/>
     </row>
     <row r="595">
-      <c r="G595" s="44"/>
+      <c r="G595" s="43"/>
       <c r="H595" s="23"/>
-      <c r="K595" s="43"/>
-      <c r="L595" s="43"/>
+      <c r="K595" s="42"/>
+      <c r="L595" s="42"/>
     </row>
     <row r="596">
-      <c r="G596" s="44"/>
+      <c r="G596" s="43"/>
       <c r="H596" s="23"/>
-      <c r="K596" s="43"/>
-      <c r="L596" s="43"/>
+      <c r="K596" s="42"/>
+      <c r="L596" s="42"/>
     </row>
     <row r="597">
-      <c r="G597" s="44"/>
+      <c r="G597" s="43"/>
       <c r="H597" s="23"/>
-      <c r="K597" s="43"/>
-      <c r="L597" s="43"/>
+      <c r="K597" s="42"/>
+      <c r="L597" s="42"/>
     </row>
     <row r="598">
-      <c r="G598" s="44"/>
+      <c r="G598" s="43"/>
       <c r="H598" s="23"/>
-      <c r="K598" s="43"/>
-      <c r="L598" s="43"/>
+      <c r="K598" s="42"/>
+      <c r="L598" s="42"/>
     </row>
     <row r="599">
-      <c r="G599" s="44"/>
+      <c r="G599" s="43"/>
       <c r="H599" s="23"/>
-      <c r="K599" s="43"/>
-      <c r="L599" s="43"/>
+      <c r="K599" s="42"/>
+      <c r="L599" s="42"/>
     </row>
     <row r="600">
-      <c r="G600" s="44"/>
+      <c r="G600" s="43"/>
       <c r="H600" s="23"/>
-      <c r="K600" s="43"/>
-      <c r="L600" s="43"/>
+      <c r="K600" s="42"/>
+      <c r="L600" s="42"/>
     </row>
     <row r="601">
-      <c r="G601" s="44"/>
+      <c r="G601" s="43"/>
       <c r="H601" s="23"/>
-      <c r="K601" s="43"/>
-      <c r="L601" s="43"/>
+      <c r="K601" s="42"/>
+      <c r="L601" s="42"/>
     </row>
     <row r="602">
-      <c r="G602" s="44"/>
+      <c r="G602" s="43"/>
       <c r="H602" s="23"/>
-      <c r="K602" s="43"/>
-      <c r="L602" s="43"/>
+      <c r="K602" s="42"/>
+      <c r="L602" s="42"/>
     </row>
     <row r="603">
-      <c r="G603" s="44"/>
+      <c r="G603" s="43"/>
       <c r="H603" s="23"/>
-      <c r="K603" s="43"/>
-      <c r="L603" s="43"/>
+      <c r="K603" s="42"/>
+      <c r="L603" s="42"/>
     </row>
     <row r="604">
-      <c r="G604" s="44"/>
+      <c r="G604" s="43"/>
       <c r="H604" s="23"/>
-      <c r="K604" s="43"/>
-      <c r="L604" s="43"/>
+      <c r="K604" s="42"/>
+      <c r="L604" s="42"/>
     </row>
     <row r="605">
-      <c r="G605" s="44"/>
+      <c r="G605" s="43"/>
       <c r="H605" s="23"/>
-      <c r="K605" s="43"/>
-      <c r="L605" s="43"/>
+      <c r="K605" s="42"/>
+      <c r="L605" s="42"/>
     </row>
     <row r="606">
-      <c r="G606" s="44"/>
+      <c r="G606" s="43"/>
       <c r="H606" s="23"/>
-      <c r="K606" s="43"/>
-      <c r="L606" s="43"/>
+      <c r="K606" s="42"/>
+      <c r="L606" s="42"/>
     </row>
     <row r="607">
-      <c r="G607" s="44"/>
+      <c r="G607" s="43"/>
       <c r="H607" s="23"/>
-      <c r="K607" s="43"/>
-      <c r="L607" s="43"/>
+      <c r="K607" s="42"/>
+      <c r="L607" s="42"/>
     </row>
     <row r="608">
-      <c r="G608" s="44"/>
+      <c r="G608" s="43"/>
       <c r="H608" s="23"/>
-      <c r="K608" s="43"/>
-      <c r="L608" s="43"/>
+      <c r="K608" s="42"/>
+      <c r="L608" s="42"/>
     </row>
     <row r="609">
-      <c r="G609" s="44"/>
+      <c r="G609" s="43"/>
       <c r="H609" s="23"/>
-      <c r="K609" s="43"/>
-      <c r="L609" s="43"/>
+      <c r="K609" s="42"/>
+      <c r="L609" s="42"/>
     </row>
     <row r="610">
-      <c r="G610" s="44"/>
+      <c r="G610" s="43"/>
       <c r="H610" s="23"/>
-      <c r="K610" s="43"/>
-      <c r="L610" s="43"/>
+      <c r="K610" s="42"/>
+      <c r="L610" s="42"/>
     </row>
     <row r="611">
-      <c r="G611" s="44"/>
+      <c r="G611" s="43"/>
       <c r="H611" s="23"/>
-      <c r="K611" s="43"/>
-      <c r="L611" s="43"/>
+      <c r="K611" s="42"/>
+      <c r="L611" s="42"/>
     </row>
     <row r="612">
-      <c r="G612" s="44"/>
+      <c r="G612" s="43"/>
       <c r="H612" s="23"/>
-      <c r="K612" s="43"/>
-      <c r="L612" s="43"/>
+      <c r="K612" s="42"/>
+      <c r="L612" s="42"/>
     </row>
     <row r="613">
-      <c r="G613" s="44"/>
+      <c r="G613" s="43"/>
       <c r="H613" s="23"/>
-      <c r="K613" s="43"/>
-      <c r="L613" s="43"/>
+      <c r="K613" s="42"/>
+      <c r="L613" s="42"/>
     </row>
     <row r="614">
-      <c r="G614" s="44"/>
+      <c r="G614" s="43"/>
       <c r="H614" s="23"/>
-      <c r="K614" s="43"/>
-      <c r="L614" s="43"/>
+      <c r="K614" s="42"/>
+      <c r="L614" s="42"/>
     </row>
     <row r="615">
-      <c r="G615" s="44"/>
+      <c r="G615" s="43"/>
       <c r="H615" s="23"/>
-      <c r="K615" s="43"/>
-      <c r="L615" s="43"/>
+      <c r="K615" s="42"/>
+      <c r="L615" s="42"/>
     </row>
     <row r="616">
-      <c r="G616" s="44"/>
+      <c r="G616" s="43"/>
       <c r="H616" s="23"/>
-      <c r="K616" s="43"/>
-      <c r="L616" s="43"/>
+      <c r="K616" s="42"/>
+      <c r="L616" s="42"/>
     </row>
     <row r="617">
-      <c r="G617" s="44"/>
+      <c r="G617" s="43"/>
       <c r="H617" s="23"/>
-      <c r="K617" s="43"/>
-      <c r="L617" s="43"/>
+      <c r="K617" s="42"/>
+      <c r="L617" s="42"/>
     </row>
     <row r="618">
-      <c r="G618" s="44"/>
+      <c r="G618" s="43"/>
       <c r="H618" s="23"/>
-      <c r="K618" s="43"/>
-      <c r="L618" s="43"/>
+      <c r="K618" s="42"/>
+      <c r="L618" s="42"/>
     </row>
     <row r="619">
-      <c r="G619" s="44"/>
+      <c r="G619" s="43"/>
       <c r="H619" s="23"/>
-      <c r="K619" s="43"/>
-      <c r="L619" s="43"/>
+      <c r="K619" s="42"/>
+      <c r="L619" s="42"/>
     </row>
     <row r="620">
-      <c r="G620" s="44"/>
+      <c r="G620" s="43"/>
       <c r="H620" s="23"/>
-      <c r="K620" s="43"/>
-      <c r="L620" s="43"/>
+      <c r="K620" s="42"/>
+      <c r="L620" s="42"/>
     </row>
     <row r="621">
-      <c r="G621" s="44"/>
+      <c r="G621" s="43"/>
       <c r="H621" s="23"/>
-      <c r="K621" s="43"/>
-      <c r="L621" s="43"/>
+      <c r="K621" s="42"/>
+      <c r="L621" s="42"/>
     </row>
     <row r="622">
-      <c r="G622" s="44"/>
+      <c r="G622" s="43"/>
       <c r="H622" s="23"/>
-      <c r="K622" s="43"/>
-      <c r="L622" s="43"/>
+      <c r="K622" s="42"/>
+      <c r="L622" s="42"/>
     </row>
     <row r="623">
-      <c r="G623" s="44"/>
+      <c r="G623" s="43"/>
       <c r="H623" s="23"/>
-      <c r="K623" s="43"/>
-      <c r="L623" s="43"/>
+      <c r="K623" s="42"/>
+      <c r="L623" s="42"/>
     </row>
     <row r="624">
-      <c r="G624" s="44"/>
+      <c r="G624" s="43"/>
       <c r="H624" s="23"/>
-      <c r="K624" s="43"/>
-      <c r="L624" s="43"/>
+      <c r="K624" s="42"/>
+      <c r="L624" s="42"/>
     </row>
     <row r="625">
-      <c r="G625" s="44"/>
+      <c r="G625" s="43"/>
       <c r="H625" s="23"/>
-      <c r="K625" s="43"/>
-      <c r="L625" s="43"/>
+      <c r="K625" s="42"/>
+      <c r="L625" s="42"/>
     </row>
     <row r="626">
-      <c r="G626" s="44"/>
+      <c r="G626" s="43"/>
       <c r="H626" s="23"/>
-      <c r="K626" s="43"/>
-      <c r="L626" s="43"/>
+      <c r="K626" s="42"/>
+      <c r="L626" s="42"/>
     </row>
     <row r="627">
-      <c r="G627" s="44"/>
+      <c r="G627" s="43"/>
       <c r="H627" s="23"/>
-      <c r="K627" s="43"/>
-      <c r="L627" s="43"/>
+      <c r="K627" s="42"/>
+      <c r="L627" s="42"/>
     </row>
     <row r="628">
-      <c r="G628" s="44"/>
+      <c r="G628" s="43"/>
       <c r="H628" s="23"/>
-      <c r="K628" s="43"/>
-      <c r="L628" s="43"/>
+      <c r="K628" s="42"/>
+      <c r="L628" s="42"/>
     </row>
     <row r="629">
-      <c r="G629" s="44"/>
+      <c r="G629" s="43"/>
       <c r="H629" s="23"/>
-      <c r="K629" s="43"/>
-      <c r="L629" s="43"/>
+      <c r="K629" s="42"/>
+      <c r="L629" s="42"/>
     </row>
     <row r="630">
-      <c r="G630" s="44"/>
+      <c r="G630" s="43"/>
       <c r="H630" s="23"/>
-      <c r="K630" s="43"/>
-      <c r="L630" s="43"/>
+      <c r="K630" s="42"/>
+      <c r="L630" s="42"/>
     </row>
     <row r="631">
-      <c r="G631" s="44"/>
+      <c r="G631" s="43"/>
       <c r="H631" s="23"/>
-      <c r="K631" s="43"/>
-      <c r="L631" s="43"/>
+      <c r="K631" s="42"/>
+      <c r="L631" s="42"/>
     </row>
     <row r="632">
-      <c r="G632" s="44"/>
+      <c r="G632" s="43"/>
       <c r="H632" s="23"/>
-      <c r="K632" s="43"/>
-      <c r="L632" s="43"/>
+      <c r="K632" s="42"/>
+      <c r="L632" s="42"/>
     </row>
     <row r="633">
-      <c r="G633" s="44"/>
+      <c r="G633" s="43"/>
       <c r="H633" s="23"/>
-      <c r="K633" s="43"/>
-      <c r="L633" s="43"/>
+      <c r="K633" s="42"/>
+      <c r="L633" s="42"/>
     </row>
     <row r="634">
-      <c r="G634" s="44"/>
+      <c r="G634" s="43"/>
       <c r="H634" s="23"/>
-      <c r="K634" s="43"/>
-      <c r="L634" s="43"/>
+      <c r="K634" s="42"/>
+      <c r="L634" s="42"/>
     </row>
     <row r="635">
-      <c r="G635" s="44"/>
+      <c r="G635" s="43"/>
       <c r="H635" s="23"/>
-      <c r="K635" s="43"/>
-      <c r="L635" s="43"/>
+      <c r="K635" s="42"/>
+      <c r="L635" s="42"/>
     </row>
     <row r="636">
-      <c r="G636" s="44"/>
+      <c r="G636" s="43"/>
       <c r="H636" s="23"/>
-      <c r="K636" s="43"/>
-      <c r="L636" s="43"/>
+      <c r="K636" s="42"/>
+      <c r="L636" s="42"/>
     </row>
     <row r="637">
-      <c r="G637" s="44"/>
+      <c r="G637" s="43"/>
       <c r="H637" s="23"/>
-      <c r="K637" s="43"/>
-      <c r="L637" s="43"/>
+      <c r="K637" s="42"/>
+      <c r="L637" s="42"/>
     </row>
     <row r="638">
-      <c r="G638" s="44"/>
+      <c r="G638" s="43"/>
       <c r="H638" s="23"/>
-      <c r="K638" s="43"/>
-      <c r="L638" s="43"/>
+      <c r="K638" s="42"/>
+      <c r="L638" s="42"/>
     </row>
     <row r="639">
-      <c r="G639" s="44"/>
+      <c r="G639" s="43"/>
       <c r="H639" s="23"/>
-      <c r="K639" s="43"/>
-      <c r="L639" s="43"/>
+      <c r="K639" s="42"/>
+      <c r="L639" s="42"/>
     </row>
     <row r="640">
-      <c r="G640" s="44"/>
+      <c r="G640" s="43"/>
       <c r="H640" s="23"/>
-      <c r="K640" s="43"/>
-      <c r="L640" s="43"/>
+      <c r="K640" s="42"/>
+      <c r="L640" s="42"/>
     </row>
     <row r="641">
-      <c r="G641" s="44"/>
+      <c r="G641" s="43"/>
       <c r="H641" s="23"/>
-      <c r="K641" s="43"/>
-      <c r="L641" s="43"/>
+      <c r="K641" s="42"/>
+      <c r="L641" s="42"/>
     </row>
     <row r="642">
-      <c r="G642" s="44"/>
+      <c r="G642" s="43"/>
       <c r="H642" s="23"/>
-      <c r="K642" s="43"/>
-      <c r="L642" s="43"/>
+      <c r="K642" s="42"/>
+      <c r="L642" s="42"/>
     </row>
     <row r="643">
-      <c r="G643" s="44"/>
+      <c r="G643" s="43"/>
       <c r="H643" s="23"/>
-      <c r="K643" s="43"/>
-      <c r="L643" s="43"/>
+      <c r="K643" s="42"/>
+      <c r="L643" s="42"/>
     </row>
     <row r="644">
-      <c r="G644" s="44"/>
+      <c r="G644" s="43"/>
       <c r="H644" s="23"/>
-      <c r="K644" s="43"/>
-      <c r="L644" s="43"/>
+      <c r="K644" s="42"/>
+      <c r="L644" s="42"/>
     </row>
     <row r="645">
-      <c r="G645" s="44"/>
+      <c r="G645" s="43"/>
       <c r="H645" s="23"/>
-      <c r="K645" s="43"/>
-      <c r="L645" s="43"/>
+      <c r="K645" s="42"/>
+      <c r="L645" s="42"/>
     </row>
     <row r="646">
-      <c r="G646" s="44"/>
+      <c r="G646" s="43"/>
       <c r="H646" s="23"/>
-      <c r="K646" s="43"/>
-      <c r="L646" s="43"/>
+      <c r="K646" s="42"/>
+      <c r="L646" s="42"/>
     </row>
     <row r="647">
-      <c r="G647" s="44"/>
+      <c r="G647" s="43"/>
       <c r="H647" s="23"/>
-      <c r="K647" s="43"/>
-      <c r="L647" s="43"/>
+      <c r="K647" s="42"/>
+      <c r="L647" s="42"/>
     </row>
     <row r="648">
-      <c r="G648" s="44"/>
+      <c r="G648" s="43"/>
       <c r="H648" s="23"/>
-      <c r="K648" s="43"/>
-      <c r="L648" s="43"/>
+      <c r="K648" s="42"/>
+      <c r="L648" s="42"/>
     </row>
     <row r="649">
-      <c r="G649" s="44"/>
+      <c r="G649" s="43"/>
       <c r="H649" s="23"/>
-      <c r="K649" s="43"/>
-      <c r="L649" s="43"/>
+      <c r="K649" s="42"/>
+      <c r="L649" s="42"/>
     </row>
     <row r="650">
-      <c r="G650" s="44"/>
+      <c r="G650" s="43"/>
       <c r="H650" s="23"/>
-      <c r="K650" s="43"/>
-      <c r="L650" s="43"/>
+      <c r="K650" s="42"/>
+      <c r="L650" s="42"/>
     </row>
     <row r="651">
-      <c r="G651" s="44"/>
+      <c r="G651" s="43"/>
       <c r="H651" s="23"/>
-      <c r="K651" s="43"/>
-      <c r="L651" s="43"/>
+      <c r="K651" s="42"/>
+      <c r="L651" s="42"/>
     </row>
     <row r="652">
-      <c r="G652" s="44"/>
+      <c r="G652" s="43"/>
       <c r="H652" s="23"/>
-      <c r="K652" s="43"/>
-      <c r="L652" s="43"/>
+      <c r="K652" s="42"/>
+      <c r="L652" s="42"/>
     </row>
     <row r="653">
-      <c r="G653" s="44"/>
+      <c r="G653" s="43"/>
       <c r="H653" s="23"/>
-      <c r="K653" s="43"/>
-      <c r="L653" s="43"/>
+      <c r="K653" s="42"/>
+      <c r="L653" s="42"/>
     </row>
     <row r="654">
-      <c r="G654" s="44"/>
+      <c r="G654" s="43"/>
       <c r="H654" s="23"/>
-      <c r="K654" s="43"/>
-      <c r="L654" s="43"/>
+      <c r="K654" s="42"/>
+      <c r="L654" s="42"/>
     </row>
     <row r="655">
-      <c r="G655" s="44"/>
+      <c r="G655" s="43"/>
       <c r="H655" s="23"/>
-      <c r="K655" s="43"/>
-      <c r="L655" s="43"/>
+      <c r="K655" s="42"/>
+      <c r="L655" s="42"/>
     </row>
     <row r="656">
-      <c r="G656" s="44"/>
+      <c r="G656" s="43"/>
       <c r="H656" s="23"/>
-      <c r="K656" s="43"/>
-      <c r="L656" s="43"/>
+      <c r="K656" s="42"/>
+      <c r="L656" s="42"/>
     </row>
     <row r="657">
-      <c r="G657" s="44"/>
+      <c r="G657" s="43"/>
       <c r="H657" s="23"/>
-      <c r="K657" s="43"/>
-      <c r="L657" s="43"/>
+      <c r="K657" s="42"/>
+      <c r="L657" s="42"/>
     </row>
     <row r="658">
-      <c r="G658" s="44"/>
+      <c r="G658" s="43"/>
       <c r="H658" s="23"/>
-      <c r="K658" s="43"/>
-      <c r="L658" s="43"/>
+      <c r="K658" s="42"/>
+      <c r="L658" s="42"/>
     </row>
     <row r="659">
-      <c r="G659" s="44"/>
+      <c r="G659" s="43"/>
       <c r="H659" s="23"/>
-      <c r="K659" s="43"/>
-      <c r="L659" s="43"/>
+      <c r="K659" s="42"/>
+      <c r="L659" s="42"/>
     </row>
     <row r="660">
-      <c r="G660" s="44"/>
+      <c r="G660" s="43"/>
       <c r="H660" s="23"/>
-      <c r="K660" s="43"/>
-      <c r="L660" s="43"/>
+      <c r="K660" s="42"/>
+      <c r="L660" s="42"/>
     </row>
     <row r="661">
-      <c r="G661" s="44"/>
+      <c r="G661" s="43"/>
       <c r="H661" s="23"/>
-      <c r="K661" s="43"/>
-      <c r="L661" s="43"/>
+      <c r="K661" s="42"/>
+      <c r="L661" s="42"/>
     </row>
     <row r="662">
-      <c r="G662" s="44"/>
+      <c r="G662" s="43"/>
       <c r="H662" s="23"/>
-      <c r="K662" s="43"/>
-      <c r="L662" s="43"/>
+      <c r="K662" s="42"/>
+      <c r="L662" s="42"/>
     </row>
     <row r="663">
-      <c r="G663" s="44"/>
+      <c r="G663" s="43"/>
       <c r="H663" s="23"/>
-      <c r="K663" s="43"/>
-      <c r="L663" s="43"/>
+      <c r="K663" s="42"/>
+      <c r="L663" s="42"/>
     </row>
     <row r="664">
-      <c r="G664" s="44"/>
+      <c r="G664" s="43"/>
       <c r="H664" s="23"/>
-      <c r="K664" s="43"/>
-      <c r="L664" s="43"/>
+      <c r="K664" s="42"/>
+      <c r="L664" s="42"/>
     </row>
     <row r="665">
-      <c r="G665" s="44"/>
+      <c r="G665" s="43"/>
       <c r="H665" s="23"/>
-      <c r="K665" s="43"/>
-      <c r="L665" s="43"/>
+      <c r="K665" s="42"/>
+      <c r="L665" s="42"/>
     </row>
     <row r="666">
-      <c r="G666" s="44"/>
+      <c r="G666" s="43"/>
       <c r="H666" s="23"/>
-      <c r="K666" s="43"/>
-      <c r="L666" s="43"/>
+      <c r="K666" s="42"/>
+      <c r="L666" s="42"/>
     </row>
     <row r="667">
-      <c r="G667" s="44"/>
+      <c r="G667" s="43"/>
       <c r="H667" s="23"/>
-      <c r="K667" s="43"/>
-      <c r="L667" s="43"/>
+      <c r="K667" s="42"/>
+      <c r="L667" s="42"/>
     </row>
     <row r="668">
-      <c r="G668" s="44"/>
+      <c r="G668" s="43"/>
       <c r="H668" s="23"/>
-      <c r="K668" s="43"/>
-      <c r="L668" s="43"/>
+      <c r="K668" s="42"/>
+      <c r="L668" s="42"/>
     </row>
     <row r="669">
-      <c r="G669" s="44"/>
+      <c r="G669" s="43"/>
       <c r="H669" s="23"/>
-      <c r="K669" s="43"/>
-      <c r="L669" s="43"/>
+      <c r="K669" s="42"/>
+      <c r="L669" s="42"/>
     </row>
     <row r="670">
-      <c r="G670" s="44"/>
+      <c r="G670" s="43"/>
       <c r="H670" s="23"/>
-      <c r="K670" s="43"/>
-      <c r="L670" s="43"/>
+      <c r="K670" s="42"/>
+      <c r="L670" s="42"/>
     </row>
     <row r="671">
-      <c r="G671" s="44"/>
+      <c r="G671" s="43"/>
       <c r="H671" s="23"/>
-      <c r="K671" s="43"/>
-      <c r="L671" s="43"/>
+      <c r="K671" s="42"/>
+      <c r="L671" s="42"/>
     </row>
     <row r="672">
-      <c r="G672" s="44"/>
+      <c r="G672" s="43"/>
       <c r="H672" s="23"/>
-      <c r="K672" s="43"/>
-      <c r="L672" s="43"/>
+      <c r="K672" s="42"/>
+      <c r="L672" s="42"/>
     </row>
     <row r="673">
-      <c r="G673" s="44"/>
+      <c r="G673" s="43"/>
       <c r="H673" s="23"/>
-      <c r="K673" s="43"/>
-      <c r="L673" s="43"/>
+      <c r="K673" s="42"/>
+      <c r="L673" s="42"/>
     </row>
     <row r="674">
-      <c r="G674" s="44"/>
+      <c r="G674" s="43"/>
       <c r="H674" s="23"/>
-      <c r="K674" s="43"/>
-      <c r="L674" s="43"/>
+      <c r="K674" s="42"/>
+      <c r="L674" s="42"/>
     </row>
     <row r="675">
-      <c r="G675" s="44"/>
+      <c r="G675" s="43"/>
       <c r="H675" s="23"/>
-      <c r="K675" s="43"/>
-      <c r="L675" s="43"/>
+      <c r="K675" s="42"/>
+      <c r="L675" s="42"/>
     </row>
     <row r="676">
-      <c r="G676" s="44"/>
+      <c r="G676" s="43"/>
       <c r="H676" s="23"/>
-      <c r="K676" s="43"/>
-      <c r="L676" s="43"/>
+      <c r="K676" s="42"/>
+      <c r="L676" s="42"/>
     </row>
     <row r="677">
-      <c r="G677" s="44"/>
+      <c r="G677" s="43"/>
       <c r="H677" s="23"/>
-      <c r="K677" s="43"/>
-      <c r="L677" s="43"/>
+      <c r="K677" s="42"/>
+      <c r="L677" s="42"/>
     </row>
     <row r="678">
-      <c r="G678" s="44"/>
+      <c r="G678" s="43"/>
       <c r="H678" s="23"/>
-      <c r="K678" s="43"/>
-      <c r="L678" s="43"/>
+      <c r="K678" s="42"/>
+      <c r="L678" s="42"/>
     </row>
     <row r="679">
-      <c r="G679" s="44"/>
+      <c r="G679" s="43"/>
       <c r="H679" s="23"/>
-      <c r="K679" s="43"/>
-      <c r="L679" s="43"/>
+      <c r="K679" s="42"/>
+      <c r="L679" s="42"/>
     </row>
     <row r="680">
-      <c r="G680" s="44"/>
+      <c r="G680" s="43"/>
       <c r="H680" s="23"/>
-      <c r="K680" s="43"/>
-      <c r="L680" s="43"/>
+      <c r="K680" s="42"/>
+      <c r="L680" s="42"/>
     </row>
     <row r="681">
-      <c r="G681" s="44"/>
+      <c r="G681" s="43"/>
       <c r="H681" s="23"/>
-      <c r="K681" s="43"/>
-      <c r="L681" s="43"/>
+      <c r="K681" s="42"/>
+      <c r="L681" s="42"/>
     </row>
     <row r="682">
-      <c r="G682" s="44"/>
+      <c r="G682" s="43"/>
       <c r="H682" s="23"/>
-      <c r="K682" s="43"/>
-      <c r="L682" s="43"/>
+      <c r="K682" s="42"/>
+      <c r="L682" s="42"/>
     </row>
     <row r="683">
-      <c r="G683" s="44"/>
+      <c r="G683" s="43"/>
       <c r="H683" s="23"/>
-      <c r="K683" s="43"/>
-      <c r="L683" s="43"/>
+      <c r="K683" s="42"/>
+      <c r="L683" s="42"/>
     </row>
     <row r="684">
-      <c r="G684" s="44"/>
+      <c r="G684" s="43"/>
       <c r="H684" s="23"/>
-      <c r="K684" s="43"/>
-      <c r="L684" s="43"/>
+      <c r="K684" s="42"/>
+      <c r="L684" s="42"/>
     </row>
     <row r="685">
-      <c r="G685" s="44"/>
+      <c r="G685" s="43"/>
       <c r="H685" s="23"/>
-      <c r="K685" s="43"/>
-      <c r="L685" s="43"/>
+      <c r="K685" s="42"/>
+      <c r="L685" s="42"/>
     </row>
     <row r="686">
-      <c r="G686" s="44"/>
+      <c r="G686" s="43"/>
       <c r="H686" s="23"/>
-      <c r="K686" s="43"/>
-      <c r="L686" s="43"/>
+      <c r="K686" s="42"/>
+      <c r="L686" s="42"/>
     </row>
     <row r="687">
-      <c r="G687" s="44"/>
+      <c r="G687" s="43"/>
       <c r="H687" s="23"/>
-      <c r="K687" s="43"/>
-      <c r="L687" s="43"/>
+      <c r="K687" s="42"/>
+      <c r="L687" s="42"/>
     </row>
     <row r="688">
-      <c r="G688" s="44"/>
+      <c r="G688" s="43"/>
       <c r="H688" s="23"/>
-      <c r="K688" s="43"/>
-      <c r="L688" s="43"/>
+      <c r="K688" s="42"/>
+      <c r="L688" s="42"/>
     </row>
     <row r="689">
-      <c r="G689" s="44"/>
+      <c r="G689" s="43"/>
       <c r="H689" s="23"/>
-      <c r="K689" s="43"/>
-      <c r="L689" s="43"/>
+      <c r="K689" s="42"/>
+      <c r="L689" s="42"/>
     </row>
     <row r="690">
-      <c r="G690" s="44"/>
+      <c r="G690" s="43"/>
       <c r="H690" s="23"/>
-      <c r="K690" s="43"/>
-      <c r="L690" s="43"/>
+      <c r="K690" s="42"/>
+      <c r="L690" s="42"/>
     </row>
     <row r="691">
-      <c r="G691" s="44"/>
+      <c r="G691" s="43"/>
       <c r="H691" s="23"/>
-      <c r="K691" s="43"/>
-      <c r="L691" s="43"/>
+      <c r="K691" s="42"/>
+      <c r="L691" s="42"/>
     </row>
     <row r="692">
-      <c r="G692" s="44"/>
+      <c r="G692" s="43"/>
       <c r="H692" s="23"/>
-      <c r="K692" s="43"/>
-      <c r="L692" s="43"/>
+      <c r="K692" s="42"/>
+      <c r="L692" s="42"/>
     </row>
     <row r="693">
-      <c r="G693" s="44"/>
+      <c r="G693" s="43"/>
       <c r="H693" s="23"/>
-      <c r="K693" s="43"/>
-      <c r="L693" s="43"/>
+      <c r="K693" s="42"/>
+      <c r="L693" s="42"/>
     </row>
     <row r="694">
-      <c r="G694" s="44"/>
+      <c r="G694" s="43"/>
       <c r="H694" s="23"/>
-      <c r="K694" s="43"/>
-      <c r="L694" s="43"/>
+      <c r="K694" s="42"/>
+      <c r="L694" s="42"/>
     </row>
     <row r="695">
-      <c r="G695" s="44"/>
+      <c r="G695" s="43"/>
       <c r="H695" s="23"/>
-      <c r="K695" s="43"/>
-      <c r="L695" s="43"/>
+      <c r="K695" s="42"/>
+      <c r="L695" s="42"/>
     </row>
     <row r="696">
-      <c r="G696" s="44"/>
+      <c r="G696" s="43"/>
       <c r="H696" s="23"/>
-      <c r="K696" s="43"/>
-      <c r="L696" s="43"/>
+      <c r="K696" s="42"/>
+      <c r="L696" s="42"/>
     </row>
     <row r="697">
-      <c r="G697" s="44"/>
+      <c r="G697" s="43"/>
       <c r="H697" s="23"/>
-      <c r="K697" s="43"/>
-      <c r="L697" s="43"/>
+      <c r="K697" s="42"/>
+      <c r="L697" s="42"/>
     </row>
     <row r="698">
-      <c r="G698" s="44"/>
+      <c r="G698" s="43"/>
       <c r="H698" s="23"/>
-      <c r="K698" s="43"/>
-      <c r="L698" s="43"/>
+      <c r="K698" s="42"/>
+      <c r="L698" s="42"/>
     </row>
     <row r="699">
-      <c r="G699" s="44"/>
+      <c r="G699" s="43"/>
       <c r="H699" s="23"/>
-      <c r="K699" s="43"/>
-      <c r="L699" s="43"/>
+      <c r="K699" s="42"/>
+      <c r="L699" s="42"/>
     </row>
     <row r="700">
-      <c r="G700" s="44"/>
+      <c r="G700" s="43"/>
       <c r="H700" s="23"/>
-      <c r="K700" s="43"/>
-      <c r="L700" s="43"/>
+      <c r="K700" s="42"/>
+      <c r="L700" s="42"/>
     </row>
     <row r="701">
-      <c r="G701" s="44"/>
+      <c r="G701" s="43"/>
       <c r="H701" s="23"/>
-      <c r="K701" s="43"/>
-      <c r="L701" s="43"/>
+      <c r="K701" s="42"/>
+      <c r="L701" s="42"/>
     </row>
     <row r="702">
-      <c r="G702" s="44"/>
+      <c r="G702" s="43"/>
       <c r="H702" s="23"/>
-      <c r="K702" s="43"/>
-      <c r="L702" s="43"/>
+      <c r="K702" s="42"/>
+      <c r="L702" s="42"/>
     </row>
     <row r="703">
-      <c r="G703" s="44"/>
+      <c r="G703" s="43"/>
       <c r="H703" s="23"/>
-      <c r="K703" s="43"/>
-      <c r="L703" s="43"/>
+      <c r="K703" s="42"/>
+      <c r="L703" s="42"/>
     </row>
     <row r="704">
-      <c r="G704" s="44"/>
+      <c r="G704" s="43"/>
       <c r="H704" s="23"/>
-      <c r="K704" s="43"/>
-      <c r="L704" s="43"/>
+      <c r="K704" s="42"/>
+      <c r="L704" s="42"/>
     </row>
     <row r="705">
-      <c r="G705" s="44"/>
+      <c r="G705" s="43"/>
       <c r="H705" s="23"/>
-      <c r="K705" s="43"/>
-      <c r="L705" s="43"/>
+      <c r="K705" s="42"/>
+      <c r="L705" s="42"/>
     </row>
     <row r="706">
-      <c r="G706" s="44"/>
+      <c r="G706" s="43"/>
       <c r="H706" s="23"/>
-      <c r="K706" s="43"/>
-      <c r="L706" s="43"/>
+      <c r="K706" s="42"/>
+      <c r="L706" s="42"/>
     </row>
     <row r="707">
-      <c r="G707" s="44"/>
+      <c r="G707" s="43"/>
       <c r="H707" s="23"/>
-      <c r="K707" s="43"/>
-      <c r="L707" s="43"/>
+      <c r="K707" s="42"/>
+      <c r="L707" s="42"/>
     </row>
     <row r="708">
-      <c r="G708" s="44"/>
+      <c r="G708" s="43"/>
       <c r="H708" s="23"/>
-      <c r="K708" s="43"/>
-      <c r="L708" s="43"/>
+      <c r="K708" s="42"/>
+      <c r="L708" s="42"/>
     </row>
     <row r="709">
-      <c r="G709" s="44"/>
+      <c r="G709" s="43"/>
       <c r="H709" s="23"/>
-      <c r="K709" s="43"/>
-      <c r="L709" s="43"/>
+      <c r="K709" s="42"/>
+      <c r="L709" s="42"/>
     </row>
     <row r="710">
-      <c r="G710" s="44"/>
+      <c r="G710" s="43"/>
       <c r="H710" s="23"/>
-      <c r="K710" s="43"/>
-      <c r="L710" s="43"/>
+      <c r="K710" s="42"/>
+      <c r="L710" s="42"/>
     </row>
     <row r="711">
-      <c r="G711" s="44"/>
+      <c r="G711" s="43"/>
       <c r="H711" s="23"/>
-      <c r="K711" s="43"/>
-      <c r="L711" s="43"/>
+      <c r="K711" s="42"/>
+      <c r="L711" s="42"/>
     </row>
     <row r="712">
-      <c r="G712" s="44"/>
+      <c r="G712" s="43"/>
       <c r="H712" s="23"/>
-      <c r="K712" s="43"/>
-      <c r="L712" s="43"/>
+      <c r="K712" s="42"/>
+      <c r="L712" s="42"/>
     </row>
     <row r="713">
-      <c r="G713" s="44"/>
+      <c r="G713" s="43"/>
       <c r="H713" s="23"/>
-      <c r="K713" s="43"/>
-      <c r="L713" s="43"/>
+      <c r="K713" s="42"/>
+      <c r="L713" s="42"/>
     </row>
     <row r="714">
-      <c r="G714" s="44"/>
+      <c r="G714" s="43"/>
       <c r="H714" s="23"/>
-      <c r="K714" s="43"/>
-      <c r="L714" s="43"/>
+      <c r="K714" s="42"/>
+      <c r="L714" s="42"/>
     </row>
     <row r="715">
-      <c r="G715" s="44"/>
+      <c r="G715" s="43"/>
       <c r="H715" s="23"/>
-      <c r="K715" s="43"/>
-      <c r="L715" s="43"/>
+      <c r="K715" s="42"/>
+      <c r="L715" s="42"/>
     </row>
     <row r="716">
-      <c r="G716" s="44"/>
+      <c r="G716" s="43"/>
       <c r="H716" s="23"/>
-      <c r="K716" s="43"/>
-      <c r="L716" s="43"/>
+      <c r="K716" s="42"/>
+      <c r="L716" s="42"/>
     </row>
     <row r="717">
-      <c r="G717" s="44"/>
+      <c r="G717" s="43"/>
       <c r="H717" s="23"/>
-      <c r="K717" s="43"/>
-      <c r="L717" s="43"/>
+      <c r="K717" s="42"/>
+      <c r="L717" s="42"/>
     </row>
     <row r="718">
-      <c r="G718" s="44"/>
+      <c r="G718" s="43"/>
       <c r="H718" s="23"/>
-      <c r="K718" s="43"/>
-      <c r="L718" s="43"/>
+      <c r="K718" s="42"/>
+      <c r="L718" s="42"/>
     </row>
     <row r="719">
-      <c r="G719" s="44"/>
+      <c r="G719" s="43"/>
       <c r="H719" s="23"/>
-      <c r="K719" s="43"/>
-      <c r="L719" s="43"/>
+      <c r="K719" s="42"/>
+      <c r="L719" s="42"/>
     </row>
     <row r="720">
-      <c r="G720" s="44"/>
+      <c r="G720" s="43"/>
       <c r="H720" s="23"/>
-      <c r="K720" s="43"/>
-      <c r="L720" s="43"/>
+      <c r="K720" s="42"/>
+      <c r="L720" s="42"/>
     </row>
     <row r="721">
-      <c r="G721" s="44"/>
+      <c r="G721" s="43"/>
       <c r="H721" s="23"/>
-      <c r="K721" s="43"/>
-      <c r="L721" s="43"/>
+      <c r="K721" s="42"/>
+      <c r="L721" s="42"/>
     </row>
     <row r="722">
-      <c r="G722" s="44"/>
+      <c r="G722" s="43"/>
       <c r="H722" s="23"/>
-      <c r="K722" s="43"/>
-      <c r="L722" s="43"/>
+      <c r="K722" s="42"/>
+      <c r="L722" s="42"/>
     </row>
     <row r="723">
-      <c r="G723" s="44"/>
+      <c r="G723" s="43"/>
       <c r="H723" s="23"/>
-      <c r="K723" s="43"/>
-      <c r="L723" s="43"/>
+      <c r="K723" s="42"/>
+      <c r="L723" s="42"/>
     </row>
     <row r="724">
-      <c r="G724" s="44"/>
+      <c r="G724" s="43"/>
       <c r="H724" s="23"/>
-      <c r="K724" s="43"/>
-      <c r="L724" s="43"/>
+      <c r="K724" s="42"/>
+      <c r="L724" s="42"/>
     </row>
     <row r="725">
-      <c r="G725" s="44"/>
+      <c r="G725" s="43"/>
       <c r="H725" s="23"/>
-      <c r="K725" s="43"/>
-      <c r="L725" s="43"/>
+      <c r="K725" s="42"/>
+      <c r="L725" s="42"/>
     </row>
     <row r="726">
-      <c r="G726" s="44"/>
+      <c r="G726" s="43"/>
       <c r="H726" s="23"/>
-      <c r="K726" s="43"/>
-      <c r="L726" s="43"/>
+      <c r="K726" s="42"/>
+      <c r="L726" s="42"/>
     </row>
     <row r="727">
-      <c r="G727" s="44"/>
+      <c r="G727" s="43"/>
       <c r="H727" s="23"/>
-      <c r="K727" s="43"/>
-      <c r="L727" s="43"/>
+      <c r="K727" s="42"/>
+      <c r="L727" s="42"/>
     </row>
     <row r="728">
-      <c r="G728" s="44"/>
+      <c r="G728" s="43"/>
       <c r="H728" s="23"/>
-      <c r="K728" s="43"/>
-      <c r="L728" s="43"/>
+      <c r="K728" s="42"/>
+      <c r="L728" s="42"/>
     </row>
     <row r="729">
-      <c r="G729" s="44"/>
+      <c r="G729" s="43"/>
       <c r="H729" s="23"/>
-      <c r="K729" s="43"/>
-      <c r="L729" s="43"/>
+      <c r="K729" s="42"/>
+      <c r="L729" s="42"/>
     </row>
     <row r="730">
-      <c r="G730" s="44"/>
+      <c r="G730" s="43"/>
       <c r="H730" s="23"/>
-      <c r="K730" s="43"/>
-      <c r="L730" s="43"/>
+      <c r="K730" s="42"/>
+      <c r="L730" s="42"/>
     </row>
     <row r="731">
-      <c r="G731" s="44"/>
+      <c r="G731" s="43"/>
       <c r="H731" s="23"/>
-      <c r="K731" s="43"/>
-      <c r="L731" s="43"/>
+      <c r="K731" s="42"/>
+      <c r="L731" s="42"/>
     </row>
     <row r="732">
-      <c r="G732" s="44"/>
+      <c r="G732" s="43"/>
       <c r="H732" s="23"/>
-      <c r="K732" s="43"/>
-      <c r="L732" s="43"/>
+      <c r="K732" s="42"/>
+      <c r="L732" s="42"/>
     </row>
     <row r="733">
-      <c r="G733" s="44"/>
+      <c r="G733" s="43"/>
       <c r="H733" s="23"/>
-      <c r="K733" s="43"/>
-      <c r="L733" s="43"/>
+      <c r="K733" s="42"/>
+      <c r="L733" s="42"/>
     </row>
     <row r="734">
-      <c r="G734" s="44"/>
+      <c r="G734" s="43"/>
       <c r="H734" s="23"/>
-      <c r="K734" s="43"/>
-      <c r="L734" s="43"/>
+      <c r="K734" s="42"/>
+      <c r="L734" s="42"/>
     </row>
     <row r="735">
-      <c r="G735" s="44"/>
+      <c r="G735" s="43"/>
       <c r="H735" s="23"/>
-      <c r="K735" s="43"/>
-      <c r="L735" s="43"/>
+      <c r="K735" s="42"/>
+      <c r="L735" s="42"/>
     </row>
     <row r="736">
-      <c r="G736" s="44"/>
+      <c r="G736" s="43"/>
       <c r="H736" s="23"/>
-      <c r="K736" s="43"/>
-      <c r="L736" s="43"/>
+      <c r="K736" s="42"/>
+      <c r="L736" s="42"/>
     </row>
     <row r="737">
-      <c r="G737" s="44"/>
+      <c r="G737" s="43"/>
       <c r="H737" s="23"/>
-      <c r="K737" s="43"/>
-      <c r="L737" s="43"/>
+      <c r="K737" s="42"/>
+      <c r="L737" s="42"/>
     </row>
     <row r="738">
-      <c r="G738" s="44"/>
+      <c r="G738" s="43"/>
       <c r="H738" s="23"/>
-      <c r="K738" s="43"/>
-      <c r="L738" s="43"/>
+      <c r="K738" s="42"/>
+      <c r="L738" s="42"/>
     </row>
     <row r="739">
-      <c r="G739" s="44"/>
+      <c r="G739" s="43"/>
       <c r="H739" s="23"/>
-      <c r="K739" s="43"/>
-      <c r="L739" s="43"/>
+      <c r="K739" s="42"/>
+      <c r="L739" s="42"/>
     </row>
     <row r="740">
-      <c r="G740" s="44"/>
+      <c r="G740" s="43"/>
       <c r="H740" s="23"/>
-      <c r="K740" s="43"/>
-      <c r="L740" s="43"/>
+      <c r="K740" s="42"/>
+      <c r="L740" s="42"/>
     </row>
     <row r="741">
-      <c r="G741" s="44"/>
+      <c r="G741" s="43"/>
       <c r="H741" s="23"/>
-      <c r="K741" s="43"/>
-      <c r="L741" s="43"/>
+      <c r="K741" s="42"/>
+      <c r="L741" s="42"/>
     </row>
     <row r="742">
-      <c r="G742" s="44"/>
+      <c r="G742" s="43"/>
       <c r="H742" s="23"/>
-      <c r="K742" s="43"/>
-      <c r="L742" s="43"/>
+      <c r="K742" s="42"/>
+      <c r="L742" s="42"/>
     </row>
     <row r="743">
-      <c r="G743" s="44"/>
+      <c r="G743" s="43"/>
       <c r="H743" s="23"/>
-      <c r="K743" s="43"/>
-      <c r="L743" s="43"/>
+      <c r="K743" s="42"/>
+      <c r="L743" s="42"/>
     </row>
     <row r="744">
-      <c r="G744" s="44"/>
+      <c r="G744" s="43"/>
       <c r="H744" s="23"/>
-      <c r="K744" s="43"/>
-      <c r="L744" s="43"/>
+      <c r="K744" s="42"/>
+      <c r="L744" s="42"/>
     </row>
     <row r="745">
-      <c r="G745" s="44"/>
+      <c r="G745" s="43"/>
       <c r="H745" s="23"/>
-      <c r="K745" s="43"/>
-      <c r="L745" s="43"/>
+      <c r="K745" s="42"/>
+      <c r="L745" s="42"/>
     </row>
     <row r="746">
-      <c r="G746" s="44"/>
+      <c r="G746" s="43"/>
       <c r="H746" s="23"/>
-      <c r="K746" s="43"/>
-      <c r="L746" s="43"/>
+      <c r="K746" s="42"/>
+      <c r="L746" s="42"/>
     </row>
     <row r="747">
-      <c r="G747" s="44"/>
+      <c r="G747" s="43"/>
       <c r="H747" s="23"/>
-      <c r="K747" s="43"/>
-      <c r="L747" s="43"/>
+      <c r="K747" s="42"/>
+      <c r="L747" s="42"/>
     </row>
     <row r="748">
-      <c r="G748" s="44"/>
+      <c r="G748" s="43"/>
       <c r="H748" s="23"/>
-      <c r="K748" s="43"/>
-      <c r="L748" s="43"/>
+      <c r="K748" s="42"/>
+      <c r="L748" s="42"/>
     </row>
     <row r="749">
-      <c r="G749" s="44"/>
+      <c r="G749" s="43"/>
       <c r="H749" s="23"/>
-      <c r="K749" s="43"/>
-      <c r="L749" s="43"/>
+      <c r="K749" s="42"/>
+      <c r="L749" s="42"/>
     </row>
     <row r="750">
-      <c r="G750" s="44"/>
+      <c r="G750" s="43"/>
       <c r="H750" s="23"/>
-      <c r="K750" s="43"/>
-      <c r="L750" s="43"/>
+      <c r="K750" s="42"/>
+      <c r="L750" s="42"/>
     </row>
     <row r="751">
-      <c r="G751" s="44"/>
+      <c r="G751" s="43"/>
       <c r="H751" s="23"/>
-      <c r="K751" s="43"/>
-      <c r="L751" s="43"/>
+      <c r="K751" s="42"/>
+      <c r="L751" s="42"/>
     </row>
     <row r="752">
-      <c r="G752" s="44"/>
+      <c r="G752" s="43"/>
       <c r="H752" s="23"/>
-      <c r="K752" s="43"/>
-      <c r="L752" s="43"/>
+      <c r="K752" s="42"/>
+      <c r="L752" s="42"/>
     </row>
     <row r="753">
-      <c r="G753" s="44"/>
+      <c r="G753" s="43"/>
       <c r="H753" s="23"/>
-      <c r="K753" s="43"/>
-      <c r="L753" s="43"/>
+      <c r="K753" s="42"/>
+      <c r="L753" s="42"/>
     </row>
     <row r="754">
-      <c r="G754" s="44"/>
+      <c r="G754" s="43"/>
       <c r="H754" s="23"/>
-      <c r="K754" s="43"/>
-      <c r="L754" s="43"/>
+      <c r="K754" s="42"/>
+      <c r="L754" s="42"/>
     </row>
     <row r="755">
-      <c r="G755" s="44"/>
+      <c r="G755" s="43"/>
       <c r="H755" s="23"/>
-      <c r="K755" s="43"/>
-      <c r="L755" s="43"/>
+      <c r="K755" s="42"/>
+      <c r="L755" s="42"/>
     </row>
     <row r="756">
-      <c r="G756" s="44"/>
+      <c r="G756" s="43"/>
       <c r="H756" s="23"/>
-      <c r="K756" s="43"/>
-      <c r="L756" s="43"/>
+      <c r="K756" s="42"/>
+      <c r="L756" s="42"/>
     </row>
     <row r="757">
-      <c r="G757" s="44"/>
+      <c r="G757" s="43"/>
       <c r="H757" s="23"/>
-      <c r="K757" s="43"/>
-      <c r="L757" s="43"/>
+      <c r="K757" s="42"/>
+      <c r="L757" s="42"/>
     </row>
     <row r="758">
-      <c r="G758" s="44"/>
+      <c r="G758" s="43"/>
       <c r="H758" s="23"/>
-      <c r="K758" s="43"/>
-      <c r="L758" s="43"/>
+      <c r="K758" s="42"/>
+      <c r="L758" s="42"/>
     </row>
     <row r="759">
-      <c r="G759" s="44"/>
+      <c r="G759" s="43"/>
       <c r="H759" s="23"/>
-      <c r="K759" s="43"/>
-      <c r="L759" s="43"/>
+      <c r="K759" s="42"/>
+      <c r="L759" s="42"/>
     </row>
     <row r="760">
-      <c r="G760" s="44"/>
+      <c r="G760" s="43"/>
       <c r="H760" s="23"/>
-      <c r="K760" s="43"/>
-      <c r="L760" s="43"/>
+      <c r="K760" s="42"/>
+      <c r="L760" s="42"/>
     </row>
     <row r="761">
-      <c r="G761" s="44"/>
+      <c r="G761" s="43"/>
       <c r="H761" s="23"/>
-      <c r="K761" s="43"/>
-      <c r="L761" s="43"/>
+      <c r="K761" s="42"/>
+      <c r="L761" s="42"/>
     </row>
     <row r="762">
-      <c r="G762" s="44"/>
+      <c r="G762" s="43"/>
       <c r="H762" s="23"/>
-      <c r="K762" s="43"/>
-      <c r="L762" s="43"/>
+      <c r="K762" s="42"/>
+      <c r="L762" s="42"/>
     </row>
     <row r="763">
-      <c r="G763" s="44"/>
+      <c r="G763" s="43"/>
       <c r="H763" s="23"/>
-      <c r="K763" s="43"/>
-      <c r="L763" s="43"/>
+      <c r="K763" s="42"/>
+      <c r="L763" s="42"/>
     </row>
     <row r="764">
-      <c r="G764" s="44"/>
+      <c r="G764" s="43"/>
       <c r="H764" s="23"/>
-      <c r="K764" s="43"/>
-      <c r="L764" s="43"/>
+      <c r="K764" s="42"/>
+      <c r="L764" s="42"/>
     </row>
     <row r="765">
-      <c r="G765" s="44"/>
+      <c r="G765" s="43"/>
       <c r="H765" s="23"/>
-      <c r="K765" s="43"/>
-      <c r="L765" s="43"/>
+      <c r="K765" s="42"/>
+      <c r="L765" s="42"/>
     </row>
     <row r="766">
-      <c r="G766" s="44"/>
+      <c r="G766" s="43"/>
       <c r="H766" s="23"/>
-      <c r="K766" s="43"/>
-      <c r="L766" s="43"/>
+      <c r="K766" s="42"/>
+      <c r="L766" s="42"/>
     </row>
     <row r="767">
-      <c r="G767" s="44"/>
+      <c r="G767" s="43"/>
       <c r="H767" s="23"/>
-      <c r="K767" s="43"/>
-      <c r="L767" s="43"/>
+      <c r="K767" s="42"/>
+      <c r="L767" s="42"/>
     </row>
     <row r="768">
-      <c r="G768" s="44"/>
+      <c r="G768" s="43"/>
       <c r="H768" s="23"/>
-      <c r="K768" s="43"/>
-      <c r="L768" s="43"/>
+      <c r="K768" s="42"/>
+      <c r="L768" s="42"/>
     </row>
     <row r="769">
-      <c r="G769" s="44"/>
+      <c r="G769" s="43"/>
       <c r="H769" s="23"/>
-      <c r="K769" s="43"/>
-      <c r="L769" s="43"/>
+      <c r="K769" s="42"/>
+      <c r="L769" s="42"/>
     </row>
     <row r="770">
-      <c r="G770" s="44"/>
+      <c r="G770" s="43"/>
       <c r="H770" s="23"/>
-      <c r="K770" s="43"/>
-      <c r="L770" s="43"/>
+      <c r="K770" s="42"/>
+      <c r="L770" s="42"/>
     </row>
     <row r="771">
-      <c r="G771" s="44"/>
+      <c r="G771" s="43"/>
       <c r="H771" s="23"/>
-      <c r="K771" s="43"/>
-      <c r="L771" s="43"/>
+      <c r="K771" s="42"/>
+      <c r="L771" s="42"/>
     </row>
     <row r="772">
-      <c r="G772" s="44"/>
+      <c r="G772" s="43"/>
       <c r="H772" s="23"/>
-      <c r="K772" s="43"/>
-      <c r="L772" s="43"/>
+      <c r="K772" s="42"/>
+      <c r="L772" s="42"/>
     </row>
     <row r="773">
-      <c r="G773" s="44"/>
+      <c r="G773" s="43"/>
       <c r="H773" s="23"/>
-      <c r="K773" s="43"/>
-      <c r="L773" s="43"/>
+      <c r="K773" s="42"/>
+      <c r="L773" s="42"/>
     </row>
     <row r="774">
-      <c r="G774" s="44"/>
+      <c r="G774" s="43"/>
       <c r="H774" s="23"/>
-      <c r="K774" s="43"/>
-      <c r="L774" s="43"/>
+      <c r="K774" s="42"/>
+      <c r="L774" s="42"/>
     </row>
     <row r="775">
-      <c r="G775" s="44"/>
+      <c r="G775" s="43"/>
       <c r="H775" s="23"/>
-      <c r="K775" s="43"/>
-      <c r="L775" s="43"/>
+      <c r="K775" s="42"/>
+      <c r="L775" s="42"/>
     </row>
     <row r="776">
-      <c r="G776" s="44"/>
+      <c r="G776" s="43"/>
       <c r="H776" s="23"/>
-      <c r="K776" s="43"/>
-      <c r="L776" s="43"/>
+      <c r="K776" s="42"/>
+      <c r="L776" s="42"/>
     </row>
     <row r="777">
-      <c r="G777" s="44"/>
+      <c r="G777" s="43"/>
       <c r="H777" s="23"/>
-      <c r="K777" s="43"/>
-      <c r="L777" s="43"/>
+      <c r="K777" s="42"/>
+      <c r="L777" s="42"/>
     </row>
     <row r="778">
-      <c r="G778" s="44"/>
+      <c r="G778" s="43"/>
       <c r="H778" s="23"/>
-      <c r="K778" s="43"/>
-      <c r="L778" s="43"/>
+      <c r="K778" s="42"/>
+      <c r="L778" s="42"/>
     </row>
     <row r="779">
-      <c r="G779" s="44"/>
+      <c r="G779" s="43"/>
       <c r="H779" s="23"/>
-      <c r="K779" s="43"/>
-      <c r="L779" s="43"/>
+      <c r="K779" s="42"/>
+      <c r="L779" s="42"/>
     </row>
     <row r="780">
-      <c r="G780" s="44"/>
+      <c r="G780" s="43"/>
       <c r="H780" s="23"/>
-      <c r="K780" s="43"/>
-      <c r="L780" s="43"/>
+      <c r="K780" s="42"/>
+      <c r="L780" s="42"/>
     </row>
     <row r="781">
-      <c r="G781" s="44"/>
+      <c r="G781" s="43"/>
       <c r="H781" s="23"/>
-      <c r="K781" s="43"/>
-      <c r="L781" s="43"/>
+      <c r="K781" s="42"/>
+      <c r="L781" s="42"/>
     </row>
     <row r="782">
-      <c r="G782" s="44"/>
+      <c r="G782" s="43"/>
       <c r="H782" s="23"/>
-      <c r="K782" s="43"/>
-      <c r="L782" s="43"/>
+      <c r="K782" s="42"/>
+      <c r="L782" s="42"/>
     </row>
     <row r="783">
-      <c r="G783" s="44"/>
+      <c r="G783" s="43"/>
       <c r="H783" s="23"/>
-      <c r="K783" s="43"/>
-      <c r="L783" s="43"/>
+      <c r="K783" s="42"/>
+      <c r="L783" s="42"/>
     </row>
     <row r="784">
-      <c r="G784" s="44"/>
+      <c r="G784" s="43"/>
       <c r="H784" s="23"/>
-      <c r="K784" s="43"/>
-      <c r="L784" s="43"/>
+      <c r="K784" s="42"/>
+      <c r="L784" s="42"/>
     </row>
     <row r="785">
-      <c r="G785" s="44"/>
+      <c r="G785" s="43"/>
       <c r="H785" s="23"/>
-      <c r="K785" s="43"/>
-      <c r="L785" s="43"/>
+      <c r="K785" s="42"/>
+      <c r="L785" s="42"/>
     </row>
     <row r="786">
-      <c r="G786" s="44"/>
+      <c r="G786" s="43"/>
       <c r="H786" s="23"/>
-      <c r="K786" s="43"/>
-      <c r="L786" s="43"/>
+      <c r="K786" s="42"/>
+      <c r="L786" s="42"/>
     </row>
     <row r="787">
-      <c r="G787" s="44"/>
+      <c r="G787" s="43"/>
       <c r="H787" s="23"/>
-      <c r="K787" s="43"/>
-      <c r="L787" s="43"/>
+      <c r="K787" s="42"/>
+      <c r="L787" s="42"/>
     </row>
     <row r="788">
-      <c r="G788" s="44"/>
+      <c r="G788" s="43"/>
       <c r="H788" s="23"/>
-      <c r="K788" s="43"/>
-      <c r="L788" s="43"/>
+      <c r="K788" s="42"/>
+      <c r="L788" s="42"/>
     </row>
     <row r="789">
-      <c r="G789" s="44"/>
+      <c r="G789" s="43"/>
       <c r="H789" s="23"/>
-      <c r="K789" s="43"/>
-      <c r="L789" s="43"/>
+      <c r="K789" s="42"/>
+      <c r="L789" s="42"/>
     </row>
     <row r="790">
-      <c r="G790" s="44"/>
+      <c r="G790" s="43"/>
       <c r="H790" s="23"/>
-      <c r="K790" s="43"/>
-      <c r="L790" s="43"/>
+      <c r="K790" s="42"/>
+      <c r="L790" s="42"/>
     </row>
     <row r="791">
-      <c r="G791" s="44"/>
+      <c r="G791" s="43"/>
       <c r="H791" s="23"/>
-      <c r="K791" s="43"/>
-      <c r="L791" s="43"/>
+      <c r="K791" s="42"/>
+      <c r="L791" s="42"/>
     </row>
     <row r="792">
-      <c r="G792" s="44"/>
+      <c r="G792" s="43"/>
       <c r="H792" s="23"/>
-      <c r="K792" s="43"/>
-      <c r="L792" s="43"/>
+      <c r="K792" s="42"/>
+      <c r="L792" s="42"/>
     </row>
     <row r="793">
-      <c r="G793" s="44"/>
+      <c r="G793" s="43"/>
       <c r="H793" s="23"/>
-      <c r="K793" s="43"/>
-      <c r="L793" s="43"/>
+      <c r="K793" s="42"/>
+      <c r="L793" s="42"/>
     </row>
     <row r="794">
-      <c r="G794" s="44"/>
+      <c r="G794" s="43"/>
       <c r="H794" s="23"/>
-      <c r="K794" s="43"/>
-      <c r="L794" s="43"/>
+      <c r="K794" s="42"/>
+      <c r="L794" s="42"/>
     </row>
     <row r="795">
-      <c r="G795" s="44"/>
+      <c r="G795" s="43"/>
       <c r="H795" s="23"/>
-      <c r="K795" s="43"/>
-      <c r="L795" s="43"/>
+      <c r="K795" s="42"/>
+      <c r="L795" s="42"/>
     </row>
     <row r="796">
-      <c r="G796" s="44"/>
+      <c r="G796" s="43"/>
       <c r="H796" s="23"/>
-      <c r="K796" s="43"/>
-      <c r="L796" s="43"/>
+      <c r="K796" s="42"/>
+      <c r="L796" s="42"/>
     </row>
     <row r="797">
-      <c r="G797" s="44"/>
+      <c r="G797" s="43"/>
       <c r="H797" s="23"/>
-      <c r="K797" s="43"/>
-      <c r="L797" s="43"/>
+      <c r="K797" s="42"/>
+      <c r="L797" s="42"/>
     </row>
     <row r="798">
-      <c r="G798" s="44"/>
+      <c r="G798" s="43"/>
       <c r="H798" s="23"/>
-      <c r="K798" s="43"/>
-      <c r="L798" s="43"/>
+      <c r="K798" s="42"/>
+      <c r="L798" s="42"/>
     </row>
     <row r="799">
-      <c r="G799" s="44"/>
+      <c r="G799" s="43"/>
       <c r="H799" s="23"/>
-      <c r="K799" s="43"/>
-      <c r="L799" s="43"/>
+      <c r="K799" s="42"/>
+      <c r="L799" s="42"/>
     </row>
     <row r="800">
-      <c r="G800" s="44"/>
+      <c r="G800" s="43"/>
       <c r="H800" s="23"/>
-      <c r="K800" s="43"/>
-      <c r="L800" s="43"/>
+      <c r="K800" s="42"/>
+      <c r="L800" s="42"/>
     </row>
     <row r="801">
-      <c r="G801" s="44"/>
+      <c r="G801" s="43"/>
       <c r="H801" s="23"/>
-      <c r="K801" s="43"/>
-      <c r="L801" s="43"/>
+      <c r="K801" s="42"/>
+      <c r="L801" s="42"/>
     </row>
     <row r="802">
-      <c r="G802" s="44"/>
+      <c r="G802" s="43"/>
       <c r="H802" s="23"/>
-      <c r="K802" s="43"/>
-      <c r="L802" s="43"/>
+      <c r="K802" s="42"/>
+      <c r="L802" s="42"/>
     </row>
     <row r="803">
-      <c r="G803" s="44"/>
+      <c r="G803" s="43"/>
       <c r="H803" s="23"/>
-      <c r="K803" s="43"/>
-      <c r="L803" s="43"/>
+      <c r="K803" s="42"/>
+      <c r="L803" s="42"/>
     </row>
     <row r="804">
-      <c r="G804" s="44"/>
+      <c r="G804" s="43"/>
       <c r="H804" s="23"/>
-      <c r="K804" s="43"/>
-      <c r="L804" s="43"/>
+      <c r="K804" s="42"/>
+      <c r="L804" s="42"/>
     </row>
     <row r="805">
-      <c r="G805" s="44"/>
+      <c r="G805" s="43"/>
       <c r="H805" s="23"/>
-      <c r="K805" s="43"/>
-      <c r="L805" s="43"/>
+      <c r="K805" s="42"/>
+      <c r="L805" s="42"/>
     </row>
     <row r="806">
-      <c r="G806" s="44"/>
+      <c r="G806" s="43"/>
       <c r="H806" s="23"/>
-      <c r="K806" s="43"/>
-      <c r="L806" s="43"/>
+      <c r="K806" s="42"/>
+      <c r="L806" s="42"/>
     </row>
     <row r="807">
-      <c r="G807" s="44"/>
+      <c r="G807" s="43"/>
       <c r="H807" s="23"/>
-      <c r="K807" s="43"/>
-      <c r="L807" s="43"/>
+      <c r="K807" s="42"/>
+      <c r="L807" s="42"/>
     </row>
     <row r="808">
-      <c r="G808" s="44"/>
+      <c r="G808" s="43"/>
       <c r="H808" s="23"/>
-      <c r="K808" s="43"/>
-      <c r="L808" s="43"/>
+      <c r="K808" s="42"/>
+      <c r="L808" s="42"/>
     </row>
     <row r="809">
-      <c r="G809" s="44"/>
+      <c r="G809" s="43"/>
       <c r="H809" s="23"/>
-      <c r="K809" s="43"/>
-      <c r="L809" s="43"/>
+      <c r="K809" s="42"/>
+      <c r="L809" s="42"/>
     </row>
     <row r="810">
-      <c r="G810" s="44"/>
+      <c r="G810" s="43"/>
       <c r="H810" s="23"/>
-      <c r="K810" s="43"/>
-      <c r="L810" s="43"/>
+      <c r="K810" s="42"/>
+      <c r="L810" s="42"/>
     </row>
     <row r="811">
-      <c r="G811" s="44"/>
+      <c r="G811" s="43"/>
       <c r="H811" s="23"/>
-      <c r="K811" s="43"/>
-      <c r="L811" s="43"/>
+      <c r="K811" s="42"/>
+      <c r="L811" s="42"/>
     </row>
     <row r="812">
-      <c r="G812" s="44"/>
+      <c r="G812" s="43"/>
       <c r="H812" s="23"/>
-      <c r="K812" s="43"/>
-      <c r="L812" s="43"/>
+      <c r="K812" s="42"/>
+      <c r="L812" s="42"/>
     </row>
     <row r="813">
-      <c r="G813" s="44"/>
+      <c r="G813" s="43"/>
       <c r="H813" s="23"/>
-      <c r="K813" s="43"/>
-      <c r="L813" s="43"/>
+      <c r="K813" s="42"/>
+      <c r="L813" s="42"/>
     </row>
     <row r="814">
-      <c r="G814" s="44"/>
+      <c r="G814" s="43"/>
       <c r="H814" s="23"/>
-      <c r="K814" s="43"/>
-      <c r="L814" s="43"/>
+      <c r="K814" s="42"/>
+      <c r="L814" s="42"/>
     </row>
     <row r="815">
-      <c r="G815" s="44"/>
+      <c r="G815" s="43"/>
       <c r="H815" s="23"/>
-      <c r="K815" s="43"/>
-      <c r="L815" s="43"/>
+      <c r="K815" s="42"/>
+      <c r="L815" s="42"/>
     </row>
     <row r="816">
-      <c r="G816" s="44"/>
+      <c r="G816" s="43"/>
       <c r="H816" s="23"/>
-      <c r="K816" s="43"/>
-      <c r="L816" s="43"/>
+      <c r="K816" s="42"/>
+      <c r="L816" s="42"/>
     </row>
     <row r="817">
-      <c r="G817" s="44"/>
+      <c r="G817" s="43"/>
       <c r="H817" s="23"/>
-      <c r="K817" s="43"/>
-      <c r="L817" s="43"/>
+      <c r="K817" s="42"/>
+      <c r="L817" s="42"/>
     </row>
     <row r="818">
-      <c r="G818" s="44"/>
+      <c r="G818" s="43"/>
       <c r="H818" s="23"/>
-      <c r="K818" s="43"/>
-      <c r="L818" s="43"/>
+      <c r="K818" s="42"/>
+      <c r="L818" s="42"/>
     </row>
     <row r="819">
-      <c r="G819" s="44"/>
+      <c r="G819" s="43"/>
       <c r="H819" s="23"/>
-      <c r="K819" s="43"/>
-      <c r="L819" s="43"/>
+      <c r="K819" s="42"/>
+      <c r="L819" s="42"/>
     </row>
     <row r="820">
-      <c r="G820" s="44"/>
+      <c r="G820" s="43"/>
       <c r="H820" s="23"/>
-      <c r="K820" s="43"/>
-      <c r="L820" s="43"/>
+      <c r="K820" s="42"/>
+      <c r="L820" s="42"/>
     </row>
     <row r="821">
-      <c r="G821" s="44"/>
+      <c r="G821" s="43"/>
       <c r="H821" s="23"/>
-      <c r="K821" s="43"/>
-      <c r="L821" s="43"/>
+      <c r="K821" s="42"/>
+      <c r="L821" s="42"/>
     </row>
     <row r="822">
-      <c r="G822" s="44"/>
+      <c r="G822" s="43"/>
       <c r="H822" s="23"/>
-      <c r="K822" s="43"/>
-      <c r="L822" s="43"/>
+      <c r="K822" s="42"/>
+      <c r="L822" s="42"/>
     </row>
     <row r="823">
-      <c r="G823" s="44"/>
+      <c r="G823" s="43"/>
       <c r="H823" s="23"/>
-      <c r="K823" s="43"/>
-      <c r="L823" s="43"/>
+      <c r="K823" s="42"/>
+      <c r="L823" s="42"/>
     </row>
     <row r="824">
-      <c r="G824" s="44"/>
+      <c r="G824" s="43"/>
       <c r="H824" s="23"/>
-      <c r="K824" s="43"/>
-      <c r="L824" s="43"/>
+      <c r="K824" s="42"/>
+      <c r="L824" s="42"/>
     </row>
     <row r="825">
-      <c r="G825" s="44"/>
+      <c r="G825" s="43"/>
       <c r="H825" s="23"/>
-      <c r="K825" s="43"/>
-      <c r="L825" s="43"/>
+      <c r="K825" s="42"/>
+      <c r="L825" s="42"/>
     </row>
     <row r="826">
-      <c r="G826" s="44"/>
+      <c r="G826" s="43"/>
       <c r="H826" s="23"/>
-      <c r="K826" s="43"/>
-      <c r="L826" s="43"/>
+      <c r="K826" s="42"/>
+      <c r="L826" s="42"/>
     </row>
     <row r="827">
-      <c r="G827" s="44"/>
+      <c r="G827" s="43"/>
       <c r="H827" s="23"/>
-      <c r="K827" s="43"/>
-      <c r="L827" s="43"/>
+      <c r="K827" s="42"/>
+      <c r="L827" s="42"/>
     </row>
     <row r="828">
-      <c r="G828" s="44"/>
+      <c r="G828" s="43"/>
       <c r="H828" s="23"/>
-      <c r="K828" s="43"/>
-      <c r="L828" s="43"/>
+      <c r="K828" s="42"/>
+      <c r="L828" s="42"/>
     </row>
     <row r="829">
-      <c r="G829" s="44"/>
+      <c r="G829" s="43"/>
       <c r="H829" s="23"/>
-      <c r="K829" s="43"/>
-      <c r="L829" s="43"/>
+      <c r="K829" s="42"/>
+      <c r="L829" s="42"/>
     </row>
     <row r="830">
-      <c r="G830" s="44"/>
+      <c r="G830" s="43"/>
       <c r="H830" s="23"/>
-      <c r="K830" s="43"/>
-      <c r="L830" s="43"/>
+      <c r="K830" s="42"/>
+      <c r="L830" s="42"/>
     </row>
     <row r="831">
-      <c r="G831" s="44"/>
+      <c r="G831" s="43"/>
       <c r="H831" s="23"/>
-      <c r="K831" s="43"/>
-      <c r="L831" s="43"/>
+      <c r="K831" s="42"/>
+      <c r="L831" s="42"/>
     </row>
     <row r="832">
-      <c r="G832" s="44"/>
+      <c r="G832" s="43"/>
       <c r="H832" s="23"/>
-      <c r="K832" s="43"/>
-      <c r="L832" s="43"/>
+      <c r="K832" s="42"/>
+      <c r="L832" s="42"/>
     </row>
     <row r="833">
-      <c r="G833" s="44"/>
+      <c r="G833" s="43"/>
       <c r="H833" s="23"/>
-      <c r="K833" s="43"/>
-      <c r="L833" s="43"/>
+      <c r="K833" s="42"/>
+      <c r="L833" s="42"/>
     </row>
     <row r="834">
-      <c r="G834" s="44"/>
+      <c r="G834" s="43"/>
       <c r="H834" s="23"/>
-      <c r="K834" s="43"/>
-      <c r="L834" s="43"/>
+      <c r="K834" s="42"/>
+      <c r="L834" s="42"/>
     </row>
     <row r="835">
-      <c r="G835" s="44"/>
+      <c r="G835" s="43"/>
       <c r="H835" s="23"/>
-      <c r="K835" s="43"/>
-      <c r="L835" s="43"/>
+      <c r="K835" s="42"/>
+      <c r="L835" s="42"/>
     </row>
     <row r="836">
-      <c r="G836" s="44"/>
+      <c r="G836" s="43"/>
       <c r="H836" s="23"/>
-      <c r="K836" s="43"/>
-      <c r="L836" s="43"/>
+      <c r="K836" s="42"/>
+      <c r="L836" s="42"/>
     </row>
     <row r="837">
-      <c r="G837" s="44"/>
+      <c r="G837" s="43"/>
       <c r="H837" s="23"/>
-      <c r="K837" s="43"/>
-      <c r="L837" s="43"/>
+      <c r="K837" s="42"/>
+      <c r="L837" s="42"/>
     </row>
     <row r="838">
-      <c r="G838" s="44"/>
+      <c r="G838" s="43"/>
       <c r="H838" s="23"/>
-      <c r="K838" s="43"/>
-      <c r="L838" s="43"/>
+      <c r="K838" s="42"/>
+      <c r="L838" s="42"/>
     </row>
     <row r="839">
-      <c r="G839" s="44"/>
+      <c r="G839" s="43"/>
       <c r="H839" s="23"/>
-      <c r="K839" s="43"/>
-      <c r="L839" s="43"/>
+      <c r="K839" s="42"/>
+      <c r="L839" s="42"/>
     </row>
     <row r="840">
-      <c r="G840" s="44"/>
+      <c r="G840" s="43"/>
       <c r="H840" s="23"/>
-      <c r="K840" s="43"/>
-      <c r="L840" s="43"/>
+      <c r="K840" s="42"/>
+      <c r="L840" s="42"/>
     </row>
     <row r="841">
-      <c r="G841" s="44"/>
+      <c r="G841" s="43"/>
       <c r="H841" s="23"/>
-      <c r="K841" s="43"/>
-      <c r="L841" s="43"/>
+      <c r="K841" s="42"/>
+      <c r="L841" s="42"/>
     </row>
     <row r="842">
-      <c r="G842" s="44"/>
+      <c r="G842" s="43"/>
       <c r="H842" s="23"/>
-      <c r="K842" s="43"/>
-      <c r="L842" s="43"/>
+      <c r="K842" s="42"/>
+      <c r="L842" s="42"/>
     </row>
     <row r="843">
-      <c r="G843" s="44"/>
+      <c r="G843" s="43"/>
       <c r="H843" s="23"/>
-      <c r="K843" s="43"/>
-      <c r="L843" s="43"/>
+      <c r="K843" s="42"/>
+      <c r="L843" s="42"/>
     </row>
     <row r="844">
-      <c r="G844" s="44"/>
+      <c r="G844" s="43"/>
       <c r="H844" s="23"/>
-      <c r="K844" s="43"/>
-      <c r="L844" s="43"/>
+      <c r="K844" s="42"/>
+      <c r="L844" s="42"/>
     </row>
     <row r="845">
-      <c r="G845" s="44"/>
+      <c r="G845" s="43"/>
       <c r="H845" s="23"/>
-      <c r="K845" s="43"/>
-      <c r="L845" s="43"/>
+      <c r="K845" s="42"/>
+      <c r="L845" s="42"/>
     </row>
     <row r="846">
-      <c r="G846" s="44"/>
+      <c r="G846" s="43"/>
       <c r="H846" s="23"/>
-      <c r="K846" s="43"/>
-      <c r="L846" s="43"/>
+      <c r="K846" s="42"/>
+      <c r="L846" s="42"/>
     </row>
     <row r="847">
-      <c r="G847" s="44"/>
+      <c r="G847" s="43"/>
       <c r="H847" s="23"/>
-      <c r="K847" s="43"/>
-      <c r="L847" s="43"/>
+      <c r="K847" s="42"/>
+      <c r="L847" s="42"/>
     </row>
     <row r="848">
-      <c r="G848" s="44"/>
+      <c r="G848" s="43"/>
       <c r="H848" s="23"/>
-      <c r="K848" s="43"/>
-      <c r="L848" s="43"/>
+      <c r="K848" s="42"/>
+      <c r="L848" s="42"/>
     </row>
     <row r="849">
-      <c r="G849" s="44"/>
+      <c r="G849" s="43"/>
       <c r="H849" s="23"/>
-      <c r="K849" s="43"/>
-      <c r="L849" s="43"/>
+      <c r="K849" s="42"/>
+      <c r="L849" s="42"/>
     </row>
     <row r="850">
-      <c r="G850" s="44"/>
+      <c r="G850" s="43"/>
       <c r="H850" s="23"/>
-      <c r="K850" s="43"/>
-      <c r="L850" s="43"/>
+      <c r="K850" s="42"/>
+      <c r="L850" s="42"/>
     </row>
     <row r="851">
-      <c r="G851" s="44"/>
+      <c r="G851" s="43"/>
       <c r="H851" s="23"/>
-      <c r="K851" s="43"/>
-      <c r="L851" s="43"/>
+      <c r="K851" s="42"/>
+      <c r="L851" s="42"/>
     </row>
     <row r="852">
-      <c r="G852" s="44"/>
+      <c r="G852" s="43"/>
       <c r="H852" s="23"/>
-      <c r="K852" s="43"/>
-      <c r="L852" s="43"/>
+      <c r="K852" s="42"/>
+      <c r="L852" s="42"/>
     </row>
     <row r="853">
-      <c r="G853" s="44"/>
+      <c r="G853" s="43"/>
       <c r="H853" s="23"/>
-      <c r="K853" s="43"/>
-      <c r="L853" s="43"/>
+      <c r="K853" s="42"/>
+      <c r="L853" s="42"/>
     </row>
     <row r="854">
-      <c r="G854" s="44"/>
+      <c r="G854" s="43"/>
       <c r="H854" s="23"/>
-      <c r="K854" s="43"/>
-      <c r="L854" s="43"/>
+      <c r="K854" s="42"/>
+      <c r="L854" s="42"/>
     </row>
     <row r="855">
-      <c r="G855" s="44"/>
+      <c r="G855" s="43"/>
       <c r="H855" s="23"/>
-      <c r="K855" s="43"/>
-      <c r="L855" s="43"/>
+      <c r="K855" s="42"/>
+      <c r="L855" s="42"/>
     </row>
     <row r="856">
-      <c r="G856" s="44"/>
+      <c r="G856" s="43"/>
       <c r="H856" s="23"/>
-      <c r="K856" s="43"/>
-      <c r="L856" s="43"/>
+      <c r="K856" s="42"/>
+      <c r="L856" s="42"/>
     </row>
     <row r="857">
-      <c r="G857" s="44"/>
+      <c r="G857" s="43"/>
       <c r="H857" s="23"/>
-      <c r="K857" s="43"/>
-      <c r="L857" s="43"/>
+      <c r="K857" s="42"/>
+      <c r="L857" s="42"/>
     </row>
     <row r="858">
-      <c r="G858" s="44"/>
+      <c r="G858" s="43"/>
       <c r="H858" s="23"/>
-      <c r="K858" s="43"/>
-      <c r="L858" s="43"/>
+      <c r="K858" s="42"/>
+      <c r="L858" s="42"/>
     </row>
     <row r="859">
-      <c r="G859" s="44"/>
+      <c r="G859" s="43"/>
       <c r="H859" s="23"/>
-      <c r="K859" s="43"/>
-      <c r="L859" s="43"/>
+      <c r="K859" s="42"/>
+      <c r="L859" s="42"/>
     </row>
     <row r="860">
-      <c r="G860" s="44"/>
+      <c r="G860" s="43"/>
       <c r="H860" s="23"/>
-      <c r="K860" s="43"/>
-      <c r="L860" s="43"/>
+      <c r="K860" s="42"/>
+      <c r="L860" s="42"/>
     </row>
     <row r="861">
-      <c r="G861" s="44"/>
+      <c r="G861" s="43"/>
       <c r="H861" s="23"/>
-      <c r="K861" s="43"/>
-      <c r="L861" s="43"/>
+      <c r="K861" s="42"/>
+      <c r="L861" s="42"/>
     </row>
     <row r="862">
-      <c r="G862" s="44"/>
+      <c r="G862" s="43"/>
       <c r="H862" s="23"/>
-      <c r="K862" s="43"/>
-      <c r="L862" s="43"/>
+      <c r="K862" s="42"/>
+      <c r="L862" s="42"/>
     </row>
     <row r="863">
-      <c r="G863" s="44"/>
+      <c r="G863" s="43"/>
       <c r="H863" s="23"/>
-      <c r="K863" s="43"/>
-      <c r="L863" s="43"/>
+      <c r="K863" s="42"/>
+      <c r="L863" s="42"/>
     </row>
     <row r="864">
-      <c r="G864" s="44"/>
+      <c r="G864" s="43"/>
       <c r="H864" s="23"/>
-      <c r="K864" s="43"/>
-      <c r="L864" s="43"/>
+      <c r="K864" s="42"/>
+      <c r="L864" s="42"/>
     </row>
     <row r="865">
-      <c r="G865" s="44"/>
+      <c r="G865" s="43"/>
       <c r="H865" s="23"/>
-      <c r="K865" s="43"/>
-      <c r="L865" s="43"/>
+      <c r="K865" s="42"/>
+      <c r="L865" s="42"/>
     </row>
     <row r="866">
-      <c r="G866" s="44"/>
+      <c r="G866" s="43"/>
       <c r="H866" s="23"/>
-      <c r="K866" s="43"/>
-      <c r="L866" s="43"/>
+      <c r="K866" s="42"/>
+      <c r="L866" s="42"/>
     </row>
     <row r="867">
-      <c r="G867" s="44"/>
+      <c r="G867" s="43"/>
       <c r="H867" s="23"/>
-      <c r="K867" s="43"/>
-      <c r="L867" s="43"/>
+      <c r="K867" s="42"/>
+      <c r="L867" s="42"/>
     </row>
     <row r="868">
-      <c r="G868" s="44"/>
+      <c r="G868" s="43"/>
       <c r="H868" s="23"/>
-      <c r="K868" s="43"/>
-      <c r="L868" s="43"/>
+      <c r="K868" s="42"/>
+      <c r="L868" s="42"/>
     </row>
     <row r="869">
-      <c r="G869" s="44"/>
+      <c r="G869" s="43"/>
       <c r="H869" s="23"/>
-      <c r="K869" s="43"/>
-      <c r="L869" s="43"/>
+      <c r="K869" s="42"/>
+      <c r="L869" s="42"/>
     </row>
     <row r="870">
-      <c r="G870" s="44"/>
+      <c r="G870" s="43"/>
       <c r="H870" s="23"/>
-      <c r="K870" s="43"/>
-      <c r="L870" s="43"/>
+      <c r="K870" s="42"/>
+      <c r="L870" s="42"/>
     </row>
     <row r="871">
-      <c r="G871" s="44"/>
+      <c r="G871" s="43"/>
       <c r="H871" s="23"/>
-      <c r="K871" s="43"/>
-      <c r="L871" s="43"/>
+      <c r="K871" s="42"/>
+      <c r="L871" s="42"/>
     </row>
     <row r="872">
-      <c r="G872" s="44"/>
+      <c r="G872" s="43"/>
       <c r="H872" s="23"/>
-      <c r="K872" s="43"/>
-      <c r="L872" s="43"/>
+      <c r="K872" s="42"/>
+      <c r="L872" s="42"/>
     </row>
     <row r="873">
-      <c r="G873" s="44"/>
+      <c r="G873" s="43"/>
       <c r="H873" s="23"/>
-      <c r="K873" s="43"/>
-      <c r="L873" s="43"/>
+      <c r="K873" s="42"/>
+      <c r="L873" s="42"/>
     </row>
     <row r="874">
-      <c r="G874" s="44"/>
+      <c r="G874" s="43"/>
       <c r="H874" s="23"/>
-      <c r="K874" s="43"/>
-      <c r="L874" s="43"/>
+      <c r="K874" s="42"/>
+      <c r="L874" s="42"/>
     </row>
     <row r="875">
-      <c r="G875" s="44"/>
+      <c r="G875" s="43"/>
       <c r="H875" s="23"/>
-      <c r="K875" s="43"/>
-      <c r="L875" s="43"/>
+      <c r="K875" s="42"/>
+      <c r="L875" s="42"/>
     </row>
     <row r="876">
-      <c r="G876" s="44"/>
+      <c r="G876" s="43"/>
       <c r="H876" s="23"/>
-      <c r="K876" s="43"/>
-      <c r="L876" s="43"/>
+      <c r="K876" s="42"/>
+      <c r="L876" s="42"/>
     </row>
     <row r="877">
-      <c r="G877" s="44"/>
+      <c r="G877" s="43"/>
       <c r="H877" s="23"/>
-      <c r="K877" s="43"/>
-      <c r="L877" s="43"/>
+      <c r="K877" s="42"/>
+      <c r="L877" s="42"/>
     </row>
     <row r="878">
-      <c r="G878" s="44"/>
+      <c r="G878" s="43"/>
       <c r="H878" s="23"/>
-      <c r="K878" s="43"/>
-      <c r="L878" s="43"/>
+      <c r="K878" s="42"/>
+      <c r="L878" s="42"/>
     </row>
     <row r="879">
-      <c r="G879" s="44"/>
+      <c r="G879" s="43"/>
       <c r="H879" s="23"/>
-      <c r="K879" s="43"/>
-      <c r="L879" s="43"/>
+      <c r="K879" s="42"/>
+      <c r="L879" s="42"/>
     </row>
     <row r="880">
-      <c r="G880" s="44"/>
+      <c r="G880" s="43"/>
       <c r="H880" s="23"/>
-      <c r="K880" s="43"/>
-      <c r="L880" s="43"/>
+      <c r="K880" s="42"/>
+      <c r="L880" s="42"/>
     </row>
     <row r="881">
-      <c r="G881" s="44"/>
+      <c r="G881" s="43"/>
       <c r="H881" s="23"/>
-      <c r="K881" s="43"/>
-      <c r="L881" s="43"/>
+      <c r="K881" s="42"/>
+      <c r="L881" s="42"/>
     </row>
     <row r="882">
-      <c r="G882" s="44"/>
+      <c r="G882" s="43"/>
       <c r="H882" s="23"/>
-      <c r="K882" s="43"/>
-      <c r="L882" s="43"/>
+      <c r="K882" s="42"/>
+      <c r="L882" s="42"/>
     </row>
     <row r="883">
-      <c r="G883" s="44"/>
+      <c r="G883" s="43"/>
       <c r="H883" s="23"/>
-      <c r="K883" s="43"/>
-      <c r="L883" s="43"/>
+      <c r="K883" s="42"/>
+      <c r="L883" s="42"/>
     </row>
     <row r="884">
-      <c r="G884" s="44"/>
+      <c r="G884" s="43"/>
       <c r="H884" s="23"/>
-      <c r="K884" s="43"/>
-      <c r="L884" s="43"/>
+      <c r="K884" s="42"/>
+      <c r="L884" s="42"/>
     </row>
     <row r="885">
-      <c r="G885" s="44"/>
+      <c r="G885" s="43"/>
       <c r="H885" s="23"/>
-      <c r="K885" s="43"/>
-      <c r="L885" s="43"/>
+      <c r="K885" s="42"/>
+      <c r="L885" s="42"/>
     </row>
     <row r="886">
-      <c r="G886" s="44"/>
+      <c r="G886" s="43"/>
       <c r="H886" s="23"/>
-      <c r="K886" s="43"/>
-      <c r="L886" s="43"/>
+      <c r="K886" s="42"/>
+      <c r="L886" s="42"/>
     </row>
     <row r="887">
-      <c r="G887" s="44"/>
+      <c r="G887" s="43"/>
       <c r="H887" s="23"/>
-      <c r="K887" s="43"/>
-      <c r="L887" s="43"/>
+      <c r="K887" s="42"/>
+      <c r="L887" s="42"/>
     </row>
     <row r="888">
-      <c r="G888" s="44"/>
+      <c r="G888" s="43"/>
       <c r="H888" s="23"/>
-      <c r="K888" s="43"/>
-      <c r="L888" s="43"/>
+      <c r="K888" s="42"/>
+      <c r="L888" s="42"/>
     </row>
     <row r="889">
-      <c r="G889" s="44"/>
+      <c r="G889" s="43"/>
       <c r="H889" s="23"/>
-      <c r="K889" s="43"/>
-      <c r="L889" s="43"/>
+      <c r="K889" s="42"/>
+      <c r="L889" s="42"/>
     </row>
     <row r="890">
-      <c r="G890" s="44"/>
+      <c r="G890" s="43"/>
       <c r="H890" s="23"/>
-      <c r="K890" s="43"/>
-      <c r="L890" s="43"/>
+      <c r="K890" s="42"/>
+      <c r="L890" s="42"/>
     </row>
     <row r="891">
-      <c r="G891" s="44"/>
+      <c r="G891" s="43"/>
       <c r="H891" s="23"/>
-      <c r="K891" s="43"/>
-      <c r="L891" s="43"/>
+      <c r="K891" s="42"/>
+      <c r="L891" s="42"/>
     </row>
     <row r="892">
-      <c r="G892" s="44"/>
+      <c r="G892" s="43"/>
       <c r="H892" s="23"/>
-      <c r="K892" s="43"/>
-      <c r="L892" s="43"/>
+      <c r="K892" s="42"/>
+      <c r="L892" s="42"/>
     </row>
     <row r="893">
-      <c r="G893" s="44"/>
+      <c r="G893" s="43"/>
       <c r="H893" s="23"/>
-      <c r="K893" s="43"/>
-      <c r="L893" s="43"/>
+      <c r="K893" s="42"/>
+      <c r="L893" s="42"/>
     </row>
     <row r="894">
-      <c r="G894" s="44"/>
+      <c r="G894" s="43"/>
       <c r="H894" s="23"/>
-      <c r="K894" s="43"/>
-      <c r="L894" s="43"/>
+      <c r="K894" s="42"/>
+      <c r="L894" s="42"/>
     </row>
     <row r="895">
-      <c r="G895" s="44"/>
+      <c r="G895" s="43"/>
       <c r="H895" s="23"/>
-      <c r="K895" s="43"/>
-      <c r="L895" s="43"/>
+      <c r="K895" s="42"/>
+      <c r="L895" s="42"/>
     </row>
     <row r="896">
-      <c r="G896" s="44"/>
+      <c r="G896" s="43"/>
       <c r="H896" s="23"/>
-      <c r="K896" s="43"/>
-      <c r="L896" s="43"/>
+      <c r="K896" s="42"/>
+      <c r="L896" s="42"/>
     </row>
     <row r="897">
-      <c r="G897" s="44"/>
+      <c r="G897" s="43"/>
       <c r="H897" s="23"/>
-      <c r="K897" s="43"/>
-      <c r="L897" s="43"/>
+      <c r="K897" s="42"/>
+      <c r="L897" s="42"/>
     </row>
     <row r="898">
-      <c r="G898" s="44"/>
+      <c r="G898" s="43"/>
       <c r="H898" s="23"/>
-      <c r="K898" s="43"/>
-      <c r="L898" s="43"/>
+      <c r="K898" s="42"/>
+      <c r="L898" s="42"/>
     </row>
     <row r="899">
-      <c r="G899" s="44"/>
+      <c r="G899" s="43"/>
       <c r="H899" s="23"/>
-      <c r="K899" s="43"/>
-      <c r="L899" s="43"/>
+      <c r="K899" s="42"/>
+      <c r="L899" s="42"/>
     </row>
     <row r="900">
-      <c r="G900" s="44"/>
+      <c r="G900" s="43"/>
       <c r="H900" s="23"/>
-      <c r="K900" s="43"/>
-      <c r="L900" s="43"/>
+      <c r="K900" s="42"/>
+      <c r="L900" s="42"/>
     </row>
     <row r="901">
-      <c r="G901" s="44"/>
+      <c r="G901" s="43"/>
       <c r="H901" s="23"/>
-      <c r="K901" s="43"/>
-      <c r="L901" s="43"/>
+      <c r="K901" s="42"/>
+      <c r="L901" s="42"/>
     </row>
     <row r="902">
-      <c r="G902" s="44"/>
+      <c r="G902" s="43"/>
       <c r="H902" s="23"/>
-      <c r="K902" s="43"/>
-      <c r="L902" s="43"/>
+      <c r="K902" s="42"/>
+      <c r="L902" s="42"/>
     </row>
     <row r="903">
-      <c r="G903" s="44"/>
+      <c r="G903" s="43"/>
       <c r="H903" s="23"/>
-      <c r="K903" s="43"/>
-      <c r="L903" s="43"/>
+      <c r="K903" s="42"/>
+      <c r="L903" s="42"/>
     </row>
     <row r="904">
-      <c r="G904" s="44"/>
+      <c r="G904" s="43"/>
       <c r="H904" s="23"/>
-      <c r="K904" s="43"/>
-      <c r="L904" s="43"/>
+      <c r="K904" s="42"/>
+      <c r="L904" s="42"/>
     </row>
     <row r="905">
-      <c r="G905" s="44"/>
+      <c r="G905" s="43"/>
       <c r="H905" s="23"/>
-      <c r="K905" s="43"/>
-      <c r="L905" s="43"/>
+      <c r="K905" s="42"/>
+      <c r="L905" s="42"/>
     </row>
     <row r="906">
-      <c r="G906" s="44"/>
+      <c r="G906" s="43"/>
       <c r="H906" s="23"/>
-      <c r="K906" s="43"/>
-      <c r="L906" s="43"/>
+      <c r="K906" s="42"/>
+      <c r="L906" s="42"/>
     </row>
     <row r="907">
-      <c r="G907" s="44"/>
+      <c r="G907" s="43"/>
       <c r="H907" s="23"/>
-      <c r="K907" s="43"/>
-      <c r="L907" s="43"/>
+      <c r="K907" s="42"/>
+      <c r="L907" s="42"/>
     </row>
     <row r="908">
-      <c r="G908" s="44"/>
+      <c r="G908" s="43"/>
       <c r="H908" s="23"/>
-      <c r="K908" s="43"/>
-      <c r="L908" s="43"/>
+      <c r="K908" s="42"/>
+      <c r="L908" s="42"/>
     </row>
     <row r="909">
-      <c r="G909" s="44"/>
+      <c r="G909" s="43"/>
       <c r="H909" s="23"/>
-      <c r="K909" s="43"/>
-      <c r="L909" s="43"/>
+      <c r="K909" s="42"/>
+      <c r="L909" s="42"/>
     </row>
     <row r="910">
-      <c r="G910" s="44"/>
+      <c r="G910" s="43"/>
       <c r="H910" s="23"/>
-      <c r="K910" s="43"/>
-      <c r="L910" s="43"/>
+      <c r="K910" s="42"/>
+      <c r="L910" s="42"/>
     </row>
     <row r="911">
-      <c r="G911" s="44"/>
+      <c r="G911" s="43"/>
       <c r="H911" s="23"/>
-      <c r="K911" s="43"/>
-      <c r="L911" s="43"/>
+      <c r="K911" s="42"/>
+      <c r="L911" s="42"/>
     </row>
     <row r="912">
-      <c r="G912" s="44"/>
+      <c r="G912" s="43"/>
       <c r="H912" s="23"/>
-      <c r="K912" s="43"/>
-      <c r="L912" s="43"/>
+      <c r="K912" s="42"/>
+      <c r="L912" s="42"/>
     </row>
     <row r="913">
-      <c r="G913" s="44"/>
+      <c r="G913" s="43"/>
       <c r="H913" s="23"/>
-      <c r="K913" s="43"/>
-      <c r="L913" s="43"/>
+      <c r="K913" s="42"/>
+      <c r="L913" s="42"/>
     </row>
     <row r="914">
-      <c r="G914" s="44"/>
+      <c r="G914" s="43"/>
       <c r="H914" s="23"/>
-      <c r="K914" s="43"/>
-      <c r="L914" s="43"/>
+      <c r="K914" s="42"/>
+      <c r="L914" s="42"/>
     </row>
     <row r="915">
-      <c r="G915" s="44"/>
+      <c r="G915" s="43"/>
       <c r="H915" s="23"/>
-      <c r="K915" s="43"/>
-      <c r="L915" s="43"/>
+      <c r="K915" s="42"/>
+      <c r="L915" s="42"/>
     </row>
     <row r="916">
-      <c r="G916" s="44"/>
+      <c r="G916" s="43"/>
       <c r="H916" s="23"/>
-      <c r="K916" s="43"/>
-      <c r="L916" s="43"/>
+      <c r="K916" s="42"/>
+      <c r="L916" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$O$81">
@@ -10301,13 +10300,13 @@
       <c r="J2" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="41" t="s">
         <v>307</v>
       </c>
       <c r="P2" s="7"/>
@@ -10352,7 +10351,7 @@
       <c r="M3" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="44" t="s">
         <v>322</v>
       </c>
     </row>
@@ -13404,28 +13403,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13433,16 +13432,16 @@
       <c r="A2" s="27">
         <v>102.0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>338</v>
       </c>
       <c r="F2" s="30" t="s">
@@ -13451,7 +13450,7 @@
       <c r="G2" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>276</v>
       </c>
     </row>
@@ -13459,16 +13458,16 @@
       <c r="A3" s="27">
         <v>132.0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="48" t="s">
         <v>227</v>
       </c>
       <c r="F3" s="30" t="s">
@@ -13477,33 +13476,33 @@
       <c r="G3" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="50">
+      <c r="A4" s="49">
         <v>15.0</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>320</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>341</v>
       </c>
     </row>
@@ -13511,25 +13510,25 @@
       <c r="A5" s="27">
         <v>30.0</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>320</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13537,16 +13536,16 @@
       <c r="A6" s="27">
         <v>48.0</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>340</v>
       </c>
       <c r="F6" s="30" t="s">
@@ -13563,16 +13562,16 @@
       <c r="A7" s="27">
         <v>84.0</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>340</v>
       </c>
       <c r="F7" s="30" t="s">
@@ -13581,7 +13580,7 @@
       <c r="G7" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="54" t="s">
         <v>65</v>
       </c>
     </row>
@@ -13589,16 +13588,16 @@
       <c r="A8" s="27">
         <v>114.0</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>340</v>
       </c>
       <c r="F8" s="30" t="s">
@@ -13607,7 +13606,7 @@
       <c r="G8" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="34" t="s">
         <v>70</v>
       </c>
     </row>
@@ -13615,16 +13614,16 @@
       <c r="A9" s="27">
         <v>149.0</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="38" t="s">
         <v>342</v>
       </c>
       <c r="F9" s="30" t="s">
@@ -13633,7 +13632,7 @@
       <c r="G9" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="52" t="s">
         <v>343</v>
       </c>
     </row>
@@ -13641,25 +13640,25 @@
       <c r="A10" s="27">
         <v>21.0</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="51" t="s">
         <v>320</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="34" t="s">
         <v>305</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -265,7 +265,7 @@
     <t>https://eva-gruzinskaya.lucky-group.rest/</t>
   </si>
   <si>
-    <t>Старовойтова Галина Павловна</t>
+    <t>Шиверских Виктор Станиславович</t>
   </si>
   <si>
     <t>Bruno</t>
@@ -2436,8 +2436,8 @@
         <v>21</v>
       </c>
       <c r="N16" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C16,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Старовойтова Галина Павловна")</f>
-        <v>Старовойтова Галина Павловна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C16,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Шиверских Виктор Станиславович")</f>
+        <v>Шиверских Виктор Станиславович</v>
       </c>
       <c r="O16" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2991,8 +2991,8 @@
         <v>136</v>
       </c>
       <c r="N29" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Старовойтова Галина Павловна")</f>
-        <v>Старовойтова Галина Павловна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Шиверских Виктор Станиславович")</f>
+        <v>Шиверских Виктор Станиславович</v>
       </c>
       <c r="O29" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3302,8 +3302,8 @@
         <v>136</v>
       </c>
       <c r="N36" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C36,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Старовойтова Галина Павловна")</f>
-        <v>Старовойтова Галина Павловна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C36,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Шиверских Виктор Станиславович")</f>
+        <v>Шиверских Виктор Станиславович</v>
       </c>
       <c r="O36" s="13" t="str">
         <f t="shared" si="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3384,7 +3384,7 @@
         <v>169</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>170</v>
@@ -3393,8 +3393,8 @@
         <v>136</v>
       </c>
       <c r="N38" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C38,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Берсенева Евгения Николаевна")</f>
-        <v>Берсенева Евгения Николаевна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C38,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Репилов Иван Викторович")</f>
+        <v>Репилов Иван Викторович</v>
       </c>
       <c r="O38" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4229,12 +4229,12 @@
         <v>245</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="M59" s="32"/>
       <c r="N59" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C59,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Берсенева Евгения Николаевна")</f>
-        <v>Берсенева Евгения Николаевна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C59,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Репилов Иван Викторович")</f>
+        <v>Репилов Иван Викторович</v>
       </c>
       <c r="O59" s="13" t="str">
         <f t="shared" si="1"/>
@@ -5048,12 +5048,12 @@
         <v>313</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="M79" s="32"/>
       <c r="N79" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C79,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Берсенева Евгения Николаевна")</f>
-        <v>Берсенева Евгения Николаевна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C79,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Репилов Иван Викторович")</f>
+        <v>Репилов Иван Викторович</v>
       </c>
       <c r="O79" s="13" t="str">
         <f t="shared" si="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -625,7 +625,7 @@
     <t>г. Переславль-Залесский</t>
   </si>
   <si>
-    <t>Пасхина Анастасия Вадимовна</t>
+    <t>Горностаева Виктория Игоревна</t>
   </si>
   <si>
     <t>г. Ростов-на-Дону, пр-кт Михаила Нагибина, зд. 32В, стр. 1</t>
@@ -781,7 +781,7 @@
     <t>г. Пермь</t>
   </si>
   <si>
-    <t xml:space="preserve">Катаева Мария Александровна </t>
+    <t>Чащина Василина Юрьевна</t>
   </si>
   <si>
     <t>Сыроварня Санкт-Петербург и НАМА</t>
@@ -1293,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1373,6 +1373,7 @@
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -3674,12 +3675,16 @@
         <v>194</v>
       </c>
       <c r="N45" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Белов Александр Сергеевич")</f>
-        <v>Белов Александр Сергеевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Белов Александр Сергеевич
+Возможно Хлынова. Не хлынова. Требуется замена
+Возможно рекунов")</f>
+        <v>Белов Александр Сергеевич
+Возможно Хлынова. Не хлынова. Требуется замена
+Возможно рекунов</v>
       </c>
       <c r="O45" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="46">
@@ -3744,12 +3749,12 @@
         <v>волна 1</v>
       </c>
       <c r="H47" s="23"/>
-      <c r="K47" s="18" t="s">
+      <c r="K47" s="27" t="s">
         <v>202</v>
       </c>
       <c r="N47" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Пасхина Анастасия Вадимовна")</f>
-        <v>Пасхина Анастасия Вадимовна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Горностаева Виктория Игоревна")</f>
+        <v>Горностаева Виктория Игоревна</v>
       </c>
       <c r="O47" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3979,19 +3984,19 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="27">
+      <c r="A54" s="28">
         <v>62.0</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="29" t="s">
         <v>227</v>
       </c>
       <c r="F54" s="10" t="str">
@@ -4002,13 +4007,13 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),5,0),"""")"),"волна 1")</f>
         <v>волна 1</v>
       </c>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30" t="s">
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="L54" s="30"/>
+      <c r="L54" s="31"/>
       <c r="N54" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Солнышкина Татьяна Александровна")</f>
         <v>Солнышкина Татьяна Александровна</v>
@@ -4022,16 +4027,16 @@
       <c r="A55" s="8">
         <v>2.0</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="10" t="str">
@@ -4068,16 +4073,16 @@
       <c r="A56" s="8">
         <v>31.0</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="10" t="str">
@@ -4113,16 +4118,16 @@
       <c r="A57" s="8">
         <v>106.0</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="10" t="str">
@@ -4145,7 +4150,7 @@
       <c r="L57" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="M57" s="32"/>
+      <c r="M57" s="33"/>
       <c r="N57" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C57,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Желязко Дмитрий Викторович")</f>
         <v>Желязко Дмитрий Викторович</v>
@@ -4159,16 +4164,16 @@
       <c r="A58" s="8">
         <v>118.0</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="10" t="str">
@@ -4204,16 +4209,16 @@
       <c r="A59" s="8">
         <v>121.0</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="10" t="str">
@@ -4231,7 +4236,7 @@
       <c r="K59" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="32"/>
+      <c r="M59" s="33"/>
       <c r="N59" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C59,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Репилов Иван Викторович")</f>
         <v>Репилов Иван Викторович</v>
@@ -4245,16 +4250,16 @@
       <c r="A60" s="8">
         <v>122.0</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="32" t="s">
         <v>193</v>
       </c>
       <c r="F60" s="10" t="str">
@@ -4270,28 +4275,32 @@
         <v>194</v>
       </c>
       <c r="N60" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Белов Александр Сергеевич")</f>
-        <v>Белов Александр Сергеевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Белов Александр Сергеевич
+Возможно Хлынова. Не хлынова. Требуется замена
+Возможно рекунов")</f>
+        <v>Белов Александр Сергеевич
+Возможно Хлынова. Не хлынова. Требуется замена
+Возможно рекунов</v>
       </c>
       <c r="O60" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="8">
         <v>125.0</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="32" t="s">
         <v>197</v>
       </c>
       <c r="F61" s="10" t="str">
@@ -4319,16 +4328,16 @@
       <c r="A62" s="8">
         <v>39.0</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="32" t="s">
         <v>253</v>
       </c>
       <c r="F62" s="10" t="str">
@@ -4344,8 +4353,8 @@
         <v>254</v>
       </c>
       <c r="N62" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Катаева Мария Александровна ")</f>
-        <v>Катаева Мария Александровна </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Чащина Василина Юрьевна")</f>
+        <v>Чащина Василина Юрьевна</v>
       </c>
       <c r="O62" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4356,16 +4365,16 @@
       <c r="A63" s="8">
         <v>91.0</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F63" s="10" t="str">
@@ -4393,16 +4402,16 @@
       <c r="A64" s="8">
         <v>43.0</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="E64" s="32" t="s">
         <v>211</v>
       </c>
       <c r="F64" s="10" t="str">
@@ -4430,16 +4439,16 @@
       <c r="A65" s="8">
         <v>151.0</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="E65" s="32" t="s">
         <v>211</v>
       </c>
       <c r="F65" s="10" t="str">
@@ -4467,16 +4476,16 @@
       <c r="A66" s="8">
         <v>54.0</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="32" t="s">
         <v>265</v>
       </c>
       <c r="F66" s="10" t="str">
@@ -4501,19 +4510,19 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="27">
+      <c r="A67" s="28">
         <v>108.0</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C67" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="D67" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="E67" s="33" t="s">
+      <c r="E67" s="34" t="s">
         <v>227</v>
       </c>
       <c r="F67" s="10" t="str">
@@ -4524,13 +4533,13 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),5,0),"""")"),"волна 1")</f>
         <v>волна 1</v>
       </c>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30" t="s">
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="30"/>
+      <c r="L67" s="31"/>
       <c r="N67" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
         <v>Янина Полина Олеговна</v>
@@ -4541,19 +4550,19 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="27">
+      <c r="A68" s="28">
         <v>142.0</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="D68" s="33" t="s">
+      <c r="D68" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="E68" s="33" t="s">
+      <c r="E68" s="34" t="s">
         <v>271</v>
       </c>
       <c r="F68" s="10" t="str">
@@ -4564,15 +4573,15 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),5,0),"""")"),"волна 1")</f>
         <v>волна 1</v>
       </c>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="34" t="s">
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="K68" s="35" t="s">
+      <c r="K68" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="L68" s="30"/>
+      <c r="L68" s="31"/>
       <c r="N68" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Малафеева Ирина Константиновна")</f>
         <v>Малафеева Ирина Константиновна</v>
@@ -4586,16 +4595,16 @@
       <c r="A69" s="8">
         <v>102.0</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D69" s="36" t="s">
+      <c r="D69" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="37" t="s">
         <v>110</v>
       </c>
       <c r="F69" s="10" t="str">
@@ -4607,13 +4616,13 @@
         <v>волна 1</v>
       </c>
       <c r="H69" s="23"/>
-      <c r="J69" s="34" t="s">
+      <c r="J69" s="35" t="s">
         <v>276</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="L69" s="37" t="s">
+      <c r="L69" s="38" t="s">
         <v>277</v>
       </c>
       <c r="N69" s="13" t="str">
@@ -4629,16 +4638,16 @@
       <c r="A70" s="8">
         <v>19.0</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="37" t="s">
         <v>279</v>
       </c>
       <c r="F70" s="10" t="str">
@@ -4666,16 +4675,16 @@
       <c r="A71" s="8">
         <v>83.0</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="37" t="s">
         <v>283</v>
       </c>
       <c r="F71" s="10" t="str">
@@ -4706,16 +4715,16 @@
       <c r="A72" s="8">
         <v>56.0</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="D72" s="36" t="s">
+      <c r="D72" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="E72" s="36" t="s">
+      <c r="E72" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="10" t="str">
@@ -4752,16 +4761,16 @@
       <c r="A73" s="8">
         <v>61.0</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="E73" s="36" t="s">
+      <c r="E73" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F73" s="10" t="str">
@@ -4801,16 +4810,16 @@
       <c r="A74" s="8">
         <v>79.0</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="10" t="str">
@@ -4850,16 +4859,16 @@
       <c r="A75" s="8">
         <v>98.0</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="37" t="s">
         <v>211</v>
       </c>
       <c r="F75" s="10" t="str">
@@ -4887,16 +4896,16 @@
       <c r="A76" s="8">
         <v>149.0</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="E76" s="36" t="s">
+      <c r="E76" s="37" t="s">
         <v>211</v>
       </c>
       <c r="F76" s="10" t="str">
@@ -4908,13 +4917,13 @@
         <v>волна 1</v>
       </c>
       <c r="H76" s="23"/>
-      <c r="J76" s="34" t="s">
+      <c r="J76" s="35" t="s">
         <v>302</v>
       </c>
       <c r="K76" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="L76" s="37" t="s">
+      <c r="L76" s="38" t="s">
         <v>277</v>
       </c>
       <c r="N76" s="13" t="str">
@@ -4927,19 +4936,19 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="27">
+      <c r="A77" s="28">
         <v>21.0</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="E77" s="38" t="s">
+      <c r="E77" s="39" t="s">
         <v>227</v>
       </c>
       <c r="F77" s="10" t="str">
@@ -4950,17 +4959,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),5,0),"""")"),"волна 1")</f>
         <v>волна 1</v>
       </c>
-      <c r="H77" s="30"/>
-      <c r="I77" s="39" t="s">
+      <c r="H77" s="31"/>
+      <c r="I77" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="J77" s="34" t="s">
+      <c r="J77" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="K77" s="30" t="s">
+      <c r="K77" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="L77" s="40" t="s">
+      <c r="L77" s="41" t="s">
         <v>306</v>
       </c>
       <c r="N77" s="13" t="str">
@@ -4976,16 +4985,16 @@
       <c r="A78" s="8">
         <v>86.0</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="10" t="str">
@@ -5021,16 +5030,16 @@
       <c r="A79" s="8">
         <v>160.0</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="D79" s="41" t="s">
+      <c r="D79" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="E79" s="41" t="s">
+      <c r="E79" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="10" t="str">
@@ -5050,7 +5059,7 @@
       <c r="K79" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M79" s="32"/>
+      <c r="M79" s="33"/>
       <c r="N79" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C79,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Репилов Иван Викторович")</f>
         <v>Репилов Иван Викторович</v>
@@ -5064,16 +5073,16 @@
       <c r="A80" s="16">
         <v>24.0</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="C80" s="41" t="s">
+      <c r="C80" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D80" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="E80" s="41" t="s">
+      <c r="E80" s="42" t="s">
         <v>35</v>
       </c>
       <c r="F80" s="10" t="str">
@@ -5101,16 +5110,16 @@
       <c r="A81" s="8">
         <v>89.0</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="C81" s="41" t="s">
+      <c r="C81" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="E81" s="41" t="s">
+      <c r="E81" s="42" t="s">
         <v>35</v>
       </c>
       <c r="F81" s="10" t="str">
@@ -5138,5019 +5147,5019 @@
       </c>
     </row>
     <row r="82">
-      <c r="F82" s="42"/>
-      <c r="G82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="44"/>
       <c r="H82" s="23"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
     </row>
     <row r="83">
-      <c r="F83" s="42"/>
-      <c r="G83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="44"/>
       <c r="H83" s="23"/>
-      <c r="K83" s="42"/>
-      <c r="L83" s="42"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
     </row>
     <row r="84">
-      <c r="F84" s="42"/>
-      <c r="G84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="44"/>
       <c r="H84" s="23"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
     </row>
     <row r="85">
-      <c r="F85" s="42"/>
-      <c r="G85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="44"/>
       <c r="H85" s="23"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="42"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
     </row>
     <row r="86">
-      <c r="F86" s="42"/>
-      <c r="G86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="44"/>
       <c r="H86" s="23"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="42"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
     </row>
     <row r="87">
-      <c r="G87" s="43"/>
+      <c r="G87" s="44"/>
       <c r="H87" s="23"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="42"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
     </row>
     <row r="88">
-      <c r="G88" s="43"/>
+      <c r="G88" s="44"/>
       <c r="H88" s="23"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="42"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
     </row>
     <row r="89">
-      <c r="G89" s="43"/>
+      <c r="G89" s="44"/>
       <c r="H89" s="23"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
     </row>
     <row r="90">
-      <c r="G90" s="43"/>
+      <c r="G90" s="44"/>
       <c r="H90" s="23"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="42"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
     </row>
     <row r="91">
-      <c r="G91" s="43"/>
+      <c r="G91" s="44"/>
       <c r="H91" s="23"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="42"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
     </row>
     <row r="92">
-      <c r="G92" s="43"/>
+      <c r="G92" s="44"/>
       <c r="H92" s="23"/>
-      <c r="K92" s="42"/>
-      <c r="L92" s="42"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
     </row>
     <row r="93">
-      <c r="G93" s="43"/>
+      <c r="G93" s="44"/>
       <c r="H93" s="23"/>
-      <c r="K93" s="42"/>
-      <c r="L93" s="42"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
     </row>
     <row r="94">
-      <c r="G94" s="43"/>
+      <c r="G94" s="44"/>
       <c r="H94" s="23"/>
-      <c r="K94" s="42"/>
-      <c r="L94" s="42"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
     </row>
     <row r="95">
-      <c r="G95" s="43"/>
+      <c r="G95" s="44"/>
       <c r="H95" s="23"/>
-      <c r="K95" s="42"/>
-      <c r="L95" s="42"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
     </row>
     <row r="96">
-      <c r="G96" s="43"/>
+      <c r="G96" s="44"/>
       <c r="H96" s="23"/>
-      <c r="K96" s="42"/>
-      <c r="L96" s="42"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
     </row>
     <row r="97">
-      <c r="G97" s="43"/>
+      <c r="G97" s="44"/>
       <c r="H97" s="23"/>
-      <c r="K97" s="42"/>
-      <c r="L97" s="42"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
     </row>
     <row r="98">
-      <c r="G98" s="43"/>
+      <c r="G98" s="44"/>
       <c r="H98" s="23"/>
-      <c r="K98" s="42"/>
-      <c r="L98" s="42"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="43"/>
     </row>
     <row r="99">
-      <c r="G99" s="43"/>
+      <c r="G99" s="44"/>
       <c r="H99" s="23"/>
-      <c r="K99" s="42"/>
-      <c r="L99" s="42"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
     </row>
     <row r="100">
-      <c r="G100" s="43"/>
+      <c r="G100" s="44"/>
       <c r="H100" s="23"/>
-      <c r="K100" s="42"/>
-      <c r="L100" s="42"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
     </row>
     <row r="101">
-      <c r="G101" s="43"/>
+      <c r="G101" s="44"/>
       <c r="H101" s="23"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="42"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="43"/>
     </row>
     <row r="102">
-      <c r="G102" s="43"/>
+      <c r="G102" s="44"/>
       <c r="H102" s="23"/>
-      <c r="K102" s="42"/>
-      <c r="L102" s="42"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
     </row>
     <row r="103">
-      <c r="G103" s="43"/>
+      <c r="G103" s="44"/>
       <c r="H103" s="23"/>
-      <c r="K103" s="42"/>
-      <c r="L103" s="42"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
     </row>
     <row r="104">
-      <c r="G104" s="43"/>
+      <c r="G104" s="44"/>
       <c r="H104" s="23"/>
-      <c r="K104" s="42"/>
-      <c r="L104" s="42"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
     </row>
     <row r="105">
-      <c r="G105" s="43"/>
+      <c r="G105" s="44"/>
       <c r="H105" s="23"/>
-      <c r="K105" s="42"/>
-      <c r="L105" s="42"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
     </row>
     <row r="106">
-      <c r="G106" s="43"/>
+      <c r="G106" s="44"/>
       <c r="H106" s="23"/>
-      <c r="K106" s="42"/>
-      <c r="L106" s="42"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
     </row>
     <row r="107">
-      <c r="G107" s="43"/>
+      <c r="G107" s="44"/>
       <c r="H107" s="23"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="42"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
     </row>
     <row r="108">
-      <c r="G108" s="43"/>
+      <c r="G108" s="44"/>
       <c r="H108" s="23"/>
-      <c r="K108" s="42"/>
-      <c r="L108" s="42"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="43"/>
     </row>
     <row r="109">
-      <c r="G109" s="43"/>
+      <c r="G109" s="44"/>
       <c r="H109" s="23"/>
-      <c r="K109" s="42"/>
-      <c r="L109" s="42"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="43"/>
     </row>
     <row r="110">
-      <c r="G110" s="43"/>
+      <c r="G110" s="44"/>
       <c r="H110" s="23"/>
-      <c r="K110" s="42"/>
-      <c r="L110" s="42"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
     </row>
     <row r="111">
-      <c r="G111" s="43"/>
+      <c r="G111" s="44"/>
       <c r="H111" s="23"/>
-      <c r="K111" s="42"/>
-      <c r="L111" s="42"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
     </row>
     <row r="112">
-      <c r="G112" s="43"/>
+      <c r="G112" s="44"/>
       <c r="H112" s="23"/>
-      <c r="K112" s="42"/>
-      <c r="L112" s="42"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="43"/>
     </row>
     <row r="113">
-      <c r="G113" s="43"/>
+      <c r="G113" s="44"/>
       <c r="H113" s="23"/>
-      <c r="K113" s="42"/>
-      <c r="L113" s="42"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="43"/>
     </row>
     <row r="114">
-      <c r="G114" s="43"/>
+      <c r="G114" s="44"/>
       <c r="H114" s="23"/>
-      <c r="K114" s="42"/>
-      <c r="L114" s="42"/>
+      <c r="K114" s="43"/>
+      <c r="L114" s="43"/>
     </row>
     <row r="115">
-      <c r="G115" s="43"/>
+      <c r="G115" s="44"/>
       <c r="H115" s="23"/>
-      <c r="K115" s="42"/>
-      <c r="L115" s="42"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="43"/>
     </row>
     <row r="116">
-      <c r="G116" s="43"/>
+      <c r="G116" s="44"/>
       <c r="H116" s="23"/>
-      <c r="K116" s="42"/>
-      <c r="L116" s="42"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43"/>
     </row>
     <row r="117">
-      <c r="G117" s="43"/>
+      <c r="G117" s="44"/>
       <c r="H117" s="23"/>
-      <c r="K117" s="42"/>
-      <c r="L117" s="42"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43"/>
     </row>
     <row r="118">
-      <c r="G118" s="43"/>
+      <c r="G118" s="44"/>
       <c r="H118" s="23"/>
-      <c r="K118" s="42"/>
-      <c r="L118" s="42"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43"/>
     </row>
     <row r="119">
-      <c r="G119" s="43"/>
+      <c r="G119" s="44"/>
       <c r="H119" s="23"/>
-      <c r="K119" s="42"/>
-      <c r="L119" s="42"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43"/>
     </row>
     <row r="120">
-      <c r="G120" s="43"/>
+      <c r="G120" s="44"/>
       <c r="H120" s="23"/>
-      <c r="K120" s="42"/>
-      <c r="L120" s="42"/>
+      <c r="K120" s="43"/>
+      <c r="L120" s="43"/>
     </row>
     <row r="121">
-      <c r="G121" s="43"/>
+      <c r="G121" s="44"/>
       <c r="H121" s="23"/>
-      <c r="K121" s="42"/>
-      <c r="L121" s="42"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="43"/>
     </row>
     <row r="122">
-      <c r="G122" s="43"/>
+      <c r="G122" s="44"/>
       <c r="H122" s="23"/>
-      <c r="K122" s="42"/>
-      <c r="L122" s="42"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
     </row>
     <row r="123">
-      <c r="G123" s="43"/>
+      <c r="G123" s="44"/>
       <c r="H123" s="23"/>
-      <c r="K123" s="42"/>
-      <c r="L123" s="42"/>
+      <c r="K123" s="43"/>
+      <c r="L123" s="43"/>
     </row>
     <row r="124">
-      <c r="G124" s="43"/>
+      <c r="G124" s="44"/>
       <c r="H124" s="23"/>
-      <c r="K124" s="42"/>
-      <c r="L124" s="42"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
     </row>
     <row r="125">
-      <c r="G125" s="43"/>
+      <c r="G125" s="44"/>
       <c r="H125" s="23"/>
-      <c r="K125" s="42"/>
-      <c r="L125" s="42"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="43"/>
     </row>
     <row r="126">
-      <c r="G126" s="43"/>
+      <c r="G126" s="44"/>
       <c r="H126" s="23"/>
-      <c r="K126" s="42"/>
-      <c r="L126" s="42"/>
+      <c r="K126" s="43"/>
+      <c r="L126" s="43"/>
     </row>
     <row r="127">
-      <c r="G127" s="43"/>
+      <c r="G127" s="44"/>
       <c r="H127" s="23"/>
-      <c r="K127" s="42"/>
-      <c r="L127" s="42"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="43"/>
     </row>
     <row r="128">
-      <c r="G128" s="43"/>
+      <c r="G128" s="44"/>
       <c r="H128" s="23"/>
-      <c r="K128" s="42"/>
-      <c r="L128" s="42"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="43"/>
     </row>
     <row r="129">
-      <c r="G129" s="43"/>
+      <c r="G129" s="44"/>
       <c r="H129" s="23"/>
-      <c r="K129" s="42"/>
-      <c r="L129" s="42"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="43"/>
     </row>
     <row r="130">
-      <c r="G130" s="43"/>
+      <c r="G130" s="44"/>
       <c r="H130" s="23"/>
-      <c r="K130" s="42"/>
-      <c r="L130" s="42"/>
+      <c r="K130" s="43"/>
+      <c r="L130" s="43"/>
     </row>
     <row r="131">
-      <c r="G131" s="43"/>
+      <c r="G131" s="44"/>
       <c r="H131" s="23"/>
-      <c r="K131" s="42"/>
-      <c r="L131" s="42"/>
+      <c r="K131" s="43"/>
+      <c r="L131" s="43"/>
     </row>
     <row r="132">
-      <c r="G132" s="43"/>
+      <c r="G132" s="44"/>
       <c r="H132" s="23"/>
-      <c r="K132" s="42"/>
-      <c r="L132" s="42"/>
+      <c r="K132" s="43"/>
+      <c r="L132" s="43"/>
     </row>
     <row r="133">
-      <c r="G133" s="43"/>
+      <c r="G133" s="44"/>
       <c r="H133" s="23"/>
-      <c r="K133" s="42"/>
-      <c r="L133" s="42"/>
+      <c r="K133" s="43"/>
+      <c r="L133" s="43"/>
     </row>
     <row r="134">
-      <c r="G134" s="43"/>
+      <c r="G134" s="44"/>
       <c r="H134" s="23"/>
-      <c r="K134" s="42"/>
-      <c r="L134" s="42"/>
+      <c r="K134" s="43"/>
+      <c r="L134" s="43"/>
     </row>
     <row r="135">
-      <c r="G135" s="43"/>
+      <c r="G135" s="44"/>
       <c r="H135" s="23"/>
-      <c r="K135" s="42"/>
-      <c r="L135" s="42"/>
+      <c r="K135" s="43"/>
+      <c r="L135" s="43"/>
     </row>
     <row r="136">
-      <c r="G136" s="43"/>
+      <c r="G136" s="44"/>
       <c r="H136" s="23"/>
-      <c r="K136" s="42"/>
-      <c r="L136" s="42"/>
+      <c r="K136" s="43"/>
+      <c r="L136" s="43"/>
     </row>
     <row r="137">
-      <c r="G137" s="43"/>
+      <c r="G137" s="44"/>
       <c r="H137" s="23"/>
-      <c r="K137" s="42"/>
-      <c r="L137" s="42"/>
+      <c r="K137" s="43"/>
+      <c r="L137" s="43"/>
     </row>
     <row r="138">
-      <c r="G138" s="43"/>
+      <c r="G138" s="44"/>
       <c r="H138" s="23"/>
-      <c r="K138" s="42"/>
-      <c r="L138" s="42"/>
+      <c r="K138" s="43"/>
+      <c r="L138" s="43"/>
     </row>
     <row r="139">
-      <c r="G139" s="43"/>
+      <c r="G139" s="44"/>
       <c r="H139" s="23"/>
-      <c r="K139" s="42"/>
-      <c r="L139" s="42"/>
+      <c r="K139" s="43"/>
+      <c r="L139" s="43"/>
     </row>
     <row r="140">
-      <c r="G140" s="43"/>
+      <c r="G140" s="44"/>
       <c r="H140" s="23"/>
-      <c r="K140" s="42"/>
-      <c r="L140" s="42"/>
+      <c r="K140" s="43"/>
+      <c r="L140" s="43"/>
     </row>
     <row r="141">
-      <c r="G141" s="43"/>
+      <c r="G141" s="44"/>
       <c r="H141" s="23"/>
-      <c r="K141" s="42"/>
-      <c r="L141" s="42"/>
+      <c r="K141" s="43"/>
+      <c r="L141" s="43"/>
     </row>
     <row r="142">
-      <c r="G142" s="43"/>
+      <c r="G142" s="44"/>
       <c r="H142" s="23"/>
-      <c r="K142" s="42"/>
-      <c r="L142" s="42"/>
+      <c r="K142" s="43"/>
+      <c r="L142" s="43"/>
     </row>
     <row r="143">
-      <c r="G143" s="43"/>
+      <c r="G143" s="44"/>
       <c r="H143" s="23"/>
-      <c r="K143" s="42"/>
-      <c r="L143" s="42"/>
+      <c r="K143" s="43"/>
+      <c r="L143" s="43"/>
     </row>
     <row r="144">
-      <c r="G144" s="43"/>
+      <c r="G144" s="44"/>
       <c r="H144" s="23"/>
-      <c r="K144" s="42"/>
-      <c r="L144" s="42"/>
+      <c r="K144" s="43"/>
+      <c r="L144" s="43"/>
     </row>
     <row r="145">
-      <c r="G145" s="43"/>
+      <c r="G145" s="44"/>
       <c r="H145" s="23"/>
-      <c r="K145" s="42"/>
-      <c r="L145" s="42"/>
+      <c r="K145" s="43"/>
+      <c r="L145" s="43"/>
     </row>
     <row r="146">
-      <c r="G146" s="43"/>
+      <c r="G146" s="44"/>
       <c r="H146" s="23"/>
-      <c r="K146" s="42"/>
-      <c r="L146" s="42"/>
+      <c r="K146" s="43"/>
+      <c r="L146" s="43"/>
     </row>
     <row r="147">
-      <c r="G147" s="43"/>
+      <c r="G147" s="44"/>
       <c r="H147" s="23"/>
-      <c r="K147" s="42"/>
-      <c r="L147" s="42"/>
+      <c r="K147" s="43"/>
+      <c r="L147" s="43"/>
     </row>
     <row r="148">
-      <c r="G148" s="43"/>
+      <c r="G148" s="44"/>
       <c r="H148" s="23"/>
-      <c r="K148" s="42"/>
-      <c r="L148" s="42"/>
+      <c r="K148" s="43"/>
+      <c r="L148" s="43"/>
     </row>
     <row r="149">
-      <c r="G149" s="43"/>
+      <c r="G149" s="44"/>
       <c r="H149" s="23"/>
-      <c r="K149" s="42"/>
-      <c r="L149" s="42"/>
+      <c r="K149" s="43"/>
+      <c r="L149" s="43"/>
     </row>
     <row r="150">
-      <c r="G150" s="43"/>
+      <c r="G150" s="44"/>
       <c r="H150" s="23"/>
-      <c r="K150" s="42"/>
-      <c r="L150" s="42"/>
+      <c r="K150" s="43"/>
+      <c r="L150" s="43"/>
     </row>
     <row r="151">
-      <c r="G151" s="43"/>
+      <c r="G151" s="44"/>
       <c r="H151" s="23"/>
-      <c r="K151" s="42"/>
-      <c r="L151" s="42"/>
+      <c r="K151" s="43"/>
+      <c r="L151" s="43"/>
     </row>
     <row r="152">
-      <c r="G152" s="43"/>
+      <c r="G152" s="44"/>
       <c r="H152" s="23"/>
-      <c r="K152" s="42"/>
-      <c r="L152" s="42"/>
+      <c r="K152" s="43"/>
+      <c r="L152" s="43"/>
     </row>
     <row r="153">
-      <c r="G153" s="43"/>
+      <c r="G153" s="44"/>
       <c r="H153" s="23"/>
-      <c r="K153" s="42"/>
-      <c r="L153" s="42"/>
+      <c r="K153" s="43"/>
+      <c r="L153" s="43"/>
     </row>
     <row r="154">
-      <c r="G154" s="43"/>
+      <c r="G154" s="44"/>
       <c r="H154" s="23"/>
-      <c r="K154" s="42"/>
-      <c r="L154" s="42"/>
+      <c r="K154" s="43"/>
+      <c r="L154" s="43"/>
     </row>
     <row r="155">
-      <c r="G155" s="43"/>
+      <c r="G155" s="44"/>
       <c r="H155" s="23"/>
-      <c r="K155" s="42"/>
-      <c r="L155" s="42"/>
+      <c r="K155" s="43"/>
+      <c r="L155" s="43"/>
     </row>
     <row r="156">
-      <c r="G156" s="43"/>
+      <c r="G156" s="44"/>
       <c r="H156" s="23"/>
-      <c r="K156" s="42"/>
-      <c r="L156" s="42"/>
+      <c r="K156" s="43"/>
+      <c r="L156" s="43"/>
     </row>
     <row r="157">
-      <c r="G157" s="43"/>
+      <c r="G157" s="44"/>
       <c r="H157" s="23"/>
-      <c r="K157" s="42"/>
-      <c r="L157" s="42"/>
+      <c r="K157" s="43"/>
+      <c r="L157" s="43"/>
     </row>
     <row r="158">
-      <c r="G158" s="43"/>
+      <c r="G158" s="44"/>
       <c r="H158" s="23"/>
-      <c r="K158" s="42"/>
-      <c r="L158" s="42"/>
+      <c r="K158" s="43"/>
+      <c r="L158" s="43"/>
     </row>
     <row r="159">
-      <c r="G159" s="43"/>
+      <c r="G159" s="44"/>
       <c r="H159" s="23"/>
-      <c r="K159" s="42"/>
-      <c r="L159" s="42"/>
+      <c r="K159" s="43"/>
+      <c r="L159" s="43"/>
     </row>
     <row r="160">
-      <c r="G160" s="43"/>
+      <c r="G160" s="44"/>
       <c r="H160" s="23"/>
-      <c r="K160" s="42"/>
-      <c r="L160" s="42"/>
+      <c r="K160" s="43"/>
+      <c r="L160" s="43"/>
     </row>
     <row r="161">
-      <c r="G161" s="43"/>
+      <c r="G161" s="44"/>
       <c r="H161" s="23"/>
-      <c r="K161" s="42"/>
-      <c r="L161" s="42"/>
+      <c r="K161" s="43"/>
+      <c r="L161" s="43"/>
     </row>
     <row r="162">
-      <c r="G162" s="43"/>
+      <c r="G162" s="44"/>
       <c r="H162" s="23"/>
-      <c r="K162" s="42"/>
-      <c r="L162" s="42"/>
+      <c r="K162" s="43"/>
+      <c r="L162" s="43"/>
     </row>
     <row r="163">
-      <c r="G163" s="43"/>
+      <c r="G163" s="44"/>
       <c r="H163" s="23"/>
-      <c r="K163" s="42"/>
-      <c r="L163" s="42"/>
+      <c r="K163" s="43"/>
+      <c r="L163" s="43"/>
     </row>
     <row r="164">
-      <c r="G164" s="43"/>
+      <c r="G164" s="44"/>
       <c r="H164" s="23"/>
-      <c r="K164" s="42"/>
-      <c r="L164" s="42"/>
+      <c r="K164" s="43"/>
+      <c r="L164" s="43"/>
     </row>
     <row r="165">
-      <c r="G165" s="43"/>
+      <c r="G165" s="44"/>
       <c r="H165" s="23"/>
-      <c r="K165" s="42"/>
-      <c r="L165" s="42"/>
+      <c r="K165" s="43"/>
+      <c r="L165" s="43"/>
     </row>
     <row r="166">
-      <c r="G166" s="43"/>
+      <c r="G166" s="44"/>
       <c r="H166" s="23"/>
-      <c r="K166" s="42"/>
-      <c r="L166" s="42"/>
+      <c r="K166" s="43"/>
+      <c r="L166" s="43"/>
     </row>
     <row r="167">
-      <c r="G167" s="43"/>
+      <c r="G167" s="44"/>
       <c r="H167" s="23"/>
-      <c r="K167" s="42"/>
-      <c r="L167" s="42"/>
+      <c r="K167" s="43"/>
+      <c r="L167" s="43"/>
     </row>
     <row r="168">
-      <c r="G168" s="43"/>
+      <c r="G168" s="44"/>
       <c r="H168" s="23"/>
-      <c r="K168" s="42"/>
-      <c r="L168" s="42"/>
+      <c r="K168" s="43"/>
+      <c r="L168" s="43"/>
     </row>
     <row r="169">
-      <c r="G169" s="43"/>
+      <c r="G169" s="44"/>
       <c r="H169" s="23"/>
-      <c r="K169" s="42"/>
-      <c r="L169" s="42"/>
+      <c r="K169" s="43"/>
+      <c r="L169" s="43"/>
     </row>
     <row r="170">
-      <c r="G170" s="43"/>
+      <c r="G170" s="44"/>
       <c r="H170" s="23"/>
-      <c r="K170" s="42"/>
-      <c r="L170" s="42"/>
+      <c r="K170" s="43"/>
+      <c r="L170" s="43"/>
     </row>
     <row r="171">
-      <c r="G171" s="43"/>
+      <c r="G171" s="44"/>
       <c r="H171" s="23"/>
-      <c r="K171" s="42"/>
-      <c r="L171" s="42"/>
+      <c r="K171" s="43"/>
+      <c r="L171" s="43"/>
     </row>
     <row r="172">
-      <c r="G172" s="43"/>
+      <c r="G172" s="44"/>
       <c r="H172" s="23"/>
-      <c r="K172" s="42"/>
-      <c r="L172" s="42"/>
+      <c r="K172" s="43"/>
+      <c r="L172" s="43"/>
     </row>
     <row r="173">
-      <c r="G173" s="43"/>
+      <c r="G173" s="44"/>
       <c r="H173" s="23"/>
-      <c r="K173" s="42"/>
-      <c r="L173" s="42"/>
+      <c r="K173" s="43"/>
+      <c r="L173" s="43"/>
     </row>
     <row r="174">
-      <c r="G174" s="43"/>
+      <c r="G174" s="44"/>
       <c r="H174" s="23"/>
-      <c r="K174" s="42"/>
-      <c r="L174" s="42"/>
+      <c r="K174" s="43"/>
+      <c r="L174" s="43"/>
     </row>
     <row r="175">
-      <c r="G175" s="43"/>
+      <c r="G175" s="44"/>
       <c r="H175" s="23"/>
-      <c r="K175" s="42"/>
-      <c r="L175" s="42"/>
+      <c r="K175" s="43"/>
+      <c r="L175" s="43"/>
     </row>
     <row r="176">
-      <c r="G176" s="43"/>
+      <c r="G176" s="44"/>
       <c r="H176" s="23"/>
-      <c r="K176" s="42"/>
-      <c r="L176" s="42"/>
+      <c r="K176" s="43"/>
+      <c r="L176" s="43"/>
     </row>
     <row r="177">
-      <c r="G177" s="43"/>
+      <c r="G177" s="44"/>
       <c r="H177" s="23"/>
-      <c r="K177" s="42"/>
-      <c r="L177" s="42"/>
+      <c r="K177" s="43"/>
+      <c r="L177" s="43"/>
     </row>
     <row r="178">
-      <c r="G178" s="43"/>
+      <c r="G178" s="44"/>
       <c r="H178" s="23"/>
-      <c r="K178" s="42"/>
-      <c r="L178" s="42"/>
+      <c r="K178" s="43"/>
+      <c r="L178" s="43"/>
     </row>
     <row r="179">
-      <c r="G179" s="43"/>
+      <c r="G179" s="44"/>
       <c r="H179" s="23"/>
-      <c r="K179" s="42"/>
-      <c r="L179" s="42"/>
+      <c r="K179" s="43"/>
+      <c r="L179" s="43"/>
     </row>
     <row r="180">
-      <c r="G180" s="43"/>
+      <c r="G180" s="44"/>
       <c r="H180" s="23"/>
-      <c r="K180" s="42"/>
-      <c r="L180" s="42"/>
+      <c r="K180" s="43"/>
+      <c r="L180" s="43"/>
     </row>
     <row r="181">
-      <c r="G181" s="43"/>
+      <c r="G181" s="44"/>
       <c r="H181" s="23"/>
-      <c r="K181" s="42"/>
-      <c r="L181" s="42"/>
+      <c r="K181" s="43"/>
+      <c r="L181" s="43"/>
     </row>
     <row r="182">
-      <c r="G182" s="43"/>
+      <c r="G182" s="44"/>
       <c r="H182" s="23"/>
-      <c r="K182" s="42"/>
-      <c r="L182" s="42"/>
+      <c r="K182" s="43"/>
+      <c r="L182" s="43"/>
     </row>
     <row r="183">
-      <c r="G183" s="43"/>
+      <c r="G183" s="44"/>
       <c r="H183" s="23"/>
-      <c r="K183" s="42"/>
-      <c r="L183" s="42"/>
+      <c r="K183" s="43"/>
+      <c r="L183" s="43"/>
     </row>
     <row r="184">
-      <c r="G184" s="43"/>
+      <c r="G184" s="44"/>
       <c r="H184" s="23"/>
-      <c r="K184" s="42"/>
-      <c r="L184" s="42"/>
+      <c r="K184" s="43"/>
+      <c r="L184" s="43"/>
     </row>
     <row r="185">
-      <c r="G185" s="43"/>
+      <c r="G185" s="44"/>
       <c r="H185" s="23"/>
-      <c r="K185" s="42"/>
-      <c r="L185" s="42"/>
+      <c r="K185" s="43"/>
+      <c r="L185" s="43"/>
     </row>
     <row r="186">
-      <c r="G186" s="43"/>
+      <c r="G186" s="44"/>
       <c r="H186" s="23"/>
-      <c r="K186" s="42"/>
-      <c r="L186" s="42"/>
+      <c r="K186" s="43"/>
+      <c r="L186" s="43"/>
     </row>
     <row r="187">
-      <c r="G187" s="43"/>
+      <c r="G187" s="44"/>
       <c r="H187" s="23"/>
-      <c r="K187" s="42"/>
-      <c r="L187" s="42"/>
+      <c r="K187" s="43"/>
+      <c r="L187" s="43"/>
     </row>
     <row r="188">
-      <c r="G188" s="43"/>
+      <c r="G188" s="44"/>
       <c r="H188" s="23"/>
-      <c r="K188" s="42"/>
-      <c r="L188" s="42"/>
+      <c r="K188" s="43"/>
+      <c r="L188" s="43"/>
     </row>
     <row r="189">
-      <c r="G189" s="43"/>
+      <c r="G189" s="44"/>
       <c r="H189" s="23"/>
-      <c r="K189" s="42"/>
-      <c r="L189" s="42"/>
+      <c r="K189" s="43"/>
+      <c r="L189" s="43"/>
     </row>
     <row r="190">
-      <c r="G190" s="43"/>
+      <c r="G190" s="44"/>
       <c r="H190" s="23"/>
-      <c r="K190" s="42"/>
-      <c r="L190" s="42"/>
+      <c r="K190" s="43"/>
+      <c r="L190" s="43"/>
     </row>
     <row r="191">
-      <c r="G191" s="43"/>
+      <c r="G191" s="44"/>
       <c r="H191" s="23"/>
-      <c r="K191" s="42"/>
-      <c r="L191" s="42"/>
+      <c r="K191" s="43"/>
+      <c r="L191" s="43"/>
     </row>
     <row r="192">
-      <c r="G192" s="43"/>
+      <c r="G192" s="44"/>
       <c r="H192" s="23"/>
-      <c r="K192" s="42"/>
-      <c r="L192" s="42"/>
+      <c r="K192" s="43"/>
+      <c r="L192" s="43"/>
     </row>
     <row r="193">
-      <c r="G193" s="43"/>
+      <c r="G193" s="44"/>
       <c r="H193" s="23"/>
-      <c r="K193" s="42"/>
-      <c r="L193" s="42"/>
+      <c r="K193" s="43"/>
+      <c r="L193" s="43"/>
     </row>
     <row r="194">
-      <c r="G194" s="43"/>
+      <c r="G194" s="44"/>
       <c r="H194" s="23"/>
-      <c r="K194" s="42"/>
-      <c r="L194" s="42"/>
+      <c r="K194" s="43"/>
+      <c r="L194" s="43"/>
     </row>
     <row r="195">
-      <c r="G195" s="43"/>
+      <c r="G195" s="44"/>
       <c r="H195" s="23"/>
-      <c r="K195" s="42"/>
-      <c r="L195" s="42"/>
+      <c r="K195" s="43"/>
+      <c r="L195" s="43"/>
     </row>
     <row r="196">
-      <c r="G196" s="43"/>
+      <c r="G196" s="44"/>
       <c r="H196" s="23"/>
-      <c r="K196" s="42"/>
-      <c r="L196" s="42"/>
+      <c r="K196" s="43"/>
+      <c r="L196" s="43"/>
     </row>
     <row r="197">
-      <c r="G197" s="43"/>
+      <c r="G197" s="44"/>
       <c r="H197" s="23"/>
-      <c r="K197" s="42"/>
-      <c r="L197" s="42"/>
+      <c r="K197" s="43"/>
+      <c r="L197" s="43"/>
     </row>
     <row r="198">
-      <c r="G198" s="43"/>
+      <c r="G198" s="44"/>
       <c r="H198" s="23"/>
-      <c r="K198" s="42"/>
-      <c r="L198" s="42"/>
+      <c r="K198" s="43"/>
+      <c r="L198" s="43"/>
     </row>
     <row r="199">
-      <c r="G199" s="43"/>
+      <c r="G199" s="44"/>
       <c r="H199" s="23"/>
-      <c r="K199" s="42"/>
-      <c r="L199" s="42"/>
+      <c r="K199" s="43"/>
+      <c r="L199" s="43"/>
     </row>
     <row r="200">
-      <c r="G200" s="43"/>
+      <c r="G200" s="44"/>
       <c r="H200" s="23"/>
-      <c r="K200" s="42"/>
-      <c r="L200" s="42"/>
+      <c r="K200" s="43"/>
+      <c r="L200" s="43"/>
     </row>
     <row r="201">
-      <c r="G201" s="43"/>
+      <c r="G201" s="44"/>
       <c r="H201" s="23"/>
-      <c r="K201" s="42"/>
-      <c r="L201" s="42"/>
+      <c r="K201" s="43"/>
+      <c r="L201" s="43"/>
     </row>
     <row r="202">
-      <c r="G202" s="43"/>
+      <c r="G202" s="44"/>
       <c r="H202" s="23"/>
-      <c r="K202" s="42"/>
-      <c r="L202" s="42"/>
+      <c r="K202" s="43"/>
+      <c r="L202" s="43"/>
     </row>
     <row r="203">
-      <c r="G203" s="43"/>
+      <c r="G203" s="44"/>
       <c r="H203" s="23"/>
-      <c r="K203" s="42"/>
-      <c r="L203" s="42"/>
+      <c r="K203" s="43"/>
+      <c r="L203" s="43"/>
     </row>
     <row r="204">
-      <c r="G204" s="43"/>
+      <c r="G204" s="44"/>
       <c r="H204" s="23"/>
-      <c r="K204" s="42"/>
-      <c r="L204" s="42"/>
+      <c r="K204" s="43"/>
+      <c r="L204" s="43"/>
     </row>
     <row r="205">
-      <c r="G205" s="43"/>
+      <c r="G205" s="44"/>
       <c r="H205" s="23"/>
-      <c r="K205" s="42"/>
-      <c r="L205" s="42"/>
+      <c r="K205" s="43"/>
+      <c r="L205" s="43"/>
     </row>
     <row r="206">
-      <c r="G206" s="43"/>
+      <c r="G206" s="44"/>
       <c r="H206" s="23"/>
-      <c r="K206" s="42"/>
-      <c r="L206" s="42"/>
+      <c r="K206" s="43"/>
+      <c r="L206" s="43"/>
     </row>
     <row r="207">
-      <c r="G207" s="43"/>
+      <c r="G207" s="44"/>
       <c r="H207" s="23"/>
-      <c r="K207" s="42"/>
-      <c r="L207" s="42"/>
+      <c r="K207" s="43"/>
+      <c r="L207" s="43"/>
     </row>
     <row r="208">
-      <c r="G208" s="43"/>
+      <c r="G208" s="44"/>
       <c r="H208" s="23"/>
-      <c r="K208" s="42"/>
-      <c r="L208" s="42"/>
+      <c r="K208" s="43"/>
+      <c r="L208" s="43"/>
     </row>
     <row r="209">
-      <c r="G209" s="43"/>
+      <c r="G209" s="44"/>
       <c r="H209" s="23"/>
-      <c r="K209" s="42"/>
-      <c r="L209" s="42"/>
+      <c r="K209" s="43"/>
+      <c r="L209" s="43"/>
     </row>
     <row r="210">
-      <c r="G210" s="43"/>
+      <c r="G210" s="44"/>
       <c r="H210" s="23"/>
-      <c r="K210" s="42"/>
-      <c r="L210" s="42"/>
+      <c r="K210" s="43"/>
+      <c r="L210" s="43"/>
     </row>
     <row r="211">
-      <c r="G211" s="43"/>
+      <c r="G211" s="44"/>
       <c r="H211" s="23"/>
-      <c r="K211" s="42"/>
-      <c r="L211" s="42"/>
+      <c r="K211" s="43"/>
+      <c r="L211" s="43"/>
     </row>
     <row r="212">
-      <c r="G212" s="43"/>
+      <c r="G212" s="44"/>
       <c r="H212" s="23"/>
-      <c r="K212" s="42"/>
-      <c r="L212" s="42"/>
+      <c r="K212" s="43"/>
+      <c r="L212" s="43"/>
     </row>
     <row r="213">
-      <c r="G213" s="43"/>
+      <c r="G213" s="44"/>
       <c r="H213" s="23"/>
-      <c r="K213" s="42"/>
-      <c r="L213" s="42"/>
+      <c r="K213" s="43"/>
+      <c r="L213" s="43"/>
     </row>
     <row r="214">
-      <c r="G214" s="43"/>
+      <c r="G214" s="44"/>
       <c r="H214" s="23"/>
-      <c r="K214" s="42"/>
-      <c r="L214" s="42"/>
+      <c r="K214" s="43"/>
+      <c r="L214" s="43"/>
     </row>
     <row r="215">
-      <c r="G215" s="43"/>
+      <c r="G215" s="44"/>
       <c r="H215" s="23"/>
-      <c r="K215" s="42"/>
-      <c r="L215" s="42"/>
+      <c r="K215" s="43"/>
+      <c r="L215" s="43"/>
     </row>
     <row r="216">
-      <c r="G216" s="43"/>
+      <c r="G216" s="44"/>
       <c r="H216" s="23"/>
-      <c r="K216" s="42"/>
-      <c r="L216" s="42"/>
+      <c r="K216" s="43"/>
+      <c r="L216" s="43"/>
     </row>
     <row r="217">
-      <c r="G217" s="43"/>
+      <c r="G217" s="44"/>
       <c r="H217" s="23"/>
-      <c r="K217" s="42"/>
-      <c r="L217" s="42"/>
+      <c r="K217" s="43"/>
+      <c r="L217" s="43"/>
     </row>
     <row r="218">
-      <c r="G218" s="43"/>
+      <c r="G218" s="44"/>
       <c r="H218" s="23"/>
-      <c r="K218" s="42"/>
-      <c r="L218" s="42"/>
+      <c r="K218" s="43"/>
+      <c r="L218" s="43"/>
     </row>
     <row r="219">
-      <c r="G219" s="43"/>
+      <c r="G219" s="44"/>
       <c r="H219" s="23"/>
-      <c r="K219" s="42"/>
-      <c r="L219" s="42"/>
+      <c r="K219" s="43"/>
+      <c r="L219" s="43"/>
     </row>
     <row r="220">
-      <c r="G220" s="43"/>
+      <c r="G220" s="44"/>
       <c r="H220" s="23"/>
-      <c r="K220" s="42"/>
-      <c r="L220" s="42"/>
+      <c r="K220" s="43"/>
+      <c r="L220" s="43"/>
     </row>
     <row r="221">
-      <c r="G221" s="43"/>
+      <c r="G221" s="44"/>
       <c r="H221" s="23"/>
-      <c r="K221" s="42"/>
-      <c r="L221" s="42"/>
+      <c r="K221" s="43"/>
+      <c r="L221" s="43"/>
     </row>
     <row r="222">
-      <c r="G222" s="43"/>
+      <c r="G222" s="44"/>
       <c r="H222" s="23"/>
-      <c r="K222" s="42"/>
-      <c r="L222" s="42"/>
+      <c r="K222" s="43"/>
+      <c r="L222" s="43"/>
     </row>
     <row r="223">
-      <c r="G223" s="43"/>
+      <c r="G223" s="44"/>
       <c r="H223" s="23"/>
-      <c r="K223" s="42"/>
-      <c r="L223" s="42"/>
+      <c r="K223" s="43"/>
+      <c r="L223" s="43"/>
     </row>
     <row r="224">
-      <c r="G224" s="43"/>
+      <c r="G224" s="44"/>
       <c r="H224" s="23"/>
-      <c r="K224" s="42"/>
-      <c r="L224" s="42"/>
+      <c r="K224" s="43"/>
+      <c r="L224" s="43"/>
     </row>
     <row r="225">
-      <c r="G225" s="43"/>
+      <c r="G225" s="44"/>
       <c r="H225" s="23"/>
-      <c r="K225" s="42"/>
-      <c r="L225" s="42"/>
+      <c r="K225" s="43"/>
+      <c r="L225" s="43"/>
     </row>
     <row r="226">
-      <c r="G226" s="43"/>
+      <c r="G226" s="44"/>
       <c r="H226" s="23"/>
-      <c r="K226" s="42"/>
-      <c r="L226" s="42"/>
+      <c r="K226" s="43"/>
+      <c r="L226" s="43"/>
     </row>
     <row r="227">
-      <c r="G227" s="43"/>
+      <c r="G227" s="44"/>
       <c r="H227" s="23"/>
-      <c r="K227" s="42"/>
-      <c r="L227" s="42"/>
+      <c r="K227" s="43"/>
+      <c r="L227" s="43"/>
     </row>
     <row r="228">
-      <c r="G228" s="43"/>
+      <c r="G228" s="44"/>
       <c r="H228" s="23"/>
-      <c r="K228" s="42"/>
-      <c r="L228" s="42"/>
+      <c r="K228" s="43"/>
+      <c r="L228" s="43"/>
     </row>
     <row r="229">
-      <c r="G229" s="43"/>
+      <c r="G229" s="44"/>
       <c r="H229" s="23"/>
-      <c r="K229" s="42"/>
-      <c r="L229" s="42"/>
+      <c r="K229" s="43"/>
+      <c r="L229" s="43"/>
     </row>
     <row r="230">
-      <c r="G230" s="43"/>
+      <c r="G230" s="44"/>
       <c r="H230" s="23"/>
-      <c r="K230" s="42"/>
-      <c r="L230" s="42"/>
+      <c r="K230" s="43"/>
+      <c r="L230" s="43"/>
     </row>
     <row r="231">
-      <c r="G231" s="43"/>
+      <c r="G231" s="44"/>
       <c r="H231" s="23"/>
-      <c r="K231" s="42"/>
-      <c r="L231" s="42"/>
+      <c r="K231" s="43"/>
+      <c r="L231" s="43"/>
     </row>
     <row r="232">
-      <c r="G232" s="43"/>
+      <c r="G232" s="44"/>
       <c r="H232" s="23"/>
-      <c r="K232" s="42"/>
-      <c r="L232" s="42"/>
+      <c r="K232" s="43"/>
+      <c r="L232" s="43"/>
     </row>
     <row r="233">
-      <c r="G233" s="43"/>
+      <c r="G233" s="44"/>
       <c r="H233" s="23"/>
-      <c r="K233" s="42"/>
-      <c r="L233" s="42"/>
+      <c r="K233" s="43"/>
+      <c r="L233" s="43"/>
     </row>
     <row r="234">
-      <c r="G234" s="43"/>
+      <c r="G234" s="44"/>
       <c r="H234" s="23"/>
-      <c r="K234" s="42"/>
-      <c r="L234" s="42"/>
+      <c r="K234" s="43"/>
+      <c r="L234" s="43"/>
     </row>
     <row r="235">
-      <c r="G235" s="43"/>
+      <c r="G235" s="44"/>
       <c r="H235" s="23"/>
-      <c r="K235" s="42"/>
-      <c r="L235" s="42"/>
+      <c r="K235" s="43"/>
+      <c r="L235" s="43"/>
     </row>
     <row r="236">
-      <c r="G236" s="43"/>
+      <c r="G236" s="44"/>
       <c r="H236" s="23"/>
-      <c r="K236" s="42"/>
-      <c r="L236" s="42"/>
+      <c r="K236" s="43"/>
+      <c r="L236" s="43"/>
     </row>
     <row r="237">
-      <c r="G237" s="43"/>
+      <c r="G237" s="44"/>
       <c r="H237" s="23"/>
-      <c r="K237" s="42"/>
-      <c r="L237" s="42"/>
+      <c r="K237" s="43"/>
+      <c r="L237" s="43"/>
     </row>
     <row r="238">
-      <c r="G238" s="43"/>
+      <c r="G238" s="44"/>
       <c r="H238" s="23"/>
-      <c r="K238" s="42"/>
-      <c r="L238" s="42"/>
+      <c r="K238" s="43"/>
+      <c r="L238" s="43"/>
     </row>
     <row r="239">
-      <c r="G239" s="43"/>
+      <c r="G239" s="44"/>
       <c r="H239" s="23"/>
-      <c r="K239" s="42"/>
-      <c r="L239" s="42"/>
+      <c r="K239" s="43"/>
+      <c r="L239" s="43"/>
     </row>
     <row r="240">
-      <c r="G240" s="43"/>
+      <c r="G240" s="44"/>
       <c r="H240" s="23"/>
-      <c r="K240" s="42"/>
-      <c r="L240" s="42"/>
+      <c r="K240" s="43"/>
+      <c r="L240" s="43"/>
     </row>
     <row r="241">
-      <c r="G241" s="43"/>
+      <c r="G241" s="44"/>
       <c r="H241" s="23"/>
-      <c r="K241" s="42"/>
-      <c r="L241" s="42"/>
+      <c r="K241" s="43"/>
+      <c r="L241" s="43"/>
     </row>
     <row r="242">
-      <c r="G242" s="43"/>
+      <c r="G242" s="44"/>
       <c r="H242" s="23"/>
-      <c r="K242" s="42"/>
-      <c r="L242" s="42"/>
+      <c r="K242" s="43"/>
+      <c r="L242" s="43"/>
     </row>
     <row r="243">
-      <c r="G243" s="43"/>
+      <c r="G243" s="44"/>
       <c r="H243" s="23"/>
-      <c r="K243" s="42"/>
-      <c r="L243" s="42"/>
+      <c r="K243" s="43"/>
+      <c r="L243" s="43"/>
     </row>
     <row r="244">
-      <c r="G244" s="43"/>
+      <c r="G244" s="44"/>
       <c r="H244" s="23"/>
-      <c r="K244" s="42"/>
-      <c r="L244" s="42"/>
+      <c r="K244" s="43"/>
+      <c r="L244" s="43"/>
     </row>
     <row r="245">
-      <c r="G245" s="43"/>
+      <c r="G245" s="44"/>
       <c r="H245" s="23"/>
-      <c r="K245" s="42"/>
-      <c r="L245" s="42"/>
+      <c r="K245" s="43"/>
+      <c r="L245" s="43"/>
     </row>
     <row r="246">
-      <c r="G246" s="43"/>
+      <c r="G246" s="44"/>
       <c r="H246" s="23"/>
-      <c r="K246" s="42"/>
-      <c r="L246" s="42"/>
+      <c r="K246" s="43"/>
+      <c r="L246" s="43"/>
     </row>
     <row r="247">
-      <c r="G247" s="43"/>
+      <c r="G247" s="44"/>
       <c r="H247" s="23"/>
-      <c r="K247" s="42"/>
-      <c r="L247" s="42"/>
+      <c r="K247" s="43"/>
+      <c r="L247" s="43"/>
     </row>
     <row r="248">
-      <c r="G248" s="43"/>
+      <c r="G248" s="44"/>
       <c r="H248" s="23"/>
-      <c r="K248" s="42"/>
-      <c r="L248" s="42"/>
+      <c r="K248" s="43"/>
+      <c r="L248" s="43"/>
     </row>
     <row r="249">
-      <c r="G249" s="43"/>
+      <c r="G249" s="44"/>
       <c r="H249" s="23"/>
-      <c r="K249" s="42"/>
-      <c r="L249" s="42"/>
+      <c r="K249" s="43"/>
+      <c r="L249" s="43"/>
     </row>
     <row r="250">
-      <c r="G250" s="43"/>
+      <c r="G250" s="44"/>
       <c r="H250" s="23"/>
-      <c r="K250" s="42"/>
-      <c r="L250" s="42"/>
+      <c r="K250" s="43"/>
+      <c r="L250" s="43"/>
     </row>
     <row r="251">
-      <c r="G251" s="43"/>
+      <c r="G251" s="44"/>
       <c r="H251" s="23"/>
-      <c r="K251" s="42"/>
-      <c r="L251" s="42"/>
+      <c r="K251" s="43"/>
+      <c r="L251" s="43"/>
     </row>
     <row r="252">
-      <c r="G252" s="43"/>
+      <c r="G252" s="44"/>
       <c r="H252" s="23"/>
-      <c r="K252" s="42"/>
-      <c r="L252" s="42"/>
+      <c r="K252" s="43"/>
+      <c r="L252" s="43"/>
     </row>
     <row r="253">
-      <c r="G253" s="43"/>
+      <c r="G253" s="44"/>
       <c r="H253" s="23"/>
-      <c r="K253" s="42"/>
-      <c r="L253" s="42"/>
+      <c r="K253" s="43"/>
+      <c r="L253" s="43"/>
     </row>
     <row r="254">
-      <c r="G254" s="43"/>
+      <c r="G254" s="44"/>
       <c r="H254" s="23"/>
-      <c r="K254" s="42"/>
-      <c r="L254" s="42"/>
+      <c r="K254" s="43"/>
+      <c r="L254" s="43"/>
     </row>
     <row r="255">
-      <c r="G255" s="43"/>
+      <c r="G255" s="44"/>
       <c r="H255" s="23"/>
-      <c r="K255" s="42"/>
-      <c r="L255" s="42"/>
+      <c r="K255" s="43"/>
+      <c r="L255" s="43"/>
     </row>
     <row r="256">
-      <c r="G256" s="43"/>
+      <c r="G256" s="44"/>
       <c r="H256" s="23"/>
-      <c r="K256" s="42"/>
-      <c r="L256" s="42"/>
+      <c r="K256" s="43"/>
+      <c r="L256" s="43"/>
     </row>
     <row r="257">
-      <c r="G257" s="43"/>
+      <c r="G257" s="44"/>
       <c r="H257" s="23"/>
-      <c r="K257" s="42"/>
-      <c r="L257" s="42"/>
+      <c r="K257" s="43"/>
+      <c r="L257" s="43"/>
     </row>
     <row r="258">
-      <c r="G258" s="43"/>
+      <c r="G258" s="44"/>
       <c r="H258" s="23"/>
-      <c r="K258" s="42"/>
-      <c r="L258" s="42"/>
+      <c r="K258" s="43"/>
+      <c r="L258" s="43"/>
     </row>
     <row r="259">
-      <c r="G259" s="43"/>
+      <c r="G259" s="44"/>
       <c r="H259" s="23"/>
-      <c r="K259" s="42"/>
-      <c r="L259" s="42"/>
+      <c r="K259" s="43"/>
+      <c r="L259" s="43"/>
     </row>
     <row r="260">
-      <c r="G260" s="43"/>
+      <c r="G260" s="44"/>
       <c r="H260" s="23"/>
-      <c r="K260" s="42"/>
-      <c r="L260" s="42"/>
+      <c r="K260" s="43"/>
+      <c r="L260" s="43"/>
     </row>
     <row r="261">
-      <c r="G261" s="43"/>
+      <c r="G261" s="44"/>
       <c r="H261" s="23"/>
-      <c r="K261" s="42"/>
-      <c r="L261" s="42"/>
+      <c r="K261" s="43"/>
+      <c r="L261" s="43"/>
     </row>
     <row r="262">
-      <c r="G262" s="43"/>
+      <c r="G262" s="44"/>
       <c r="H262" s="23"/>
-      <c r="K262" s="42"/>
-      <c r="L262" s="42"/>
+      <c r="K262" s="43"/>
+      <c r="L262" s="43"/>
     </row>
     <row r="263">
-      <c r="G263" s="43"/>
+      <c r="G263" s="44"/>
       <c r="H263" s="23"/>
-      <c r="K263" s="42"/>
-      <c r="L263" s="42"/>
+      <c r="K263" s="43"/>
+      <c r="L263" s="43"/>
     </row>
     <row r="264">
-      <c r="G264" s="43"/>
+      <c r="G264" s="44"/>
       <c r="H264" s="23"/>
-      <c r="K264" s="42"/>
-      <c r="L264" s="42"/>
+      <c r="K264" s="43"/>
+      <c r="L264" s="43"/>
     </row>
     <row r="265">
-      <c r="G265" s="43"/>
+      <c r="G265" s="44"/>
       <c r="H265" s="23"/>
-      <c r="K265" s="42"/>
-      <c r="L265" s="42"/>
+      <c r="K265" s="43"/>
+      <c r="L265" s="43"/>
     </row>
     <row r="266">
-      <c r="G266" s="43"/>
+      <c r="G266" s="44"/>
       <c r="H266" s="23"/>
-      <c r="K266" s="42"/>
-      <c r="L266" s="42"/>
+      <c r="K266" s="43"/>
+      <c r="L266" s="43"/>
     </row>
     <row r="267">
-      <c r="G267" s="43"/>
+      <c r="G267" s="44"/>
       <c r="H267" s="23"/>
-      <c r="K267" s="42"/>
-      <c r="L267" s="42"/>
+      <c r="K267" s="43"/>
+      <c r="L267" s="43"/>
     </row>
     <row r="268">
-      <c r="G268" s="43"/>
+      <c r="G268" s="44"/>
       <c r="H268" s="23"/>
-      <c r="K268" s="42"/>
-      <c r="L268" s="42"/>
+      <c r="K268" s="43"/>
+      <c r="L268" s="43"/>
     </row>
     <row r="269">
-      <c r="G269" s="43"/>
+      <c r="G269" s="44"/>
       <c r="H269" s="23"/>
-      <c r="K269" s="42"/>
-      <c r="L269" s="42"/>
+      <c r="K269" s="43"/>
+      <c r="L269" s="43"/>
     </row>
     <row r="270">
-      <c r="G270" s="43"/>
+      <c r="G270" s="44"/>
       <c r="H270" s="23"/>
-      <c r="K270" s="42"/>
-      <c r="L270" s="42"/>
+      <c r="K270" s="43"/>
+      <c r="L270" s="43"/>
     </row>
     <row r="271">
-      <c r="G271" s="43"/>
+      <c r="G271" s="44"/>
       <c r="H271" s="23"/>
-      <c r="K271" s="42"/>
-      <c r="L271" s="42"/>
+      <c r="K271" s="43"/>
+      <c r="L271" s="43"/>
     </row>
     <row r="272">
-      <c r="G272" s="43"/>
+      <c r="G272" s="44"/>
       <c r="H272" s="23"/>
-      <c r="K272" s="42"/>
-      <c r="L272" s="42"/>
+      <c r="K272" s="43"/>
+      <c r="L272" s="43"/>
     </row>
     <row r="273">
-      <c r="G273" s="43"/>
+      <c r="G273" s="44"/>
       <c r="H273" s="23"/>
-      <c r="K273" s="42"/>
-      <c r="L273" s="42"/>
+      <c r="K273" s="43"/>
+      <c r="L273" s="43"/>
     </row>
     <row r="274">
-      <c r="G274" s="43"/>
+      <c r="G274" s="44"/>
       <c r="H274" s="23"/>
-      <c r="K274" s="42"/>
-      <c r="L274" s="42"/>
+      <c r="K274" s="43"/>
+      <c r="L274" s="43"/>
     </row>
     <row r="275">
-      <c r="G275" s="43"/>
+      <c r="G275" s="44"/>
       <c r="H275" s="23"/>
-      <c r="K275" s="42"/>
-      <c r="L275" s="42"/>
+      <c r="K275" s="43"/>
+      <c r="L275" s="43"/>
     </row>
     <row r="276">
-      <c r="G276" s="43"/>
+      <c r="G276" s="44"/>
       <c r="H276" s="23"/>
-      <c r="K276" s="42"/>
-      <c r="L276" s="42"/>
+      <c r="K276" s="43"/>
+      <c r="L276" s="43"/>
     </row>
     <row r="277">
-      <c r="G277" s="43"/>
+      <c r="G277" s="44"/>
       <c r="H277" s="23"/>
-      <c r="K277" s="42"/>
-      <c r="L277" s="42"/>
+      <c r="K277" s="43"/>
+      <c r="L277" s="43"/>
     </row>
     <row r="278">
-      <c r="G278" s="43"/>
+      <c r="G278" s="44"/>
       <c r="H278" s="23"/>
-      <c r="K278" s="42"/>
-      <c r="L278" s="42"/>
+      <c r="K278" s="43"/>
+      <c r="L278" s="43"/>
     </row>
     <row r="279">
-      <c r="G279" s="43"/>
+      <c r="G279" s="44"/>
       <c r="H279" s="23"/>
-      <c r="K279" s="42"/>
-      <c r="L279" s="42"/>
+      <c r="K279" s="43"/>
+      <c r="L279" s="43"/>
     </row>
     <row r="280">
-      <c r="G280" s="43"/>
+      <c r="G280" s="44"/>
       <c r="H280" s="23"/>
-      <c r="K280" s="42"/>
-      <c r="L280" s="42"/>
+      <c r="K280" s="43"/>
+      <c r="L280" s="43"/>
     </row>
     <row r="281">
-      <c r="G281" s="43"/>
+      <c r="G281" s="44"/>
       <c r="H281" s="23"/>
-      <c r="K281" s="42"/>
-      <c r="L281" s="42"/>
+      <c r="K281" s="43"/>
+      <c r="L281" s="43"/>
     </row>
     <row r="282">
-      <c r="G282" s="43"/>
+      <c r="G282" s="44"/>
       <c r="H282" s="23"/>
-      <c r="K282" s="42"/>
-      <c r="L282" s="42"/>
+      <c r="K282" s="43"/>
+      <c r="L282" s="43"/>
     </row>
     <row r="283">
-      <c r="G283" s="43"/>
+      <c r="G283" s="44"/>
       <c r="H283" s="23"/>
-      <c r="K283" s="42"/>
-      <c r="L283" s="42"/>
+      <c r="K283" s="43"/>
+      <c r="L283" s="43"/>
     </row>
     <row r="284">
-      <c r="G284" s="43"/>
+      <c r="G284" s="44"/>
       <c r="H284" s="23"/>
-      <c r="K284" s="42"/>
-      <c r="L284" s="42"/>
+      <c r="K284" s="43"/>
+      <c r="L284" s="43"/>
     </row>
     <row r="285">
-      <c r="G285" s="43"/>
+      <c r="G285" s="44"/>
       <c r="H285" s="23"/>
-      <c r="K285" s="42"/>
-      <c r="L285" s="42"/>
+      <c r="K285" s="43"/>
+      <c r="L285" s="43"/>
     </row>
     <row r="286">
-      <c r="G286" s="43"/>
+      <c r="G286" s="44"/>
       <c r="H286" s="23"/>
-      <c r="K286" s="42"/>
-      <c r="L286" s="42"/>
+      <c r="K286" s="43"/>
+      <c r="L286" s="43"/>
     </row>
     <row r="287">
-      <c r="G287" s="43"/>
+      <c r="G287" s="44"/>
       <c r="H287" s="23"/>
-      <c r="K287" s="42"/>
-      <c r="L287" s="42"/>
+      <c r="K287" s="43"/>
+      <c r="L287" s="43"/>
     </row>
     <row r="288">
-      <c r="G288" s="43"/>
+      <c r="G288" s="44"/>
       <c r="H288" s="23"/>
-      <c r="K288" s="42"/>
-      <c r="L288" s="42"/>
+      <c r="K288" s="43"/>
+      <c r="L288" s="43"/>
     </row>
     <row r="289">
-      <c r="G289" s="43"/>
+      <c r="G289" s="44"/>
       <c r="H289" s="23"/>
-      <c r="K289" s="42"/>
-      <c r="L289" s="42"/>
+      <c r="K289" s="43"/>
+      <c r="L289" s="43"/>
     </row>
     <row r="290">
-      <c r="G290" s="43"/>
+      <c r="G290" s="44"/>
       <c r="H290" s="23"/>
-      <c r="K290" s="42"/>
-      <c r="L290" s="42"/>
+      <c r="K290" s="43"/>
+      <c r="L290" s="43"/>
     </row>
     <row r="291">
-      <c r="G291" s="43"/>
+      <c r="G291" s="44"/>
       <c r="H291" s="23"/>
-      <c r="K291" s="42"/>
-      <c r="L291" s="42"/>
+      <c r="K291" s="43"/>
+      <c r="L291" s="43"/>
     </row>
     <row r="292">
-      <c r="G292" s="43"/>
+      <c r="G292" s="44"/>
       <c r="H292" s="23"/>
-      <c r="K292" s="42"/>
-      <c r="L292" s="42"/>
+      <c r="K292" s="43"/>
+      <c r="L292" s="43"/>
     </row>
     <row r="293">
-      <c r="G293" s="43"/>
+      <c r="G293" s="44"/>
       <c r="H293" s="23"/>
-      <c r="K293" s="42"/>
-      <c r="L293" s="42"/>
+      <c r="K293" s="43"/>
+      <c r="L293" s="43"/>
     </row>
     <row r="294">
-      <c r="G294" s="43"/>
+      <c r="G294" s="44"/>
       <c r="H294" s="23"/>
-      <c r="K294" s="42"/>
-      <c r="L294" s="42"/>
+      <c r="K294" s="43"/>
+      <c r="L294" s="43"/>
     </row>
     <row r="295">
-      <c r="G295" s="43"/>
+      <c r="G295" s="44"/>
       <c r="H295" s="23"/>
-      <c r="K295" s="42"/>
-      <c r="L295" s="42"/>
+      <c r="K295" s="43"/>
+      <c r="L295" s="43"/>
     </row>
     <row r="296">
-      <c r="G296" s="43"/>
+      <c r="G296" s="44"/>
       <c r="H296" s="23"/>
-      <c r="K296" s="42"/>
-      <c r="L296" s="42"/>
+      <c r="K296" s="43"/>
+      <c r="L296" s="43"/>
     </row>
     <row r="297">
-      <c r="G297" s="43"/>
+      <c r="G297" s="44"/>
       <c r="H297" s="23"/>
-      <c r="K297" s="42"/>
-      <c r="L297" s="42"/>
+      <c r="K297" s="43"/>
+      <c r="L297" s="43"/>
     </row>
     <row r="298">
-      <c r="G298" s="43"/>
+      <c r="G298" s="44"/>
       <c r="H298" s="23"/>
-      <c r="K298" s="42"/>
-      <c r="L298" s="42"/>
+      <c r="K298" s="43"/>
+      <c r="L298" s="43"/>
     </row>
     <row r="299">
-      <c r="G299" s="43"/>
+      <c r="G299" s="44"/>
       <c r="H299" s="23"/>
-      <c r="K299" s="42"/>
-      <c r="L299" s="42"/>
+      <c r="K299" s="43"/>
+      <c r="L299" s="43"/>
     </row>
     <row r="300">
-      <c r="G300" s="43"/>
+      <c r="G300" s="44"/>
       <c r="H300" s="23"/>
-      <c r="K300" s="42"/>
-      <c r="L300" s="42"/>
+      <c r="K300" s="43"/>
+      <c r="L300" s="43"/>
     </row>
     <row r="301">
-      <c r="G301" s="43"/>
+      <c r="G301" s="44"/>
       <c r="H301" s="23"/>
-      <c r="K301" s="42"/>
-      <c r="L301" s="42"/>
+      <c r="K301" s="43"/>
+      <c r="L301" s="43"/>
     </row>
     <row r="302">
-      <c r="G302" s="43"/>
+      <c r="G302" s="44"/>
       <c r="H302" s="23"/>
-      <c r="K302" s="42"/>
-      <c r="L302" s="42"/>
+      <c r="K302" s="43"/>
+      <c r="L302" s="43"/>
     </row>
     <row r="303">
-      <c r="G303" s="43"/>
+      <c r="G303" s="44"/>
       <c r="H303" s="23"/>
-      <c r="K303" s="42"/>
-      <c r="L303" s="42"/>
+      <c r="K303" s="43"/>
+      <c r="L303" s="43"/>
     </row>
     <row r="304">
-      <c r="G304" s="43"/>
+      <c r="G304" s="44"/>
       <c r="H304" s="23"/>
-      <c r="K304" s="42"/>
-      <c r="L304" s="42"/>
+      <c r="K304" s="43"/>
+      <c r="L304" s="43"/>
     </row>
     <row r="305">
-      <c r="G305" s="43"/>
+      <c r="G305" s="44"/>
       <c r="H305" s="23"/>
-      <c r="K305" s="42"/>
-      <c r="L305" s="42"/>
+      <c r="K305" s="43"/>
+      <c r="L305" s="43"/>
     </row>
     <row r="306">
-      <c r="G306" s="43"/>
+      <c r="G306" s="44"/>
       <c r="H306" s="23"/>
-      <c r="K306" s="42"/>
-      <c r="L306" s="42"/>
+      <c r="K306" s="43"/>
+      <c r="L306" s="43"/>
     </row>
     <row r="307">
-      <c r="G307" s="43"/>
+      <c r="G307" s="44"/>
       <c r="H307" s="23"/>
-      <c r="K307" s="42"/>
-      <c r="L307" s="42"/>
+      <c r="K307" s="43"/>
+      <c r="L307" s="43"/>
     </row>
     <row r="308">
-      <c r="G308" s="43"/>
+      <c r="G308" s="44"/>
       <c r="H308" s="23"/>
-      <c r="K308" s="42"/>
-      <c r="L308" s="42"/>
+      <c r="K308" s="43"/>
+      <c r="L308" s="43"/>
     </row>
     <row r="309">
-      <c r="G309" s="43"/>
+      <c r="G309" s="44"/>
       <c r="H309" s="23"/>
-      <c r="K309" s="42"/>
-      <c r="L309" s="42"/>
+      <c r="K309" s="43"/>
+      <c r="L309" s="43"/>
     </row>
     <row r="310">
-      <c r="G310" s="43"/>
+      <c r="G310" s="44"/>
       <c r="H310" s="23"/>
-      <c r="K310" s="42"/>
-      <c r="L310" s="42"/>
+      <c r="K310" s="43"/>
+      <c r="L310" s="43"/>
     </row>
     <row r="311">
-      <c r="G311" s="43"/>
+      <c r="G311" s="44"/>
       <c r="H311" s="23"/>
-      <c r="K311" s="42"/>
-      <c r="L311" s="42"/>
+      <c r="K311" s="43"/>
+      <c r="L311" s="43"/>
     </row>
     <row r="312">
-      <c r="G312" s="43"/>
+      <c r="G312" s="44"/>
       <c r="H312" s="23"/>
-      <c r="K312" s="42"/>
-      <c r="L312" s="42"/>
+      <c r="K312" s="43"/>
+      <c r="L312" s="43"/>
     </row>
     <row r="313">
-      <c r="G313" s="43"/>
+      <c r="G313" s="44"/>
       <c r="H313" s="23"/>
-      <c r="K313" s="42"/>
-      <c r="L313" s="42"/>
+      <c r="K313" s="43"/>
+      <c r="L313" s="43"/>
     </row>
     <row r="314">
-      <c r="G314" s="43"/>
+      <c r="G314" s="44"/>
       <c r="H314" s="23"/>
-      <c r="K314" s="42"/>
-      <c r="L314" s="42"/>
+      <c r="K314" s="43"/>
+      <c r="L314" s="43"/>
     </row>
     <row r="315">
-      <c r="G315" s="43"/>
+      <c r="G315" s="44"/>
       <c r="H315" s="23"/>
-      <c r="K315" s="42"/>
-      <c r="L315" s="42"/>
+      <c r="K315" s="43"/>
+      <c r="L315" s="43"/>
     </row>
     <row r="316">
-      <c r="G316" s="43"/>
+      <c r="G316" s="44"/>
       <c r="H316" s="23"/>
-      <c r="K316" s="42"/>
-      <c r="L316" s="42"/>
+      <c r="K316" s="43"/>
+      <c r="L316" s="43"/>
     </row>
     <row r="317">
-      <c r="G317" s="43"/>
+      <c r="G317" s="44"/>
       <c r="H317" s="23"/>
-      <c r="K317" s="42"/>
-      <c r="L317" s="42"/>
+      <c r="K317" s="43"/>
+      <c r="L317" s="43"/>
     </row>
     <row r="318">
-      <c r="G318" s="43"/>
+      <c r="G318" s="44"/>
       <c r="H318" s="23"/>
-      <c r="K318" s="42"/>
-      <c r="L318" s="42"/>
+      <c r="K318" s="43"/>
+      <c r="L318" s="43"/>
     </row>
     <row r="319">
-      <c r="G319" s="43"/>
+      <c r="G319" s="44"/>
       <c r="H319" s="23"/>
-      <c r="K319" s="42"/>
-      <c r="L319" s="42"/>
+      <c r="K319" s="43"/>
+      <c r="L319" s="43"/>
     </row>
     <row r="320">
-      <c r="G320" s="43"/>
+      <c r="G320" s="44"/>
       <c r="H320" s="23"/>
-      <c r="K320" s="42"/>
-      <c r="L320" s="42"/>
+      <c r="K320" s="43"/>
+      <c r="L320" s="43"/>
     </row>
     <row r="321">
-      <c r="G321" s="43"/>
+      <c r="G321" s="44"/>
       <c r="H321" s="23"/>
-      <c r="K321" s="42"/>
-      <c r="L321" s="42"/>
+      <c r="K321" s="43"/>
+      <c r="L321" s="43"/>
     </row>
     <row r="322">
-      <c r="G322" s="43"/>
+      <c r="G322" s="44"/>
       <c r="H322" s="23"/>
-      <c r="K322" s="42"/>
-      <c r="L322" s="42"/>
+      <c r="K322" s="43"/>
+      <c r="L322" s="43"/>
     </row>
     <row r="323">
-      <c r="G323" s="43"/>
+      <c r="G323" s="44"/>
       <c r="H323" s="23"/>
-      <c r="K323" s="42"/>
-      <c r="L323" s="42"/>
+      <c r="K323" s="43"/>
+      <c r="L323" s="43"/>
     </row>
     <row r="324">
-      <c r="G324" s="43"/>
+      <c r="G324" s="44"/>
       <c r="H324" s="23"/>
-      <c r="K324" s="42"/>
-      <c r="L324" s="42"/>
+      <c r="K324" s="43"/>
+      <c r="L324" s="43"/>
     </row>
     <row r="325">
-      <c r="G325" s="43"/>
+      <c r="G325" s="44"/>
       <c r="H325" s="23"/>
-      <c r="K325" s="42"/>
-      <c r="L325" s="42"/>
+      <c r="K325" s="43"/>
+      <c r="L325" s="43"/>
     </row>
     <row r="326">
-      <c r="G326" s="43"/>
+      <c r="G326" s="44"/>
       <c r="H326" s="23"/>
-      <c r="K326" s="42"/>
-      <c r="L326" s="42"/>
+      <c r="K326" s="43"/>
+      <c r="L326" s="43"/>
     </row>
     <row r="327">
-      <c r="G327" s="43"/>
+      <c r="G327" s="44"/>
       <c r="H327" s="23"/>
-      <c r="K327" s="42"/>
-      <c r="L327" s="42"/>
+      <c r="K327" s="43"/>
+      <c r="L327" s="43"/>
     </row>
     <row r="328">
-      <c r="G328" s="43"/>
+      <c r="G328" s="44"/>
       <c r="H328" s="23"/>
-      <c r="K328" s="42"/>
-      <c r="L328" s="42"/>
+      <c r="K328" s="43"/>
+      <c r="L328" s="43"/>
     </row>
     <row r="329">
-      <c r="G329" s="43"/>
+      <c r="G329" s="44"/>
       <c r="H329" s="23"/>
-      <c r="K329" s="42"/>
-      <c r="L329" s="42"/>
+      <c r="K329" s="43"/>
+      <c r="L329" s="43"/>
     </row>
     <row r="330">
-      <c r="G330" s="43"/>
+      <c r="G330" s="44"/>
       <c r="H330" s="23"/>
-      <c r="K330" s="42"/>
-      <c r="L330" s="42"/>
+      <c r="K330" s="43"/>
+      <c r="L330" s="43"/>
     </row>
     <row r="331">
-      <c r="G331" s="43"/>
+      <c r="G331" s="44"/>
       <c r="H331" s="23"/>
-      <c r="K331" s="42"/>
-      <c r="L331" s="42"/>
+      <c r="K331" s="43"/>
+      <c r="L331" s="43"/>
     </row>
     <row r="332">
-      <c r="G332" s="43"/>
+      <c r="G332" s="44"/>
       <c r="H332" s="23"/>
-      <c r="K332" s="42"/>
-      <c r="L332" s="42"/>
+      <c r="K332" s="43"/>
+      <c r="L332" s="43"/>
     </row>
     <row r="333">
-      <c r="G333" s="43"/>
+      <c r="G333" s="44"/>
       <c r="H333" s="23"/>
-      <c r="K333" s="42"/>
-      <c r="L333" s="42"/>
+      <c r="K333" s="43"/>
+      <c r="L333" s="43"/>
     </row>
     <row r="334">
-      <c r="G334" s="43"/>
+      <c r="G334" s="44"/>
       <c r="H334" s="23"/>
-      <c r="K334" s="42"/>
-      <c r="L334" s="42"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
     </row>
     <row r="335">
-      <c r="G335" s="43"/>
+      <c r="G335" s="44"/>
       <c r="H335" s="23"/>
-      <c r="K335" s="42"/>
-      <c r="L335" s="42"/>
+      <c r="K335" s="43"/>
+      <c r="L335" s="43"/>
     </row>
     <row r="336">
-      <c r="G336" s="43"/>
+      <c r="G336" s="44"/>
       <c r="H336" s="23"/>
-      <c r="K336" s="42"/>
-      <c r="L336" s="42"/>
+      <c r="K336" s="43"/>
+      <c r="L336" s="43"/>
     </row>
     <row r="337">
-      <c r="G337" s="43"/>
+      <c r="G337" s="44"/>
       <c r="H337" s="23"/>
-      <c r="K337" s="42"/>
-      <c r="L337" s="42"/>
+      <c r="K337" s="43"/>
+      <c r="L337" s="43"/>
     </row>
     <row r="338">
-      <c r="G338" s="43"/>
+      <c r="G338" s="44"/>
       <c r="H338" s="23"/>
-      <c r="K338" s="42"/>
-      <c r="L338" s="42"/>
+      <c r="K338" s="43"/>
+      <c r="L338" s="43"/>
     </row>
     <row r="339">
-      <c r="G339" s="43"/>
+      <c r="G339" s="44"/>
       <c r="H339" s="23"/>
-      <c r="K339" s="42"/>
-      <c r="L339" s="42"/>
+      <c r="K339" s="43"/>
+      <c r="L339" s="43"/>
     </row>
     <row r="340">
-      <c r="G340" s="43"/>
+      <c r="G340" s="44"/>
       <c r="H340" s="23"/>
-      <c r="K340" s="42"/>
-      <c r="L340" s="42"/>
+      <c r="K340" s="43"/>
+      <c r="L340" s="43"/>
     </row>
     <row r="341">
-      <c r="G341" s="43"/>
+      <c r="G341" s="44"/>
       <c r="H341" s="23"/>
-      <c r="K341" s="42"/>
-      <c r="L341" s="42"/>
+      <c r="K341" s="43"/>
+      <c r="L341" s="43"/>
     </row>
     <row r="342">
-      <c r="G342" s="43"/>
+      <c r="G342" s="44"/>
       <c r="H342" s="23"/>
-      <c r="K342" s="42"/>
-      <c r="L342" s="42"/>
+      <c r="K342" s="43"/>
+      <c r="L342" s="43"/>
     </row>
     <row r="343">
-      <c r="G343" s="43"/>
+      <c r="G343" s="44"/>
       <c r="H343" s="23"/>
-      <c r="K343" s="42"/>
-      <c r="L343" s="42"/>
+      <c r="K343" s="43"/>
+      <c r="L343" s="43"/>
     </row>
     <row r="344">
-      <c r="G344" s="43"/>
+      <c r="G344" s="44"/>
       <c r="H344" s="23"/>
-      <c r="K344" s="42"/>
-      <c r="L344" s="42"/>
+      <c r="K344" s="43"/>
+      <c r="L344" s="43"/>
     </row>
     <row r="345">
-      <c r="G345" s="43"/>
+      <c r="G345" s="44"/>
       <c r="H345" s="23"/>
-      <c r="K345" s="42"/>
-      <c r="L345" s="42"/>
+      <c r="K345" s="43"/>
+      <c r="L345" s="43"/>
     </row>
     <row r="346">
-      <c r="G346" s="43"/>
+      <c r="G346" s="44"/>
       <c r="H346" s="23"/>
-      <c r="K346" s="42"/>
-      <c r="L346" s="42"/>
+      <c r="K346" s="43"/>
+      <c r="L346" s="43"/>
     </row>
     <row r="347">
-      <c r="G347" s="43"/>
+      <c r="G347" s="44"/>
       <c r="H347" s="23"/>
-      <c r="K347" s="42"/>
-      <c r="L347" s="42"/>
+      <c r="K347" s="43"/>
+      <c r="L347" s="43"/>
     </row>
     <row r="348">
-      <c r="G348" s="43"/>
+      <c r="G348" s="44"/>
       <c r="H348" s="23"/>
-      <c r="K348" s="42"/>
-      <c r="L348" s="42"/>
+      <c r="K348" s="43"/>
+      <c r="L348" s="43"/>
     </row>
     <row r="349">
-      <c r="G349" s="43"/>
+      <c r="G349" s="44"/>
       <c r="H349" s="23"/>
-      <c r="K349" s="42"/>
-      <c r="L349" s="42"/>
+      <c r="K349" s="43"/>
+      <c r="L349" s="43"/>
     </row>
     <row r="350">
-      <c r="G350" s="43"/>
+      <c r="G350" s="44"/>
       <c r="H350" s="23"/>
-      <c r="K350" s="42"/>
-      <c r="L350" s="42"/>
+      <c r="K350" s="43"/>
+      <c r="L350" s="43"/>
     </row>
     <row r="351">
-      <c r="G351" s="43"/>
+      <c r="G351" s="44"/>
       <c r="H351" s="23"/>
-      <c r="K351" s="42"/>
-      <c r="L351" s="42"/>
+      <c r="K351" s="43"/>
+      <c r="L351" s="43"/>
     </row>
     <row r="352">
-      <c r="G352" s="43"/>
+      <c r="G352" s="44"/>
       <c r="H352" s="23"/>
-      <c r="K352" s="42"/>
-      <c r="L352" s="42"/>
+      <c r="K352" s="43"/>
+      <c r="L352" s="43"/>
     </row>
     <row r="353">
-      <c r="G353" s="43"/>
+      <c r="G353" s="44"/>
       <c r="H353" s="23"/>
-      <c r="K353" s="42"/>
-      <c r="L353" s="42"/>
+      <c r="K353" s="43"/>
+      <c r="L353" s="43"/>
     </row>
     <row r="354">
-      <c r="G354" s="43"/>
+      <c r="G354" s="44"/>
       <c r="H354" s="23"/>
-      <c r="K354" s="42"/>
-      <c r="L354" s="42"/>
+      <c r="K354" s="43"/>
+      <c r="L354" s="43"/>
     </row>
     <row r="355">
-      <c r="G355" s="43"/>
+      <c r="G355" s="44"/>
       <c r="H355" s="23"/>
-      <c r="K355" s="42"/>
-      <c r="L355" s="42"/>
+      <c r="K355" s="43"/>
+      <c r="L355" s="43"/>
     </row>
     <row r="356">
-      <c r="G356" s="43"/>
+      <c r="G356" s="44"/>
       <c r="H356" s="23"/>
-      <c r="K356" s="42"/>
-      <c r="L356" s="42"/>
+      <c r="K356" s="43"/>
+      <c r="L356" s="43"/>
     </row>
     <row r="357">
-      <c r="G357" s="43"/>
+      <c r="G357" s="44"/>
       <c r="H357" s="23"/>
-      <c r="K357" s="42"/>
-      <c r="L357" s="42"/>
+      <c r="K357" s="43"/>
+      <c r="L357" s="43"/>
     </row>
     <row r="358">
-      <c r="G358" s="43"/>
+      <c r="G358" s="44"/>
       <c r="H358" s="23"/>
-      <c r="K358" s="42"/>
-      <c r="L358" s="42"/>
+      <c r="K358" s="43"/>
+      <c r="L358" s="43"/>
     </row>
     <row r="359">
-      <c r="G359" s="43"/>
+      <c r="G359" s="44"/>
       <c r="H359" s="23"/>
-      <c r="K359" s="42"/>
-      <c r="L359" s="42"/>
+      <c r="K359" s="43"/>
+      <c r="L359" s="43"/>
     </row>
     <row r="360">
-      <c r="G360" s="43"/>
+      <c r="G360" s="44"/>
       <c r="H360" s="23"/>
-      <c r="K360" s="42"/>
-      <c r="L360" s="42"/>
+      <c r="K360" s="43"/>
+      <c r="L360" s="43"/>
     </row>
     <row r="361">
-      <c r="G361" s="43"/>
+      <c r="G361" s="44"/>
       <c r="H361" s="23"/>
-      <c r="K361" s="42"/>
-      <c r="L361" s="42"/>
+      <c r="K361" s="43"/>
+      <c r="L361" s="43"/>
     </row>
     <row r="362">
-      <c r="G362" s="43"/>
+      <c r="G362" s="44"/>
       <c r="H362" s="23"/>
-      <c r="K362" s="42"/>
-      <c r="L362" s="42"/>
+      <c r="K362" s="43"/>
+      <c r="L362" s="43"/>
     </row>
     <row r="363">
-      <c r="G363" s="43"/>
+      <c r="G363" s="44"/>
       <c r="H363" s="23"/>
-      <c r="K363" s="42"/>
-      <c r="L363" s="42"/>
+      <c r="K363" s="43"/>
+      <c r="L363" s="43"/>
     </row>
     <row r="364">
-      <c r="G364" s="43"/>
+      <c r="G364" s="44"/>
       <c r="H364" s="23"/>
-      <c r="K364" s="42"/>
-      <c r="L364" s="42"/>
+      <c r="K364" s="43"/>
+      <c r="L364" s="43"/>
     </row>
     <row r="365">
-      <c r="G365" s="43"/>
+      <c r="G365" s="44"/>
       <c r="H365" s="23"/>
-      <c r="K365" s="42"/>
-      <c r="L365" s="42"/>
+      <c r="K365" s="43"/>
+      <c r="L365" s="43"/>
     </row>
     <row r="366">
-      <c r="G366" s="43"/>
+      <c r="G366" s="44"/>
       <c r="H366" s="23"/>
-      <c r="K366" s="42"/>
-      <c r="L366" s="42"/>
+      <c r="K366" s="43"/>
+      <c r="L366" s="43"/>
     </row>
     <row r="367">
-      <c r="G367" s="43"/>
+      <c r="G367" s="44"/>
       <c r="H367" s="23"/>
-      <c r="K367" s="42"/>
-      <c r="L367" s="42"/>
+      <c r="K367" s="43"/>
+      <c r="L367" s="43"/>
     </row>
     <row r="368">
-      <c r="G368" s="43"/>
+      <c r="G368" s="44"/>
       <c r="H368" s="23"/>
-      <c r="K368" s="42"/>
-      <c r="L368" s="42"/>
+      <c r="K368" s="43"/>
+      <c r="L368" s="43"/>
     </row>
     <row r="369">
-      <c r="G369" s="43"/>
+      <c r="G369" s="44"/>
       <c r="H369" s="23"/>
-      <c r="K369" s="42"/>
-      <c r="L369" s="42"/>
+      <c r="K369" s="43"/>
+      <c r="L369" s="43"/>
     </row>
     <row r="370">
-      <c r="G370" s="43"/>
+      <c r="G370" s="44"/>
       <c r="H370" s="23"/>
-      <c r="K370" s="42"/>
-      <c r="L370" s="42"/>
+      <c r="K370" s="43"/>
+      <c r="L370" s="43"/>
     </row>
     <row r="371">
-      <c r="G371" s="43"/>
+      <c r="G371" s="44"/>
       <c r="H371" s="23"/>
-      <c r="K371" s="42"/>
-      <c r="L371" s="42"/>
+      <c r="K371" s="43"/>
+      <c r="L371" s="43"/>
     </row>
     <row r="372">
-      <c r="G372" s="43"/>
+      <c r="G372" s="44"/>
       <c r="H372" s="23"/>
-      <c r="K372" s="42"/>
-      <c r="L372" s="42"/>
+      <c r="K372" s="43"/>
+      <c r="L372" s="43"/>
     </row>
     <row r="373">
-      <c r="G373" s="43"/>
+      <c r="G373" s="44"/>
       <c r="H373" s="23"/>
-      <c r="K373" s="42"/>
-      <c r="L373" s="42"/>
+      <c r="K373" s="43"/>
+      <c r="L373" s="43"/>
     </row>
     <row r="374">
-      <c r="G374" s="43"/>
+      <c r="G374" s="44"/>
       <c r="H374" s="23"/>
-      <c r="K374" s="42"/>
-      <c r="L374" s="42"/>
+      <c r="K374" s="43"/>
+      <c r="L374" s="43"/>
     </row>
     <row r="375">
-      <c r="G375" s="43"/>
+      <c r="G375" s="44"/>
       <c r="H375" s="23"/>
-      <c r="K375" s="42"/>
-      <c r="L375" s="42"/>
+      <c r="K375" s="43"/>
+      <c r="L375" s="43"/>
     </row>
     <row r="376">
-      <c r="G376" s="43"/>
+      <c r="G376" s="44"/>
       <c r="H376" s="23"/>
-      <c r="K376" s="42"/>
-      <c r="L376" s="42"/>
+      <c r="K376" s="43"/>
+      <c r="L376" s="43"/>
     </row>
     <row r="377">
-      <c r="G377" s="43"/>
+      <c r="G377" s="44"/>
       <c r="H377" s="23"/>
-      <c r="K377" s="42"/>
-      <c r="L377" s="42"/>
+      <c r="K377" s="43"/>
+      <c r="L377" s="43"/>
     </row>
     <row r="378">
-      <c r="G378" s="43"/>
+      <c r="G378" s="44"/>
       <c r="H378" s="23"/>
-      <c r="K378" s="42"/>
-      <c r="L378" s="42"/>
+      <c r="K378" s="43"/>
+      <c r="L378" s="43"/>
     </row>
     <row r="379">
-      <c r="G379" s="43"/>
+      <c r="G379" s="44"/>
       <c r="H379" s="23"/>
-      <c r="K379" s="42"/>
-      <c r="L379" s="42"/>
+      <c r="K379" s="43"/>
+      <c r="L379" s="43"/>
     </row>
     <row r="380">
-      <c r="G380" s="43"/>
+      <c r="G380" s="44"/>
       <c r="H380" s="23"/>
-      <c r="K380" s="42"/>
-      <c r="L380" s="42"/>
+      <c r="K380" s="43"/>
+      <c r="L380" s="43"/>
     </row>
     <row r="381">
-      <c r="G381" s="43"/>
+      <c r="G381" s="44"/>
       <c r="H381" s="23"/>
-      <c r="K381" s="42"/>
-      <c r="L381" s="42"/>
+      <c r="K381" s="43"/>
+      <c r="L381" s="43"/>
     </row>
     <row r="382">
-      <c r="G382" s="43"/>
+      <c r="G382" s="44"/>
       <c r="H382" s="23"/>
-      <c r="K382" s="42"/>
-      <c r="L382" s="42"/>
+      <c r="K382" s="43"/>
+      <c r="L382" s="43"/>
     </row>
     <row r="383">
-      <c r="G383" s="43"/>
+      <c r="G383" s="44"/>
       <c r="H383" s="23"/>
-      <c r="K383" s="42"/>
-      <c r="L383" s="42"/>
+      <c r="K383" s="43"/>
+      <c r="L383" s="43"/>
     </row>
     <row r="384">
-      <c r="G384" s="43"/>
+      <c r="G384" s="44"/>
       <c r="H384" s="23"/>
-      <c r="K384" s="42"/>
-      <c r="L384" s="42"/>
+      <c r="K384" s="43"/>
+      <c r="L384" s="43"/>
     </row>
     <row r="385">
-      <c r="G385" s="43"/>
+      <c r="G385" s="44"/>
       <c r="H385" s="23"/>
-      <c r="K385" s="42"/>
-      <c r="L385" s="42"/>
+      <c r="K385" s="43"/>
+      <c r="L385" s="43"/>
     </row>
     <row r="386">
-      <c r="G386" s="43"/>
+      <c r="G386" s="44"/>
       <c r="H386" s="23"/>
-      <c r="K386" s="42"/>
-      <c r="L386" s="42"/>
+      <c r="K386" s="43"/>
+      <c r="L386" s="43"/>
     </row>
     <row r="387">
-      <c r="G387" s="43"/>
+      <c r="G387" s="44"/>
       <c r="H387" s="23"/>
-      <c r="K387" s="42"/>
-      <c r="L387" s="42"/>
+      <c r="K387" s="43"/>
+      <c r="L387" s="43"/>
     </row>
     <row r="388">
-      <c r="G388" s="43"/>
+      <c r="G388" s="44"/>
       <c r="H388" s="23"/>
-      <c r="K388" s="42"/>
-      <c r="L388" s="42"/>
+      <c r="K388" s="43"/>
+      <c r="L388" s="43"/>
     </row>
     <row r="389">
-      <c r="G389" s="43"/>
+      <c r="G389" s="44"/>
       <c r="H389" s="23"/>
-      <c r="K389" s="42"/>
-      <c r="L389" s="42"/>
+      <c r="K389" s="43"/>
+      <c r="L389" s="43"/>
     </row>
     <row r="390">
-      <c r="G390" s="43"/>
+      <c r="G390" s="44"/>
       <c r="H390" s="23"/>
-      <c r="K390" s="42"/>
-      <c r="L390" s="42"/>
+      <c r="K390" s="43"/>
+      <c r="L390" s="43"/>
     </row>
     <row r="391">
-      <c r="G391" s="43"/>
+      <c r="G391" s="44"/>
       <c r="H391" s="23"/>
-      <c r="K391" s="42"/>
-      <c r="L391" s="42"/>
+      <c r="K391" s="43"/>
+      <c r="L391" s="43"/>
     </row>
     <row r="392">
-      <c r="G392" s="43"/>
+      <c r="G392" s="44"/>
       <c r="H392" s="23"/>
-      <c r="K392" s="42"/>
-      <c r="L392" s="42"/>
+      <c r="K392" s="43"/>
+      <c r="L392" s="43"/>
     </row>
     <row r="393">
-      <c r="G393" s="43"/>
+      <c r="G393" s="44"/>
       <c r="H393" s="23"/>
-      <c r="K393" s="42"/>
-      <c r="L393" s="42"/>
+      <c r="K393" s="43"/>
+      <c r="L393" s="43"/>
     </row>
     <row r="394">
-      <c r="G394" s="43"/>
+      <c r="G394" s="44"/>
       <c r="H394" s="23"/>
-      <c r="K394" s="42"/>
-      <c r="L394" s="42"/>
+      <c r="K394" s="43"/>
+      <c r="L394" s="43"/>
     </row>
     <row r="395">
-      <c r="G395" s="43"/>
+      <c r="G395" s="44"/>
       <c r="H395" s="23"/>
-      <c r="K395" s="42"/>
-      <c r="L395" s="42"/>
+      <c r="K395" s="43"/>
+      <c r="L395" s="43"/>
     </row>
     <row r="396">
-      <c r="G396" s="43"/>
+      <c r="G396" s="44"/>
       <c r="H396" s="23"/>
-      <c r="K396" s="42"/>
-      <c r="L396" s="42"/>
+      <c r="K396" s="43"/>
+      <c r="L396" s="43"/>
     </row>
     <row r="397">
-      <c r="G397" s="43"/>
+      <c r="G397" s="44"/>
       <c r="H397" s="23"/>
-      <c r="K397" s="42"/>
-      <c r="L397" s="42"/>
+      <c r="K397" s="43"/>
+      <c r="L397" s="43"/>
     </row>
     <row r="398">
-      <c r="G398" s="43"/>
+      <c r="G398" s="44"/>
       <c r="H398" s="23"/>
-      <c r="K398" s="42"/>
-      <c r="L398" s="42"/>
+      <c r="K398" s="43"/>
+      <c r="L398" s="43"/>
     </row>
     <row r="399">
-      <c r="G399" s="43"/>
+      <c r="G399" s="44"/>
       <c r="H399" s="23"/>
-      <c r="K399" s="42"/>
-      <c r="L399" s="42"/>
+      <c r="K399" s="43"/>
+      <c r="L399" s="43"/>
     </row>
     <row r="400">
-      <c r="G400" s="43"/>
+      <c r="G400" s="44"/>
       <c r="H400" s="23"/>
-      <c r="K400" s="42"/>
-      <c r="L400" s="42"/>
+      <c r="K400" s="43"/>
+      <c r="L400" s="43"/>
     </row>
     <row r="401">
-      <c r="G401" s="43"/>
+      <c r="G401" s="44"/>
       <c r="H401" s="23"/>
-      <c r="K401" s="42"/>
-      <c r="L401" s="42"/>
+      <c r="K401" s="43"/>
+      <c r="L401" s="43"/>
     </row>
     <row r="402">
-      <c r="G402" s="43"/>
+      <c r="G402" s="44"/>
       <c r="H402" s="23"/>
-      <c r="K402" s="42"/>
-      <c r="L402" s="42"/>
+      <c r="K402" s="43"/>
+      <c r="L402" s="43"/>
     </row>
     <row r="403">
-      <c r="G403" s="43"/>
+      <c r="G403" s="44"/>
       <c r="H403" s="23"/>
-      <c r="K403" s="42"/>
-      <c r="L403" s="42"/>
+      <c r="K403" s="43"/>
+      <c r="L403" s="43"/>
     </row>
     <row r="404">
-      <c r="G404" s="43"/>
+      <c r="G404" s="44"/>
       <c r="H404" s="23"/>
-      <c r="K404" s="42"/>
-      <c r="L404" s="42"/>
+      <c r="K404" s="43"/>
+      <c r="L404" s="43"/>
     </row>
     <row r="405">
-      <c r="G405" s="43"/>
+      <c r="G405" s="44"/>
       <c r="H405" s="23"/>
-      <c r="K405" s="42"/>
-      <c r="L405" s="42"/>
+      <c r="K405" s="43"/>
+      <c r="L405" s="43"/>
     </row>
     <row r="406">
-      <c r="G406" s="43"/>
+      <c r="G406" s="44"/>
       <c r="H406" s="23"/>
-      <c r="K406" s="42"/>
-      <c r="L406" s="42"/>
+      <c r="K406" s="43"/>
+      <c r="L406" s="43"/>
     </row>
     <row r="407">
-      <c r="G407" s="43"/>
+      <c r="G407" s="44"/>
       <c r="H407" s="23"/>
-      <c r="K407" s="42"/>
-      <c r="L407" s="42"/>
+      <c r="K407" s="43"/>
+      <c r="L407" s="43"/>
     </row>
     <row r="408">
-      <c r="G408" s="43"/>
+      <c r="G408" s="44"/>
       <c r="H408" s="23"/>
-      <c r="K408" s="42"/>
-      <c r="L408" s="42"/>
+      <c r="K408" s="43"/>
+      <c r="L408" s="43"/>
     </row>
     <row r="409">
-      <c r="G409" s="43"/>
+      <c r="G409" s="44"/>
       <c r="H409" s="23"/>
-      <c r="K409" s="42"/>
-      <c r="L409" s="42"/>
+      <c r="K409" s="43"/>
+      <c r="L409" s="43"/>
     </row>
     <row r="410">
-      <c r="G410" s="43"/>
+      <c r="G410" s="44"/>
       <c r="H410" s="23"/>
-      <c r="K410" s="42"/>
-      <c r="L410" s="42"/>
+      <c r="K410" s="43"/>
+      <c r="L410" s="43"/>
     </row>
     <row r="411">
-      <c r="G411" s="43"/>
+      <c r="G411" s="44"/>
       <c r="H411" s="23"/>
-      <c r="K411" s="42"/>
-      <c r="L411" s="42"/>
+      <c r="K411" s="43"/>
+      <c r="L411" s="43"/>
     </row>
     <row r="412">
-      <c r="G412" s="43"/>
+      <c r="G412" s="44"/>
       <c r="H412" s="23"/>
-      <c r="K412" s="42"/>
-      <c r="L412" s="42"/>
+      <c r="K412" s="43"/>
+      <c r="L412" s="43"/>
     </row>
     <row r="413">
-      <c r="G413" s="43"/>
+      <c r="G413" s="44"/>
       <c r="H413" s="23"/>
-      <c r="K413" s="42"/>
-      <c r="L413" s="42"/>
+      <c r="K413" s="43"/>
+      <c r="L413" s="43"/>
     </row>
     <row r="414">
-      <c r="G414" s="43"/>
+      <c r="G414" s="44"/>
       <c r="H414" s="23"/>
-      <c r="K414" s="42"/>
-      <c r="L414" s="42"/>
+      <c r="K414" s="43"/>
+      <c r="L414" s="43"/>
     </row>
     <row r="415">
-      <c r="G415" s="43"/>
+      <c r="G415" s="44"/>
       <c r="H415" s="23"/>
-      <c r="K415" s="42"/>
-      <c r="L415" s="42"/>
+      <c r="K415" s="43"/>
+      <c r="L415" s="43"/>
     </row>
     <row r="416">
-      <c r="G416" s="43"/>
+      <c r="G416" s="44"/>
       <c r="H416" s="23"/>
-      <c r="K416" s="42"/>
-      <c r="L416" s="42"/>
+      <c r="K416" s="43"/>
+      <c r="L416" s="43"/>
     </row>
     <row r="417">
-      <c r="G417" s="43"/>
+      <c r="G417" s="44"/>
       <c r="H417" s="23"/>
-      <c r="K417" s="42"/>
-      <c r="L417" s="42"/>
+      <c r="K417" s="43"/>
+      <c r="L417" s="43"/>
     </row>
     <row r="418">
-      <c r="G418" s="43"/>
+      <c r="G418" s="44"/>
       <c r="H418" s="23"/>
-      <c r="K418" s="42"/>
-      <c r="L418" s="42"/>
+      <c r="K418" s="43"/>
+      <c r="L418" s="43"/>
     </row>
     <row r="419">
-      <c r="G419" s="43"/>
+      <c r="G419" s="44"/>
       <c r="H419" s="23"/>
-      <c r="K419" s="42"/>
-      <c r="L419" s="42"/>
+      <c r="K419" s="43"/>
+      <c r="L419" s="43"/>
     </row>
     <row r="420">
-      <c r="G420" s="43"/>
+      <c r="G420" s="44"/>
       <c r="H420" s="23"/>
-      <c r="K420" s="42"/>
-      <c r="L420" s="42"/>
+      <c r="K420" s="43"/>
+      <c r="L420" s="43"/>
     </row>
     <row r="421">
-      <c r="G421" s="43"/>
+      <c r="G421" s="44"/>
       <c r="H421" s="23"/>
-      <c r="K421" s="42"/>
-      <c r="L421" s="42"/>
+      <c r="K421" s="43"/>
+      <c r="L421" s="43"/>
     </row>
     <row r="422">
-      <c r="G422" s="43"/>
+      <c r="G422" s="44"/>
       <c r="H422" s="23"/>
-      <c r="K422" s="42"/>
-      <c r="L422" s="42"/>
+      <c r="K422" s="43"/>
+      <c r="L422" s="43"/>
     </row>
     <row r="423">
-      <c r="G423" s="43"/>
+      <c r="G423" s="44"/>
       <c r="H423" s="23"/>
-      <c r="K423" s="42"/>
-      <c r="L423" s="42"/>
+      <c r="K423" s="43"/>
+      <c r="L423" s="43"/>
     </row>
     <row r="424">
-      <c r="G424" s="43"/>
+      <c r="G424" s="44"/>
       <c r="H424" s="23"/>
-      <c r="K424" s="42"/>
-      <c r="L424" s="42"/>
+      <c r="K424" s="43"/>
+      <c r="L424" s="43"/>
     </row>
     <row r="425">
-      <c r="G425" s="43"/>
+      <c r="G425" s="44"/>
       <c r="H425" s="23"/>
-      <c r="K425" s="42"/>
-      <c r="L425" s="42"/>
+      <c r="K425" s="43"/>
+      <c r="L425" s="43"/>
     </row>
     <row r="426">
-      <c r="G426" s="43"/>
+      <c r="G426" s="44"/>
       <c r="H426" s="23"/>
-      <c r="K426" s="42"/>
-      <c r="L426" s="42"/>
+      <c r="K426" s="43"/>
+      <c r="L426" s="43"/>
     </row>
     <row r="427">
-      <c r="G427" s="43"/>
+      <c r="G427" s="44"/>
       <c r="H427" s="23"/>
-      <c r="K427" s="42"/>
-      <c r="L427" s="42"/>
+      <c r="K427" s="43"/>
+      <c r="L427" s="43"/>
     </row>
     <row r="428">
-      <c r="G428" s="43"/>
+      <c r="G428" s="44"/>
       <c r="H428" s="23"/>
-      <c r="K428" s="42"/>
-      <c r="L428" s="42"/>
+      <c r="K428" s="43"/>
+      <c r="L428" s="43"/>
     </row>
     <row r="429">
-      <c r="G429" s="43"/>
+      <c r="G429" s="44"/>
       <c r="H429" s="23"/>
-      <c r="K429" s="42"/>
-      <c r="L429" s="42"/>
+      <c r="K429" s="43"/>
+      <c r="L429" s="43"/>
     </row>
     <row r="430">
-      <c r="G430" s="43"/>
+      <c r="G430" s="44"/>
       <c r="H430" s="23"/>
-      <c r="K430" s="42"/>
-      <c r="L430" s="42"/>
+      <c r="K430" s="43"/>
+      <c r="L430" s="43"/>
     </row>
     <row r="431">
-      <c r="G431" s="43"/>
+      <c r="G431" s="44"/>
       <c r="H431" s="23"/>
-      <c r="K431" s="42"/>
-      <c r="L431" s="42"/>
+      <c r="K431" s="43"/>
+      <c r="L431" s="43"/>
     </row>
     <row r="432">
-      <c r="G432" s="43"/>
+      <c r="G432" s="44"/>
       <c r="H432" s="23"/>
-      <c r="K432" s="42"/>
-      <c r="L432" s="42"/>
+      <c r="K432" s="43"/>
+      <c r="L432" s="43"/>
     </row>
     <row r="433">
-      <c r="G433" s="43"/>
+      <c r="G433" s="44"/>
       <c r="H433" s="23"/>
-      <c r="K433" s="42"/>
-      <c r="L433" s="42"/>
+      <c r="K433" s="43"/>
+      <c r="L433" s="43"/>
     </row>
     <row r="434">
-      <c r="G434" s="43"/>
+      <c r="G434" s="44"/>
       <c r="H434" s="23"/>
-      <c r="K434" s="42"/>
-      <c r="L434" s="42"/>
+      <c r="K434" s="43"/>
+      <c r="L434" s="43"/>
     </row>
     <row r="435">
-      <c r="G435" s="43"/>
+      <c r="G435" s="44"/>
       <c r="H435" s="23"/>
-      <c r="K435" s="42"/>
-      <c r="L435" s="42"/>
+      <c r="K435" s="43"/>
+      <c r="L435" s="43"/>
     </row>
     <row r="436">
-      <c r="G436" s="43"/>
+      <c r="G436" s="44"/>
       <c r="H436" s="23"/>
-      <c r="K436" s="42"/>
-      <c r="L436" s="42"/>
+      <c r="K436" s="43"/>
+      <c r="L436" s="43"/>
     </row>
     <row r="437">
-      <c r="G437" s="43"/>
+      <c r="G437" s="44"/>
       <c r="H437" s="23"/>
-      <c r="K437" s="42"/>
-      <c r="L437" s="42"/>
+      <c r="K437" s="43"/>
+      <c r="L437" s="43"/>
     </row>
     <row r="438">
-      <c r="G438" s="43"/>
+      <c r="G438" s="44"/>
       <c r="H438" s="23"/>
-      <c r="K438" s="42"/>
-      <c r="L438" s="42"/>
+      <c r="K438" s="43"/>
+      <c r="L438" s="43"/>
     </row>
     <row r="439">
-      <c r="G439" s="43"/>
+      <c r="G439" s="44"/>
       <c r="H439" s="23"/>
-      <c r="K439" s="42"/>
-      <c r="L439" s="42"/>
+      <c r="K439" s="43"/>
+      <c r="L439" s="43"/>
     </row>
     <row r="440">
-      <c r="G440" s="43"/>
+      <c r="G440" s="44"/>
       <c r="H440" s="23"/>
-      <c r="K440" s="42"/>
-      <c r="L440" s="42"/>
+      <c r="K440" s="43"/>
+      <c r="L440" s="43"/>
     </row>
     <row r="441">
-      <c r="G441" s="43"/>
+      <c r="G441" s="44"/>
       <c r="H441" s="23"/>
-      <c r="K441" s="42"/>
-      <c r="L441" s="42"/>
+      <c r="K441" s="43"/>
+      <c r="L441" s="43"/>
     </row>
     <row r="442">
-      <c r="G442" s="43"/>
+      <c r="G442" s="44"/>
       <c r="H442" s="23"/>
-      <c r="K442" s="42"/>
-      <c r="L442" s="42"/>
+      <c r="K442" s="43"/>
+      <c r="L442" s="43"/>
     </row>
     <row r="443">
-      <c r="G443" s="43"/>
+      <c r="G443" s="44"/>
       <c r="H443" s="23"/>
-      <c r="K443" s="42"/>
-      <c r="L443" s="42"/>
+      <c r="K443" s="43"/>
+      <c r="L443" s="43"/>
     </row>
     <row r="444">
-      <c r="G444" s="43"/>
+      <c r="G444" s="44"/>
       <c r="H444" s="23"/>
-      <c r="K444" s="42"/>
-      <c r="L444" s="42"/>
+      <c r="K444" s="43"/>
+      <c r="L444" s="43"/>
     </row>
     <row r="445">
-      <c r="G445" s="43"/>
+      <c r="G445" s="44"/>
       <c r="H445" s="23"/>
-      <c r="K445" s="42"/>
-      <c r="L445" s="42"/>
+      <c r="K445" s="43"/>
+      <c r="L445" s="43"/>
     </row>
     <row r="446">
-      <c r="G446" s="43"/>
+      <c r="G446" s="44"/>
       <c r="H446" s="23"/>
-      <c r="K446" s="42"/>
-      <c r="L446" s="42"/>
+      <c r="K446" s="43"/>
+      <c r="L446" s="43"/>
     </row>
     <row r="447">
-      <c r="G447" s="43"/>
+      <c r="G447" s="44"/>
       <c r="H447" s="23"/>
-      <c r="K447" s="42"/>
-      <c r="L447" s="42"/>
+      <c r="K447" s="43"/>
+      <c r="L447" s="43"/>
     </row>
     <row r="448">
-      <c r="G448" s="43"/>
+      <c r="G448" s="44"/>
       <c r="H448" s="23"/>
-      <c r="K448" s="42"/>
-      <c r="L448" s="42"/>
+      <c r="K448" s="43"/>
+      <c r="L448" s="43"/>
     </row>
     <row r="449">
-      <c r="G449" s="43"/>
+      <c r="G449" s="44"/>
       <c r="H449" s="23"/>
-      <c r="K449" s="42"/>
-      <c r="L449" s="42"/>
+      <c r="K449" s="43"/>
+      <c r="L449" s="43"/>
     </row>
     <row r="450">
-      <c r="G450" s="43"/>
+      <c r="G450" s="44"/>
       <c r="H450" s="23"/>
-      <c r="K450" s="42"/>
-      <c r="L450" s="42"/>
+      <c r="K450" s="43"/>
+      <c r="L450" s="43"/>
     </row>
     <row r="451">
-      <c r="G451" s="43"/>
+      <c r="G451" s="44"/>
       <c r="H451" s="23"/>
-      <c r="K451" s="42"/>
-      <c r="L451" s="42"/>
+      <c r="K451" s="43"/>
+      <c r="L451" s="43"/>
     </row>
     <row r="452">
-      <c r="G452" s="43"/>
+      <c r="G452" s="44"/>
       <c r="H452" s="23"/>
-      <c r="K452" s="42"/>
-      <c r="L452" s="42"/>
+      <c r="K452" s="43"/>
+      <c r="L452" s="43"/>
     </row>
     <row r="453">
-      <c r="G453" s="43"/>
+      <c r="G453" s="44"/>
       <c r="H453" s="23"/>
-      <c r="K453" s="42"/>
-      <c r="L453" s="42"/>
+      <c r="K453" s="43"/>
+      <c r="L453" s="43"/>
     </row>
     <row r="454">
-      <c r="G454" s="43"/>
+      <c r="G454" s="44"/>
       <c r="H454" s="23"/>
-      <c r="K454" s="42"/>
-      <c r="L454" s="42"/>
+      <c r="K454" s="43"/>
+      <c r="L454" s="43"/>
     </row>
     <row r="455">
-      <c r="G455" s="43"/>
+      <c r="G455" s="44"/>
       <c r="H455" s="23"/>
-      <c r="K455" s="42"/>
-      <c r="L455" s="42"/>
+      <c r="K455" s="43"/>
+      <c r="L455" s="43"/>
     </row>
     <row r="456">
-      <c r="G456" s="43"/>
+      <c r="G456" s="44"/>
       <c r="H456" s="23"/>
-      <c r="K456" s="42"/>
-      <c r="L456" s="42"/>
+      <c r="K456" s="43"/>
+      <c r="L456" s="43"/>
     </row>
     <row r="457">
-      <c r="G457" s="43"/>
+      <c r="G457" s="44"/>
       <c r="H457" s="23"/>
-      <c r="K457" s="42"/>
-      <c r="L457" s="42"/>
+      <c r="K457" s="43"/>
+      <c r="L457" s="43"/>
     </row>
     <row r="458">
-      <c r="G458" s="43"/>
+      <c r="G458" s="44"/>
       <c r="H458" s="23"/>
-      <c r="K458" s="42"/>
-      <c r="L458" s="42"/>
+      <c r="K458" s="43"/>
+      <c r="L458" s="43"/>
     </row>
     <row r="459">
-      <c r="G459" s="43"/>
+      <c r="G459" s="44"/>
       <c r="H459" s="23"/>
-      <c r="K459" s="42"/>
-      <c r="L459" s="42"/>
+      <c r="K459" s="43"/>
+      <c r="L459" s="43"/>
     </row>
     <row r="460">
-      <c r="G460" s="43"/>
+      <c r="G460" s="44"/>
       <c r="H460" s="23"/>
-      <c r="K460" s="42"/>
-      <c r="L460" s="42"/>
+      <c r="K460" s="43"/>
+      <c r="L460" s="43"/>
     </row>
     <row r="461">
-      <c r="G461" s="43"/>
+      <c r="G461" s="44"/>
       <c r="H461" s="23"/>
-      <c r="K461" s="42"/>
-      <c r="L461" s="42"/>
+      <c r="K461" s="43"/>
+      <c r="L461" s="43"/>
     </row>
     <row r="462">
-      <c r="G462" s="43"/>
+      <c r="G462" s="44"/>
       <c r="H462" s="23"/>
-      <c r="K462" s="42"/>
-      <c r="L462" s="42"/>
+      <c r="K462" s="43"/>
+      <c r="L462" s="43"/>
     </row>
     <row r="463">
-      <c r="G463" s="43"/>
+      <c r="G463" s="44"/>
       <c r="H463" s="23"/>
-      <c r="K463" s="42"/>
-      <c r="L463" s="42"/>
+      <c r="K463" s="43"/>
+      <c r="L463" s="43"/>
     </row>
     <row r="464">
-      <c r="G464" s="43"/>
+      <c r="G464" s="44"/>
       <c r="H464" s="23"/>
-      <c r="K464" s="42"/>
-      <c r="L464" s="42"/>
+      <c r="K464" s="43"/>
+      <c r="L464" s="43"/>
     </row>
     <row r="465">
-      <c r="G465" s="43"/>
+      <c r="G465" s="44"/>
       <c r="H465" s="23"/>
-      <c r="K465" s="42"/>
-      <c r="L465" s="42"/>
+      <c r="K465" s="43"/>
+      <c r="L465" s="43"/>
     </row>
     <row r="466">
-      <c r="G466" s="43"/>
+      <c r="G466" s="44"/>
       <c r="H466" s="23"/>
-      <c r="K466" s="42"/>
-      <c r="L466" s="42"/>
+      <c r="K466" s="43"/>
+      <c r="L466" s="43"/>
     </row>
     <row r="467">
-      <c r="G467" s="43"/>
+      <c r="G467" s="44"/>
       <c r="H467" s="23"/>
-      <c r="K467" s="42"/>
-      <c r="L467" s="42"/>
+      <c r="K467" s="43"/>
+      <c r="L467" s="43"/>
     </row>
     <row r="468">
-      <c r="G468" s="43"/>
+      <c r="G468" s="44"/>
       <c r="H468" s="23"/>
-      <c r="K468" s="42"/>
-      <c r="L468" s="42"/>
+      <c r="K468" s="43"/>
+      <c r="L468" s="43"/>
     </row>
     <row r="469">
-      <c r="G469" s="43"/>
+      <c r="G469" s="44"/>
       <c r="H469" s="23"/>
-      <c r="K469" s="42"/>
-      <c r="L469" s="42"/>
+      <c r="K469" s="43"/>
+      <c r="L469" s="43"/>
     </row>
     <row r="470">
-      <c r="G470" s="43"/>
+      <c r="G470" s="44"/>
       <c r="H470" s="23"/>
-      <c r="K470" s="42"/>
-      <c r="L470" s="42"/>
+      <c r="K470" s="43"/>
+      <c r="L470" s="43"/>
     </row>
     <row r="471">
-      <c r="G471" s="43"/>
+      <c r="G471" s="44"/>
       <c r="H471" s="23"/>
-      <c r="K471" s="42"/>
-      <c r="L471" s="42"/>
+      <c r="K471" s="43"/>
+      <c r="L471" s="43"/>
     </row>
     <row r="472">
-      <c r="G472" s="43"/>
+      <c r="G472" s="44"/>
       <c r="H472" s="23"/>
-      <c r="K472" s="42"/>
-      <c r="L472" s="42"/>
+      <c r="K472" s="43"/>
+      <c r="L472" s="43"/>
     </row>
     <row r="473">
-      <c r="G473" s="43"/>
+      <c r="G473" s="44"/>
       <c r="H473" s="23"/>
-      <c r="K473" s="42"/>
-      <c r="L473" s="42"/>
+      <c r="K473" s="43"/>
+      <c r="L473" s="43"/>
     </row>
     <row r="474">
-      <c r="G474" s="43"/>
+      <c r="G474" s="44"/>
       <c r="H474" s="23"/>
-      <c r="K474" s="42"/>
-      <c r="L474" s="42"/>
+      <c r="K474" s="43"/>
+      <c r="L474" s="43"/>
     </row>
     <row r="475">
-      <c r="G475" s="43"/>
+      <c r="G475" s="44"/>
       <c r="H475" s="23"/>
-      <c r="K475" s="42"/>
-      <c r="L475" s="42"/>
+      <c r="K475" s="43"/>
+      <c r="L475" s="43"/>
     </row>
     <row r="476">
-      <c r="G476" s="43"/>
+      <c r="G476" s="44"/>
       <c r="H476" s="23"/>
-      <c r="K476" s="42"/>
-      <c r="L476" s="42"/>
+      <c r="K476" s="43"/>
+      <c r="L476" s="43"/>
     </row>
     <row r="477">
-      <c r="G477" s="43"/>
+      <c r="G477" s="44"/>
       <c r="H477" s="23"/>
-      <c r="K477" s="42"/>
-      <c r="L477" s="42"/>
+      <c r="K477" s="43"/>
+      <c r="L477" s="43"/>
     </row>
     <row r="478">
-      <c r="G478" s="43"/>
+      <c r="G478" s="44"/>
       <c r="H478" s="23"/>
-      <c r="K478" s="42"/>
-      <c r="L478" s="42"/>
+      <c r="K478" s="43"/>
+      <c r="L478" s="43"/>
     </row>
     <row r="479">
-      <c r="G479" s="43"/>
+      <c r="G479" s="44"/>
       <c r="H479" s="23"/>
-      <c r="K479" s="42"/>
-      <c r="L479" s="42"/>
+      <c r="K479" s="43"/>
+      <c r="L479" s="43"/>
     </row>
     <row r="480">
-      <c r="G480" s="43"/>
+      <c r="G480" s="44"/>
       <c r="H480" s="23"/>
-      <c r="K480" s="42"/>
-      <c r="L480" s="42"/>
+      <c r="K480" s="43"/>
+      <c r="L480" s="43"/>
     </row>
     <row r="481">
-      <c r="G481" s="43"/>
+      <c r="G481" s="44"/>
       <c r="H481" s="23"/>
-      <c r="K481" s="42"/>
-      <c r="L481" s="42"/>
+      <c r="K481" s="43"/>
+      <c r="L481" s="43"/>
     </row>
     <row r="482">
-      <c r="G482" s="43"/>
+      <c r="G482" s="44"/>
       <c r="H482" s="23"/>
-      <c r="K482" s="42"/>
-      <c r="L482" s="42"/>
+      <c r="K482" s="43"/>
+      <c r="L482" s="43"/>
     </row>
     <row r="483">
-      <c r="G483" s="43"/>
+      <c r="G483" s="44"/>
       <c r="H483" s="23"/>
-      <c r="K483" s="42"/>
-      <c r="L483" s="42"/>
+      <c r="K483" s="43"/>
+      <c r="L483" s="43"/>
     </row>
     <row r="484">
-      <c r="G484" s="43"/>
+      <c r="G484" s="44"/>
       <c r="H484" s="23"/>
-      <c r="K484" s="42"/>
-      <c r="L484" s="42"/>
+      <c r="K484" s="43"/>
+      <c r="L484" s="43"/>
     </row>
     <row r="485">
-      <c r="G485" s="43"/>
+      <c r="G485" s="44"/>
       <c r="H485" s="23"/>
-      <c r="K485" s="42"/>
-      <c r="L485" s="42"/>
+      <c r="K485" s="43"/>
+      <c r="L485" s="43"/>
     </row>
     <row r="486">
-      <c r="G486" s="43"/>
+      <c r="G486" s="44"/>
       <c r="H486" s="23"/>
-      <c r="K486" s="42"/>
-      <c r="L486" s="42"/>
+      <c r="K486" s="43"/>
+      <c r="L486" s="43"/>
     </row>
     <row r="487">
-      <c r="G487" s="43"/>
+      <c r="G487" s="44"/>
       <c r="H487" s="23"/>
-      <c r="K487" s="42"/>
-      <c r="L487" s="42"/>
+      <c r="K487" s="43"/>
+      <c r="L487" s="43"/>
     </row>
     <row r="488">
-      <c r="G488" s="43"/>
+      <c r="G488" s="44"/>
       <c r="H488" s="23"/>
-      <c r="K488" s="42"/>
-      <c r="L488" s="42"/>
+      <c r="K488" s="43"/>
+      <c r="L488" s="43"/>
     </row>
     <row r="489">
-      <c r="G489" s="43"/>
+      <c r="G489" s="44"/>
       <c r="H489" s="23"/>
-      <c r="K489" s="42"/>
-      <c r="L489" s="42"/>
+      <c r="K489" s="43"/>
+      <c r="L489" s="43"/>
     </row>
     <row r="490">
-      <c r="G490" s="43"/>
+      <c r="G490" s="44"/>
       <c r="H490" s="23"/>
-      <c r="K490" s="42"/>
-      <c r="L490" s="42"/>
+      <c r="K490" s="43"/>
+      <c r="L490" s="43"/>
     </row>
     <row r="491">
-      <c r="G491" s="43"/>
+      <c r="G491" s="44"/>
       <c r="H491" s="23"/>
-      <c r="K491" s="42"/>
-      <c r="L491" s="42"/>
+      <c r="K491" s="43"/>
+      <c r="L491" s="43"/>
     </row>
     <row r="492">
-      <c r="G492" s="43"/>
+      <c r="G492" s="44"/>
       <c r="H492" s="23"/>
-      <c r="K492" s="42"/>
-      <c r="L492" s="42"/>
+      <c r="K492" s="43"/>
+      <c r="L492" s="43"/>
     </row>
     <row r="493">
-      <c r="G493" s="43"/>
+      <c r="G493" s="44"/>
       <c r="H493" s="23"/>
-      <c r="K493" s="42"/>
-      <c r="L493" s="42"/>
+      <c r="K493" s="43"/>
+      <c r="L493" s="43"/>
     </row>
     <row r="494">
-      <c r="G494" s="43"/>
+      <c r="G494" s="44"/>
       <c r="H494" s="23"/>
-      <c r="K494" s="42"/>
-      <c r="L494" s="42"/>
+      <c r="K494" s="43"/>
+      <c r="L494" s="43"/>
     </row>
     <row r="495">
-      <c r="G495" s="43"/>
+      <c r="G495" s="44"/>
       <c r="H495" s="23"/>
-      <c r="K495" s="42"/>
-      <c r="L495" s="42"/>
+      <c r="K495" s="43"/>
+      <c r="L495" s="43"/>
     </row>
     <row r="496">
-      <c r="G496" s="43"/>
+      <c r="G496" s="44"/>
       <c r="H496" s="23"/>
-      <c r="K496" s="42"/>
-      <c r="L496" s="42"/>
+      <c r="K496" s="43"/>
+      <c r="L496" s="43"/>
     </row>
     <row r="497">
-      <c r="G497" s="43"/>
+      <c r="G497" s="44"/>
       <c r="H497" s="23"/>
-      <c r="K497" s="42"/>
-      <c r="L497" s="42"/>
+      <c r="K497" s="43"/>
+      <c r="L497" s="43"/>
     </row>
     <row r="498">
-      <c r="G498" s="43"/>
+      <c r="G498" s="44"/>
       <c r="H498" s="23"/>
-      <c r="K498" s="42"/>
-      <c r="L498" s="42"/>
+      <c r="K498" s="43"/>
+      <c r="L498" s="43"/>
     </row>
     <row r="499">
-      <c r="G499" s="43"/>
+      <c r="G499" s="44"/>
       <c r="H499" s="23"/>
-      <c r="K499" s="42"/>
-      <c r="L499" s="42"/>
+      <c r="K499" s="43"/>
+      <c r="L499" s="43"/>
     </row>
     <row r="500">
-      <c r="G500" s="43"/>
+      <c r="G500" s="44"/>
       <c r="H500" s="23"/>
-      <c r="K500" s="42"/>
-      <c r="L500" s="42"/>
+      <c r="K500" s="43"/>
+      <c r="L500" s="43"/>
     </row>
     <row r="501">
-      <c r="G501" s="43"/>
+      <c r="G501" s="44"/>
       <c r="H501" s="23"/>
-      <c r="K501" s="42"/>
-      <c r="L501" s="42"/>
+      <c r="K501" s="43"/>
+      <c r="L501" s="43"/>
     </row>
     <row r="502">
-      <c r="G502" s="43"/>
+      <c r="G502" s="44"/>
       <c r="H502" s="23"/>
-      <c r="K502" s="42"/>
-      <c r="L502" s="42"/>
+      <c r="K502" s="43"/>
+      <c r="L502" s="43"/>
     </row>
     <row r="503">
-      <c r="G503" s="43"/>
+      <c r="G503" s="44"/>
       <c r="H503" s="23"/>
-      <c r="K503" s="42"/>
-      <c r="L503" s="42"/>
+      <c r="K503" s="43"/>
+      <c r="L503" s="43"/>
     </row>
     <row r="504">
-      <c r="G504" s="43"/>
+      <c r="G504" s="44"/>
       <c r="H504" s="23"/>
-      <c r="K504" s="42"/>
-      <c r="L504" s="42"/>
+      <c r="K504" s="43"/>
+      <c r="L504" s="43"/>
     </row>
     <row r="505">
-      <c r="G505" s="43"/>
+      <c r="G505" s="44"/>
       <c r="H505" s="23"/>
-      <c r="K505" s="42"/>
-      <c r="L505" s="42"/>
+      <c r="K505" s="43"/>
+      <c r="L505" s="43"/>
     </row>
     <row r="506">
-      <c r="G506" s="43"/>
+      <c r="G506" s="44"/>
       <c r="H506" s="23"/>
-      <c r="K506" s="42"/>
-      <c r="L506" s="42"/>
+      <c r="K506" s="43"/>
+      <c r="L506" s="43"/>
     </row>
     <row r="507">
-      <c r="G507" s="43"/>
+      <c r="G507" s="44"/>
       <c r="H507" s="23"/>
-      <c r="K507" s="42"/>
-      <c r="L507" s="42"/>
+      <c r="K507" s="43"/>
+      <c r="L507" s="43"/>
     </row>
     <row r="508">
-      <c r="G508" s="43"/>
+      <c r="G508" s="44"/>
       <c r="H508" s="23"/>
-      <c r="K508" s="42"/>
-      <c r="L508" s="42"/>
+      <c r="K508" s="43"/>
+      <c r="L508" s="43"/>
     </row>
     <row r="509">
-      <c r="G509" s="43"/>
+      <c r="G509" s="44"/>
       <c r="H509" s="23"/>
-      <c r="K509" s="42"/>
-      <c r="L509" s="42"/>
+      <c r="K509" s="43"/>
+      <c r="L509" s="43"/>
     </row>
     <row r="510">
-      <c r="G510" s="43"/>
+      <c r="G510" s="44"/>
       <c r="H510" s="23"/>
-      <c r="K510" s="42"/>
-      <c r="L510" s="42"/>
+      <c r="K510" s="43"/>
+      <c r="L510" s="43"/>
     </row>
     <row r="511">
-      <c r="G511" s="43"/>
+      <c r="G511" s="44"/>
       <c r="H511" s="23"/>
-      <c r="K511" s="42"/>
-      <c r="L511" s="42"/>
+      <c r="K511" s="43"/>
+      <c r="L511" s="43"/>
     </row>
     <row r="512">
-      <c r="G512" s="43"/>
+      <c r="G512" s="44"/>
       <c r="H512" s="23"/>
-      <c r="K512" s="42"/>
-      <c r="L512" s="42"/>
+      <c r="K512" s="43"/>
+      <c r="L512" s="43"/>
     </row>
     <row r="513">
-      <c r="G513" s="43"/>
+      <c r="G513" s="44"/>
       <c r="H513" s="23"/>
-      <c r="K513" s="42"/>
-      <c r="L513" s="42"/>
+      <c r="K513" s="43"/>
+      <c r="L513" s="43"/>
     </row>
     <row r="514">
-      <c r="G514" s="43"/>
+      <c r="G514" s="44"/>
       <c r="H514" s="23"/>
-      <c r="K514" s="42"/>
-      <c r="L514" s="42"/>
+      <c r="K514" s="43"/>
+      <c r="L514" s="43"/>
     </row>
     <row r="515">
-      <c r="G515" s="43"/>
+      <c r="G515" s="44"/>
       <c r="H515" s="23"/>
-      <c r="K515" s="42"/>
-      <c r="L515" s="42"/>
+      <c r="K515" s="43"/>
+      <c r="L515" s="43"/>
     </row>
     <row r="516">
-      <c r="G516" s="43"/>
+      <c r="G516" s="44"/>
       <c r="H516" s="23"/>
-      <c r="K516" s="42"/>
-      <c r="L516" s="42"/>
+      <c r="K516" s="43"/>
+      <c r="L516" s="43"/>
     </row>
     <row r="517">
-      <c r="G517" s="43"/>
+      <c r="G517" s="44"/>
       <c r="H517" s="23"/>
-      <c r="K517" s="42"/>
-      <c r="L517" s="42"/>
+      <c r="K517" s="43"/>
+      <c r="L517" s="43"/>
     </row>
     <row r="518">
-      <c r="G518" s="43"/>
+      <c r="G518" s="44"/>
       <c r="H518" s="23"/>
-      <c r="K518" s="42"/>
-      <c r="L518" s="42"/>
+      <c r="K518" s="43"/>
+      <c r="L518" s="43"/>
     </row>
     <row r="519">
-      <c r="G519" s="43"/>
+      <c r="G519" s="44"/>
       <c r="H519" s="23"/>
-      <c r="K519" s="42"/>
-      <c r="L519" s="42"/>
+      <c r="K519" s="43"/>
+      <c r="L519" s="43"/>
     </row>
     <row r="520">
-      <c r="G520" s="43"/>
+      <c r="G520" s="44"/>
       <c r="H520" s="23"/>
-      <c r="K520" s="42"/>
-      <c r="L520" s="42"/>
+      <c r="K520" s="43"/>
+      <c r="L520" s="43"/>
     </row>
     <row r="521">
-      <c r="G521" s="43"/>
+      <c r="G521" s="44"/>
       <c r="H521" s="23"/>
-      <c r="K521" s="42"/>
-      <c r="L521" s="42"/>
+      <c r="K521" s="43"/>
+      <c r="L521" s="43"/>
     </row>
     <row r="522">
-      <c r="G522" s="43"/>
+      <c r="G522" s="44"/>
       <c r="H522" s="23"/>
-      <c r="K522" s="42"/>
-      <c r="L522" s="42"/>
+      <c r="K522" s="43"/>
+      <c r="L522" s="43"/>
     </row>
     <row r="523">
-      <c r="G523" s="43"/>
+      <c r="G523" s="44"/>
       <c r="H523" s="23"/>
-      <c r="K523" s="42"/>
-      <c r="L523" s="42"/>
+      <c r="K523" s="43"/>
+      <c r="L523" s="43"/>
     </row>
     <row r="524">
-      <c r="G524" s="43"/>
+      <c r="G524" s="44"/>
       <c r="H524" s="23"/>
-      <c r="K524" s="42"/>
-      <c r="L524" s="42"/>
+      <c r="K524" s="43"/>
+      <c r="L524" s="43"/>
     </row>
     <row r="525">
-      <c r="G525" s="43"/>
+      <c r="G525" s="44"/>
       <c r="H525" s="23"/>
-      <c r="K525" s="42"/>
-      <c r="L525" s="42"/>
+      <c r="K525" s="43"/>
+      <c r="L525" s="43"/>
     </row>
     <row r="526">
-      <c r="G526" s="43"/>
+      <c r="G526" s="44"/>
       <c r="H526" s="23"/>
-      <c r="K526" s="42"/>
-      <c r="L526" s="42"/>
+      <c r="K526" s="43"/>
+      <c r="L526" s="43"/>
     </row>
     <row r="527">
-      <c r="G527" s="43"/>
+      <c r="G527" s="44"/>
       <c r="H527" s="23"/>
-      <c r="K527" s="42"/>
-      <c r="L527" s="42"/>
+      <c r="K527" s="43"/>
+      <c r="L527" s="43"/>
     </row>
     <row r="528">
-      <c r="G528" s="43"/>
+      <c r="G528" s="44"/>
       <c r="H528" s="23"/>
-      <c r="K528" s="42"/>
-      <c r="L528" s="42"/>
+      <c r="K528" s="43"/>
+      <c r="L528" s="43"/>
     </row>
     <row r="529">
-      <c r="G529" s="43"/>
+      <c r="G529" s="44"/>
       <c r="H529" s="23"/>
-      <c r="K529" s="42"/>
-      <c r="L529" s="42"/>
+      <c r="K529" s="43"/>
+      <c r="L529" s="43"/>
     </row>
     <row r="530">
-      <c r="G530" s="43"/>
+      <c r="G530" s="44"/>
       <c r="H530" s="23"/>
-      <c r="K530" s="42"/>
-      <c r="L530" s="42"/>
+      <c r="K530" s="43"/>
+      <c r="L530" s="43"/>
     </row>
     <row r="531">
-      <c r="G531" s="43"/>
+      <c r="G531" s="44"/>
       <c r="H531" s="23"/>
-      <c r="K531" s="42"/>
-      <c r="L531" s="42"/>
+      <c r="K531" s="43"/>
+      <c r="L531" s="43"/>
     </row>
     <row r="532">
-      <c r="G532" s="43"/>
+      <c r="G532" s="44"/>
       <c r="H532" s="23"/>
-      <c r="K532" s="42"/>
-      <c r="L532" s="42"/>
+      <c r="K532" s="43"/>
+      <c r="L532" s="43"/>
     </row>
     <row r="533">
-      <c r="G533" s="43"/>
+      <c r="G533" s="44"/>
       <c r="H533" s="23"/>
-      <c r="K533" s="42"/>
-      <c r="L533" s="42"/>
+      <c r="K533" s="43"/>
+      <c r="L533" s="43"/>
     </row>
     <row r="534">
-      <c r="G534" s="43"/>
+      <c r="G534" s="44"/>
       <c r="H534" s="23"/>
-      <c r="K534" s="42"/>
-      <c r="L534" s="42"/>
+      <c r="K534" s="43"/>
+      <c r="L534" s="43"/>
     </row>
     <row r="535">
-      <c r="G535" s="43"/>
+      <c r="G535" s="44"/>
       <c r="H535" s="23"/>
-      <c r="K535" s="42"/>
-      <c r="L535" s="42"/>
+      <c r="K535" s="43"/>
+      <c r="L535" s="43"/>
     </row>
     <row r="536">
-      <c r="G536" s="43"/>
+      <c r="G536" s="44"/>
       <c r="H536" s="23"/>
-      <c r="K536" s="42"/>
-      <c r="L536" s="42"/>
+      <c r="K536" s="43"/>
+      <c r="L536" s="43"/>
     </row>
     <row r="537">
-      <c r="G537" s="43"/>
+      <c r="G537" s="44"/>
       <c r="H537" s="23"/>
-      <c r="K537" s="42"/>
-      <c r="L537" s="42"/>
+      <c r="K537" s="43"/>
+      <c r="L537" s="43"/>
     </row>
     <row r="538">
-      <c r="G538" s="43"/>
+      <c r="G538" s="44"/>
       <c r="H538" s="23"/>
-      <c r="K538" s="42"/>
-      <c r="L538" s="42"/>
+      <c r="K538" s="43"/>
+      <c r="L538" s="43"/>
     </row>
     <row r="539">
-      <c r="G539" s="43"/>
+      <c r="G539" s="44"/>
       <c r="H539" s="23"/>
-      <c r="K539" s="42"/>
-      <c r="L539" s="42"/>
+      <c r="K539" s="43"/>
+      <c r="L539" s="43"/>
     </row>
     <row r="540">
-      <c r="G540" s="43"/>
+      <c r="G540" s="44"/>
       <c r="H540" s="23"/>
-      <c r="K540" s="42"/>
-      <c r="L540" s="42"/>
+      <c r="K540" s="43"/>
+      <c r="L540" s="43"/>
     </row>
     <row r="541">
-      <c r="G541" s="43"/>
+      <c r="G541" s="44"/>
       <c r="H541" s="23"/>
-      <c r="K541" s="42"/>
-      <c r="L541" s="42"/>
+      <c r="K541" s="43"/>
+      <c r="L541" s="43"/>
     </row>
     <row r="542">
-      <c r="G542" s="43"/>
+      <c r="G542" s="44"/>
       <c r="H542" s="23"/>
-      <c r="K542" s="42"/>
-      <c r="L542" s="42"/>
+      <c r="K542" s="43"/>
+      <c r="L542" s="43"/>
     </row>
     <row r="543">
-      <c r="G543" s="43"/>
+      <c r="G543" s="44"/>
       <c r="H543" s="23"/>
-      <c r="K543" s="42"/>
-      <c r="L543" s="42"/>
+      <c r="K543" s="43"/>
+      <c r="L543" s="43"/>
     </row>
     <row r="544">
-      <c r="G544" s="43"/>
+      <c r="G544" s="44"/>
       <c r="H544" s="23"/>
-      <c r="K544" s="42"/>
-      <c r="L544" s="42"/>
+      <c r="K544" s="43"/>
+      <c r="L544" s="43"/>
     </row>
     <row r="545">
-      <c r="G545" s="43"/>
+      <c r="G545" s="44"/>
       <c r="H545" s="23"/>
-      <c r="K545" s="42"/>
-      <c r="L545" s="42"/>
+      <c r="K545" s="43"/>
+      <c r="L545" s="43"/>
     </row>
     <row r="546">
-      <c r="G546" s="43"/>
+      <c r="G546" s="44"/>
       <c r="H546" s="23"/>
-      <c r="K546" s="42"/>
-      <c r="L546" s="42"/>
+      <c r="K546" s="43"/>
+      <c r="L546" s="43"/>
     </row>
     <row r="547">
-      <c r="G547" s="43"/>
+      <c r="G547" s="44"/>
       <c r="H547" s="23"/>
-      <c r="K547" s="42"/>
-      <c r="L547" s="42"/>
+      <c r="K547" s="43"/>
+      <c r="L547" s="43"/>
     </row>
     <row r="548">
-      <c r="G548" s="43"/>
+      <c r="G548" s="44"/>
       <c r="H548" s="23"/>
-      <c r="K548" s="42"/>
-      <c r="L548" s="42"/>
+      <c r="K548" s="43"/>
+      <c r="L548" s="43"/>
     </row>
     <row r="549">
-      <c r="G549" s="43"/>
+      <c r="G549" s="44"/>
       <c r="H549" s="23"/>
-      <c r="K549" s="42"/>
-      <c r="L549" s="42"/>
+      <c r="K549" s="43"/>
+      <c r="L549" s="43"/>
     </row>
     <row r="550">
-      <c r="G550" s="43"/>
+      <c r="G550" s="44"/>
       <c r="H550" s="23"/>
-      <c r="K550" s="42"/>
-      <c r="L550" s="42"/>
+      <c r="K550" s="43"/>
+      <c r="L550" s="43"/>
     </row>
     <row r="551">
-      <c r="G551" s="43"/>
+      <c r="G551" s="44"/>
       <c r="H551" s="23"/>
-      <c r="K551" s="42"/>
-      <c r="L551" s="42"/>
+      <c r="K551" s="43"/>
+      <c r="L551" s="43"/>
     </row>
     <row r="552">
-      <c r="G552" s="43"/>
+      <c r="G552" s="44"/>
       <c r="H552" s="23"/>
-      <c r="K552" s="42"/>
-      <c r="L552" s="42"/>
+      <c r="K552" s="43"/>
+      <c r="L552" s="43"/>
     </row>
     <row r="553">
-      <c r="G553" s="43"/>
+      <c r="G553" s="44"/>
       <c r="H553" s="23"/>
-      <c r="K553" s="42"/>
-      <c r="L553" s="42"/>
+      <c r="K553" s="43"/>
+      <c r="L553" s="43"/>
     </row>
     <row r="554">
-      <c r="G554" s="43"/>
+      <c r="G554" s="44"/>
       <c r="H554" s="23"/>
-      <c r="K554" s="42"/>
-      <c r="L554" s="42"/>
+      <c r="K554" s="43"/>
+      <c r="L554" s="43"/>
     </row>
     <row r="555">
-      <c r="G555" s="43"/>
+      <c r="G555" s="44"/>
       <c r="H555" s="23"/>
-      <c r="K555" s="42"/>
-      <c r="L555" s="42"/>
+      <c r="K555" s="43"/>
+      <c r="L555" s="43"/>
     </row>
     <row r="556">
-      <c r="G556" s="43"/>
+      <c r="G556" s="44"/>
       <c r="H556" s="23"/>
-      <c r="K556" s="42"/>
-      <c r="L556" s="42"/>
+      <c r="K556" s="43"/>
+      <c r="L556" s="43"/>
     </row>
     <row r="557">
-      <c r="G557" s="43"/>
+      <c r="G557" s="44"/>
       <c r="H557" s="23"/>
-      <c r="K557" s="42"/>
-      <c r="L557" s="42"/>
+      <c r="K557" s="43"/>
+      <c r="L557" s="43"/>
     </row>
     <row r="558">
-      <c r="G558" s="43"/>
+      <c r="G558" s="44"/>
       <c r="H558" s="23"/>
-      <c r="K558" s="42"/>
-      <c r="L558" s="42"/>
+      <c r="K558" s="43"/>
+      <c r="L558" s="43"/>
     </row>
     <row r="559">
-      <c r="G559" s="43"/>
+      <c r="G559" s="44"/>
       <c r="H559" s="23"/>
-      <c r="K559" s="42"/>
-      <c r="L559" s="42"/>
+      <c r="K559" s="43"/>
+      <c r="L559" s="43"/>
     </row>
     <row r="560">
-      <c r="G560" s="43"/>
+      <c r="G560" s="44"/>
       <c r="H560" s="23"/>
-      <c r="K560" s="42"/>
-      <c r="L560" s="42"/>
+      <c r="K560" s="43"/>
+      <c r="L560" s="43"/>
     </row>
     <row r="561">
-      <c r="G561" s="43"/>
+      <c r="G561" s="44"/>
       <c r="H561" s="23"/>
-      <c r="K561" s="42"/>
-      <c r="L561" s="42"/>
+      <c r="K561" s="43"/>
+      <c r="L561" s="43"/>
     </row>
     <row r="562">
-      <c r="G562" s="43"/>
+      <c r="G562" s="44"/>
       <c r="H562" s="23"/>
-      <c r="K562" s="42"/>
-      <c r="L562" s="42"/>
+      <c r="K562" s="43"/>
+      <c r="L562" s="43"/>
     </row>
     <row r="563">
-      <c r="G563" s="43"/>
+      <c r="G563" s="44"/>
       <c r="H563" s="23"/>
-      <c r="K563" s="42"/>
-      <c r="L563" s="42"/>
+      <c r="K563" s="43"/>
+      <c r="L563" s="43"/>
     </row>
     <row r="564">
-      <c r="G564" s="43"/>
+      <c r="G564" s="44"/>
       <c r="H564" s="23"/>
-      <c r="K564" s="42"/>
-      <c r="L564" s="42"/>
+      <c r="K564" s="43"/>
+      <c r="L564" s="43"/>
     </row>
     <row r="565">
-      <c r="G565" s="43"/>
+      <c r="G565" s="44"/>
       <c r="H565" s="23"/>
-      <c r="K565" s="42"/>
-      <c r="L565" s="42"/>
+      <c r="K565" s="43"/>
+      <c r="L565" s="43"/>
     </row>
     <row r="566">
-      <c r="G566" s="43"/>
+      <c r="G566" s="44"/>
       <c r="H566" s="23"/>
-      <c r="K566" s="42"/>
-      <c r="L566" s="42"/>
+      <c r="K566" s="43"/>
+      <c r="L566" s="43"/>
     </row>
     <row r="567">
-      <c r="G567" s="43"/>
+      <c r="G567" s="44"/>
       <c r="H567" s="23"/>
-      <c r="K567" s="42"/>
-      <c r="L567" s="42"/>
+      <c r="K567" s="43"/>
+      <c r="L567" s="43"/>
     </row>
     <row r="568">
-      <c r="G568" s="43"/>
+      <c r="G568" s="44"/>
       <c r="H568" s="23"/>
-      <c r="K568" s="42"/>
-      <c r="L568" s="42"/>
+      <c r="K568" s="43"/>
+      <c r="L568" s="43"/>
     </row>
     <row r="569">
-      <c r="G569" s="43"/>
+      <c r="G569" s="44"/>
       <c r="H569" s="23"/>
-      <c r="K569" s="42"/>
-      <c r="L569" s="42"/>
+      <c r="K569" s="43"/>
+      <c r="L569" s="43"/>
     </row>
     <row r="570">
-      <c r="G570" s="43"/>
+      <c r="G570" s="44"/>
       <c r="H570" s="23"/>
-      <c r="K570" s="42"/>
-      <c r="L570" s="42"/>
+      <c r="K570" s="43"/>
+      <c r="L570" s="43"/>
     </row>
     <row r="571">
-      <c r="G571" s="43"/>
+      <c r="G571" s="44"/>
       <c r="H571" s="23"/>
-      <c r="K571" s="42"/>
-      <c r="L571" s="42"/>
+      <c r="K571" s="43"/>
+      <c r="L571" s="43"/>
     </row>
     <row r="572">
-      <c r="G572" s="43"/>
+      <c r="G572" s="44"/>
       <c r="H572" s="23"/>
-      <c r="K572" s="42"/>
-      <c r="L572" s="42"/>
+      <c r="K572" s="43"/>
+      <c r="L572" s="43"/>
     </row>
     <row r="573">
-      <c r="G573" s="43"/>
+      <c r="G573" s="44"/>
       <c r="H573" s="23"/>
-      <c r="K573" s="42"/>
-      <c r="L573" s="42"/>
+      <c r="K573" s="43"/>
+      <c r="L573" s="43"/>
     </row>
     <row r="574">
-      <c r="G574" s="43"/>
+      <c r="G574" s="44"/>
       <c r="H574" s="23"/>
-      <c r="K574" s="42"/>
-      <c r="L574" s="42"/>
+      <c r="K574" s="43"/>
+      <c r="L574" s="43"/>
     </row>
     <row r="575">
-      <c r="G575" s="43"/>
+      <c r="G575" s="44"/>
       <c r="H575" s="23"/>
-      <c r="K575" s="42"/>
-      <c r="L575" s="42"/>
+      <c r="K575" s="43"/>
+      <c r="L575" s="43"/>
     </row>
     <row r="576">
-      <c r="G576" s="43"/>
+      <c r="G576" s="44"/>
       <c r="H576" s="23"/>
-      <c r="K576" s="42"/>
-      <c r="L576" s="42"/>
+      <c r="K576" s="43"/>
+      <c r="L576" s="43"/>
     </row>
     <row r="577">
-      <c r="G577" s="43"/>
+      <c r="G577" s="44"/>
       <c r="H577" s="23"/>
-      <c r="K577" s="42"/>
-      <c r="L577" s="42"/>
+      <c r="K577" s="43"/>
+      <c r="L577" s="43"/>
     </row>
     <row r="578">
-      <c r="G578" s="43"/>
+      <c r="G578" s="44"/>
       <c r="H578" s="23"/>
-      <c r="K578" s="42"/>
-      <c r="L578" s="42"/>
+      <c r="K578" s="43"/>
+      <c r="L578" s="43"/>
     </row>
     <row r="579">
-      <c r="G579" s="43"/>
+      <c r="G579" s="44"/>
       <c r="H579" s="23"/>
-      <c r="K579" s="42"/>
-      <c r="L579" s="42"/>
+      <c r="K579" s="43"/>
+      <c r="L579" s="43"/>
     </row>
     <row r="580">
-      <c r="G580" s="43"/>
+      <c r="G580" s="44"/>
       <c r="H580" s="23"/>
-      <c r="K580" s="42"/>
-      <c r="L580" s="42"/>
+      <c r="K580" s="43"/>
+      <c r="L580" s="43"/>
     </row>
     <row r="581">
-      <c r="G581" s="43"/>
+      <c r="G581" s="44"/>
       <c r="H581" s="23"/>
-      <c r="K581" s="42"/>
-      <c r="L581" s="42"/>
+      <c r="K581" s="43"/>
+      <c r="L581" s="43"/>
     </row>
     <row r="582">
-      <c r="G582" s="43"/>
+      <c r="G582" s="44"/>
       <c r="H582" s="23"/>
-      <c r="K582" s="42"/>
-      <c r="L582" s="42"/>
+      <c r="K582" s="43"/>
+      <c r="L582" s="43"/>
     </row>
     <row r="583">
-      <c r="G583" s="43"/>
+      <c r="G583" s="44"/>
       <c r="H583" s="23"/>
-      <c r="K583" s="42"/>
-      <c r="L583" s="42"/>
+      <c r="K583" s="43"/>
+      <c r="L583" s="43"/>
     </row>
     <row r="584">
-      <c r="G584" s="43"/>
+      <c r="G584" s="44"/>
       <c r="H584" s="23"/>
-      <c r="K584" s="42"/>
-      <c r="L584" s="42"/>
+      <c r="K584" s="43"/>
+      <c r="L584" s="43"/>
     </row>
     <row r="585">
-      <c r="G585" s="43"/>
+      <c r="G585" s="44"/>
       <c r="H585" s="23"/>
-      <c r="K585" s="42"/>
-      <c r="L585" s="42"/>
+      <c r="K585" s="43"/>
+      <c r="L585" s="43"/>
     </row>
     <row r="586">
-      <c r="G586" s="43"/>
+      <c r="G586" s="44"/>
       <c r="H586" s="23"/>
-      <c r="K586" s="42"/>
-      <c r="L586" s="42"/>
+      <c r="K586" s="43"/>
+      <c r="L586" s="43"/>
     </row>
     <row r="587">
-      <c r="G587" s="43"/>
+      <c r="G587" s="44"/>
       <c r="H587" s="23"/>
-      <c r="K587" s="42"/>
-      <c r="L587" s="42"/>
+      <c r="K587" s="43"/>
+      <c r="L587" s="43"/>
     </row>
     <row r="588">
-      <c r="G588" s="43"/>
+      <c r="G588" s="44"/>
       <c r="H588" s="23"/>
-      <c r="K588" s="42"/>
-      <c r="L588" s="42"/>
+      <c r="K588" s="43"/>
+      <c r="L588" s="43"/>
     </row>
     <row r="589">
-      <c r="G589" s="43"/>
+      <c r="G589" s="44"/>
       <c r="H589" s="23"/>
-      <c r="K589" s="42"/>
-      <c r="L589" s="42"/>
+      <c r="K589" s="43"/>
+      <c r="L589" s="43"/>
     </row>
     <row r="590">
-      <c r="G590" s="43"/>
+      <c r="G590" s="44"/>
       <c r="H590" s="23"/>
-      <c r="K590" s="42"/>
-      <c r="L590" s="42"/>
+      <c r="K590" s="43"/>
+      <c r="L590" s="43"/>
     </row>
     <row r="591">
-      <c r="G591" s="43"/>
+      <c r="G591" s="44"/>
       <c r="H591" s="23"/>
-      <c r="K591" s="42"/>
-      <c r="L591" s="42"/>
+      <c r="K591" s="43"/>
+      <c r="L591" s="43"/>
     </row>
     <row r="592">
-      <c r="G592" s="43"/>
+      <c r="G592" s="44"/>
       <c r="H592" s="23"/>
-      <c r="K592" s="42"/>
-      <c r="L592" s="42"/>
+      <c r="K592" s="43"/>
+      <c r="L592" s="43"/>
     </row>
     <row r="593">
-      <c r="G593" s="43"/>
+      <c r="G593" s="44"/>
       <c r="H593" s="23"/>
-      <c r="K593" s="42"/>
-      <c r="L593" s="42"/>
+      <c r="K593" s="43"/>
+      <c r="L593" s="43"/>
     </row>
     <row r="594">
-      <c r="G594" s="43"/>
+      <c r="G594" s="44"/>
       <c r="H594" s="23"/>
-      <c r="K594" s="42"/>
-      <c r="L594" s="42"/>
+      <c r="K594" s="43"/>
+      <c r="L594" s="43"/>
     </row>
     <row r="595">
-      <c r="G595" s="43"/>
+      <c r="G595" s="44"/>
       <c r="H595" s="23"/>
-      <c r="K595" s="42"/>
-      <c r="L595" s="42"/>
+      <c r="K595" s="43"/>
+      <c r="L595" s="43"/>
     </row>
     <row r="596">
-      <c r="G596" s="43"/>
+      <c r="G596" s="44"/>
       <c r="H596" s="23"/>
-      <c r="K596" s="42"/>
-      <c r="L596" s="42"/>
+      <c r="K596" s="43"/>
+      <c r="L596" s="43"/>
     </row>
     <row r="597">
-      <c r="G597" s="43"/>
+      <c r="G597" s="44"/>
       <c r="H597" s="23"/>
-      <c r="K597" s="42"/>
-      <c r="L597" s="42"/>
+      <c r="K597" s="43"/>
+      <c r="L597" s="43"/>
     </row>
     <row r="598">
-      <c r="G598" s="43"/>
+      <c r="G598" s="44"/>
       <c r="H598" s="23"/>
-      <c r="K598" s="42"/>
-      <c r="L598" s="42"/>
+      <c r="K598" s="43"/>
+      <c r="L598" s="43"/>
     </row>
     <row r="599">
-      <c r="G599" s="43"/>
+      <c r="G599" s="44"/>
       <c r="H599" s="23"/>
-      <c r="K599" s="42"/>
-      <c r="L599" s="42"/>
+      <c r="K599" s="43"/>
+      <c r="L599" s="43"/>
     </row>
     <row r="600">
-      <c r="G600" s="43"/>
+      <c r="G600" s="44"/>
       <c r="H600" s="23"/>
-      <c r="K600" s="42"/>
-      <c r="L600" s="42"/>
+      <c r="K600" s="43"/>
+      <c r="L600" s="43"/>
     </row>
     <row r="601">
-      <c r="G601" s="43"/>
+      <c r="G601" s="44"/>
       <c r="H601" s="23"/>
-      <c r="K601" s="42"/>
-      <c r="L601" s="42"/>
+      <c r="K601" s="43"/>
+      <c r="L601" s="43"/>
     </row>
     <row r="602">
-      <c r="G602" s="43"/>
+      <c r="G602" s="44"/>
       <c r="H602" s="23"/>
-      <c r="K602" s="42"/>
-      <c r="L602" s="42"/>
+      <c r="K602" s="43"/>
+      <c r="L602" s="43"/>
     </row>
     <row r="603">
-      <c r="G603" s="43"/>
+      <c r="G603" s="44"/>
       <c r="H603" s="23"/>
-      <c r="K603" s="42"/>
-      <c r="L603" s="42"/>
+      <c r="K603" s="43"/>
+      <c r="L603" s="43"/>
     </row>
     <row r="604">
-      <c r="G604" s="43"/>
+      <c r="G604" s="44"/>
       <c r="H604" s="23"/>
-      <c r="K604" s="42"/>
-      <c r="L604" s="42"/>
+      <c r="K604" s="43"/>
+      <c r="L604" s="43"/>
     </row>
     <row r="605">
-      <c r="G605" s="43"/>
+      <c r="G605" s="44"/>
       <c r="H605" s="23"/>
-      <c r="K605" s="42"/>
-      <c r="L605" s="42"/>
+      <c r="K605" s="43"/>
+      <c r="L605" s="43"/>
     </row>
     <row r="606">
-      <c r="G606" s="43"/>
+      <c r="G606" s="44"/>
       <c r="H606" s="23"/>
-      <c r="K606" s="42"/>
-      <c r="L606" s="42"/>
+      <c r="K606" s="43"/>
+      <c r="L606" s="43"/>
     </row>
     <row r="607">
-      <c r="G607" s="43"/>
+      <c r="G607" s="44"/>
       <c r="H607" s="23"/>
-      <c r="K607" s="42"/>
-      <c r="L607" s="42"/>
+      <c r="K607" s="43"/>
+      <c r="L607" s="43"/>
     </row>
     <row r="608">
-      <c r="G608" s="43"/>
+      <c r="G608" s="44"/>
       <c r="H608" s="23"/>
-      <c r="K608" s="42"/>
-      <c r="L608" s="42"/>
+      <c r="K608" s="43"/>
+      <c r="L608" s="43"/>
     </row>
     <row r="609">
-      <c r="G609" s="43"/>
+      <c r="G609" s="44"/>
       <c r="H609" s="23"/>
-      <c r="K609" s="42"/>
-      <c r="L609" s="42"/>
+      <c r="K609" s="43"/>
+      <c r="L609" s="43"/>
     </row>
     <row r="610">
-      <c r="G610" s="43"/>
+      <c r="G610" s="44"/>
       <c r="H610" s="23"/>
-      <c r="K610" s="42"/>
-      <c r="L610" s="42"/>
+      <c r="K610" s="43"/>
+      <c r="L610" s="43"/>
     </row>
     <row r="611">
-      <c r="G611" s="43"/>
+      <c r="G611" s="44"/>
       <c r="H611" s="23"/>
-      <c r="K611" s="42"/>
-      <c r="L611" s="42"/>
+      <c r="K611" s="43"/>
+      <c r="L611" s="43"/>
     </row>
     <row r="612">
-      <c r="G612" s="43"/>
+      <c r="G612" s="44"/>
       <c r="H612" s="23"/>
-      <c r="K612" s="42"/>
-      <c r="L612" s="42"/>
+      <c r="K612" s="43"/>
+      <c r="L612" s="43"/>
     </row>
     <row r="613">
-      <c r="G613" s="43"/>
+      <c r="G613" s="44"/>
       <c r="H613" s="23"/>
-      <c r="K613" s="42"/>
-      <c r="L613" s="42"/>
+      <c r="K613" s="43"/>
+      <c r="L613" s="43"/>
     </row>
     <row r="614">
-      <c r="G614" s="43"/>
+      <c r="G614" s="44"/>
       <c r="H614" s="23"/>
-      <c r="K614" s="42"/>
-      <c r="L614" s="42"/>
+      <c r="K614" s="43"/>
+      <c r="L614" s="43"/>
     </row>
     <row r="615">
-      <c r="G615" s="43"/>
+      <c r="G615" s="44"/>
       <c r="H615" s="23"/>
-      <c r="K615" s="42"/>
-      <c r="L615" s="42"/>
+      <c r="K615" s="43"/>
+      <c r="L615" s="43"/>
     </row>
     <row r="616">
-      <c r="G616" s="43"/>
+      <c r="G616" s="44"/>
       <c r="H616" s="23"/>
-      <c r="K616" s="42"/>
-      <c r="L616" s="42"/>
+      <c r="K616" s="43"/>
+      <c r="L616" s="43"/>
     </row>
     <row r="617">
-      <c r="G617" s="43"/>
+      <c r="G617" s="44"/>
       <c r="H617" s="23"/>
-      <c r="K617" s="42"/>
-      <c r="L617" s="42"/>
+      <c r="K617" s="43"/>
+      <c r="L617" s="43"/>
     </row>
     <row r="618">
-      <c r="G618" s="43"/>
+      <c r="G618" s="44"/>
       <c r="H618" s="23"/>
-      <c r="K618" s="42"/>
-      <c r="L618" s="42"/>
+      <c r="K618" s="43"/>
+      <c r="L618" s="43"/>
     </row>
     <row r="619">
-      <c r="G619" s="43"/>
+      <c r="G619" s="44"/>
       <c r="H619" s="23"/>
-      <c r="K619" s="42"/>
-      <c r="L619" s="42"/>
+      <c r="K619" s="43"/>
+      <c r="L619" s="43"/>
     </row>
     <row r="620">
-      <c r="G620" s="43"/>
+      <c r="G620" s="44"/>
       <c r="H620" s="23"/>
-      <c r="K620" s="42"/>
-      <c r="L620" s="42"/>
+      <c r="K620" s="43"/>
+      <c r="L620" s="43"/>
     </row>
     <row r="621">
-      <c r="G621" s="43"/>
+      <c r="G621" s="44"/>
       <c r="H621" s="23"/>
-      <c r="K621" s="42"/>
-      <c r="L621" s="42"/>
+      <c r="K621" s="43"/>
+      <c r="L621" s="43"/>
     </row>
     <row r="622">
-      <c r="G622" s="43"/>
+      <c r="G622" s="44"/>
       <c r="H622" s="23"/>
-      <c r="K622" s="42"/>
-      <c r="L622" s="42"/>
+      <c r="K622" s="43"/>
+      <c r="L622" s="43"/>
     </row>
     <row r="623">
-      <c r="G623" s="43"/>
+      <c r="G623" s="44"/>
       <c r="H623" s="23"/>
-      <c r="K623" s="42"/>
-      <c r="L623" s="42"/>
+      <c r="K623" s="43"/>
+      <c r="L623" s="43"/>
     </row>
     <row r="624">
-      <c r="G624" s="43"/>
+      <c r="G624" s="44"/>
       <c r="H624" s="23"/>
-      <c r="K624" s="42"/>
-      <c r="L624" s="42"/>
+      <c r="K624" s="43"/>
+      <c r="L624" s="43"/>
     </row>
     <row r="625">
-      <c r="G625" s="43"/>
+      <c r="G625" s="44"/>
       <c r="H625" s="23"/>
-      <c r="K625" s="42"/>
-      <c r="L625" s="42"/>
+      <c r="K625" s="43"/>
+      <c r="L625" s="43"/>
     </row>
     <row r="626">
-      <c r="G626" s="43"/>
+      <c r="G626" s="44"/>
       <c r="H626" s="23"/>
-      <c r="K626" s="42"/>
-      <c r="L626" s="42"/>
+      <c r="K626" s="43"/>
+      <c r="L626" s="43"/>
     </row>
     <row r="627">
-      <c r="G627" s="43"/>
+      <c r="G627" s="44"/>
       <c r="H627" s="23"/>
-      <c r="K627" s="42"/>
-      <c r="L627" s="42"/>
+      <c r="K627" s="43"/>
+      <c r="L627" s="43"/>
     </row>
     <row r="628">
-      <c r="G628" s="43"/>
+      <c r="G628" s="44"/>
       <c r="H628" s="23"/>
-      <c r="K628" s="42"/>
-      <c r="L628" s="42"/>
+      <c r="K628" s="43"/>
+      <c r="L628" s="43"/>
     </row>
     <row r="629">
-      <c r="G629" s="43"/>
+      <c r="G629" s="44"/>
       <c r="H629" s="23"/>
-      <c r="K629" s="42"/>
-      <c r="L629" s="42"/>
+      <c r="K629" s="43"/>
+      <c r="L629" s="43"/>
     </row>
     <row r="630">
-      <c r="G630" s="43"/>
+      <c r="G630" s="44"/>
       <c r="H630" s="23"/>
-      <c r="K630" s="42"/>
-      <c r="L630" s="42"/>
+      <c r="K630" s="43"/>
+      <c r="L630" s="43"/>
     </row>
     <row r="631">
-      <c r="G631" s="43"/>
+      <c r="G631" s="44"/>
       <c r="H631" s="23"/>
-      <c r="K631" s="42"/>
-      <c r="L631" s="42"/>
+      <c r="K631" s="43"/>
+      <c r="L631" s="43"/>
     </row>
     <row r="632">
-      <c r="G632" s="43"/>
+      <c r="G632" s="44"/>
       <c r="H632" s="23"/>
-      <c r="K632" s="42"/>
-      <c r="L632" s="42"/>
+      <c r="K632" s="43"/>
+      <c r="L632" s="43"/>
     </row>
     <row r="633">
-      <c r="G633" s="43"/>
+      <c r="G633" s="44"/>
       <c r="H633" s="23"/>
-      <c r="K633" s="42"/>
-      <c r="L633" s="42"/>
+      <c r="K633" s="43"/>
+      <c r="L633" s="43"/>
     </row>
     <row r="634">
-      <c r="G634" s="43"/>
+      <c r="G634" s="44"/>
       <c r="H634" s="23"/>
-      <c r="K634" s="42"/>
-      <c r="L634" s="42"/>
+      <c r="K634" s="43"/>
+      <c r="L634" s="43"/>
     </row>
     <row r="635">
-      <c r="G635" s="43"/>
+      <c r="G635" s="44"/>
       <c r="H635" s="23"/>
-      <c r="K635" s="42"/>
-      <c r="L635" s="42"/>
+      <c r="K635" s="43"/>
+      <c r="L635" s="43"/>
     </row>
     <row r="636">
-      <c r="G636" s="43"/>
+      <c r="G636" s="44"/>
       <c r="H636" s="23"/>
-      <c r="K636" s="42"/>
-      <c r="L636" s="42"/>
+      <c r="K636" s="43"/>
+      <c r="L636" s="43"/>
     </row>
     <row r="637">
-      <c r="G637" s="43"/>
+      <c r="G637" s="44"/>
       <c r="H637" s="23"/>
-      <c r="K637" s="42"/>
-      <c r="L637" s="42"/>
+      <c r="K637" s="43"/>
+      <c r="L637" s="43"/>
     </row>
     <row r="638">
-      <c r="G638" s="43"/>
+      <c r="G638" s="44"/>
       <c r="H638" s="23"/>
-      <c r="K638" s="42"/>
-      <c r="L638" s="42"/>
+      <c r="K638" s="43"/>
+      <c r="L638" s="43"/>
     </row>
     <row r="639">
-      <c r="G639" s="43"/>
+      <c r="G639" s="44"/>
       <c r="H639" s="23"/>
-      <c r="K639" s="42"/>
-      <c r="L639" s="42"/>
+      <c r="K639" s="43"/>
+      <c r="L639" s="43"/>
     </row>
     <row r="640">
-      <c r="G640" s="43"/>
+      <c r="G640" s="44"/>
       <c r="H640" s="23"/>
-      <c r="K640" s="42"/>
-      <c r="L640" s="42"/>
+      <c r="K640" s="43"/>
+      <c r="L640" s="43"/>
     </row>
     <row r="641">
-      <c r="G641" s="43"/>
+      <c r="G641" s="44"/>
       <c r="H641" s="23"/>
-      <c r="K641" s="42"/>
-      <c r="L641" s="42"/>
+      <c r="K641" s="43"/>
+      <c r="L641" s="43"/>
     </row>
     <row r="642">
-      <c r="G642" s="43"/>
+      <c r="G642" s="44"/>
       <c r="H642" s="23"/>
-      <c r="K642" s="42"/>
-      <c r="L642" s="42"/>
+      <c r="K642" s="43"/>
+      <c r="L642" s="43"/>
     </row>
     <row r="643">
-      <c r="G643" s="43"/>
+      <c r="G643" s="44"/>
       <c r="H643" s="23"/>
-      <c r="K643" s="42"/>
-      <c r="L643" s="42"/>
+      <c r="K643" s="43"/>
+      <c r="L643" s="43"/>
     </row>
     <row r="644">
-      <c r="G644" s="43"/>
+      <c r="G644" s="44"/>
       <c r="H644" s="23"/>
-      <c r="K644" s="42"/>
-      <c r="L644" s="42"/>
+      <c r="K644" s="43"/>
+      <c r="L644" s="43"/>
     </row>
     <row r="645">
-      <c r="G645" s="43"/>
+      <c r="G645" s="44"/>
       <c r="H645" s="23"/>
-      <c r="K645" s="42"/>
-      <c r="L645" s="42"/>
+      <c r="K645" s="43"/>
+      <c r="L645" s="43"/>
     </row>
     <row r="646">
-      <c r="G646" s="43"/>
+      <c r="G646" s="44"/>
       <c r="H646" s="23"/>
-      <c r="K646" s="42"/>
-      <c r="L646" s="42"/>
+      <c r="K646" s="43"/>
+      <c r="L646" s="43"/>
     </row>
     <row r="647">
-      <c r="G647" s="43"/>
+      <c r="G647" s="44"/>
       <c r="H647" s="23"/>
-      <c r="K647" s="42"/>
-      <c r="L647" s="42"/>
+      <c r="K647" s="43"/>
+      <c r="L647" s="43"/>
     </row>
     <row r="648">
-      <c r="G648" s="43"/>
+      <c r="G648" s="44"/>
       <c r="H648" s="23"/>
-      <c r="K648" s="42"/>
-      <c r="L648" s="42"/>
+      <c r="K648" s="43"/>
+      <c r="L648" s="43"/>
     </row>
     <row r="649">
-      <c r="G649" s="43"/>
+      <c r="G649" s="44"/>
       <c r="H649" s="23"/>
-      <c r="K649" s="42"/>
-      <c r="L649" s="42"/>
+      <c r="K649" s="43"/>
+      <c r="L649" s="43"/>
     </row>
     <row r="650">
-      <c r="G650" s="43"/>
+      <c r="G650" s="44"/>
       <c r="H650" s="23"/>
-      <c r="K650" s="42"/>
-      <c r="L650" s="42"/>
+      <c r="K650" s="43"/>
+      <c r="L650" s="43"/>
     </row>
     <row r="651">
-      <c r="G651" s="43"/>
+      <c r="G651" s="44"/>
       <c r="H651" s="23"/>
-      <c r="K651" s="42"/>
-      <c r="L651" s="42"/>
+      <c r="K651" s="43"/>
+      <c r="L651" s="43"/>
     </row>
     <row r="652">
-      <c r="G652" s="43"/>
+      <c r="G652" s="44"/>
       <c r="H652" s="23"/>
-      <c r="K652" s="42"/>
-      <c r="L652" s="42"/>
+      <c r="K652" s="43"/>
+      <c r="L652" s="43"/>
     </row>
     <row r="653">
-      <c r="G653" s="43"/>
+      <c r="G653" s="44"/>
       <c r="H653" s="23"/>
-      <c r="K653" s="42"/>
-      <c r="L653" s="42"/>
+      <c r="K653" s="43"/>
+      <c r="L653" s="43"/>
     </row>
     <row r="654">
-      <c r="G654" s="43"/>
+      <c r="G654" s="44"/>
       <c r="H654" s="23"/>
-      <c r="K654" s="42"/>
-      <c r="L654" s="42"/>
+      <c r="K654" s="43"/>
+      <c r="L654" s="43"/>
     </row>
     <row r="655">
-      <c r="G655" s="43"/>
+      <c r="G655" s="44"/>
       <c r="H655" s="23"/>
-      <c r="K655" s="42"/>
-      <c r="L655" s="42"/>
+      <c r="K655" s="43"/>
+      <c r="L655" s="43"/>
     </row>
     <row r="656">
-      <c r="G656" s="43"/>
+      <c r="G656" s="44"/>
       <c r="H656" s="23"/>
-      <c r="K656" s="42"/>
-      <c r="L656" s="42"/>
+      <c r="K656" s="43"/>
+      <c r="L656" s="43"/>
     </row>
     <row r="657">
-      <c r="G657" s="43"/>
+      <c r="G657" s="44"/>
       <c r="H657" s="23"/>
-      <c r="K657" s="42"/>
-      <c r="L657" s="42"/>
+      <c r="K657" s="43"/>
+      <c r="L657" s="43"/>
     </row>
     <row r="658">
-      <c r="G658" s="43"/>
+      <c r="G658" s="44"/>
       <c r="H658" s="23"/>
-      <c r="K658" s="42"/>
-      <c r="L658" s="42"/>
+      <c r="K658" s="43"/>
+      <c r="L658" s="43"/>
     </row>
     <row r="659">
-      <c r="G659" s="43"/>
+      <c r="G659" s="44"/>
       <c r="H659" s="23"/>
-      <c r="K659" s="42"/>
-      <c r="L659" s="42"/>
+      <c r="K659" s="43"/>
+      <c r="L659" s="43"/>
     </row>
     <row r="660">
-      <c r="G660" s="43"/>
+      <c r="G660" s="44"/>
       <c r="H660" s="23"/>
-      <c r="K660" s="42"/>
-      <c r="L660" s="42"/>
+      <c r="K660" s="43"/>
+      <c r="L660" s="43"/>
     </row>
     <row r="661">
-      <c r="G661" s="43"/>
+      <c r="G661" s="44"/>
       <c r="H661" s="23"/>
-      <c r="K661" s="42"/>
-      <c r="L661" s="42"/>
+      <c r="K661" s="43"/>
+      <c r="L661" s="43"/>
     </row>
     <row r="662">
-      <c r="G662" s="43"/>
+      <c r="G662" s="44"/>
       <c r="H662" s="23"/>
-      <c r="K662" s="42"/>
-      <c r="L662" s="42"/>
+      <c r="K662" s="43"/>
+      <c r="L662" s="43"/>
     </row>
     <row r="663">
-      <c r="G663" s="43"/>
+      <c r="G663" s="44"/>
       <c r="H663" s="23"/>
-      <c r="K663" s="42"/>
-      <c r="L663" s="42"/>
+      <c r="K663" s="43"/>
+      <c r="L663" s="43"/>
     </row>
     <row r="664">
-      <c r="G664" s="43"/>
+      <c r="G664" s="44"/>
       <c r="H664" s="23"/>
-      <c r="K664" s="42"/>
-      <c r="L664" s="42"/>
+      <c r="K664" s="43"/>
+      <c r="L664" s="43"/>
     </row>
     <row r="665">
-      <c r="G665" s="43"/>
+      <c r="G665" s="44"/>
       <c r="H665" s="23"/>
-      <c r="K665" s="42"/>
-      <c r="L665" s="42"/>
+      <c r="K665" s="43"/>
+      <c r="L665" s="43"/>
     </row>
     <row r="666">
-      <c r="G666" s="43"/>
+      <c r="G666" s="44"/>
       <c r="H666" s="23"/>
-      <c r="K666" s="42"/>
-      <c r="L666" s="42"/>
+      <c r="K666" s="43"/>
+      <c r="L666" s="43"/>
     </row>
     <row r="667">
-      <c r="G667" s="43"/>
+      <c r="G667" s="44"/>
       <c r="H667" s="23"/>
-      <c r="K667" s="42"/>
-      <c r="L667" s="42"/>
+      <c r="K667" s="43"/>
+      <c r="L667" s="43"/>
     </row>
     <row r="668">
-      <c r="G668" s="43"/>
+      <c r="G668" s="44"/>
       <c r="H668" s="23"/>
-      <c r="K668" s="42"/>
-      <c r="L668" s="42"/>
+      <c r="K668" s="43"/>
+      <c r="L668" s="43"/>
     </row>
     <row r="669">
-      <c r="G669" s="43"/>
+      <c r="G669" s="44"/>
       <c r="H669" s="23"/>
-      <c r="K669" s="42"/>
-      <c r="L669" s="42"/>
+      <c r="K669" s="43"/>
+      <c r="L669" s="43"/>
     </row>
     <row r="670">
-      <c r="G670" s="43"/>
+      <c r="G670" s="44"/>
       <c r="H670" s="23"/>
-      <c r="K670" s="42"/>
-      <c r="L670" s="42"/>
+      <c r="K670" s="43"/>
+      <c r="L670" s="43"/>
     </row>
     <row r="671">
-      <c r="G671" s="43"/>
+      <c r="G671" s="44"/>
       <c r="H671" s="23"/>
-      <c r="K671" s="42"/>
-      <c r="L671" s="42"/>
+      <c r="K671" s="43"/>
+      <c r="L671" s="43"/>
     </row>
     <row r="672">
-      <c r="G672" s="43"/>
+      <c r="G672" s="44"/>
       <c r="H672" s="23"/>
-      <c r="K672" s="42"/>
-      <c r="L672" s="42"/>
+      <c r="K672" s="43"/>
+      <c r="L672" s="43"/>
     </row>
     <row r="673">
-      <c r="G673" s="43"/>
+      <c r="G673" s="44"/>
       <c r="H673" s="23"/>
-      <c r="K673" s="42"/>
-      <c r="L673" s="42"/>
+      <c r="K673" s="43"/>
+      <c r="L673" s="43"/>
     </row>
     <row r="674">
-      <c r="G674" s="43"/>
+      <c r="G674" s="44"/>
       <c r="H674" s="23"/>
-      <c r="K674" s="42"/>
-      <c r="L674" s="42"/>
+      <c r="K674" s="43"/>
+      <c r="L674" s="43"/>
     </row>
     <row r="675">
-      <c r="G675" s="43"/>
+      <c r="G675" s="44"/>
       <c r="H675" s="23"/>
-      <c r="K675" s="42"/>
-      <c r="L675" s="42"/>
+      <c r="K675" s="43"/>
+      <c r="L675" s="43"/>
     </row>
     <row r="676">
-      <c r="G676" s="43"/>
+      <c r="G676" s="44"/>
       <c r="H676" s="23"/>
-      <c r="K676" s="42"/>
-      <c r="L676" s="42"/>
+      <c r="K676" s="43"/>
+      <c r="L676" s="43"/>
     </row>
     <row r="677">
-      <c r="G677" s="43"/>
+      <c r="G677" s="44"/>
       <c r="H677" s="23"/>
-      <c r="K677" s="42"/>
-      <c r="L677" s="42"/>
+      <c r="K677" s="43"/>
+      <c r="L677" s="43"/>
     </row>
     <row r="678">
-      <c r="G678" s="43"/>
+      <c r="G678" s="44"/>
       <c r="H678" s="23"/>
-      <c r="K678" s="42"/>
-      <c r="L678" s="42"/>
+      <c r="K678" s="43"/>
+      <c r="L678" s="43"/>
     </row>
     <row r="679">
-      <c r="G679" s="43"/>
+      <c r="G679" s="44"/>
       <c r="H679" s="23"/>
-      <c r="K679" s="42"/>
-      <c r="L679" s="42"/>
+      <c r="K679" s="43"/>
+      <c r="L679" s="43"/>
     </row>
     <row r="680">
-      <c r="G680" s="43"/>
+      <c r="G680" s="44"/>
       <c r="H680" s="23"/>
-      <c r="K680" s="42"/>
-      <c r="L680" s="42"/>
+      <c r="K680" s="43"/>
+      <c r="L680" s="43"/>
     </row>
     <row r="681">
-      <c r="G681" s="43"/>
+      <c r="G681" s="44"/>
       <c r="H681" s="23"/>
-      <c r="K681" s="42"/>
-      <c r="L681" s="42"/>
+      <c r="K681" s="43"/>
+      <c r="L681" s="43"/>
     </row>
     <row r="682">
-      <c r="G682" s="43"/>
+      <c r="G682" s="44"/>
       <c r="H682" s="23"/>
-      <c r="K682" s="42"/>
-      <c r="L682" s="42"/>
+      <c r="K682" s="43"/>
+      <c r="L682" s="43"/>
     </row>
     <row r="683">
-      <c r="G683" s="43"/>
+      <c r="G683" s="44"/>
       <c r="H683" s="23"/>
-      <c r="K683" s="42"/>
-      <c r="L683" s="42"/>
+      <c r="K683" s="43"/>
+      <c r="L683" s="43"/>
     </row>
     <row r="684">
-      <c r="G684" s="43"/>
+      <c r="G684" s="44"/>
       <c r="H684" s="23"/>
-      <c r="K684" s="42"/>
-      <c r="L684" s="42"/>
+      <c r="K684" s="43"/>
+      <c r="L684" s="43"/>
     </row>
     <row r="685">
-      <c r="G685" s="43"/>
+      <c r="G685" s="44"/>
       <c r="H685" s="23"/>
-      <c r="K685" s="42"/>
-      <c r="L685" s="42"/>
+      <c r="K685" s="43"/>
+      <c r="L685" s="43"/>
     </row>
     <row r="686">
-      <c r="G686" s="43"/>
+      <c r="G686" s="44"/>
       <c r="H686" s="23"/>
-      <c r="K686" s="42"/>
-      <c r="L686" s="42"/>
+      <c r="K686" s="43"/>
+      <c r="L686" s="43"/>
     </row>
     <row r="687">
-      <c r="G687" s="43"/>
+      <c r="G687" s="44"/>
       <c r="H687" s="23"/>
-      <c r="K687" s="42"/>
-      <c r="L687" s="42"/>
+      <c r="K687" s="43"/>
+      <c r="L687" s="43"/>
     </row>
     <row r="688">
-      <c r="G688" s="43"/>
+      <c r="G688" s="44"/>
       <c r="H688" s="23"/>
-      <c r="K688" s="42"/>
-      <c r="L688" s="42"/>
+      <c r="K688" s="43"/>
+      <c r="L688" s="43"/>
     </row>
     <row r="689">
-      <c r="G689" s="43"/>
+      <c r="G689" s="44"/>
       <c r="H689" s="23"/>
-      <c r="K689" s="42"/>
-      <c r="L689" s="42"/>
+      <c r="K689" s="43"/>
+      <c r="L689" s="43"/>
     </row>
     <row r="690">
-      <c r="G690" s="43"/>
+      <c r="G690" s="44"/>
       <c r="H690" s="23"/>
-      <c r="K690" s="42"/>
-      <c r="L690" s="42"/>
+      <c r="K690" s="43"/>
+      <c r="L690" s="43"/>
     </row>
     <row r="691">
-      <c r="G691" s="43"/>
+      <c r="G691" s="44"/>
       <c r="H691" s="23"/>
-      <c r="K691" s="42"/>
-      <c r="L691" s="42"/>
+      <c r="K691" s="43"/>
+      <c r="L691" s="43"/>
     </row>
     <row r="692">
-      <c r="G692" s="43"/>
+      <c r="G692" s="44"/>
       <c r="H692" s="23"/>
-      <c r="K692" s="42"/>
-      <c r="L692" s="42"/>
+      <c r="K692" s="43"/>
+      <c r="L692" s="43"/>
     </row>
     <row r="693">
-      <c r="G693" s="43"/>
+      <c r="G693" s="44"/>
       <c r="H693" s="23"/>
-      <c r="K693" s="42"/>
-      <c r="L693" s="42"/>
+      <c r="K693" s="43"/>
+      <c r="L693" s="43"/>
     </row>
     <row r="694">
-      <c r="G694" s="43"/>
+      <c r="G694" s="44"/>
       <c r="H694" s="23"/>
-      <c r="K694" s="42"/>
-      <c r="L694" s="42"/>
+      <c r="K694" s="43"/>
+      <c r="L694" s="43"/>
     </row>
     <row r="695">
-      <c r="G695" s="43"/>
+      <c r="G695" s="44"/>
       <c r="H695" s="23"/>
-      <c r="K695" s="42"/>
-      <c r="L695" s="42"/>
+      <c r="K695" s="43"/>
+      <c r="L695" s="43"/>
     </row>
     <row r="696">
-      <c r="G696" s="43"/>
+      <c r="G696" s="44"/>
       <c r="H696" s="23"/>
-      <c r="K696" s="42"/>
-      <c r="L696" s="42"/>
+      <c r="K696" s="43"/>
+      <c r="L696" s="43"/>
     </row>
     <row r="697">
-      <c r="G697" s="43"/>
+      <c r="G697" s="44"/>
       <c r="H697" s="23"/>
-      <c r="K697" s="42"/>
-      <c r="L697" s="42"/>
+      <c r="K697" s="43"/>
+      <c r="L697" s="43"/>
     </row>
     <row r="698">
-      <c r="G698" s="43"/>
+      <c r="G698" s="44"/>
       <c r="H698" s="23"/>
-      <c r="K698" s="42"/>
-      <c r="L698" s="42"/>
+      <c r="K698" s="43"/>
+      <c r="L698" s="43"/>
     </row>
     <row r="699">
-      <c r="G699" s="43"/>
+      <c r="G699" s="44"/>
       <c r="H699" s="23"/>
-      <c r="K699" s="42"/>
-      <c r="L699" s="42"/>
+      <c r="K699" s="43"/>
+      <c r="L699" s="43"/>
     </row>
     <row r="700">
-      <c r="G700" s="43"/>
+      <c r="G700" s="44"/>
       <c r="H700" s="23"/>
-      <c r="K700" s="42"/>
-      <c r="L700" s="42"/>
+      <c r="K700" s="43"/>
+      <c r="L700" s="43"/>
     </row>
     <row r="701">
-      <c r="G701" s="43"/>
+      <c r="G701" s="44"/>
       <c r="H701" s="23"/>
-      <c r="K701" s="42"/>
-      <c r="L701" s="42"/>
+      <c r="K701" s="43"/>
+      <c r="L701" s="43"/>
     </row>
     <row r="702">
-      <c r="G702" s="43"/>
+      <c r="G702" s="44"/>
       <c r="H702" s="23"/>
-      <c r="K702" s="42"/>
-      <c r="L702" s="42"/>
+      <c r="K702" s="43"/>
+      <c r="L702" s="43"/>
     </row>
     <row r="703">
-      <c r="G703" s="43"/>
+      <c r="G703" s="44"/>
       <c r="H703" s="23"/>
-      <c r="K703" s="42"/>
-      <c r="L703" s="42"/>
+      <c r="K703" s="43"/>
+      <c r="L703" s="43"/>
     </row>
     <row r="704">
-      <c r="G704" s="43"/>
+      <c r="G704" s="44"/>
       <c r="H704" s="23"/>
-      <c r="K704" s="42"/>
-      <c r="L704" s="42"/>
+      <c r="K704" s="43"/>
+      <c r="L704" s="43"/>
     </row>
     <row r="705">
-      <c r="G705" s="43"/>
+      <c r="G705" s="44"/>
       <c r="H705" s="23"/>
-      <c r="K705" s="42"/>
-      <c r="L705" s="42"/>
+      <c r="K705" s="43"/>
+      <c r="L705" s="43"/>
     </row>
     <row r="706">
-      <c r="G706" s="43"/>
+      <c r="G706" s="44"/>
       <c r="H706" s="23"/>
-      <c r="K706" s="42"/>
-      <c r="L706" s="42"/>
+      <c r="K706" s="43"/>
+      <c r="L706" s="43"/>
     </row>
     <row r="707">
-      <c r="G707" s="43"/>
+      <c r="G707" s="44"/>
       <c r="H707" s="23"/>
-      <c r="K707" s="42"/>
-      <c r="L707" s="42"/>
+      <c r="K707" s="43"/>
+      <c r="L707" s="43"/>
     </row>
     <row r="708">
-      <c r="G708" s="43"/>
+      <c r="G708" s="44"/>
       <c r="H708" s="23"/>
-      <c r="K708" s="42"/>
-      <c r="L708" s="42"/>
+      <c r="K708" s="43"/>
+      <c r="L708" s="43"/>
     </row>
     <row r="709">
-      <c r="G709" s="43"/>
+      <c r="G709" s="44"/>
       <c r="H709" s="23"/>
-      <c r="K709" s="42"/>
-      <c r="L709" s="42"/>
+      <c r="K709" s="43"/>
+      <c r="L709" s="43"/>
     </row>
     <row r="710">
-      <c r="G710" s="43"/>
+      <c r="G710" s="44"/>
       <c r="H710" s="23"/>
-      <c r="K710" s="42"/>
-      <c r="L710" s="42"/>
+      <c r="K710" s="43"/>
+      <c r="L710" s="43"/>
     </row>
     <row r="711">
-      <c r="G711" s="43"/>
+      <c r="G711" s="44"/>
       <c r="H711" s="23"/>
-      <c r="K711" s="42"/>
-      <c r="L711" s="42"/>
+      <c r="K711" s="43"/>
+      <c r="L711" s="43"/>
     </row>
     <row r="712">
-      <c r="G712" s="43"/>
+      <c r="G712" s="44"/>
       <c r="H712" s="23"/>
-      <c r="K712" s="42"/>
-      <c r="L712" s="42"/>
+      <c r="K712" s="43"/>
+      <c r="L712" s="43"/>
     </row>
     <row r="713">
-      <c r="G713" s="43"/>
+      <c r="G713" s="44"/>
       <c r="H713" s="23"/>
-      <c r="K713" s="42"/>
-      <c r="L713" s="42"/>
+      <c r="K713" s="43"/>
+      <c r="L713" s="43"/>
     </row>
     <row r="714">
-      <c r="G714" s="43"/>
+      <c r="G714" s="44"/>
       <c r="H714" s="23"/>
-      <c r="K714" s="42"/>
-      <c r="L714" s="42"/>
+      <c r="K714" s="43"/>
+      <c r="L714" s="43"/>
     </row>
     <row r="715">
-      <c r="G715" s="43"/>
+      <c r="G715" s="44"/>
       <c r="H715" s="23"/>
-      <c r="K715" s="42"/>
-      <c r="L715" s="42"/>
+      <c r="K715" s="43"/>
+      <c r="L715" s="43"/>
     </row>
     <row r="716">
-      <c r="G716" s="43"/>
+      <c r="G716" s="44"/>
       <c r="H716" s="23"/>
-      <c r="K716" s="42"/>
-      <c r="L716" s="42"/>
+      <c r="K716" s="43"/>
+      <c r="L716" s="43"/>
     </row>
     <row r="717">
-      <c r="G717" s="43"/>
+      <c r="G717" s="44"/>
       <c r="H717" s="23"/>
-      <c r="K717" s="42"/>
-      <c r="L717" s="42"/>
+      <c r="K717" s="43"/>
+      <c r="L717" s="43"/>
     </row>
     <row r="718">
-      <c r="G718" s="43"/>
+      <c r="G718" s="44"/>
       <c r="H718" s="23"/>
-      <c r="K718" s="42"/>
-      <c r="L718" s="42"/>
+      <c r="K718" s="43"/>
+      <c r="L718" s="43"/>
     </row>
     <row r="719">
-      <c r="G719" s="43"/>
+      <c r="G719" s="44"/>
       <c r="H719" s="23"/>
-      <c r="K719" s="42"/>
-      <c r="L719" s="42"/>
+      <c r="K719" s="43"/>
+      <c r="L719" s="43"/>
     </row>
     <row r="720">
-      <c r="G720" s="43"/>
+      <c r="G720" s="44"/>
       <c r="H720" s="23"/>
-      <c r="K720" s="42"/>
-      <c r="L720" s="42"/>
+      <c r="K720" s="43"/>
+      <c r="L720" s="43"/>
     </row>
     <row r="721">
-      <c r="G721" s="43"/>
+      <c r="G721" s="44"/>
       <c r="H721" s="23"/>
-      <c r="K721" s="42"/>
-      <c r="L721" s="42"/>
+      <c r="K721" s="43"/>
+      <c r="L721" s="43"/>
     </row>
     <row r="722">
-      <c r="G722" s="43"/>
+      <c r="G722" s="44"/>
       <c r="H722" s="23"/>
-      <c r="K722" s="42"/>
-      <c r="L722" s="42"/>
+      <c r="K722" s="43"/>
+      <c r="L722" s="43"/>
     </row>
     <row r="723">
-      <c r="G723" s="43"/>
+      <c r="G723" s="44"/>
       <c r="H723" s="23"/>
-      <c r="K723" s="42"/>
-      <c r="L723" s="42"/>
+      <c r="K723" s="43"/>
+      <c r="L723" s="43"/>
     </row>
     <row r="724">
-      <c r="G724" s="43"/>
+      <c r="G724" s="44"/>
       <c r="H724" s="23"/>
-      <c r="K724" s="42"/>
-      <c r="L724" s="42"/>
+      <c r="K724" s="43"/>
+      <c r="L724" s="43"/>
     </row>
     <row r="725">
-      <c r="G725" s="43"/>
+      <c r="G725" s="44"/>
       <c r="H725" s="23"/>
-      <c r="K725" s="42"/>
-      <c r="L725" s="42"/>
+      <c r="K725" s="43"/>
+      <c r="L725" s="43"/>
     </row>
     <row r="726">
-      <c r="G726" s="43"/>
+      <c r="G726" s="44"/>
       <c r="H726" s="23"/>
-      <c r="K726" s="42"/>
-      <c r="L726" s="42"/>
+      <c r="K726" s="43"/>
+      <c r="L726" s="43"/>
     </row>
     <row r="727">
-      <c r="G727" s="43"/>
+      <c r="G727" s="44"/>
       <c r="H727" s="23"/>
-      <c r="K727" s="42"/>
-      <c r="L727" s="42"/>
+      <c r="K727" s="43"/>
+      <c r="L727" s="43"/>
     </row>
     <row r="728">
-      <c r="G728" s="43"/>
+      <c r="G728" s="44"/>
       <c r="H728" s="23"/>
-      <c r="K728" s="42"/>
-      <c r="L728" s="42"/>
+      <c r="K728" s="43"/>
+      <c r="L728" s="43"/>
     </row>
     <row r="729">
-      <c r="G729" s="43"/>
+      <c r="G729" s="44"/>
       <c r="H729" s="23"/>
-      <c r="K729" s="42"/>
-      <c r="L729" s="42"/>
+      <c r="K729" s="43"/>
+      <c r="L729" s="43"/>
     </row>
     <row r="730">
-      <c r="G730" s="43"/>
+      <c r="G730" s="44"/>
       <c r="H730" s="23"/>
-      <c r="K730" s="42"/>
-      <c r="L730" s="42"/>
+      <c r="K730" s="43"/>
+      <c r="L730" s="43"/>
     </row>
     <row r="731">
-      <c r="G731" s="43"/>
+      <c r="G731" s="44"/>
       <c r="H731" s="23"/>
-      <c r="K731" s="42"/>
-      <c r="L731" s="42"/>
+      <c r="K731" s="43"/>
+      <c r="L731" s="43"/>
     </row>
     <row r="732">
-      <c r="G732" s="43"/>
+      <c r="G732" s="44"/>
       <c r="H732" s="23"/>
-      <c r="K732" s="42"/>
-      <c r="L732" s="42"/>
+      <c r="K732" s="43"/>
+      <c r="L732" s="43"/>
     </row>
     <row r="733">
-      <c r="G733" s="43"/>
+      <c r="G733" s="44"/>
       <c r="H733" s="23"/>
-      <c r="K733" s="42"/>
-      <c r="L733" s="42"/>
+      <c r="K733" s="43"/>
+      <c r="L733" s="43"/>
     </row>
     <row r="734">
-      <c r="G734" s="43"/>
+      <c r="G734" s="44"/>
       <c r="H734" s="23"/>
-      <c r="K734" s="42"/>
-      <c r="L734" s="42"/>
+      <c r="K734" s="43"/>
+      <c r="L734" s="43"/>
     </row>
     <row r="735">
-      <c r="G735" s="43"/>
+      <c r="G735" s="44"/>
       <c r="H735" s="23"/>
-      <c r="K735" s="42"/>
-      <c r="L735" s="42"/>
+      <c r="K735" s="43"/>
+      <c r="L735" s="43"/>
     </row>
     <row r="736">
-      <c r="G736" s="43"/>
+      <c r="G736" s="44"/>
       <c r="H736" s="23"/>
-      <c r="K736" s="42"/>
-      <c r="L736" s="42"/>
+      <c r="K736" s="43"/>
+      <c r="L736" s="43"/>
     </row>
     <row r="737">
-      <c r="G737" s="43"/>
+      <c r="G737" s="44"/>
       <c r="H737" s="23"/>
-      <c r="K737" s="42"/>
-      <c r="L737" s="42"/>
+      <c r="K737" s="43"/>
+      <c r="L737" s="43"/>
     </row>
     <row r="738">
-      <c r="G738" s="43"/>
+      <c r="G738" s="44"/>
       <c r="H738" s="23"/>
-      <c r="K738" s="42"/>
-      <c r="L738" s="42"/>
+      <c r="K738" s="43"/>
+      <c r="L738" s="43"/>
     </row>
     <row r="739">
-      <c r="G739" s="43"/>
+      <c r="G739" s="44"/>
       <c r="H739" s="23"/>
-      <c r="K739" s="42"/>
-      <c r="L739" s="42"/>
+      <c r="K739" s="43"/>
+      <c r="L739" s="43"/>
     </row>
     <row r="740">
-      <c r="G740" s="43"/>
+      <c r="G740" s="44"/>
       <c r="H740" s="23"/>
-      <c r="K740" s="42"/>
-      <c r="L740" s="42"/>
+      <c r="K740" s="43"/>
+      <c r="L740" s="43"/>
     </row>
     <row r="741">
-      <c r="G741" s="43"/>
+      <c r="G741" s="44"/>
       <c r="H741" s="23"/>
-      <c r="K741" s="42"/>
-      <c r="L741" s="42"/>
+      <c r="K741" s="43"/>
+      <c r="L741" s="43"/>
     </row>
     <row r="742">
-      <c r="G742" s="43"/>
+      <c r="G742" s="44"/>
       <c r="H742" s="23"/>
-      <c r="K742" s="42"/>
-      <c r="L742" s="42"/>
+      <c r="K742" s="43"/>
+      <c r="L742" s="43"/>
     </row>
     <row r="743">
-      <c r="G743" s="43"/>
+      <c r="G743" s="44"/>
       <c r="H743" s="23"/>
-      <c r="K743" s="42"/>
-      <c r="L743" s="42"/>
+      <c r="K743" s="43"/>
+      <c r="L743" s="43"/>
     </row>
     <row r="744">
-      <c r="G744" s="43"/>
+      <c r="G744" s="44"/>
       <c r="H744" s="23"/>
-      <c r="K744" s="42"/>
-      <c r="L744" s="42"/>
+      <c r="K744" s="43"/>
+      <c r="L744" s="43"/>
     </row>
     <row r="745">
-      <c r="G745" s="43"/>
+      <c r="G745" s="44"/>
       <c r="H745" s="23"/>
-      <c r="K745" s="42"/>
-      <c r="L745" s="42"/>
+      <c r="K745" s="43"/>
+      <c r="L745" s="43"/>
     </row>
     <row r="746">
-      <c r="G746" s="43"/>
+      <c r="G746" s="44"/>
       <c r="H746" s="23"/>
-      <c r="K746" s="42"/>
-      <c r="L746" s="42"/>
+      <c r="K746" s="43"/>
+      <c r="L746" s="43"/>
     </row>
     <row r="747">
-      <c r="G747" s="43"/>
+      <c r="G747" s="44"/>
       <c r="H747" s="23"/>
-      <c r="K747" s="42"/>
-      <c r="L747" s="42"/>
+      <c r="K747" s="43"/>
+      <c r="L747" s="43"/>
     </row>
     <row r="748">
-      <c r="G748" s="43"/>
+      <c r="G748" s="44"/>
       <c r="H748" s="23"/>
-      <c r="K748" s="42"/>
-      <c r="L748" s="42"/>
+      <c r="K748" s="43"/>
+      <c r="L748" s="43"/>
     </row>
     <row r="749">
-      <c r="G749" s="43"/>
+      <c r="G749" s="44"/>
       <c r="H749" s="23"/>
-      <c r="K749" s="42"/>
-      <c r="L749" s="42"/>
+      <c r="K749" s="43"/>
+      <c r="L749" s="43"/>
     </row>
     <row r="750">
-      <c r="G750" s="43"/>
+      <c r="G750" s="44"/>
       <c r="H750" s="23"/>
-      <c r="K750" s="42"/>
-      <c r="L750" s="42"/>
+      <c r="K750" s="43"/>
+      <c r="L750" s="43"/>
     </row>
     <row r="751">
-      <c r="G751" s="43"/>
+      <c r="G751" s="44"/>
       <c r="H751" s="23"/>
-      <c r="K751" s="42"/>
-      <c r="L751" s="42"/>
+      <c r="K751" s="43"/>
+      <c r="L751" s="43"/>
     </row>
     <row r="752">
-      <c r="G752" s="43"/>
+      <c r="G752" s="44"/>
       <c r="H752" s="23"/>
-      <c r="K752" s="42"/>
-      <c r="L752" s="42"/>
+      <c r="K752" s="43"/>
+      <c r="L752" s="43"/>
     </row>
     <row r="753">
-      <c r="G753" s="43"/>
+      <c r="G753" s="44"/>
       <c r="H753" s="23"/>
-      <c r="K753" s="42"/>
-      <c r="L753" s="42"/>
+      <c r="K753" s="43"/>
+      <c r="L753" s="43"/>
     </row>
     <row r="754">
-      <c r="G754" s="43"/>
+      <c r="G754" s="44"/>
       <c r="H754" s="23"/>
-      <c r="K754" s="42"/>
-      <c r="L754" s="42"/>
+      <c r="K754" s="43"/>
+      <c r="L754" s="43"/>
     </row>
     <row r="755">
-      <c r="G755" s="43"/>
+      <c r="G755" s="44"/>
       <c r="H755" s="23"/>
-      <c r="K755" s="42"/>
-      <c r="L755" s="42"/>
+      <c r="K755" s="43"/>
+      <c r="L755" s="43"/>
     </row>
     <row r="756">
-      <c r="G756" s="43"/>
+      <c r="G756" s="44"/>
       <c r="H756" s="23"/>
-      <c r="K756" s="42"/>
-      <c r="L756" s="42"/>
+      <c r="K756" s="43"/>
+      <c r="L756" s="43"/>
     </row>
     <row r="757">
-      <c r="G757" s="43"/>
+      <c r="G757" s="44"/>
       <c r="H757" s="23"/>
-      <c r="K757" s="42"/>
-      <c r="L757" s="42"/>
+      <c r="K757" s="43"/>
+      <c r="L757" s="43"/>
     </row>
     <row r="758">
-      <c r="G758" s="43"/>
+      <c r="G758" s="44"/>
       <c r="H758" s="23"/>
-      <c r="K758" s="42"/>
-      <c r="L758" s="42"/>
+      <c r="K758" s="43"/>
+      <c r="L758" s="43"/>
     </row>
     <row r="759">
-      <c r="G759" s="43"/>
+      <c r="G759" s="44"/>
       <c r="H759" s="23"/>
-      <c r="K759" s="42"/>
-      <c r="L759" s="42"/>
+      <c r="K759" s="43"/>
+      <c r="L759" s="43"/>
     </row>
     <row r="760">
-      <c r="G760" s="43"/>
+      <c r="G760" s="44"/>
       <c r="H760" s="23"/>
-      <c r="K760" s="42"/>
-      <c r="L760" s="42"/>
+      <c r="K760" s="43"/>
+      <c r="L760" s="43"/>
     </row>
     <row r="761">
-      <c r="G761" s="43"/>
+      <c r="G761" s="44"/>
       <c r="H761" s="23"/>
-      <c r="K761" s="42"/>
-      <c r="L761" s="42"/>
+      <c r="K761" s="43"/>
+      <c r="L761" s="43"/>
     </row>
     <row r="762">
-      <c r="G762" s="43"/>
+      <c r="G762" s="44"/>
       <c r="H762" s="23"/>
-      <c r="K762" s="42"/>
-      <c r="L762" s="42"/>
+      <c r="K762" s="43"/>
+      <c r="L762" s="43"/>
     </row>
     <row r="763">
-      <c r="G763" s="43"/>
+      <c r="G763" s="44"/>
       <c r="H763" s="23"/>
-      <c r="K763" s="42"/>
-      <c r="L763" s="42"/>
+      <c r="K763" s="43"/>
+      <c r="L763" s="43"/>
     </row>
     <row r="764">
-      <c r="G764" s="43"/>
+      <c r="G764" s="44"/>
       <c r="H764" s="23"/>
-      <c r="K764" s="42"/>
-      <c r="L764" s="42"/>
+      <c r="K764" s="43"/>
+      <c r="L764" s="43"/>
     </row>
     <row r="765">
-      <c r="G765" s="43"/>
+      <c r="G765" s="44"/>
       <c r="H765" s="23"/>
-      <c r="K765" s="42"/>
-      <c r="L765" s="42"/>
+      <c r="K765" s="43"/>
+      <c r="L765" s="43"/>
     </row>
     <row r="766">
-      <c r="G766" s="43"/>
+      <c r="G766" s="44"/>
       <c r="H766" s="23"/>
-      <c r="K766" s="42"/>
-      <c r="L766" s="42"/>
+      <c r="K766" s="43"/>
+      <c r="L766" s="43"/>
     </row>
     <row r="767">
-      <c r="G767" s="43"/>
+      <c r="G767" s="44"/>
       <c r="H767" s="23"/>
-      <c r="K767" s="42"/>
-      <c r="L767" s="42"/>
+      <c r="K767" s="43"/>
+      <c r="L767" s="43"/>
     </row>
     <row r="768">
-      <c r="G768" s="43"/>
+      <c r="G768" s="44"/>
       <c r="H768" s="23"/>
-      <c r="K768" s="42"/>
-      <c r="L768" s="42"/>
+      <c r="K768" s="43"/>
+      <c r="L768" s="43"/>
     </row>
     <row r="769">
-      <c r="G769" s="43"/>
+      <c r="G769" s="44"/>
       <c r="H769" s="23"/>
-      <c r="K769" s="42"/>
-      <c r="L769" s="42"/>
+      <c r="K769" s="43"/>
+      <c r="L769" s="43"/>
     </row>
     <row r="770">
-      <c r="G770" s="43"/>
+      <c r="G770" s="44"/>
       <c r="H770" s="23"/>
-      <c r="K770" s="42"/>
-      <c r="L770" s="42"/>
+      <c r="K770" s="43"/>
+      <c r="L770" s="43"/>
     </row>
     <row r="771">
-      <c r="G771" s="43"/>
+      <c r="G771" s="44"/>
       <c r="H771" s="23"/>
-      <c r="K771" s="42"/>
-      <c r="L771" s="42"/>
+      <c r="K771" s="43"/>
+      <c r="L771" s="43"/>
     </row>
     <row r="772">
-      <c r="G772" s="43"/>
+      <c r="G772" s="44"/>
       <c r="H772" s="23"/>
-      <c r="K772" s="42"/>
-      <c r="L772" s="42"/>
+      <c r="K772" s="43"/>
+      <c r="L772" s="43"/>
     </row>
     <row r="773">
-      <c r="G773" s="43"/>
+      <c r="G773" s="44"/>
       <c r="H773" s="23"/>
-      <c r="K773" s="42"/>
-      <c r="L773" s="42"/>
+      <c r="K773" s="43"/>
+      <c r="L773" s="43"/>
     </row>
     <row r="774">
-      <c r="G774" s="43"/>
+      <c r="G774" s="44"/>
       <c r="H774" s="23"/>
-      <c r="K774" s="42"/>
-      <c r="L774" s="42"/>
+      <c r="K774" s="43"/>
+      <c r="L774" s="43"/>
     </row>
     <row r="775">
-      <c r="G775" s="43"/>
+      <c r="G775" s="44"/>
       <c r="H775" s="23"/>
-      <c r="K775" s="42"/>
-      <c r="L775" s="42"/>
+      <c r="K775" s="43"/>
+      <c r="L775" s="43"/>
     </row>
     <row r="776">
-      <c r="G776" s="43"/>
+      <c r="G776" s="44"/>
       <c r="H776" s="23"/>
-      <c r="K776" s="42"/>
-      <c r="L776" s="42"/>
+      <c r="K776" s="43"/>
+      <c r="L776" s="43"/>
     </row>
     <row r="777">
-      <c r="G777" s="43"/>
+      <c r="G777" s="44"/>
       <c r="H777" s="23"/>
-      <c r="K777" s="42"/>
-      <c r="L777" s="42"/>
+      <c r="K777" s="43"/>
+      <c r="L777" s="43"/>
     </row>
     <row r="778">
-      <c r="G778" s="43"/>
+      <c r="G778" s="44"/>
       <c r="H778" s="23"/>
-      <c r="K778" s="42"/>
-      <c r="L778" s="42"/>
+      <c r="K778" s="43"/>
+      <c r="L778" s="43"/>
     </row>
     <row r="779">
-      <c r="G779" s="43"/>
+      <c r="G779" s="44"/>
       <c r="H779" s="23"/>
-      <c r="K779" s="42"/>
-      <c r="L779" s="42"/>
+      <c r="K779" s="43"/>
+      <c r="L779" s="43"/>
     </row>
     <row r="780">
-      <c r="G780" s="43"/>
+      <c r="G780" s="44"/>
       <c r="H780" s="23"/>
-      <c r="K780" s="42"/>
-      <c r="L780" s="42"/>
+      <c r="K780" s="43"/>
+      <c r="L780" s="43"/>
     </row>
     <row r="781">
-      <c r="G781" s="43"/>
+      <c r="G781" s="44"/>
       <c r="H781" s="23"/>
-      <c r="K781" s="42"/>
-      <c r="L781" s="42"/>
+      <c r="K781" s="43"/>
+      <c r="L781" s="43"/>
     </row>
     <row r="782">
-      <c r="G782" s="43"/>
+      <c r="G782" s="44"/>
       <c r="H782" s="23"/>
-      <c r="K782" s="42"/>
-      <c r="L782" s="42"/>
+      <c r="K782" s="43"/>
+      <c r="L782" s="43"/>
     </row>
     <row r="783">
-      <c r="G783" s="43"/>
+      <c r="G783" s="44"/>
       <c r="H783" s="23"/>
-      <c r="K783" s="42"/>
-      <c r="L783" s="42"/>
+      <c r="K783" s="43"/>
+      <c r="L783" s="43"/>
     </row>
     <row r="784">
-      <c r="G784" s="43"/>
+      <c r="G784" s="44"/>
       <c r="H784" s="23"/>
-      <c r="K784" s="42"/>
-      <c r="L784" s="42"/>
+      <c r="K784" s="43"/>
+      <c r="L784" s="43"/>
     </row>
     <row r="785">
-      <c r="G785" s="43"/>
+      <c r="G785" s="44"/>
       <c r="H785" s="23"/>
-      <c r="K785" s="42"/>
-      <c r="L785" s="42"/>
+      <c r="K785" s="43"/>
+      <c r="L785" s="43"/>
     </row>
     <row r="786">
-      <c r="G786" s="43"/>
+      <c r="G786" s="44"/>
       <c r="H786" s="23"/>
-      <c r="K786" s="42"/>
-      <c r="L786" s="42"/>
+      <c r="K786" s="43"/>
+      <c r="L786" s="43"/>
     </row>
     <row r="787">
-      <c r="G787" s="43"/>
+      <c r="G787" s="44"/>
       <c r="H787" s="23"/>
-      <c r="K787" s="42"/>
-      <c r="L787" s="42"/>
+      <c r="K787" s="43"/>
+      <c r="L787" s="43"/>
     </row>
     <row r="788">
-      <c r="G788" s="43"/>
+      <c r="G788" s="44"/>
       <c r="H788" s="23"/>
-      <c r="K788" s="42"/>
-      <c r="L788" s="42"/>
+      <c r="K788" s="43"/>
+      <c r="L788" s="43"/>
     </row>
     <row r="789">
-      <c r="G789" s="43"/>
+      <c r="G789" s="44"/>
       <c r="H789" s="23"/>
-      <c r="K789" s="42"/>
-      <c r="L789" s="42"/>
+      <c r="K789" s="43"/>
+      <c r="L789" s="43"/>
     </row>
     <row r="790">
-      <c r="G790" s="43"/>
+      <c r="G790" s="44"/>
       <c r="H790" s="23"/>
-      <c r="K790" s="42"/>
-      <c r="L790" s="42"/>
+      <c r="K790" s="43"/>
+      <c r="L790" s="43"/>
     </row>
     <row r="791">
-      <c r="G791" s="43"/>
+      <c r="G791" s="44"/>
       <c r="H791" s="23"/>
-      <c r="K791" s="42"/>
-      <c r="L791" s="42"/>
+      <c r="K791" s="43"/>
+      <c r="L791" s="43"/>
     </row>
     <row r="792">
-      <c r="G792" s="43"/>
+      <c r="G792" s="44"/>
       <c r="H792" s="23"/>
-      <c r="K792" s="42"/>
-      <c r="L792" s="42"/>
+      <c r="K792" s="43"/>
+      <c r="L792" s="43"/>
     </row>
     <row r="793">
-      <c r="G793" s="43"/>
+      <c r="G793" s="44"/>
       <c r="H793" s="23"/>
-      <c r="K793" s="42"/>
-      <c r="L793" s="42"/>
+      <c r="K793" s="43"/>
+      <c r="L793" s="43"/>
     </row>
     <row r="794">
-      <c r="G794" s="43"/>
+      <c r="G794" s="44"/>
       <c r="H794" s="23"/>
-      <c r="K794" s="42"/>
-      <c r="L794" s="42"/>
+      <c r="K794" s="43"/>
+      <c r="L794" s="43"/>
     </row>
     <row r="795">
-      <c r="G795" s="43"/>
+      <c r="G795" s="44"/>
       <c r="H795" s="23"/>
-      <c r="K795" s="42"/>
-      <c r="L795" s="42"/>
+      <c r="K795" s="43"/>
+      <c r="L795" s="43"/>
     </row>
     <row r="796">
-      <c r="G796" s="43"/>
+      <c r="G796" s="44"/>
       <c r="H796" s="23"/>
-      <c r="K796" s="42"/>
-      <c r="L796" s="42"/>
+      <c r="K796" s="43"/>
+      <c r="L796" s="43"/>
     </row>
     <row r="797">
-      <c r="G797" s="43"/>
+      <c r="G797" s="44"/>
       <c r="H797" s="23"/>
-      <c r="K797" s="42"/>
-      <c r="L797" s="42"/>
+      <c r="K797" s="43"/>
+      <c r="L797" s="43"/>
     </row>
     <row r="798">
-      <c r="G798" s="43"/>
+      <c r="G798" s="44"/>
       <c r="H798" s="23"/>
-      <c r="K798" s="42"/>
-      <c r="L798" s="42"/>
+      <c r="K798" s="43"/>
+      <c r="L798" s="43"/>
     </row>
     <row r="799">
-      <c r="G799" s="43"/>
+      <c r="G799" s="44"/>
       <c r="H799" s="23"/>
-      <c r="K799" s="42"/>
-      <c r="L799" s="42"/>
+      <c r="K799" s="43"/>
+      <c r="L799" s="43"/>
     </row>
     <row r="800">
-      <c r="G800" s="43"/>
+      <c r="G800" s="44"/>
       <c r="H800" s="23"/>
-      <c r="K800" s="42"/>
-      <c r="L800" s="42"/>
+      <c r="K800" s="43"/>
+      <c r="L800" s="43"/>
     </row>
     <row r="801">
-      <c r="G801" s="43"/>
+      <c r="G801" s="44"/>
       <c r="H801" s="23"/>
-      <c r="K801" s="42"/>
-      <c r="L801" s="42"/>
+      <c r="K801" s="43"/>
+      <c r="L801" s="43"/>
     </row>
     <row r="802">
-      <c r="G802" s="43"/>
+      <c r="G802" s="44"/>
       <c r="H802" s="23"/>
-      <c r="K802" s="42"/>
-      <c r="L802" s="42"/>
+      <c r="K802" s="43"/>
+      <c r="L802" s="43"/>
     </row>
     <row r="803">
-      <c r="G803" s="43"/>
+      <c r="G803" s="44"/>
       <c r="H803" s="23"/>
-      <c r="K803" s="42"/>
-      <c r="L803" s="42"/>
+      <c r="K803" s="43"/>
+      <c r="L803" s="43"/>
     </row>
     <row r="804">
-      <c r="G804" s="43"/>
+      <c r="G804" s="44"/>
       <c r="H804" s="23"/>
-      <c r="K804" s="42"/>
-      <c r="L804" s="42"/>
+      <c r="K804" s="43"/>
+      <c r="L804" s="43"/>
     </row>
     <row r="805">
-      <c r="G805" s="43"/>
+      <c r="G805" s="44"/>
       <c r="H805" s="23"/>
-      <c r="K805" s="42"/>
-      <c r="L805" s="42"/>
+      <c r="K805" s="43"/>
+      <c r="L805" s="43"/>
     </row>
     <row r="806">
-      <c r="G806" s="43"/>
+      <c r="G806" s="44"/>
       <c r="H806" s="23"/>
-      <c r="K806" s="42"/>
-      <c r="L806" s="42"/>
+      <c r="K806" s="43"/>
+      <c r="L806" s="43"/>
     </row>
     <row r="807">
-      <c r="G807" s="43"/>
+      <c r="G807" s="44"/>
       <c r="H807" s="23"/>
-      <c r="K807" s="42"/>
-      <c r="L807" s="42"/>
+      <c r="K807" s="43"/>
+      <c r="L807" s="43"/>
     </row>
     <row r="808">
-      <c r="G808" s="43"/>
+      <c r="G808" s="44"/>
       <c r="H808" s="23"/>
-      <c r="K808" s="42"/>
-      <c r="L808" s="42"/>
+      <c r="K808" s="43"/>
+      <c r="L808" s="43"/>
     </row>
     <row r="809">
-      <c r="G809" s="43"/>
+      <c r="G809" s="44"/>
       <c r="H809" s="23"/>
-      <c r="K809" s="42"/>
-      <c r="L809" s="42"/>
+      <c r="K809" s="43"/>
+      <c r="L809" s="43"/>
     </row>
     <row r="810">
-      <c r="G810" s="43"/>
+      <c r="G810" s="44"/>
       <c r="H810" s="23"/>
-      <c r="K810" s="42"/>
-      <c r="L810" s="42"/>
+      <c r="K810" s="43"/>
+      <c r="L810" s="43"/>
     </row>
     <row r="811">
-      <c r="G811" s="43"/>
+      <c r="G811" s="44"/>
       <c r="H811" s="23"/>
-      <c r="K811" s="42"/>
-      <c r="L811" s="42"/>
+      <c r="K811" s="43"/>
+      <c r="L811" s="43"/>
     </row>
     <row r="812">
-      <c r="G812" s="43"/>
+      <c r="G812" s="44"/>
       <c r="H812" s="23"/>
-      <c r="K812" s="42"/>
-      <c r="L812" s="42"/>
+      <c r="K812" s="43"/>
+      <c r="L812" s="43"/>
     </row>
     <row r="813">
-      <c r="G813" s="43"/>
+      <c r="G813" s="44"/>
       <c r="H813" s="23"/>
-      <c r="K813" s="42"/>
-      <c r="L813" s="42"/>
+      <c r="K813" s="43"/>
+      <c r="L813" s="43"/>
     </row>
     <row r="814">
-      <c r="G814" s="43"/>
+      <c r="G814" s="44"/>
       <c r="H814" s="23"/>
-      <c r="K814" s="42"/>
-      <c r="L814" s="42"/>
+      <c r="K814" s="43"/>
+      <c r="L814" s="43"/>
     </row>
     <row r="815">
-      <c r="G815" s="43"/>
+      <c r="G815" s="44"/>
       <c r="H815" s="23"/>
-      <c r="K815" s="42"/>
-      <c r="L815" s="42"/>
+      <c r="K815" s="43"/>
+      <c r="L815" s="43"/>
     </row>
     <row r="816">
-      <c r="G816" s="43"/>
+      <c r="G816" s="44"/>
       <c r="H816" s="23"/>
-      <c r="K816" s="42"/>
-      <c r="L816" s="42"/>
+      <c r="K816" s="43"/>
+      <c r="L816" s="43"/>
     </row>
     <row r="817">
-      <c r="G817" s="43"/>
+      <c r="G817" s="44"/>
       <c r="H817" s="23"/>
-      <c r="K817" s="42"/>
-      <c r="L817" s="42"/>
+      <c r="K817" s="43"/>
+      <c r="L817" s="43"/>
     </row>
     <row r="818">
-      <c r="G818" s="43"/>
+      <c r="G818" s="44"/>
       <c r="H818" s="23"/>
-      <c r="K818" s="42"/>
-      <c r="L818" s="42"/>
+      <c r="K818" s="43"/>
+      <c r="L818" s="43"/>
     </row>
     <row r="819">
-      <c r="G819" s="43"/>
+      <c r="G819" s="44"/>
       <c r="H819" s="23"/>
-      <c r="K819" s="42"/>
-      <c r="L819" s="42"/>
+      <c r="K819" s="43"/>
+      <c r="L819" s="43"/>
     </row>
     <row r="820">
-      <c r="G820" s="43"/>
+      <c r="G820" s="44"/>
       <c r="H820" s="23"/>
-      <c r="K820" s="42"/>
-      <c r="L820" s="42"/>
+      <c r="K820" s="43"/>
+      <c r="L820" s="43"/>
     </row>
     <row r="821">
-      <c r="G821" s="43"/>
+      <c r="G821" s="44"/>
       <c r="H821" s="23"/>
-      <c r="K821" s="42"/>
-      <c r="L821" s="42"/>
+      <c r="K821" s="43"/>
+      <c r="L821" s="43"/>
     </row>
     <row r="822">
-      <c r="G822" s="43"/>
+      <c r="G822" s="44"/>
       <c r="H822" s="23"/>
-      <c r="K822" s="42"/>
-      <c r="L822" s="42"/>
+      <c r="K822" s="43"/>
+      <c r="L822" s="43"/>
     </row>
     <row r="823">
-      <c r="G823" s="43"/>
+      <c r="G823" s="44"/>
       <c r="H823" s="23"/>
-      <c r="K823" s="42"/>
-      <c r="L823" s="42"/>
+      <c r="K823" s="43"/>
+      <c r="L823" s="43"/>
     </row>
     <row r="824">
-      <c r="G824" s="43"/>
+      <c r="G824" s="44"/>
       <c r="H824" s="23"/>
-      <c r="K824" s="42"/>
-      <c r="L824" s="42"/>
+      <c r="K824" s="43"/>
+      <c r="L824" s="43"/>
     </row>
     <row r="825">
-      <c r="G825" s="43"/>
+      <c r="G825" s="44"/>
       <c r="H825" s="23"/>
-      <c r="K825" s="42"/>
-      <c r="L825" s="42"/>
+      <c r="K825" s="43"/>
+      <c r="L825" s="43"/>
     </row>
     <row r="826">
-      <c r="G826" s="43"/>
+      <c r="G826" s="44"/>
       <c r="H826" s="23"/>
-      <c r="K826" s="42"/>
-      <c r="L826" s="42"/>
+      <c r="K826" s="43"/>
+      <c r="L826" s="43"/>
     </row>
     <row r="827">
-      <c r="G827" s="43"/>
+      <c r="G827" s="44"/>
       <c r="H827" s="23"/>
-      <c r="K827" s="42"/>
-      <c r="L827" s="42"/>
+      <c r="K827" s="43"/>
+      <c r="L827" s="43"/>
     </row>
     <row r="828">
-      <c r="G828" s="43"/>
+      <c r="G828" s="44"/>
       <c r="H828" s="23"/>
-      <c r="K828" s="42"/>
-      <c r="L828" s="42"/>
+      <c r="K828" s="43"/>
+      <c r="L828" s="43"/>
     </row>
     <row r="829">
-      <c r="G829" s="43"/>
+      <c r="G829" s="44"/>
       <c r="H829" s="23"/>
-      <c r="K829" s="42"/>
-      <c r="L829" s="42"/>
+      <c r="K829" s="43"/>
+      <c r="L829" s="43"/>
     </row>
     <row r="830">
-      <c r="G830" s="43"/>
+      <c r="G830" s="44"/>
       <c r="H830" s="23"/>
-      <c r="K830" s="42"/>
-      <c r="L830" s="42"/>
+      <c r="K830" s="43"/>
+      <c r="L830" s="43"/>
     </row>
     <row r="831">
-      <c r="G831" s="43"/>
+      <c r="G831" s="44"/>
       <c r="H831" s="23"/>
-      <c r="K831" s="42"/>
-      <c r="L831" s="42"/>
+      <c r="K831" s="43"/>
+      <c r="L831" s="43"/>
     </row>
     <row r="832">
-      <c r="G832" s="43"/>
+      <c r="G832" s="44"/>
       <c r="H832" s="23"/>
-      <c r="K832" s="42"/>
-      <c r="L832" s="42"/>
+      <c r="K832" s="43"/>
+      <c r="L832" s="43"/>
     </row>
     <row r="833">
-      <c r="G833" s="43"/>
+      <c r="G833" s="44"/>
       <c r="H833" s="23"/>
-      <c r="K833" s="42"/>
-      <c r="L833" s="42"/>
+      <c r="K833" s="43"/>
+      <c r="L833" s="43"/>
     </row>
     <row r="834">
-      <c r="G834" s="43"/>
+      <c r="G834" s="44"/>
       <c r="H834" s="23"/>
-      <c r="K834" s="42"/>
-      <c r="L834" s="42"/>
+      <c r="K834" s="43"/>
+      <c r="L834" s="43"/>
     </row>
     <row r="835">
-      <c r="G835" s="43"/>
+      <c r="G835" s="44"/>
       <c r="H835" s="23"/>
-      <c r="K835" s="42"/>
-      <c r="L835" s="42"/>
+      <c r="K835" s="43"/>
+      <c r="L835" s="43"/>
     </row>
     <row r="836">
-      <c r="G836" s="43"/>
+      <c r="G836" s="44"/>
       <c r="H836" s="23"/>
-      <c r="K836" s="42"/>
-      <c r="L836" s="42"/>
+      <c r="K836" s="43"/>
+      <c r="L836" s="43"/>
     </row>
     <row r="837">
-      <c r="G837" s="43"/>
+      <c r="G837" s="44"/>
       <c r="H837" s="23"/>
-      <c r="K837" s="42"/>
-      <c r="L837" s="42"/>
+      <c r="K837" s="43"/>
+      <c r="L837" s="43"/>
     </row>
     <row r="838">
-      <c r="G838" s="43"/>
+      <c r="G838" s="44"/>
       <c r="H838" s="23"/>
-      <c r="K838" s="42"/>
-      <c r="L838" s="42"/>
+      <c r="K838" s="43"/>
+      <c r="L838" s="43"/>
     </row>
     <row r="839">
-      <c r="G839" s="43"/>
+      <c r="G839" s="44"/>
       <c r="H839" s="23"/>
-      <c r="K839" s="42"/>
-      <c r="L839" s="42"/>
+      <c r="K839" s="43"/>
+      <c r="L839" s="43"/>
     </row>
     <row r="840">
-      <c r="G840" s="43"/>
+      <c r="G840" s="44"/>
       <c r="H840" s="23"/>
-      <c r="K840" s="42"/>
-      <c r="L840" s="42"/>
+      <c r="K840" s="43"/>
+      <c r="L840" s="43"/>
     </row>
     <row r="841">
-      <c r="G841" s="43"/>
+      <c r="G841" s="44"/>
       <c r="H841" s="23"/>
-      <c r="K841" s="42"/>
-      <c r="L841" s="42"/>
+      <c r="K841" s="43"/>
+      <c r="L841" s="43"/>
     </row>
     <row r="842">
-      <c r="G842" s="43"/>
+      <c r="G842" s="44"/>
       <c r="H842" s="23"/>
-      <c r="K842" s="42"/>
-      <c r="L842" s="42"/>
+      <c r="K842" s="43"/>
+      <c r="L842" s="43"/>
     </row>
     <row r="843">
-      <c r="G843" s="43"/>
+      <c r="G843" s="44"/>
       <c r="H843" s="23"/>
-      <c r="K843" s="42"/>
-      <c r="L843" s="42"/>
+      <c r="K843" s="43"/>
+      <c r="L843" s="43"/>
     </row>
     <row r="844">
-      <c r="G844" s="43"/>
+      <c r="G844" s="44"/>
       <c r="H844" s="23"/>
-      <c r="K844" s="42"/>
-      <c r="L844" s="42"/>
+      <c r="K844" s="43"/>
+      <c r="L844" s="43"/>
     </row>
     <row r="845">
-      <c r="G845" s="43"/>
+      <c r="G845" s="44"/>
       <c r="H845" s="23"/>
-      <c r="K845" s="42"/>
-      <c r="L845" s="42"/>
+      <c r="K845" s="43"/>
+      <c r="L845" s="43"/>
     </row>
     <row r="846">
-      <c r="G846" s="43"/>
+      <c r="G846" s="44"/>
       <c r="H846" s="23"/>
-      <c r="K846" s="42"/>
-      <c r="L846" s="42"/>
+      <c r="K846" s="43"/>
+      <c r="L846" s="43"/>
     </row>
     <row r="847">
-      <c r="G847" s="43"/>
+      <c r="G847" s="44"/>
       <c r="H847" s="23"/>
-      <c r="K847" s="42"/>
-      <c r="L847" s="42"/>
+      <c r="K847" s="43"/>
+      <c r="L847" s="43"/>
     </row>
     <row r="848">
-      <c r="G848" s="43"/>
+      <c r="G848" s="44"/>
       <c r="H848" s="23"/>
-      <c r="K848" s="42"/>
-      <c r="L848" s="42"/>
+      <c r="K848" s="43"/>
+      <c r="L848" s="43"/>
     </row>
     <row r="849">
-      <c r="G849" s="43"/>
+      <c r="G849" s="44"/>
       <c r="H849" s="23"/>
-      <c r="K849" s="42"/>
-      <c r="L849" s="42"/>
+      <c r="K849" s="43"/>
+      <c r="L849" s="43"/>
     </row>
     <row r="850">
-      <c r="G850" s="43"/>
+      <c r="G850" s="44"/>
       <c r="H850" s="23"/>
-      <c r="K850" s="42"/>
-      <c r="L850" s="42"/>
+      <c r="K850" s="43"/>
+      <c r="L850" s="43"/>
     </row>
     <row r="851">
-      <c r="G851" s="43"/>
+      <c r="G851" s="44"/>
       <c r="H851" s="23"/>
-      <c r="K851" s="42"/>
-      <c r="L851" s="42"/>
+      <c r="K851" s="43"/>
+      <c r="L851" s="43"/>
     </row>
     <row r="852">
-      <c r="G852" s="43"/>
+      <c r="G852" s="44"/>
       <c r="H852" s="23"/>
-      <c r="K852" s="42"/>
-      <c r="L852" s="42"/>
+      <c r="K852" s="43"/>
+      <c r="L852" s="43"/>
     </row>
     <row r="853">
-      <c r="G853" s="43"/>
+      <c r="G853" s="44"/>
       <c r="H853" s="23"/>
-      <c r="K853" s="42"/>
-      <c r="L853" s="42"/>
+      <c r="K853" s="43"/>
+      <c r="L853" s="43"/>
     </row>
     <row r="854">
-      <c r="G854" s="43"/>
+      <c r="G854" s="44"/>
       <c r="H854" s="23"/>
-      <c r="K854" s="42"/>
-      <c r="L854" s="42"/>
+      <c r="K854" s="43"/>
+      <c r="L854" s="43"/>
     </row>
     <row r="855">
-      <c r="G855" s="43"/>
+      <c r="G855" s="44"/>
       <c r="H855" s="23"/>
-      <c r="K855" s="42"/>
-      <c r="L855" s="42"/>
+      <c r="K855" s="43"/>
+      <c r="L855" s="43"/>
     </row>
     <row r="856">
-      <c r="G856" s="43"/>
+      <c r="G856" s="44"/>
       <c r="H856" s="23"/>
-      <c r="K856" s="42"/>
-      <c r="L856" s="42"/>
+      <c r="K856" s="43"/>
+      <c r="L856" s="43"/>
     </row>
     <row r="857">
-      <c r="G857" s="43"/>
+      <c r="G857" s="44"/>
       <c r="H857" s="23"/>
-      <c r="K857" s="42"/>
-      <c r="L857" s="42"/>
+      <c r="K857" s="43"/>
+      <c r="L857" s="43"/>
     </row>
     <row r="858">
-      <c r="G858" s="43"/>
+      <c r="G858" s="44"/>
       <c r="H858" s="23"/>
-      <c r="K858" s="42"/>
-      <c r="L858" s="42"/>
+      <c r="K858" s="43"/>
+      <c r="L858" s="43"/>
     </row>
     <row r="859">
-      <c r="G859" s="43"/>
+      <c r="G859" s="44"/>
       <c r="H859" s="23"/>
-      <c r="K859" s="42"/>
-      <c r="L859" s="42"/>
+      <c r="K859" s="43"/>
+      <c r="L859" s="43"/>
     </row>
     <row r="860">
-      <c r="G860" s="43"/>
+      <c r="G860" s="44"/>
       <c r="H860" s="23"/>
-      <c r="K860" s="42"/>
-      <c r="L860" s="42"/>
+      <c r="K860" s="43"/>
+      <c r="L860" s="43"/>
     </row>
     <row r="861">
-      <c r="G861" s="43"/>
+      <c r="G861" s="44"/>
       <c r="H861" s="23"/>
-      <c r="K861" s="42"/>
-      <c r="L861" s="42"/>
+      <c r="K861" s="43"/>
+      <c r="L861" s="43"/>
     </row>
     <row r="862">
-      <c r="G862" s="43"/>
+      <c r="G862" s="44"/>
       <c r="H862" s="23"/>
-      <c r="K862" s="42"/>
-      <c r="L862" s="42"/>
+      <c r="K862" s="43"/>
+      <c r="L862" s="43"/>
     </row>
     <row r="863">
-      <c r="G863" s="43"/>
+      <c r="G863" s="44"/>
       <c r="H863" s="23"/>
-      <c r="K863" s="42"/>
-      <c r="L863" s="42"/>
+      <c r="K863" s="43"/>
+      <c r="L863" s="43"/>
     </row>
     <row r="864">
-      <c r="G864" s="43"/>
+      <c r="G864" s="44"/>
       <c r="H864" s="23"/>
-      <c r="K864" s="42"/>
-      <c r="L864" s="42"/>
+      <c r="K864" s="43"/>
+      <c r="L864" s="43"/>
     </row>
     <row r="865">
-      <c r="G865" s="43"/>
+      <c r="G865" s="44"/>
       <c r="H865" s="23"/>
-      <c r="K865" s="42"/>
-      <c r="L865" s="42"/>
+      <c r="K865" s="43"/>
+      <c r="L865" s="43"/>
     </row>
     <row r="866">
-      <c r="G866" s="43"/>
+      <c r="G866" s="44"/>
       <c r="H866" s="23"/>
-      <c r="K866" s="42"/>
-      <c r="L866" s="42"/>
+      <c r="K866" s="43"/>
+      <c r="L866" s="43"/>
     </row>
     <row r="867">
-      <c r="G867" s="43"/>
+      <c r="G867" s="44"/>
       <c r="H867" s="23"/>
-      <c r="K867" s="42"/>
-      <c r="L867" s="42"/>
+      <c r="K867" s="43"/>
+      <c r="L867" s="43"/>
     </row>
     <row r="868">
-      <c r="G868" s="43"/>
+      <c r="G868" s="44"/>
       <c r="H868" s="23"/>
-      <c r="K868" s="42"/>
-      <c r="L868" s="42"/>
+      <c r="K868" s="43"/>
+      <c r="L868" s="43"/>
     </row>
     <row r="869">
-      <c r="G869" s="43"/>
+      <c r="G869" s="44"/>
       <c r="H869" s="23"/>
-      <c r="K869" s="42"/>
-      <c r="L869" s="42"/>
+      <c r="K869" s="43"/>
+      <c r="L869" s="43"/>
     </row>
     <row r="870">
-      <c r="G870" s="43"/>
+      <c r="G870" s="44"/>
       <c r="H870" s="23"/>
-      <c r="K870" s="42"/>
-      <c r="L870" s="42"/>
+      <c r="K870" s="43"/>
+      <c r="L870" s="43"/>
     </row>
     <row r="871">
-      <c r="G871" s="43"/>
+      <c r="G871" s="44"/>
       <c r="H871" s="23"/>
-      <c r="K871" s="42"/>
-      <c r="L871" s="42"/>
+      <c r="K871" s="43"/>
+      <c r="L871" s="43"/>
     </row>
     <row r="872">
-      <c r="G872" s="43"/>
+      <c r="G872" s="44"/>
       <c r="H872" s="23"/>
-      <c r="K872" s="42"/>
-      <c r="L872" s="42"/>
+      <c r="K872" s="43"/>
+      <c r="L872" s="43"/>
     </row>
     <row r="873">
-      <c r="G873" s="43"/>
+      <c r="G873" s="44"/>
       <c r="H873" s="23"/>
-      <c r="K873" s="42"/>
-      <c r="L873" s="42"/>
+      <c r="K873" s="43"/>
+      <c r="L873" s="43"/>
     </row>
     <row r="874">
-      <c r="G874" s="43"/>
+      <c r="G874" s="44"/>
       <c r="H874" s="23"/>
-      <c r="K874" s="42"/>
-      <c r="L874" s="42"/>
+      <c r="K874" s="43"/>
+      <c r="L874" s="43"/>
     </row>
     <row r="875">
-      <c r="G875" s="43"/>
+      <c r="G875" s="44"/>
       <c r="H875" s="23"/>
-      <c r="K875" s="42"/>
-      <c r="L875" s="42"/>
+      <c r="K875" s="43"/>
+      <c r="L875" s="43"/>
     </row>
     <row r="876">
-      <c r="G876" s="43"/>
+      <c r="G876" s="44"/>
       <c r="H876" s="23"/>
-      <c r="K876" s="42"/>
-      <c r="L876" s="42"/>
+      <c r="K876" s="43"/>
+      <c r="L876" s="43"/>
     </row>
     <row r="877">
-      <c r="G877" s="43"/>
+      <c r="G877" s="44"/>
       <c r="H877" s="23"/>
-      <c r="K877" s="42"/>
-      <c r="L877" s="42"/>
+      <c r="K877" s="43"/>
+      <c r="L877" s="43"/>
     </row>
     <row r="878">
-      <c r="G878" s="43"/>
+      <c r="G878" s="44"/>
       <c r="H878" s="23"/>
-      <c r="K878" s="42"/>
-      <c r="L878" s="42"/>
+      <c r="K878" s="43"/>
+      <c r="L878" s="43"/>
     </row>
     <row r="879">
-      <c r="G879" s="43"/>
+      <c r="G879" s="44"/>
       <c r="H879" s="23"/>
-      <c r="K879" s="42"/>
-      <c r="L879" s="42"/>
+      <c r="K879" s="43"/>
+      <c r="L879" s="43"/>
     </row>
     <row r="880">
-      <c r="G880" s="43"/>
+      <c r="G880" s="44"/>
       <c r="H880" s="23"/>
-      <c r="K880" s="42"/>
-      <c r="L880" s="42"/>
+      <c r="K880" s="43"/>
+      <c r="L880" s="43"/>
     </row>
     <row r="881">
-      <c r="G881" s="43"/>
+      <c r="G881" s="44"/>
       <c r="H881" s="23"/>
-      <c r="K881" s="42"/>
-      <c r="L881" s="42"/>
+      <c r="K881" s="43"/>
+      <c r="L881" s="43"/>
     </row>
     <row r="882">
-      <c r="G882" s="43"/>
+      <c r="G882" s="44"/>
       <c r="H882" s="23"/>
-      <c r="K882" s="42"/>
-      <c r="L882" s="42"/>
+      <c r="K882" s="43"/>
+      <c r="L882" s="43"/>
     </row>
     <row r="883">
-      <c r="G883" s="43"/>
+      <c r="G883" s="44"/>
       <c r="H883" s="23"/>
-      <c r="K883" s="42"/>
-      <c r="L883" s="42"/>
+      <c r="K883" s="43"/>
+      <c r="L883" s="43"/>
     </row>
     <row r="884">
-      <c r="G884" s="43"/>
+      <c r="G884" s="44"/>
       <c r="H884" s="23"/>
-      <c r="K884" s="42"/>
-      <c r="L884" s="42"/>
+      <c r="K884" s="43"/>
+      <c r="L884" s="43"/>
     </row>
     <row r="885">
-      <c r="G885" s="43"/>
+      <c r="G885" s="44"/>
       <c r="H885" s="23"/>
-      <c r="K885" s="42"/>
-      <c r="L885" s="42"/>
+      <c r="K885" s="43"/>
+      <c r="L885" s="43"/>
     </row>
     <row r="886">
-      <c r="G886" s="43"/>
+      <c r="G886" s="44"/>
       <c r="H886" s="23"/>
-      <c r="K886" s="42"/>
-      <c r="L886" s="42"/>
+      <c r="K886" s="43"/>
+      <c r="L886" s="43"/>
     </row>
     <row r="887">
-      <c r="G887" s="43"/>
+      <c r="G887" s="44"/>
       <c r="H887" s="23"/>
-      <c r="K887" s="42"/>
-      <c r="L887" s="42"/>
+      <c r="K887" s="43"/>
+      <c r="L887" s="43"/>
     </row>
     <row r="888">
-      <c r="G888" s="43"/>
+      <c r="G888" s="44"/>
       <c r="H888" s="23"/>
-      <c r="K888" s="42"/>
-      <c r="L888" s="42"/>
+      <c r="K888" s="43"/>
+      <c r="L888" s="43"/>
     </row>
     <row r="889">
-      <c r="G889" s="43"/>
+      <c r="G889" s="44"/>
       <c r="H889" s="23"/>
-      <c r="K889" s="42"/>
-      <c r="L889" s="42"/>
+      <c r="K889" s="43"/>
+      <c r="L889" s="43"/>
     </row>
     <row r="890">
-      <c r="G890" s="43"/>
+      <c r="G890" s="44"/>
       <c r="H890" s="23"/>
-      <c r="K890" s="42"/>
-      <c r="L890" s="42"/>
+      <c r="K890" s="43"/>
+      <c r="L890" s="43"/>
     </row>
     <row r="891">
-      <c r="G891" s="43"/>
+      <c r="G891" s="44"/>
       <c r="H891" s="23"/>
-      <c r="K891" s="42"/>
-      <c r="L891" s="42"/>
+      <c r="K891" s="43"/>
+      <c r="L891" s="43"/>
     </row>
     <row r="892">
-      <c r="G892" s="43"/>
+      <c r="G892" s="44"/>
       <c r="H892" s="23"/>
-      <c r="K892" s="42"/>
-      <c r="L892" s="42"/>
+      <c r="K892" s="43"/>
+      <c r="L892" s="43"/>
     </row>
     <row r="893">
-      <c r="G893" s="43"/>
+      <c r="G893" s="44"/>
       <c r="H893" s="23"/>
-      <c r="K893" s="42"/>
-      <c r="L893" s="42"/>
+      <c r="K893" s="43"/>
+      <c r="L893" s="43"/>
     </row>
     <row r="894">
-      <c r="G894" s="43"/>
+      <c r="G894" s="44"/>
       <c r="H894" s="23"/>
-      <c r="K894" s="42"/>
-      <c r="L894" s="42"/>
+      <c r="K894" s="43"/>
+      <c r="L894" s="43"/>
     </row>
     <row r="895">
-      <c r="G895" s="43"/>
+      <c r="G895" s="44"/>
       <c r="H895" s="23"/>
-      <c r="K895" s="42"/>
-      <c r="L895" s="42"/>
+      <c r="K895" s="43"/>
+      <c r="L895" s="43"/>
     </row>
     <row r="896">
-      <c r="G896" s="43"/>
+      <c r="G896" s="44"/>
       <c r="H896" s="23"/>
-      <c r="K896" s="42"/>
-      <c r="L896" s="42"/>
+      <c r="K896" s="43"/>
+      <c r="L896" s="43"/>
     </row>
     <row r="897">
-      <c r="G897" s="43"/>
+      <c r="G897" s="44"/>
       <c r="H897" s="23"/>
-      <c r="K897" s="42"/>
-      <c r="L897" s="42"/>
+      <c r="K897" s="43"/>
+      <c r="L897" s="43"/>
     </row>
     <row r="898">
-      <c r="G898" s="43"/>
+      <c r="G898" s="44"/>
       <c r="H898" s="23"/>
-      <c r="K898" s="42"/>
-      <c r="L898" s="42"/>
+      <c r="K898" s="43"/>
+      <c r="L898" s="43"/>
     </row>
     <row r="899">
-      <c r="G899" s="43"/>
+      <c r="G899" s="44"/>
       <c r="H899" s="23"/>
-      <c r="K899" s="42"/>
-      <c r="L899" s="42"/>
+      <c r="K899" s="43"/>
+      <c r="L899" s="43"/>
     </row>
     <row r="900">
-      <c r="G900" s="43"/>
+      <c r="G900" s="44"/>
       <c r="H900" s="23"/>
-      <c r="K900" s="42"/>
-      <c r="L900" s="42"/>
+      <c r="K900" s="43"/>
+      <c r="L900" s="43"/>
     </row>
     <row r="901">
-      <c r="G901" s="43"/>
+      <c r="G901" s="44"/>
       <c r="H901" s="23"/>
-      <c r="K901" s="42"/>
-      <c r="L901" s="42"/>
+      <c r="K901" s="43"/>
+      <c r="L901" s="43"/>
     </row>
     <row r="902">
-      <c r="G902" s="43"/>
+      <c r="G902" s="44"/>
       <c r="H902" s="23"/>
-      <c r="K902" s="42"/>
-      <c r="L902" s="42"/>
+      <c r="K902" s="43"/>
+      <c r="L902" s="43"/>
     </row>
     <row r="903">
-      <c r="G903" s="43"/>
+      <c r="G903" s="44"/>
       <c r="H903" s="23"/>
-      <c r="K903" s="42"/>
-      <c r="L903" s="42"/>
+      <c r="K903" s="43"/>
+      <c r="L903" s="43"/>
     </row>
     <row r="904">
-      <c r="G904" s="43"/>
+      <c r="G904" s="44"/>
       <c r="H904" s="23"/>
-      <c r="K904" s="42"/>
-      <c r="L904" s="42"/>
+      <c r="K904" s="43"/>
+      <c r="L904" s="43"/>
     </row>
     <row r="905">
-      <c r="G905" s="43"/>
+      <c r="G905" s="44"/>
       <c r="H905" s="23"/>
-      <c r="K905" s="42"/>
-      <c r="L905" s="42"/>
+      <c r="K905" s="43"/>
+      <c r="L905" s="43"/>
     </row>
     <row r="906">
-      <c r="G906" s="43"/>
+      <c r="G906" s="44"/>
       <c r="H906" s="23"/>
-      <c r="K906" s="42"/>
-      <c r="L906" s="42"/>
+      <c r="K906" s="43"/>
+      <c r="L906" s="43"/>
     </row>
     <row r="907">
-      <c r="G907" s="43"/>
+      <c r="G907" s="44"/>
       <c r="H907" s="23"/>
-      <c r="K907" s="42"/>
-      <c r="L907" s="42"/>
+      <c r="K907" s="43"/>
+      <c r="L907" s="43"/>
     </row>
     <row r="908">
-      <c r="G908" s="43"/>
+      <c r="G908" s="44"/>
       <c r="H908" s="23"/>
-      <c r="K908" s="42"/>
-      <c r="L908" s="42"/>
+      <c r="K908" s="43"/>
+      <c r="L908" s="43"/>
     </row>
     <row r="909">
-      <c r="G909" s="43"/>
+      <c r="G909" s="44"/>
       <c r="H909" s="23"/>
-      <c r="K909" s="42"/>
-      <c r="L909" s="42"/>
+      <c r="K909" s="43"/>
+      <c r="L909" s="43"/>
     </row>
     <row r="910">
-      <c r="G910" s="43"/>
+      <c r="G910" s="44"/>
       <c r="H910" s="23"/>
-      <c r="K910" s="42"/>
-      <c r="L910" s="42"/>
+      <c r="K910" s="43"/>
+      <c r="L910" s="43"/>
     </row>
     <row r="911">
-      <c r="G911" s="43"/>
+      <c r="G911" s="44"/>
       <c r="H911" s="23"/>
-      <c r="K911" s="42"/>
-      <c r="L911" s="42"/>
+      <c r="K911" s="43"/>
+      <c r="L911" s="43"/>
     </row>
     <row r="912">
-      <c r="G912" s="43"/>
+      <c r="G912" s="44"/>
       <c r="H912" s="23"/>
-      <c r="K912" s="42"/>
-      <c r="L912" s="42"/>
+      <c r="K912" s="43"/>
+      <c r="L912" s="43"/>
     </row>
     <row r="913">
-      <c r="G913" s="43"/>
+      <c r="G913" s="44"/>
       <c r="H913" s="23"/>
-      <c r="K913" s="42"/>
-      <c r="L913" s="42"/>
+      <c r="K913" s="43"/>
+      <c r="L913" s="43"/>
     </row>
     <row r="914">
-      <c r="G914" s="43"/>
+      <c r="G914" s="44"/>
       <c r="H914" s="23"/>
-      <c r="K914" s="42"/>
-      <c r="L914" s="42"/>
+      <c r="K914" s="43"/>
+      <c r="L914" s="43"/>
     </row>
     <row r="915">
-      <c r="G915" s="43"/>
+      <c r="G915" s="44"/>
       <c r="H915" s="23"/>
-      <c r="K915" s="42"/>
-      <c r="L915" s="42"/>
+      <c r="K915" s="43"/>
+      <c r="L915" s="43"/>
     </row>
     <row r="916">
-      <c r="G916" s="43"/>
+      <c r="G916" s="44"/>
       <c r="H916" s="23"/>
-      <c r="K916" s="42"/>
-      <c r="L916" s="42"/>
+      <c r="K916" s="43"/>
+      <c r="L916" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$O$81">
@@ -10297,16 +10306,16 @@
       <c r="I2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="42" t="s">
         <v>307</v>
       </c>
       <c r="P2" s="7"/>
@@ -10351,7 +10360,7 @@
       <c r="M3" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="45" t="s">
         <v>322</v>
       </c>
     </row>
@@ -13403,155 +13412,155 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="48" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="27">
+      <c r="A2" s="28">
         <v>102.0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27">
+      <c r="A3" s="28">
         <v>132.0</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49">
+      <c r="A4" s="50">
         <v>15.0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="53" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27">
+      <c r="A5" s="28">
         <v>30.0</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="27">
+      <c r="A6" s="28">
         <v>48.0</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="31" t="s">
         <v>339</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -13559,106 +13568,106 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27">
+      <c r="A7" s="28">
         <v>84.0</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="55" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="27">
+      <c r="A8" s="28">
         <v>114.0</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27">
+      <c r="A9" s="28">
         <v>149.0</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="53" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="27">
+      <c r="A10" s="28">
         <v>21.0</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="35" t="s">
         <v>305</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -598,166 +598,166 @@
     <t>г. Нижний Новгород</t>
   </si>
   <si>
+    <t>Екатеринина Евгения Игоревна</t>
+  </si>
+  <si>
+    <t>Сыроварня Новосибирск</t>
+  </si>
+  <si>
+    <t>г. Новосибирск, ул. Ленина, 25</t>
+  </si>
+  <si>
+    <t>г. Новосибирск</t>
+  </si>
+  <si>
+    <t>Михайлова Елена Викторовна</t>
+  </si>
+  <si>
+    <t>Про.Хинкали Переславль-Залесский</t>
+  </si>
+  <si>
+    <t>Ярославская обл., г. Переславль-Залесский, ул. Садовая, д.10</t>
+  </si>
+  <si>
+    <t>г. Переславль-Залесский</t>
+  </si>
+  <si>
+    <t>Горностаева Виктория Игоревна</t>
+  </si>
+  <si>
+    <t>г. Ростов-на-Дону, пр-кт Михаила Нагибина, зд. 32В, стр. 1</t>
+  </si>
+  <si>
+    <t>г. Ростов на Дону</t>
+  </si>
+  <si>
+    <t>Малафеева Ирина Константиновна</t>
+  </si>
+  <si>
+    <t>Сыроварня Санкт-Петербург Галерея</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, Лиговский пр., 30, лит. "А". ТЦ «Галерея»</t>
+  </si>
+  <si>
+    <t>Pro Хинкали Роза Хутор</t>
+  </si>
+  <si>
+    <t>г. Сочи, с. Эстоcадок, набережная Полянка, 1</t>
+  </si>
+  <si>
+    <t>г. Сочи</t>
+  </si>
+  <si>
+    <t>Казаков Павел Владимирович</t>
+  </si>
+  <si>
+    <t>Мини Сыроварня Тюмень</t>
+  </si>
+  <si>
+    <t>г. Тюмень, ул. Республики 142</t>
+  </si>
+  <si>
+    <t>г. Тюмень</t>
+  </si>
+  <si>
+    <t>Аборина Елена Сергеевна</t>
+  </si>
+  <si>
+    <t>Сыроварня Уфа</t>
+  </si>
+  <si>
+    <t>г. Уфа, Проспект Октября, д. 81</t>
+  </si>
+  <si>
+    <t>г. Уфа</t>
+  </si>
+  <si>
+    <t>Фаткуллина Дина Ирековна</t>
+  </si>
+  <si>
+    <t>Nino</t>
+  </si>
+  <si>
+    <t>ПГТ Сириус, ул. 65 лет Победы дом 50/2</t>
+  </si>
+  <si>
+    <t>ПГТ Сириус</t>
+  </si>
+  <si>
+    <t>Салокина Наталья Андреевна</t>
+  </si>
+  <si>
+    <t>Сыроварня Океания</t>
+  </si>
+  <si>
+    <t>Кутузовский проспект, 57 ТРЦ «Океания», 4 этаж</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Pinskiy&amp;Co</t>
+  </si>
+  <si>
+    <t>Магадан Ильинка</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Ильинка, д. 3/5с8</t>
+  </si>
+  <si>
+    <t>https://www.novikovgroup.ru/restaurants/detail/magadan-ilinka/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сайт Novikov Group </t>
+  </si>
+  <si>
+    <t>Высота 5642 на Якиманке</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Большая Якиманка, 26</t>
+  </si>
+  <si>
+    <t>https://vysota5642.rest/</t>
+  </si>
+  <si>
+    <t>Afina</t>
+  </si>
+  <si>
+    <t>г. Москва, Большая Бронная 2/6</t>
+  </si>
+  <si>
+    <t>https://afina.rest/</t>
+  </si>
+  <si>
+    <t>Один адрес с ID 87</t>
+  </si>
+  <si>
+    <t>AvaBistro</t>
+  </si>
+  <si>
+    <t>г. Москва, Цветной, дом 2, помещение 1/16/1</t>
+  </si>
+  <si>
+    <t>https://avabistro.ru/#rec697051898</t>
+  </si>
+  <si>
+    <t>Аврора</t>
+  </si>
+  <si>
+    <t>г.Москва, Цветной бульвар 2</t>
+  </si>
+  <si>
+    <t>https://avrora.rest/</t>
+  </si>
+  <si>
+    <t>Магадан Нижний Новгород</t>
+  </si>
+  <si>
+    <t>г. Нижний Новгород, ул. Октябрьская пл.1</t>
+  </si>
+  <si>
     <t>Махалова Анастасия Алексеевна</t>
-  </si>
-  <si>
-    <t>Сыроварня Новосибирск</t>
-  </si>
-  <si>
-    <t>г. Новосибирск, ул. Ленина, 25</t>
-  </si>
-  <si>
-    <t>г. Новосибирск</t>
-  </si>
-  <si>
-    <t>Михайлова Елена Викторовна</t>
-  </si>
-  <si>
-    <t>Про.Хинкали Переславль-Залесский</t>
-  </si>
-  <si>
-    <t>Ярославская обл., г. Переславль-Залесский, ул. Садовая, д.10</t>
-  </si>
-  <si>
-    <t>г. Переславль-Залесский</t>
-  </si>
-  <si>
-    <t>Горностаева Виктория Игоревна</t>
-  </si>
-  <si>
-    <t>г. Ростов-на-Дону, пр-кт Михаила Нагибина, зд. 32В, стр. 1</t>
-  </si>
-  <si>
-    <t>г. Ростов на Дону</t>
-  </si>
-  <si>
-    <t>Малафеева Ирина Константиновна</t>
-  </si>
-  <si>
-    <t>Сыроварня Санкт-Петербург Галерея</t>
-  </si>
-  <si>
-    <t>г. Санкт-Петербург, Лиговский пр., 30, лит. "А". ТЦ «Галерея»</t>
-  </si>
-  <si>
-    <t>Фалалеева Анастасия Владимировна</t>
-  </si>
-  <si>
-    <t>Pro Хинкали Роза Хутор</t>
-  </si>
-  <si>
-    <t>г. Сочи, с. Эстоcадок, набережная Полянка, 1</t>
-  </si>
-  <si>
-    <t>г. Сочи</t>
-  </si>
-  <si>
-    <t>Казаков Павел Владимирович</t>
-  </si>
-  <si>
-    <t>Мини Сыроварня Тюмень</t>
-  </si>
-  <si>
-    <t>г. Тюмень, ул. Республики 142</t>
-  </si>
-  <si>
-    <t>г. Тюмень</t>
-  </si>
-  <si>
-    <t>Аборина Елена Сергеевна</t>
-  </si>
-  <si>
-    <t>Сыроварня Уфа</t>
-  </si>
-  <si>
-    <t>г. Уфа, Проспект Октября, д. 81</t>
-  </si>
-  <si>
-    <t>г. Уфа</t>
-  </si>
-  <si>
-    <t>Фаткуллина Дина Ирековна</t>
-  </si>
-  <si>
-    <t>Nino</t>
-  </si>
-  <si>
-    <t>ПГТ Сириус, ул. 65 лет Победы дом 50/2</t>
-  </si>
-  <si>
-    <t>ПГТ Сириус</t>
-  </si>
-  <si>
-    <t>Салокина Наталья Андреевна</t>
-  </si>
-  <si>
-    <t>Сыроварня Океания</t>
-  </si>
-  <si>
-    <t>Кутузовский проспект, 57 ТРЦ «Океания», 4 этаж</t>
-  </si>
-  <si>
-    <t>Москва</t>
-  </si>
-  <si>
-    <t>Pinskiy&amp;Co</t>
-  </si>
-  <si>
-    <t>Магадан Ильинка</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Ильинка, д. 3/5с8</t>
-  </si>
-  <si>
-    <t>https://www.novikovgroup.ru/restaurants/detail/magadan-ilinka/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сайт Novikov Group </t>
-  </si>
-  <si>
-    <t>Высота 5642 на Якиманке</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Большая Якиманка, 26</t>
-  </si>
-  <si>
-    <t>https://vysota5642.rest/</t>
-  </si>
-  <si>
-    <t>Afina</t>
-  </si>
-  <si>
-    <t>г. Москва, Большая Бронная 2/6</t>
-  </si>
-  <si>
-    <t>https://afina.rest/</t>
-  </si>
-  <si>
-    <t>Один адрес с ID 87</t>
-  </si>
-  <si>
-    <t>AvaBistro</t>
-  </si>
-  <si>
-    <t>г. Москва, Цветной, дом 2, помещение 1/16/1</t>
-  </si>
-  <si>
-    <t>https://avabistro.ru/#rec697051898</t>
-  </si>
-  <si>
-    <t>Аврора</t>
-  </si>
-  <si>
-    <t>г.Москва, Цветной бульвар 2</t>
-  </si>
-  <si>
-    <t>https://avrora.rest/</t>
-  </si>
-  <si>
-    <t>Магадан Нижний Новгород</t>
-  </si>
-  <si>
-    <t>г. Нижний Новгород, ул. Октябрьская пл.1</t>
   </si>
   <si>
     <t>Магадан Новосибирск</t>
@@ -1371,7 +1371,6 @@
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -1389,6 +1388,7 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -3670,12 +3670,12 @@
         <v>волна 1</v>
       </c>
       <c r="H45" s="23"/>
-      <c r="K45" s="27" t="s">
+      <c r="K45" s="13" t="s">
         <v>193</v>
       </c>
       <c r="N45" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Махалова Анастасия Алексеевна")</f>
-        <v>Махалова Анастасия Алексеевна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Екатеринина Евгения Игоревна")</f>
+        <v>Екатеринина Евгения Игоревна</v>
       </c>
       <c r="O45" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3744,7 +3744,7 @@
         <v>волна 1</v>
       </c>
       <c r="H47" s="23"/>
-      <c r="K47" s="28" t="s">
+      <c r="K47" s="27" t="s">
         <v>201</v>
       </c>
       <c r="N47" s="13" t="str">
@@ -3818,12 +3818,12 @@
         <v>волна 1</v>
       </c>
       <c r="H49" s="23"/>
-      <c r="K49" s="10" t="s">
-        <v>207</v>
+      <c r="K49" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="N49" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C49,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фалалеева Анастасия Владимировна")</f>
-        <v>Фалалеева Анастасия Владимировна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C49,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Валитова Карина Рамилевна")</f>
+        <v>Валитова Карина Рамилевна</v>
       </c>
       <c r="O49" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3838,13 +3838,13 @@
         <v>100</v>
       </c>
       <c r="C50" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="E50" s="26" t="s">
         <v>209</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>210</v>
       </c>
       <c r="F50" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="H50" s="23"/>
       <c r="K50" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N50" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -3875,13 +3875,13 @@
         <v>100</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="E51" s="26" t="s">
         <v>213</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>214</v>
       </c>
       <c r="F51" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="H51" s="23"/>
       <c r="K51" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N51" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Аборина Елена Сергеевна")</f>
@@ -3912,13 +3912,13 @@
         <v>100</v>
       </c>
       <c r="C52" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="E52" s="26" t="s">
         <v>217</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>218</v>
       </c>
       <c r="F52" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="H52" s="23"/>
       <c r="K52" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N52" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фаткуллина Дина Ирековна")</f>
@@ -3949,13 +3949,13 @@
         <v>100</v>
       </c>
       <c r="C53" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="E53" s="26" t="s">
         <v>221</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>222</v>
       </c>
       <c r="F53" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="H53" s="23"/>
       <c r="K53" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N53" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -3979,20 +3979,20 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="29">
+      <c r="A54" s="28">
         <v>62.0</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="E54" s="29" t="s">
         <v>225</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>226</v>
       </c>
       <c r="F54" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),4,0),"""")"),"Оффлайн")</f>
@@ -4002,13 +4002,13 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),5,0),"""")"),"волна 1")</f>
         <v>волна 1</v>
       </c>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32" t="s">
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="L54" s="32"/>
+      <c r="L54" s="31"/>
       <c r="N54" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Солнышкина Татьяна Александровна")</f>
         <v>Солнышкина Татьяна Александровна</v>
@@ -4022,16 +4022,16 @@
       <c r="A55" s="8">
         <v>2.0</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="D55" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="D55" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" s="33" t="s">
+      <c r="E55" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="10" t="str">
@@ -4044,13 +4044,13 @@
       </c>
       <c r="H55" s="23"/>
       <c r="J55" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K55" s="13" t="s">
         <v>30</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M55" s="10" t="s">
         <v>21</v>
@@ -4068,16 +4068,16 @@
       <c r="A56" s="8">
         <v>31.0</v>
       </c>
-      <c r="B56" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C56" s="33" t="s">
+      <c r="B56" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="D56" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="10" t="str">
@@ -4092,7 +4092,7 @@
         <v>17</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K56" s="13" t="s">
         <v>143</v>
@@ -4113,16 +4113,16 @@
       <c r="A57" s="8">
         <v>106.0</v>
       </c>
-      <c r="B57" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C57" s="33" t="s">
+      <c r="B57" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="D57" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="10" t="str">
@@ -4137,15 +4137,15 @@
         <v>17</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K57" s="13" t="s">
         <v>99</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="M57" s="34"/>
+        <v>237</v>
+      </c>
+      <c r="M57" s="33"/>
       <c r="N57" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C57,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Желязко Дмитрий Викторович")</f>
         <v>Желязко Дмитрий Викторович</v>
@@ -4159,16 +4159,16 @@
       <c r="A58" s="8">
         <v>118.0</v>
       </c>
-      <c r="B58" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C58" s="33" t="s">
+      <c r="B58" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="D58" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="E58" s="33" t="s">
+      <c r="E58" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="10" t="str">
@@ -4183,7 +4183,7 @@
         <v>17</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>86</v>
@@ -4204,16 +4204,16 @@
       <c r="A59" s="8">
         <v>121.0</v>
       </c>
-      <c r="B59" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C59" s="33" t="s">
+      <c r="B59" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="D59" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="E59" s="33" t="s">
+      <c r="E59" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="10" t="str">
@@ -4226,12 +4226,12 @@
       </c>
       <c r="H59" s="23"/>
       <c r="J59" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K59" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="34"/>
+      <c r="M59" s="33"/>
       <c r="N59" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C59,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Репилов Иван Викторович")</f>
         <v>Репилов Иван Викторович</v>
@@ -4245,16 +4245,16 @@
       <c r="A60" s="8">
         <v>122.0</v>
       </c>
-      <c r="B60" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C60" s="33" t="s">
+      <c r="B60" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="D60" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="E60" s="33" t="s">
+      <c r="E60" s="32" t="s">
         <v>192</v>
       </c>
       <c r="F60" s="10" t="str">
@@ -4266,8 +4266,8 @@
         <v>волна 1</v>
       </c>
       <c r="H60" s="23"/>
-      <c r="K60" s="27" t="s">
-        <v>193</v>
+      <c r="K60" s="34" t="s">
+        <v>246</v>
       </c>
       <c r="N60" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Махалова Анастасия Алексеевна")</f>
@@ -4282,16 +4282,16 @@
       <c r="A61" s="8">
         <v>125.0</v>
       </c>
-      <c r="B61" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C61" s="33" t="s">
+      <c r="B61" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="32" t="s">
         <v>196</v>
       </c>
       <c r="F61" s="10" t="str">
@@ -4319,16 +4319,16 @@
       <c r="A62" s="8">
         <v>39.0</v>
       </c>
-      <c r="B62" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C62" s="33" t="s">
+      <c r="B62" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="32" t="s">
         <v>252</v>
       </c>
       <c r="F62" s="10" t="str">
@@ -4356,16 +4356,16 @@
       <c r="A63" s="8">
         <v>91.0</v>
       </c>
-      <c r="B63" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C63" s="33" t="s">
+      <c r="B63" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E63" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F63" s="10" t="str">
@@ -4377,12 +4377,12 @@
         <v>волна 1</v>
       </c>
       <c r="H63" s="23"/>
-      <c r="K63" s="10" t="s">
-        <v>207</v>
+      <c r="K63" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="N63" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C63,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фалалеева Анастасия Владимировна")</f>
-        <v>Фалалеева Анастасия Владимировна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C63,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Валитова Карина Рамилевна")</f>
+        <v>Валитова Карина Рамилевна</v>
       </c>
       <c r="O63" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4393,17 +4393,17 @@
       <c r="A64" s="8">
         <v>43.0</v>
       </c>
-      <c r="B64" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C64" s="33" t="s">
+      <c r="B64" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="E64" s="33" t="s">
-        <v>210</v>
+      <c r="E64" s="32" t="s">
+        <v>209</v>
       </c>
       <c r="F64" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4432,17 +4432,17 @@
       <c r="A65" s="8">
         <v>151.0</v>
       </c>
-      <c r="B65" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C65" s="33" t="s">
+      <c r="B65" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="D65" s="33" t="s">
+      <c r="D65" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="E65" s="33" t="s">
-        <v>210</v>
+      <c r="E65" s="32" t="s">
+        <v>209</v>
       </c>
       <c r="F65" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4469,16 +4469,16 @@
       <c r="A66" s="8">
         <v>54.0</v>
       </c>
-      <c r="B66" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C66" s="33" t="s">
+      <c r="B66" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="D66" s="33" t="s">
+      <c r="D66" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="E66" s="33" t="s">
+      <c r="E66" s="32" t="s">
         <v>264</v>
       </c>
       <c r="F66" s="10" t="str">
@@ -4503,11 +4503,11 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="29">
+      <c r="A67" s="28">
         <v>108.0</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>266</v>
@@ -4516,7 +4516,7 @@
         <v>267</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F67" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4526,13 +4526,13 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),5,0),"""")"),"волна 1")</f>
         <v>волна 1</v>
       </c>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32" t="s">
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="32"/>
+      <c r="L67" s="31"/>
       <c r="N67" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
         <v>Янина Полина Олеговна</v>
@@ -4543,11 +4543,11 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="29">
+      <c r="A68" s="28">
         <v>142.0</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C68" s="35" t="s">
         <v>268</v>
@@ -4566,15 +4566,15 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),5,0),"""")"),"волна 1")</f>
         <v>волна 1</v>
       </c>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
       <c r="J68" s="36" t="s">
         <v>271</v>
       </c>
       <c r="K68" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="L68" s="32"/>
+      <c r="L68" s="31"/>
       <c r="N68" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Малафеева Ирина Константиновна")</f>
         <v>Малафеева Ирина Константиновна</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="H71" s="23"/>
       <c r="K71" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>283</v>
@@ -4862,7 +4862,7 @@
         <v>298</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F75" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4899,7 +4899,7 @@
         <v>300</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F76" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Доставка")</f>
@@ -4914,7 +4914,7 @@
         <v>301</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L76" s="39" t="s">
         <v>276</v>
@@ -4929,7 +4929,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="29">
+      <c r="A77" s="28">
         <v>21.0</v>
       </c>
       <c r="B77" s="40" t="s">
@@ -4942,7 +4942,7 @@
         <v>302</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F77" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Доставка")</f>
@@ -4952,14 +4952,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),5,0),"""")"),"волна 1")</f>
         <v>волна 1</v>
       </c>
-      <c r="H77" s="32"/>
+      <c r="H77" s="31"/>
       <c r="I77" s="41" t="s">
         <v>303</v>
       </c>
       <c r="J77" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="K77" s="32" t="s">
+      <c r="K77" s="31" t="s">
         <v>187</v>
       </c>
       <c r="L77" s="42" t="s">
@@ -5052,7 +5052,7 @@
       <c r="K79" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M79" s="34"/>
+      <c r="M79" s="33"/>
       <c r="N79" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C79,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Репилов Иван Викторович")</f>
         <v>Репилов Иван Викторович</v>
@@ -10299,8 +10299,8 @@
       <c r="I2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>227</v>
+      <c r="J2" s="32" t="s">
+        <v>226</v>
       </c>
       <c r="K2" s="38" t="s">
         <v>272</v>
@@ -13431,7 +13431,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29">
+      <c r="A2" s="28">
         <v>102.0</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -13446,10 +13446,10 @@
       <c r="E2" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>338</v>
       </c>
       <c r="H2" s="36" t="s">
@@ -13457,7 +13457,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>132.0</v>
       </c>
       <c r="B3" s="50" t="s">
@@ -13470,12 +13470,12 @@
         <v>23</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>338</v>
       </c>
       <c r="H3" s="36" t="s">
@@ -13501,7 +13501,7 @@
       <c r="F4" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>338</v>
       </c>
       <c r="H4" s="54" t="s">
@@ -13509,7 +13509,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>30.0</v>
       </c>
       <c r="B5" s="52" t="s">
@@ -13527,7 +13527,7 @@
       <c r="F5" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>338</v>
       </c>
       <c r="H5" s="36" t="s">
@@ -13535,7 +13535,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>48.0</v>
       </c>
       <c r="B6" s="55" t="s">
@@ -13550,10 +13550,10 @@
       <c r="E6" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>338</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -13561,7 +13561,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>84.0</v>
       </c>
       <c r="B7" s="55" t="s">
@@ -13576,10 +13576,10 @@
       <c r="E7" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>338</v>
       </c>
       <c r="H7" s="56" t="s">
@@ -13587,7 +13587,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>114.0</v>
       </c>
       <c r="B8" s="55" t="s">
@@ -13602,10 +13602,10 @@
       <c r="E8" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>338</v>
       </c>
       <c r="H8" s="36" t="s">
@@ -13613,7 +13613,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>149.0</v>
       </c>
       <c r="B9" s="40" t="s">
@@ -13628,10 +13628,10 @@
       <c r="E9" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>338</v>
       </c>
       <c r="H9" s="54" t="s">
@@ -13639,7 +13639,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>21.0</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -13652,12 +13652,12 @@
         <v>302</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F10" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>338</v>
       </c>
       <c r="H10" s="36" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="342">
   <si>
     <t>Партнер</t>
   </si>
@@ -793,17 +793,13 @@
     <t>г. Сочи, Ривьерский пер. д. 2 стр12</t>
   </si>
   <si>
-    <t>Максимова Ольга Олеговна
-Требуется замена</t>
+    <t>Лесных Алина Артемовна</t>
   </si>
   <si>
     <t>Магадан Сочи</t>
   </si>
   <si>
     <t>г. Сочи, ул. Войкова,16/23</t>
-  </si>
-  <si>
-    <t>Лесных Алина Артемовна</t>
   </si>
   <si>
     <t>Магадан Тула</t>
@@ -4418,10 +4414,8 @@
         <v>258</v>
       </c>
       <c r="N64" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Максимова Ольга Олеговна
-Требуется замена")</f>
-        <v>Максимова Ольга Олеговна
-Требуется замена</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
+        <v>Лесных Алина Артемовна</v>
       </c>
       <c r="O64" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4454,7 +4448,7 @@
       </c>
       <c r="H65" s="23"/>
       <c r="K65" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N65" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4473,13 +4467,13 @@
         <v>226</v>
       </c>
       <c r="C66" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="E66" s="32" t="s">
         <v>263</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>264</v>
       </c>
       <c r="F66" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4491,7 +4485,7 @@
       </c>
       <c r="H66" s="23"/>
       <c r="K66" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N66" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Болотникова Анастасия Михайловна")</f>
@@ -4510,10 +4504,10 @@
         <v>226</v>
       </c>
       <c r="C67" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="D67" s="35" t="s">
         <v>266</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>267</v>
       </c>
       <c r="E67" s="35" t="s">
         <v>225</v>
@@ -4550,13 +4544,13 @@
         <v>226</v>
       </c>
       <c r="C68" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="E68" s="35" t="s">
         <v>269</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>270</v>
       </c>
       <c r="F68" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4569,7 +4563,7 @@
       <c r="H68" s="31"/>
       <c r="I68" s="31"/>
       <c r="J68" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K68" s="37" t="s">
         <v>204</v>
@@ -4589,13 +4583,13 @@
         <v>102.0</v>
       </c>
       <c r="B69" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="D69" s="38" t="s">
         <v>273</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>274</v>
       </c>
       <c r="E69" s="38" t="s">
         <v>110</v>
@@ -4610,13 +4604,13 @@
       </c>
       <c r="H69" s="23"/>
       <c r="J69" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>111</v>
       </c>
       <c r="L69" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N69" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C69,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фишкин Сергей Анатольевич")</f>
@@ -4632,16 +4626,16 @@
         <v>19.0</v>
       </c>
       <c r="B70" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="C70" s="38" t="s">
-        <v>273</v>
-      </c>
       <c r="D70" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E70" s="38" t="s">
         <v>277</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>278</v>
       </c>
       <c r="F70" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4653,7 +4647,7 @@
       </c>
       <c r="H70" s="23"/>
       <c r="K70" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N70" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Хакимзянова Диана Фаридовна")</f>
@@ -4669,16 +4663,16 @@
         <v>83.0</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C71" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="D71" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="E71" s="38" t="s">
         <v>281</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>282</v>
       </c>
       <c r="F71" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4693,7 +4687,7 @@
         <v>210</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N71" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4709,13 +4703,13 @@
         <v>56.0</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C72" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72" s="38" t="s">
         <v>284</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>285</v>
       </c>
       <c r="E72" s="38" t="s">
         <v>16</v>
@@ -4730,13 +4724,13 @@
       </c>
       <c r="H72" s="23"/>
       <c r="J72" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K72" s="13" t="s">
         <v>91</v>
       </c>
       <c r="L72" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M72" s="10" t="s">
         <v>21</v>
@@ -4755,13 +4749,13 @@
         <v>61.0</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C73" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" s="38" t="s">
         <v>288</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>289</v>
       </c>
       <c r="E73" s="38" t="s">
         <v>16</v>
@@ -4779,13 +4773,13 @@
       </c>
       <c r="I73" s="14"/>
       <c r="J73" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K73" s="13" t="s">
         <v>157</v>
       </c>
       <c r="L73" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M73" s="10" t="s">
         <v>21</v>
@@ -4804,13 +4798,13 @@
         <v>79.0</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C74" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" s="38" t="s">
         <v>292</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>293</v>
       </c>
       <c r="E74" s="38" t="s">
         <v>16</v>
@@ -4825,16 +4819,16 @@
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="J74" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="J74" s="12" t="s">
-        <v>295</v>
       </c>
       <c r="K74" s="13" t="s">
         <v>173</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M74" s="10" t="s">
         <v>21</v>
@@ -4853,13 +4847,13 @@
         <v>98.0</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C75" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" s="38" t="s">
         <v>297</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>298</v>
       </c>
       <c r="E75" s="38" t="s">
         <v>209</v>
@@ -4874,7 +4868,7 @@
       </c>
       <c r="H75" s="23"/>
       <c r="K75" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N75" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4890,13 +4884,13 @@
         <v>149.0</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C76" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="38" t="s">
         <v>299</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>300</v>
       </c>
       <c r="E76" s="38" t="s">
         <v>209</v>
@@ -4911,13 +4905,13 @@
       </c>
       <c r="H76" s="23"/>
       <c r="J76" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K76" s="13" t="s">
         <v>210</v>
       </c>
       <c r="L76" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N76" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4933,13 +4927,13 @@
         <v>21.0</v>
       </c>
       <c r="B77" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C77" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="C77" s="40" t="s">
-        <v>273</v>
-      </c>
       <c r="D77" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E77" s="40" t="s">
         <v>225</v>
@@ -4954,16 +4948,16 @@
       </c>
       <c r="H77" s="31"/>
       <c r="I77" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="J77" s="36" t="s">
         <v>303</v>
-      </c>
-      <c r="J77" s="36" t="s">
-        <v>304</v>
       </c>
       <c r="K77" s="31" t="s">
         <v>187</v>
       </c>
       <c r="L77" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N77" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -4979,13 +4973,13 @@
         <v>86.0</v>
       </c>
       <c r="B78" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="D78" s="43" t="s">
         <v>307</v>
-      </c>
-      <c r="D78" s="43" t="s">
-        <v>308</v>
       </c>
       <c r="E78" s="43" t="s">
         <v>16</v>
@@ -5002,7 +4996,7 @@
         <v>17</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K78" s="13" t="s">
         <v>173</v>
@@ -5024,13 +5018,13 @@
         <v>160.0</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C79" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="D79" s="43" t="s">
         <v>310</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>311</v>
       </c>
       <c r="E79" s="43" t="s">
         <v>16</v>
@@ -5047,7 +5041,7 @@
         <v>17</v>
       </c>
       <c r="J79" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K79" s="13" t="s">
         <v>91</v>
@@ -5067,13 +5061,13 @@
         <v>24.0</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C80" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="D80" s="43" t="s">
         <v>313</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>314</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>35</v>
@@ -5104,13 +5098,13 @@
         <v>89.0</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C81" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="D81" s="43" t="s">
         <v>315</v>
-      </c>
-      <c r="D81" s="43" t="s">
-        <v>316</v>
       </c>
       <c r="E81" s="43" t="s">
         <v>35</v>
@@ -5125,10 +5119,10 @@
       </c>
       <c r="H81" s="23"/>
       <c r="K81" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="L81" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="L81" s="10" t="s">
-        <v>318</v>
       </c>
       <c r="N81" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C81,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Ерошкина Мария Александровна")</f>
@@ -10303,13 +10297,13 @@
         <v>226</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -10318,84 +10312,84 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="P3" s="46" t="s">
         <v>320</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="P3" s="46" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="P4" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5">
@@ -13406,7 +13400,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>0</v>
@@ -13427,7 +13421,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
@@ -13435,25 +13429,25 @@
         <v>102.0</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="E2" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>274</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="3">
@@ -13473,10 +13467,10 @@
         <v>225</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>25</v>
@@ -13496,16 +13490,16 @@
         <v>34</v>
       </c>
       <c r="E4" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="H4" s="54" t="s">
         <v>339</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5">
@@ -13522,13 +13516,13 @@
         <v>41</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>43</v>
@@ -13548,13 +13542,13 @@
         <v>52</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>54</v>
@@ -13574,13 +13568,13 @@
         <v>64</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>65</v>
@@ -13600,13 +13594,13 @@
         <v>69</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>70</v>
@@ -13617,25 +13611,25 @@
         <v>149.0</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>300</v>
-      </c>
       <c r="E9" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="H9" s="54" t="s">
         <v>341</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="10">
@@ -13643,25 +13637,25 @@
         <v>21.0</v>
       </c>
       <c r="B10" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>273</v>
-      </c>
       <c r="D10" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>225</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="341">
   <si>
     <t>Партнер</t>
   </si>
@@ -205,7 +205,7 @@
     <t>г. Санкт-Петербург, Мытнинская набережная, д. 3</t>
   </si>
   <si>
-    <t>Луницына Анна Романовна</t>
+    <t>Климцева Анна Евгеньевна</t>
   </si>
   <si>
     <t>Маймун</t>
@@ -232,9 +232,6 @@
     <t>https://ginzadelivery.ru/restaurants/yunost/4847</t>
   </si>
   <si>
-    <t>Климцева Анна Евгеньевна</t>
-  </si>
-  <si>
     <t>доставка бесплатная для этого тестера</t>
   </si>
   <si>
@@ -778,7 +775,7 @@
     <t>г. Пермь</t>
   </si>
   <si>
-    <t>Чащина Василина Юрьевна</t>
+    <t>Исаченко Мария Александровна</t>
   </si>
   <si>
     <t>Сыроварня Санкт-Петербург и НАМА</t>
@@ -2171,12 +2168,12 @@
       <c r="I10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="13" t="s">
         <v>62</v>
       </c>
       <c r="N10" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C10,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Луницына Анна Романовна")</f>
-        <v>Луницына Анна Романовна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C10,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Климцева Анна Евгеньевна")</f>
+        <v>Климцева Анна Евгеньевна</v>
       </c>
       <c r="O10" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2301,10 +2298,10 @@
         <v>70</v>
       </c>
       <c r="K13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="N13" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C13,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Климцева Анна Евгеньевна")</f>
@@ -2323,10 +2320,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>74</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>35</v>
@@ -2363,10 +2360,10 @@
         <v>50</v>
       </c>
       <c r="C15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>75</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>76</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>35</v>
@@ -2384,7 +2381,7 @@
         <v>58</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N15" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C15,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Виноградова Дарья Сергеевна")</f>
@@ -2400,13 +2397,13 @@
         <v>1.0</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="D16" s="24" t="s">
         <v>79</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>80</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>16</v>
@@ -2423,10 +2420,10 @@
         <v>17</v>
       </c>
       <c r="J16" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>21</v>
@@ -2445,13 +2442,13 @@
         <v>60.0</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>84</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>16</v>
@@ -2468,13 +2465,13 @@
         <v>17</v>
       </c>
       <c r="J17" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="L17" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>21</v>
@@ -2493,13 +2490,13 @@
         <v>64.0</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>88</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>89</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>16</v>
@@ -2516,10 +2513,10 @@
         <v>17</v>
       </c>
       <c r="J18" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>21</v>
@@ -2538,13 +2535,13 @@
         <v>109.0</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>16</v>
@@ -2561,13 +2558,13 @@
         <v>17</v>
       </c>
       <c r="J19" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="L19" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>21</v>
@@ -2586,13 +2583,13 @@
         <v>129.0</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>96</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>97</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>16</v>
@@ -2609,10 +2606,10 @@
         <v>17</v>
       </c>
       <c r="J20" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>21</v>
@@ -2631,16 +2628,16 @@
         <v>8.0</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="F21" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2651,16 +2648,16 @@
         <v>волна 1</v>
       </c>
       <c r="H21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="K21" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="L21" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="N21" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кузнецова Татьяна Викторовна")</f>
@@ -2676,16 +2673,16 @@
         <v>127.0</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>109</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>110</v>
       </c>
       <c r="F22" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2697,10 +2694,10 @@
       </c>
       <c r="H22" s="23"/>
       <c r="K22" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="N22" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фишкин Сергей Анатольевич")</f>
@@ -2716,16 +2713,16 @@
         <v>9.0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>114</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>115</v>
       </c>
       <c r="F23" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A23,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2737,7 +2734,7 @@
       </c>
       <c r="H23" s="23"/>
       <c r="K23" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N23" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C23,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Перминов Максим Сергеевич")</f>
@@ -2753,16 +2750,16 @@
         <v>10.0</v>
       </c>
       <c r="B24" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>101</v>
-      </c>
       <c r="D24" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>117</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>118</v>
       </c>
       <c r="F24" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A24,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2774,10 +2771,10 @@
       </c>
       <c r="H24" s="23"/>
       <c r="K24" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="N24" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A24,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Подоплелова Екатерина Николаевна")</f>
@@ -2793,16 +2790,16 @@
         <v>131.0</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="E25" s="26" t="s">
         <v>122</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>123</v>
       </c>
       <c r="F25" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A25,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2814,7 +2811,7 @@
       </c>
       <c r="H25" s="23"/>
       <c r="K25" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N25" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C25,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Соповская Юлия Вячеславовна")</f>
@@ -2830,16 +2827,16 @@
         <v>138.0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>126</v>
-      </c>
       <c r="E26" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2851,10 +2848,10 @@
       </c>
       <c r="H26" s="23"/>
       <c r="K26" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N26" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Соповская Юлия Вячеславовна")</f>
@@ -2870,16 +2867,16 @@
         <v>3.0</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>129</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>130</v>
       </c>
       <c r="F27" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A27,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -2891,7 +2888,7 @@
       </c>
       <c r="H27" s="23"/>
       <c r="K27" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N27" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C27,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Бойцов Иван Сергеевич")</f>
@@ -2907,13 +2904,13 @@
         <v>25.0</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>132</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>133</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>16</v>
@@ -2930,13 +2927,13 @@
         <v>17</v>
       </c>
       <c r="J28" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="N28" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C28,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Желязко Дмитрий Викторович")</f>
@@ -2952,13 +2949,13 @@
         <v>32.0</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>137</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>16</v>
@@ -2975,16 +2972,16 @@
         <v>17</v>
       </c>
       <c r="J29" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L29" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K29" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="M29" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N29" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Шиверских Виктор Станиславович")</f>
@@ -3000,13 +2997,13 @@
         <v>36.0</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>140</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>141</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>16</v>
@@ -3021,13 +3018,13 @@
       </c>
       <c r="H30" s="23"/>
       <c r="J30" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="M30" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N30" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C30,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кузнецов Артемий Вадимович")</f>
@@ -3043,13 +3040,13 @@
         <v>42.0</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>145</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>16</v>
@@ -3066,13 +3063,13 @@
         <v>17</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N31" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C31,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
@@ -3088,13 +3085,13 @@
         <v>49.0</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>147</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>148</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>16</v>
@@ -3111,13 +3108,13 @@
         <v>17</v>
       </c>
       <c r="J32" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="M32" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N32" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C32,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Аношкина Светлана Андреевна")</f>
@@ -3133,13 +3130,13 @@
         <v>50.0</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>152</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>16</v>
@@ -3156,13 +3153,13 @@
         <v>17</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N33" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C33,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Репилов Иван Викторович")</f>
@@ -3178,13 +3175,13 @@
         <v>58.0</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>16</v>
@@ -3201,13 +3198,13 @@
         <v>17</v>
       </c>
       <c r="J34" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K34" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="K34" s="13" t="s">
-        <v>157</v>
-      </c>
       <c r="M34" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N34" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Уварова Екатерина Юрьевна")</f>
@@ -3223,13 +3220,13 @@
         <v>65.0</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>158</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>159</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>16</v>
@@ -3244,13 +3241,13 @@
       </c>
       <c r="H35" s="11"/>
       <c r="J35" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N35" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C35,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
@@ -3266,13 +3263,13 @@
         <v>66.0</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>161</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>162</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>16</v>
@@ -3289,13 +3286,13 @@
         <v>17</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N36" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C36,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Шиверских Виктор Станиславович")</f>
@@ -3311,13 +3308,13 @@
         <v>67.0</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>164</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>165</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>16</v>
@@ -3334,13 +3331,13 @@
         <v>17</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>30</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N37" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C37,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кузнецова Елена Андреевна")</f>
@@ -3356,13 +3353,13 @@
         <v>71.0</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>16</v>
@@ -3377,16 +3374,16 @@
       </c>
       <c r="H38" s="23"/>
       <c r="J38" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L38" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="K38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>169</v>
-      </c>
       <c r="M38" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N38" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C38,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Репилов Иван Викторович")</f>
@@ -3402,13 +3399,13 @@
         <v>72.0</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>170</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>171</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>16</v>
@@ -3425,13 +3422,13 @@
         <v>17</v>
       </c>
       <c r="J39" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>173</v>
-      </c>
       <c r="M39" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N39" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C39,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Калинина Ольга Игоревна")</f>
@@ -3447,13 +3444,13 @@
         <v>75.0</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>174</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>175</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>16</v>
@@ -3468,13 +3465,13 @@
       </c>
       <c r="H40" s="23"/>
       <c r="J40" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K40" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="K40" s="13" t="s">
-        <v>177</v>
-      </c>
       <c r="M40" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N40" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C40,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кобылинский Ян Александрович")</f>
@@ -3490,13 +3487,13 @@
         <v>88.0</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>179</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>16</v>
@@ -3513,13 +3510,13 @@
         <v>17</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N41" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C41,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Желязко Дмитрий Викторович")</f>
@@ -3535,16 +3532,16 @@
         <v>115.0</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="E42" s="26" t="s">
         <v>182</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>183</v>
       </c>
       <c r="F42" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3556,7 +3553,7 @@
       </c>
       <c r="H42" s="23"/>
       <c r="K42" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N42" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Алексеев Александр Станиславович")</f>
@@ -3572,16 +3569,16 @@
         <v>116.0</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>186</v>
-      </c>
       <c r="E43" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F43" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3593,7 +3590,7 @@
       </c>
       <c r="H43" s="23"/>
       <c r="K43" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N43" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -3609,16 +3606,16 @@
         <v>120.0</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>189</v>
-      </c>
       <c r="E44" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F44" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A44,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3646,16 +3643,16 @@
         <v>92.0</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="E45" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="F45" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3667,7 +3664,7 @@
       </c>
       <c r="H45" s="23"/>
       <c r="K45" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N45" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Екатеринина Евгения Игоревна")</f>
@@ -3683,16 +3680,16 @@
         <v>96.0</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="E46" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="F46" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3704,7 +3701,7 @@
       </c>
       <c r="H46" s="23"/>
       <c r="K46" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N46" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Михайлова Елена Викторовна")</f>
@@ -3720,16 +3717,16 @@
         <v>153.0</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="E47" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="F47" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3741,7 +3738,7 @@
       </c>
       <c r="H47" s="23"/>
       <c r="K47" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N47" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Горностаева Виктория Игоревна")</f>
@@ -3757,16 +3754,16 @@
         <v>103.0</v>
       </c>
       <c r="B48" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="26" t="s">
-        <v>101</v>
-      </c>
       <c r="D48" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>202</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>203</v>
       </c>
       <c r="F48" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A48,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3778,7 +3775,7 @@
       </c>
       <c r="H48" s="23"/>
       <c r="K48" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N48" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A48,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Малафеева Ирина Константиновна")</f>
@@ -3794,13 +3791,13 @@
         <v>104.0</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>205</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>206</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>35</v>
@@ -3831,16 +3828,16 @@
         <v>147.0</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="E50" s="26" t="s">
         <v>208</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>209</v>
       </c>
       <c r="F50" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3852,7 +3849,7 @@
       </c>
       <c r="H50" s="23"/>
       <c r="K50" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N50" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -3868,16 +3865,16 @@
         <v>111.0</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="E51" s="26" t="s">
         <v>212</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>213</v>
       </c>
       <c r="F51" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3889,7 +3886,7 @@
       </c>
       <c r="H51" s="23"/>
       <c r="K51" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N51" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Аборина Елена Сергеевна")</f>
@@ -3905,16 +3902,16 @@
         <v>113.0</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="E52" s="26" t="s">
         <v>216</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>217</v>
       </c>
       <c r="F52" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3926,7 +3923,7 @@
       </c>
       <c r="H52" s="23"/>
       <c r="K52" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N52" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фаткуллина Дина Ирековна")</f>
@@ -3942,16 +3939,16 @@
         <v>148.0</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="E53" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="F53" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3963,7 +3960,7 @@
       </c>
       <c r="H53" s="23"/>
       <c r="K53" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N53" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -3979,16 +3976,16 @@
         <v>62.0</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C54" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="E54" s="29" t="s">
         <v>224</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>225</v>
       </c>
       <c r="F54" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),4,0),"""")"),"Оффлайн")</f>
@@ -4002,7 +3999,7 @@
       <c r="I54" s="31"/>
       <c r="J54" s="31"/>
       <c r="K54" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L54" s="31"/>
       <c r="N54" s="13" t="str">
@@ -4019,13 +4016,13 @@
         <v>2.0</v>
       </c>
       <c r="B55" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="D55" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>228</v>
       </c>
       <c r="E55" s="32" t="s">
         <v>16</v>
@@ -4040,13 +4037,13 @@
       </c>
       <c r="H55" s="23"/>
       <c r="J55" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K55" s="13" t="s">
         <v>30</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M55" s="10" t="s">
         <v>21</v>
@@ -4065,13 +4062,13 @@
         <v>31.0</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C56" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>232</v>
       </c>
       <c r="E56" s="32" t="s">
         <v>16</v>
@@ -4088,10 +4085,10 @@
         <v>17</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M56" s="10" t="s">
         <v>21</v>
@@ -4110,13 +4107,13 @@
         <v>106.0</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C57" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" s="32" t="s">
         <v>234</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>235</v>
       </c>
       <c r="E57" s="32" t="s">
         <v>16</v>
@@ -4133,13 +4130,13 @@
         <v>17</v>
       </c>
       <c r="J57" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L57" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="M57" s="33"/>
       <c r="N57" s="13" t="str">
@@ -4156,13 +4153,13 @@
         <v>118.0</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C58" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="32" t="s">
         <v>238</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>239</v>
       </c>
       <c r="E58" s="32" t="s">
         <v>16</v>
@@ -4179,10 +4176,10 @@
         <v>17</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M58" s="10" t="s">
         <v>21</v>
@@ -4201,13 +4198,13 @@
         <v>121.0</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C59" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D59" s="32" t="s">
         <v>241</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>242</v>
       </c>
       <c r="E59" s="32" t="s">
         <v>16</v>
@@ -4222,10 +4219,10 @@
       </c>
       <c r="H59" s="23"/>
       <c r="J59" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M59" s="33"/>
       <c r="N59" s="13" t="str">
@@ -4242,16 +4239,16 @@
         <v>122.0</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C60" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="32" t="s">
-        <v>245</v>
-      </c>
       <c r="E60" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F60" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4263,7 +4260,7 @@
       </c>
       <c r="H60" s="23"/>
       <c r="K60" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N60" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Махалова Анастасия Алексеевна")</f>
@@ -4279,16 +4276,16 @@
         <v>125.0</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C61" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="D61" s="32" t="s">
-        <v>248</v>
-      </c>
       <c r="E61" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F61" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A61,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4300,7 +4297,7 @@
       </c>
       <c r="H61" s="23"/>
       <c r="K61" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N61" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C61,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Язькова Александра Витальевна")</f>
@@ -4316,16 +4313,16 @@
         <v>39.0</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C62" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D62" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="E62" s="32" t="s">
         <v>251</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>252</v>
       </c>
       <c r="F62" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4337,11 +4334,11 @@
       </c>
       <c r="H62" s="23"/>
       <c r="K62" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N62" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Чащина Василина Юрьевна")</f>
-        <v>Чащина Василина Юрьевна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Исаченко Мария Александровна")</f>
+        <v>Исаченко Мария Александровна</v>
       </c>
       <c r="O62" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4353,13 +4350,13 @@
         <v>91.0</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C63" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D63" s="32" t="s">
         <v>254</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>255</v>
       </c>
       <c r="E63" s="32" t="s">
         <v>35</v>
@@ -4390,16 +4387,16 @@
         <v>43.0</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C64" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="D64" s="32" t="s">
-        <v>257</v>
-      </c>
       <c r="E64" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F64" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4411,7 +4408,7 @@
       </c>
       <c r="H64" s="23"/>
       <c r="K64" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N64" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4427,16 +4424,16 @@
         <v>151.0</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C65" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="D65" s="32" t="s">
-        <v>260</v>
-      </c>
       <c r="E65" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F65" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4448,7 +4445,7 @@
       </c>
       <c r="H65" s="23"/>
       <c r="K65" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N65" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4464,16 +4461,16 @@
         <v>54.0</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C66" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="E66" s="32" t="s">
         <v>262</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>263</v>
       </c>
       <c r="F66" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4485,7 +4482,7 @@
       </c>
       <c r="H66" s="23"/>
       <c r="K66" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N66" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Болотникова Анастасия Михайловна")</f>
@@ -4501,16 +4498,16 @@
         <v>108.0</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C67" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="D67" s="35" t="s">
-        <v>266</v>
-      </c>
       <c r="E67" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F67" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4524,7 +4521,7 @@
       <c r="I67" s="31"/>
       <c r="J67" s="31"/>
       <c r="K67" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L67" s="31"/>
       <c r="N67" s="13" t="str">
@@ -4541,16 +4538,16 @@
         <v>142.0</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C68" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="E68" s="35" t="s">
         <v>268</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>269</v>
       </c>
       <c r="F68" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4563,10 +4560,10 @@
       <c r="H68" s="31"/>
       <c r="I68" s="31"/>
       <c r="J68" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K68" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L68" s="31"/>
       <c r="N68" s="13" t="str">
@@ -4583,16 +4580,16 @@
         <v>102.0</v>
       </c>
       <c r="B69" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="D69" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="D69" s="38" t="s">
-        <v>273</v>
-      </c>
       <c r="E69" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F69" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A69,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Доставка")</f>
@@ -4604,13 +4601,13 @@
       </c>
       <c r="H69" s="23"/>
       <c r="J69" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L69" s="39" t="s">
         <v>274</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="L69" s="39" t="s">
-        <v>275</v>
       </c>
       <c r="N69" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C69,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фишкин Сергей Анатольевич")</f>
@@ -4626,16 +4623,16 @@
         <v>19.0</v>
       </c>
       <c r="B70" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="C70" s="38" t="s">
-        <v>272</v>
-      </c>
       <c r="D70" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="E70" s="38" t="s">
         <v>276</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>277</v>
       </c>
       <c r="F70" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4647,7 +4644,7 @@
       </c>
       <c r="H70" s="23"/>
       <c r="K70" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N70" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Хакимзянова Диана Фаридовна")</f>
@@ -4663,16 +4660,16 @@
         <v>83.0</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C71" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D71" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="E71" s="38" t="s">
         <v>280</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>281</v>
       </c>
       <c r="F71" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4684,10 +4681,10 @@
       </c>
       <c r="H71" s="23"/>
       <c r="K71" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N71" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4703,13 +4700,13 @@
         <v>56.0</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C72" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" s="38" t="s">
         <v>283</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>284</v>
       </c>
       <c r="E72" s="38" t="s">
         <v>16</v>
@@ -4724,13 +4721,13 @@
       </c>
       <c r="H72" s="23"/>
       <c r="J72" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L72" s="14" t="s">
         <v>285</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L72" s="14" t="s">
-        <v>286</v>
       </c>
       <c r="M72" s="10" t="s">
         <v>21</v>
@@ -4749,13 +4746,13 @@
         <v>61.0</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C73" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" s="38" t="s">
         <v>287</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>288</v>
       </c>
       <c r="E73" s="38" t="s">
         <v>16</v>
@@ -4773,13 +4770,13 @@
       </c>
       <c r="I73" s="14"/>
       <c r="J73" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="L73" s="14" t="s">
         <v>289</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="L73" s="14" t="s">
-        <v>290</v>
       </c>
       <c r="M73" s="10" t="s">
         <v>21</v>
@@ -4798,13 +4795,13 @@
         <v>79.0</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C74" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="D74" s="38" t="s">
         <v>291</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>292</v>
       </c>
       <c r="E74" s="38" t="s">
         <v>16</v>
@@ -4819,16 +4816,16 @@
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="J74" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="K74" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="L74" s="14" t="s">
         <v>294</v>
-      </c>
-      <c r="K74" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="L74" s="14" t="s">
-        <v>295</v>
       </c>
       <c r="M74" s="10" t="s">
         <v>21</v>
@@ -4847,16 +4844,16 @@
         <v>98.0</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C75" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="D75" s="38" t="s">
-        <v>297</v>
-      </c>
       <c r="E75" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F75" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4868,7 +4865,7 @@
       </c>
       <c r="H75" s="23"/>
       <c r="K75" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N75" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4884,16 +4881,16 @@
         <v>149.0</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C76" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="D76" s="38" t="s">
-        <v>299</v>
-      </c>
       <c r="E76" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F76" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Доставка")</f>
@@ -4905,13 +4902,13 @@
       </c>
       <c r="H76" s="23"/>
       <c r="J76" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L76" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N76" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4927,16 +4924,16 @@
         <v>21.0</v>
       </c>
       <c r="B77" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="C77" s="40" t="s">
-        <v>272</v>
-      </c>
       <c r="D77" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F77" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Доставка")</f>
@@ -4948,16 +4945,16 @@
       </c>
       <c r="H77" s="31"/>
       <c r="I77" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="J77" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="J77" s="36" t="s">
+      <c r="K77" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="L77" s="42" t="s">
         <v>303</v>
-      </c>
-      <c r="K77" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="L77" s="42" t="s">
-        <v>304</v>
       </c>
       <c r="N77" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -4973,13 +4970,13 @@
         <v>86.0</v>
       </c>
       <c r="B78" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="D78" s="43" t="s">
         <v>306</v>
-      </c>
-      <c r="D78" s="43" t="s">
-        <v>307</v>
       </c>
       <c r="E78" s="43" t="s">
         <v>16</v>
@@ -4996,13 +4993,13 @@
         <v>17</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N78" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C78,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Калинина Ольга Игоревна")</f>
@@ -5018,13 +5015,13 @@
         <v>160.0</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C79" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="D79" s="43" t="s">
         <v>309</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>310</v>
       </c>
       <c r="E79" s="43" t="s">
         <v>16</v>
@@ -5041,10 +5038,10 @@
         <v>17</v>
       </c>
       <c r="J79" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M79" s="33"/>
       <c r="N79" s="13" t="str">
@@ -5061,13 +5058,13 @@
         <v>24.0</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C80" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="D80" s="43" t="s">
         <v>312</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>313</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>35</v>
@@ -5098,13 +5095,13 @@
         <v>89.0</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C81" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="D81" s="43" t="s">
         <v>314</v>
-      </c>
-      <c r="D81" s="43" t="s">
-        <v>315</v>
       </c>
       <c r="E81" s="43" t="s">
         <v>35</v>
@@ -5119,10 +5116,10 @@
       </c>
       <c r="H81" s="23"/>
       <c r="K81" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L81" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="L81" s="10" t="s">
-        <v>317</v>
       </c>
       <c r="N81" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C81,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Ерошкина Мария Александровна")</f>
@@ -10288,22 +10285,22 @@
         <v>50</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -10312,84 +10309,84 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="P3" s="46" t="s">
         <v>319</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="P3" s="46" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="P4" s="14" t="s">
         <v>332</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5">
@@ -13400,7 +13397,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>0</v>
@@ -13421,7 +13418,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2">
@@ -13429,25 +13426,25 @@
         <v>102.0</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="E2" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="3">
@@ -13464,13 +13461,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>25</v>
@@ -13490,16 +13487,16 @@
         <v>34</v>
       </c>
       <c r="E4" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="H4" s="54" t="s">
         <v>338</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="5">
@@ -13516,13 +13513,13 @@
         <v>41</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>43</v>
@@ -13542,13 +13539,13 @@
         <v>52</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>54</v>
@@ -13568,13 +13565,13 @@
         <v>64</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>65</v>
@@ -13594,13 +13591,13 @@
         <v>69</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>70</v>
@@ -13611,25 +13608,25 @@
         <v>149.0</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>299</v>
-      </c>
       <c r="E9" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="H9" s="54" t="s">
         <v>340</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="10">
@@ -13637,25 +13634,25 @@
         <v>21.0</v>
       </c>
       <c r="B10" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>272</v>
-      </c>
       <c r="D10" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3027,12 +3027,12 @@
         <v>134</v>
       </c>
       <c r="N30" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C30,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кузнецов Артемий Вадимович")</f>
-        <v>Кузнецов Артемий Вадимович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C30,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Алексеев Александр Станиславович")</f>
+        <v>Алексеев Александр Станиславович</v>
       </c>
       <c r="O30" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="31">
@@ -4087,15 +4087,15 @@
       <c r="J56" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="K56" s="13" t="s">
-        <v>142</v>
+      <c r="K56" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="M56" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N56" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C56,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Кузнецов Артемий Вадимович")</f>
-        <v>Кузнецов Артемий Вадимович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C56,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Алексеев Александр Станиславович")</f>
+        <v>Алексеев Александр Станиславович</v>
       </c>
       <c r="O56" s="13" t="str">
         <f t="shared" si="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="340">
   <si>
     <t>Партнер</t>
   </si>
@@ -445,7 +445,7 @@
     <t>https://www.novikovgroup.ru/restaurants/detail/novikov-space-cafe/</t>
   </si>
   <si>
-    <t>Кузнецов Артемий Вадимович</t>
+    <t>Алексеев Александр Станиславович</t>
   </si>
   <si>
     <t>Сыроварня Вернадка</t>
@@ -487,7 +487,7 @@
     <t>https://artest.rest/</t>
   </si>
   <si>
-    <t>Уварова Екатерина Юрьевна</t>
+    <t>Левитан Дмитрий Анатольевич</t>
   </si>
   <si>
     <t>Pro Хинкали Черемушки</t>
@@ -566,9 +566,6 @@
   </si>
   <si>
     <t>г. Москва, МО</t>
-  </si>
-  <si>
-    <t>Алексеев Александр Станиславович</t>
   </si>
   <si>
     <t>Причал</t>
@@ -3032,7 +3029,7 @@
       </c>
       <c r="O30" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="31">
@@ -3207,8 +3204,8 @@
         <v>134</v>
       </c>
       <c r="N34" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Уварова Екатерина Юрьевна")</f>
-        <v>Уварова Екатерина Юрьевна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
+        <v>Левитан Дмитрий Анатольевич</v>
       </c>
       <c r="O34" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3553,7 +3550,7 @@
       </c>
       <c r="H42" s="23"/>
       <c r="K42" s="13" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="N42" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Алексеев Александр Станиславович")</f>
@@ -3572,10 +3569,10 @@
         <v>99</v>
       </c>
       <c r="C43" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>185</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>182</v>
@@ -3590,7 +3587,7 @@
       </c>
       <c r="H43" s="23"/>
       <c r="K43" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N43" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -3609,10 +3606,10 @@
         <v>99</v>
       </c>
       <c r="C44" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>187</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>188</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>182</v>
@@ -3646,13 +3643,13 @@
         <v>99</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="E45" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>191</v>
       </c>
       <c r="F45" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3664,7 +3661,7 @@
       </c>
       <c r="H45" s="23"/>
       <c r="K45" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N45" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Екатеринина Евгения Игоревна")</f>
@@ -3683,13 +3680,13 @@
         <v>99</v>
       </c>
       <c r="C46" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="E46" s="26" t="s">
         <v>194</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>195</v>
       </c>
       <c r="F46" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3701,7 +3698,7 @@
       </c>
       <c r="H46" s="23"/>
       <c r="K46" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N46" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Михайлова Елена Викторовна")</f>
@@ -3720,13 +3717,13 @@
         <v>99</v>
       </c>
       <c r="C47" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="E47" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>199</v>
       </c>
       <c r="F47" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3738,7 +3735,7 @@
       </c>
       <c r="H47" s="23"/>
       <c r="K47" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N47" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Горностаева Виктория Игоревна")</f>
@@ -3760,10 +3757,10 @@
         <v>100</v>
       </c>
       <c r="D48" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>201</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>202</v>
       </c>
       <c r="F48" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A48,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3775,7 +3772,7 @@
       </c>
       <c r="H48" s="23"/>
       <c r="K48" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N48" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A48,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Малафеева Ирина Константиновна")</f>
@@ -3794,10 +3791,10 @@
         <v>99</v>
       </c>
       <c r="C49" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>204</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>35</v>
@@ -3831,13 +3828,13 @@
         <v>99</v>
       </c>
       <c r="C50" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="E50" s="26" t="s">
         <v>207</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>208</v>
       </c>
       <c r="F50" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3849,7 +3846,7 @@
       </c>
       <c r="H50" s="23"/>
       <c r="K50" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N50" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -3868,13 +3865,13 @@
         <v>99</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="E51" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>212</v>
       </c>
       <c r="F51" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3886,7 +3883,7 @@
       </c>
       <c r="H51" s="23"/>
       <c r="K51" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N51" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Аборина Елена Сергеевна")</f>
@@ -3905,13 +3902,13 @@
         <v>99</v>
       </c>
       <c r="C52" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="E52" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>216</v>
       </c>
       <c r="F52" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3923,7 +3920,7 @@
       </c>
       <c r="H52" s="23"/>
       <c r="K52" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N52" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фаткуллина Дина Ирековна")</f>
@@ -3942,13 +3939,13 @@
         <v>99</v>
       </c>
       <c r="C53" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="E53" s="26" t="s">
         <v>219</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>220</v>
       </c>
       <c r="F53" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3960,7 +3957,7 @@
       </c>
       <c r="H53" s="23"/>
       <c r="K53" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N53" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -3979,13 +3976,13 @@
         <v>99</v>
       </c>
       <c r="C54" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="E54" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>224</v>
       </c>
       <c r="F54" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),4,0),"""")"),"Оффлайн")</f>
@@ -3999,7 +3996,7 @@
       <c r="I54" s="31"/>
       <c r="J54" s="31"/>
       <c r="K54" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L54" s="31"/>
       <c r="N54" s="13" t="str">
@@ -4016,13 +4013,13 @@
         <v>2.0</v>
       </c>
       <c r="B55" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="D55" s="32" t="s">
         <v>226</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>227</v>
       </c>
       <c r="E55" s="32" t="s">
         <v>16</v>
@@ -4037,13 +4034,13 @@
       </c>
       <c r="H55" s="23"/>
       <c r="J55" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K55" s="13" t="s">
         <v>30</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M55" s="10" t="s">
         <v>21</v>
@@ -4062,13 +4059,13 @@
         <v>31.0</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C56" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" s="32" t="s">
         <v>230</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>231</v>
       </c>
       <c r="E56" s="32" t="s">
         <v>16</v>
@@ -4085,10 +4082,10 @@
         <v>17</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="M56" s="10" t="s">
         <v>21</v>
@@ -4107,13 +4104,13 @@
         <v>106.0</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C57" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" s="32" t="s">
         <v>233</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>234</v>
       </c>
       <c r="E57" s="32" t="s">
         <v>16</v>
@@ -4130,13 +4127,13 @@
         <v>17</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K57" s="13" t="s">
         <v>98</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M57" s="33"/>
       <c r="N57" s="13" t="str">
@@ -4153,13 +4150,13 @@
         <v>118.0</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C58" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" s="32" t="s">
         <v>237</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>238</v>
       </c>
       <c r="E58" s="32" t="s">
         <v>16</v>
@@ -4176,7 +4173,7 @@
         <v>17</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>85</v>
@@ -4198,13 +4195,13 @@
         <v>121.0</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C59" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" s="32" t="s">
         <v>240</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>241</v>
       </c>
       <c r="E59" s="32" t="s">
         <v>16</v>
@@ -4219,7 +4216,7 @@
       </c>
       <c r="H59" s="23"/>
       <c r="J59" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K59" s="13" t="s">
         <v>90</v>
@@ -4239,16 +4236,16 @@
         <v>122.0</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C60" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="D60" s="32" t="s">
-        <v>244</v>
-      </c>
       <c r="E60" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F60" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4260,7 +4257,7 @@
       </c>
       <c r="H60" s="23"/>
       <c r="K60" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N60" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Махалова Анастасия Алексеевна")</f>
@@ -4276,16 +4273,16 @@
         <v>125.0</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C61" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="D61" s="32" t="s">
-        <v>247</v>
-      </c>
       <c r="E61" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F61" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A61,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4297,7 +4294,7 @@
       </c>
       <c r="H61" s="23"/>
       <c r="K61" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N61" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C61,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Язькова Александра Витальевна")</f>
@@ -4313,16 +4310,16 @@
         <v>39.0</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C62" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="E62" s="32" t="s">
         <v>250</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>251</v>
       </c>
       <c r="F62" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4334,7 +4331,7 @@
       </c>
       <c r="H62" s="23"/>
       <c r="K62" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N62" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Исаченко Мария Александровна")</f>
@@ -4350,13 +4347,13 @@
         <v>91.0</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C63" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="32" t="s">
         <v>253</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>254</v>
       </c>
       <c r="E63" s="32" t="s">
         <v>35</v>
@@ -4387,16 +4384,16 @@
         <v>43.0</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C64" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="D64" s="32" t="s">
-        <v>256</v>
-      </c>
       <c r="E64" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F64" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4408,7 +4405,7 @@
       </c>
       <c r="H64" s="23"/>
       <c r="K64" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N64" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4424,16 +4421,16 @@
         <v>151.0</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C65" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="D65" s="32" t="s">
-        <v>259</v>
-      </c>
       <c r="E65" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F65" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4445,7 +4442,7 @@
       </c>
       <c r="H65" s="23"/>
       <c r="K65" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N65" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4461,16 +4458,16 @@
         <v>54.0</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C66" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="E66" s="32" t="s">
         <v>261</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>262</v>
       </c>
       <c r="F66" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4482,7 +4479,7 @@
       </c>
       <c r="H66" s="23"/>
       <c r="K66" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N66" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Болотникова Анастасия Михайловна")</f>
@@ -4498,16 +4495,16 @@
         <v>108.0</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C67" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="D67" s="35" t="s">
-        <v>265</v>
-      </c>
       <c r="E67" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F67" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4538,16 +4535,16 @@
         <v>142.0</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C68" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="E68" s="35" t="s">
         <v>267</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>268</v>
       </c>
       <c r="F68" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4560,10 +4557,10 @@
       <c r="H68" s="31"/>
       <c r="I68" s="31"/>
       <c r="J68" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K68" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L68" s="31"/>
       <c r="N68" s="13" t="str">
@@ -4580,13 +4577,13 @@
         <v>102.0</v>
       </c>
       <c r="B69" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="D69" s="38" t="s">
         <v>271</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>272</v>
       </c>
       <c r="E69" s="38" t="s">
         <v>109</v>
@@ -4601,13 +4598,13 @@
       </c>
       <c r="H69" s="23"/>
       <c r="J69" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>110</v>
       </c>
       <c r="L69" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N69" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C69,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фишкин Сергей Анатольевич")</f>
@@ -4623,16 +4620,16 @@
         <v>19.0</v>
       </c>
       <c r="B70" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="C70" s="38" t="s">
-        <v>271</v>
-      </c>
       <c r="D70" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" s="38" t="s">
         <v>275</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>276</v>
       </c>
       <c r="F70" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4644,7 +4641,7 @@
       </c>
       <c r="H70" s="23"/>
       <c r="K70" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N70" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Хакимзянова Диана Фаридовна")</f>
@@ -4660,16 +4657,16 @@
         <v>83.0</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C71" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="E71" s="38" t="s">
         <v>279</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>280</v>
       </c>
       <c r="F71" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4681,10 +4678,10 @@
       </c>
       <c r="H71" s="23"/>
       <c r="K71" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N71" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4700,13 +4697,13 @@
         <v>56.0</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C72" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="D72" s="38" t="s">
         <v>282</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>283</v>
       </c>
       <c r="E72" s="38" t="s">
         <v>16</v>
@@ -4721,13 +4718,13 @@
       </c>
       <c r="H72" s="23"/>
       <c r="J72" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K72" s="13" t="s">
         <v>90</v>
       </c>
       <c r="L72" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M72" s="10" t="s">
         <v>21</v>
@@ -4746,13 +4743,13 @@
         <v>61.0</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C73" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="38" t="s">
         <v>286</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>287</v>
       </c>
       <c r="E73" s="38" t="s">
         <v>16</v>
@@ -4770,20 +4767,20 @@
       </c>
       <c r="I73" s="14"/>
       <c r="J73" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K73" s="13" t="s">
         <v>156</v>
       </c>
       <c r="L73" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M73" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N73" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C73,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Уварова Екатерина Юрьевна")</f>
-        <v>Уварова Екатерина Юрьевна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C73,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
+        <v>Левитан Дмитрий Анатольевич</v>
       </c>
       <c r="O73" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4795,13 +4792,13 @@
         <v>79.0</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C74" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" s="38" t="s">
         <v>290</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>291</v>
       </c>
       <c r="E74" s="38" t="s">
         <v>16</v>
@@ -4816,16 +4813,16 @@
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="J74" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="J74" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="K74" s="13" t="s">
         <v>172</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M74" s="10" t="s">
         <v>21</v>
@@ -4844,16 +4841,16 @@
         <v>98.0</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C75" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="D75" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="E75" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F75" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4865,7 +4862,7 @@
       </c>
       <c r="H75" s="23"/>
       <c r="K75" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N75" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4881,16 +4878,16 @@
         <v>149.0</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C76" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="D76" s="38" t="s">
-        <v>298</v>
-      </c>
       <c r="E76" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F76" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Доставка")</f>
@@ -4902,13 +4899,13 @@
       </c>
       <c r="H76" s="23"/>
       <c r="J76" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L76" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N76" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4924,16 +4921,16 @@
         <v>21.0</v>
       </c>
       <c r="B77" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C77" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C77" s="40" t="s">
-        <v>271</v>
-      </c>
       <c r="D77" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F77" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Доставка")</f>
@@ -4945,16 +4942,16 @@
       </c>
       <c r="H77" s="31"/>
       <c r="I77" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="J77" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="J77" s="36" t="s">
+      <c r="K77" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="L77" s="42" t="s">
         <v>302</v>
-      </c>
-      <c r="K77" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="L77" s="42" t="s">
-        <v>303</v>
       </c>
       <c r="N77" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -4970,13 +4967,13 @@
         <v>86.0</v>
       </c>
       <c r="B78" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="C78" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="D78" s="43" t="s">
         <v>305</v>
-      </c>
-      <c r="D78" s="43" t="s">
-        <v>306</v>
       </c>
       <c r="E78" s="43" t="s">
         <v>16</v>
@@ -4993,7 +4990,7 @@
         <v>17</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K78" s="13" t="s">
         <v>172</v>
@@ -5015,13 +5012,13 @@
         <v>160.0</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C79" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" s="43" t="s">
         <v>308</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>309</v>
       </c>
       <c r="E79" s="43" t="s">
         <v>16</v>
@@ -5038,7 +5035,7 @@
         <v>17</v>
       </c>
       <c r="J79" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K79" s="13" t="s">
         <v>90</v>
@@ -5058,13 +5055,13 @@
         <v>24.0</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C80" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="D80" s="43" t="s">
         <v>311</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>312</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>35</v>
@@ -5095,13 +5092,13 @@
         <v>89.0</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C81" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="D81" s="43" t="s">
         <v>313</v>
-      </c>
-      <c r="D81" s="43" t="s">
-        <v>314</v>
       </c>
       <c r="E81" s="43" t="s">
         <v>35</v>
@@ -5116,10 +5113,10 @@
       </c>
       <c r="H81" s="23"/>
       <c r="K81" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="L81" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="L81" s="10" t="s">
-        <v>316</v>
       </c>
       <c r="N81" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C81,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Ерошкина Мария Александровна")</f>
@@ -10291,16 +10288,16 @@
         <v>99</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -10309,84 +10306,84 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="P3" s="46" t="s">
         <v>318</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="P3" s="46" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="P4" s="14" t="s">
         <v>331</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5">
@@ -13397,7 +13394,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>0</v>
@@ -13418,7 +13415,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
@@ -13426,25 +13423,25 @@
         <v>102.0</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="E2" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>272</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3">
@@ -13461,13 +13458,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>25</v>
@@ -13487,16 +13484,16 @@
         <v>34</v>
       </c>
       <c r="E4" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="H4" s="54" t="s">
         <v>337</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="5">
@@ -13513,13 +13510,13 @@
         <v>41</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>43</v>
@@ -13539,13 +13536,13 @@
         <v>52</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>54</v>
@@ -13565,13 +13562,13 @@
         <v>64</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>65</v>
@@ -13591,13 +13588,13 @@
         <v>69</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>70</v>
@@ -13608,25 +13605,25 @@
         <v>149.0</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>298</v>
-      </c>
       <c r="E9" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="54" t="s">
         <v>339</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="10">
@@ -13634,25 +13631,25 @@
         <v>21.0</v>
       </c>
       <c r="B10" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>271</v>
-      </c>
       <c r="D10" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -478,7 +478,7 @@
     <t>https://mrlee.ru/</t>
   </si>
   <si>
-    <t>ARTEST</t>
+    <t>Luigi’s Garden  (бывш.ARTEST)</t>
   </si>
   <si>
     <t>г. Москва, Трубниковский переулок, д. 15, стр. 2</t>
@@ -1284,7 +1284,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1369,6 +1369,9 @@
     </xf>
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3176,16 +3179,16 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8">
+      <c r="A34" s="15">
         <v>58.0</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="29" t="s">
         <v>154</v>
       </c>
       <c r="E34" s="28" t="s">
@@ -3212,12 +3215,12 @@
         <v>134</v>
       </c>
       <c r="N34" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"")</f>
-        <v/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
+        <v>Левитан Дмитрий Анатольевич</v>
       </c>
       <c r="O34" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="35">
@@ -3742,7 +3745,7 @@
         <v>волна 1</v>
       </c>
       <c r="H47" s="25"/>
-      <c r="K47" s="29" t="s">
+      <c r="K47" s="30" t="s">
         <v>200</v>
       </c>
       <c r="N47" s="13" t="str">
@@ -3977,19 +3980,19 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="30">
+      <c r="A54" s="31">
         <v>62.0</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="32" t="s">
         <v>224</v>
       </c>
       <c r="F54" s="10" t="str">
@@ -4000,13 +4003,13 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),5,0),"""")"),"волна 1")</f>
         <v>волна 1</v>
       </c>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33" t="s">
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="L54" s="33"/>
+      <c r="L54" s="34"/>
       <c r="N54" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Солнышкина Татьяна Александровна")</f>
         <v>Солнышкина Татьяна Александровна</v>
@@ -4020,16 +4023,16 @@
       <c r="A55" s="8">
         <v>2.0</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="35" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="10" t="str">
@@ -4066,16 +4069,16 @@
       <c r="A56" s="8">
         <v>31.0</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="35" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="10" t="str">
@@ -4111,16 +4114,16 @@
       <c r="A57" s="8">
         <v>106.0</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="35" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="10" t="str">
@@ -4143,7 +4146,7 @@
       <c r="L57" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="M57" s="35"/>
+      <c r="M57" s="36"/>
       <c r="N57" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C57,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Желязко Дмитрий Викторович")</f>
         <v>Желязко Дмитрий Викторович</v>
@@ -4157,16 +4160,16 @@
       <c r="A58" s="8">
         <v>118.0</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="35" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="10" t="str">
@@ -4202,16 +4205,16 @@
       <c r="A59" s="8">
         <v>121.0</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="35" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="10" t="str">
@@ -4229,7 +4232,7 @@
       <c r="K59" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="M59" s="35"/>
+      <c r="M59" s="36"/>
       <c r="N59" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C59,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Репилов Иван Викторович")</f>
         <v>Репилов Иван Викторович</v>
@@ -4243,16 +4246,16 @@
       <c r="A60" s="8">
         <v>122.0</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="35" t="s">
         <v>191</v>
       </c>
       <c r="F60" s="10" t="str">
@@ -4280,16 +4283,16 @@
       <c r="A61" s="8">
         <v>125.0</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="35" t="s">
         <v>195</v>
       </c>
       <c r="F61" s="10" t="str">
@@ -4317,16 +4320,16 @@
       <c r="A62" s="8">
         <v>39.0</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D62" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E62" s="35" t="s">
         <v>251</v>
       </c>
       <c r="F62" s="10" t="str">
@@ -4354,16 +4357,16 @@
       <c r="A63" s="8">
         <v>91.0</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="E63" s="34" t="s">
+      <c r="E63" s="35" t="s">
         <v>35</v>
       </c>
       <c r="F63" s="10" t="str">
@@ -4391,16 +4394,16 @@
       <c r="A64" s="8">
         <v>43.0</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F64" s="10" t="str">
@@ -4428,16 +4431,16 @@
       <c r="A65" s="8">
         <v>151.0</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F65" s="10" t="str">
@@ -4465,16 +4468,16 @@
       <c r="A66" s="8">
         <v>54.0</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="35" t="s">
         <v>262</v>
       </c>
       <c r="F66" s="10" t="str">
@@ -4499,19 +4502,19 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="30">
+      <c r="A67" s="31">
         <v>108.0</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="D67" s="36" t="s">
+      <c r="D67" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="37" t="s">
         <v>224</v>
       </c>
       <c r="F67" s="10" t="str">
@@ -4522,13 +4525,13 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),5,0),"""")"),"волна 1")</f>
         <v>волна 1</v>
       </c>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33" t="s">
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="L67" s="33"/>
+      <c r="L67" s="34"/>
       <c r="N67" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Янина Полина Олеговна")</f>
         <v>Янина Полина Олеговна</v>
@@ -4539,19 +4542,19 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="30">
+      <c r="A68" s="31">
         <v>142.0</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="D68" s="36" t="s">
+      <c r="D68" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="E68" s="36" t="s">
+      <c r="E68" s="37" t="s">
         <v>268</v>
       </c>
       <c r="F68" s="10" t="str">
@@ -4562,15 +4565,15 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),5,0),"""")"),"волна 1")</f>
         <v>волна 1</v>
       </c>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="37" t="s">
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="K68" s="38" t="s">
+      <c r="K68" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="L68" s="33"/>
+      <c r="L68" s="34"/>
       <c r="N68" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Малафеева Ирина Константиновна")</f>
         <v>Малафеева Ирина Константиновна</v>
@@ -4584,16 +4587,16 @@
       <c r="A69" s="8">
         <v>102.0</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C69" s="39" t="s">
+      <c r="C69" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="D69" s="39" t="s">
+      <c r="D69" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="40" t="s">
         <v>109</v>
       </c>
       <c r="F69" s="10" t="str">
@@ -4605,13 +4608,13 @@
         <v>волна 1</v>
       </c>
       <c r="H69" s="25"/>
-      <c r="J69" s="37" t="s">
+      <c r="J69" s="38" t="s">
         <v>273</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="L69" s="40" t="s">
+      <c r="L69" s="41" t="s">
         <v>274</v>
       </c>
       <c r="N69" s="13" t="str">
@@ -4627,16 +4630,16 @@
       <c r="A70" s="8">
         <v>19.0</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C70" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="40" t="s">
         <v>276</v>
       </c>
       <c r="F70" s="10" t="str">
@@ -4664,16 +4667,16 @@
       <c r="A71" s="8">
         <v>83.0</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C71" s="39" t="s">
+      <c r="C71" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="D71" s="39" t="s">
+      <c r="D71" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="40" t="s">
         <v>280</v>
       </c>
       <c r="F71" s="10" t="str">
@@ -4704,16 +4707,16 @@
       <c r="A72" s="8">
         <v>56.0</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="E72" s="39" t="s">
+      <c r="E72" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="10" t="str">
@@ -4750,16 +4753,16 @@
       <c r="A73" s="8">
         <v>61.0</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F73" s="10" t="str">
@@ -4799,16 +4802,16 @@
       <c r="A74" s="8">
         <v>79.0</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="D74" s="39" t="s">
+      <c r="D74" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="E74" s="39" t="s">
+      <c r="E74" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="10" t="str">
@@ -4848,16 +4851,16 @@
       <c r="A75" s="8">
         <v>98.0</v>
       </c>
-      <c r="B75" s="39" t="s">
+      <c r="B75" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="D75" s="39" t="s">
+      <c r="D75" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="40" t="s">
         <v>208</v>
       </c>
       <c r="F75" s="10" t="str">
@@ -4885,16 +4888,16 @@
       <c r="A76" s="8">
         <v>149.0</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="D76" s="39" t="s">
+      <c r="D76" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="E76" s="39" t="s">
+      <c r="E76" s="40" t="s">
         <v>208</v>
       </c>
       <c r="F76" s="10" t="str">
@@ -4906,13 +4909,13 @@
         <v>волна 1</v>
       </c>
       <c r="H76" s="25"/>
-      <c r="J76" s="37" t="s">
+      <c r="J76" s="38" t="s">
         <v>299</v>
       </c>
       <c r="K76" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="L76" s="40" t="s">
+      <c r="L76" s="41" t="s">
         <v>274</v>
       </c>
       <c r="N76" s="13" t="str">
@@ -4925,19 +4928,19 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="30">
+      <c r="A77" s="31">
         <v>21.0</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C77" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="D77" s="41" t="s">
+      <c r="D77" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="E77" s="41" t="s">
+      <c r="E77" s="42" t="s">
         <v>224</v>
       </c>
       <c r="F77" s="10" t="str">
@@ -4948,17 +4951,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),5,0),"""")"),"волна 1")</f>
         <v>волна 1</v>
       </c>
-      <c r="H77" s="33"/>
-      <c r="I77" s="42" t="s">
+      <c r="H77" s="34"/>
+      <c r="I77" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="J77" s="37" t="s">
+      <c r="J77" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="K77" s="33" t="s">
+      <c r="K77" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="L77" s="43" t="s">
+      <c r="L77" s="44" t="s">
         <v>303</v>
       </c>
       <c r="N77" s="13" t="str">
@@ -4974,16 +4977,16 @@
       <c r="A78" s="8">
         <v>86.0</v>
       </c>
-      <c r="B78" s="44" t="s">
+      <c r="B78" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="D78" s="44" t="s">
+      <c r="D78" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="E78" s="44" t="s">
+      <c r="E78" s="45" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="10" t="str">
@@ -5019,16 +5022,16 @@
       <c r="A79" s="8">
         <v>160.0</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="C79" s="44" t="s">
+      <c r="C79" s="45" t="s">
         <v>308</v>
       </c>
-      <c r="D79" s="44" t="s">
+      <c r="D79" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="E79" s="44" t="s">
+      <c r="E79" s="45" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="10" t="str">
@@ -5048,7 +5051,7 @@
       <c r="K79" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="M79" s="35"/>
+      <c r="M79" s="36"/>
       <c r="N79" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C79,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Репилов Иван Викторович")</f>
         <v>Репилов Иван Викторович</v>
@@ -5062,16 +5065,16 @@
       <c r="A80" s="18">
         <v>24.0</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B80" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="C80" s="44" t="s">
+      <c r="C80" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="D80" s="44" t="s">
+      <c r="D80" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="E80" s="44" t="s">
+      <c r="E80" s="45" t="s">
         <v>35</v>
       </c>
       <c r="F80" s="10" t="str">
@@ -5099,16 +5102,16 @@
       <c r="A81" s="8">
         <v>89.0</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B81" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="C81" s="44" t="s">
+      <c r="C81" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="D81" s="44" t="s">
+      <c r="D81" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="E81" s="44" t="s">
+      <c r="E81" s="45" t="s">
         <v>35</v>
       </c>
       <c r="F81" s="10" t="str">
@@ -5136,5019 +5139,5019 @@
       </c>
     </row>
     <row r="82">
-      <c r="F82" s="45"/>
-      <c r="G82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="47"/>
       <c r="H82" s="25"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="45"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
     </row>
     <row r="83">
-      <c r="F83" s="45"/>
-      <c r="G83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="47"/>
       <c r="H83" s="25"/>
-      <c r="K83" s="45"/>
-      <c r="L83" s="45"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
     </row>
     <row r="84">
-      <c r="F84" s="45"/>
-      <c r="G84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="47"/>
       <c r="H84" s="25"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="45"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
     </row>
     <row r="85">
-      <c r="F85" s="45"/>
-      <c r="G85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="47"/>
       <c r="H85" s="25"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="45"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
     </row>
     <row r="86">
-      <c r="F86" s="45"/>
-      <c r="G86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="47"/>
       <c r="H86" s="25"/>
-      <c r="K86" s="45"/>
-      <c r="L86" s="45"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
     </row>
     <row r="87">
-      <c r="G87" s="46"/>
+      <c r="G87" s="47"/>
       <c r="H87" s="25"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="45"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
     </row>
     <row r="88">
-      <c r="G88" s="46"/>
+      <c r="G88" s="47"/>
       <c r="H88" s="25"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="45"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
     </row>
     <row r="89">
-      <c r="G89" s="46"/>
+      <c r="G89" s="47"/>
       <c r="H89" s="25"/>
-      <c r="K89" s="45"/>
-      <c r="L89" s="45"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
     </row>
     <row r="90">
-      <c r="G90" s="46"/>
+      <c r="G90" s="47"/>
       <c r="H90" s="25"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="45"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
     </row>
     <row r="91">
-      <c r="G91" s="46"/>
+      <c r="G91" s="47"/>
       <c r="H91" s="25"/>
-      <c r="K91" s="45"/>
-      <c r="L91" s="45"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
     </row>
     <row r="92">
-      <c r="G92" s="46"/>
+      <c r="G92" s="47"/>
       <c r="H92" s="25"/>
-      <c r="K92" s="45"/>
-      <c r="L92" s="45"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
     </row>
     <row r="93">
-      <c r="G93" s="46"/>
+      <c r="G93" s="47"/>
       <c r="H93" s="25"/>
-      <c r="K93" s="45"/>
-      <c r="L93" s="45"/>
+      <c r="K93" s="46"/>
+      <c r="L93" s="46"/>
     </row>
     <row r="94">
-      <c r="G94" s="46"/>
+      <c r="G94" s="47"/>
       <c r="H94" s="25"/>
-      <c r="K94" s="45"/>
-      <c r="L94" s="45"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="46"/>
     </row>
     <row r="95">
-      <c r="G95" s="46"/>
+      <c r="G95" s="47"/>
       <c r="H95" s="25"/>
-      <c r="K95" s="45"/>
-      <c r="L95" s="45"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
     </row>
     <row r="96">
-      <c r="G96" s="46"/>
+      <c r="G96" s="47"/>
       <c r="H96" s="25"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="45"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
     </row>
     <row r="97">
-      <c r="G97" s="46"/>
+      <c r="G97" s="47"/>
       <c r="H97" s="25"/>
-      <c r="K97" s="45"/>
-      <c r="L97" s="45"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
     </row>
     <row r="98">
-      <c r="G98" s="46"/>
+      <c r="G98" s="47"/>
       <c r="H98" s="25"/>
-      <c r="K98" s="45"/>
-      <c r="L98" s="45"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
     </row>
     <row r="99">
-      <c r="G99" s="46"/>
+      <c r="G99" s="47"/>
       <c r="H99" s="25"/>
-      <c r="K99" s="45"/>
-      <c r="L99" s="45"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
     </row>
     <row r="100">
-      <c r="G100" s="46"/>
+      <c r="G100" s="47"/>
       <c r="H100" s="25"/>
-      <c r="K100" s="45"/>
-      <c r="L100" s="45"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
     </row>
     <row r="101">
-      <c r="G101" s="46"/>
+      <c r="G101" s="47"/>
       <c r="H101" s="25"/>
-      <c r="K101" s="45"/>
-      <c r="L101" s="45"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="46"/>
     </row>
     <row r="102">
-      <c r="G102" s="46"/>
+      <c r="G102" s="47"/>
       <c r="H102" s="25"/>
-      <c r="K102" s="45"/>
-      <c r="L102" s="45"/>
+      <c r="K102" s="46"/>
+      <c r="L102" s="46"/>
     </row>
     <row r="103">
-      <c r="G103" s="46"/>
+      <c r="G103" s="47"/>
       <c r="H103" s="25"/>
-      <c r="K103" s="45"/>
-      <c r="L103" s="45"/>
+      <c r="K103" s="46"/>
+      <c r="L103" s="46"/>
     </row>
     <row r="104">
-      <c r="G104" s="46"/>
+      <c r="G104" s="47"/>
       <c r="H104" s="25"/>
-      <c r="K104" s="45"/>
-      <c r="L104" s="45"/>
+      <c r="K104" s="46"/>
+      <c r="L104" s="46"/>
     </row>
     <row r="105">
-      <c r="G105" s="46"/>
+      <c r="G105" s="47"/>
       <c r="H105" s="25"/>
-      <c r="K105" s="45"/>
-      <c r="L105" s="45"/>
+      <c r="K105" s="46"/>
+      <c r="L105" s="46"/>
     </row>
     <row r="106">
-      <c r="G106" s="46"/>
+      <c r="G106" s="47"/>
       <c r="H106" s="25"/>
-      <c r="K106" s="45"/>
-      <c r="L106" s="45"/>
+      <c r="K106" s="46"/>
+      <c r="L106" s="46"/>
     </row>
     <row r="107">
-      <c r="G107" s="46"/>
+      <c r="G107" s="47"/>
       <c r="H107" s="25"/>
-      <c r="K107" s="45"/>
-      <c r="L107" s="45"/>
+      <c r="K107" s="46"/>
+      <c r="L107" s="46"/>
     </row>
     <row r="108">
-      <c r="G108" s="46"/>
+      <c r="G108" s="47"/>
       <c r="H108" s="25"/>
-      <c r="K108" s="45"/>
-      <c r="L108" s="45"/>
+      <c r="K108" s="46"/>
+      <c r="L108" s="46"/>
     </row>
     <row r="109">
-      <c r="G109" s="46"/>
+      <c r="G109" s="47"/>
       <c r="H109" s="25"/>
-      <c r="K109" s="45"/>
-      <c r="L109" s="45"/>
+      <c r="K109" s="46"/>
+      <c r="L109" s="46"/>
     </row>
     <row r="110">
-      <c r="G110" s="46"/>
+      <c r="G110" s="47"/>
       <c r="H110" s="25"/>
-      <c r="K110" s="45"/>
-      <c r="L110" s="45"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="46"/>
     </row>
     <row r="111">
-      <c r="G111" s="46"/>
+      <c r="G111" s="47"/>
       <c r="H111" s="25"/>
-      <c r="K111" s="45"/>
-      <c r="L111" s="45"/>
+      <c r="K111" s="46"/>
+      <c r="L111" s="46"/>
     </row>
     <row r="112">
-      <c r="G112" s="46"/>
+      <c r="G112" s="47"/>
       <c r="H112" s="25"/>
-      <c r="K112" s="45"/>
-      <c r="L112" s="45"/>
+      <c r="K112" s="46"/>
+      <c r="L112" s="46"/>
     </row>
     <row r="113">
-      <c r="G113" s="46"/>
+      <c r="G113" s="47"/>
       <c r="H113" s="25"/>
-      <c r="K113" s="45"/>
-      <c r="L113" s="45"/>
+      <c r="K113" s="46"/>
+      <c r="L113" s="46"/>
     </row>
     <row r="114">
-      <c r="G114" s="46"/>
+      <c r="G114" s="47"/>
       <c r="H114" s="25"/>
-      <c r="K114" s="45"/>
-      <c r="L114" s="45"/>
+      <c r="K114" s="46"/>
+      <c r="L114" s="46"/>
     </row>
     <row r="115">
-      <c r="G115" s="46"/>
+      <c r="G115" s="47"/>
       <c r="H115" s="25"/>
-      <c r="K115" s="45"/>
-      <c r="L115" s="45"/>
+      <c r="K115" s="46"/>
+      <c r="L115" s="46"/>
     </row>
     <row r="116">
-      <c r="G116" s="46"/>
+      <c r="G116" s="47"/>
       <c r="H116" s="25"/>
-      <c r="K116" s="45"/>
-      <c r="L116" s="45"/>
+      <c r="K116" s="46"/>
+      <c r="L116" s="46"/>
     </row>
     <row r="117">
-      <c r="G117" s="46"/>
+      <c r="G117" s="47"/>
       <c r="H117" s="25"/>
-      <c r="K117" s="45"/>
-      <c r="L117" s="45"/>
+      <c r="K117" s="46"/>
+      <c r="L117" s="46"/>
     </row>
     <row r="118">
-      <c r="G118" s="46"/>
+      <c r="G118" s="47"/>
       <c r="H118" s="25"/>
-      <c r="K118" s="45"/>
-      <c r="L118" s="45"/>
+      <c r="K118" s="46"/>
+      <c r="L118" s="46"/>
     </row>
     <row r="119">
-      <c r="G119" s="46"/>
+      <c r="G119" s="47"/>
       <c r="H119" s="25"/>
-      <c r="K119" s="45"/>
-      <c r="L119" s="45"/>
+      <c r="K119" s="46"/>
+      <c r="L119" s="46"/>
     </row>
     <row r="120">
-      <c r="G120" s="46"/>
+      <c r="G120" s="47"/>
       <c r="H120" s="25"/>
-      <c r="K120" s="45"/>
-      <c r="L120" s="45"/>
+      <c r="K120" s="46"/>
+      <c r="L120" s="46"/>
     </row>
     <row r="121">
-      <c r="G121" s="46"/>
+      <c r="G121" s="47"/>
       <c r="H121" s="25"/>
-      <c r="K121" s="45"/>
-      <c r="L121" s="45"/>
+      <c r="K121" s="46"/>
+      <c r="L121" s="46"/>
     </row>
     <row r="122">
-      <c r="G122" s="46"/>
+      <c r="G122" s="47"/>
       <c r="H122" s="25"/>
-      <c r="K122" s="45"/>
-      <c r="L122" s="45"/>
+      <c r="K122" s="46"/>
+      <c r="L122" s="46"/>
     </row>
     <row r="123">
-      <c r="G123" s="46"/>
+      <c r="G123" s="47"/>
       <c r="H123" s="25"/>
-      <c r="K123" s="45"/>
-      <c r="L123" s="45"/>
+      <c r="K123" s="46"/>
+      <c r="L123" s="46"/>
     </row>
     <row r="124">
-      <c r="G124" s="46"/>
+      <c r="G124" s="47"/>
       <c r="H124" s="25"/>
-      <c r="K124" s="45"/>
-      <c r="L124" s="45"/>
+      <c r="K124" s="46"/>
+      <c r="L124" s="46"/>
     </row>
     <row r="125">
-      <c r="G125" s="46"/>
+      <c r="G125" s="47"/>
       <c r="H125" s="25"/>
-      <c r="K125" s="45"/>
-      <c r="L125" s="45"/>
+      <c r="K125" s="46"/>
+      <c r="L125" s="46"/>
     </row>
     <row r="126">
-      <c r="G126" s="46"/>
+      <c r="G126" s="47"/>
       <c r="H126" s="25"/>
-      <c r="K126" s="45"/>
-      <c r="L126" s="45"/>
+      <c r="K126" s="46"/>
+      <c r="L126" s="46"/>
     </row>
     <row r="127">
-      <c r="G127" s="46"/>
+      <c r="G127" s="47"/>
       <c r="H127" s="25"/>
-      <c r="K127" s="45"/>
-      <c r="L127" s="45"/>
+      <c r="K127" s="46"/>
+      <c r="L127" s="46"/>
     </row>
     <row r="128">
-      <c r="G128" s="46"/>
+      <c r="G128" s="47"/>
       <c r="H128" s="25"/>
-      <c r="K128" s="45"/>
-      <c r="L128" s="45"/>
+      <c r="K128" s="46"/>
+      <c r="L128" s="46"/>
     </row>
     <row r="129">
-      <c r="G129" s="46"/>
+      <c r="G129" s="47"/>
       <c r="H129" s="25"/>
-      <c r="K129" s="45"/>
-      <c r="L129" s="45"/>
+      <c r="K129" s="46"/>
+      <c r="L129" s="46"/>
     </row>
     <row r="130">
-      <c r="G130" s="46"/>
+      <c r="G130" s="47"/>
       <c r="H130" s="25"/>
-      <c r="K130" s="45"/>
-      <c r="L130" s="45"/>
+      <c r="K130" s="46"/>
+      <c r="L130" s="46"/>
     </row>
     <row r="131">
-      <c r="G131" s="46"/>
+      <c r="G131" s="47"/>
       <c r="H131" s="25"/>
-      <c r="K131" s="45"/>
-      <c r="L131" s="45"/>
+      <c r="K131" s="46"/>
+      <c r="L131" s="46"/>
     </row>
     <row r="132">
-      <c r="G132" s="46"/>
+      <c r="G132" s="47"/>
       <c r="H132" s="25"/>
-      <c r="K132" s="45"/>
-      <c r="L132" s="45"/>
+      <c r="K132" s="46"/>
+      <c r="L132" s="46"/>
     </row>
     <row r="133">
-      <c r="G133" s="46"/>
+      <c r="G133" s="47"/>
       <c r="H133" s="25"/>
-      <c r="K133" s="45"/>
-      <c r="L133" s="45"/>
+      <c r="K133" s="46"/>
+      <c r="L133" s="46"/>
     </row>
     <row r="134">
-      <c r="G134" s="46"/>
+      <c r="G134" s="47"/>
       <c r="H134" s="25"/>
-      <c r="K134" s="45"/>
-      <c r="L134" s="45"/>
+      <c r="K134" s="46"/>
+      <c r="L134" s="46"/>
     </row>
     <row r="135">
-      <c r="G135" s="46"/>
+      <c r="G135" s="47"/>
       <c r="H135" s="25"/>
-      <c r="K135" s="45"/>
-      <c r="L135" s="45"/>
+      <c r="K135" s="46"/>
+      <c r="L135" s="46"/>
     </row>
     <row r="136">
-      <c r="G136" s="46"/>
+      <c r="G136" s="47"/>
       <c r="H136" s="25"/>
-      <c r="K136" s="45"/>
-      <c r="L136" s="45"/>
+      <c r="K136" s="46"/>
+      <c r="L136" s="46"/>
     </row>
     <row r="137">
-      <c r="G137" s="46"/>
+      <c r="G137" s="47"/>
       <c r="H137" s="25"/>
-      <c r="K137" s="45"/>
-      <c r="L137" s="45"/>
+      <c r="K137" s="46"/>
+      <c r="L137" s="46"/>
     </row>
     <row r="138">
-      <c r="G138" s="46"/>
+      <c r="G138" s="47"/>
       <c r="H138" s="25"/>
-      <c r="K138" s="45"/>
-      <c r="L138" s="45"/>
+      <c r="K138" s="46"/>
+      <c r="L138" s="46"/>
     </row>
     <row r="139">
-      <c r="G139" s="46"/>
+      <c r="G139" s="47"/>
       <c r="H139" s="25"/>
-      <c r="K139" s="45"/>
-      <c r="L139" s="45"/>
+      <c r="K139" s="46"/>
+      <c r="L139" s="46"/>
     </row>
     <row r="140">
-      <c r="G140" s="46"/>
+      <c r="G140" s="47"/>
       <c r="H140" s="25"/>
-      <c r="K140" s="45"/>
-      <c r="L140" s="45"/>
+      <c r="K140" s="46"/>
+      <c r="L140" s="46"/>
     </row>
     <row r="141">
-      <c r="G141" s="46"/>
+      <c r="G141" s="47"/>
       <c r="H141" s="25"/>
-      <c r="K141" s="45"/>
-      <c r="L141" s="45"/>
+      <c r="K141" s="46"/>
+      <c r="L141" s="46"/>
     </row>
     <row r="142">
-      <c r="G142" s="46"/>
+      <c r="G142" s="47"/>
       <c r="H142" s="25"/>
-      <c r="K142" s="45"/>
-      <c r="L142" s="45"/>
+      <c r="K142" s="46"/>
+      <c r="L142" s="46"/>
     </row>
     <row r="143">
-      <c r="G143" s="46"/>
+      <c r="G143" s="47"/>
       <c r="H143" s="25"/>
-      <c r="K143" s="45"/>
-      <c r="L143" s="45"/>
+      <c r="K143" s="46"/>
+      <c r="L143" s="46"/>
     </row>
     <row r="144">
-      <c r="G144" s="46"/>
+      <c r="G144" s="47"/>
       <c r="H144" s="25"/>
-      <c r="K144" s="45"/>
-      <c r="L144" s="45"/>
+      <c r="K144" s="46"/>
+      <c r="L144" s="46"/>
     </row>
     <row r="145">
-      <c r="G145" s="46"/>
+      <c r="G145" s="47"/>
       <c r="H145" s="25"/>
-      <c r="K145" s="45"/>
-      <c r="L145" s="45"/>
+      <c r="K145" s="46"/>
+      <c r="L145" s="46"/>
     </row>
     <row r="146">
-      <c r="G146" s="46"/>
+      <c r="G146" s="47"/>
       <c r="H146" s="25"/>
-      <c r="K146" s="45"/>
-      <c r="L146" s="45"/>
+      <c r="K146" s="46"/>
+      <c r="L146" s="46"/>
     </row>
     <row r="147">
-      <c r="G147" s="46"/>
+      <c r="G147" s="47"/>
       <c r="H147" s="25"/>
-      <c r="K147" s="45"/>
-      <c r="L147" s="45"/>
+      <c r="K147" s="46"/>
+      <c r="L147" s="46"/>
     </row>
     <row r="148">
-      <c r="G148" s="46"/>
+      <c r="G148" s="47"/>
       <c r="H148" s="25"/>
-      <c r="K148" s="45"/>
-      <c r="L148" s="45"/>
+      <c r="K148" s="46"/>
+      <c r="L148" s="46"/>
     </row>
     <row r="149">
-      <c r="G149" s="46"/>
+      <c r="G149" s="47"/>
       <c r="H149" s="25"/>
-      <c r="K149" s="45"/>
-      <c r="L149" s="45"/>
+      <c r="K149" s="46"/>
+      <c r="L149" s="46"/>
     </row>
     <row r="150">
-      <c r="G150" s="46"/>
+      <c r="G150" s="47"/>
       <c r="H150" s="25"/>
-      <c r="K150" s="45"/>
-      <c r="L150" s="45"/>
+      <c r="K150" s="46"/>
+      <c r="L150" s="46"/>
     </row>
     <row r="151">
-      <c r="G151" s="46"/>
+      <c r="G151" s="47"/>
       <c r="H151" s="25"/>
-      <c r="K151" s="45"/>
-      <c r="L151" s="45"/>
+      <c r="K151" s="46"/>
+      <c r="L151" s="46"/>
     </row>
     <row r="152">
-      <c r="G152" s="46"/>
+      <c r="G152" s="47"/>
       <c r="H152" s="25"/>
-      <c r="K152" s="45"/>
-      <c r="L152" s="45"/>
+      <c r="K152" s="46"/>
+      <c r="L152" s="46"/>
     </row>
     <row r="153">
-      <c r="G153" s="46"/>
+      <c r="G153" s="47"/>
       <c r="H153" s="25"/>
-      <c r="K153" s="45"/>
-      <c r="L153" s="45"/>
+      <c r="K153" s="46"/>
+      <c r="L153" s="46"/>
     </row>
     <row r="154">
-      <c r="G154" s="46"/>
+      <c r="G154" s="47"/>
       <c r="H154" s="25"/>
-      <c r="K154" s="45"/>
-      <c r="L154" s="45"/>
+      <c r="K154" s="46"/>
+      <c r="L154" s="46"/>
     </row>
     <row r="155">
-      <c r="G155" s="46"/>
+      <c r="G155" s="47"/>
       <c r="H155" s="25"/>
-      <c r="K155" s="45"/>
-      <c r="L155" s="45"/>
+      <c r="K155" s="46"/>
+      <c r="L155" s="46"/>
     </row>
     <row r="156">
-      <c r="G156" s="46"/>
+      <c r="G156" s="47"/>
       <c r="H156" s="25"/>
-      <c r="K156" s="45"/>
-      <c r="L156" s="45"/>
+      <c r="K156" s="46"/>
+      <c r="L156" s="46"/>
     </row>
     <row r="157">
-      <c r="G157" s="46"/>
+      <c r="G157" s="47"/>
       <c r="H157" s="25"/>
-      <c r="K157" s="45"/>
-      <c r="L157" s="45"/>
+      <c r="K157" s="46"/>
+      <c r="L157" s="46"/>
     </row>
     <row r="158">
-      <c r="G158" s="46"/>
+      <c r="G158" s="47"/>
       <c r="H158" s="25"/>
-      <c r="K158" s="45"/>
-      <c r="L158" s="45"/>
+      <c r="K158" s="46"/>
+      <c r="L158" s="46"/>
     </row>
     <row r="159">
-      <c r="G159" s="46"/>
+      <c r="G159" s="47"/>
       <c r="H159" s="25"/>
-      <c r="K159" s="45"/>
-      <c r="L159" s="45"/>
+      <c r="K159" s="46"/>
+      <c r="L159" s="46"/>
     </row>
     <row r="160">
-      <c r="G160" s="46"/>
+      <c r="G160" s="47"/>
       <c r="H160" s="25"/>
-      <c r="K160" s="45"/>
-      <c r="L160" s="45"/>
+      <c r="K160" s="46"/>
+      <c r="L160" s="46"/>
     </row>
     <row r="161">
-      <c r="G161" s="46"/>
+      <c r="G161" s="47"/>
       <c r="H161" s="25"/>
-      <c r="K161" s="45"/>
-      <c r="L161" s="45"/>
+      <c r="K161" s="46"/>
+      <c r="L161" s="46"/>
     </row>
     <row r="162">
-      <c r="G162" s="46"/>
+      <c r="G162" s="47"/>
       <c r="H162" s="25"/>
-      <c r="K162" s="45"/>
-      <c r="L162" s="45"/>
+      <c r="K162" s="46"/>
+      <c r="L162" s="46"/>
     </row>
     <row r="163">
-      <c r="G163" s="46"/>
+      <c r="G163" s="47"/>
       <c r="H163" s="25"/>
-      <c r="K163" s="45"/>
-      <c r="L163" s="45"/>
+      <c r="K163" s="46"/>
+      <c r="L163" s="46"/>
     </row>
     <row r="164">
-      <c r="G164" s="46"/>
+      <c r="G164" s="47"/>
       <c r="H164" s="25"/>
-      <c r="K164" s="45"/>
-      <c r="L164" s="45"/>
+      <c r="K164" s="46"/>
+      <c r="L164" s="46"/>
     </row>
     <row r="165">
-      <c r="G165" s="46"/>
+      <c r="G165" s="47"/>
       <c r="H165" s="25"/>
-      <c r="K165" s="45"/>
-      <c r="L165" s="45"/>
+      <c r="K165" s="46"/>
+      <c r="L165" s="46"/>
     </row>
     <row r="166">
-      <c r="G166" s="46"/>
+      <c r="G166" s="47"/>
       <c r="H166" s="25"/>
-      <c r="K166" s="45"/>
-      <c r="L166" s="45"/>
+      <c r="K166" s="46"/>
+      <c r="L166" s="46"/>
     </row>
     <row r="167">
-      <c r="G167" s="46"/>
+      <c r="G167" s="47"/>
       <c r="H167" s="25"/>
-      <c r="K167" s="45"/>
-      <c r="L167" s="45"/>
+      <c r="K167" s="46"/>
+      <c r="L167" s="46"/>
     </row>
     <row r="168">
-      <c r="G168" s="46"/>
+      <c r="G168" s="47"/>
       <c r="H168" s="25"/>
-      <c r="K168" s="45"/>
-      <c r="L168" s="45"/>
+      <c r="K168" s="46"/>
+      <c r="L168" s="46"/>
     </row>
     <row r="169">
-      <c r="G169" s="46"/>
+      <c r="G169" s="47"/>
       <c r="H169" s="25"/>
-      <c r="K169" s="45"/>
-      <c r="L169" s="45"/>
+      <c r="K169" s="46"/>
+      <c r="L169" s="46"/>
     </row>
     <row r="170">
-      <c r="G170" s="46"/>
+      <c r="G170" s="47"/>
       <c r="H170" s="25"/>
-      <c r="K170" s="45"/>
-      <c r="L170" s="45"/>
+      <c r="K170" s="46"/>
+      <c r="L170" s="46"/>
     </row>
     <row r="171">
-      <c r="G171" s="46"/>
+      <c r="G171" s="47"/>
       <c r="H171" s="25"/>
-      <c r="K171" s="45"/>
-      <c r="L171" s="45"/>
+      <c r="K171" s="46"/>
+      <c r="L171" s="46"/>
     </row>
     <row r="172">
-      <c r="G172" s="46"/>
+      <c r="G172" s="47"/>
       <c r="H172" s="25"/>
-      <c r="K172" s="45"/>
-      <c r="L172" s="45"/>
+      <c r="K172" s="46"/>
+      <c r="L172" s="46"/>
     </row>
     <row r="173">
-      <c r="G173" s="46"/>
+      <c r="G173" s="47"/>
       <c r="H173" s="25"/>
-      <c r="K173" s="45"/>
-      <c r="L173" s="45"/>
+      <c r="K173" s="46"/>
+      <c r="L173" s="46"/>
     </row>
     <row r="174">
-      <c r="G174" s="46"/>
+      <c r="G174" s="47"/>
       <c r="H174" s="25"/>
-      <c r="K174" s="45"/>
-      <c r="L174" s="45"/>
+      <c r="K174" s="46"/>
+      <c r="L174" s="46"/>
     </row>
     <row r="175">
-      <c r="G175" s="46"/>
+      <c r="G175" s="47"/>
       <c r="H175" s="25"/>
-      <c r="K175" s="45"/>
-      <c r="L175" s="45"/>
+      <c r="K175" s="46"/>
+      <c r="L175" s="46"/>
     </row>
     <row r="176">
-      <c r="G176" s="46"/>
+      <c r="G176" s="47"/>
       <c r="H176" s="25"/>
-      <c r="K176" s="45"/>
-      <c r="L176" s="45"/>
+      <c r="K176" s="46"/>
+      <c r="L176" s="46"/>
     </row>
     <row r="177">
-      <c r="G177" s="46"/>
+      <c r="G177" s="47"/>
       <c r="H177" s="25"/>
-      <c r="K177" s="45"/>
-      <c r="L177" s="45"/>
+      <c r="K177" s="46"/>
+      <c r="L177" s="46"/>
     </row>
     <row r="178">
-      <c r="G178" s="46"/>
+      <c r="G178" s="47"/>
       <c r="H178" s="25"/>
-      <c r="K178" s="45"/>
-      <c r="L178" s="45"/>
+      <c r="K178" s="46"/>
+      <c r="L178" s="46"/>
     </row>
     <row r="179">
-      <c r="G179" s="46"/>
+      <c r="G179" s="47"/>
       <c r="H179" s="25"/>
-      <c r="K179" s="45"/>
-      <c r="L179" s="45"/>
+      <c r="K179" s="46"/>
+      <c r="L179" s="46"/>
     </row>
     <row r="180">
-      <c r="G180" s="46"/>
+      <c r="G180" s="47"/>
       <c r="H180" s="25"/>
-      <c r="K180" s="45"/>
-      <c r="L180" s="45"/>
+      <c r="K180" s="46"/>
+      <c r="L180" s="46"/>
     </row>
     <row r="181">
-      <c r="G181" s="46"/>
+      <c r="G181" s="47"/>
       <c r="H181" s="25"/>
-      <c r="K181" s="45"/>
-      <c r="L181" s="45"/>
+      <c r="K181" s="46"/>
+      <c r="L181" s="46"/>
     </row>
     <row r="182">
-      <c r="G182" s="46"/>
+      <c r="G182" s="47"/>
       <c r="H182" s="25"/>
-      <c r="K182" s="45"/>
-      <c r="L182" s="45"/>
+      <c r="K182" s="46"/>
+      <c r="L182" s="46"/>
     </row>
     <row r="183">
-      <c r="G183" s="46"/>
+      <c r="G183" s="47"/>
       <c r="H183" s="25"/>
-      <c r="K183" s="45"/>
-      <c r="L183" s="45"/>
+      <c r="K183" s="46"/>
+      <c r="L183" s="46"/>
     </row>
     <row r="184">
-      <c r="G184" s="46"/>
+      <c r="G184" s="47"/>
       <c r="H184" s="25"/>
-      <c r="K184" s="45"/>
-      <c r="L184" s="45"/>
+      <c r="K184" s="46"/>
+      <c r="L184" s="46"/>
     </row>
     <row r="185">
-      <c r="G185" s="46"/>
+      <c r="G185" s="47"/>
       <c r="H185" s="25"/>
-      <c r="K185" s="45"/>
-      <c r="L185" s="45"/>
+      <c r="K185" s="46"/>
+      <c r="L185" s="46"/>
     </row>
     <row r="186">
-      <c r="G186" s="46"/>
+      <c r="G186" s="47"/>
       <c r="H186" s="25"/>
-      <c r="K186" s="45"/>
-      <c r="L186" s="45"/>
+      <c r="K186" s="46"/>
+      <c r="L186" s="46"/>
     </row>
     <row r="187">
-      <c r="G187" s="46"/>
+      <c r="G187" s="47"/>
       <c r="H187" s="25"/>
-      <c r="K187" s="45"/>
-      <c r="L187" s="45"/>
+      <c r="K187" s="46"/>
+      <c r="L187" s="46"/>
     </row>
     <row r="188">
-      <c r="G188" s="46"/>
+      <c r="G188" s="47"/>
       <c r="H188" s="25"/>
-      <c r="K188" s="45"/>
-      <c r="L188" s="45"/>
+      <c r="K188" s="46"/>
+      <c r="L188" s="46"/>
     </row>
     <row r="189">
-      <c r="G189" s="46"/>
+      <c r="G189" s="47"/>
       <c r="H189" s="25"/>
-      <c r="K189" s="45"/>
-      <c r="L189" s="45"/>
+      <c r="K189" s="46"/>
+      <c r="L189" s="46"/>
     </row>
     <row r="190">
-      <c r="G190" s="46"/>
+      <c r="G190" s="47"/>
       <c r="H190" s="25"/>
-      <c r="K190" s="45"/>
-      <c r="L190" s="45"/>
+      <c r="K190" s="46"/>
+      <c r="L190" s="46"/>
     </row>
     <row r="191">
-      <c r="G191" s="46"/>
+      <c r="G191" s="47"/>
       <c r="H191" s="25"/>
-      <c r="K191" s="45"/>
-      <c r="L191" s="45"/>
+      <c r="K191" s="46"/>
+      <c r="L191" s="46"/>
     </row>
     <row r="192">
-      <c r="G192" s="46"/>
+      <c r="G192" s="47"/>
       <c r="H192" s="25"/>
-      <c r="K192" s="45"/>
-      <c r="L192" s="45"/>
+      <c r="K192" s="46"/>
+      <c r="L192" s="46"/>
     </row>
     <row r="193">
-      <c r="G193" s="46"/>
+      <c r="G193" s="47"/>
       <c r="H193" s="25"/>
-      <c r="K193" s="45"/>
-      <c r="L193" s="45"/>
+      <c r="K193" s="46"/>
+      <c r="L193" s="46"/>
     </row>
     <row r="194">
-      <c r="G194" s="46"/>
+      <c r="G194" s="47"/>
       <c r="H194" s="25"/>
-      <c r="K194" s="45"/>
-      <c r="L194" s="45"/>
+      <c r="K194" s="46"/>
+      <c r="L194" s="46"/>
     </row>
     <row r="195">
-      <c r="G195" s="46"/>
+      <c r="G195" s="47"/>
       <c r="H195" s="25"/>
-      <c r="K195" s="45"/>
-      <c r="L195" s="45"/>
+      <c r="K195" s="46"/>
+      <c r="L195" s="46"/>
     </row>
     <row r="196">
-      <c r="G196" s="46"/>
+      <c r="G196" s="47"/>
       <c r="H196" s="25"/>
-      <c r="K196" s="45"/>
-      <c r="L196" s="45"/>
+      <c r="K196" s="46"/>
+      <c r="L196" s="46"/>
     </row>
     <row r="197">
-      <c r="G197" s="46"/>
+      <c r="G197" s="47"/>
       <c r="H197" s="25"/>
-      <c r="K197" s="45"/>
-      <c r="L197" s="45"/>
+      <c r="K197" s="46"/>
+      <c r="L197" s="46"/>
     </row>
     <row r="198">
-      <c r="G198" s="46"/>
+      <c r="G198" s="47"/>
       <c r="H198" s="25"/>
-      <c r="K198" s="45"/>
-      <c r="L198" s="45"/>
+      <c r="K198" s="46"/>
+      <c r="L198" s="46"/>
     </row>
     <row r="199">
-      <c r="G199" s="46"/>
+      <c r="G199" s="47"/>
       <c r="H199" s="25"/>
-      <c r="K199" s="45"/>
-      <c r="L199" s="45"/>
+      <c r="K199" s="46"/>
+      <c r="L199" s="46"/>
     </row>
     <row r="200">
-      <c r="G200" s="46"/>
+      <c r="G200" s="47"/>
       <c r="H200" s="25"/>
-      <c r="K200" s="45"/>
-      <c r="L200" s="45"/>
+      <c r="K200" s="46"/>
+      <c r="L200" s="46"/>
     </row>
     <row r="201">
-      <c r="G201" s="46"/>
+      <c r="G201" s="47"/>
       <c r="H201" s="25"/>
-      <c r="K201" s="45"/>
-      <c r="L201" s="45"/>
+      <c r="K201" s="46"/>
+      <c r="L201" s="46"/>
     </row>
     <row r="202">
-      <c r="G202" s="46"/>
+      <c r="G202" s="47"/>
       <c r="H202" s="25"/>
-      <c r="K202" s="45"/>
-      <c r="L202" s="45"/>
+      <c r="K202" s="46"/>
+      <c r="L202" s="46"/>
     </row>
     <row r="203">
-      <c r="G203" s="46"/>
+      <c r="G203" s="47"/>
       <c r="H203" s="25"/>
-      <c r="K203" s="45"/>
-      <c r="L203" s="45"/>
+      <c r="K203" s="46"/>
+      <c r="L203" s="46"/>
     </row>
     <row r="204">
-      <c r="G204" s="46"/>
+      <c r="G204" s="47"/>
       <c r="H204" s="25"/>
-      <c r="K204" s="45"/>
-      <c r="L204" s="45"/>
+      <c r="K204" s="46"/>
+      <c r="L204" s="46"/>
     </row>
     <row r="205">
-      <c r="G205" s="46"/>
+      <c r="G205" s="47"/>
       <c r="H205" s="25"/>
-      <c r="K205" s="45"/>
-      <c r="L205" s="45"/>
+      <c r="K205" s="46"/>
+      <c r="L205" s="46"/>
     </row>
     <row r="206">
-      <c r="G206" s="46"/>
+      <c r="G206" s="47"/>
       <c r="H206" s="25"/>
-      <c r="K206" s="45"/>
-      <c r="L206" s="45"/>
+      <c r="K206" s="46"/>
+      <c r="L206" s="46"/>
     </row>
     <row r="207">
-      <c r="G207" s="46"/>
+      <c r="G207" s="47"/>
       <c r="H207" s="25"/>
-      <c r="K207" s="45"/>
-      <c r="L207" s="45"/>
+      <c r="K207" s="46"/>
+      <c r="L207" s="46"/>
     </row>
     <row r="208">
-      <c r="G208" s="46"/>
+      <c r="G208" s="47"/>
       <c r="H208" s="25"/>
-      <c r="K208" s="45"/>
-      <c r="L208" s="45"/>
+      <c r="K208" s="46"/>
+      <c r="L208" s="46"/>
     </row>
     <row r="209">
-      <c r="G209" s="46"/>
+      <c r="G209" s="47"/>
       <c r="H209" s="25"/>
-      <c r="K209" s="45"/>
-      <c r="L209" s="45"/>
+      <c r="K209" s="46"/>
+      <c r="L209" s="46"/>
     </row>
     <row r="210">
-      <c r="G210" s="46"/>
+      <c r="G210" s="47"/>
       <c r="H210" s="25"/>
-      <c r="K210" s="45"/>
-      <c r="L210" s="45"/>
+      <c r="K210" s="46"/>
+      <c r="L210" s="46"/>
     </row>
     <row r="211">
-      <c r="G211" s="46"/>
+      <c r="G211" s="47"/>
       <c r="H211" s="25"/>
-      <c r="K211" s="45"/>
-      <c r="L211" s="45"/>
+      <c r="K211" s="46"/>
+      <c r="L211" s="46"/>
     </row>
     <row r="212">
-      <c r="G212" s="46"/>
+      <c r="G212" s="47"/>
       <c r="H212" s="25"/>
-      <c r="K212" s="45"/>
-      <c r="L212" s="45"/>
+      <c r="K212" s="46"/>
+      <c r="L212" s="46"/>
     </row>
     <row r="213">
-      <c r="G213" s="46"/>
+      <c r="G213" s="47"/>
       <c r="H213" s="25"/>
-      <c r="K213" s="45"/>
-      <c r="L213" s="45"/>
+      <c r="K213" s="46"/>
+      <c r="L213" s="46"/>
     </row>
     <row r="214">
-      <c r="G214" s="46"/>
+      <c r="G214" s="47"/>
       <c r="H214" s="25"/>
-      <c r="K214" s="45"/>
-      <c r="L214" s="45"/>
+      <c r="K214" s="46"/>
+      <c r="L214" s="46"/>
     </row>
     <row r="215">
-      <c r="G215" s="46"/>
+      <c r="G215" s="47"/>
       <c r="H215" s="25"/>
-      <c r="K215" s="45"/>
-      <c r="L215" s="45"/>
+      <c r="K215" s="46"/>
+      <c r="L215" s="46"/>
     </row>
     <row r="216">
-      <c r="G216" s="46"/>
+      <c r="G216" s="47"/>
       <c r="H216" s="25"/>
-      <c r="K216" s="45"/>
-      <c r="L216" s="45"/>
+      <c r="K216" s="46"/>
+      <c r="L216" s="46"/>
     </row>
     <row r="217">
-      <c r="G217" s="46"/>
+      <c r="G217" s="47"/>
       <c r="H217" s="25"/>
-      <c r="K217" s="45"/>
-      <c r="L217" s="45"/>
+      <c r="K217" s="46"/>
+      <c r="L217" s="46"/>
     </row>
     <row r="218">
-      <c r="G218" s="46"/>
+      <c r="G218" s="47"/>
       <c r="H218" s="25"/>
-      <c r="K218" s="45"/>
-      <c r="L218" s="45"/>
+      <c r="K218" s="46"/>
+      <c r="L218" s="46"/>
     </row>
     <row r="219">
-      <c r="G219" s="46"/>
+      <c r="G219" s="47"/>
       <c r="H219" s="25"/>
-      <c r="K219" s="45"/>
-      <c r="L219" s="45"/>
+      <c r="K219" s="46"/>
+      <c r="L219" s="46"/>
     </row>
     <row r="220">
-      <c r="G220" s="46"/>
+      <c r="G220" s="47"/>
       <c r="H220" s="25"/>
-      <c r="K220" s="45"/>
-      <c r="L220" s="45"/>
+      <c r="K220" s="46"/>
+      <c r="L220" s="46"/>
     </row>
     <row r="221">
-      <c r="G221" s="46"/>
+      <c r="G221" s="47"/>
       <c r="H221" s="25"/>
-      <c r="K221" s="45"/>
-      <c r="L221" s="45"/>
+      <c r="K221" s="46"/>
+      <c r="L221" s="46"/>
     </row>
     <row r="222">
-      <c r="G222" s="46"/>
+      <c r="G222" s="47"/>
       <c r="H222" s="25"/>
-      <c r="K222" s="45"/>
-      <c r="L222" s="45"/>
+      <c r="K222" s="46"/>
+      <c r="L222" s="46"/>
     </row>
     <row r="223">
-      <c r="G223" s="46"/>
+      <c r="G223" s="47"/>
       <c r="H223" s="25"/>
-      <c r="K223" s="45"/>
-      <c r="L223" s="45"/>
+      <c r="K223" s="46"/>
+      <c r="L223" s="46"/>
     </row>
     <row r="224">
-      <c r="G224" s="46"/>
+      <c r="G224" s="47"/>
       <c r="H224" s="25"/>
-      <c r="K224" s="45"/>
-      <c r="L224" s="45"/>
+      <c r="K224" s="46"/>
+      <c r="L224" s="46"/>
     </row>
     <row r="225">
-      <c r="G225" s="46"/>
+      <c r="G225" s="47"/>
       <c r="H225" s="25"/>
-      <c r="K225" s="45"/>
-      <c r="L225" s="45"/>
+      <c r="K225" s="46"/>
+      <c r="L225" s="46"/>
     </row>
     <row r="226">
-      <c r="G226" s="46"/>
+      <c r="G226" s="47"/>
       <c r="H226" s="25"/>
-      <c r="K226" s="45"/>
-      <c r="L226" s="45"/>
+      <c r="K226" s="46"/>
+      <c r="L226" s="46"/>
     </row>
     <row r="227">
-      <c r="G227" s="46"/>
+      <c r="G227" s="47"/>
       <c r="H227" s="25"/>
-      <c r="K227" s="45"/>
-      <c r="L227" s="45"/>
+      <c r="K227" s="46"/>
+      <c r="L227" s="46"/>
     </row>
     <row r="228">
-      <c r="G228" s="46"/>
+      <c r="G228" s="47"/>
       <c r="H228" s="25"/>
-      <c r="K228" s="45"/>
-      <c r="L228" s="45"/>
+      <c r="K228" s="46"/>
+      <c r="L228" s="46"/>
     </row>
     <row r="229">
-      <c r="G229" s="46"/>
+      <c r="G229" s="47"/>
       <c r="H229" s="25"/>
-      <c r="K229" s="45"/>
-      <c r="L229" s="45"/>
+      <c r="K229" s="46"/>
+      <c r="L229" s="46"/>
     </row>
     <row r="230">
-      <c r="G230" s="46"/>
+      <c r="G230" s="47"/>
       <c r="H230" s="25"/>
-      <c r="K230" s="45"/>
-      <c r="L230" s="45"/>
+      <c r="K230" s="46"/>
+      <c r="L230" s="46"/>
     </row>
     <row r="231">
-      <c r="G231" s="46"/>
+      <c r="G231" s="47"/>
       <c r="H231" s="25"/>
-      <c r="K231" s="45"/>
-      <c r="L231" s="45"/>
+      <c r="K231" s="46"/>
+      <c r="L231" s="46"/>
     </row>
     <row r="232">
-      <c r="G232" s="46"/>
+      <c r="G232" s="47"/>
       <c r="H232" s="25"/>
-      <c r="K232" s="45"/>
-      <c r="L232" s="45"/>
+      <c r="K232" s="46"/>
+      <c r="L232" s="46"/>
     </row>
     <row r="233">
-      <c r="G233" s="46"/>
+      <c r="G233" s="47"/>
       <c r="H233" s="25"/>
-      <c r="K233" s="45"/>
-      <c r="L233" s="45"/>
+      <c r="K233" s="46"/>
+      <c r="L233" s="46"/>
     </row>
     <row r="234">
-      <c r="G234" s="46"/>
+      <c r="G234" s="47"/>
       <c r="H234" s="25"/>
-      <c r="K234" s="45"/>
-      <c r="L234" s="45"/>
+      <c r="K234" s="46"/>
+      <c r="L234" s="46"/>
     </row>
     <row r="235">
-      <c r="G235" s="46"/>
+      <c r="G235" s="47"/>
       <c r="H235" s="25"/>
-      <c r="K235" s="45"/>
-      <c r="L235" s="45"/>
+      <c r="K235" s="46"/>
+      <c r="L235" s="46"/>
     </row>
     <row r="236">
-      <c r="G236" s="46"/>
+      <c r="G236" s="47"/>
       <c r="H236" s="25"/>
-      <c r="K236" s="45"/>
-      <c r="L236" s="45"/>
+      <c r="K236" s="46"/>
+      <c r="L236" s="46"/>
     </row>
     <row r="237">
-      <c r="G237" s="46"/>
+      <c r="G237" s="47"/>
       <c r="H237" s="25"/>
-      <c r="K237" s="45"/>
-      <c r="L237" s="45"/>
+      <c r="K237" s="46"/>
+      <c r="L237" s="46"/>
     </row>
     <row r="238">
-      <c r="G238" s="46"/>
+      <c r="G238" s="47"/>
       <c r="H238" s="25"/>
-      <c r="K238" s="45"/>
-      <c r="L238" s="45"/>
+      <c r="K238" s="46"/>
+      <c r="L238" s="46"/>
     </row>
     <row r="239">
-      <c r="G239" s="46"/>
+      <c r="G239" s="47"/>
       <c r="H239" s="25"/>
-      <c r="K239" s="45"/>
-      <c r="L239" s="45"/>
+      <c r="K239" s="46"/>
+      <c r="L239" s="46"/>
     </row>
     <row r="240">
-      <c r="G240" s="46"/>
+      <c r="G240" s="47"/>
       <c r="H240" s="25"/>
-      <c r="K240" s="45"/>
-      <c r="L240" s="45"/>
+      <c r="K240" s="46"/>
+      <c r="L240" s="46"/>
     </row>
     <row r="241">
-      <c r="G241" s="46"/>
+      <c r="G241" s="47"/>
       <c r="H241" s="25"/>
-      <c r="K241" s="45"/>
-      <c r="L241" s="45"/>
+      <c r="K241" s="46"/>
+      <c r="L241" s="46"/>
     </row>
     <row r="242">
-      <c r="G242" s="46"/>
+      <c r="G242" s="47"/>
       <c r="H242" s="25"/>
-      <c r="K242" s="45"/>
-      <c r="L242" s="45"/>
+      <c r="K242" s="46"/>
+      <c r="L242" s="46"/>
     </row>
     <row r="243">
-      <c r="G243" s="46"/>
+      <c r="G243" s="47"/>
       <c r="H243" s="25"/>
-      <c r="K243" s="45"/>
-      <c r="L243" s="45"/>
+      <c r="K243" s="46"/>
+      <c r="L243" s="46"/>
     </row>
     <row r="244">
-      <c r="G244" s="46"/>
+      <c r="G244" s="47"/>
       <c r="H244" s="25"/>
-      <c r="K244" s="45"/>
-      <c r="L244" s="45"/>
+      <c r="K244" s="46"/>
+      <c r="L244" s="46"/>
     </row>
     <row r="245">
-      <c r="G245" s="46"/>
+      <c r="G245" s="47"/>
       <c r="H245" s="25"/>
-      <c r="K245" s="45"/>
-      <c r="L245" s="45"/>
+      <c r="K245" s="46"/>
+      <c r="L245" s="46"/>
     </row>
     <row r="246">
-      <c r="G246" s="46"/>
+      <c r="G246" s="47"/>
       <c r="H246" s="25"/>
-      <c r="K246" s="45"/>
-      <c r="L246" s="45"/>
+      <c r="K246" s="46"/>
+      <c r="L246" s="46"/>
     </row>
     <row r="247">
-      <c r="G247" s="46"/>
+      <c r="G247" s="47"/>
       <c r="H247" s="25"/>
-      <c r="K247" s="45"/>
-      <c r="L247" s="45"/>
+      <c r="K247" s="46"/>
+      <c r="L247" s="46"/>
     </row>
     <row r="248">
-      <c r="G248" s="46"/>
+      <c r="G248" s="47"/>
       <c r="H248" s="25"/>
-      <c r="K248" s="45"/>
-      <c r="L248" s="45"/>
+      <c r="K248" s="46"/>
+      <c r="L248" s="46"/>
     </row>
     <row r="249">
-      <c r="G249" s="46"/>
+      <c r="G249" s="47"/>
       <c r="H249" s="25"/>
-      <c r="K249" s="45"/>
-      <c r="L249" s="45"/>
+      <c r="K249" s="46"/>
+      <c r="L249" s="46"/>
     </row>
     <row r="250">
-      <c r="G250" s="46"/>
+      <c r="G250" s="47"/>
       <c r="H250" s="25"/>
-      <c r="K250" s="45"/>
-      <c r="L250" s="45"/>
+      <c r="K250" s="46"/>
+      <c r="L250" s="46"/>
     </row>
     <row r="251">
-      <c r="G251" s="46"/>
+      <c r="G251" s="47"/>
       <c r="H251" s="25"/>
-      <c r="K251" s="45"/>
-      <c r="L251" s="45"/>
+      <c r="K251" s="46"/>
+      <c r="L251" s="46"/>
     </row>
     <row r="252">
-      <c r="G252" s="46"/>
+      <c r="G252" s="47"/>
       <c r="H252" s="25"/>
-      <c r="K252" s="45"/>
-      <c r="L252" s="45"/>
+      <c r="K252" s="46"/>
+      <c r="L252" s="46"/>
     </row>
     <row r="253">
-      <c r="G253" s="46"/>
+      <c r="G253" s="47"/>
       <c r="H253" s="25"/>
-      <c r="K253" s="45"/>
-      <c r="L253" s="45"/>
+      <c r="K253" s="46"/>
+      <c r="L253" s="46"/>
     </row>
     <row r="254">
-      <c r="G254" s="46"/>
+      <c r="G254" s="47"/>
       <c r="H254" s="25"/>
-      <c r="K254" s="45"/>
-      <c r="L254" s="45"/>
+      <c r="K254" s="46"/>
+      <c r="L254" s="46"/>
     </row>
     <row r="255">
-      <c r="G255" s="46"/>
+      <c r="G255" s="47"/>
       <c r="H255" s="25"/>
-      <c r="K255" s="45"/>
-      <c r="L255" s="45"/>
+      <c r="K255" s="46"/>
+      <c r="L255" s="46"/>
     </row>
     <row r="256">
-      <c r="G256" s="46"/>
+      <c r="G256" s="47"/>
       <c r="H256" s="25"/>
-      <c r="K256" s="45"/>
-      <c r="L256" s="45"/>
+      <c r="K256" s="46"/>
+      <c r="L256" s="46"/>
     </row>
     <row r="257">
-      <c r="G257" s="46"/>
+      <c r="G257" s="47"/>
       <c r="H257" s="25"/>
-      <c r="K257" s="45"/>
-      <c r="L257" s="45"/>
+      <c r="K257" s="46"/>
+      <c r="L257" s="46"/>
     </row>
     <row r="258">
-      <c r="G258" s="46"/>
+      <c r="G258" s="47"/>
       <c r="H258" s="25"/>
-      <c r="K258" s="45"/>
-      <c r="L258" s="45"/>
+      <c r="K258" s="46"/>
+      <c r="L258" s="46"/>
     </row>
     <row r="259">
-      <c r="G259" s="46"/>
+      <c r="G259" s="47"/>
       <c r="H259" s="25"/>
-      <c r="K259" s="45"/>
-      <c r="L259" s="45"/>
+      <c r="K259" s="46"/>
+      <c r="L259" s="46"/>
     </row>
     <row r="260">
-      <c r="G260" s="46"/>
+      <c r="G260" s="47"/>
       <c r="H260" s="25"/>
-      <c r="K260" s="45"/>
-      <c r="L260" s="45"/>
+      <c r="K260" s="46"/>
+      <c r="L260" s="46"/>
     </row>
     <row r="261">
-      <c r="G261" s="46"/>
+      <c r="G261" s="47"/>
       <c r="H261" s="25"/>
-      <c r="K261" s="45"/>
-      <c r="L261" s="45"/>
+      <c r="K261" s="46"/>
+      <c r="L261" s="46"/>
     </row>
     <row r="262">
-      <c r="G262" s="46"/>
+      <c r="G262" s="47"/>
       <c r="H262" s="25"/>
-      <c r="K262" s="45"/>
-      <c r="L262" s="45"/>
+      <c r="K262" s="46"/>
+      <c r="L262" s="46"/>
     </row>
     <row r="263">
-      <c r="G263" s="46"/>
+      <c r="G263" s="47"/>
       <c r="H263" s="25"/>
-      <c r="K263" s="45"/>
-      <c r="L263" s="45"/>
+      <c r="K263" s="46"/>
+      <c r="L263" s="46"/>
     </row>
     <row r="264">
-      <c r="G264" s="46"/>
+      <c r="G264" s="47"/>
       <c r="H264" s="25"/>
-      <c r="K264" s="45"/>
-      <c r="L264" s="45"/>
+      <c r="K264" s="46"/>
+      <c r="L264" s="46"/>
     </row>
     <row r="265">
-      <c r="G265" s="46"/>
+      <c r="G265" s="47"/>
       <c r="H265" s="25"/>
-      <c r="K265" s="45"/>
-      <c r="L265" s="45"/>
+      <c r="K265" s="46"/>
+      <c r="L265" s="46"/>
     </row>
     <row r="266">
-      <c r="G266" s="46"/>
+      <c r="G266" s="47"/>
       <c r="H266" s="25"/>
-      <c r="K266" s="45"/>
-      <c r="L266" s="45"/>
+      <c r="K266" s="46"/>
+      <c r="L266" s="46"/>
     </row>
     <row r="267">
-      <c r="G267" s="46"/>
+      <c r="G267" s="47"/>
       <c r="H267" s="25"/>
-      <c r="K267" s="45"/>
-      <c r="L267" s="45"/>
+      <c r="K267" s="46"/>
+      <c r="L267" s="46"/>
     </row>
     <row r="268">
-      <c r="G268" s="46"/>
+      <c r="G268" s="47"/>
       <c r="H268" s="25"/>
-      <c r="K268" s="45"/>
-      <c r="L268" s="45"/>
+      <c r="K268" s="46"/>
+      <c r="L268" s="46"/>
     </row>
     <row r="269">
-      <c r="G269" s="46"/>
+      <c r="G269" s="47"/>
       <c r="H269" s="25"/>
-      <c r="K269" s="45"/>
-      <c r="L269" s="45"/>
+      <c r="K269" s="46"/>
+      <c r="L269" s="46"/>
     </row>
     <row r="270">
-      <c r="G270" s="46"/>
+      <c r="G270" s="47"/>
       <c r="H270" s="25"/>
-      <c r="K270" s="45"/>
-      <c r="L270" s="45"/>
+      <c r="K270" s="46"/>
+      <c r="L270" s="46"/>
     </row>
     <row r="271">
-      <c r="G271" s="46"/>
+      <c r="G271" s="47"/>
       <c r="H271" s="25"/>
-      <c r="K271" s="45"/>
-      <c r="L271" s="45"/>
+      <c r="K271" s="46"/>
+      <c r="L271" s="46"/>
     </row>
     <row r="272">
-      <c r="G272" s="46"/>
+      <c r="G272" s="47"/>
       <c r="H272" s="25"/>
-      <c r="K272" s="45"/>
-      <c r="L272" s="45"/>
+      <c r="K272" s="46"/>
+      <c r="L272" s="46"/>
     </row>
     <row r="273">
-      <c r="G273" s="46"/>
+      <c r="G273" s="47"/>
       <c r="H273" s="25"/>
-      <c r="K273" s="45"/>
-      <c r="L273" s="45"/>
+      <c r="K273" s="46"/>
+      <c r="L273" s="46"/>
     </row>
     <row r="274">
-      <c r="G274" s="46"/>
+      <c r="G274" s="47"/>
       <c r="H274" s="25"/>
-      <c r="K274" s="45"/>
-      <c r="L274" s="45"/>
+      <c r="K274" s="46"/>
+      <c r="L274" s="46"/>
     </row>
     <row r="275">
-      <c r="G275" s="46"/>
+      <c r="G275" s="47"/>
       <c r="H275" s="25"/>
-      <c r="K275" s="45"/>
-      <c r="L275" s="45"/>
+      <c r="K275" s="46"/>
+      <c r="L275" s="46"/>
     </row>
     <row r="276">
-      <c r="G276" s="46"/>
+      <c r="G276" s="47"/>
       <c r="H276" s="25"/>
-      <c r="K276" s="45"/>
-      <c r="L276" s="45"/>
+      <c r="K276" s="46"/>
+      <c r="L276" s="46"/>
     </row>
     <row r="277">
-      <c r="G277" s="46"/>
+      <c r="G277" s="47"/>
       <c r="H277" s="25"/>
-      <c r="K277" s="45"/>
-      <c r="L277" s="45"/>
+      <c r="K277" s="46"/>
+      <c r="L277" s="46"/>
     </row>
     <row r="278">
-      <c r="G278" s="46"/>
+      <c r="G278" s="47"/>
       <c r="H278" s="25"/>
-      <c r="K278" s="45"/>
-      <c r="L278" s="45"/>
+      <c r="K278" s="46"/>
+      <c r="L278" s="46"/>
     </row>
     <row r="279">
-      <c r="G279" s="46"/>
+      <c r="G279" s="47"/>
       <c r="H279" s="25"/>
-      <c r="K279" s="45"/>
-      <c r="L279" s="45"/>
+      <c r="K279" s="46"/>
+      <c r="L279" s="46"/>
     </row>
     <row r="280">
-      <c r="G280" s="46"/>
+      <c r="G280" s="47"/>
       <c r="H280" s="25"/>
-      <c r="K280" s="45"/>
-      <c r="L280" s="45"/>
+      <c r="K280" s="46"/>
+      <c r="L280" s="46"/>
     </row>
     <row r="281">
-      <c r="G281" s="46"/>
+      <c r="G281" s="47"/>
       <c r="H281" s="25"/>
-      <c r="K281" s="45"/>
-      <c r="L281" s="45"/>
+      <c r="K281" s="46"/>
+      <c r="L281" s="46"/>
     </row>
     <row r="282">
-      <c r="G282" s="46"/>
+      <c r="G282" s="47"/>
       <c r="H282" s="25"/>
-      <c r="K282" s="45"/>
-      <c r="L282" s="45"/>
+      <c r="K282" s="46"/>
+      <c r="L282" s="46"/>
     </row>
     <row r="283">
-      <c r="G283" s="46"/>
+      <c r="G283" s="47"/>
       <c r="H283" s="25"/>
-      <c r="K283" s="45"/>
-      <c r="L283" s="45"/>
+      <c r="K283" s="46"/>
+      <c r="L283" s="46"/>
     </row>
     <row r="284">
-      <c r="G284" s="46"/>
+      <c r="G284" s="47"/>
       <c r="H284" s="25"/>
-      <c r="K284" s="45"/>
-      <c r="L284" s="45"/>
+      <c r="K284" s="46"/>
+      <c r="L284" s="46"/>
     </row>
     <row r="285">
-      <c r="G285" s="46"/>
+      <c r="G285" s="47"/>
       <c r="H285" s="25"/>
-      <c r="K285" s="45"/>
-      <c r="L285" s="45"/>
+      <c r="K285" s="46"/>
+      <c r="L285" s="46"/>
     </row>
     <row r="286">
-      <c r="G286" s="46"/>
+      <c r="G286" s="47"/>
       <c r="H286" s="25"/>
-      <c r="K286" s="45"/>
-      <c r="L286" s="45"/>
+      <c r="K286" s="46"/>
+      <c r="L286" s="46"/>
     </row>
     <row r="287">
-      <c r="G287" s="46"/>
+      <c r="G287" s="47"/>
       <c r="H287" s="25"/>
-      <c r="K287" s="45"/>
-      <c r="L287" s="45"/>
+      <c r="K287" s="46"/>
+      <c r="L287" s="46"/>
     </row>
     <row r="288">
-      <c r="G288" s="46"/>
+      <c r="G288" s="47"/>
       <c r="H288" s="25"/>
-      <c r="K288" s="45"/>
-      <c r="L288" s="45"/>
+      <c r="K288" s="46"/>
+      <c r="L288" s="46"/>
     </row>
     <row r="289">
-      <c r="G289" s="46"/>
+      <c r="G289" s="47"/>
       <c r="H289" s="25"/>
-      <c r="K289" s="45"/>
-      <c r="L289" s="45"/>
+      <c r="K289" s="46"/>
+      <c r="L289" s="46"/>
     </row>
     <row r="290">
-      <c r="G290" s="46"/>
+      <c r="G290" s="47"/>
       <c r="H290" s="25"/>
-      <c r="K290" s="45"/>
-      <c r="L290" s="45"/>
+      <c r="K290" s="46"/>
+      <c r="L290" s="46"/>
     </row>
     <row r="291">
-      <c r="G291" s="46"/>
+      <c r="G291" s="47"/>
       <c r="H291" s="25"/>
-      <c r="K291" s="45"/>
-      <c r="L291" s="45"/>
+      <c r="K291" s="46"/>
+      <c r="L291" s="46"/>
     </row>
     <row r="292">
-      <c r="G292" s="46"/>
+      <c r="G292" s="47"/>
       <c r="H292" s="25"/>
-      <c r="K292" s="45"/>
-      <c r="L292" s="45"/>
+      <c r="K292" s="46"/>
+      <c r="L292" s="46"/>
     </row>
     <row r="293">
-      <c r="G293" s="46"/>
+      <c r="G293" s="47"/>
       <c r="H293" s="25"/>
-      <c r="K293" s="45"/>
-      <c r="L293" s="45"/>
+      <c r="K293" s="46"/>
+      <c r="L293" s="46"/>
     </row>
     <row r="294">
-      <c r="G294" s="46"/>
+      <c r="G294" s="47"/>
       <c r="H294" s="25"/>
-      <c r="K294" s="45"/>
-      <c r="L294" s="45"/>
+      <c r="K294" s="46"/>
+      <c r="L294" s="46"/>
     </row>
     <row r="295">
-      <c r="G295" s="46"/>
+      <c r="G295" s="47"/>
       <c r="H295" s="25"/>
-      <c r="K295" s="45"/>
-      <c r="L295" s="45"/>
+      <c r="K295" s="46"/>
+      <c r="L295" s="46"/>
     </row>
     <row r="296">
-      <c r="G296" s="46"/>
+      <c r="G296" s="47"/>
       <c r="H296" s="25"/>
-      <c r="K296" s="45"/>
-      <c r="L296" s="45"/>
+      <c r="K296" s="46"/>
+      <c r="L296" s="46"/>
     </row>
     <row r="297">
-      <c r="G297" s="46"/>
+      <c r="G297" s="47"/>
       <c r="H297" s="25"/>
-      <c r="K297" s="45"/>
-      <c r="L297" s="45"/>
+      <c r="K297" s="46"/>
+      <c r="L297" s="46"/>
     </row>
     <row r="298">
-      <c r="G298" s="46"/>
+      <c r="G298" s="47"/>
       <c r="H298" s="25"/>
-      <c r="K298" s="45"/>
-      <c r="L298" s="45"/>
+      <c r="K298" s="46"/>
+      <c r="L298" s="46"/>
     </row>
     <row r="299">
-      <c r="G299" s="46"/>
+      <c r="G299" s="47"/>
       <c r="H299" s="25"/>
-      <c r="K299" s="45"/>
-      <c r="L299" s="45"/>
+      <c r="K299" s="46"/>
+      <c r="L299" s="46"/>
     </row>
     <row r="300">
-      <c r="G300" s="46"/>
+      <c r="G300" s="47"/>
       <c r="H300" s="25"/>
-      <c r="K300" s="45"/>
-      <c r="L300" s="45"/>
+      <c r="K300" s="46"/>
+      <c r="L300" s="46"/>
     </row>
     <row r="301">
-      <c r="G301" s="46"/>
+      <c r="G301" s="47"/>
       <c r="H301" s="25"/>
-      <c r="K301" s="45"/>
-      <c r="L301" s="45"/>
+      <c r="K301" s="46"/>
+      <c r="L301" s="46"/>
     </row>
     <row r="302">
-      <c r="G302" s="46"/>
+      <c r="G302" s="47"/>
       <c r="H302" s="25"/>
-      <c r="K302" s="45"/>
-      <c r="L302" s="45"/>
+      <c r="K302" s="46"/>
+      <c r="L302" s="46"/>
     </row>
     <row r="303">
-      <c r="G303" s="46"/>
+      <c r="G303" s="47"/>
       <c r="H303" s="25"/>
-      <c r="K303" s="45"/>
-      <c r="L303" s="45"/>
+      <c r="K303" s="46"/>
+      <c r="L303" s="46"/>
     </row>
     <row r="304">
-      <c r="G304" s="46"/>
+      <c r="G304" s="47"/>
       <c r="H304" s="25"/>
-      <c r="K304" s="45"/>
-      <c r="L304" s="45"/>
+      <c r="K304" s="46"/>
+      <c r="L304" s="46"/>
     </row>
     <row r="305">
-      <c r="G305" s="46"/>
+      <c r="G305" s="47"/>
       <c r="H305" s="25"/>
-      <c r="K305" s="45"/>
-      <c r="L305" s="45"/>
+      <c r="K305" s="46"/>
+      <c r="L305" s="46"/>
     </row>
     <row r="306">
-      <c r="G306" s="46"/>
+      <c r="G306" s="47"/>
       <c r="H306" s="25"/>
-      <c r="K306" s="45"/>
-      <c r="L306" s="45"/>
+      <c r="K306" s="46"/>
+      <c r="L306" s="46"/>
     </row>
     <row r="307">
-      <c r="G307" s="46"/>
+      <c r="G307" s="47"/>
       <c r="H307" s="25"/>
-      <c r="K307" s="45"/>
-      <c r="L307" s="45"/>
+      <c r="K307" s="46"/>
+      <c r="L307" s="46"/>
     </row>
     <row r="308">
-      <c r="G308" s="46"/>
+      <c r="G308" s="47"/>
       <c r="H308" s="25"/>
-      <c r="K308" s="45"/>
-      <c r="L308" s="45"/>
+      <c r="K308" s="46"/>
+      <c r="L308" s="46"/>
     </row>
     <row r="309">
-      <c r="G309" s="46"/>
+      <c r="G309" s="47"/>
       <c r="H309" s="25"/>
-      <c r="K309" s="45"/>
-      <c r="L309" s="45"/>
+      <c r="K309" s="46"/>
+      <c r="L309" s="46"/>
     </row>
     <row r="310">
-      <c r="G310" s="46"/>
+      <c r="G310" s="47"/>
       <c r="H310" s="25"/>
-      <c r="K310" s="45"/>
-      <c r="L310" s="45"/>
+      <c r="K310" s="46"/>
+      <c r="L310" s="46"/>
     </row>
     <row r="311">
-      <c r="G311" s="46"/>
+      <c r="G311" s="47"/>
       <c r="H311" s="25"/>
-      <c r="K311" s="45"/>
-      <c r="L311" s="45"/>
+      <c r="K311" s="46"/>
+      <c r="L311" s="46"/>
     </row>
     <row r="312">
-      <c r="G312" s="46"/>
+      <c r="G312" s="47"/>
       <c r="H312" s="25"/>
-      <c r="K312" s="45"/>
-      <c r="L312" s="45"/>
+      <c r="K312" s="46"/>
+      <c r="L312" s="46"/>
     </row>
     <row r="313">
-      <c r="G313" s="46"/>
+      <c r="G313" s="47"/>
       <c r="H313" s="25"/>
-      <c r="K313" s="45"/>
-      <c r="L313" s="45"/>
+      <c r="K313" s="46"/>
+      <c r="L313" s="46"/>
     </row>
     <row r="314">
-      <c r="G314" s="46"/>
+      <c r="G314" s="47"/>
       <c r="H314" s="25"/>
-      <c r="K314" s="45"/>
-      <c r="L314" s="45"/>
+      <c r="K314" s="46"/>
+      <c r="L314" s="46"/>
     </row>
     <row r="315">
-      <c r="G315" s="46"/>
+      <c r="G315" s="47"/>
       <c r="H315" s="25"/>
-      <c r="K315" s="45"/>
-      <c r="L315" s="45"/>
+      <c r="K315" s="46"/>
+      <c r="L315" s="46"/>
     </row>
     <row r="316">
-      <c r="G316" s="46"/>
+      <c r="G316" s="47"/>
       <c r="H316" s="25"/>
-      <c r="K316" s="45"/>
-      <c r="L316" s="45"/>
+      <c r="K316" s="46"/>
+      <c r="L316" s="46"/>
     </row>
     <row r="317">
-      <c r="G317" s="46"/>
+      <c r="G317" s="47"/>
       <c r="H317" s="25"/>
-      <c r="K317" s="45"/>
-      <c r="L317" s="45"/>
+      <c r="K317" s="46"/>
+      <c r="L317" s="46"/>
     </row>
     <row r="318">
-      <c r="G318" s="46"/>
+      <c r="G318" s="47"/>
       <c r="H318" s="25"/>
-      <c r="K318" s="45"/>
-      <c r="L318" s="45"/>
+      <c r="K318" s="46"/>
+      <c r="L318" s="46"/>
     </row>
     <row r="319">
-      <c r="G319" s="46"/>
+      <c r="G319" s="47"/>
       <c r="H319" s="25"/>
-      <c r="K319" s="45"/>
-      <c r="L319" s="45"/>
+      <c r="K319" s="46"/>
+      <c r="L319" s="46"/>
     </row>
     <row r="320">
-      <c r="G320" s="46"/>
+      <c r="G320" s="47"/>
       <c r="H320" s="25"/>
-      <c r="K320" s="45"/>
-      <c r="L320" s="45"/>
+      <c r="K320" s="46"/>
+      <c r="L320" s="46"/>
     </row>
     <row r="321">
-      <c r="G321" s="46"/>
+      <c r="G321" s="47"/>
       <c r="H321" s="25"/>
-      <c r="K321" s="45"/>
-      <c r="L321" s="45"/>
+      <c r="K321" s="46"/>
+      <c r="L321" s="46"/>
     </row>
     <row r="322">
-      <c r="G322" s="46"/>
+      <c r="G322" s="47"/>
       <c r="H322" s="25"/>
-      <c r="K322" s="45"/>
-      <c r="L322" s="45"/>
+      <c r="K322" s="46"/>
+      <c r="L322" s="46"/>
     </row>
     <row r="323">
-      <c r="G323" s="46"/>
+      <c r="G323" s="47"/>
       <c r="H323" s="25"/>
-      <c r="K323" s="45"/>
-      <c r="L323" s="45"/>
+      <c r="K323" s="46"/>
+      <c r="L323" s="46"/>
     </row>
     <row r="324">
-      <c r="G324" s="46"/>
+      <c r="G324" s="47"/>
       <c r="H324" s="25"/>
-      <c r="K324" s="45"/>
-      <c r="L324" s="45"/>
+      <c r="K324" s="46"/>
+      <c r="L324" s="46"/>
     </row>
     <row r="325">
-      <c r="G325" s="46"/>
+      <c r="G325" s="47"/>
       <c r="H325" s="25"/>
-      <c r="K325" s="45"/>
-      <c r="L325" s="45"/>
+      <c r="K325" s="46"/>
+      <c r="L325" s="46"/>
     </row>
     <row r="326">
-      <c r="G326" s="46"/>
+      <c r="G326" s="47"/>
       <c r="H326" s="25"/>
-      <c r="K326" s="45"/>
-      <c r="L326" s="45"/>
+      <c r="K326" s="46"/>
+      <c r="L326" s="46"/>
     </row>
     <row r="327">
-      <c r="G327" s="46"/>
+      <c r="G327" s="47"/>
       <c r="H327" s="25"/>
-      <c r="K327" s="45"/>
-      <c r="L327" s="45"/>
+      <c r="K327" s="46"/>
+      <c r="L327" s="46"/>
     </row>
     <row r="328">
-      <c r="G328" s="46"/>
+      <c r="G328" s="47"/>
       <c r="H328" s="25"/>
-      <c r="K328" s="45"/>
-      <c r="L328" s="45"/>
+      <c r="K328" s="46"/>
+      <c r="L328" s="46"/>
     </row>
     <row r="329">
-      <c r="G329" s="46"/>
+      <c r="G329" s="47"/>
       <c r="H329" s="25"/>
-      <c r="K329" s="45"/>
-      <c r="L329" s="45"/>
+      <c r="K329" s="46"/>
+      <c r="L329" s="46"/>
     </row>
     <row r="330">
-      <c r="G330" s="46"/>
+      <c r="G330" s="47"/>
       <c r="H330" s="25"/>
-      <c r="K330" s="45"/>
-      <c r="L330" s="45"/>
+      <c r="K330" s="46"/>
+      <c r="L330" s="46"/>
     </row>
     <row r="331">
-      <c r="G331" s="46"/>
+      <c r="G331" s="47"/>
       <c r="H331" s="25"/>
-      <c r="K331" s="45"/>
-      <c r="L331" s="45"/>
+      <c r="K331" s="46"/>
+      <c r="L331" s="46"/>
     </row>
     <row r="332">
-      <c r="G332" s="46"/>
+      <c r="G332" s="47"/>
       <c r="H332" s="25"/>
-      <c r="K332" s="45"/>
-      <c r="L332" s="45"/>
+      <c r="K332" s="46"/>
+      <c r="L332" s="46"/>
     </row>
     <row r="333">
-      <c r="G333" s="46"/>
+      <c r="G333" s="47"/>
       <c r="H333" s="25"/>
-      <c r="K333" s="45"/>
-      <c r="L333" s="45"/>
+      <c r="K333" s="46"/>
+      <c r="L333" s="46"/>
     </row>
     <row r="334">
-      <c r="G334" s="46"/>
+      <c r="G334" s="47"/>
       <c r="H334" s="25"/>
-      <c r="K334" s="45"/>
-      <c r="L334" s="45"/>
+      <c r="K334" s="46"/>
+      <c r="L334" s="46"/>
     </row>
     <row r="335">
-      <c r="G335" s="46"/>
+      <c r="G335" s="47"/>
       <c r="H335" s="25"/>
-      <c r="K335" s="45"/>
-      <c r="L335" s="45"/>
+      <c r="K335" s="46"/>
+      <c r="L335" s="46"/>
     </row>
     <row r="336">
-      <c r="G336" s="46"/>
+      <c r="G336" s="47"/>
       <c r="H336" s="25"/>
-      <c r="K336" s="45"/>
-      <c r="L336" s="45"/>
+      <c r="K336" s="46"/>
+      <c r="L336" s="46"/>
     </row>
     <row r="337">
-      <c r="G337" s="46"/>
+      <c r="G337" s="47"/>
       <c r="H337" s="25"/>
-      <c r="K337" s="45"/>
-      <c r="L337" s="45"/>
+      <c r="K337" s="46"/>
+      <c r="L337" s="46"/>
     </row>
     <row r="338">
-      <c r="G338" s="46"/>
+      <c r="G338" s="47"/>
       <c r="H338" s="25"/>
-      <c r="K338" s="45"/>
-      <c r="L338" s="45"/>
+      <c r="K338" s="46"/>
+      <c r="L338" s="46"/>
     </row>
     <row r="339">
-      <c r="G339" s="46"/>
+      <c r="G339" s="47"/>
       <c r="H339" s="25"/>
-      <c r="K339" s="45"/>
-      <c r="L339" s="45"/>
+      <c r="K339" s="46"/>
+      <c r="L339" s="46"/>
     </row>
     <row r="340">
-      <c r="G340" s="46"/>
+      <c r="G340" s="47"/>
       <c r="H340" s="25"/>
-      <c r="K340" s="45"/>
-      <c r="L340" s="45"/>
+      <c r="K340" s="46"/>
+      <c r="L340" s="46"/>
     </row>
     <row r="341">
-      <c r="G341" s="46"/>
+      <c r="G341" s="47"/>
       <c r="H341" s="25"/>
-      <c r="K341" s="45"/>
-      <c r="L341" s="45"/>
+      <c r="K341" s="46"/>
+      <c r="L341" s="46"/>
     </row>
     <row r="342">
-      <c r="G342" s="46"/>
+      <c r="G342" s="47"/>
       <c r="H342" s="25"/>
-      <c r="K342" s="45"/>
-      <c r="L342" s="45"/>
+      <c r="K342" s="46"/>
+      <c r="L342" s="46"/>
     </row>
     <row r="343">
-      <c r="G343" s="46"/>
+      <c r="G343" s="47"/>
       <c r="H343" s="25"/>
-      <c r="K343" s="45"/>
-      <c r="L343" s="45"/>
+      <c r="K343" s="46"/>
+      <c r="L343" s="46"/>
     </row>
     <row r="344">
-      <c r="G344" s="46"/>
+      <c r="G344" s="47"/>
       <c r="H344" s="25"/>
-      <c r="K344" s="45"/>
-      <c r="L344" s="45"/>
+      <c r="K344" s="46"/>
+      <c r="L344" s="46"/>
     </row>
     <row r="345">
-      <c r="G345" s="46"/>
+      <c r="G345" s="47"/>
       <c r="H345" s="25"/>
-      <c r="K345" s="45"/>
-      <c r="L345" s="45"/>
+      <c r="K345" s="46"/>
+      <c r="L345" s="46"/>
     </row>
     <row r="346">
-      <c r="G346" s="46"/>
+      <c r="G346" s="47"/>
       <c r="H346" s="25"/>
-      <c r="K346" s="45"/>
-      <c r="L346" s="45"/>
+      <c r="K346" s="46"/>
+      <c r="L346" s="46"/>
     </row>
     <row r="347">
-      <c r="G347" s="46"/>
+      <c r="G347" s="47"/>
       <c r="H347" s="25"/>
-      <c r="K347" s="45"/>
-      <c r="L347" s="45"/>
+      <c r="K347" s="46"/>
+      <c r="L347" s="46"/>
     </row>
     <row r="348">
-      <c r="G348" s="46"/>
+      <c r="G348" s="47"/>
       <c r="H348" s="25"/>
-      <c r="K348" s="45"/>
-      <c r="L348" s="45"/>
+      <c r="K348" s="46"/>
+      <c r="L348" s="46"/>
     </row>
     <row r="349">
-      <c r="G349" s="46"/>
+      <c r="G349" s="47"/>
       <c r="H349" s="25"/>
-      <c r="K349" s="45"/>
-      <c r="L349" s="45"/>
+      <c r="K349" s="46"/>
+      <c r="L349" s="46"/>
     </row>
     <row r="350">
-      <c r="G350" s="46"/>
+      <c r="G350" s="47"/>
       <c r="H350" s="25"/>
-      <c r="K350" s="45"/>
-      <c r="L350" s="45"/>
+      <c r="K350" s="46"/>
+      <c r="L350" s="46"/>
     </row>
     <row r="351">
-      <c r="G351" s="46"/>
+      <c r="G351" s="47"/>
       <c r="H351" s="25"/>
-      <c r="K351" s="45"/>
-      <c r="L351" s="45"/>
+      <c r="K351" s="46"/>
+      <c r="L351" s="46"/>
     </row>
     <row r="352">
-      <c r="G352" s="46"/>
+      <c r="G352" s="47"/>
       <c r="H352" s="25"/>
-      <c r="K352" s="45"/>
-      <c r="L352" s="45"/>
+      <c r="K352" s="46"/>
+      <c r="L352" s="46"/>
     </row>
     <row r="353">
-      <c r="G353" s="46"/>
+      <c r="G353" s="47"/>
       <c r="H353" s="25"/>
-      <c r="K353" s="45"/>
-      <c r="L353" s="45"/>
+      <c r="K353" s="46"/>
+      <c r="L353" s="46"/>
     </row>
     <row r="354">
-      <c r="G354" s="46"/>
+      <c r="G354" s="47"/>
       <c r="H354" s="25"/>
-      <c r="K354" s="45"/>
-      <c r="L354" s="45"/>
+      <c r="K354" s="46"/>
+      <c r="L354" s="46"/>
     </row>
     <row r="355">
-      <c r="G355" s="46"/>
+      <c r="G355" s="47"/>
       <c r="H355" s="25"/>
-      <c r="K355" s="45"/>
-      <c r="L355" s="45"/>
+      <c r="K355" s="46"/>
+      <c r="L355" s="46"/>
     </row>
     <row r="356">
-      <c r="G356" s="46"/>
+      <c r="G356" s="47"/>
       <c r="H356" s="25"/>
-      <c r="K356" s="45"/>
-      <c r="L356" s="45"/>
+      <c r="K356" s="46"/>
+      <c r="L356" s="46"/>
     </row>
     <row r="357">
-      <c r="G357" s="46"/>
+      <c r="G357" s="47"/>
       <c r="H357" s="25"/>
-      <c r="K357" s="45"/>
-      <c r="L357" s="45"/>
+      <c r="K357" s="46"/>
+      <c r="L357" s="46"/>
     </row>
     <row r="358">
-      <c r="G358" s="46"/>
+      <c r="G358" s="47"/>
       <c r="H358" s="25"/>
-      <c r="K358" s="45"/>
-      <c r="L358" s="45"/>
+      <c r="K358" s="46"/>
+      <c r="L358" s="46"/>
     </row>
     <row r="359">
-      <c r="G359" s="46"/>
+      <c r="G359" s="47"/>
       <c r="H359" s="25"/>
-      <c r="K359" s="45"/>
-      <c r="L359" s="45"/>
+      <c r="K359" s="46"/>
+      <c r="L359" s="46"/>
     </row>
     <row r="360">
-      <c r="G360" s="46"/>
+      <c r="G360" s="47"/>
       <c r="H360" s="25"/>
-      <c r="K360" s="45"/>
-      <c r="L360" s="45"/>
+      <c r="K360" s="46"/>
+      <c r="L360" s="46"/>
     </row>
     <row r="361">
-      <c r="G361" s="46"/>
+      <c r="G361" s="47"/>
       <c r="H361" s="25"/>
-      <c r="K361" s="45"/>
-      <c r="L361" s="45"/>
+      <c r="K361" s="46"/>
+      <c r="L361" s="46"/>
     </row>
     <row r="362">
-      <c r="G362" s="46"/>
+      <c r="G362" s="47"/>
       <c r="H362" s="25"/>
-      <c r="K362" s="45"/>
-      <c r="L362" s="45"/>
+      <c r="K362" s="46"/>
+      <c r="L362" s="46"/>
     </row>
     <row r="363">
-      <c r="G363" s="46"/>
+      <c r="G363" s="47"/>
       <c r="H363" s="25"/>
-      <c r="K363" s="45"/>
-      <c r="L363" s="45"/>
+      <c r="K363" s="46"/>
+      <c r="L363" s="46"/>
     </row>
     <row r="364">
-      <c r="G364" s="46"/>
+      <c r="G364" s="47"/>
       <c r="H364" s="25"/>
-      <c r="K364" s="45"/>
-      <c r="L364" s="45"/>
+      <c r="K364" s="46"/>
+      <c r="L364" s="46"/>
     </row>
     <row r="365">
-      <c r="G365" s="46"/>
+      <c r="G365" s="47"/>
       <c r="H365" s="25"/>
-      <c r="K365" s="45"/>
-      <c r="L365" s="45"/>
+      <c r="K365" s="46"/>
+      <c r="L365" s="46"/>
     </row>
     <row r="366">
-      <c r="G366" s="46"/>
+      <c r="G366" s="47"/>
       <c r="H366" s="25"/>
-      <c r="K366" s="45"/>
-      <c r="L366" s="45"/>
+      <c r="K366" s="46"/>
+      <c r="L366" s="46"/>
     </row>
     <row r="367">
-      <c r="G367" s="46"/>
+      <c r="G367" s="47"/>
       <c r="H367" s="25"/>
-      <c r="K367" s="45"/>
-      <c r="L367" s="45"/>
+      <c r="K367" s="46"/>
+      <c r="L367" s="46"/>
     </row>
     <row r="368">
-      <c r="G368" s="46"/>
+      <c r="G368" s="47"/>
       <c r="H368" s="25"/>
-      <c r="K368" s="45"/>
-      <c r="L368" s="45"/>
+      <c r="K368" s="46"/>
+      <c r="L368" s="46"/>
     </row>
     <row r="369">
-      <c r="G369" s="46"/>
+      <c r="G369" s="47"/>
       <c r="H369" s="25"/>
-      <c r="K369" s="45"/>
-      <c r="L369" s="45"/>
+      <c r="K369" s="46"/>
+      <c r="L369" s="46"/>
     </row>
     <row r="370">
-      <c r="G370" s="46"/>
+      <c r="G370" s="47"/>
       <c r="H370" s="25"/>
-      <c r="K370" s="45"/>
-      <c r="L370" s="45"/>
+      <c r="K370" s="46"/>
+      <c r="L370" s="46"/>
     </row>
     <row r="371">
-      <c r="G371" s="46"/>
+      <c r="G371" s="47"/>
       <c r="H371" s="25"/>
-      <c r="K371" s="45"/>
-      <c r="L371" s="45"/>
+      <c r="K371" s="46"/>
+      <c r="L371" s="46"/>
     </row>
     <row r="372">
-      <c r="G372" s="46"/>
+      <c r="G372" s="47"/>
       <c r="H372" s="25"/>
-      <c r="K372" s="45"/>
-      <c r="L372" s="45"/>
+      <c r="K372" s="46"/>
+      <c r="L372" s="46"/>
     </row>
     <row r="373">
-      <c r="G373" s="46"/>
+      <c r="G373" s="47"/>
       <c r="H373" s="25"/>
-      <c r="K373" s="45"/>
-      <c r="L373" s="45"/>
+      <c r="K373" s="46"/>
+      <c r="L373" s="46"/>
     </row>
     <row r="374">
-      <c r="G374" s="46"/>
+      <c r="G374" s="47"/>
       <c r="H374" s="25"/>
-      <c r="K374" s="45"/>
-      <c r="L374" s="45"/>
+      <c r="K374" s="46"/>
+      <c r="L374" s="46"/>
     </row>
     <row r="375">
-      <c r="G375" s="46"/>
+      <c r="G375" s="47"/>
       <c r="H375" s="25"/>
-      <c r="K375" s="45"/>
-      <c r="L375" s="45"/>
+      <c r="K375" s="46"/>
+      <c r="L375" s="46"/>
     </row>
     <row r="376">
-      <c r="G376" s="46"/>
+      <c r="G376" s="47"/>
       <c r="H376" s="25"/>
-      <c r="K376" s="45"/>
-      <c r="L376" s="45"/>
+      <c r="K376" s="46"/>
+      <c r="L376" s="46"/>
     </row>
     <row r="377">
-      <c r="G377" s="46"/>
+      <c r="G377" s="47"/>
       <c r="H377" s="25"/>
-      <c r="K377" s="45"/>
-      <c r="L377" s="45"/>
+      <c r="K377" s="46"/>
+      <c r="L377" s="46"/>
     </row>
     <row r="378">
-      <c r="G378" s="46"/>
+      <c r="G378" s="47"/>
       <c r="H378" s="25"/>
-      <c r="K378" s="45"/>
-      <c r="L378" s="45"/>
+      <c r="K378" s="46"/>
+      <c r="L378" s="46"/>
     </row>
     <row r="379">
-      <c r="G379" s="46"/>
+      <c r="G379" s="47"/>
       <c r="H379" s="25"/>
-      <c r="K379" s="45"/>
-      <c r="L379" s="45"/>
+      <c r="K379" s="46"/>
+      <c r="L379" s="46"/>
     </row>
     <row r="380">
-      <c r="G380" s="46"/>
+      <c r="G380" s="47"/>
       <c r="H380" s="25"/>
-      <c r="K380" s="45"/>
-      <c r="L380" s="45"/>
+      <c r="K380" s="46"/>
+      <c r="L380" s="46"/>
     </row>
     <row r="381">
-      <c r="G381" s="46"/>
+      <c r="G381" s="47"/>
       <c r="H381" s="25"/>
-      <c r="K381" s="45"/>
-      <c r="L381" s="45"/>
+      <c r="K381" s="46"/>
+      <c r="L381" s="46"/>
     </row>
     <row r="382">
-      <c r="G382" s="46"/>
+      <c r="G382" s="47"/>
       <c r="H382" s="25"/>
-      <c r="K382" s="45"/>
-      <c r="L382" s="45"/>
+      <c r="K382" s="46"/>
+      <c r="L382" s="46"/>
     </row>
     <row r="383">
-      <c r="G383" s="46"/>
+      <c r="G383" s="47"/>
       <c r="H383" s="25"/>
-      <c r="K383" s="45"/>
-      <c r="L383" s="45"/>
+      <c r="K383" s="46"/>
+      <c r="L383" s="46"/>
     </row>
     <row r="384">
-      <c r="G384" s="46"/>
+      <c r="G384" s="47"/>
       <c r="H384" s="25"/>
-      <c r="K384" s="45"/>
-      <c r="L384" s="45"/>
+      <c r="K384" s="46"/>
+      <c r="L384" s="46"/>
     </row>
     <row r="385">
-      <c r="G385" s="46"/>
+      <c r="G385" s="47"/>
       <c r="H385" s="25"/>
-      <c r="K385" s="45"/>
-      <c r="L385" s="45"/>
+      <c r="K385" s="46"/>
+      <c r="L385" s="46"/>
     </row>
     <row r="386">
-      <c r="G386" s="46"/>
+      <c r="G386" s="47"/>
       <c r="H386" s="25"/>
-      <c r="K386" s="45"/>
-      <c r="L386" s="45"/>
+      <c r="K386" s="46"/>
+      <c r="L386" s="46"/>
     </row>
     <row r="387">
-      <c r="G387" s="46"/>
+      <c r="G387" s="47"/>
       <c r="H387" s="25"/>
-      <c r="K387" s="45"/>
-      <c r="L387" s="45"/>
+      <c r="K387" s="46"/>
+      <c r="L387" s="46"/>
     </row>
     <row r="388">
-      <c r="G388" s="46"/>
+      <c r="G388" s="47"/>
       <c r="H388" s="25"/>
-      <c r="K388" s="45"/>
-      <c r="L388" s="45"/>
+      <c r="K388" s="46"/>
+      <c r="L388" s="46"/>
     </row>
     <row r="389">
-      <c r="G389" s="46"/>
+      <c r="G389" s="47"/>
       <c r="H389" s="25"/>
-      <c r="K389" s="45"/>
-      <c r="L389" s="45"/>
+      <c r="K389" s="46"/>
+      <c r="L389" s="46"/>
     </row>
     <row r="390">
-      <c r="G390" s="46"/>
+      <c r="G390" s="47"/>
       <c r="H390" s="25"/>
-      <c r="K390" s="45"/>
-      <c r="L390" s="45"/>
+      <c r="K390" s="46"/>
+      <c r="L390" s="46"/>
     </row>
     <row r="391">
-      <c r="G391" s="46"/>
+      <c r="G391" s="47"/>
       <c r="H391" s="25"/>
-      <c r="K391" s="45"/>
-      <c r="L391" s="45"/>
+      <c r="K391" s="46"/>
+      <c r="L391" s="46"/>
     </row>
     <row r="392">
-      <c r="G392" s="46"/>
+      <c r="G392" s="47"/>
       <c r="H392" s="25"/>
-      <c r="K392" s="45"/>
-      <c r="L392" s="45"/>
+      <c r="K392" s="46"/>
+      <c r="L392" s="46"/>
     </row>
     <row r="393">
-      <c r="G393" s="46"/>
+      <c r="G393" s="47"/>
       <c r="H393" s="25"/>
-      <c r="K393" s="45"/>
-      <c r="L393" s="45"/>
+      <c r="K393" s="46"/>
+      <c r="L393" s="46"/>
     </row>
     <row r="394">
-      <c r="G394" s="46"/>
+      <c r="G394" s="47"/>
       <c r="H394" s="25"/>
-      <c r="K394" s="45"/>
-      <c r="L394" s="45"/>
+      <c r="K394" s="46"/>
+      <c r="L394" s="46"/>
     </row>
     <row r="395">
-      <c r="G395" s="46"/>
+      <c r="G395" s="47"/>
       <c r="H395" s="25"/>
-      <c r="K395" s="45"/>
-      <c r="L395" s="45"/>
+      <c r="K395" s="46"/>
+      <c r="L395" s="46"/>
     </row>
     <row r="396">
-      <c r="G396" s="46"/>
+      <c r="G396" s="47"/>
       <c r="H396" s="25"/>
-      <c r="K396" s="45"/>
-      <c r="L396" s="45"/>
+      <c r="K396" s="46"/>
+      <c r="L396" s="46"/>
     </row>
     <row r="397">
-      <c r="G397" s="46"/>
+      <c r="G397" s="47"/>
       <c r="H397" s="25"/>
-      <c r="K397" s="45"/>
-      <c r="L397" s="45"/>
+      <c r="K397" s="46"/>
+      <c r="L397" s="46"/>
     </row>
     <row r="398">
-      <c r="G398" s="46"/>
+      <c r="G398" s="47"/>
       <c r="H398" s="25"/>
-      <c r="K398" s="45"/>
-      <c r="L398" s="45"/>
+      <c r="K398" s="46"/>
+      <c r="L398" s="46"/>
     </row>
     <row r="399">
-      <c r="G399" s="46"/>
+      <c r="G399" s="47"/>
       <c r="H399" s="25"/>
-      <c r="K399" s="45"/>
-      <c r="L399" s="45"/>
+      <c r="K399" s="46"/>
+      <c r="L399" s="46"/>
     </row>
     <row r="400">
-      <c r="G400" s="46"/>
+      <c r="G400" s="47"/>
       <c r="H400" s="25"/>
-      <c r="K400" s="45"/>
-      <c r="L400" s="45"/>
+      <c r="K400" s="46"/>
+      <c r="L400" s="46"/>
     </row>
     <row r="401">
-      <c r="G401" s="46"/>
+      <c r="G401" s="47"/>
       <c r="H401" s="25"/>
-      <c r="K401" s="45"/>
-      <c r="L401" s="45"/>
+      <c r="K401" s="46"/>
+      <c r="L401" s="46"/>
     </row>
     <row r="402">
-      <c r="G402" s="46"/>
+      <c r="G402" s="47"/>
       <c r="H402" s="25"/>
-      <c r="K402" s="45"/>
-      <c r="L402" s="45"/>
+      <c r="K402" s="46"/>
+      <c r="L402" s="46"/>
     </row>
     <row r="403">
-      <c r="G403" s="46"/>
+      <c r="G403" s="47"/>
       <c r="H403" s="25"/>
-      <c r="K403" s="45"/>
-      <c r="L403" s="45"/>
+      <c r="K403" s="46"/>
+      <c r="L403" s="46"/>
     </row>
     <row r="404">
-      <c r="G404" s="46"/>
+      <c r="G404" s="47"/>
       <c r="H404" s="25"/>
-      <c r="K404" s="45"/>
-      <c r="L404" s="45"/>
+      <c r="K404" s="46"/>
+      <c r="L404" s="46"/>
     </row>
     <row r="405">
-      <c r="G405" s="46"/>
+      <c r="G405" s="47"/>
       <c r="H405" s="25"/>
-      <c r="K405" s="45"/>
-      <c r="L405" s="45"/>
+      <c r="K405" s="46"/>
+      <c r="L405" s="46"/>
     </row>
     <row r="406">
-      <c r="G406" s="46"/>
+      <c r="G406" s="47"/>
       <c r="H406" s="25"/>
-      <c r="K406" s="45"/>
-      <c r="L406" s="45"/>
+      <c r="K406" s="46"/>
+      <c r="L406" s="46"/>
     </row>
     <row r="407">
-      <c r="G407" s="46"/>
+      <c r="G407" s="47"/>
       <c r="H407" s="25"/>
-      <c r="K407" s="45"/>
-      <c r="L407" s="45"/>
+      <c r="K407" s="46"/>
+      <c r="L407" s="46"/>
     </row>
     <row r="408">
-      <c r="G408" s="46"/>
+      <c r="G408" s="47"/>
       <c r="H408" s="25"/>
-      <c r="K408" s="45"/>
-      <c r="L408" s="45"/>
+      <c r="K408" s="46"/>
+      <c r="L408" s="46"/>
     </row>
     <row r="409">
-      <c r="G409" s="46"/>
+      <c r="G409" s="47"/>
       <c r="H409" s="25"/>
-      <c r="K409" s="45"/>
-      <c r="L409" s="45"/>
+      <c r="K409" s="46"/>
+      <c r="L409" s="46"/>
     </row>
     <row r="410">
-      <c r="G410" s="46"/>
+      <c r="G410" s="47"/>
       <c r="H410" s="25"/>
-      <c r="K410" s="45"/>
-      <c r="L410" s="45"/>
+      <c r="K410" s="46"/>
+      <c r="L410" s="46"/>
     </row>
     <row r="411">
-      <c r="G411" s="46"/>
+      <c r="G411" s="47"/>
       <c r="H411" s="25"/>
-      <c r="K411" s="45"/>
-      <c r="L411" s="45"/>
+      <c r="K411" s="46"/>
+      <c r="L411" s="46"/>
     </row>
     <row r="412">
-      <c r="G412" s="46"/>
+      <c r="G412" s="47"/>
       <c r="H412" s="25"/>
-      <c r="K412" s="45"/>
-      <c r="L412" s="45"/>
+      <c r="K412" s="46"/>
+      <c r="L412" s="46"/>
     </row>
     <row r="413">
-      <c r="G413" s="46"/>
+      <c r="G413" s="47"/>
       <c r="H413" s="25"/>
-      <c r="K413" s="45"/>
-      <c r="L413" s="45"/>
+      <c r="K413" s="46"/>
+      <c r="L413" s="46"/>
     </row>
     <row r="414">
-      <c r="G414" s="46"/>
+      <c r="G414" s="47"/>
       <c r="H414" s="25"/>
-      <c r="K414" s="45"/>
-      <c r="L414" s="45"/>
+      <c r="K414" s="46"/>
+      <c r="L414" s="46"/>
     </row>
     <row r="415">
-      <c r="G415" s="46"/>
+      <c r="G415" s="47"/>
       <c r="H415" s="25"/>
-      <c r="K415" s="45"/>
-      <c r="L415" s="45"/>
+      <c r="K415" s="46"/>
+      <c r="L415" s="46"/>
     </row>
     <row r="416">
-      <c r="G416" s="46"/>
+      <c r="G416" s="47"/>
       <c r="H416" s="25"/>
-      <c r="K416" s="45"/>
-      <c r="L416" s="45"/>
+      <c r="K416" s="46"/>
+      <c r="L416" s="46"/>
     </row>
     <row r="417">
-      <c r="G417" s="46"/>
+      <c r="G417" s="47"/>
       <c r="H417" s="25"/>
-      <c r="K417" s="45"/>
-      <c r="L417" s="45"/>
+      <c r="K417" s="46"/>
+      <c r="L417" s="46"/>
     </row>
     <row r="418">
-      <c r="G418" s="46"/>
+      <c r="G418" s="47"/>
       <c r="H418" s="25"/>
-      <c r="K418" s="45"/>
-      <c r="L418" s="45"/>
+      <c r="K418" s="46"/>
+      <c r="L418" s="46"/>
     </row>
     <row r="419">
-      <c r="G419" s="46"/>
+      <c r="G419" s="47"/>
       <c r="H419" s="25"/>
-      <c r="K419" s="45"/>
-      <c r="L419" s="45"/>
+      <c r="K419" s="46"/>
+      <c r="L419" s="46"/>
     </row>
     <row r="420">
-      <c r="G420" s="46"/>
+      <c r="G420" s="47"/>
       <c r="H420" s="25"/>
-      <c r="K420" s="45"/>
-      <c r="L420" s="45"/>
+      <c r="K420" s="46"/>
+      <c r="L420" s="46"/>
     </row>
     <row r="421">
-      <c r="G421" s="46"/>
+      <c r="G421" s="47"/>
       <c r="H421" s="25"/>
-      <c r="K421" s="45"/>
-      <c r="L421" s="45"/>
+      <c r="K421" s="46"/>
+      <c r="L421" s="46"/>
     </row>
     <row r="422">
-      <c r="G422" s="46"/>
+      <c r="G422" s="47"/>
       <c r="H422" s="25"/>
-      <c r="K422" s="45"/>
-      <c r="L422" s="45"/>
+      <c r="K422" s="46"/>
+      <c r="L422" s="46"/>
     </row>
     <row r="423">
-      <c r="G423" s="46"/>
+      <c r="G423" s="47"/>
       <c r="H423" s="25"/>
-      <c r="K423" s="45"/>
-      <c r="L423" s="45"/>
+      <c r="K423" s="46"/>
+      <c r="L423" s="46"/>
     </row>
     <row r="424">
-      <c r="G424" s="46"/>
+      <c r="G424" s="47"/>
       <c r="H424" s="25"/>
-      <c r="K424" s="45"/>
-      <c r="L424" s="45"/>
+      <c r="K424" s="46"/>
+      <c r="L424" s="46"/>
     </row>
     <row r="425">
-      <c r="G425" s="46"/>
+      <c r="G425" s="47"/>
       <c r="H425" s="25"/>
-      <c r="K425" s="45"/>
-      <c r="L425" s="45"/>
+      <c r="K425" s="46"/>
+      <c r="L425" s="46"/>
     </row>
     <row r="426">
-      <c r="G426" s="46"/>
+      <c r="G426" s="47"/>
       <c r="H426" s="25"/>
-      <c r="K426" s="45"/>
-      <c r="L426" s="45"/>
+      <c r="K426" s="46"/>
+      <c r="L426" s="46"/>
     </row>
     <row r="427">
-      <c r="G427" s="46"/>
+      <c r="G427" s="47"/>
       <c r="H427" s="25"/>
-      <c r="K427" s="45"/>
-      <c r="L427" s="45"/>
+      <c r="K427" s="46"/>
+      <c r="L427" s="46"/>
     </row>
     <row r="428">
-      <c r="G428" s="46"/>
+      <c r="G428" s="47"/>
       <c r="H428" s="25"/>
-      <c r="K428" s="45"/>
-      <c r="L428" s="45"/>
+      <c r="K428" s="46"/>
+      <c r="L428" s="46"/>
     </row>
     <row r="429">
-      <c r="G429" s="46"/>
+      <c r="G429" s="47"/>
       <c r="H429" s="25"/>
-      <c r="K429" s="45"/>
-      <c r="L429" s="45"/>
+      <c r="K429" s="46"/>
+      <c r="L429" s="46"/>
     </row>
     <row r="430">
-      <c r="G430" s="46"/>
+      <c r="G430" s="47"/>
       <c r="H430" s="25"/>
-      <c r="K430" s="45"/>
-      <c r="L430" s="45"/>
+      <c r="K430" s="46"/>
+      <c r="L430" s="46"/>
     </row>
     <row r="431">
-      <c r="G431" s="46"/>
+      <c r="G431" s="47"/>
       <c r="H431" s="25"/>
-      <c r="K431" s="45"/>
-      <c r="L431" s="45"/>
+      <c r="K431" s="46"/>
+      <c r="L431" s="46"/>
     </row>
     <row r="432">
-      <c r="G432" s="46"/>
+      <c r="G432" s="47"/>
       <c r="H432" s="25"/>
-      <c r="K432" s="45"/>
-      <c r="L432" s="45"/>
+      <c r="K432" s="46"/>
+      <c r="L432" s="46"/>
     </row>
     <row r="433">
-      <c r="G433" s="46"/>
+      <c r="G433" s="47"/>
       <c r="H433" s="25"/>
-      <c r="K433" s="45"/>
-      <c r="L433" s="45"/>
+      <c r="K433" s="46"/>
+      <c r="L433" s="46"/>
     </row>
     <row r="434">
-      <c r="G434" s="46"/>
+      <c r="G434" s="47"/>
       <c r="H434" s="25"/>
-      <c r="K434" s="45"/>
-      <c r="L434" s="45"/>
+      <c r="K434" s="46"/>
+      <c r="L434" s="46"/>
     </row>
     <row r="435">
-      <c r="G435" s="46"/>
+      <c r="G435" s="47"/>
       <c r="H435" s="25"/>
-      <c r="K435" s="45"/>
-      <c r="L435" s="45"/>
+      <c r="K435" s="46"/>
+      <c r="L435" s="46"/>
     </row>
     <row r="436">
-      <c r="G436" s="46"/>
+      <c r="G436" s="47"/>
       <c r="H436" s="25"/>
-      <c r="K436" s="45"/>
-      <c r="L436" s="45"/>
+      <c r="K436" s="46"/>
+      <c r="L436" s="46"/>
     </row>
     <row r="437">
-      <c r="G437" s="46"/>
+      <c r="G437" s="47"/>
       <c r="H437" s="25"/>
-      <c r="K437" s="45"/>
-      <c r="L437" s="45"/>
+      <c r="K437" s="46"/>
+      <c r="L437" s="46"/>
     </row>
     <row r="438">
-      <c r="G438" s="46"/>
+      <c r="G438" s="47"/>
       <c r="H438" s="25"/>
-      <c r="K438" s="45"/>
-      <c r="L438" s="45"/>
+      <c r="K438" s="46"/>
+      <c r="L438" s="46"/>
     </row>
     <row r="439">
-      <c r="G439" s="46"/>
+      <c r="G439" s="47"/>
       <c r="H439" s="25"/>
-      <c r="K439" s="45"/>
-      <c r="L439" s="45"/>
+      <c r="K439" s="46"/>
+      <c r="L439" s="46"/>
     </row>
     <row r="440">
-      <c r="G440" s="46"/>
+      <c r="G440" s="47"/>
       <c r="H440" s="25"/>
-      <c r="K440" s="45"/>
-      <c r="L440" s="45"/>
+      <c r="K440" s="46"/>
+      <c r="L440" s="46"/>
     </row>
     <row r="441">
-      <c r="G441" s="46"/>
+      <c r="G441" s="47"/>
       <c r="H441" s="25"/>
-      <c r="K441" s="45"/>
-      <c r="L441" s="45"/>
+      <c r="K441" s="46"/>
+      <c r="L441" s="46"/>
     </row>
     <row r="442">
-      <c r="G442" s="46"/>
+      <c r="G442" s="47"/>
       <c r="H442" s="25"/>
-      <c r="K442" s="45"/>
-      <c r="L442" s="45"/>
+      <c r="K442" s="46"/>
+      <c r="L442" s="46"/>
     </row>
     <row r="443">
-      <c r="G443" s="46"/>
+      <c r="G443" s="47"/>
       <c r="H443" s="25"/>
-      <c r="K443" s="45"/>
-      <c r="L443" s="45"/>
+      <c r="K443" s="46"/>
+      <c r="L443" s="46"/>
     </row>
     <row r="444">
-      <c r="G444" s="46"/>
+      <c r="G444" s="47"/>
       <c r="H444" s="25"/>
-      <c r="K444" s="45"/>
-      <c r="L444" s="45"/>
+      <c r="K444" s="46"/>
+      <c r="L444" s="46"/>
     </row>
     <row r="445">
-      <c r="G445" s="46"/>
+      <c r="G445" s="47"/>
       <c r="H445" s="25"/>
-      <c r="K445" s="45"/>
-      <c r="L445" s="45"/>
+      <c r="K445" s="46"/>
+      <c r="L445" s="46"/>
     </row>
     <row r="446">
-      <c r="G446" s="46"/>
+      <c r="G446" s="47"/>
       <c r="H446" s="25"/>
-      <c r="K446" s="45"/>
-      <c r="L446" s="45"/>
+      <c r="K446" s="46"/>
+      <c r="L446" s="46"/>
     </row>
     <row r="447">
-      <c r="G447" s="46"/>
+      <c r="G447" s="47"/>
       <c r="H447" s="25"/>
-      <c r="K447" s="45"/>
-      <c r="L447" s="45"/>
+      <c r="K447" s="46"/>
+      <c r="L447" s="46"/>
     </row>
     <row r="448">
-      <c r="G448" s="46"/>
+      <c r="G448" s="47"/>
       <c r="H448" s="25"/>
-      <c r="K448" s="45"/>
-      <c r="L448" s="45"/>
+      <c r="K448" s="46"/>
+      <c r="L448" s="46"/>
     </row>
     <row r="449">
-      <c r="G449" s="46"/>
+      <c r="G449" s="47"/>
       <c r="H449" s="25"/>
-      <c r="K449" s="45"/>
-      <c r="L449" s="45"/>
+      <c r="K449" s="46"/>
+      <c r="L449" s="46"/>
     </row>
     <row r="450">
-      <c r="G450" s="46"/>
+      <c r="G450" s="47"/>
       <c r="H450" s="25"/>
-      <c r="K450" s="45"/>
-      <c r="L450" s="45"/>
+      <c r="K450" s="46"/>
+      <c r="L450" s="46"/>
     </row>
     <row r="451">
-      <c r="G451" s="46"/>
+      <c r="G451" s="47"/>
       <c r="H451" s="25"/>
-      <c r="K451" s="45"/>
-      <c r="L451" s="45"/>
+      <c r="K451" s="46"/>
+      <c r="L451" s="46"/>
     </row>
     <row r="452">
-      <c r="G452" s="46"/>
+      <c r="G452" s="47"/>
       <c r="H452" s="25"/>
-      <c r="K452" s="45"/>
-      <c r="L452" s="45"/>
+      <c r="K452" s="46"/>
+      <c r="L452" s="46"/>
     </row>
     <row r="453">
-      <c r="G453" s="46"/>
+      <c r="G453" s="47"/>
       <c r="H453" s="25"/>
-      <c r="K453" s="45"/>
-      <c r="L453" s="45"/>
+      <c r="K453" s="46"/>
+      <c r="L453" s="46"/>
     </row>
     <row r="454">
-      <c r="G454" s="46"/>
+      <c r="G454" s="47"/>
       <c r="H454" s="25"/>
-      <c r="K454" s="45"/>
-      <c r="L454" s="45"/>
+      <c r="K454" s="46"/>
+      <c r="L454" s="46"/>
     </row>
     <row r="455">
-      <c r="G455" s="46"/>
+      <c r="G455" s="47"/>
       <c r="H455" s="25"/>
-      <c r="K455" s="45"/>
-      <c r="L455" s="45"/>
+      <c r="K455" s="46"/>
+      <c r="L455" s="46"/>
     </row>
     <row r="456">
-      <c r="G456" s="46"/>
+      <c r="G456" s="47"/>
       <c r="H456" s="25"/>
-      <c r="K456" s="45"/>
-      <c r="L456" s="45"/>
+      <c r="K456" s="46"/>
+      <c r="L456" s="46"/>
     </row>
     <row r="457">
-      <c r="G457" s="46"/>
+      <c r="G457" s="47"/>
       <c r="H457" s="25"/>
-      <c r="K457" s="45"/>
-      <c r="L457" s="45"/>
+      <c r="K457" s="46"/>
+      <c r="L457" s="46"/>
     </row>
     <row r="458">
-      <c r="G458" s="46"/>
+      <c r="G458" s="47"/>
       <c r="H458" s="25"/>
-      <c r="K458" s="45"/>
-      <c r="L458" s="45"/>
+      <c r="K458" s="46"/>
+      <c r="L458" s="46"/>
     </row>
     <row r="459">
-      <c r="G459" s="46"/>
+      <c r="G459" s="47"/>
       <c r="H459" s="25"/>
-      <c r="K459" s="45"/>
-      <c r="L459" s="45"/>
+      <c r="K459" s="46"/>
+      <c r="L459" s="46"/>
     </row>
     <row r="460">
-      <c r="G460" s="46"/>
+      <c r="G460" s="47"/>
       <c r="H460" s="25"/>
-      <c r="K460" s="45"/>
-      <c r="L460" s="45"/>
+      <c r="K460" s="46"/>
+      <c r="L460" s="46"/>
     </row>
     <row r="461">
-      <c r="G461" s="46"/>
+      <c r="G461" s="47"/>
       <c r="H461" s="25"/>
-      <c r="K461" s="45"/>
-      <c r="L461" s="45"/>
+      <c r="K461" s="46"/>
+      <c r="L461" s="46"/>
     </row>
     <row r="462">
-      <c r="G462" s="46"/>
+      <c r="G462" s="47"/>
       <c r="H462" s="25"/>
-      <c r="K462" s="45"/>
-      <c r="L462" s="45"/>
+      <c r="K462" s="46"/>
+      <c r="L462" s="46"/>
     </row>
     <row r="463">
-      <c r="G463" s="46"/>
+      <c r="G463" s="47"/>
       <c r="H463" s="25"/>
-      <c r="K463" s="45"/>
-      <c r="L463" s="45"/>
+      <c r="K463" s="46"/>
+      <c r="L463" s="46"/>
     </row>
     <row r="464">
-      <c r="G464" s="46"/>
+      <c r="G464" s="47"/>
       <c r="H464" s="25"/>
-      <c r="K464" s="45"/>
-      <c r="L464" s="45"/>
+      <c r="K464" s="46"/>
+      <c r="L464" s="46"/>
     </row>
     <row r="465">
-      <c r="G465" s="46"/>
+      <c r="G465" s="47"/>
       <c r="H465" s="25"/>
-      <c r="K465" s="45"/>
-      <c r="L465" s="45"/>
+      <c r="K465" s="46"/>
+      <c r="L465" s="46"/>
     </row>
     <row r="466">
-      <c r="G466" s="46"/>
+      <c r="G466" s="47"/>
       <c r="H466" s="25"/>
-      <c r="K466" s="45"/>
-      <c r="L466" s="45"/>
+      <c r="K466" s="46"/>
+      <c r="L466" s="46"/>
     </row>
     <row r="467">
-      <c r="G467" s="46"/>
+      <c r="G467" s="47"/>
       <c r="H467" s="25"/>
-      <c r="K467" s="45"/>
-      <c r="L467" s="45"/>
+      <c r="K467" s="46"/>
+      <c r="L467" s="46"/>
     </row>
     <row r="468">
-      <c r="G468" s="46"/>
+      <c r="G468" s="47"/>
       <c r="H468" s="25"/>
-      <c r="K468" s="45"/>
-      <c r="L468" s="45"/>
+      <c r="K468" s="46"/>
+      <c r="L468" s="46"/>
     </row>
     <row r="469">
-      <c r="G469" s="46"/>
+      <c r="G469" s="47"/>
       <c r="H469" s="25"/>
-      <c r="K469" s="45"/>
-      <c r="L469" s="45"/>
+      <c r="K469" s="46"/>
+      <c r="L469" s="46"/>
     </row>
     <row r="470">
-      <c r="G470" s="46"/>
+      <c r="G470" s="47"/>
       <c r="H470" s="25"/>
-      <c r="K470" s="45"/>
-      <c r="L470" s="45"/>
+      <c r="K470" s="46"/>
+      <c r="L470" s="46"/>
     </row>
     <row r="471">
-      <c r="G471" s="46"/>
+      <c r="G471" s="47"/>
       <c r="H471" s="25"/>
-      <c r="K471" s="45"/>
-      <c r="L471" s="45"/>
+      <c r="K471" s="46"/>
+      <c r="L471" s="46"/>
     </row>
     <row r="472">
-      <c r="G472" s="46"/>
+      <c r="G472" s="47"/>
       <c r="H472" s="25"/>
-      <c r="K472" s="45"/>
-      <c r="L472" s="45"/>
+      <c r="K472" s="46"/>
+      <c r="L472" s="46"/>
     </row>
     <row r="473">
-      <c r="G473" s="46"/>
+      <c r="G473" s="47"/>
       <c r="H473" s="25"/>
-      <c r="K473" s="45"/>
-      <c r="L473" s="45"/>
+      <c r="K473" s="46"/>
+      <c r="L473" s="46"/>
     </row>
     <row r="474">
-      <c r="G474" s="46"/>
+      <c r="G474" s="47"/>
       <c r="H474" s="25"/>
-      <c r="K474" s="45"/>
-      <c r="L474" s="45"/>
+      <c r="K474" s="46"/>
+      <c r="L474" s="46"/>
     </row>
     <row r="475">
-      <c r="G475" s="46"/>
+      <c r="G475" s="47"/>
       <c r="H475" s="25"/>
-      <c r="K475" s="45"/>
-      <c r="L475" s="45"/>
+      <c r="K475" s="46"/>
+      <c r="L475" s="46"/>
     </row>
     <row r="476">
-      <c r="G476" s="46"/>
+      <c r="G476" s="47"/>
       <c r="H476" s="25"/>
-      <c r="K476" s="45"/>
-      <c r="L476" s="45"/>
+      <c r="K476" s="46"/>
+      <c r="L476" s="46"/>
     </row>
     <row r="477">
-      <c r="G477" s="46"/>
+      <c r="G477" s="47"/>
       <c r="H477" s="25"/>
-      <c r="K477" s="45"/>
-      <c r="L477" s="45"/>
+      <c r="K477" s="46"/>
+      <c r="L477" s="46"/>
     </row>
     <row r="478">
-      <c r="G478" s="46"/>
+      <c r="G478" s="47"/>
       <c r="H478" s="25"/>
-      <c r="K478" s="45"/>
-      <c r="L478" s="45"/>
+      <c r="K478" s="46"/>
+      <c r="L478" s="46"/>
     </row>
     <row r="479">
-      <c r="G479" s="46"/>
+      <c r="G479" s="47"/>
       <c r="H479" s="25"/>
-      <c r="K479" s="45"/>
-      <c r="L479" s="45"/>
+      <c r="K479" s="46"/>
+      <c r="L479" s="46"/>
     </row>
     <row r="480">
-      <c r="G480" s="46"/>
+      <c r="G480" s="47"/>
       <c r="H480" s="25"/>
-      <c r="K480" s="45"/>
-      <c r="L480" s="45"/>
+      <c r="K480" s="46"/>
+      <c r="L480" s="46"/>
     </row>
     <row r="481">
-      <c r="G481" s="46"/>
+      <c r="G481" s="47"/>
       <c r="H481" s="25"/>
-      <c r="K481" s="45"/>
-      <c r="L481" s="45"/>
+      <c r="K481" s="46"/>
+      <c r="L481" s="46"/>
     </row>
     <row r="482">
-      <c r="G482" s="46"/>
+      <c r="G482" s="47"/>
       <c r="H482" s="25"/>
-      <c r="K482" s="45"/>
-      <c r="L482" s="45"/>
+      <c r="K482" s="46"/>
+      <c r="L482" s="46"/>
     </row>
     <row r="483">
-      <c r="G483" s="46"/>
+      <c r="G483" s="47"/>
       <c r="H483" s="25"/>
-      <c r="K483" s="45"/>
-      <c r="L483" s="45"/>
+      <c r="K483" s="46"/>
+      <c r="L483" s="46"/>
     </row>
     <row r="484">
-      <c r="G484" s="46"/>
+      <c r="G484" s="47"/>
       <c r="H484" s="25"/>
-      <c r="K484" s="45"/>
-      <c r="L484" s="45"/>
+      <c r="K484" s="46"/>
+      <c r="L484" s="46"/>
     </row>
     <row r="485">
-      <c r="G485" s="46"/>
+      <c r="G485" s="47"/>
       <c r="H485" s="25"/>
-      <c r="K485" s="45"/>
-      <c r="L485" s="45"/>
+      <c r="K485" s="46"/>
+      <c r="L485" s="46"/>
     </row>
     <row r="486">
-      <c r="G486" s="46"/>
+      <c r="G486" s="47"/>
       <c r="H486" s="25"/>
-      <c r="K486" s="45"/>
-      <c r="L486" s="45"/>
+      <c r="K486" s="46"/>
+      <c r="L486" s="46"/>
     </row>
     <row r="487">
-      <c r="G487" s="46"/>
+      <c r="G487" s="47"/>
       <c r="H487" s="25"/>
-      <c r="K487" s="45"/>
-      <c r="L487" s="45"/>
+      <c r="K487" s="46"/>
+      <c r="L487" s="46"/>
     </row>
     <row r="488">
-      <c r="G488" s="46"/>
+      <c r="G488" s="47"/>
       <c r="H488" s="25"/>
-      <c r="K488" s="45"/>
-      <c r="L488" s="45"/>
+      <c r="K488" s="46"/>
+      <c r="L488" s="46"/>
     </row>
     <row r="489">
-      <c r="G489" s="46"/>
+      <c r="G489" s="47"/>
       <c r="H489" s="25"/>
-      <c r="K489" s="45"/>
-      <c r="L489" s="45"/>
+      <c r="K489" s="46"/>
+      <c r="L489" s="46"/>
     </row>
     <row r="490">
-      <c r="G490" s="46"/>
+      <c r="G490" s="47"/>
       <c r="H490" s="25"/>
-      <c r="K490" s="45"/>
-      <c r="L490" s="45"/>
+      <c r="K490" s="46"/>
+      <c r="L490" s="46"/>
     </row>
     <row r="491">
-      <c r="G491" s="46"/>
+      <c r="G491" s="47"/>
       <c r="H491" s="25"/>
-      <c r="K491" s="45"/>
-      <c r="L491" s="45"/>
+      <c r="K491" s="46"/>
+      <c r="L491" s="46"/>
     </row>
     <row r="492">
-      <c r="G492" s="46"/>
+      <c r="G492" s="47"/>
       <c r="H492" s="25"/>
-      <c r="K492" s="45"/>
-      <c r="L492" s="45"/>
+      <c r="K492" s="46"/>
+      <c r="L492" s="46"/>
     </row>
     <row r="493">
-      <c r="G493" s="46"/>
+      <c r="G493" s="47"/>
       <c r="H493" s="25"/>
-      <c r="K493" s="45"/>
-      <c r="L493" s="45"/>
+      <c r="K493" s="46"/>
+      <c r="L493" s="46"/>
     </row>
     <row r="494">
-      <c r="G494" s="46"/>
+      <c r="G494" s="47"/>
       <c r="H494" s="25"/>
-      <c r="K494" s="45"/>
-      <c r="L494" s="45"/>
+      <c r="K494" s="46"/>
+      <c r="L494" s="46"/>
     </row>
     <row r="495">
-      <c r="G495" s="46"/>
+      <c r="G495" s="47"/>
       <c r="H495" s="25"/>
-      <c r="K495" s="45"/>
-      <c r="L495" s="45"/>
+      <c r="K495" s="46"/>
+      <c r="L495" s="46"/>
     </row>
     <row r="496">
-      <c r="G496" s="46"/>
+      <c r="G496" s="47"/>
       <c r="H496" s="25"/>
-      <c r="K496" s="45"/>
-      <c r="L496" s="45"/>
+      <c r="K496" s="46"/>
+      <c r="L496" s="46"/>
     </row>
     <row r="497">
-      <c r="G497" s="46"/>
+      <c r="G497" s="47"/>
       <c r="H497" s="25"/>
-      <c r="K497" s="45"/>
-      <c r="L497" s="45"/>
+      <c r="K497" s="46"/>
+      <c r="L497" s="46"/>
     </row>
     <row r="498">
-      <c r="G498" s="46"/>
+      <c r="G498" s="47"/>
       <c r="H498" s="25"/>
-      <c r="K498" s="45"/>
-      <c r="L498" s="45"/>
+      <c r="K498" s="46"/>
+      <c r="L498" s="46"/>
     </row>
     <row r="499">
-      <c r="G499" s="46"/>
+      <c r="G499" s="47"/>
       <c r="H499" s="25"/>
-      <c r="K499" s="45"/>
-      <c r="L499" s="45"/>
+      <c r="K499" s="46"/>
+      <c r="L499" s="46"/>
     </row>
     <row r="500">
-      <c r="G500" s="46"/>
+      <c r="G500" s="47"/>
       <c r="H500" s="25"/>
-      <c r="K500" s="45"/>
-      <c r="L500" s="45"/>
+      <c r="K500" s="46"/>
+      <c r="L500" s="46"/>
     </row>
     <row r="501">
-      <c r="G501" s="46"/>
+      <c r="G501" s="47"/>
       <c r="H501" s="25"/>
-      <c r="K501" s="45"/>
-      <c r="L501" s="45"/>
+      <c r="K501" s="46"/>
+      <c r="L501" s="46"/>
     </row>
     <row r="502">
-      <c r="G502" s="46"/>
+      <c r="G502" s="47"/>
       <c r="H502" s="25"/>
-      <c r="K502" s="45"/>
-      <c r="L502" s="45"/>
+      <c r="K502" s="46"/>
+      <c r="L502" s="46"/>
     </row>
     <row r="503">
-      <c r="G503" s="46"/>
+      <c r="G503" s="47"/>
       <c r="H503" s="25"/>
-      <c r="K503" s="45"/>
-      <c r="L503" s="45"/>
+      <c r="K503" s="46"/>
+      <c r="L503" s="46"/>
     </row>
     <row r="504">
-      <c r="G504" s="46"/>
+      <c r="G504" s="47"/>
       <c r="H504" s="25"/>
-      <c r="K504" s="45"/>
-      <c r="L504" s="45"/>
+      <c r="K504" s="46"/>
+      <c r="L504" s="46"/>
     </row>
     <row r="505">
-      <c r="G505" s="46"/>
+      <c r="G505" s="47"/>
       <c r="H505" s="25"/>
-      <c r="K505" s="45"/>
-      <c r="L505" s="45"/>
+      <c r="K505" s="46"/>
+      <c r="L505" s="46"/>
     </row>
     <row r="506">
-      <c r="G506" s="46"/>
+      <c r="G506" s="47"/>
       <c r="H506" s="25"/>
-      <c r="K506" s="45"/>
-      <c r="L506" s="45"/>
+      <c r="K506" s="46"/>
+      <c r="L506" s="46"/>
     </row>
     <row r="507">
-      <c r="G507" s="46"/>
+      <c r="G507" s="47"/>
       <c r="H507" s="25"/>
-      <c r="K507" s="45"/>
-      <c r="L507" s="45"/>
+      <c r="K507" s="46"/>
+      <c r="L507" s="46"/>
     </row>
     <row r="508">
-      <c r="G508" s="46"/>
+      <c r="G508" s="47"/>
       <c r="H508" s="25"/>
-      <c r="K508" s="45"/>
-      <c r="L508" s="45"/>
+      <c r="K508" s="46"/>
+      <c r="L508" s="46"/>
     </row>
     <row r="509">
-      <c r="G509" s="46"/>
+      <c r="G509" s="47"/>
       <c r="H509" s="25"/>
-      <c r="K509" s="45"/>
-      <c r="L509" s="45"/>
+      <c r="K509" s="46"/>
+      <c r="L509" s="46"/>
     </row>
     <row r="510">
-      <c r="G510" s="46"/>
+      <c r="G510" s="47"/>
       <c r="H510" s="25"/>
-      <c r="K510" s="45"/>
-      <c r="L510" s="45"/>
+      <c r="K510" s="46"/>
+      <c r="L510" s="46"/>
     </row>
     <row r="511">
-      <c r="G511" s="46"/>
+      <c r="G511" s="47"/>
       <c r="H511" s="25"/>
-      <c r="K511" s="45"/>
-      <c r="L511" s="45"/>
+      <c r="K511" s="46"/>
+      <c r="L511" s="46"/>
     </row>
     <row r="512">
-      <c r="G512" s="46"/>
+      <c r="G512" s="47"/>
       <c r="H512" s="25"/>
-      <c r="K512" s="45"/>
-      <c r="L512" s="45"/>
+      <c r="K512" s="46"/>
+      <c r="L512" s="46"/>
     </row>
     <row r="513">
-      <c r="G513" s="46"/>
+      <c r="G513" s="47"/>
       <c r="H513" s="25"/>
-      <c r="K513" s="45"/>
-      <c r="L513" s="45"/>
+      <c r="K513" s="46"/>
+      <c r="L513" s="46"/>
     </row>
     <row r="514">
-      <c r="G514" s="46"/>
+      <c r="G514" s="47"/>
       <c r="H514" s="25"/>
-      <c r="K514" s="45"/>
-      <c r="L514" s="45"/>
+      <c r="K514" s="46"/>
+      <c r="L514" s="46"/>
     </row>
     <row r="515">
-      <c r="G515" s="46"/>
+      <c r="G515" s="47"/>
       <c r="H515" s="25"/>
-      <c r="K515" s="45"/>
-      <c r="L515" s="45"/>
+      <c r="K515" s="46"/>
+      <c r="L515" s="46"/>
     </row>
     <row r="516">
-      <c r="G516" s="46"/>
+      <c r="G516" s="47"/>
       <c r="H516" s="25"/>
-      <c r="K516" s="45"/>
-      <c r="L516" s="45"/>
+      <c r="K516" s="46"/>
+      <c r="L516" s="46"/>
     </row>
     <row r="517">
-      <c r="G517" s="46"/>
+      <c r="G517" s="47"/>
       <c r="H517" s="25"/>
-      <c r="K517" s="45"/>
-      <c r="L517" s="45"/>
+      <c r="K517" s="46"/>
+      <c r="L517" s="46"/>
     </row>
     <row r="518">
-      <c r="G518" s="46"/>
+      <c r="G518" s="47"/>
       <c r="H518" s="25"/>
-      <c r="K518" s="45"/>
-      <c r="L518" s="45"/>
+      <c r="K518" s="46"/>
+      <c r="L518" s="46"/>
     </row>
     <row r="519">
-      <c r="G519" s="46"/>
+      <c r="G519" s="47"/>
       <c r="H519" s="25"/>
-      <c r="K519" s="45"/>
-      <c r="L519" s="45"/>
+      <c r="K519" s="46"/>
+      <c r="L519" s="46"/>
     </row>
     <row r="520">
-      <c r="G520" s="46"/>
+      <c r="G520" s="47"/>
       <c r="H520" s="25"/>
-      <c r="K520" s="45"/>
-      <c r="L520" s="45"/>
+      <c r="K520" s="46"/>
+      <c r="L520" s="46"/>
     </row>
     <row r="521">
-      <c r="G521" s="46"/>
+      <c r="G521" s="47"/>
       <c r="H521" s="25"/>
-      <c r="K521" s="45"/>
-      <c r="L521" s="45"/>
+      <c r="K521" s="46"/>
+      <c r="L521" s="46"/>
     </row>
     <row r="522">
-      <c r="G522" s="46"/>
+      <c r="G522" s="47"/>
       <c r="H522" s="25"/>
-      <c r="K522" s="45"/>
-      <c r="L522" s="45"/>
+      <c r="K522" s="46"/>
+      <c r="L522" s="46"/>
     </row>
     <row r="523">
-      <c r="G523" s="46"/>
+      <c r="G523" s="47"/>
       <c r="H523" s="25"/>
-      <c r="K523" s="45"/>
-      <c r="L523" s="45"/>
+      <c r="K523" s="46"/>
+      <c r="L523" s="46"/>
     </row>
     <row r="524">
-      <c r="G524" s="46"/>
+      <c r="G524" s="47"/>
       <c r="H524" s="25"/>
-      <c r="K524" s="45"/>
-      <c r="L524" s="45"/>
+      <c r="K524" s="46"/>
+      <c r="L524" s="46"/>
     </row>
     <row r="525">
-      <c r="G525" s="46"/>
+      <c r="G525" s="47"/>
       <c r="H525" s="25"/>
-      <c r="K525" s="45"/>
-      <c r="L525" s="45"/>
+      <c r="K525" s="46"/>
+      <c r="L525" s="46"/>
     </row>
     <row r="526">
-      <c r="G526" s="46"/>
+      <c r="G526" s="47"/>
       <c r="H526" s="25"/>
-      <c r="K526" s="45"/>
-      <c r="L526" s="45"/>
+      <c r="K526" s="46"/>
+      <c r="L526" s="46"/>
     </row>
     <row r="527">
-      <c r="G527" s="46"/>
+      <c r="G527" s="47"/>
       <c r="H527" s="25"/>
-      <c r="K527" s="45"/>
-      <c r="L527" s="45"/>
+      <c r="K527" s="46"/>
+      <c r="L527" s="46"/>
     </row>
     <row r="528">
-      <c r="G528" s="46"/>
+      <c r="G528" s="47"/>
       <c r="H528" s="25"/>
-      <c r="K528" s="45"/>
-      <c r="L528" s="45"/>
+      <c r="K528" s="46"/>
+      <c r="L528" s="46"/>
     </row>
     <row r="529">
-      <c r="G529" s="46"/>
+      <c r="G529" s="47"/>
       <c r="H529" s="25"/>
-      <c r="K529" s="45"/>
-      <c r="L529" s="45"/>
+      <c r="K529" s="46"/>
+      <c r="L529" s="46"/>
     </row>
     <row r="530">
-      <c r="G530" s="46"/>
+      <c r="G530" s="47"/>
       <c r="H530" s="25"/>
-      <c r="K530" s="45"/>
-      <c r="L530" s="45"/>
+      <c r="K530" s="46"/>
+      <c r="L530" s="46"/>
     </row>
     <row r="531">
-      <c r="G531" s="46"/>
+      <c r="G531" s="47"/>
       <c r="H531" s="25"/>
-      <c r="K531" s="45"/>
-      <c r="L531" s="45"/>
+      <c r="K531" s="46"/>
+      <c r="L531" s="46"/>
     </row>
     <row r="532">
-      <c r="G532" s="46"/>
+      <c r="G532" s="47"/>
       <c r="H532" s="25"/>
-      <c r="K532" s="45"/>
-      <c r="L532" s="45"/>
+      <c r="K532" s="46"/>
+      <c r="L532" s="46"/>
     </row>
     <row r="533">
-      <c r="G533" s="46"/>
+      <c r="G533" s="47"/>
       <c r="H533" s="25"/>
-      <c r="K533" s="45"/>
-      <c r="L533" s="45"/>
+      <c r="K533" s="46"/>
+      <c r="L533" s="46"/>
     </row>
     <row r="534">
-      <c r="G534" s="46"/>
+      <c r="G534" s="47"/>
       <c r="H534" s="25"/>
-      <c r="K534" s="45"/>
-      <c r="L534" s="45"/>
+      <c r="K534" s="46"/>
+      <c r="L534" s="46"/>
     </row>
     <row r="535">
-      <c r="G535" s="46"/>
+      <c r="G535" s="47"/>
       <c r="H535" s="25"/>
-      <c r="K535" s="45"/>
-      <c r="L535" s="45"/>
+      <c r="K535" s="46"/>
+      <c r="L535" s="46"/>
     </row>
     <row r="536">
-      <c r="G536" s="46"/>
+      <c r="G536" s="47"/>
       <c r="H536" s="25"/>
-      <c r="K536" s="45"/>
-      <c r="L536" s="45"/>
+      <c r="K536" s="46"/>
+      <c r="L536" s="46"/>
     </row>
     <row r="537">
-      <c r="G537" s="46"/>
+      <c r="G537" s="47"/>
       <c r="H537" s="25"/>
-      <c r="K537" s="45"/>
-      <c r="L537" s="45"/>
+      <c r="K537" s="46"/>
+      <c r="L537" s="46"/>
     </row>
     <row r="538">
-      <c r="G538" s="46"/>
+      <c r="G538" s="47"/>
       <c r="H538" s="25"/>
-      <c r="K538" s="45"/>
-      <c r="L538" s="45"/>
+      <c r="K538" s="46"/>
+      <c r="L538" s="46"/>
     </row>
     <row r="539">
-      <c r="G539" s="46"/>
+      <c r="G539" s="47"/>
       <c r="H539" s="25"/>
-      <c r="K539" s="45"/>
-      <c r="L539" s="45"/>
+      <c r="K539" s="46"/>
+      <c r="L539" s="46"/>
     </row>
     <row r="540">
-      <c r="G540" s="46"/>
+      <c r="G540" s="47"/>
       <c r="H540" s="25"/>
-      <c r="K540" s="45"/>
-      <c r="L540" s="45"/>
+      <c r="K540" s="46"/>
+      <c r="L540" s="46"/>
     </row>
     <row r="541">
-      <c r="G541" s="46"/>
+      <c r="G541" s="47"/>
       <c r="H541" s="25"/>
-      <c r="K541" s="45"/>
-      <c r="L541" s="45"/>
+      <c r="K541" s="46"/>
+      <c r="L541" s="46"/>
     </row>
     <row r="542">
-      <c r="G542" s="46"/>
+      <c r="G542" s="47"/>
       <c r="H542" s="25"/>
-      <c r="K542" s="45"/>
-      <c r="L542" s="45"/>
+      <c r="K542" s="46"/>
+      <c r="L542" s="46"/>
     </row>
     <row r="543">
-      <c r="G543" s="46"/>
+      <c r="G543" s="47"/>
       <c r="H543" s="25"/>
-      <c r="K543" s="45"/>
-      <c r="L543" s="45"/>
+      <c r="K543" s="46"/>
+      <c r="L543" s="46"/>
     </row>
     <row r="544">
-      <c r="G544" s="46"/>
+      <c r="G544" s="47"/>
       <c r="H544" s="25"/>
-      <c r="K544" s="45"/>
-      <c r="L544" s="45"/>
+      <c r="K544" s="46"/>
+      <c r="L544" s="46"/>
     </row>
     <row r="545">
-      <c r="G545" s="46"/>
+      <c r="G545" s="47"/>
       <c r="H545" s="25"/>
-      <c r="K545" s="45"/>
-      <c r="L545" s="45"/>
+      <c r="K545" s="46"/>
+      <c r="L545" s="46"/>
     </row>
     <row r="546">
-      <c r="G546" s="46"/>
+      <c r="G546" s="47"/>
       <c r="H546" s="25"/>
-      <c r="K546" s="45"/>
-      <c r="L546" s="45"/>
+      <c r="K546" s="46"/>
+      <c r="L546" s="46"/>
     </row>
     <row r="547">
-      <c r="G547" s="46"/>
+      <c r="G547" s="47"/>
       <c r="H547" s="25"/>
-      <c r="K547" s="45"/>
-      <c r="L547" s="45"/>
+      <c r="K547" s="46"/>
+      <c r="L547" s="46"/>
     </row>
     <row r="548">
-      <c r="G548" s="46"/>
+      <c r="G548" s="47"/>
       <c r="H548" s="25"/>
-      <c r="K548" s="45"/>
-      <c r="L548" s="45"/>
+      <c r="K548" s="46"/>
+      <c r="L548" s="46"/>
     </row>
     <row r="549">
-      <c r="G549" s="46"/>
+      <c r="G549" s="47"/>
       <c r="H549" s="25"/>
-      <c r="K549" s="45"/>
-      <c r="L549" s="45"/>
+      <c r="K549" s="46"/>
+      <c r="L549" s="46"/>
     </row>
     <row r="550">
-      <c r="G550" s="46"/>
+      <c r="G550" s="47"/>
       <c r="H550" s="25"/>
-      <c r="K550" s="45"/>
-      <c r="L550" s="45"/>
+      <c r="K550" s="46"/>
+      <c r="L550" s="46"/>
     </row>
     <row r="551">
-      <c r="G551" s="46"/>
+      <c r="G551" s="47"/>
       <c r="H551" s="25"/>
-      <c r="K551" s="45"/>
-      <c r="L551" s="45"/>
+      <c r="K551" s="46"/>
+      <c r="L551" s="46"/>
     </row>
     <row r="552">
-      <c r="G552" s="46"/>
+      <c r="G552" s="47"/>
       <c r="H552" s="25"/>
-      <c r="K552" s="45"/>
-      <c r="L552" s="45"/>
+      <c r="K552" s="46"/>
+      <c r="L552" s="46"/>
     </row>
     <row r="553">
-      <c r="G553" s="46"/>
+      <c r="G553" s="47"/>
       <c r="H553" s="25"/>
-      <c r="K553" s="45"/>
-      <c r="L553" s="45"/>
+      <c r="K553" s="46"/>
+      <c r="L553" s="46"/>
     </row>
     <row r="554">
-      <c r="G554" s="46"/>
+      <c r="G554" s="47"/>
       <c r="H554" s="25"/>
-      <c r="K554" s="45"/>
-      <c r="L554" s="45"/>
+      <c r="K554" s="46"/>
+      <c r="L554" s="46"/>
     </row>
     <row r="555">
-      <c r="G555" s="46"/>
+      <c r="G555" s="47"/>
       <c r="H555" s="25"/>
-      <c r="K555" s="45"/>
-      <c r="L555" s="45"/>
+      <c r="K555" s="46"/>
+      <c r="L555" s="46"/>
     </row>
     <row r="556">
-      <c r="G556" s="46"/>
+      <c r="G556" s="47"/>
       <c r="H556" s="25"/>
-      <c r="K556" s="45"/>
-      <c r="L556" s="45"/>
+      <c r="K556" s="46"/>
+      <c r="L556" s="46"/>
     </row>
     <row r="557">
-      <c r="G557" s="46"/>
+      <c r="G557" s="47"/>
       <c r="H557" s="25"/>
-      <c r="K557" s="45"/>
-      <c r="L557" s="45"/>
+      <c r="K557" s="46"/>
+      <c r="L557" s="46"/>
     </row>
     <row r="558">
-      <c r="G558" s="46"/>
+      <c r="G558" s="47"/>
       <c r="H558" s="25"/>
-      <c r="K558" s="45"/>
-      <c r="L558" s="45"/>
+      <c r="K558" s="46"/>
+      <c r="L558" s="46"/>
     </row>
     <row r="559">
-      <c r="G559" s="46"/>
+      <c r="G559" s="47"/>
       <c r="H559" s="25"/>
-      <c r="K559" s="45"/>
-      <c r="L559" s="45"/>
+      <c r="K559" s="46"/>
+      <c r="L559" s="46"/>
     </row>
     <row r="560">
-      <c r="G560" s="46"/>
+      <c r="G560" s="47"/>
       <c r="H560" s="25"/>
-      <c r="K560" s="45"/>
-      <c r="L560" s="45"/>
+      <c r="K560" s="46"/>
+      <c r="L560" s="46"/>
     </row>
     <row r="561">
-      <c r="G561" s="46"/>
+      <c r="G561" s="47"/>
       <c r="H561" s="25"/>
-      <c r="K561" s="45"/>
-      <c r="L561" s="45"/>
+      <c r="K561" s="46"/>
+      <c r="L561" s="46"/>
     </row>
     <row r="562">
-      <c r="G562" s="46"/>
+      <c r="G562" s="47"/>
       <c r="H562" s="25"/>
-      <c r="K562" s="45"/>
-      <c r="L562" s="45"/>
+      <c r="K562" s="46"/>
+      <c r="L562" s="46"/>
     </row>
     <row r="563">
-      <c r="G563" s="46"/>
+      <c r="G563" s="47"/>
       <c r="H563" s="25"/>
-      <c r="K563" s="45"/>
-      <c r="L563" s="45"/>
+      <c r="K563" s="46"/>
+      <c r="L563" s="46"/>
     </row>
     <row r="564">
-      <c r="G564" s="46"/>
+      <c r="G564" s="47"/>
       <c r="H564" s="25"/>
-      <c r="K564" s="45"/>
-      <c r="L564" s="45"/>
+      <c r="K564" s="46"/>
+      <c r="L564" s="46"/>
     </row>
     <row r="565">
-      <c r="G565" s="46"/>
+      <c r="G565" s="47"/>
       <c r="H565" s="25"/>
-      <c r="K565" s="45"/>
-      <c r="L565" s="45"/>
+      <c r="K565" s="46"/>
+      <c r="L565" s="46"/>
     </row>
     <row r="566">
-      <c r="G566" s="46"/>
+      <c r="G566" s="47"/>
       <c r="H566" s="25"/>
-      <c r="K566" s="45"/>
-      <c r="L566" s="45"/>
+      <c r="K566" s="46"/>
+      <c r="L566" s="46"/>
     </row>
     <row r="567">
-      <c r="G567" s="46"/>
+      <c r="G567" s="47"/>
       <c r="H567" s="25"/>
-      <c r="K567" s="45"/>
-      <c r="L567" s="45"/>
+      <c r="K567" s="46"/>
+      <c r="L567" s="46"/>
     </row>
     <row r="568">
-      <c r="G568" s="46"/>
+      <c r="G568" s="47"/>
       <c r="H568" s="25"/>
-      <c r="K568" s="45"/>
-      <c r="L568" s="45"/>
+      <c r="K568" s="46"/>
+      <c r="L568" s="46"/>
     </row>
     <row r="569">
-      <c r="G569" s="46"/>
+      <c r="G569" s="47"/>
       <c r="H569" s="25"/>
-      <c r="K569" s="45"/>
-      <c r="L569" s="45"/>
+      <c r="K569" s="46"/>
+      <c r="L569" s="46"/>
     </row>
     <row r="570">
-      <c r="G570" s="46"/>
+      <c r="G570" s="47"/>
       <c r="H570" s="25"/>
-      <c r="K570" s="45"/>
-      <c r="L570" s="45"/>
+      <c r="K570" s="46"/>
+      <c r="L570" s="46"/>
     </row>
     <row r="571">
-      <c r="G571" s="46"/>
+      <c r="G571" s="47"/>
       <c r="H571" s="25"/>
-      <c r="K571" s="45"/>
-      <c r="L571" s="45"/>
+      <c r="K571" s="46"/>
+      <c r="L571" s="46"/>
     </row>
     <row r="572">
-      <c r="G572" s="46"/>
+      <c r="G572" s="47"/>
       <c r="H572" s="25"/>
-      <c r="K572" s="45"/>
-      <c r="L572" s="45"/>
+      <c r="K572" s="46"/>
+      <c r="L572" s="46"/>
     </row>
     <row r="573">
-      <c r="G573" s="46"/>
+      <c r="G573" s="47"/>
       <c r="H573" s="25"/>
-      <c r="K573" s="45"/>
-      <c r="L573" s="45"/>
+      <c r="K573" s="46"/>
+      <c r="L573" s="46"/>
     </row>
     <row r="574">
-      <c r="G574" s="46"/>
+      <c r="G574" s="47"/>
       <c r="H574" s="25"/>
-      <c r="K574" s="45"/>
-      <c r="L574" s="45"/>
+      <c r="K574" s="46"/>
+      <c r="L574" s="46"/>
     </row>
     <row r="575">
-      <c r="G575" s="46"/>
+      <c r="G575" s="47"/>
       <c r="H575" s="25"/>
-      <c r="K575" s="45"/>
-      <c r="L575" s="45"/>
+      <c r="K575" s="46"/>
+      <c r="L575" s="46"/>
     </row>
     <row r="576">
-      <c r="G576" s="46"/>
+      <c r="G576" s="47"/>
       <c r="H576" s="25"/>
-      <c r="K576" s="45"/>
-      <c r="L576" s="45"/>
+      <c r="K576" s="46"/>
+      <c r="L576" s="46"/>
     </row>
     <row r="577">
-      <c r="G577" s="46"/>
+      <c r="G577" s="47"/>
       <c r="H577" s="25"/>
-      <c r="K577" s="45"/>
-      <c r="L577" s="45"/>
+      <c r="K577" s="46"/>
+      <c r="L577" s="46"/>
     </row>
     <row r="578">
-      <c r="G578" s="46"/>
+      <c r="G578" s="47"/>
       <c r="H578" s="25"/>
-      <c r="K578" s="45"/>
-      <c r="L578" s="45"/>
+      <c r="K578" s="46"/>
+      <c r="L578" s="46"/>
     </row>
     <row r="579">
-      <c r="G579" s="46"/>
+      <c r="G579" s="47"/>
       <c r="H579" s="25"/>
-      <c r="K579" s="45"/>
-      <c r="L579" s="45"/>
+      <c r="K579" s="46"/>
+      <c r="L579" s="46"/>
     </row>
     <row r="580">
-      <c r="G580" s="46"/>
+      <c r="G580" s="47"/>
       <c r="H580" s="25"/>
-      <c r="K580" s="45"/>
-      <c r="L580" s="45"/>
+      <c r="K580" s="46"/>
+      <c r="L580" s="46"/>
     </row>
     <row r="581">
-      <c r="G581" s="46"/>
+      <c r="G581" s="47"/>
       <c r="H581" s="25"/>
-      <c r="K581" s="45"/>
-      <c r="L581" s="45"/>
+      <c r="K581" s="46"/>
+      <c r="L581" s="46"/>
     </row>
     <row r="582">
-      <c r="G582" s="46"/>
+      <c r="G582" s="47"/>
       <c r="H582" s="25"/>
-      <c r="K582" s="45"/>
-      <c r="L582" s="45"/>
+      <c r="K582" s="46"/>
+      <c r="L582" s="46"/>
     </row>
     <row r="583">
-      <c r="G583" s="46"/>
+      <c r="G583" s="47"/>
       <c r="H583" s="25"/>
-      <c r="K583" s="45"/>
-      <c r="L583" s="45"/>
+      <c r="K583" s="46"/>
+      <c r="L583" s="46"/>
     </row>
     <row r="584">
-      <c r="G584" s="46"/>
+      <c r="G584" s="47"/>
       <c r="H584" s="25"/>
-      <c r="K584" s="45"/>
-      <c r="L584" s="45"/>
+      <c r="K584" s="46"/>
+      <c r="L584" s="46"/>
     </row>
     <row r="585">
-      <c r="G585" s="46"/>
+      <c r="G585" s="47"/>
       <c r="H585" s="25"/>
-      <c r="K585" s="45"/>
-      <c r="L585" s="45"/>
+      <c r="K585" s="46"/>
+      <c r="L585" s="46"/>
     </row>
     <row r="586">
-      <c r="G586" s="46"/>
+      <c r="G586" s="47"/>
       <c r="H586" s="25"/>
-      <c r="K586" s="45"/>
-      <c r="L586" s="45"/>
+      <c r="K586" s="46"/>
+      <c r="L586" s="46"/>
     </row>
     <row r="587">
-      <c r="G587" s="46"/>
+      <c r="G587" s="47"/>
       <c r="H587" s="25"/>
-      <c r="K587" s="45"/>
-      <c r="L587" s="45"/>
+      <c r="K587" s="46"/>
+      <c r="L587" s="46"/>
     </row>
     <row r="588">
-      <c r="G588" s="46"/>
+      <c r="G588" s="47"/>
       <c r="H588" s="25"/>
-      <c r="K588" s="45"/>
-      <c r="L588" s="45"/>
+      <c r="K588" s="46"/>
+      <c r="L588" s="46"/>
     </row>
     <row r="589">
-      <c r="G589" s="46"/>
+      <c r="G589" s="47"/>
       <c r="H589" s="25"/>
-      <c r="K589" s="45"/>
-      <c r="L589" s="45"/>
+      <c r="K589" s="46"/>
+      <c r="L589" s="46"/>
     </row>
     <row r="590">
-      <c r="G590" s="46"/>
+      <c r="G590" s="47"/>
       <c r="H590" s="25"/>
-      <c r="K590" s="45"/>
-      <c r="L590" s="45"/>
+      <c r="K590" s="46"/>
+      <c r="L590" s="46"/>
     </row>
     <row r="591">
-      <c r="G591" s="46"/>
+      <c r="G591" s="47"/>
       <c r="H591" s="25"/>
-      <c r="K591" s="45"/>
-      <c r="L591" s="45"/>
+      <c r="K591" s="46"/>
+      <c r="L591" s="46"/>
     </row>
     <row r="592">
-      <c r="G592" s="46"/>
+      <c r="G592" s="47"/>
       <c r="H592" s="25"/>
-      <c r="K592" s="45"/>
-      <c r="L592" s="45"/>
+      <c r="K592" s="46"/>
+      <c r="L592" s="46"/>
     </row>
     <row r="593">
-      <c r="G593" s="46"/>
+      <c r="G593" s="47"/>
       <c r="H593" s="25"/>
-      <c r="K593" s="45"/>
-      <c r="L593" s="45"/>
+      <c r="K593" s="46"/>
+      <c r="L593" s="46"/>
     </row>
     <row r="594">
-      <c r="G594" s="46"/>
+      <c r="G594" s="47"/>
       <c r="H594" s="25"/>
-      <c r="K594" s="45"/>
-      <c r="L594" s="45"/>
+      <c r="K594" s="46"/>
+      <c r="L594" s="46"/>
     </row>
     <row r="595">
-      <c r="G595" s="46"/>
+      <c r="G595" s="47"/>
       <c r="H595" s="25"/>
-      <c r="K595" s="45"/>
-      <c r="L595" s="45"/>
+      <c r="K595" s="46"/>
+      <c r="L595" s="46"/>
     </row>
     <row r="596">
-      <c r="G596" s="46"/>
+      <c r="G596" s="47"/>
       <c r="H596" s="25"/>
-      <c r="K596" s="45"/>
-      <c r="L596" s="45"/>
+      <c r="K596" s="46"/>
+      <c r="L596" s="46"/>
     </row>
     <row r="597">
-      <c r="G597" s="46"/>
+      <c r="G597" s="47"/>
       <c r="H597" s="25"/>
-      <c r="K597" s="45"/>
-      <c r="L597" s="45"/>
+      <c r="K597" s="46"/>
+      <c r="L597" s="46"/>
     </row>
     <row r="598">
-      <c r="G598" s="46"/>
+      <c r="G598" s="47"/>
       <c r="H598" s="25"/>
-      <c r="K598" s="45"/>
-      <c r="L598" s="45"/>
+      <c r="K598" s="46"/>
+      <c r="L598" s="46"/>
     </row>
     <row r="599">
-      <c r="G599" s="46"/>
+      <c r="G599" s="47"/>
       <c r="H599" s="25"/>
-      <c r="K599" s="45"/>
-      <c r="L599" s="45"/>
+      <c r="K599" s="46"/>
+      <c r="L599" s="46"/>
     </row>
     <row r="600">
-      <c r="G600" s="46"/>
+      <c r="G600" s="47"/>
       <c r="H600" s="25"/>
-      <c r="K600" s="45"/>
-      <c r="L600" s="45"/>
+      <c r="K600" s="46"/>
+      <c r="L600" s="46"/>
     </row>
     <row r="601">
-      <c r="G601" s="46"/>
+      <c r="G601" s="47"/>
       <c r="H601" s="25"/>
-      <c r="K601" s="45"/>
-      <c r="L601" s="45"/>
+      <c r="K601" s="46"/>
+      <c r="L601" s="46"/>
     </row>
     <row r="602">
-      <c r="G602" s="46"/>
+      <c r="G602" s="47"/>
       <c r="H602" s="25"/>
-      <c r="K602" s="45"/>
-      <c r="L602" s="45"/>
+      <c r="K602" s="46"/>
+      <c r="L602" s="46"/>
     </row>
     <row r="603">
-      <c r="G603" s="46"/>
+      <c r="G603" s="47"/>
       <c r="H603" s="25"/>
-      <c r="K603" s="45"/>
-      <c r="L603" s="45"/>
+      <c r="K603" s="46"/>
+      <c r="L603" s="46"/>
     </row>
     <row r="604">
-      <c r="G604" s="46"/>
+      <c r="G604" s="47"/>
       <c r="H604" s="25"/>
-      <c r="K604" s="45"/>
-      <c r="L604" s="45"/>
+      <c r="K604" s="46"/>
+      <c r="L604" s="46"/>
     </row>
     <row r="605">
-      <c r="G605" s="46"/>
+      <c r="G605" s="47"/>
       <c r="H605" s="25"/>
-      <c r="K605" s="45"/>
-      <c r="L605" s="45"/>
+      <c r="K605" s="46"/>
+      <c r="L605" s="46"/>
     </row>
     <row r="606">
-      <c r="G606" s="46"/>
+      <c r="G606" s="47"/>
       <c r="H606" s="25"/>
-      <c r="K606" s="45"/>
-      <c r="L606" s="45"/>
+      <c r="K606" s="46"/>
+      <c r="L606" s="46"/>
     </row>
     <row r="607">
-      <c r="G607" s="46"/>
+      <c r="G607" s="47"/>
       <c r="H607" s="25"/>
-      <c r="K607" s="45"/>
-      <c r="L607" s="45"/>
+      <c r="K607" s="46"/>
+      <c r="L607" s="46"/>
     </row>
     <row r="608">
-      <c r="G608" s="46"/>
+      <c r="G608" s="47"/>
       <c r="H608" s="25"/>
-      <c r="K608" s="45"/>
-      <c r="L608" s="45"/>
+      <c r="K608" s="46"/>
+      <c r="L608" s="46"/>
     </row>
     <row r="609">
-      <c r="G609" s="46"/>
+      <c r="G609" s="47"/>
       <c r="H609" s="25"/>
-      <c r="K609" s="45"/>
-      <c r="L609" s="45"/>
+      <c r="K609" s="46"/>
+      <c r="L609" s="46"/>
     </row>
     <row r="610">
-      <c r="G610" s="46"/>
+      <c r="G610" s="47"/>
       <c r="H610" s="25"/>
-      <c r="K610" s="45"/>
-      <c r="L610" s="45"/>
+      <c r="K610" s="46"/>
+      <c r="L610" s="46"/>
     </row>
     <row r="611">
-      <c r="G611" s="46"/>
+      <c r="G611" s="47"/>
       <c r="H611" s="25"/>
-      <c r="K611" s="45"/>
-      <c r="L611" s="45"/>
+      <c r="K611" s="46"/>
+      <c r="L611" s="46"/>
     </row>
     <row r="612">
-      <c r="G612" s="46"/>
+      <c r="G612" s="47"/>
       <c r="H612" s="25"/>
-      <c r="K612" s="45"/>
-      <c r="L612" s="45"/>
+      <c r="K612" s="46"/>
+      <c r="L612" s="46"/>
     </row>
     <row r="613">
-      <c r="G613" s="46"/>
+      <c r="G613" s="47"/>
       <c r="H613" s="25"/>
-      <c r="K613" s="45"/>
-      <c r="L613" s="45"/>
+      <c r="K613" s="46"/>
+      <c r="L613" s="46"/>
     </row>
     <row r="614">
-      <c r="G614" s="46"/>
+      <c r="G614" s="47"/>
       <c r="H614" s="25"/>
-      <c r="K614" s="45"/>
-      <c r="L614" s="45"/>
+      <c r="K614" s="46"/>
+      <c r="L614" s="46"/>
     </row>
     <row r="615">
-      <c r="G615" s="46"/>
+      <c r="G615" s="47"/>
       <c r="H615" s="25"/>
-      <c r="K615" s="45"/>
-      <c r="L615" s="45"/>
+      <c r="K615" s="46"/>
+      <c r="L615" s="46"/>
     </row>
     <row r="616">
-      <c r="G616" s="46"/>
+      <c r="G616" s="47"/>
       <c r="H616" s="25"/>
-      <c r="K616" s="45"/>
-      <c r="L616" s="45"/>
+      <c r="K616" s="46"/>
+      <c r="L616" s="46"/>
     </row>
     <row r="617">
-      <c r="G617" s="46"/>
+      <c r="G617" s="47"/>
       <c r="H617" s="25"/>
-      <c r="K617" s="45"/>
-      <c r="L617" s="45"/>
+      <c r="K617" s="46"/>
+      <c r="L617" s="46"/>
     </row>
     <row r="618">
-      <c r="G618" s="46"/>
+      <c r="G618" s="47"/>
       <c r="H618" s="25"/>
-      <c r="K618" s="45"/>
-      <c r="L618" s="45"/>
+      <c r="K618" s="46"/>
+      <c r="L618" s="46"/>
     </row>
     <row r="619">
-      <c r="G619" s="46"/>
+      <c r="G619" s="47"/>
       <c r="H619" s="25"/>
-      <c r="K619" s="45"/>
-      <c r="L619" s="45"/>
+      <c r="K619" s="46"/>
+      <c r="L619" s="46"/>
     </row>
     <row r="620">
-      <c r="G620" s="46"/>
+      <c r="G620" s="47"/>
       <c r="H620" s="25"/>
-      <c r="K620" s="45"/>
-      <c r="L620" s="45"/>
+      <c r="K620" s="46"/>
+      <c r="L620" s="46"/>
     </row>
     <row r="621">
-      <c r="G621" s="46"/>
+      <c r="G621" s="47"/>
       <c r="H621" s="25"/>
-      <c r="K621" s="45"/>
-      <c r="L621" s="45"/>
+      <c r="K621" s="46"/>
+      <c r="L621" s="46"/>
     </row>
     <row r="622">
-      <c r="G622" s="46"/>
+      <c r="G622" s="47"/>
       <c r="H622" s="25"/>
-      <c r="K622" s="45"/>
-      <c r="L622" s="45"/>
+      <c r="K622" s="46"/>
+      <c r="L622" s="46"/>
     </row>
     <row r="623">
-      <c r="G623" s="46"/>
+      <c r="G623" s="47"/>
       <c r="H623" s="25"/>
-      <c r="K623" s="45"/>
-      <c r="L623" s="45"/>
+      <c r="K623" s="46"/>
+      <c r="L623" s="46"/>
     </row>
     <row r="624">
-      <c r="G624" s="46"/>
+      <c r="G624" s="47"/>
       <c r="H624" s="25"/>
-      <c r="K624" s="45"/>
-      <c r="L624" s="45"/>
+      <c r="K624" s="46"/>
+      <c r="L624" s="46"/>
     </row>
     <row r="625">
-      <c r="G625" s="46"/>
+      <c r="G625" s="47"/>
       <c r="H625" s="25"/>
-      <c r="K625" s="45"/>
-      <c r="L625" s="45"/>
+      <c r="K625" s="46"/>
+      <c r="L625" s="46"/>
     </row>
     <row r="626">
-      <c r="G626" s="46"/>
+      <c r="G626" s="47"/>
       <c r="H626" s="25"/>
-      <c r="K626" s="45"/>
-      <c r="L626" s="45"/>
+      <c r="K626" s="46"/>
+      <c r="L626" s="46"/>
     </row>
     <row r="627">
-      <c r="G627" s="46"/>
+      <c r="G627" s="47"/>
       <c r="H627" s="25"/>
-      <c r="K627" s="45"/>
-      <c r="L627" s="45"/>
+      <c r="K627" s="46"/>
+      <c r="L627" s="46"/>
     </row>
     <row r="628">
-      <c r="G628" s="46"/>
+      <c r="G628" s="47"/>
       <c r="H628" s="25"/>
-      <c r="K628" s="45"/>
-      <c r="L628" s="45"/>
+      <c r="K628" s="46"/>
+      <c r="L628" s="46"/>
     </row>
     <row r="629">
-      <c r="G629" s="46"/>
+      <c r="G629" s="47"/>
       <c r="H629" s="25"/>
-      <c r="K629" s="45"/>
-      <c r="L629" s="45"/>
+      <c r="K629" s="46"/>
+      <c r="L629" s="46"/>
     </row>
     <row r="630">
-      <c r="G630" s="46"/>
+      <c r="G630" s="47"/>
       <c r="H630" s="25"/>
-      <c r="K630" s="45"/>
-      <c r="L630" s="45"/>
+      <c r="K630" s="46"/>
+      <c r="L630" s="46"/>
     </row>
     <row r="631">
-      <c r="G631" s="46"/>
+      <c r="G631" s="47"/>
       <c r="H631" s="25"/>
-      <c r="K631" s="45"/>
-      <c r="L631" s="45"/>
+      <c r="K631" s="46"/>
+      <c r="L631" s="46"/>
     </row>
     <row r="632">
-      <c r="G632" s="46"/>
+      <c r="G632" s="47"/>
       <c r="H632" s="25"/>
-      <c r="K632" s="45"/>
-      <c r="L632" s="45"/>
+      <c r="K632" s="46"/>
+      <c r="L632" s="46"/>
     </row>
     <row r="633">
-      <c r="G633" s="46"/>
+      <c r="G633" s="47"/>
       <c r="H633" s="25"/>
-      <c r="K633" s="45"/>
-      <c r="L633" s="45"/>
+      <c r="K633" s="46"/>
+      <c r="L633" s="46"/>
     </row>
     <row r="634">
-      <c r="G634" s="46"/>
+      <c r="G634" s="47"/>
       <c r="H634" s="25"/>
-      <c r="K634" s="45"/>
-      <c r="L634" s="45"/>
+      <c r="K634" s="46"/>
+      <c r="L634" s="46"/>
     </row>
     <row r="635">
-      <c r="G635" s="46"/>
+      <c r="G635" s="47"/>
       <c r="H635" s="25"/>
-      <c r="K635" s="45"/>
-      <c r="L635" s="45"/>
+      <c r="K635" s="46"/>
+      <c r="L635" s="46"/>
     </row>
     <row r="636">
-      <c r="G636" s="46"/>
+      <c r="G636" s="47"/>
       <c r="H636" s="25"/>
-      <c r="K636" s="45"/>
-      <c r="L636" s="45"/>
+      <c r="K636" s="46"/>
+      <c r="L636" s="46"/>
     </row>
     <row r="637">
-      <c r="G637" s="46"/>
+      <c r="G637" s="47"/>
       <c r="H637" s="25"/>
-      <c r="K637" s="45"/>
-      <c r="L637" s="45"/>
+      <c r="K637" s="46"/>
+      <c r="L637" s="46"/>
     </row>
     <row r="638">
-      <c r="G638" s="46"/>
+      <c r="G638" s="47"/>
       <c r="H638" s="25"/>
-      <c r="K638" s="45"/>
-      <c r="L638" s="45"/>
+      <c r="K638" s="46"/>
+      <c r="L638" s="46"/>
     </row>
     <row r="639">
-      <c r="G639" s="46"/>
+      <c r="G639" s="47"/>
       <c r="H639" s="25"/>
-      <c r="K639" s="45"/>
-      <c r="L639" s="45"/>
+      <c r="K639" s="46"/>
+      <c r="L639" s="46"/>
     </row>
     <row r="640">
-      <c r="G640" s="46"/>
+      <c r="G640" s="47"/>
       <c r="H640" s="25"/>
-      <c r="K640" s="45"/>
-      <c r="L640" s="45"/>
+      <c r="K640" s="46"/>
+      <c r="L640" s="46"/>
     </row>
     <row r="641">
-      <c r="G641" s="46"/>
+      <c r="G641" s="47"/>
       <c r="H641" s="25"/>
-      <c r="K641" s="45"/>
-      <c r="L641" s="45"/>
+      <c r="K641" s="46"/>
+      <c r="L641" s="46"/>
     </row>
     <row r="642">
-      <c r="G642" s="46"/>
+      <c r="G642" s="47"/>
       <c r="H642" s="25"/>
-      <c r="K642" s="45"/>
-      <c r="L642" s="45"/>
+      <c r="K642" s="46"/>
+      <c r="L642" s="46"/>
     </row>
     <row r="643">
-      <c r="G643" s="46"/>
+      <c r="G643" s="47"/>
       <c r="H643" s="25"/>
-      <c r="K643" s="45"/>
-      <c r="L643" s="45"/>
+      <c r="K643" s="46"/>
+      <c r="L643" s="46"/>
     </row>
     <row r="644">
-      <c r="G644" s="46"/>
+      <c r="G644" s="47"/>
       <c r="H644" s="25"/>
-      <c r="K644" s="45"/>
-      <c r="L644" s="45"/>
+      <c r="K644" s="46"/>
+      <c r="L644" s="46"/>
     </row>
     <row r="645">
-      <c r="G645" s="46"/>
+      <c r="G645" s="47"/>
       <c r="H645" s="25"/>
-      <c r="K645" s="45"/>
-      <c r="L645" s="45"/>
+      <c r="K645" s="46"/>
+      <c r="L645" s="46"/>
     </row>
     <row r="646">
-      <c r="G646" s="46"/>
+      <c r="G646" s="47"/>
       <c r="H646" s="25"/>
-      <c r="K646" s="45"/>
-      <c r="L646" s="45"/>
+      <c r="K646" s="46"/>
+      <c r="L646" s="46"/>
     </row>
     <row r="647">
-      <c r="G647" s="46"/>
+      <c r="G647" s="47"/>
       <c r="H647" s="25"/>
-      <c r="K647" s="45"/>
-      <c r="L647" s="45"/>
+      <c r="K647" s="46"/>
+      <c r="L647" s="46"/>
     </row>
     <row r="648">
-      <c r="G648" s="46"/>
+      <c r="G648" s="47"/>
       <c r="H648" s="25"/>
-      <c r="K648" s="45"/>
-      <c r="L648" s="45"/>
+      <c r="K648" s="46"/>
+      <c r="L648" s="46"/>
     </row>
     <row r="649">
-      <c r="G649" s="46"/>
+      <c r="G649" s="47"/>
       <c r="H649" s="25"/>
-      <c r="K649" s="45"/>
-      <c r="L649" s="45"/>
+      <c r="K649" s="46"/>
+      <c r="L649" s="46"/>
     </row>
     <row r="650">
-      <c r="G650" s="46"/>
+      <c r="G650" s="47"/>
       <c r="H650" s="25"/>
-      <c r="K650" s="45"/>
-      <c r="L650" s="45"/>
+      <c r="K650" s="46"/>
+      <c r="L650" s="46"/>
     </row>
     <row r="651">
-      <c r="G651" s="46"/>
+      <c r="G651" s="47"/>
       <c r="H651" s="25"/>
-      <c r="K651" s="45"/>
-      <c r="L651" s="45"/>
+      <c r="K651" s="46"/>
+      <c r="L651" s="46"/>
     </row>
     <row r="652">
-      <c r="G652" s="46"/>
+      <c r="G652" s="47"/>
       <c r="H652" s="25"/>
-      <c r="K652" s="45"/>
-      <c r="L652" s="45"/>
+      <c r="K652" s="46"/>
+      <c r="L652" s="46"/>
     </row>
     <row r="653">
-      <c r="G653" s="46"/>
+      <c r="G653" s="47"/>
       <c r="H653" s="25"/>
-      <c r="K653" s="45"/>
-      <c r="L653" s="45"/>
+      <c r="K653" s="46"/>
+      <c r="L653" s="46"/>
     </row>
     <row r="654">
-      <c r="G654" s="46"/>
+      <c r="G654" s="47"/>
       <c r="H654" s="25"/>
-      <c r="K654" s="45"/>
-      <c r="L654" s="45"/>
+      <c r="K654" s="46"/>
+      <c r="L654" s="46"/>
     </row>
     <row r="655">
-      <c r="G655" s="46"/>
+      <c r="G655" s="47"/>
       <c r="H655" s="25"/>
-      <c r="K655" s="45"/>
-      <c r="L655" s="45"/>
+      <c r="K655" s="46"/>
+      <c r="L655" s="46"/>
     </row>
     <row r="656">
-      <c r="G656" s="46"/>
+      <c r="G656" s="47"/>
       <c r="H656" s="25"/>
-      <c r="K656" s="45"/>
-      <c r="L656" s="45"/>
+      <c r="K656" s="46"/>
+      <c r="L656" s="46"/>
     </row>
     <row r="657">
-      <c r="G657" s="46"/>
+      <c r="G657" s="47"/>
       <c r="H657" s="25"/>
-      <c r="K657" s="45"/>
-      <c r="L657" s="45"/>
+      <c r="K657" s="46"/>
+      <c r="L657" s="46"/>
     </row>
     <row r="658">
-      <c r="G658" s="46"/>
+      <c r="G658" s="47"/>
       <c r="H658" s="25"/>
-      <c r="K658" s="45"/>
-      <c r="L658" s="45"/>
+      <c r="K658" s="46"/>
+      <c r="L658" s="46"/>
     </row>
     <row r="659">
-      <c r="G659" s="46"/>
+      <c r="G659" s="47"/>
       <c r="H659" s="25"/>
-      <c r="K659" s="45"/>
-      <c r="L659" s="45"/>
+      <c r="K659" s="46"/>
+      <c r="L659" s="46"/>
     </row>
     <row r="660">
-      <c r="G660" s="46"/>
+      <c r="G660" s="47"/>
       <c r="H660" s="25"/>
-      <c r="K660" s="45"/>
-      <c r="L660" s="45"/>
+      <c r="K660" s="46"/>
+      <c r="L660" s="46"/>
     </row>
     <row r="661">
-      <c r="G661" s="46"/>
+      <c r="G661" s="47"/>
       <c r="H661" s="25"/>
-      <c r="K661" s="45"/>
-      <c r="L661" s="45"/>
+      <c r="K661" s="46"/>
+      <c r="L661" s="46"/>
     </row>
     <row r="662">
-      <c r="G662" s="46"/>
+      <c r="G662" s="47"/>
       <c r="H662" s="25"/>
-      <c r="K662" s="45"/>
-      <c r="L662" s="45"/>
+      <c r="K662" s="46"/>
+      <c r="L662" s="46"/>
     </row>
     <row r="663">
-      <c r="G663" s="46"/>
+      <c r="G663" s="47"/>
       <c r="H663" s="25"/>
-      <c r="K663" s="45"/>
-      <c r="L663" s="45"/>
+      <c r="K663" s="46"/>
+      <c r="L663" s="46"/>
     </row>
     <row r="664">
-      <c r="G664" s="46"/>
+      <c r="G664" s="47"/>
       <c r="H664" s="25"/>
-      <c r="K664" s="45"/>
-      <c r="L664" s="45"/>
+      <c r="K664" s="46"/>
+      <c r="L664" s="46"/>
     </row>
     <row r="665">
-      <c r="G665" s="46"/>
+      <c r="G665" s="47"/>
       <c r="H665" s="25"/>
-      <c r="K665" s="45"/>
-      <c r="L665" s="45"/>
+      <c r="K665" s="46"/>
+      <c r="L665" s="46"/>
     </row>
     <row r="666">
-      <c r="G666" s="46"/>
+      <c r="G666" s="47"/>
       <c r="H666" s="25"/>
-      <c r="K666" s="45"/>
-      <c r="L666" s="45"/>
+      <c r="K666" s="46"/>
+      <c r="L666" s="46"/>
     </row>
     <row r="667">
-      <c r="G667" s="46"/>
+      <c r="G667" s="47"/>
       <c r="H667" s="25"/>
-      <c r="K667" s="45"/>
-      <c r="L667" s="45"/>
+      <c r="K667" s="46"/>
+      <c r="L667" s="46"/>
     </row>
     <row r="668">
-      <c r="G668" s="46"/>
+      <c r="G668" s="47"/>
       <c r="H668" s="25"/>
-      <c r="K668" s="45"/>
-      <c r="L668" s="45"/>
+      <c r="K668" s="46"/>
+      <c r="L668" s="46"/>
     </row>
     <row r="669">
-      <c r="G669" s="46"/>
+      <c r="G669" s="47"/>
       <c r="H669" s="25"/>
-      <c r="K669" s="45"/>
-      <c r="L669" s="45"/>
+      <c r="K669" s="46"/>
+      <c r="L669" s="46"/>
     </row>
     <row r="670">
-      <c r="G670" s="46"/>
+      <c r="G670" s="47"/>
       <c r="H670" s="25"/>
-      <c r="K670" s="45"/>
-      <c r="L670" s="45"/>
+      <c r="K670" s="46"/>
+      <c r="L670" s="46"/>
     </row>
     <row r="671">
-      <c r="G671" s="46"/>
+      <c r="G671" s="47"/>
       <c r="H671" s="25"/>
-      <c r="K671" s="45"/>
-      <c r="L671" s="45"/>
+      <c r="K671" s="46"/>
+      <c r="L671" s="46"/>
     </row>
     <row r="672">
-      <c r="G672" s="46"/>
+      <c r="G672" s="47"/>
       <c r="H672" s="25"/>
-      <c r="K672" s="45"/>
-      <c r="L672" s="45"/>
+      <c r="K672" s="46"/>
+      <c r="L672" s="46"/>
     </row>
     <row r="673">
-      <c r="G673" s="46"/>
+      <c r="G673" s="47"/>
       <c r="H673" s="25"/>
-      <c r="K673" s="45"/>
-      <c r="L673" s="45"/>
+      <c r="K673" s="46"/>
+      <c r="L673" s="46"/>
     </row>
     <row r="674">
-      <c r="G674" s="46"/>
+      <c r="G674" s="47"/>
       <c r="H674" s="25"/>
-      <c r="K674" s="45"/>
-      <c r="L674" s="45"/>
+      <c r="K674" s="46"/>
+      <c r="L674" s="46"/>
     </row>
     <row r="675">
-      <c r="G675" s="46"/>
+      <c r="G675" s="47"/>
       <c r="H675" s="25"/>
-      <c r="K675" s="45"/>
-      <c r="L675" s="45"/>
+      <c r="K675" s="46"/>
+      <c r="L675" s="46"/>
     </row>
     <row r="676">
-      <c r="G676" s="46"/>
+      <c r="G676" s="47"/>
       <c r="H676" s="25"/>
-      <c r="K676" s="45"/>
-      <c r="L676" s="45"/>
+      <c r="K676" s="46"/>
+      <c r="L676" s="46"/>
     </row>
     <row r="677">
-      <c r="G677" s="46"/>
+      <c r="G677" s="47"/>
       <c r="H677" s="25"/>
-      <c r="K677" s="45"/>
-      <c r="L677" s="45"/>
+      <c r="K677" s="46"/>
+      <c r="L677" s="46"/>
     </row>
     <row r="678">
-      <c r="G678" s="46"/>
+      <c r="G678" s="47"/>
       <c r="H678" s="25"/>
-      <c r="K678" s="45"/>
-      <c r="L678" s="45"/>
+      <c r="K678" s="46"/>
+      <c r="L678" s="46"/>
     </row>
     <row r="679">
-      <c r="G679" s="46"/>
+      <c r="G679" s="47"/>
       <c r="H679" s="25"/>
-      <c r="K679" s="45"/>
-      <c r="L679" s="45"/>
+      <c r="K679" s="46"/>
+      <c r="L679" s="46"/>
     </row>
     <row r="680">
-      <c r="G680" s="46"/>
+      <c r="G680" s="47"/>
       <c r="H680" s="25"/>
-      <c r="K680" s="45"/>
-      <c r="L680" s="45"/>
+      <c r="K680" s="46"/>
+      <c r="L680" s="46"/>
     </row>
     <row r="681">
-      <c r="G681" s="46"/>
+      <c r="G681" s="47"/>
       <c r="H681" s="25"/>
-      <c r="K681" s="45"/>
-      <c r="L681" s="45"/>
+      <c r="K681" s="46"/>
+      <c r="L681" s="46"/>
     </row>
     <row r="682">
-      <c r="G682" s="46"/>
+      <c r="G682" s="47"/>
       <c r="H682" s="25"/>
-      <c r="K682" s="45"/>
-      <c r="L682" s="45"/>
+      <c r="K682" s="46"/>
+      <c r="L682" s="46"/>
     </row>
     <row r="683">
-      <c r="G683" s="46"/>
+      <c r="G683" s="47"/>
       <c r="H683" s="25"/>
-      <c r="K683" s="45"/>
-      <c r="L683" s="45"/>
+      <c r="K683" s="46"/>
+      <c r="L683" s="46"/>
     </row>
     <row r="684">
-      <c r="G684" s="46"/>
+      <c r="G684" s="47"/>
       <c r="H684" s="25"/>
-      <c r="K684" s="45"/>
-      <c r="L684" s="45"/>
+      <c r="K684" s="46"/>
+      <c r="L684" s="46"/>
     </row>
     <row r="685">
-      <c r="G685" s="46"/>
+      <c r="G685" s="47"/>
       <c r="H685" s="25"/>
-      <c r="K685" s="45"/>
-      <c r="L685" s="45"/>
+      <c r="K685" s="46"/>
+      <c r="L685" s="46"/>
     </row>
     <row r="686">
-      <c r="G686" s="46"/>
+      <c r="G686" s="47"/>
       <c r="H686" s="25"/>
-      <c r="K686" s="45"/>
-      <c r="L686" s="45"/>
+      <c r="K686" s="46"/>
+      <c r="L686" s="46"/>
     </row>
     <row r="687">
-      <c r="G687" s="46"/>
+      <c r="G687" s="47"/>
       <c r="H687" s="25"/>
-      <c r="K687" s="45"/>
-      <c r="L687" s="45"/>
+      <c r="K687" s="46"/>
+      <c r="L687" s="46"/>
     </row>
     <row r="688">
-      <c r="G688" s="46"/>
+      <c r="G688" s="47"/>
       <c r="H688" s="25"/>
-      <c r="K688" s="45"/>
-      <c r="L688" s="45"/>
+      <c r="K688" s="46"/>
+      <c r="L688" s="46"/>
     </row>
     <row r="689">
-      <c r="G689" s="46"/>
+      <c r="G689" s="47"/>
       <c r="H689" s="25"/>
-      <c r="K689" s="45"/>
-      <c r="L689" s="45"/>
+      <c r="K689" s="46"/>
+      <c r="L689" s="46"/>
     </row>
     <row r="690">
-      <c r="G690" s="46"/>
+      <c r="G690" s="47"/>
       <c r="H690" s="25"/>
-      <c r="K690" s="45"/>
-      <c r="L690" s="45"/>
+      <c r="K690" s="46"/>
+      <c r="L690" s="46"/>
     </row>
     <row r="691">
-      <c r="G691" s="46"/>
+      <c r="G691" s="47"/>
       <c r="H691" s="25"/>
-      <c r="K691" s="45"/>
-      <c r="L691" s="45"/>
+      <c r="K691" s="46"/>
+      <c r="L691" s="46"/>
     </row>
     <row r="692">
-      <c r="G692" s="46"/>
+      <c r="G692" s="47"/>
       <c r="H692" s="25"/>
-      <c r="K692" s="45"/>
-      <c r="L692" s="45"/>
+      <c r="K692" s="46"/>
+      <c r="L692" s="46"/>
     </row>
     <row r="693">
-      <c r="G693" s="46"/>
+      <c r="G693" s="47"/>
       <c r="H693" s="25"/>
-      <c r="K693" s="45"/>
-      <c r="L693" s="45"/>
+      <c r="K693" s="46"/>
+      <c r="L693" s="46"/>
     </row>
     <row r="694">
-      <c r="G694" s="46"/>
+      <c r="G694" s="47"/>
       <c r="H694" s="25"/>
-      <c r="K694" s="45"/>
-      <c r="L694" s="45"/>
+      <c r="K694" s="46"/>
+      <c r="L694" s="46"/>
     </row>
     <row r="695">
-      <c r="G695" s="46"/>
+      <c r="G695" s="47"/>
       <c r="H695" s="25"/>
-      <c r="K695" s="45"/>
-      <c r="L695" s="45"/>
+      <c r="K695" s="46"/>
+      <c r="L695" s="46"/>
     </row>
     <row r="696">
-      <c r="G696" s="46"/>
+      <c r="G696" s="47"/>
       <c r="H696" s="25"/>
-      <c r="K696" s="45"/>
-      <c r="L696" s="45"/>
+      <c r="K696" s="46"/>
+      <c r="L696" s="46"/>
     </row>
     <row r="697">
-      <c r="G697" s="46"/>
+      <c r="G697" s="47"/>
       <c r="H697" s="25"/>
-      <c r="K697" s="45"/>
-      <c r="L697" s="45"/>
+      <c r="K697" s="46"/>
+      <c r="L697" s="46"/>
     </row>
     <row r="698">
-      <c r="G698" s="46"/>
+      <c r="G698" s="47"/>
       <c r="H698" s="25"/>
-      <c r="K698" s="45"/>
-      <c r="L698" s="45"/>
+      <c r="K698" s="46"/>
+      <c r="L698" s="46"/>
     </row>
     <row r="699">
-      <c r="G699" s="46"/>
+      <c r="G699" s="47"/>
       <c r="H699" s="25"/>
-      <c r="K699" s="45"/>
-      <c r="L699" s="45"/>
+      <c r="K699" s="46"/>
+      <c r="L699" s="46"/>
     </row>
     <row r="700">
-      <c r="G700" s="46"/>
+      <c r="G700" s="47"/>
       <c r="H700" s="25"/>
-      <c r="K700" s="45"/>
-      <c r="L700" s="45"/>
+      <c r="K700" s="46"/>
+      <c r="L700" s="46"/>
     </row>
     <row r="701">
-      <c r="G701" s="46"/>
+      <c r="G701" s="47"/>
       <c r="H701" s="25"/>
-      <c r="K701" s="45"/>
-      <c r="L701" s="45"/>
+      <c r="K701" s="46"/>
+      <c r="L701" s="46"/>
     </row>
     <row r="702">
-      <c r="G702" s="46"/>
+      <c r="G702" s="47"/>
       <c r="H702" s="25"/>
-      <c r="K702" s="45"/>
-      <c r="L702" s="45"/>
+      <c r="K702" s="46"/>
+      <c r="L702" s="46"/>
     </row>
     <row r="703">
-      <c r="G703" s="46"/>
+      <c r="G703" s="47"/>
       <c r="H703" s="25"/>
-      <c r="K703" s="45"/>
-      <c r="L703" s="45"/>
+      <c r="K703" s="46"/>
+      <c r="L703" s="46"/>
     </row>
     <row r="704">
-      <c r="G704" s="46"/>
+      <c r="G704" s="47"/>
       <c r="H704" s="25"/>
-      <c r="K704" s="45"/>
-      <c r="L704" s="45"/>
+      <c r="K704" s="46"/>
+      <c r="L704" s="46"/>
     </row>
     <row r="705">
-      <c r="G705" s="46"/>
+      <c r="G705" s="47"/>
       <c r="H705" s="25"/>
-      <c r="K705" s="45"/>
-      <c r="L705" s="45"/>
+      <c r="K705" s="46"/>
+      <c r="L705" s="46"/>
     </row>
     <row r="706">
-      <c r="G706" s="46"/>
+      <c r="G706" s="47"/>
       <c r="H706" s="25"/>
-      <c r="K706" s="45"/>
-      <c r="L706" s="45"/>
+      <c r="K706" s="46"/>
+      <c r="L706" s="46"/>
     </row>
     <row r="707">
-      <c r="G707" s="46"/>
+      <c r="G707" s="47"/>
       <c r="H707" s="25"/>
-      <c r="K707" s="45"/>
-      <c r="L707" s="45"/>
+      <c r="K707" s="46"/>
+      <c r="L707" s="46"/>
     </row>
     <row r="708">
-      <c r="G708" s="46"/>
+      <c r="G708" s="47"/>
       <c r="H708" s="25"/>
-      <c r="K708" s="45"/>
-      <c r="L708" s="45"/>
+      <c r="K708" s="46"/>
+      <c r="L708" s="46"/>
     </row>
     <row r="709">
-      <c r="G709" s="46"/>
+      <c r="G709" s="47"/>
       <c r="H709" s="25"/>
-      <c r="K709" s="45"/>
-      <c r="L709" s="45"/>
+      <c r="K709" s="46"/>
+      <c r="L709" s="46"/>
     </row>
     <row r="710">
-      <c r="G710" s="46"/>
+      <c r="G710" s="47"/>
       <c r="H710" s="25"/>
-      <c r="K710" s="45"/>
-      <c r="L710" s="45"/>
+      <c r="K710" s="46"/>
+      <c r="L710" s="46"/>
     </row>
     <row r="711">
-      <c r="G711" s="46"/>
+      <c r="G711" s="47"/>
       <c r="H711" s="25"/>
-      <c r="K711" s="45"/>
-      <c r="L711" s="45"/>
+      <c r="K711" s="46"/>
+      <c r="L711" s="46"/>
     </row>
     <row r="712">
-      <c r="G712" s="46"/>
+      <c r="G712" s="47"/>
       <c r="H712" s="25"/>
-      <c r="K712" s="45"/>
-      <c r="L712" s="45"/>
+      <c r="K712" s="46"/>
+      <c r="L712" s="46"/>
     </row>
     <row r="713">
-      <c r="G713" s="46"/>
+      <c r="G713" s="47"/>
       <c r="H713" s="25"/>
-      <c r="K713" s="45"/>
-      <c r="L713" s="45"/>
+      <c r="K713" s="46"/>
+      <c r="L713" s="46"/>
     </row>
     <row r="714">
-      <c r="G714" s="46"/>
+      <c r="G714" s="47"/>
       <c r="H714" s="25"/>
-      <c r="K714" s="45"/>
-      <c r="L714" s="45"/>
+      <c r="K714" s="46"/>
+      <c r="L714" s="46"/>
     </row>
     <row r="715">
-      <c r="G715" s="46"/>
+      <c r="G715" s="47"/>
       <c r="H715" s="25"/>
-      <c r="K715" s="45"/>
-      <c r="L715" s="45"/>
+      <c r="K715" s="46"/>
+      <c r="L715" s="46"/>
     </row>
     <row r="716">
-      <c r="G716" s="46"/>
+      <c r="G716" s="47"/>
       <c r="H716" s="25"/>
-      <c r="K716" s="45"/>
-      <c r="L716" s="45"/>
+      <c r="K716" s="46"/>
+      <c r="L716" s="46"/>
     </row>
     <row r="717">
-      <c r="G717" s="46"/>
+      <c r="G717" s="47"/>
       <c r="H717" s="25"/>
-      <c r="K717" s="45"/>
-      <c r="L717" s="45"/>
+      <c r="K717" s="46"/>
+      <c r="L717" s="46"/>
     </row>
     <row r="718">
-      <c r="G718" s="46"/>
+      <c r="G718" s="47"/>
       <c r="H718" s="25"/>
-      <c r="K718" s="45"/>
-      <c r="L718" s="45"/>
+      <c r="K718" s="46"/>
+      <c r="L718" s="46"/>
     </row>
     <row r="719">
-      <c r="G719" s="46"/>
+      <c r="G719" s="47"/>
       <c r="H719" s="25"/>
-      <c r="K719" s="45"/>
-      <c r="L719" s="45"/>
+      <c r="K719" s="46"/>
+      <c r="L719" s="46"/>
     </row>
     <row r="720">
-      <c r="G720" s="46"/>
+      <c r="G720" s="47"/>
       <c r="H720" s="25"/>
-      <c r="K720" s="45"/>
-      <c r="L720" s="45"/>
+      <c r="K720" s="46"/>
+      <c r="L720" s="46"/>
     </row>
     <row r="721">
-      <c r="G721" s="46"/>
+      <c r="G721" s="47"/>
       <c r="H721" s="25"/>
-      <c r="K721" s="45"/>
-      <c r="L721" s="45"/>
+      <c r="K721" s="46"/>
+      <c r="L721" s="46"/>
     </row>
     <row r="722">
-      <c r="G722" s="46"/>
+      <c r="G722" s="47"/>
       <c r="H722" s="25"/>
-      <c r="K722" s="45"/>
-      <c r="L722" s="45"/>
+      <c r="K722" s="46"/>
+      <c r="L722" s="46"/>
     </row>
     <row r="723">
-      <c r="G723" s="46"/>
+      <c r="G723" s="47"/>
       <c r="H723" s="25"/>
-      <c r="K723" s="45"/>
-      <c r="L723" s="45"/>
+      <c r="K723" s="46"/>
+      <c r="L723" s="46"/>
     </row>
     <row r="724">
-      <c r="G724" s="46"/>
+      <c r="G724" s="47"/>
       <c r="H724" s="25"/>
-      <c r="K724" s="45"/>
-      <c r="L724" s="45"/>
+      <c r="K724" s="46"/>
+      <c r="L724" s="46"/>
     </row>
     <row r="725">
-      <c r="G725" s="46"/>
+      <c r="G725" s="47"/>
       <c r="H725" s="25"/>
-      <c r="K725" s="45"/>
-      <c r="L725" s="45"/>
+      <c r="K725" s="46"/>
+      <c r="L725" s="46"/>
     </row>
     <row r="726">
-      <c r="G726" s="46"/>
+      <c r="G726" s="47"/>
       <c r="H726" s="25"/>
-      <c r="K726" s="45"/>
-      <c r="L726" s="45"/>
+      <c r="K726" s="46"/>
+      <c r="L726" s="46"/>
     </row>
     <row r="727">
-      <c r="G727" s="46"/>
+      <c r="G727" s="47"/>
       <c r="H727" s="25"/>
-      <c r="K727" s="45"/>
-      <c r="L727" s="45"/>
+      <c r="K727" s="46"/>
+      <c r="L727" s="46"/>
     </row>
     <row r="728">
-      <c r="G728" s="46"/>
+      <c r="G728" s="47"/>
       <c r="H728" s="25"/>
-      <c r="K728" s="45"/>
-      <c r="L728" s="45"/>
+      <c r="K728" s="46"/>
+      <c r="L728" s="46"/>
     </row>
     <row r="729">
-      <c r="G729" s="46"/>
+      <c r="G729" s="47"/>
       <c r="H729" s="25"/>
-      <c r="K729" s="45"/>
-      <c r="L729" s="45"/>
+      <c r="K729" s="46"/>
+      <c r="L729" s="46"/>
     </row>
     <row r="730">
-      <c r="G730" s="46"/>
+      <c r="G730" s="47"/>
       <c r="H730" s="25"/>
-      <c r="K730" s="45"/>
-      <c r="L730" s="45"/>
+      <c r="K730" s="46"/>
+      <c r="L730" s="46"/>
     </row>
     <row r="731">
-      <c r="G731" s="46"/>
+      <c r="G731" s="47"/>
       <c r="H731" s="25"/>
-      <c r="K731" s="45"/>
-      <c r="L731" s="45"/>
+      <c r="K731" s="46"/>
+      <c r="L731" s="46"/>
     </row>
     <row r="732">
-      <c r="G732" s="46"/>
+      <c r="G732" s="47"/>
       <c r="H732" s="25"/>
-      <c r="K732" s="45"/>
-      <c r="L732" s="45"/>
+      <c r="K732" s="46"/>
+      <c r="L732" s="46"/>
     </row>
     <row r="733">
-      <c r="G733" s="46"/>
+      <c r="G733" s="47"/>
       <c r="H733" s="25"/>
-      <c r="K733" s="45"/>
-      <c r="L733" s="45"/>
+      <c r="K733" s="46"/>
+      <c r="L733" s="46"/>
     </row>
     <row r="734">
-      <c r="G734" s="46"/>
+      <c r="G734" s="47"/>
       <c r="H734" s="25"/>
-      <c r="K734" s="45"/>
-      <c r="L734" s="45"/>
+      <c r="K734" s="46"/>
+      <c r="L734" s="46"/>
     </row>
     <row r="735">
-      <c r="G735" s="46"/>
+      <c r="G735" s="47"/>
       <c r="H735" s="25"/>
-      <c r="K735" s="45"/>
-      <c r="L735" s="45"/>
+      <c r="K735" s="46"/>
+      <c r="L735" s="46"/>
     </row>
     <row r="736">
-      <c r="G736" s="46"/>
+      <c r="G736" s="47"/>
       <c r="H736" s="25"/>
-      <c r="K736" s="45"/>
-      <c r="L736" s="45"/>
+      <c r="K736" s="46"/>
+      <c r="L736" s="46"/>
     </row>
     <row r="737">
-      <c r="G737" s="46"/>
+      <c r="G737" s="47"/>
       <c r="H737" s="25"/>
-      <c r="K737" s="45"/>
-      <c r="L737" s="45"/>
+      <c r="K737" s="46"/>
+      <c r="L737" s="46"/>
     </row>
     <row r="738">
-      <c r="G738" s="46"/>
+      <c r="G738" s="47"/>
       <c r="H738" s="25"/>
-      <c r="K738" s="45"/>
-      <c r="L738" s="45"/>
+      <c r="K738" s="46"/>
+      <c r="L738" s="46"/>
     </row>
     <row r="739">
-      <c r="G739" s="46"/>
+      <c r="G739" s="47"/>
       <c r="H739" s="25"/>
-      <c r="K739" s="45"/>
-      <c r="L739" s="45"/>
+      <c r="K739" s="46"/>
+      <c r="L739" s="46"/>
     </row>
     <row r="740">
-      <c r="G740" s="46"/>
+      <c r="G740" s="47"/>
       <c r="H740" s="25"/>
-      <c r="K740" s="45"/>
-      <c r="L740" s="45"/>
+      <c r="K740" s="46"/>
+      <c r="L740" s="46"/>
     </row>
     <row r="741">
-      <c r="G741" s="46"/>
+      <c r="G741" s="47"/>
       <c r="H741" s="25"/>
-      <c r="K741" s="45"/>
-      <c r="L741" s="45"/>
+      <c r="K741" s="46"/>
+      <c r="L741" s="46"/>
     </row>
     <row r="742">
-      <c r="G742" s="46"/>
+      <c r="G742" s="47"/>
       <c r="H742" s="25"/>
-      <c r="K742" s="45"/>
-      <c r="L742" s="45"/>
+      <c r="K742" s="46"/>
+      <c r="L742" s="46"/>
     </row>
     <row r="743">
-      <c r="G743" s="46"/>
+      <c r="G743" s="47"/>
       <c r="H743" s="25"/>
-      <c r="K743" s="45"/>
-      <c r="L743" s="45"/>
+      <c r="K743" s="46"/>
+      <c r="L743" s="46"/>
     </row>
     <row r="744">
-      <c r="G744" s="46"/>
+      <c r="G744" s="47"/>
       <c r="H744" s="25"/>
-      <c r="K744" s="45"/>
-      <c r="L744" s="45"/>
+      <c r="K744" s="46"/>
+      <c r="L744" s="46"/>
     </row>
     <row r="745">
-      <c r="G745" s="46"/>
+      <c r="G745" s="47"/>
       <c r="H745" s="25"/>
-      <c r="K745" s="45"/>
-      <c r="L745" s="45"/>
+      <c r="K745" s="46"/>
+      <c r="L745" s="46"/>
     </row>
     <row r="746">
-      <c r="G746" s="46"/>
+      <c r="G746" s="47"/>
       <c r="H746" s="25"/>
-      <c r="K746" s="45"/>
-      <c r="L746" s="45"/>
+      <c r="K746" s="46"/>
+      <c r="L746" s="46"/>
     </row>
     <row r="747">
-      <c r="G747" s="46"/>
+      <c r="G747" s="47"/>
       <c r="H747" s="25"/>
-      <c r="K747" s="45"/>
-      <c r="L747" s="45"/>
+      <c r="K747" s="46"/>
+      <c r="L747" s="46"/>
     </row>
     <row r="748">
-      <c r="G748" s="46"/>
+      <c r="G748" s="47"/>
       <c r="H748" s="25"/>
-      <c r="K748" s="45"/>
-      <c r="L748" s="45"/>
+      <c r="K748" s="46"/>
+      <c r="L748" s="46"/>
     </row>
     <row r="749">
-      <c r="G749" s="46"/>
+      <c r="G749" s="47"/>
       <c r="H749" s="25"/>
-      <c r="K749" s="45"/>
-      <c r="L749" s="45"/>
+      <c r="K749" s="46"/>
+      <c r="L749" s="46"/>
     </row>
     <row r="750">
-      <c r="G750" s="46"/>
+      <c r="G750" s="47"/>
       <c r="H750" s="25"/>
-      <c r="K750" s="45"/>
-      <c r="L750" s="45"/>
+      <c r="K750" s="46"/>
+      <c r="L750" s="46"/>
     </row>
     <row r="751">
-      <c r="G751" s="46"/>
+      <c r="G751" s="47"/>
       <c r="H751" s="25"/>
-      <c r="K751" s="45"/>
-      <c r="L751" s="45"/>
+      <c r="K751" s="46"/>
+      <c r="L751" s="46"/>
     </row>
     <row r="752">
-      <c r="G752" s="46"/>
+      <c r="G752" s="47"/>
       <c r="H752" s="25"/>
-      <c r="K752" s="45"/>
-      <c r="L752" s="45"/>
+      <c r="K752" s="46"/>
+      <c r="L752" s="46"/>
     </row>
     <row r="753">
-      <c r="G753" s="46"/>
+      <c r="G753" s="47"/>
       <c r="H753" s="25"/>
-      <c r="K753" s="45"/>
-      <c r="L753" s="45"/>
+      <c r="K753" s="46"/>
+      <c r="L753" s="46"/>
     </row>
     <row r="754">
-      <c r="G754" s="46"/>
+      <c r="G754" s="47"/>
       <c r="H754" s="25"/>
-      <c r="K754" s="45"/>
-      <c r="L754" s="45"/>
+      <c r="K754" s="46"/>
+      <c r="L754" s="46"/>
     </row>
     <row r="755">
-      <c r="G755" s="46"/>
+      <c r="G755" s="47"/>
       <c r="H755" s="25"/>
-      <c r="K755" s="45"/>
-      <c r="L755" s="45"/>
+      <c r="K755" s="46"/>
+      <c r="L755" s="46"/>
     </row>
     <row r="756">
-      <c r="G756" s="46"/>
+      <c r="G756" s="47"/>
       <c r="H756" s="25"/>
-      <c r="K756" s="45"/>
-      <c r="L756" s="45"/>
+      <c r="K756" s="46"/>
+      <c r="L756" s="46"/>
     </row>
     <row r="757">
-      <c r="G757" s="46"/>
+      <c r="G757" s="47"/>
       <c r="H757" s="25"/>
-      <c r="K757" s="45"/>
-      <c r="L757" s="45"/>
+      <c r="K757" s="46"/>
+      <c r="L757" s="46"/>
     </row>
     <row r="758">
-      <c r="G758" s="46"/>
+      <c r="G758" s="47"/>
       <c r="H758" s="25"/>
-      <c r="K758" s="45"/>
-      <c r="L758" s="45"/>
+      <c r="K758" s="46"/>
+      <c r="L758" s="46"/>
     </row>
     <row r="759">
-      <c r="G759" s="46"/>
+      <c r="G759" s="47"/>
       <c r="H759" s="25"/>
-      <c r="K759" s="45"/>
-      <c r="L759" s="45"/>
+      <c r="K759" s="46"/>
+      <c r="L759" s="46"/>
     </row>
     <row r="760">
-      <c r="G760" s="46"/>
+      <c r="G760" s="47"/>
       <c r="H760" s="25"/>
-      <c r="K760" s="45"/>
-      <c r="L760" s="45"/>
+      <c r="K760" s="46"/>
+      <c r="L760" s="46"/>
     </row>
     <row r="761">
-      <c r="G761" s="46"/>
+      <c r="G761" s="47"/>
       <c r="H761" s="25"/>
-      <c r="K761" s="45"/>
-      <c r="L761" s="45"/>
+      <c r="K761" s="46"/>
+      <c r="L761" s="46"/>
     </row>
     <row r="762">
-      <c r="G762" s="46"/>
+      <c r="G762" s="47"/>
       <c r="H762" s="25"/>
-      <c r="K762" s="45"/>
-      <c r="L762" s="45"/>
+      <c r="K762" s="46"/>
+      <c r="L762" s="46"/>
     </row>
     <row r="763">
-      <c r="G763" s="46"/>
+      <c r="G763" s="47"/>
       <c r="H763" s="25"/>
-      <c r="K763" s="45"/>
-      <c r="L763" s="45"/>
+      <c r="K763" s="46"/>
+      <c r="L763" s="46"/>
     </row>
     <row r="764">
-      <c r="G764" s="46"/>
+      <c r="G764" s="47"/>
       <c r="H764" s="25"/>
-      <c r="K764" s="45"/>
-      <c r="L764" s="45"/>
+      <c r="K764" s="46"/>
+      <c r="L764" s="46"/>
     </row>
     <row r="765">
-      <c r="G765" s="46"/>
+      <c r="G765" s="47"/>
       <c r="H765" s="25"/>
-      <c r="K765" s="45"/>
-      <c r="L765" s="45"/>
+      <c r="K765" s="46"/>
+      <c r="L765" s="46"/>
     </row>
     <row r="766">
-      <c r="G766" s="46"/>
+      <c r="G766" s="47"/>
       <c r="H766" s="25"/>
-      <c r="K766" s="45"/>
-      <c r="L766" s="45"/>
+      <c r="K766" s="46"/>
+      <c r="L766" s="46"/>
     </row>
     <row r="767">
-      <c r="G767" s="46"/>
+      <c r="G767" s="47"/>
       <c r="H767" s="25"/>
-      <c r="K767" s="45"/>
-      <c r="L767" s="45"/>
+      <c r="K767" s="46"/>
+      <c r="L767" s="46"/>
     </row>
     <row r="768">
-      <c r="G768" s="46"/>
+      <c r="G768" s="47"/>
       <c r="H768" s="25"/>
-      <c r="K768" s="45"/>
-      <c r="L768" s="45"/>
+      <c r="K768" s="46"/>
+      <c r="L768" s="46"/>
     </row>
     <row r="769">
-      <c r="G769" s="46"/>
+      <c r="G769" s="47"/>
       <c r="H769" s="25"/>
-      <c r="K769" s="45"/>
-      <c r="L769" s="45"/>
+      <c r="K769" s="46"/>
+      <c r="L769" s="46"/>
     </row>
     <row r="770">
-      <c r="G770" s="46"/>
+      <c r="G770" s="47"/>
       <c r="H770" s="25"/>
-      <c r="K770" s="45"/>
-      <c r="L770" s="45"/>
+      <c r="K770" s="46"/>
+      <c r="L770" s="46"/>
     </row>
     <row r="771">
-      <c r="G771" s="46"/>
+      <c r="G771" s="47"/>
       <c r="H771" s="25"/>
-      <c r="K771" s="45"/>
-      <c r="L771" s="45"/>
+      <c r="K771" s="46"/>
+      <c r="L771" s="46"/>
     </row>
     <row r="772">
-      <c r="G772" s="46"/>
+      <c r="G772" s="47"/>
       <c r="H772" s="25"/>
-      <c r="K772" s="45"/>
-      <c r="L772" s="45"/>
+      <c r="K772" s="46"/>
+      <c r="L772" s="46"/>
     </row>
     <row r="773">
-      <c r="G773" s="46"/>
+      <c r="G773" s="47"/>
       <c r="H773" s="25"/>
-      <c r="K773" s="45"/>
-      <c r="L773" s="45"/>
+      <c r="K773" s="46"/>
+      <c r="L773" s="46"/>
     </row>
     <row r="774">
-      <c r="G774" s="46"/>
+      <c r="G774" s="47"/>
       <c r="H774" s="25"/>
-      <c r="K774" s="45"/>
-      <c r="L774" s="45"/>
+      <c r="K774" s="46"/>
+      <c r="L774" s="46"/>
     </row>
     <row r="775">
-      <c r="G775" s="46"/>
+      <c r="G775" s="47"/>
       <c r="H775" s="25"/>
-      <c r="K775" s="45"/>
-      <c r="L775" s="45"/>
+      <c r="K775" s="46"/>
+      <c r="L775" s="46"/>
     </row>
     <row r="776">
-      <c r="G776" s="46"/>
+      <c r="G776" s="47"/>
       <c r="H776" s="25"/>
-      <c r="K776" s="45"/>
-      <c r="L776" s="45"/>
+      <c r="K776" s="46"/>
+      <c r="L776" s="46"/>
     </row>
     <row r="777">
-      <c r="G777" s="46"/>
+      <c r="G777" s="47"/>
       <c r="H777" s="25"/>
-      <c r="K777" s="45"/>
-      <c r="L777" s="45"/>
+      <c r="K777" s="46"/>
+      <c r="L777" s="46"/>
     </row>
     <row r="778">
-      <c r="G778" s="46"/>
+      <c r="G778" s="47"/>
       <c r="H778" s="25"/>
-      <c r="K778" s="45"/>
-      <c r="L778" s="45"/>
+      <c r="K778" s="46"/>
+      <c r="L778" s="46"/>
     </row>
     <row r="779">
-      <c r="G779" s="46"/>
+      <c r="G779" s="47"/>
       <c r="H779" s="25"/>
-      <c r="K779" s="45"/>
-      <c r="L779" s="45"/>
+      <c r="K779" s="46"/>
+      <c r="L779" s="46"/>
     </row>
     <row r="780">
-      <c r="G780" s="46"/>
+      <c r="G780" s="47"/>
       <c r="H780" s="25"/>
-      <c r="K780" s="45"/>
-      <c r="L780" s="45"/>
+      <c r="K780" s="46"/>
+      <c r="L780" s="46"/>
     </row>
     <row r="781">
-      <c r="G781" s="46"/>
+      <c r="G781" s="47"/>
       <c r="H781" s="25"/>
-      <c r="K781" s="45"/>
-      <c r="L781" s="45"/>
+      <c r="K781" s="46"/>
+      <c r="L781" s="46"/>
     </row>
     <row r="782">
-      <c r="G782" s="46"/>
+      <c r="G782" s="47"/>
       <c r="H782" s="25"/>
-      <c r="K782" s="45"/>
-      <c r="L782" s="45"/>
+      <c r="K782" s="46"/>
+      <c r="L782" s="46"/>
     </row>
     <row r="783">
-      <c r="G783" s="46"/>
+      <c r="G783" s="47"/>
       <c r="H783" s="25"/>
-      <c r="K783" s="45"/>
-      <c r="L783" s="45"/>
+      <c r="K783" s="46"/>
+      <c r="L783" s="46"/>
     </row>
     <row r="784">
-      <c r="G784" s="46"/>
+      <c r="G784" s="47"/>
       <c r="H784" s="25"/>
-      <c r="K784" s="45"/>
-      <c r="L784" s="45"/>
+      <c r="K784" s="46"/>
+      <c r="L784" s="46"/>
     </row>
     <row r="785">
-      <c r="G785" s="46"/>
+      <c r="G785" s="47"/>
       <c r="H785" s="25"/>
-      <c r="K785" s="45"/>
-      <c r="L785" s="45"/>
+      <c r="K785" s="46"/>
+      <c r="L785" s="46"/>
     </row>
     <row r="786">
-      <c r="G786" s="46"/>
+      <c r="G786" s="47"/>
       <c r="H786" s="25"/>
-      <c r="K786" s="45"/>
-      <c r="L786" s="45"/>
+      <c r="K786" s="46"/>
+      <c r="L786" s="46"/>
     </row>
     <row r="787">
-      <c r="G787" s="46"/>
+      <c r="G787" s="47"/>
       <c r="H787" s="25"/>
-      <c r="K787" s="45"/>
-      <c r="L787" s="45"/>
+      <c r="K787" s="46"/>
+      <c r="L787" s="46"/>
     </row>
     <row r="788">
-      <c r="G788" s="46"/>
+      <c r="G788" s="47"/>
       <c r="H788" s="25"/>
-      <c r="K788" s="45"/>
-      <c r="L788" s="45"/>
+      <c r="K788" s="46"/>
+      <c r="L788" s="46"/>
     </row>
     <row r="789">
-      <c r="G789" s="46"/>
+      <c r="G789" s="47"/>
       <c r="H789" s="25"/>
-      <c r="K789" s="45"/>
-      <c r="L789" s="45"/>
+      <c r="K789" s="46"/>
+      <c r="L789" s="46"/>
     </row>
     <row r="790">
-      <c r="G790" s="46"/>
+      <c r="G790" s="47"/>
       <c r="H790" s="25"/>
-      <c r="K790" s="45"/>
-      <c r="L790" s="45"/>
+      <c r="K790" s="46"/>
+      <c r="L790" s="46"/>
     </row>
     <row r="791">
-      <c r="G791" s="46"/>
+      <c r="G791" s="47"/>
       <c r="H791" s="25"/>
-      <c r="K791" s="45"/>
-      <c r="L791" s="45"/>
+      <c r="K791" s="46"/>
+      <c r="L791" s="46"/>
     </row>
     <row r="792">
-      <c r="G792" s="46"/>
+      <c r="G792" s="47"/>
       <c r="H792" s="25"/>
-      <c r="K792" s="45"/>
-      <c r="L792" s="45"/>
+      <c r="K792" s="46"/>
+      <c r="L792" s="46"/>
     </row>
     <row r="793">
-      <c r="G793" s="46"/>
+      <c r="G793" s="47"/>
       <c r="H793" s="25"/>
-      <c r="K793" s="45"/>
-      <c r="L793" s="45"/>
+      <c r="K793" s="46"/>
+      <c r="L793" s="46"/>
     </row>
     <row r="794">
-      <c r="G794" s="46"/>
+      <c r="G794" s="47"/>
       <c r="H794" s="25"/>
-      <c r="K794" s="45"/>
-      <c r="L794" s="45"/>
+      <c r="K794" s="46"/>
+      <c r="L794" s="46"/>
     </row>
     <row r="795">
-      <c r="G795" s="46"/>
+      <c r="G795" s="47"/>
       <c r="H795" s="25"/>
-      <c r="K795" s="45"/>
-      <c r="L795" s="45"/>
+      <c r="K795" s="46"/>
+      <c r="L795" s="46"/>
     </row>
     <row r="796">
-      <c r="G796" s="46"/>
+      <c r="G796" s="47"/>
       <c r="H796" s="25"/>
-      <c r="K796" s="45"/>
-      <c r="L796" s="45"/>
+      <c r="K796" s="46"/>
+      <c r="L796" s="46"/>
     </row>
     <row r="797">
-      <c r="G797" s="46"/>
+      <c r="G797" s="47"/>
       <c r="H797" s="25"/>
-      <c r="K797" s="45"/>
-      <c r="L797" s="45"/>
+      <c r="K797" s="46"/>
+      <c r="L797" s="46"/>
     </row>
     <row r="798">
-      <c r="G798" s="46"/>
+      <c r="G798" s="47"/>
       <c r="H798" s="25"/>
-      <c r="K798" s="45"/>
-      <c r="L798" s="45"/>
+      <c r="K798" s="46"/>
+      <c r="L798" s="46"/>
     </row>
     <row r="799">
-      <c r="G799" s="46"/>
+      <c r="G799" s="47"/>
       <c r="H799" s="25"/>
-      <c r="K799" s="45"/>
-      <c r="L799" s="45"/>
+      <c r="K799" s="46"/>
+      <c r="L799" s="46"/>
     </row>
     <row r="800">
-      <c r="G800" s="46"/>
+      <c r="G800" s="47"/>
       <c r="H800" s="25"/>
-      <c r="K800" s="45"/>
-      <c r="L800" s="45"/>
+      <c r="K800" s="46"/>
+      <c r="L800" s="46"/>
     </row>
     <row r="801">
-      <c r="G801" s="46"/>
+      <c r="G801" s="47"/>
       <c r="H801" s="25"/>
-      <c r="K801" s="45"/>
-      <c r="L801" s="45"/>
+      <c r="K801" s="46"/>
+      <c r="L801" s="46"/>
     </row>
     <row r="802">
-      <c r="G802" s="46"/>
+      <c r="G802" s="47"/>
       <c r="H802" s="25"/>
-      <c r="K802" s="45"/>
-      <c r="L802" s="45"/>
+      <c r="K802" s="46"/>
+      <c r="L802" s="46"/>
     </row>
     <row r="803">
-      <c r="G803" s="46"/>
+      <c r="G803" s="47"/>
       <c r="H803" s="25"/>
-      <c r="K803" s="45"/>
-      <c r="L803" s="45"/>
+      <c r="K803" s="46"/>
+      <c r="L803" s="46"/>
     </row>
     <row r="804">
-      <c r="G804" s="46"/>
+      <c r="G804" s="47"/>
       <c r="H804" s="25"/>
-      <c r="K804" s="45"/>
-      <c r="L804" s="45"/>
+      <c r="K804" s="46"/>
+      <c r="L804" s="46"/>
     </row>
     <row r="805">
-      <c r="G805" s="46"/>
+      <c r="G805" s="47"/>
       <c r="H805" s="25"/>
-      <c r="K805" s="45"/>
-      <c r="L805" s="45"/>
+      <c r="K805" s="46"/>
+      <c r="L805" s="46"/>
     </row>
     <row r="806">
-      <c r="G806" s="46"/>
+      <c r="G806" s="47"/>
       <c r="H806" s="25"/>
-      <c r="K806" s="45"/>
-      <c r="L806" s="45"/>
+      <c r="K806" s="46"/>
+      <c r="L806" s="46"/>
     </row>
     <row r="807">
-      <c r="G807" s="46"/>
+      <c r="G807" s="47"/>
       <c r="H807" s="25"/>
-      <c r="K807" s="45"/>
-      <c r="L807" s="45"/>
+      <c r="K807" s="46"/>
+      <c r="L807" s="46"/>
     </row>
     <row r="808">
-      <c r="G808" s="46"/>
+      <c r="G808" s="47"/>
       <c r="H808" s="25"/>
-      <c r="K808" s="45"/>
-      <c r="L808" s="45"/>
+      <c r="K808" s="46"/>
+      <c r="L808" s="46"/>
     </row>
     <row r="809">
-      <c r="G809" s="46"/>
+      <c r="G809" s="47"/>
       <c r="H809" s="25"/>
-      <c r="K809" s="45"/>
-      <c r="L809" s="45"/>
+      <c r="K809" s="46"/>
+      <c r="L809" s="46"/>
     </row>
     <row r="810">
-      <c r="G810" s="46"/>
+      <c r="G810" s="47"/>
       <c r="H810" s="25"/>
-      <c r="K810" s="45"/>
-      <c r="L810" s="45"/>
+      <c r="K810" s="46"/>
+      <c r="L810" s="46"/>
     </row>
     <row r="811">
-      <c r="G811" s="46"/>
+      <c r="G811" s="47"/>
       <c r="H811" s="25"/>
-      <c r="K811" s="45"/>
-      <c r="L811" s="45"/>
+      <c r="K811" s="46"/>
+      <c r="L811" s="46"/>
     </row>
     <row r="812">
-      <c r="G812" s="46"/>
+      <c r="G812" s="47"/>
       <c r="H812" s="25"/>
-      <c r="K812" s="45"/>
-      <c r="L812" s="45"/>
+      <c r="K812" s="46"/>
+      <c r="L812" s="46"/>
     </row>
     <row r="813">
-      <c r="G813" s="46"/>
+      <c r="G813" s="47"/>
       <c r="H813" s="25"/>
-      <c r="K813" s="45"/>
-      <c r="L813" s="45"/>
+      <c r="K813" s="46"/>
+      <c r="L813" s="46"/>
     </row>
     <row r="814">
-      <c r="G814" s="46"/>
+      <c r="G814" s="47"/>
       <c r="H814" s="25"/>
-      <c r="K814" s="45"/>
-      <c r="L814" s="45"/>
+      <c r="K814" s="46"/>
+      <c r="L814" s="46"/>
     </row>
     <row r="815">
-      <c r="G815" s="46"/>
+      <c r="G815" s="47"/>
       <c r="H815" s="25"/>
-      <c r="K815" s="45"/>
-      <c r="L815" s="45"/>
+      <c r="K815" s="46"/>
+      <c r="L815" s="46"/>
     </row>
     <row r="816">
-      <c r="G816" s="46"/>
+      <c r="G816" s="47"/>
       <c r="H816" s="25"/>
-      <c r="K816" s="45"/>
-      <c r="L816" s="45"/>
+      <c r="K816" s="46"/>
+      <c r="L816" s="46"/>
     </row>
     <row r="817">
-      <c r="G817" s="46"/>
+      <c r="G817" s="47"/>
       <c r="H817" s="25"/>
-      <c r="K817" s="45"/>
-      <c r="L817" s="45"/>
+      <c r="K817" s="46"/>
+      <c r="L817" s="46"/>
     </row>
     <row r="818">
-      <c r="G818" s="46"/>
+      <c r="G818" s="47"/>
       <c r="H818" s="25"/>
-      <c r="K818" s="45"/>
-      <c r="L818" s="45"/>
+      <c r="K818" s="46"/>
+      <c r="L818" s="46"/>
     </row>
     <row r="819">
-      <c r="G819" s="46"/>
+      <c r="G819" s="47"/>
       <c r="H819" s="25"/>
-      <c r="K819" s="45"/>
-      <c r="L819" s="45"/>
+      <c r="K819" s="46"/>
+      <c r="L819" s="46"/>
     </row>
     <row r="820">
-      <c r="G820" s="46"/>
+      <c r="G820" s="47"/>
       <c r="H820" s="25"/>
-      <c r="K820" s="45"/>
-      <c r="L820" s="45"/>
+      <c r="K820" s="46"/>
+      <c r="L820" s="46"/>
     </row>
     <row r="821">
-      <c r="G821" s="46"/>
+      <c r="G821" s="47"/>
       <c r="H821" s="25"/>
-      <c r="K821" s="45"/>
-      <c r="L821" s="45"/>
+      <c r="K821" s="46"/>
+      <c r="L821" s="46"/>
     </row>
     <row r="822">
-      <c r="G822" s="46"/>
+      <c r="G822" s="47"/>
       <c r="H822" s="25"/>
-      <c r="K822" s="45"/>
-      <c r="L822" s="45"/>
+      <c r="K822" s="46"/>
+      <c r="L822" s="46"/>
     </row>
     <row r="823">
-      <c r="G823" s="46"/>
+      <c r="G823" s="47"/>
       <c r="H823" s="25"/>
-      <c r="K823" s="45"/>
-      <c r="L823" s="45"/>
+      <c r="K823" s="46"/>
+      <c r="L823" s="46"/>
     </row>
     <row r="824">
-      <c r="G824" s="46"/>
+      <c r="G824" s="47"/>
       <c r="H824" s="25"/>
-      <c r="K824" s="45"/>
-      <c r="L824" s="45"/>
+      <c r="K824" s="46"/>
+      <c r="L824" s="46"/>
     </row>
     <row r="825">
-      <c r="G825" s="46"/>
+      <c r="G825" s="47"/>
       <c r="H825" s="25"/>
-      <c r="K825" s="45"/>
-      <c r="L825" s="45"/>
+      <c r="K825" s="46"/>
+      <c r="L825" s="46"/>
     </row>
     <row r="826">
-      <c r="G826" s="46"/>
+      <c r="G826" s="47"/>
       <c r="H826" s="25"/>
-      <c r="K826" s="45"/>
-      <c r="L826" s="45"/>
+      <c r="K826" s="46"/>
+      <c r="L826" s="46"/>
     </row>
     <row r="827">
-      <c r="G827" s="46"/>
+      <c r="G827" s="47"/>
       <c r="H827" s="25"/>
-      <c r="K827" s="45"/>
-      <c r="L827" s="45"/>
+      <c r="K827" s="46"/>
+      <c r="L827" s="46"/>
     </row>
     <row r="828">
-      <c r="G828" s="46"/>
+      <c r="G828" s="47"/>
       <c r="H828" s="25"/>
-      <c r="K828" s="45"/>
-      <c r="L828" s="45"/>
+      <c r="K828" s="46"/>
+      <c r="L828" s="46"/>
     </row>
     <row r="829">
-      <c r="G829" s="46"/>
+      <c r="G829" s="47"/>
       <c r="H829" s="25"/>
-      <c r="K829" s="45"/>
-      <c r="L829" s="45"/>
+      <c r="K829" s="46"/>
+      <c r="L829" s="46"/>
     </row>
     <row r="830">
-      <c r="G830" s="46"/>
+      <c r="G830" s="47"/>
       <c r="H830" s="25"/>
-      <c r="K830" s="45"/>
-      <c r="L830" s="45"/>
+      <c r="K830" s="46"/>
+      <c r="L830" s="46"/>
     </row>
     <row r="831">
-      <c r="G831" s="46"/>
+      <c r="G831" s="47"/>
       <c r="H831" s="25"/>
-      <c r="K831" s="45"/>
-      <c r="L831" s="45"/>
+      <c r="K831" s="46"/>
+      <c r="L831" s="46"/>
     </row>
     <row r="832">
-      <c r="G832" s="46"/>
+      <c r="G832" s="47"/>
       <c r="H832" s="25"/>
-      <c r="K832" s="45"/>
-      <c r="L832" s="45"/>
+      <c r="K832" s="46"/>
+      <c r="L832" s="46"/>
     </row>
     <row r="833">
-      <c r="G833" s="46"/>
+      <c r="G833" s="47"/>
       <c r="H833" s="25"/>
-      <c r="K833" s="45"/>
-      <c r="L833" s="45"/>
+      <c r="K833" s="46"/>
+      <c r="L833" s="46"/>
     </row>
     <row r="834">
-      <c r="G834" s="46"/>
+      <c r="G834" s="47"/>
       <c r="H834" s="25"/>
-      <c r="K834" s="45"/>
-      <c r="L834" s="45"/>
+      <c r="K834" s="46"/>
+      <c r="L834" s="46"/>
     </row>
     <row r="835">
-      <c r="G835" s="46"/>
+      <c r="G835" s="47"/>
       <c r="H835" s="25"/>
-      <c r="K835" s="45"/>
-      <c r="L835" s="45"/>
+      <c r="K835" s="46"/>
+      <c r="L835" s="46"/>
     </row>
     <row r="836">
-      <c r="G836" s="46"/>
+      <c r="G836" s="47"/>
       <c r="H836" s="25"/>
-      <c r="K836" s="45"/>
-      <c r="L836" s="45"/>
+      <c r="K836" s="46"/>
+      <c r="L836" s="46"/>
     </row>
     <row r="837">
-      <c r="G837" s="46"/>
+      <c r="G837" s="47"/>
       <c r="H837" s="25"/>
-      <c r="K837" s="45"/>
-      <c r="L837" s="45"/>
+      <c r="K837" s="46"/>
+      <c r="L837" s="46"/>
     </row>
     <row r="838">
-      <c r="G838" s="46"/>
+      <c r="G838" s="47"/>
       <c r="H838" s="25"/>
-      <c r="K838" s="45"/>
-      <c r="L838" s="45"/>
+      <c r="K838" s="46"/>
+      <c r="L838" s="46"/>
     </row>
     <row r="839">
-      <c r="G839" s="46"/>
+      <c r="G839" s="47"/>
       <c r="H839" s="25"/>
-      <c r="K839" s="45"/>
-      <c r="L839" s="45"/>
+      <c r="K839" s="46"/>
+      <c r="L839" s="46"/>
     </row>
     <row r="840">
-      <c r="G840" s="46"/>
+      <c r="G840" s="47"/>
       <c r="H840" s="25"/>
-      <c r="K840" s="45"/>
-      <c r="L840" s="45"/>
+      <c r="K840" s="46"/>
+      <c r="L840" s="46"/>
     </row>
     <row r="841">
-      <c r="G841" s="46"/>
+      <c r="G841" s="47"/>
       <c r="H841" s="25"/>
-      <c r="K841" s="45"/>
-      <c r="L841" s="45"/>
+      <c r="K841" s="46"/>
+      <c r="L841" s="46"/>
     </row>
     <row r="842">
-      <c r="G842" s="46"/>
+      <c r="G842" s="47"/>
       <c r="H842" s="25"/>
-      <c r="K842" s="45"/>
-      <c r="L842" s="45"/>
+      <c r="K842" s="46"/>
+      <c r="L842" s="46"/>
     </row>
     <row r="843">
-      <c r="G843" s="46"/>
+      <c r="G843" s="47"/>
       <c r="H843" s="25"/>
-      <c r="K843" s="45"/>
-      <c r="L843" s="45"/>
+      <c r="K843" s="46"/>
+      <c r="L843" s="46"/>
     </row>
     <row r="844">
-      <c r="G844" s="46"/>
+      <c r="G844" s="47"/>
       <c r="H844" s="25"/>
-      <c r="K844" s="45"/>
-      <c r="L844" s="45"/>
+      <c r="K844" s="46"/>
+      <c r="L844" s="46"/>
     </row>
     <row r="845">
-      <c r="G845" s="46"/>
+      <c r="G845" s="47"/>
       <c r="H845" s="25"/>
-      <c r="K845" s="45"/>
-      <c r="L845" s="45"/>
+      <c r="K845" s="46"/>
+      <c r="L845" s="46"/>
     </row>
     <row r="846">
-      <c r="G846" s="46"/>
+      <c r="G846" s="47"/>
       <c r="H846" s="25"/>
-      <c r="K846" s="45"/>
-      <c r="L846" s="45"/>
+      <c r="K846" s="46"/>
+      <c r="L846" s="46"/>
     </row>
     <row r="847">
-      <c r="G847" s="46"/>
+      <c r="G847" s="47"/>
       <c r="H847" s="25"/>
-      <c r="K847" s="45"/>
-      <c r="L847" s="45"/>
+      <c r="K847" s="46"/>
+      <c r="L847" s="46"/>
     </row>
     <row r="848">
-      <c r="G848" s="46"/>
+      <c r="G848" s="47"/>
       <c r="H848" s="25"/>
-      <c r="K848" s="45"/>
-      <c r="L848" s="45"/>
+      <c r="K848" s="46"/>
+      <c r="L848" s="46"/>
     </row>
     <row r="849">
-      <c r="G849" s="46"/>
+      <c r="G849" s="47"/>
       <c r="H849" s="25"/>
-      <c r="K849" s="45"/>
-      <c r="L849" s="45"/>
+      <c r="K849" s="46"/>
+      <c r="L849" s="46"/>
     </row>
     <row r="850">
-      <c r="G850" s="46"/>
+      <c r="G850" s="47"/>
       <c r="H850" s="25"/>
-      <c r="K850" s="45"/>
-      <c r="L850" s="45"/>
+      <c r="K850" s="46"/>
+      <c r="L850" s="46"/>
     </row>
     <row r="851">
-      <c r="G851" s="46"/>
+      <c r="G851" s="47"/>
       <c r="H851" s="25"/>
-      <c r="K851" s="45"/>
-      <c r="L851" s="45"/>
+      <c r="K851" s="46"/>
+      <c r="L851" s="46"/>
     </row>
     <row r="852">
-      <c r="G852" s="46"/>
+      <c r="G852" s="47"/>
       <c r="H852" s="25"/>
-      <c r="K852" s="45"/>
-      <c r="L852" s="45"/>
+      <c r="K852" s="46"/>
+      <c r="L852" s="46"/>
     </row>
     <row r="853">
-      <c r="G853" s="46"/>
+      <c r="G853" s="47"/>
       <c r="H853" s="25"/>
-      <c r="K853" s="45"/>
-      <c r="L853" s="45"/>
+      <c r="K853" s="46"/>
+      <c r="L853" s="46"/>
     </row>
     <row r="854">
-      <c r="G854" s="46"/>
+      <c r="G854" s="47"/>
       <c r="H854" s="25"/>
-      <c r="K854" s="45"/>
-      <c r="L854" s="45"/>
+      <c r="K854" s="46"/>
+      <c r="L854" s="46"/>
     </row>
     <row r="855">
-      <c r="G855" s="46"/>
+      <c r="G855" s="47"/>
       <c r="H855" s="25"/>
-      <c r="K855" s="45"/>
-      <c r="L855" s="45"/>
+      <c r="K855" s="46"/>
+      <c r="L855" s="46"/>
     </row>
     <row r="856">
-      <c r="G856" s="46"/>
+      <c r="G856" s="47"/>
       <c r="H856" s="25"/>
-      <c r="K856" s="45"/>
-      <c r="L856" s="45"/>
+      <c r="K856" s="46"/>
+      <c r="L856" s="46"/>
     </row>
     <row r="857">
-      <c r="G857" s="46"/>
+      <c r="G857" s="47"/>
       <c r="H857" s="25"/>
-      <c r="K857" s="45"/>
-      <c r="L857" s="45"/>
+      <c r="K857" s="46"/>
+      <c r="L857" s="46"/>
     </row>
     <row r="858">
-      <c r="G858" s="46"/>
+      <c r="G858" s="47"/>
       <c r="H858" s="25"/>
-      <c r="K858" s="45"/>
-      <c r="L858" s="45"/>
+      <c r="K858" s="46"/>
+      <c r="L858" s="46"/>
     </row>
     <row r="859">
-      <c r="G859" s="46"/>
+      <c r="G859" s="47"/>
       <c r="H859" s="25"/>
-      <c r="K859" s="45"/>
-      <c r="L859" s="45"/>
+      <c r="K859" s="46"/>
+      <c r="L859" s="46"/>
     </row>
     <row r="860">
-      <c r="G860" s="46"/>
+      <c r="G860" s="47"/>
       <c r="H860" s="25"/>
-      <c r="K860" s="45"/>
-      <c r="L860" s="45"/>
+      <c r="K860" s="46"/>
+      <c r="L860" s="46"/>
     </row>
     <row r="861">
-      <c r="G861" s="46"/>
+      <c r="G861" s="47"/>
       <c r="H861" s="25"/>
-      <c r="K861" s="45"/>
-      <c r="L861" s="45"/>
+      <c r="K861" s="46"/>
+      <c r="L861" s="46"/>
     </row>
     <row r="862">
-      <c r="G862" s="46"/>
+      <c r="G862" s="47"/>
       <c r="H862" s="25"/>
-      <c r="K862" s="45"/>
-      <c r="L862" s="45"/>
+      <c r="K862" s="46"/>
+      <c r="L862" s="46"/>
     </row>
     <row r="863">
-      <c r="G863" s="46"/>
+      <c r="G863" s="47"/>
       <c r="H863" s="25"/>
-      <c r="K863" s="45"/>
-      <c r="L863" s="45"/>
+      <c r="K863" s="46"/>
+      <c r="L863" s="46"/>
     </row>
     <row r="864">
-      <c r="G864" s="46"/>
+      <c r="G864" s="47"/>
       <c r="H864" s="25"/>
-      <c r="K864" s="45"/>
-      <c r="L864" s="45"/>
+      <c r="K864" s="46"/>
+      <c r="L864" s="46"/>
     </row>
     <row r="865">
-      <c r="G865" s="46"/>
+      <c r="G865" s="47"/>
       <c r="H865" s="25"/>
-      <c r="K865" s="45"/>
-      <c r="L865" s="45"/>
+      <c r="K865" s="46"/>
+      <c r="L865" s="46"/>
     </row>
     <row r="866">
-      <c r="G866" s="46"/>
+      <c r="G866" s="47"/>
       <c r="H866" s="25"/>
-      <c r="K866" s="45"/>
-      <c r="L866" s="45"/>
+      <c r="K866" s="46"/>
+      <c r="L866" s="46"/>
     </row>
     <row r="867">
-      <c r="G867" s="46"/>
+      <c r="G867" s="47"/>
       <c r="H867" s="25"/>
-      <c r="K867" s="45"/>
-      <c r="L867" s="45"/>
+      <c r="K867" s="46"/>
+      <c r="L867" s="46"/>
     </row>
     <row r="868">
-      <c r="G868" s="46"/>
+      <c r="G868" s="47"/>
       <c r="H868" s="25"/>
-      <c r="K868" s="45"/>
-      <c r="L868" s="45"/>
+      <c r="K868" s="46"/>
+      <c r="L868" s="46"/>
     </row>
     <row r="869">
-      <c r="G869" s="46"/>
+      <c r="G869" s="47"/>
       <c r="H869" s="25"/>
-      <c r="K869" s="45"/>
-      <c r="L869" s="45"/>
+      <c r="K869" s="46"/>
+      <c r="L869" s="46"/>
     </row>
     <row r="870">
-      <c r="G870" s="46"/>
+      <c r="G870" s="47"/>
       <c r="H870" s="25"/>
-      <c r="K870" s="45"/>
-      <c r="L870" s="45"/>
+      <c r="K870" s="46"/>
+      <c r="L870" s="46"/>
     </row>
     <row r="871">
-      <c r="G871" s="46"/>
+      <c r="G871" s="47"/>
       <c r="H871" s="25"/>
-      <c r="K871" s="45"/>
-      <c r="L871" s="45"/>
+      <c r="K871" s="46"/>
+      <c r="L871" s="46"/>
     </row>
     <row r="872">
-      <c r="G872" s="46"/>
+      <c r="G872" s="47"/>
       <c r="H872" s="25"/>
-      <c r="K872" s="45"/>
-      <c r="L872" s="45"/>
+      <c r="K872" s="46"/>
+      <c r="L872" s="46"/>
     </row>
     <row r="873">
-      <c r="G873" s="46"/>
+      <c r="G873" s="47"/>
       <c r="H873" s="25"/>
-      <c r="K873" s="45"/>
-      <c r="L873" s="45"/>
+      <c r="K873" s="46"/>
+      <c r="L873" s="46"/>
     </row>
     <row r="874">
-      <c r="G874" s="46"/>
+      <c r="G874" s="47"/>
       <c r="H874" s="25"/>
-      <c r="K874" s="45"/>
-      <c r="L874" s="45"/>
+      <c r="K874" s="46"/>
+      <c r="L874" s="46"/>
     </row>
     <row r="875">
-      <c r="G875" s="46"/>
+      <c r="G875" s="47"/>
       <c r="H875" s="25"/>
-      <c r="K875" s="45"/>
-      <c r="L875" s="45"/>
+      <c r="K875" s="46"/>
+      <c r="L875" s="46"/>
     </row>
     <row r="876">
-      <c r="G876" s="46"/>
+      <c r="G876" s="47"/>
       <c r="H876" s="25"/>
-      <c r="K876" s="45"/>
-      <c r="L876" s="45"/>
+      <c r="K876" s="46"/>
+      <c r="L876" s="46"/>
     </row>
     <row r="877">
-      <c r="G877" s="46"/>
+      <c r="G877" s="47"/>
       <c r="H877" s="25"/>
-      <c r="K877" s="45"/>
-      <c r="L877" s="45"/>
+      <c r="K877" s="46"/>
+      <c r="L877" s="46"/>
     </row>
     <row r="878">
-      <c r="G878" s="46"/>
+      <c r="G878" s="47"/>
       <c r="H878" s="25"/>
-      <c r="K878" s="45"/>
-      <c r="L878" s="45"/>
+      <c r="K878" s="46"/>
+      <c r="L878" s="46"/>
     </row>
     <row r="879">
-      <c r="G879" s="46"/>
+      <c r="G879" s="47"/>
       <c r="H879" s="25"/>
-      <c r="K879" s="45"/>
-      <c r="L879" s="45"/>
+      <c r="K879" s="46"/>
+      <c r="L879" s="46"/>
     </row>
     <row r="880">
-      <c r="G880" s="46"/>
+      <c r="G880" s="47"/>
       <c r="H880" s="25"/>
-      <c r="K880" s="45"/>
-      <c r="L880" s="45"/>
+      <c r="K880" s="46"/>
+      <c r="L880" s="46"/>
     </row>
     <row r="881">
-      <c r="G881" s="46"/>
+      <c r="G881" s="47"/>
       <c r="H881" s="25"/>
-      <c r="K881" s="45"/>
-      <c r="L881" s="45"/>
+      <c r="K881" s="46"/>
+      <c r="L881" s="46"/>
     </row>
     <row r="882">
-      <c r="G882" s="46"/>
+      <c r="G882" s="47"/>
       <c r="H882" s="25"/>
-      <c r="K882" s="45"/>
-      <c r="L882" s="45"/>
+      <c r="K882" s="46"/>
+      <c r="L882" s="46"/>
     </row>
     <row r="883">
-      <c r="G883" s="46"/>
+      <c r="G883" s="47"/>
       <c r="H883" s="25"/>
-      <c r="K883" s="45"/>
-      <c r="L883" s="45"/>
+      <c r="K883" s="46"/>
+      <c r="L883" s="46"/>
     </row>
     <row r="884">
-      <c r="G884" s="46"/>
+      <c r="G884" s="47"/>
       <c r="H884" s="25"/>
-      <c r="K884" s="45"/>
-      <c r="L884" s="45"/>
+      <c r="K884" s="46"/>
+      <c r="L884" s="46"/>
     </row>
     <row r="885">
-      <c r="G885" s="46"/>
+      <c r="G885" s="47"/>
       <c r="H885" s="25"/>
-      <c r="K885" s="45"/>
-      <c r="L885" s="45"/>
+      <c r="K885" s="46"/>
+      <c r="L885" s="46"/>
     </row>
     <row r="886">
-      <c r="G886" s="46"/>
+      <c r="G886" s="47"/>
       <c r="H886" s="25"/>
-      <c r="K886" s="45"/>
-      <c r="L886" s="45"/>
+      <c r="K886" s="46"/>
+      <c r="L886" s="46"/>
     </row>
     <row r="887">
-      <c r="G887" s="46"/>
+      <c r="G887" s="47"/>
       <c r="H887" s="25"/>
-      <c r="K887" s="45"/>
-      <c r="L887" s="45"/>
+      <c r="K887" s="46"/>
+      <c r="L887" s="46"/>
     </row>
     <row r="888">
-      <c r="G888" s="46"/>
+      <c r="G888" s="47"/>
       <c r="H888" s="25"/>
-      <c r="K888" s="45"/>
-      <c r="L888" s="45"/>
+      <c r="K888" s="46"/>
+      <c r="L888" s="46"/>
     </row>
     <row r="889">
-      <c r="G889" s="46"/>
+      <c r="G889" s="47"/>
       <c r="H889" s="25"/>
-      <c r="K889" s="45"/>
-      <c r="L889" s="45"/>
+      <c r="K889" s="46"/>
+      <c r="L889" s="46"/>
     </row>
     <row r="890">
-      <c r="G890" s="46"/>
+      <c r="G890" s="47"/>
       <c r="H890" s="25"/>
-      <c r="K890" s="45"/>
-      <c r="L890" s="45"/>
+      <c r="K890" s="46"/>
+      <c r="L890" s="46"/>
     </row>
     <row r="891">
-      <c r="G891" s="46"/>
+      <c r="G891" s="47"/>
       <c r="H891" s="25"/>
-      <c r="K891" s="45"/>
-      <c r="L891" s="45"/>
+      <c r="K891" s="46"/>
+      <c r="L891" s="46"/>
     </row>
     <row r="892">
-      <c r="G892" s="46"/>
+      <c r="G892" s="47"/>
       <c r="H892" s="25"/>
-      <c r="K892" s="45"/>
-      <c r="L892" s="45"/>
+      <c r="K892" s="46"/>
+      <c r="L892" s="46"/>
     </row>
     <row r="893">
-      <c r="G893" s="46"/>
+      <c r="G893" s="47"/>
       <c r="H893" s="25"/>
-      <c r="K893" s="45"/>
-      <c r="L893" s="45"/>
+      <c r="K893" s="46"/>
+      <c r="L893" s="46"/>
     </row>
     <row r="894">
-      <c r="G894" s="46"/>
+      <c r="G894" s="47"/>
       <c r="H894" s="25"/>
-      <c r="K894" s="45"/>
-      <c r="L894" s="45"/>
+      <c r="K894" s="46"/>
+      <c r="L894" s="46"/>
     </row>
     <row r="895">
-      <c r="G895" s="46"/>
+      <c r="G895" s="47"/>
       <c r="H895" s="25"/>
-      <c r="K895" s="45"/>
-      <c r="L895" s="45"/>
+      <c r="K895" s="46"/>
+      <c r="L895" s="46"/>
     </row>
     <row r="896">
-      <c r="G896" s="46"/>
+      <c r="G896" s="47"/>
       <c r="H896" s="25"/>
-      <c r="K896" s="45"/>
-      <c r="L896" s="45"/>
+      <c r="K896" s="46"/>
+      <c r="L896" s="46"/>
     </row>
     <row r="897">
-      <c r="G897" s="46"/>
+      <c r="G897" s="47"/>
       <c r="H897" s="25"/>
-      <c r="K897" s="45"/>
-      <c r="L897" s="45"/>
+      <c r="K897" s="46"/>
+      <c r="L897" s="46"/>
     </row>
     <row r="898">
-      <c r="G898" s="46"/>
+      <c r="G898" s="47"/>
       <c r="H898" s="25"/>
-      <c r="K898" s="45"/>
-      <c r="L898" s="45"/>
+      <c r="K898" s="46"/>
+      <c r="L898" s="46"/>
     </row>
     <row r="899">
-      <c r="G899" s="46"/>
+      <c r="G899" s="47"/>
       <c r="H899" s="25"/>
-      <c r="K899" s="45"/>
-      <c r="L899" s="45"/>
+      <c r="K899" s="46"/>
+      <c r="L899" s="46"/>
     </row>
     <row r="900">
-      <c r="G900" s="46"/>
+      <c r="G900" s="47"/>
       <c r="H900" s="25"/>
-      <c r="K900" s="45"/>
-      <c r="L900" s="45"/>
+      <c r="K900" s="46"/>
+      <c r="L900" s="46"/>
     </row>
     <row r="901">
-      <c r="G901" s="46"/>
+      <c r="G901" s="47"/>
       <c r="H901" s="25"/>
-      <c r="K901" s="45"/>
-      <c r="L901" s="45"/>
+      <c r="K901" s="46"/>
+      <c r="L901" s="46"/>
     </row>
     <row r="902">
-      <c r="G902" s="46"/>
+      <c r="G902" s="47"/>
       <c r="H902" s="25"/>
-      <c r="K902" s="45"/>
-      <c r="L902" s="45"/>
+      <c r="K902" s="46"/>
+      <c r="L902" s="46"/>
     </row>
     <row r="903">
-      <c r="G903" s="46"/>
+      <c r="G903" s="47"/>
       <c r="H903" s="25"/>
-      <c r="K903" s="45"/>
-      <c r="L903" s="45"/>
+      <c r="K903" s="46"/>
+      <c r="L903" s="46"/>
     </row>
     <row r="904">
-      <c r="G904" s="46"/>
+      <c r="G904" s="47"/>
       <c r="H904" s="25"/>
-      <c r="K904" s="45"/>
-      <c r="L904" s="45"/>
+      <c r="K904" s="46"/>
+      <c r="L904" s="46"/>
     </row>
     <row r="905">
-      <c r="G905" s="46"/>
+      <c r="G905" s="47"/>
       <c r="H905" s="25"/>
-      <c r="K905" s="45"/>
-      <c r="L905" s="45"/>
+      <c r="K905" s="46"/>
+      <c r="L905" s="46"/>
     </row>
     <row r="906">
-      <c r="G906" s="46"/>
+      <c r="G906" s="47"/>
       <c r="H906" s="25"/>
-      <c r="K906" s="45"/>
-      <c r="L906" s="45"/>
+      <c r="K906" s="46"/>
+      <c r="L906" s="46"/>
     </row>
     <row r="907">
-      <c r="G907" s="46"/>
+      <c r="G907" s="47"/>
       <c r="H907" s="25"/>
-      <c r="K907" s="45"/>
-      <c r="L907" s="45"/>
+      <c r="K907" s="46"/>
+      <c r="L907" s="46"/>
     </row>
     <row r="908">
-      <c r="G908" s="46"/>
+      <c r="G908" s="47"/>
       <c r="H908" s="25"/>
-      <c r="K908" s="45"/>
-      <c r="L908" s="45"/>
+      <c r="K908" s="46"/>
+      <c r="L908" s="46"/>
     </row>
     <row r="909">
-      <c r="G909" s="46"/>
+      <c r="G909" s="47"/>
       <c r="H909" s="25"/>
-      <c r="K909" s="45"/>
-      <c r="L909" s="45"/>
+      <c r="K909" s="46"/>
+      <c r="L909" s="46"/>
     </row>
     <row r="910">
-      <c r="G910" s="46"/>
+      <c r="G910" s="47"/>
       <c r="H910" s="25"/>
-      <c r="K910" s="45"/>
-      <c r="L910" s="45"/>
+      <c r="K910" s="46"/>
+      <c r="L910" s="46"/>
     </row>
     <row r="911">
-      <c r="G911" s="46"/>
+      <c r="G911" s="47"/>
       <c r="H911" s="25"/>
-      <c r="K911" s="45"/>
-      <c r="L911" s="45"/>
+      <c r="K911" s="46"/>
+      <c r="L911" s="46"/>
     </row>
     <row r="912">
-      <c r="G912" s="46"/>
+      <c r="G912" s="47"/>
       <c r="H912" s="25"/>
-      <c r="K912" s="45"/>
-      <c r="L912" s="45"/>
+      <c r="K912" s="46"/>
+      <c r="L912" s="46"/>
     </row>
     <row r="913">
-      <c r="G913" s="46"/>
+      <c r="G913" s="47"/>
       <c r="H913" s="25"/>
-      <c r="K913" s="45"/>
-      <c r="L913" s="45"/>
+      <c r="K913" s="46"/>
+      <c r="L913" s="46"/>
     </row>
     <row r="914">
-      <c r="G914" s="46"/>
+      <c r="G914" s="47"/>
       <c r="H914" s="25"/>
-      <c r="K914" s="45"/>
-      <c r="L914" s="45"/>
+      <c r="K914" s="46"/>
+      <c r="L914" s="46"/>
     </row>
     <row r="915">
-      <c r="G915" s="46"/>
+      <c r="G915" s="47"/>
       <c r="H915" s="25"/>
-      <c r="K915" s="45"/>
-      <c r="L915" s="45"/>
+      <c r="K915" s="46"/>
+      <c r="L915" s="46"/>
     </row>
     <row r="916">
-      <c r="G916" s="46"/>
+      <c r="G916" s="47"/>
       <c r="H916" s="25"/>
-      <c r="K916" s="45"/>
-      <c r="L916" s="45"/>
+      <c r="K916" s="46"/>
+      <c r="L916" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$O$81">
@@ -10295,16 +10298,16 @@
       <c r="I2" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="45" t="s">
         <v>304</v>
       </c>
       <c r="P2" s="7"/>
@@ -10349,7 +10352,7 @@
       <c r="M3" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="48" t="s">
         <v>319</v>
       </c>
     </row>
@@ -13401,155 +13404,155 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30">
+      <c r="A2" s="31">
         <v>102.0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="38" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="30">
+      <c r="A3" s="31">
         <v>132.0</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52">
+      <c r="A4" s="53">
         <v>15.0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="56" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30">
+      <c r="A5" s="31">
         <v>30.0</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30">
+      <c r="A6" s="31">
         <v>48.0</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="34" t="s">
         <v>336</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -13557,106 +13560,106 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30">
+      <c r="A7" s="31">
         <v>84.0</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="58" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30">
+      <c r="A8" s="31">
         <v>114.0</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="38" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30">
+      <c r="A9" s="31">
         <v>149.0</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="56" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30">
+      <c r="A10" s="31">
         <v>21.0</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="38" t="s">
         <v>302</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -487,9 +487,6 @@
     <t>https://artest.rest/</t>
   </si>
   <si>
-    <t>Левитан Дмитрий Анатольевич</t>
-  </si>
-  <si>
     <t>Pro Хинкали Черемушки</t>
   </si>
   <si>
@@ -896,6 +893,9 @@
   </si>
   <si>
     <t>https://zodiacmoscow.ru/#cont</t>
+  </si>
+  <si>
+    <t>Левитан Дмитрий Анатольевич</t>
   </si>
   <si>
     <t xml:space="preserve">Условия доставки: 
@@ -3209,14 +3209,14 @@
         <v>155</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>134</v>
       </c>
       <c r="N34" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
-        <v>Левитан Дмитрий Анатольевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Шиверских Виктор Станиславович")</f>
+        <v>Шиверских Виктор Станиславович</v>
       </c>
       <c r="O34" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3231,10 +3231,10 @@
         <v>99</v>
       </c>
       <c r="C35" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>157</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>158</v>
       </c>
       <c r="E35" s="28" t="s">
         <v>16</v>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="H35" s="11"/>
       <c r="J35" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>85</v>
@@ -3274,10 +3274,10 @@
         <v>99</v>
       </c>
       <c r="C36" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>161</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>16</v>
@@ -3294,7 +3294,7 @@
         <v>17</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>81</v>
@@ -3319,10 +3319,10 @@
         <v>99</v>
       </c>
       <c r="C37" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>163</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>164</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>16</v>
@@ -3339,10 +3339,10 @@
         <v>17</v>
       </c>
       <c r="J37" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="K37" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="M37" s="10" t="s">
         <v>134</v>
@@ -3364,7 +3364,7 @@
         <v>99</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>136</v>
@@ -3382,13 +3382,13 @@
       </c>
       <c r="H38" s="25"/>
       <c r="J38" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>90</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>134</v>
@@ -3410,10 +3410,10 @@
         <v>99</v>
       </c>
       <c r="C39" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>171</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>16</v>
@@ -3430,10 +3430,10 @@
         <v>17</v>
       </c>
       <c r="J39" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="M39" s="10" t="s">
         <v>134</v>
@@ -3455,10 +3455,10 @@
         <v>99</v>
       </c>
       <c r="C40" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>175</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>16</v>
@@ -3473,10 +3473,10 @@
       </c>
       <c r="H40" s="25"/>
       <c r="J40" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="K40" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>134</v>
@@ -3498,10 +3498,10 @@
         <v>99</v>
       </c>
       <c r="C41" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="28" t="s">
         <v>178</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>179</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>16</v>
@@ -3518,7 +3518,7 @@
         <v>17</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K41" s="13" t="s">
         <v>98</v>
@@ -3543,13 +3543,13 @@
         <v>99</v>
       </c>
       <c r="C42" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="E42" s="28" t="s">
         <v>182</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>183</v>
       </c>
       <c r="F42" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3580,13 +3580,13 @@
         <v>99</v>
       </c>
       <c r="C43" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="D43" s="28" t="s">
-        <v>185</v>
-      </c>
       <c r="E43" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F43" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="H43" s="25"/>
       <c r="K43" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N43" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -3617,13 +3617,13 @@
         <v>99</v>
       </c>
       <c r="C44" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>188</v>
-      </c>
       <c r="E44" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F44" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A44,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3654,13 +3654,13 @@
         <v>99</v>
       </c>
       <c r="C45" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="E45" s="28" t="s">
         <v>190</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>191</v>
       </c>
       <c r="F45" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="H45" s="25"/>
       <c r="K45" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N45" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Екатеринина Евгения Игоревна")</f>
@@ -3691,13 +3691,13 @@
         <v>99</v>
       </c>
       <c r="C46" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="E46" s="28" t="s">
         <v>194</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>195</v>
       </c>
       <c r="F46" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="H46" s="25"/>
       <c r="K46" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N46" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Михайлова Елена Викторовна")</f>
@@ -3728,13 +3728,13 @@
         <v>99</v>
       </c>
       <c r="C47" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="E47" s="28" t="s">
         <v>198</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>199</v>
       </c>
       <c r="F47" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="H47" s="25"/>
       <c r="K47" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N47" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Горностаева Виктория Игоревна")</f>
@@ -3768,10 +3768,10 @@
         <v>100</v>
       </c>
       <c r="D48" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="28" t="s">
         <v>201</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>202</v>
       </c>
       <c r="F48" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A48,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="H48" s="25"/>
       <c r="K48" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N48" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A48,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Малафеева Ирина Константиновна")</f>
@@ -3802,10 +3802,10 @@
         <v>99</v>
       </c>
       <c r="C49" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="28" t="s">
         <v>204</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>205</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>35</v>
@@ -3839,13 +3839,13 @@
         <v>99</v>
       </c>
       <c r="C50" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="E50" s="28" t="s">
         <v>207</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>208</v>
       </c>
       <c r="F50" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="H50" s="25"/>
       <c r="K50" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N50" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C50,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -3876,13 +3876,13 @@
         <v>99</v>
       </c>
       <c r="C51" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="E51" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>212</v>
       </c>
       <c r="F51" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="H51" s="25"/>
       <c r="K51" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N51" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Аборина Елена Сергеевна")</f>
@@ -3913,13 +3913,13 @@
         <v>99</v>
       </c>
       <c r="C52" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="E52" s="28" t="s">
         <v>215</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>216</v>
       </c>
       <c r="F52" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="H52" s="25"/>
       <c r="K52" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N52" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фаткуллина Дина Ирековна")</f>
@@ -3950,13 +3950,13 @@
         <v>99</v>
       </c>
       <c r="C53" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="E53" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="F53" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="H53" s="25"/>
       <c r="K53" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N53" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -3987,13 +3987,13 @@
         <v>99</v>
       </c>
       <c r="C54" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="E54" s="32" t="s">
         <v>223</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>224</v>
       </c>
       <c r="F54" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),4,0),"""")"),"Оффлайн")</f>
@@ -4007,7 +4007,7 @@
       <c r="I54" s="34"/>
       <c r="J54" s="34"/>
       <c r="K54" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L54" s="34"/>
       <c r="N54" s="13" t="str">
@@ -4024,13 +4024,13 @@
         <v>2.0</v>
       </c>
       <c r="B55" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="D55" s="35" t="s">
         <v>226</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>227</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>16</v>
@@ -4045,13 +4045,13 @@
       </c>
       <c r="H55" s="25"/>
       <c r="J55" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="L55" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="L55" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="M55" s="10" t="s">
         <v>21</v>
@@ -4070,13 +4070,13 @@
         <v>31.0</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C56" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" s="35" t="s">
         <v>230</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>231</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>16</v>
@@ -4093,7 +4093,7 @@
         <v>17</v>
       </c>
       <c r="J56" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>142</v>
@@ -4115,13 +4115,13 @@
         <v>106.0</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C57" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" s="35" t="s">
         <v>233</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>234</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>16</v>
@@ -4138,13 +4138,13 @@
         <v>17</v>
       </c>
       <c r="J57" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K57" s="13" t="s">
         <v>98</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M57" s="36"/>
       <c r="N57" s="13" t="str">
@@ -4161,13 +4161,13 @@
         <v>118.0</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C58" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" s="35" t="s">
         <v>237</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>238</v>
       </c>
       <c r="E58" s="35" t="s">
         <v>16</v>
@@ -4184,7 +4184,7 @@
         <v>17</v>
       </c>
       <c r="J58" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>85</v>
@@ -4206,13 +4206,13 @@
         <v>121.0</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C59" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" s="35" t="s">
         <v>240</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>241</v>
       </c>
       <c r="E59" s="35" t="s">
         <v>16</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="H59" s="25"/>
       <c r="J59" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K59" s="13" t="s">
         <v>90</v>
@@ -4247,16 +4247,16 @@
         <v>122.0</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C60" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="D60" s="35" t="s">
-        <v>244</v>
-      </c>
       <c r="E60" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F60" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="H60" s="25"/>
       <c r="K60" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N60" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казакова Ксения Юрьевна")</f>
@@ -4284,16 +4284,16 @@
         <v>125.0</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C61" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="D61" s="35" t="s">
-        <v>247</v>
-      </c>
       <c r="E61" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F61" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A61,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="H61" s="25"/>
       <c r="K61" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N61" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C61,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Язькова Александра Витальевна")</f>
@@ -4321,16 +4321,16 @@
         <v>39.0</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C62" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="E62" s="35" t="s">
         <v>250</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>251</v>
       </c>
       <c r="F62" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="H62" s="25"/>
       <c r="K62" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N62" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C62,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Исаченко Мария Александровна")</f>
@@ -4358,13 +4358,13 @@
         <v>91.0</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C63" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="35" t="s">
         <v>253</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>254</v>
       </c>
       <c r="E63" s="35" t="s">
         <v>35</v>
@@ -4395,16 +4395,16 @@
         <v>43.0</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C64" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="D64" s="35" t="s">
-        <v>256</v>
-      </c>
       <c r="E64" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F64" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="H64" s="25"/>
       <c r="K64" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N64" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C64,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4432,16 +4432,16 @@
         <v>151.0</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C65" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="D65" s="35" t="s">
-        <v>259</v>
-      </c>
       <c r="E65" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F65" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="H65" s="25"/>
       <c r="K65" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N65" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4469,16 +4469,16 @@
         <v>54.0</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C66" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="E66" s="35" t="s">
         <v>261</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>262</v>
       </c>
       <c r="F66" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="H66" s="25"/>
       <c r="K66" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N66" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Болотникова Анастасия Михайловна")</f>
@@ -4506,16 +4506,16 @@
         <v>108.0</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C67" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="D67" s="37" t="s">
-        <v>265</v>
-      </c>
       <c r="E67" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F67" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C67,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4546,16 +4546,16 @@
         <v>142.0</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C68" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="D68" s="37" t="s">
+      <c r="E68" s="37" t="s">
         <v>267</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>268</v>
       </c>
       <c r="F68" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Оффлайн")</f>
@@ -4568,10 +4568,10 @@
       <c r="H68" s="34"/>
       <c r="I68" s="34"/>
       <c r="J68" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K68" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L68" s="34"/>
       <c r="N68" s="13" t="str">
@@ -4588,13 +4588,13 @@
         <v>102.0</v>
       </c>
       <c r="B69" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C69" s="40" t="s">
+      <c r="D69" s="40" t="s">
         <v>271</v>
-      </c>
-      <c r="D69" s="40" t="s">
-        <v>272</v>
       </c>
       <c r="E69" s="40" t="s">
         <v>109</v>
@@ -4609,13 +4609,13 @@
       </c>
       <c r="H69" s="25"/>
       <c r="J69" s="38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>110</v>
       </c>
       <c r="L69" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N69" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C69,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Фишкин Сергей Анатольевич")</f>
@@ -4631,16 +4631,16 @@
         <v>19.0</v>
       </c>
       <c r="B70" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C70" s="40" t="s">
-        <v>271</v>
-      </c>
       <c r="D70" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" s="40" t="s">
         <v>275</v>
-      </c>
-      <c r="E70" s="40" t="s">
-        <v>276</v>
       </c>
       <c r="F70" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="H70" s="25"/>
       <c r="K70" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N70" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Хакимзянова Диана Фаридовна")</f>
@@ -4668,16 +4668,16 @@
         <v>83.0</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C71" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="D71" s="40" t="s">
+      <c r="E71" s="40" t="s">
         <v>279</v>
-      </c>
-      <c r="E71" s="40" t="s">
-        <v>280</v>
       </c>
       <c r="F71" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4689,10 +4689,10 @@
       </c>
       <c r="H71" s="25"/>
       <c r="K71" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N71" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4708,13 +4708,13 @@
         <v>56.0</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C72" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D72" s="40" t="s">
         <v>282</v>
-      </c>
-      <c r="D72" s="40" t="s">
-        <v>283</v>
       </c>
       <c r="E72" s="40" t="s">
         <v>16</v>
@@ -4729,13 +4729,13 @@
       </c>
       <c r="H72" s="25"/>
       <c r="J72" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K72" s="13" t="s">
         <v>90</v>
       </c>
       <c r="L72" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M72" s="10" t="s">
         <v>21</v>
@@ -4754,13 +4754,13 @@
         <v>61.0</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C73" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="40" t="s">
         <v>286</v>
-      </c>
-      <c r="D73" s="40" t="s">
-        <v>287</v>
       </c>
       <c r="E73" s="40" t="s">
         <v>16</v>
@@ -4778,10 +4778,10 @@
       </c>
       <c r="I73" s="14"/>
       <c r="J73" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="K73" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="L73" s="14" t="s">
         <v>289</v>
@@ -4803,7 +4803,7 @@
         <v>79.0</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C74" s="40" t="s">
         <v>290</v>
@@ -4830,7 +4830,7 @@
         <v>293</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L74" s="14" t="s">
         <v>294</v>
@@ -4852,7 +4852,7 @@
         <v>98.0</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>295</v>
@@ -4861,7 +4861,7 @@
         <v>296</v>
       </c>
       <c r="E75" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F75" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Оффлайн")</f>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="H75" s="25"/>
       <c r="K75" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N75" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C75,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4889,7 +4889,7 @@
         <v>149.0</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>297</v>
@@ -4898,7 +4898,7 @@
         <v>298</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F76" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$169""),6,0),"""")"),"Доставка")</f>
@@ -4913,10 +4913,10 @@
         <v>299</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L76" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N76" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$172""),9,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -4932,16 +4932,16 @@
         <v>21.0</v>
       </c>
       <c r="B77" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="C77" s="42" t="s">
         <v>270</v>
-      </c>
-      <c r="C77" s="42" t="s">
-        <v>271</v>
       </c>
       <c r="D77" s="42" t="s">
         <v>300</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F77" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(C77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$C$2:$K$169""),4,0),"""")"),"Доставка")</f>
@@ -4959,7 +4959,7 @@
         <v>302</v>
       </c>
       <c r="K77" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L77" s="44" t="s">
         <v>303</v>
@@ -5004,7 +5004,7 @@
         <v>307</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M78" s="10" t="s">
         <v>134</v>
@@ -10299,13 +10299,13 @@
         <v>99</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M2" s="45" t="s">
         <v>304</v>
@@ -13434,13 +13434,13 @@
         <v>102.0</v>
       </c>
       <c r="B2" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="D2" s="42" t="s">
         <v>271</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>272</v>
       </c>
       <c r="E2" s="42" t="s">
         <v>335</v>
@@ -13452,7 +13452,7 @@
         <v>336</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
@@ -13469,7 +13469,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>317</v>
@@ -13616,7 +13616,7 @@
         <v>149.0</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>297</v>
@@ -13642,16 +13642,16 @@
         <v>21.0</v>
       </c>
       <c r="B10" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>270</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>271</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>300</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" s="55" t="s">
         <v>317</v>
